--- a/Documents/Targets&Planning.xlsx
+++ b/Documents/Targets&Planning.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BloggingRepositories\blogPosts\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{326A31FA-2937-41D7-8E52-17FF7FBF9CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA77F71-DA00-49FC-A95B-3068188EB0CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="15196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="15196" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="1" r:id="rId1"/>
+    <sheet name="Backlogs" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,19 +26,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Build a Gallery &amp; Lighthouse feature for vehicleMasti</t>
-  </si>
-  <si>
-    <t>Make loading page for both websites.</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>Targets</t>
+  </si>
+  <si>
+    <t>Spending Time</t>
+  </si>
+  <si>
+    <t>Developer Comments</t>
+  </si>
+  <si>
+    <t>Do backlink audit</t>
+  </si>
+  <si>
+    <t>2 Hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Build Backlinks atleast 20 </t>
+  </si>
+  <si>
+    <t>3 Hours</t>
+  </si>
+  <si>
+    <t>Backlogs</t>
+  </si>
+  <si>
+    <t>Build a gallery and lighthouse feature for VehicleMasti</t>
+  </si>
+  <si>
+    <t>Make loading screen for both the websites</t>
+  </si>
+  <si>
+    <t>Make Patel's Website upto date with VehicleMasti Blog</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,13 +76,56 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -66,10 +140,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -351,35 +443,308 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B8:D11"/>
+  <dimension ref="B2:V12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="J2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+    </row>
+    <row r="3" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+    </row>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="E5" s="3">
+        <v>45251</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="I5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="O5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="S5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+    </row>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="H8" s="5">
+        <v>1</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="O8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="C10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="C11" t="s">
+      <c r="H9" s="5"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+    </row>
+    <row r="10" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="H11" s="5">
+        <v>2</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="O11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="H12" s="5"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:M12"/>
+    <mergeCell ref="O11:Q12"/>
+    <mergeCell ref="J2:R3"/>
+    <mergeCell ref="E5:G6"/>
+    <mergeCell ref="I5:M6"/>
+    <mergeCell ref="O5:Q6"/>
+    <mergeCell ref="S5:V6"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:M9"/>
+    <mergeCell ref="O8:Q9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C6280AF-F913-4213-90F7-5D60D9FFA09E}">
+  <dimension ref="F2:Y12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="6:25" x14ac:dyDescent="0.45">
+      <c r="H2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="R2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+    </row>
+    <row r="3" spans="6:25" x14ac:dyDescent="0.45">
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+    </row>
+    <row r="5" spans="6:25" x14ac:dyDescent="0.45">
+      <c r="F5" s="7">
         <v>1</v>
       </c>
+      <c r="H5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+    </row>
+    <row r="6" spans="6:25" x14ac:dyDescent="0.45">
+      <c r="F6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+    </row>
+    <row r="8" spans="6:25" x14ac:dyDescent="0.45">
+      <c r="F8" s="7">
+        <v>2</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+    </row>
+    <row r="9" spans="6:25" x14ac:dyDescent="0.45">
+      <c r="F9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+    </row>
+    <row r="11" spans="6:25" x14ac:dyDescent="0.45">
+      <c r="F11" s="7">
+        <v>3</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+    </row>
+    <row r="12" spans="6:25" x14ac:dyDescent="0.45">
+      <c r="F12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="H11:P12"/>
+    <mergeCell ref="H2:P3"/>
+    <mergeCell ref="R2:Y3"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="H5:P6"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="H8:P9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Documents/Targets&Planning.xlsx
+++ b/Documents/Targets&Planning.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BloggingRepositories\blogPosts\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA77F71-DA00-49FC-A95B-3068188EB0CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41FAB564-1456-4B40-95F7-C843A652159E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="15196" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="15196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="1" r:id="rId1"/>
     <sheet name="Backlogs" sheetId="2" r:id="rId2"/>
+    <sheet name="Backlink_Audit" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>November</t>
   </si>
@@ -62,13 +63,31 @@
   </si>
   <si>
     <t>Make Patel's Website upto date with VehicleMasti Blog</t>
+  </si>
+  <si>
+    <t>Backlinks</t>
+  </si>
+  <si>
+    <t>https://www.dofollowwebsite.com/published</t>
+  </si>
+  <si>
+    <t>http://www.spectrumcommunications.ie/nortel-bcm-50450-end-of-life/#comment-236383</t>
+  </si>
+  <si>
+    <t>https://demcra.com/r/business/1146476_Tata_Safari_Facelift_2023_A_Closer_Look_Into_Modern_SUV</t>
+  </si>
+  <si>
+    <t>https://www.truelovetattoos.it/2016/12/26/add-videos-to-blog-posts/#comment-69235</t>
+  </si>
+  <si>
+    <t>smira.org.uk</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,6 +102,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -90,12 +116,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -127,6 +147,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -140,16 +166,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -157,11 +177,23 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="15" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -445,154 +477,164 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:V12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="2" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="J2" s="2" t="s">
+      <c r="I2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="E5" s="3">
+      <c r="E5" s="4">
         <v>45251</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="I5" s="4" t="s">
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="I5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="O5" s="4" t="s">
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="O5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="S5" s="4" t="s">
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="S5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="H8" s="5">
+      <c r="H8" s="2">
         <v>1</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="O8" s="6" t="s">
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="O8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
     </row>
     <row r="10" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="11" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="H11" s="5">
+      <c r="H11" s="2">
         <v>2</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="O11" s="6" t="s">
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="O11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="H12" s="5"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:M12"/>
-    <mergeCell ref="O11:Q12"/>
-    <mergeCell ref="J2:R3"/>
-    <mergeCell ref="E5:G6"/>
-    <mergeCell ref="I5:M6"/>
-    <mergeCell ref="O5:Q6"/>
     <mergeCell ref="S5:V6"/>
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="I8:M9"/>
     <mergeCell ref="O8:Q9"/>
+    <mergeCell ref="I2:V3"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:M12"/>
+    <mergeCell ref="O11:Q12"/>
+    <mergeCell ref="E5:G6"/>
+    <mergeCell ref="I5:M6"/>
+    <mergeCell ref="O5:Q6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -602,137 +644,137 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C6280AF-F913-4213-90F7-5D60D9FFA09E}">
   <dimension ref="F2:Y12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="2" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="R2" s="4" t="s">
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="R2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
     </row>
     <row r="3" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
     </row>
     <row r="5" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <v>1</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
     </row>
     <row r="6" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
+      <c r="F6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
     </row>
     <row r="8" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <v>2</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
     </row>
     <row r="9" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
+      <c r="F9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
     </row>
     <row r="11" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <v>3</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
     </row>
     <row r="12" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
+      <c r="F12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -747,4 +789,107 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37E2DAFF-6BFF-4CB8-B294-DE59EA805260}">
+  <dimension ref="C2:P12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="6.53125" customWidth="1"/>
+    <col min="6" max="6" width="9.06640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="J2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+    </row>
+    <row r="3" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+    </row>
+    <row r="5" spans="3:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+    </row>
+    <row r="6" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="C6" s="9"/>
+      <c r="F6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+    </row>
+    <row r="7" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="C7" s="9"/>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="C8" s="9"/>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="C9" s="9"/>
+    </row>
+    <row r="10" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="C10" s="9"/>
+    </row>
+    <row r="11" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="C12" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="J2:P3"/>
+    <mergeCell ref="F5:P5"/>
+    <mergeCell ref="F6:P6"/>
+    <mergeCell ref="C5:C12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Documents/Targets&Planning.xlsx
+++ b/Documents/Targets&Planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BloggingRepositories\blogPosts\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41FAB564-1456-4B40-95F7-C843A652159E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209BF799-DFED-4D67-A991-4BD8B5B82921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="15196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
   <si>
     <t>November</t>
   </si>
@@ -81,13 +81,49 @@
   </si>
   <si>
     <t>smira.org.uk</t>
+  </si>
+  <si>
+    <t>21, November, 2023, Tuesday</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>22,November,2023, Wednesday</t>
+  </si>
+  <si>
+    <t>Make loading screens for vehiclemasti</t>
+  </si>
+  <si>
+    <t>1 Hour</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Make loading screens for patel'sBlog &amp; Sync up with Vehicle Masti Blog</t>
+  </si>
+  <si>
+    <t>2 Hour</t>
+  </si>
+  <si>
+    <t>Desing &amp; Publish OG Images for all pages and websites</t>
+  </si>
+  <si>
+    <t>Create strong, outbound links &amp; inbound links inside blog post and publish the changes for both websites</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>This cannot be done, I tried but it was reflecting the perfromance of the whole webpage.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,8 +145,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -119,25 +169,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -153,6 +185,54 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE699"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD6DCE4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -166,27 +246,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -194,6 +262,37 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -475,166 +574,1109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:V12"/>
+  <dimension ref="D1:AA37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="G18" workbookViewId="0">
+      <selection activeCell="O39" sqref="O39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="I2" s="7" t="s">
+    <row r="1" spans="4:27" x14ac:dyDescent="0.45">
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6"/>
+    </row>
+    <row r="2" spans="4:27" x14ac:dyDescent="0.45">
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-    </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-    </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="E5" s="4">
-        <v>45251</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="I5" s="5" t="s">
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="6"/>
+    </row>
+    <row r="3" spans="4:27" x14ac:dyDescent="0.45">
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="6"/>
+    </row>
+    <row r="4" spans="4:27" x14ac:dyDescent="0.45">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
+    </row>
+    <row r="5" spans="4:27" x14ac:dyDescent="0.45">
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="O5" s="5" t="s">
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="S5" s="5" t="s">
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-    </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-    </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="H8" s="2">
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="6"/>
+    </row>
+    <row r="6" spans="4:27" x14ac:dyDescent="0.45">
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="6"/>
+    </row>
+    <row r="7" spans="4:27" x14ac:dyDescent="0.45">
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+    </row>
+    <row r="8" spans="4:27" x14ac:dyDescent="0.45">
+      <c r="D8" s="6"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="11">
         <v>1</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="L8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="O8" s="3" t="s">
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-    </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-    </row>
-    <row r="10" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="H11" s="2">
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="13"/>
+      <c r="AA8" s="6"/>
+    </row>
+    <row r="9" spans="4:27" x14ac:dyDescent="0.45">
+      <c r="D9" s="6"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="6"/>
+    </row>
+    <row r="10" spans="4:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6"/>
+    </row>
+    <row r="11" spans="4:27" x14ac:dyDescent="0.45">
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="11">
         <v>2</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="L11" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="O11" s="3" t="s">
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="H12" s="2"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="6"/>
+    </row>
+    <row r="12" spans="4:27" x14ac:dyDescent="0.45">
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="6"/>
+    </row>
+    <row r="13" spans="4:27" x14ac:dyDescent="0.45">
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+    </row>
+    <row r="14" spans="4:27" x14ac:dyDescent="0.45">
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="6"/>
+    </row>
+    <row r="15" spans="4:27" x14ac:dyDescent="0.45">
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="6"/>
+    </row>
+    <row r="16" spans="4:27" x14ac:dyDescent="0.45">
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+    </row>
+    <row r="17" spans="4:27" x14ac:dyDescent="0.45">
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="11">
+        <v>1</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="W17" s="13"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="13"/>
+      <c r="AA17" s="6"/>
+    </row>
+    <row r="18" spans="4:27" x14ac:dyDescent="0.45">
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="13"/>
+      <c r="AA18" s="6"/>
+    </row>
+    <row r="19" spans="4:27" x14ac:dyDescent="0.45">
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6"/>
+    </row>
+    <row r="20" spans="4:27" x14ac:dyDescent="0.45">
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="11">
+        <v>2</v>
+      </c>
+      <c r="L20" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="W20" s="13"/>
+      <c r="X20" s="13"/>
+      <c r="Y20" s="13"/>
+      <c r="Z20" s="13"/>
+      <c r="AA20" s="6"/>
+    </row>
+    <row r="21" spans="4:27" x14ac:dyDescent="0.45">
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="13"/>
+      <c r="W21" s="13"/>
+      <c r="X21" s="13"/>
+      <c r="Y21" s="13"/>
+      <c r="Z21" s="13"/>
+      <c r="AA21" s="6"/>
+    </row>
+    <row r="22" spans="4:27" x14ac:dyDescent="0.45">
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="6"/>
+      <c r="AA22" s="6"/>
+    </row>
+    <row r="23" spans="4:27" x14ac:dyDescent="0.45">
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="11">
+        <v>3</v>
+      </c>
+      <c r="L23" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="W23" s="14"/>
+      <c r="X23" s="14"/>
+      <c r="Y23" s="14"/>
+      <c r="Z23" s="14"/>
+      <c r="AA23" s="6"/>
+    </row>
+    <row r="24" spans="4:27" x14ac:dyDescent="0.45">
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="14"/>
+      <c r="W24" s="14"/>
+      <c r="X24" s="14"/>
+      <c r="Y24" s="14"/>
+      <c r="Z24" s="14"/>
+      <c r="AA24" s="6"/>
+    </row>
+    <row r="25" spans="4:27" x14ac:dyDescent="0.45">
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="6"/>
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="6"/>
+      <c r="AA25" s="6"/>
+    </row>
+    <row r="26" spans="4:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="11">
+        <v>4</v>
+      </c>
+      <c r="L26" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="W26" s="14"/>
+      <c r="X26" s="14"/>
+      <c r="Y26" s="14"/>
+      <c r="Z26" s="14"/>
+      <c r="AA26" s="6"/>
+    </row>
+    <row r="27" spans="4:27" x14ac:dyDescent="0.45">
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="14"/>
+      <c r="W27" s="14"/>
+      <c r="X27" s="14"/>
+      <c r="Y27" s="14"/>
+      <c r="Z27" s="14"/>
+      <c r="AA27" s="6"/>
+    </row>
+    <row r="28" spans="4:27" x14ac:dyDescent="0.45">
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="6"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="6"/>
+      <c r="X28" s="6"/>
+      <c r="Y28" s="6"/>
+      <c r="Z28" s="6"/>
+      <c r="AA28" s="6"/>
+    </row>
+    <row r="29" spans="4:27" x14ac:dyDescent="0.45">
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="11">
+        <v>5</v>
+      </c>
+      <c r="L29" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="S29" s="12"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="6"/>
+      <c r="V29" s="6"/>
+      <c r="W29" s="6"/>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="6"/>
+      <c r="Z29" s="6"/>
+      <c r="AA29" s="6"/>
+    </row>
+    <row r="30" spans="4:27" x14ac:dyDescent="0.45">
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="6"/>
+      <c r="V30" s="6"/>
+      <c r="W30" s="6"/>
+      <c r="X30" s="6"/>
+      <c r="Y30" s="6"/>
+      <c r="Z30" s="6"/>
+      <c r="AA30" s="6"/>
+    </row>
+    <row r="31" spans="4:27" x14ac:dyDescent="0.45">
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="6"/>
+      <c r="W31" s="6"/>
+      <c r="X31" s="6"/>
+      <c r="Y31" s="6"/>
+      <c r="Z31" s="6"/>
+      <c r="AA31" s="6"/>
+    </row>
+    <row r="32" spans="4:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="11">
+        <v>6</v>
+      </c>
+      <c r="L32" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="S32" s="12"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="6"/>
+      <c r="V32" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="W32" s="6"/>
+      <c r="X32" s="6"/>
+      <c r="Y32" s="6"/>
+      <c r="Z32" s="6"/>
+      <c r="AA32" s="6"/>
+    </row>
+    <row r="33" spans="4:27" x14ac:dyDescent="0.45">
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="12"/>
+      <c r="S33" s="12"/>
+      <c r="T33" s="12"/>
+      <c r="U33" s="6"/>
+      <c r="V33" s="6"/>
+      <c r="W33" s="6"/>
+      <c r="X33" s="6"/>
+      <c r="Y33" s="6"/>
+      <c r="Z33" s="6"/>
+      <c r="AA33" s="6"/>
+    </row>
+    <row r="34" spans="4:27" x14ac:dyDescent="0.45">
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6"/>
+      <c r="S34" s="6"/>
+      <c r="T34" s="6"/>
+      <c r="U34" s="6"/>
+      <c r="V34" s="6"/>
+      <c r="W34" s="6"/>
+      <c r="X34" s="6"/>
+      <c r="Y34" s="6"/>
+      <c r="Z34" s="6"/>
+      <c r="AA34" s="6"/>
+    </row>
+    <row r="35" spans="4:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="11">
+        <v>7</v>
+      </c>
+      <c r="L35" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="S35" s="12"/>
+      <c r="T35" s="12"/>
+      <c r="U35" s="6"/>
+      <c r="V35" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="W35" s="16"/>
+      <c r="X35" s="16"/>
+      <c r="Y35" s="16"/>
+      <c r="Z35" s="16"/>
+      <c r="AA35" s="6"/>
+    </row>
+    <row r="36" spans="4:27" x14ac:dyDescent="0.45">
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="15"/>
+      <c r="P36" s="15"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="12"/>
+      <c r="S36" s="12"/>
+      <c r="T36" s="12"/>
+      <c r="U36" s="6"/>
+      <c r="V36" s="16"/>
+      <c r="W36" s="16"/>
+      <c r="X36" s="16"/>
+      <c r="Y36" s="16"/>
+      <c r="Z36" s="16"/>
+      <c r="AA36" s="6"/>
+    </row>
+    <row r="37" spans="4:27" x14ac:dyDescent="0.45">
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="6"/>
+      <c r="S37" s="6"/>
+      <c r="T37" s="6"/>
+      <c r="U37" s="6"/>
+      <c r="V37" s="6"/>
+      <c r="W37" s="6"/>
+      <c r="X37" s="6"/>
+      <c r="Y37" s="6"/>
+      <c r="Z37" s="6"/>
+      <c r="AA37" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="S5:V6"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:M9"/>
-    <mergeCell ref="O8:Q9"/>
-    <mergeCell ref="I2:V3"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:M12"/>
-    <mergeCell ref="O11:Q12"/>
-    <mergeCell ref="E5:G6"/>
-    <mergeCell ref="I5:M6"/>
-    <mergeCell ref="O5:Q6"/>
+  <mergeCells count="43">
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="L35:P36"/>
+    <mergeCell ref="R35:T36"/>
+    <mergeCell ref="V35:Z36"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="L29:P30"/>
+    <mergeCell ref="R29:T30"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="L32:P33"/>
+    <mergeCell ref="R32:T33"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:P24"/>
+    <mergeCell ref="R23:T24"/>
+    <mergeCell ref="V23:Z24"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:P27"/>
+    <mergeCell ref="R26:T27"/>
+    <mergeCell ref="V26:Z27"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:P18"/>
+    <mergeCell ref="R17:T18"/>
+    <mergeCell ref="V17:Z18"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:P21"/>
+    <mergeCell ref="R20:T21"/>
+    <mergeCell ref="V20:Z21"/>
+    <mergeCell ref="R11:T12"/>
+    <mergeCell ref="V11:Z12"/>
+    <mergeCell ref="H14:J15"/>
+    <mergeCell ref="L14:P15"/>
+    <mergeCell ref="R14:T15"/>
+    <mergeCell ref="V14:Z15"/>
+    <mergeCell ref="H5:J6"/>
+    <mergeCell ref="L5:P6"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:P9"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:P12"/>
+    <mergeCell ref="H2:Z3"/>
+    <mergeCell ref="R5:T6"/>
+    <mergeCell ref="V5:Z6"/>
+    <mergeCell ref="R8:T9"/>
+    <mergeCell ref="V8:Z9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -645,136 +1687,136 @@
   <dimension ref="F2:Y12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="2" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="R2" s="5" t="s">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="R2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
     </row>
     <row r="3" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
     </row>
     <row r="5" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F5" s="6">
+      <c r="F5" s="3">
         <v>1</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
     </row>
     <row r="6" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
+      <c r="F6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
     </row>
     <row r="8" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F8" s="6">
+      <c r="F8" s="3">
         <v>2</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
     </row>
     <row r="9" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
+      <c r="F9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
     </row>
     <row r="11" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F11" s="6">
+      <c r="F11" s="3">
         <v>3</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
     </row>
     <row r="12" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
+      <c r="F12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -796,7 +1838,7 @@
   <dimension ref="C2:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -806,82 +1848,82 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
     </row>
     <row r="3" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
     </row>
     <row r="5" spans="3:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
     </row>
     <row r="6" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="C6" s="9"/>
-      <c r="F6" s="8" t="s">
+      <c r="C6" s="5"/>
+      <c r="F6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
     </row>
     <row r="7" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="C7" s="9"/>
+      <c r="C7" s="5"/>
       <c r="F7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="C8" s="9"/>
+      <c r="C8" s="5"/>
       <c r="F8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="C9" s="9"/>
+      <c r="C9" s="5"/>
     </row>
     <row r="10" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="C10" s="9"/>
+      <c r="C10" s="5"/>
     </row>
     <row r="11" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="C11" s="9"/>
+      <c r="C11" s="5"/>
     </row>
     <row r="12" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="C12" s="9"/>
+      <c r="C12" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Documents/Targets&Planning.xlsx
+++ b/Documents/Targets&Planning.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BloggingRepositories\blogPosts\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Blogging Website\blogPosts\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62EA0846-C5E4-462A-96A0-A854FEA8B0D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B5EE41-C76C-4573-8E83-151BD68052A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="15196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="36">
   <si>
     <t>November</t>
   </si>
@@ -123,13 +123,25 @@
   </si>
   <si>
     <t>Test &amp; Verify the Both Websites and make it to sync with one another</t>
+  </si>
+  <si>
+    <t>24,November,2023, Friday</t>
+  </si>
+  <si>
+    <t>Wasted</t>
+  </si>
+  <si>
+    <t>25,November,2023, Saturday</t>
+  </si>
+  <si>
+    <t>26,November,2023, Sunday</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,8 +177,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -239,6 +258,11 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -249,14 +273,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -265,15 +293,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -285,10 +304,16 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -300,8 +325,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -580,15 +609,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB53"/>
+  <dimension ref="A1:AB66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E33" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" topLeftCell="E45" workbookViewId="0">
+      <selection activeCell="H67" sqref="H67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -618,7 +647,7 @@
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -626,31 +655,31 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -658,29 +687,29 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -710,7 +739,7 @@
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -718,37 +747,37 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="10" t="s">
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
       <c r="Q5" s="1"/>
-      <c r="R5" s="10" t="s">
+      <c r="R5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
       <c r="U5" s="1"/>
-      <c r="V5" s="10" t="s">
+      <c r="V5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="10"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -756,29 +785,29 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
       <c r="Q6" s="1"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
       <c r="U6" s="1"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="10"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -808,7 +837,7 @@
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -819,34 +848,34 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="3">
+      <c r="K8" s="4">
         <v>1</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="L8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
       <c r="Q8" s="1"/>
-      <c r="R8" s="5" t="s">
+      <c r="R8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
       <c r="U8" s="1"/>
-      <c r="V8" s="8" t="s">
+      <c r="V8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="W8" s="8"/>
-      <c r="X8" s="8"/>
-      <c r="Y8" s="8"/>
-      <c r="Z8" s="8"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -857,26 +886,26 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
       <c r="Q9" s="1"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
       <c r="U9" s="1"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="8"/>
-      <c r="Y9" s="8"/>
-      <c r="Z9" s="8"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
     </row>
-    <row r="10" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -906,7 +935,7 @@
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -917,34 +946,34 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="3">
+      <c r="K11" s="4">
         <v>2</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="L11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
       <c r="Q11" s="1"/>
-      <c r="R11" s="5" t="s">
+      <c r="R11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
       <c r="U11" s="1"/>
-      <c r="V11" s="8" t="s">
+      <c r="V11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="W11" s="8"/>
-      <c r="X11" s="8"/>
-      <c r="Y11" s="8"/>
-      <c r="Z11" s="8"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -955,26 +984,26 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
       <c r="Q12" s="1"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
       <c r="U12" s="1"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="8"/>
-      <c r="X12" s="8"/>
-      <c r="Y12" s="8"/>
-      <c r="Z12" s="8"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1004,7 +1033,7 @@
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1012,37 +1041,37 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="10" t="s">
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
       <c r="Q14" s="1"/>
-      <c r="R14" s="10" t="s">
+      <c r="R14" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
       <c r="U14" s="1"/>
-      <c r="V14" s="10" t="s">
+      <c r="V14" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="W14" s="10"/>
-      <c r="X14" s="10"/>
-      <c r="Y14" s="10"/>
-      <c r="Z14" s="10"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1050,29 +1079,29 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
       <c r="Q15" s="1"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
       <c r="U15" s="1"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="10"/>
-      <c r="X15" s="10"/>
-      <c r="Y15" s="10"/>
-      <c r="Z15" s="10"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="8"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1102,7 +1131,7 @@
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1113,34 +1142,34 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="3">
+      <c r="K17" s="4">
         <v>1</v>
       </c>
-      <c r="L17" s="5" t="s">
+      <c r="L17" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
       <c r="Q17" s="1"/>
-      <c r="R17" s="5" t="s">
+      <c r="R17" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
       <c r="U17" s="1"/>
-      <c r="V17" s="8" t="s">
+      <c r="V17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="W17" s="8"/>
-      <c r="X17" s="8"/>
-      <c r="Y17" s="8"/>
-      <c r="Z17" s="8"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1151,26 +1180,26 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
       <c r="Q18" s="1"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
       <c r="U18" s="1"/>
-      <c r="V18" s="8"/>
-      <c r="W18" s="8"/>
-      <c r="X18" s="8"/>
-      <c r="Y18" s="8"/>
-      <c r="Z18" s="8"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1200,7 +1229,7 @@
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1211,34 +1240,34 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="3">
+      <c r="K20" s="4">
         <v>2</v>
       </c>
-      <c r="L20" s="5" t="s">
+      <c r="L20" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
       <c r="Q20" s="1"/>
-      <c r="R20" s="5" t="s">
+      <c r="R20" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
       <c r="U20" s="1"/>
-      <c r="V20" s="8" t="s">
+      <c r="V20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="W20" s="8"/>
-      <c r="X20" s="8"/>
-      <c r="Y20" s="8"/>
-      <c r="Z20" s="8"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1249,26 +1278,26 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
       <c r="Q21" s="1"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
       <c r="U21" s="1"/>
-      <c r="V21" s="8"/>
-      <c r="W21" s="8"/>
-      <c r="X21" s="8"/>
-      <c r="Y21" s="8"/>
-      <c r="Z21" s="8"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1298,7 +1327,7 @@
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1309,34 +1338,34 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
-      <c r="K23" s="3">
+      <c r="K23" s="4">
         <v>3</v>
       </c>
-      <c r="L23" s="5" t="s">
+      <c r="L23" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
       <c r="Q23" s="1"/>
-      <c r="R23" s="5" t="s">
+      <c r="R23" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
       <c r="U23" s="1"/>
-      <c r="V23" s="7" t="s">
+      <c r="V23" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="W23" s="7"/>
-      <c r="X23" s="7"/>
-      <c r="Y23" s="7"/>
-      <c r="Z23" s="7"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="10"/>
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1347,26 +1376,26 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
       <c r="Q24" s="1"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
       <c r="U24" s="1"/>
-      <c r="V24" s="7"/>
-      <c r="W24" s="7"/>
-      <c r="X24" s="7"/>
-      <c r="Y24" s="7"/>
-      <c r="Z24" s="7"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="10"/>
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1396,7 +1425,7 @@
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
     </row>
-    <row r="26" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1407,34 +1436,34 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="3">
+      <c r="K26" s="4">
         <v>4</v>
       </c>
-      <c r="L26" s="4" t="s">
+      <c r="L26" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
       <c r="Q26" s="1"/>
-      <c r="R26" s="5" t="s">
+      <c r="R26" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
       <c r="U26" s="1"/>
-      <c r="V26" s="7" t="s">
+      <c r="V26" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="W26" s="7"/>
-      <c r="X26" s="7"/>
-      <c r="Y26" s="7"/>
-      <c r="Z26" s="7"/>
+      <c r="W26" s="10"/>
+      <c r="X26" s="10"/>
+      <c r="Y26" s="10"/>
+      <c r="Z26" s="10"/>
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1445,26 +1474,26 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
       <c r="Q27" s="1"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
       <c r="U27" s="1"/>
-      <c r="V27" s="7"/>
-      <c r="W27" s="7"/>
-      <c r="X27" s="7"/>
-      <c r="Y27" s="7"/>
-      <c r="Z27" s="7"/>
+      <c r="V27" s="10"/>
+      <c r="W27" s="10"/>
+      <c r="X27" s="10"/>
+      <c r="Y27" s="10"/>
+      <c r="Z27" s="10"/>
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1494,7 +1523,7 @@
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1505,34 +1534,34 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
-      <c r="K29" s="3">
+      <c r="K29" s="4">
         <v>5</v>
       </c>
-      <c r="L29" s="4" t="s">
+      <c r="L29" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
       <c r="Q29" s="1"/>
-      <c r="R29" s="5" t="s">
+      <c r="R29" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
       <c r="U29" s="1"/>
-      <c r="V29" s="7" t="s">
+      <c r="V29" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="W29" s="7"/>
-      <c r="X29" s="7"/>
-      <c r="Y29" s="7"/>
-      <c r="Z29" s="7"/>
+      <c r="W29" s="10"/>
+      <c r="X29" s="10"/>
+      <c r="Y29" s="10"/>
+      <c r="Z29" s="10"/>
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1543,26 +1572,26 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
       <c r="Q30" s="1"/>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="6"/>
       <c r="U30" s="1"/>
-      <c r="V30" s="7"/>
-      <c r="W30" s="7"/>
-      <c r="X30" s="7"/>
-      <c r="Y30" s="7"/>
-      <c r="Z30" s="7"/>
+      <c r="V30" s="10"/>
+      <c r="W30" s="10"/>
+      <c r="X30" s="10"/>
+      <c r="Y30" s="10"/>
+      <c r="Z30" s="10"/>
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1592,7 +1621,7 @@
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
     </row>
-    <row r="32" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1603,34 +1632,34 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
-      <c r="K32" s="3">
+      <c r="K32" s="4">
         <v>6</v>
       </c>
-      <c r="L32" s="4" t="s">
+      <c r="L32" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
       <c r="Q32" s="1"/>
-      <c r="R32" s="5" t="s">
+      <c r="R32" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
+      <c r="S32" s="6"/>
+      <c r="T32" s="6"/>
       <c r="U32" s="1"/>
-      <c r="V32" s="8" t="s">
+      <c r="V32" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="W32" s="8"/>
-      <c r="X32" s="8"/>
-      <c r="Y32" s="8"/>
-      <c r="Z32" s="8"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3"/>
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1641,26 +1670,26 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
       <c r="Q33" s="1"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6"/>
+      <c r="T33" s="6"/>
       <c r="U33" s="1"/>
-      <c r="V33" s="8"/>
-      <c r="W33" s="8"/>
-      <c r="X33" s="8"/>
-      <c r="Y33" s="8"/>
-      <c r="Z33" s="8"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1690,7 +1719,7 @@
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
     </row>
-    <row r="35" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1701,34 +1730,34 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
-      <c r="K35" s="3">
+      <c r="K35" s="4">
         <v>7</v>
       </c>
-      <c r="L35" s="4" t="s">
+      <c r="L35" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
       <c r="Q35" s="1"/>
-      <c r="R35" s="5" t="s">
+      <c r="R35" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="S35" s="5"/>
-      <c r="T35" s="5"/>
+      <c r="S35" s="6"/>
+      <c r="T35" s="6"/>
       <c r="U35" s="1"/>
-      <c r="V35" s="6" t="s">
+      <c r="V35" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="W35" s="6"/>
-      <c r="X35" s="6"/>
-      <c r="Y35" s="6"/>
-      <c r="Z35" s="6"/>
+      <c r="W35" s="11"/>
+      <c r="X35" s="11"/>
+      <c r="Y35" s="11"/>
+      <c r="Z35" s="11"/>
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1739,26 +1768,26 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
       <c r="Q36" s="1"/>
-      <c r="R36" s="5"/>
-      <c r="S36" s="5"/>
-      <c r="T36" s="5"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="6"/>
+      <c r="T36" s="6"/>
       <c r="U36" s="1"/>
-      <c r="V36" s="6"/>
-      <c r="W36" s="6"/>
-      <c r="X36" s="6"/>
-      <c r="Y36" s="6"/>
-      <c r="Z36" s="6"/>
+      <c r="V36" s="11"/>
+      <c r="W36" s="11"/>
+      <c r="X36" s="11"/>
+      <c r="Y36" s="11"/>
+      <c r="Z36" s="11"/>
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1788,7 +1817,7 @@
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1796,37 +1825,37 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="9" t="s">
+      <c r="H38" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="10" t="s">
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
       <c r="Q38" s="1"/>
-      <c r="R38" s="10" t="s">
+      <c r="R38" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="S38" s="10"/>
-      <c r="T38" s="10"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
       <c r="U38" s="1"/>
-      <c r="V38" s="10" t="s">
+      <c r="V38" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="W38" s="10"/>
-      <c r="X38" s="10"/>
-      <c r="Y38" s="10"/>
-      <c r="Z38" s="10"/>
+      <c r="W38" s="8"/>
+      <c r="X38" s="8"/>
+      <c r="Y38" s="8"/>
+      <c r="Z38" s="8"/>
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1834,29 +1863,29 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
       <c r="Q39" s="1"/>
-      <c r="R39" s="10"/>
-      <c r="S39" s="10"/>
-      <c r="T39" s="10"/>
+      <c r="R39" s="8"/>
+      <c r="S39" s="8"/>
+      <c r="T39" s="8"/>
       <c r="U39" s="1"/>
-      <c r="V39" s="10"/>
-      <c r="W39" s="10"/>
-      <c r="X39" s="10"/>
-      <c r="Y39" s="10"/>
-      <c r="Z39" s="10"/>
+      <c r="V39" s="8"/>
+      <c r="W39" s="8"/>
+      <c r="X39" s="8"/>
+      <c r="Y39" s="8"/>
+      <c r="Z39" s="8"/>
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1886,7 +1915,7 @@
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1897,34 +1926,34 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
-      <c r="K41" s="3">
+      <c r="K41" s="4">
         <v>1</v>
       </c>
-      <c r="L41" s="5" t="s">
+      <c r="L41" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="5"/>
-      <c r="P41" s="5"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
       <c r="Q41" s="1"/>
-      <c r="R41" s="5" t="s">
+      <c r="R41" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="S41" s="5"/>
-      <c r="T41" s="5"/>
+      <c r="S41" s="6"/>
+      <c r="T41" s="6"/>
       <c r="U41" s="1"/>
-      <c r="V41" s="8" t="s">
+      <c r="V41" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="W41" s="8"/>
-      <c r="X41" s="8"/>
-      <c r="Y41" s="8"/>
-      <c r="Z41" s="8"/>
+      <c r="W41" s="3"/>
+      <c r="X41" s="3"/>
+      <c r="Y41" s="3"/>
+      <c r="Z41" s="3"/>
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1935,26 +1964,26 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
-      <c r="N42" s="5"/>
-      <c r="O42" s="5"/>
-      <c r="P42" s="5"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
       <c r="Q42" s="1"/>
-      <c r="R42" s="5"/>
-      <c r="S42" s="5"/>
-      <c r="T42" s="5"/>
+      <c r="R42" s="6"/>
+      <c r="S42" s="6"/>
+      <c r="T42" s="6"/>
       <c r="U42" s="1"/>
-      <c r="V42" s="8"/>
-      <c r="W42" s="8"/>
-      <c r="X42" s="8"/>
-      <c r="Y42" s="8"/>
-      <c r="Z42" s="8"/>
+      <c r="V42" s="3"/>
+      <c r="W42" s="3"/>
+      <c r="X42" s="3"/>
+      <c r="Y42" s="3"/>
+      <c r="Z42" s="3"/>
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1984,7 +2013,7 @@
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1995,34 +2024,34 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
-      <c r="K44" s="3">
+      <c r="K44" s="4">
         <v>2</v>
       </c>
-      <c r="L44" s="5" t="s">
+      <c r="L44" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
-      <c r="P44" s="5"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
       <c r="Q44" s="1"/>
-      <c r="R44" s="5" t="s">
+      <c r="R44" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="S44" s="5"/>
-      <c r="T44" s="5"/>
+      <c r="S44" s="6"/>
+      <c r="T44" s="6"/>
       <c r="U44" s="1"/>
-      <c r="V44" s="8" t="s">
+      <c r="V44" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="W44" s="8"/>
-      <c r="X44" s="8"/>
-      <c r="Y44" s="8"/>
-      <c r="Z44" s="8"/>
+      <c r="W44" s="3"/>
+      <c r="X44" s="3"/>
+      <c r="Y44" s="3"/>
+      <c r="Z44" s="3"/>
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2033,26 +2062,26 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
-      <c r="N45" s="5"/>
-      <c r="O45" s="5"/>
-      <c r="P45" s="5"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
+      <c r="P45" s="6"/>
       <c r="Q45" s="1"/>
-      <c r="R45" s="5"/>
-      <c r="S45" s="5"/>
-      <c r="T45" s="5"/>
+      <c r="R45" s="6"/>
+      <c r="S45" s="6"/>
+      <c r="T45" s="6"/>
       <c r="U45" s="1"/>
-      <c r="V45" s="8"/>
-      <c r="W45" s="8"/>
-      <c r="X45" s="8"/>
-      <c r="Y45" s="8"/>
-      <c r="Z45" s="8"/>
+      <c r="V45" s="3"/>
+      <c r="W45" s="3"/>
+      <c r="X45" s="3"/>
+      <c r="Y45" s="3"/>
+      <c r="Z45" s="3"/>
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -2082,7 +2111,7 @@
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
     </row>
-    <row r="47" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2093,34 +2122,34 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
-      <c r="K47" s="3">
+      <c r="K47" s="4">
         <v>3</v>
       </c>
-      <c r="L47" s="4" t="s">
+      <c r="L47" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="M47" s="4"/>
-      <c r="N47" s="4"/>
-      <c r="O47" s="4"/>
-      <c r="P47" s="4"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
       <c r="Q47" s="1"/>
-      <c r="R47" s="5" t="s">
+      <c r="R47" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="S47" s="5"/>
-      <c r="T47" s="5"/>
+      <c r="S47" s="6"/>
+      <c r="T47" s="6"/>
       <c r="U47" s="1"/>
-      <c r="V47" s="8" t="s">
+      <c r="V47" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="W47" s="8"/>
-      <c r="X47" s="8"/>
-      <c r="Y47" s="8"/>
-      <c r="Z47" s="8"/>
+      <c r="W47" s="3"/>
+      <c r="X47" s="3"/>
+      <c r="Y47" s="3"/>
+      <c r="Z47" s="3"/>
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2131,26 +2160,26 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="4"/>
-      <c r="N48" s="4"/>
-      <c r="O48" s="4"/>
-      <c r="P48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="5"/>
       <c r="Q48" s="1"/>
-      <c r="R48" s="5"/>
-      <c r="S48" s="5"/>
-      <c r="T48" s="5"/>
+      <c r="R48" s="6"/>
+      <c r="S48" s="6"/>
+      <c r="T48" s="6"/>
       <c r="U48" s="1"/>
-      <c r="V48" s="8"/>
-      <c r="W48" s="8"/>
-      <c r="X48" s="8"/>
-      <c r="Y48" s="8"/>
-      <c r="Z48" s="8"/>
+      <c r="V48" s="3"/>
+      <c r="W48" s="3"/>
+      <c r="X48" s="3"/>
+      <c r="Y48" s="3"/>
+      <c r="Z48" s="3"/>
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2180,7 +2209,7 @@
       <c r="AA49" s="1"/>
       <c r="AB49" s="1"/>
     </row>
-    <row r="50" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2191,34 +2220,34 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
-      <c r="K50" s="3">
+      <c r="K50" s="4">
         <v>4</v>
       </c>
-      <c r="L50" s="4" t="s">
+      <c r="L50" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="M50" s="4"/>
-      <c r="N50" s="4"/>
-      <c r="O50" s="4"/>
-      <c r="P50" s="4"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="5"/>
+      <c r="P50" s="5"/>
       <c r="Q50" s="1"/>
-      <c r="R50" s="5" t="s">
+      <c r="R50" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="S50" s="5"/>
-      <c r="T50" s="5"/>
+      <c r="S50" s="6"/>
+      <c r="T50" s="6"/>
       <c r="U50" s="1"/>
-      <c r="V50" s="8" t="s">
+      <c r="V50" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="W50" s="8"/>
-      <c r="X50" s="8"/>
-      <c r="Y50" s="8"/>
-      <c r="Z50" s="8"/>
+      <c r="W50" s="3"/>
+      <c r="X50" s="3"/>
+      <c r="Y50" s="3"/>
+      <c r="Z50" s="3"/>
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2229,26 +2258,26 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="4"/>
-      <c r="M51" s="4"/>
-      <c r="N51" s="4"/>
-      <c r="O51" s="4"/>
-      <c r="P51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="5"/>
+      <c r="P51" s="5"/>
       <c r="Q51" s="1"/>
-      <c r="R51" s="5"/>
-      <c r="S51" s="5"/>
-      <c r="T51" s="5"/>
+      <c r="R51" s="6"/>
+      <c r="S51" s="6"/>
+      <c r="T51" s="6"/>
       <c r="U51" s="1"/>
-      <c r="V51" s="8"/>
-      <c r="W51" s="8"/>
-      <c r="X51" s="8"/>
-      <c r="Y51" s="8"/>
-      <c r="Z51" s="8"/>
+      <c r="V51" s="3"/>
+      <c r="W51" s="3"/>
+      <c r="X51" s="3"/>
+      <c r="Y51" s="3"/>
+      <c r="Z51" s="3"/>
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2278,7 +2307,7 @@
       <c r="AA52" s="1"/>
       <c r="AB52" s="1"/>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2286,77 +2315,261 @@
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-      <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
-      <c r="O53" s="1"/>
-      <c r="P53" s="1"/>
+      <c r="H53" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="M53" s="8"/>
+      <c r="N53" s="8"/>
+      <c r="O53" s="8"/>
+      <c r="P53" s="8"/>
       <c r="Q53" s="1"/>
-      <c r="R53" s="1"/>
-      <c r="S53" s="1"/>
-      <c r="T53" s="1"/>
+      <c r="R53" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="S53" s="8"/>
+      <c r="T53" s="8"/>
       <c r="U53" s="1"/>
-      <c r="V53" s="1"/>
-      <c r="W53" s="1"/>
-      <c r="X53" s="1"/>
-      <c r="Y53" s="1"/>
-      <c r="Z53" s="1"/>
+      <c r="V53" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="W53" s="8"/>
+      <c r="X53" s="8"/>
+      <c r="Y53" s="8"/>
+      <c r="Z53" s="8"/>
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
     </row>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="8"/>
+      <c r="N54" s="8"/>
+      <c r="O54" s="8"/>
+      <c r="P54" s="8"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="8"/>
+      <c r="S54" s="8"/>
+      <c r="T54" s="8"/>
+      <c r="U54" s="1"/>
+      <c r="V54" s="8"/>
+      <c r="W54" s="8"/>
+      <c r="X54" s="8"/>
+      <c r="Y54" s="8"/>
+      <c r="Z54" s="8"/>
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="H56" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I56" s="17"/>
+      <c r="J56" s="17"/>
+      <c r="K56" s="17"/>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="17"/>
+      <c r="O56" s="17"/>
+      <c r="P56" s="17"/>
+      <c r="Q56" s="17"/>
+      <c r="R56" s="17"/>
+      <c r="S56" s="17"/>
+      <c r="T56" s="17"/>
+      <c r="U56" s="17"/>
+      <c r="V56" s="17"/>
+      <c r="W56" s="17"/>
+      <c r="X56" s="17"/>
+      <c r="Y56" s="17"/>
+      <c r="Z56" s="17"/>
+    </row>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="H57" s="17"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="17"/>
+      <c r="K57" s="17"/>
+      <c r="L57" s="17"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="17"/>
+      <c r="O57" s="17"/>
+      <c r="P57" s="17"/>
+      <c r="Q57" s="17"/>
+      <c r="R57" s="17"/>
+      <c r="S57" s="17"/>
+      <c r="T57" s="17"/>
+      <c r="U57" s="17"/>
+      <c r="V57" s="17"/>
+      <c r="W57" s="17"/>
+      <c r="X57" s="17"/>
+      <c r="Y57" s="17"/>
+      <c r="Z57" s="17"/>
+    </row>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="H59" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="M59" s="8"/>
+      <c r="N59" s="8"/>
+      <c r="O59" s="8"/>
+      <c r="P59" s="8"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="S59" s="8"/>
+      <c r="T59" s="8"/>
+      <c r="U59" s="1"/>
+      <c r="V59" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="W59" s="8"/>
+      <c r="X59" s="8"/>
+      <c r="Y59" s="8"/>
+      <c r="Z59" s="8"/>
+    </row>
+    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="8"/>
+      <c r="M60" s="8"/>
+      <c r="N60" s="8"/>
+      <c r="O60" s="8"/>
+      <c r="P60" s="8"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="8"/>
+      <c r="S60" s="8"/>
+      <c r="T60" s="8"/>
+      <c r="U60" s="1"/>
+      <c r="V60" s="8"/>
+      <c r="W60" s="8"/>
+      <c r="X60" s="8"/>
+      <c r="Y60" s="8"/>
+      <c r="Z60" s="8"/>
+    </row>
+    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="H62" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I62" s="17"/>
+      <c r="J62" s="17"/>
+      <c r="K62" s="17"/>
+      <c r="L62" s="17"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="17"/>
+      <c r="O62" s="17"/>
+      <c r="P62" s="17"/>
+      <c r="Q62" s="17"/>
+      <c r="R62" s="17"/>
+      <c r="S62" s="17"/>
+      <c r="T62" s="17"/>
+      <c r="U62" s="17"/>
+      <c r="V62" s="17"/>
+      <c r="W62" s="17"/>
+      <c r="X62" s="17"/>
+      <c r="Y62" s="17"/>
+      <c r="Z62" s="17"/>
+    </row>
+    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="H63" s="17"/>
+      <c r="I63" s="17"/>
+      <c r="J63" s="17"/>
+      <c r="K63" s="17"/>
+      <c r="L63" s="17"/>
+      <c r="M63" s="17"/>
+      <c r="N63" s="17"/>
+      <c r="O63" s="17"/>
+      <c r="P63" s="17"/>
+      <c r="Q63" s="17"/>
+      <c r="R63" s="17"/>
+      <c r="S63" s="17"/>
+      <c r="T63" s="17"/>
+      <c r="U63" s="17"/>
+      <c r="V63" s="17"/>
+      <c r="W63" s="17"/>
+      <c r="X63" s="17"/>
+      <c r="Y63" s="17"/>
+      <c r="Z63" s="17"/>
+    </row>
+    <row r="65" spans="8:26" x14ac:dyDescent="0.25">
+      <c r="H65" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="M65" s="8"/>
+      <c r="N65" s="8"/>
+      <c r="O65" s="8"/>
+      <c r="P65" s="8"/>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="S65" s="8"/>
+      <c r="T65" s="8"/>
+      <c r="U65" s="1"/>
+      <c r="V65" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="W65" s="8"/>
+      <c r="X65" s="8"/>
+      <c r="Y65" s="8"/>
+      <c r="Z65" s="8"/>
+    </row>
+    <row r="66" spans="8:26" x14ac:dyDescent="0.25">
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="7"/>
+      <c r="L66" s="8"/>
+      <c r="M66" s="8"/>
+      <c r="N66" s="8"/>
+      <c r="O66" s="8"/>
+      <c r="P66" s="8"/>
+      <c r="Q66" s="1"/>
+      <c r="R66" s="8"/>
+      <c r="S66" s="8"/>
+      <c r="T66" s="8"/>
+      <c r="U66" s="1"/>
+      <c r="V66" s="8"/>
+      <c r="W66" s="8"/>
+      <c r="X66" s="8"/>
+      <c r="Y66" s="8"/>
+      <c r="Z66" s="8"/>
+    </row>
   </sheetData>
-  <mergeCells count="65">
-    <mergeCell ref="V50:Z51"/>
-    <mergeCell ref="V44:Z45"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="L47:P48"/>
-    <mergeCell ref="R47:T48"/>
-    <mergeCell ref="V47:Z48"/>
-    <mergeCell ref="H38:J39"/>
-    <mergeCell ref="L38:P39"/>
-    <mergeCell ref="R38:T39"/>
-    <mergeCell ref="V38:Z39"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="L41:P42"/>
-    <mergeCell ref="R41:T42"/>
-    <mergeCell ref="V41:Z42"/>
-    <mergeCell ref="H2:Z3"/>
-    <mergeCell ref="R5:T6"/>
-    <mergeCell ref="V5:Z6"/>
-    <mergeCell ref="R8:T9"/>
-    <mergeCell ref="V8:Z9"/>
-    <mergeCell ref="H5:J6"/>
-    <mergeCell ref="L5:P6"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:P9"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:P12"/>
-    <mergeCell ref="R11:T12"/>
-    <mergeCell ref="V11:Z12"/>
-    <mergeCell ref="H14:J15"/>
-    <mergeCell ref="L14:P15"/>
-    <mergeCell ref="R14:T15"/>
-    <mergeCell ref="V14:Z15"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="L17:P18"/>
-    <mergeCell ref="R17:T18"/>
-    <mergeCell ref="V17:Z18"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:P21"/>
-    <mergeCell ref="R20:T21"/>
-    <mergeCell ref="V20:Z21"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="L23:P24"/>
-    <mergeCell ref="R23:T24"/>
-    <mergeCell ref="V23:Z24"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:P27"/>
-    <mergeCell ref="R26:T27"/>
-    <mergeCell ref="V26:Z27"/>
+  <mergeCells count="79">
+    <mergeCell ref="L65:P66"/>
+    <mergeCell ref="R65:T66"/>
+    <mergeCell ref="V65:Z66"/>
+    <mergeCell ref="H56:Z57"/>
+    <mergeCell ref="H59:K60"/>
+    <mergeCell ref="H62:Z63"/>
+    <mergeCell ref="H65:K66"/>
+    <mergeCell ref="L59:P60"/>
+    <mergeCell ref="R59:T60"/>
+    <mergeCell ref="V59:Z60"/>
+    <mergeCell ref="H53:K54"/>
+    <mergeCell ref="L53:P54"/>
+    <mergeCell ref="R53:T54"/>
+    <mergeCell ref="V53:Z54"/>
     <mergeCell ref="V35:Z36"/>
     <mergeCell ref="K29:K30"/>
     <mergeCell ref="L29:P30"/>
@@ -2366,12 +2579,59 @@
     <mergeCell ref="R32:T33"/>
     <mergeCell ref="V29:Z30"/>
     <mergeCell ref="V32:Z33"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="L35:P36"/>
+    <mergeCell ref="R35:T36"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:P24"/>
+    <mergeCell ref="R23:T24"/>
+    <mergeCell ref="V23:Z24"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:P27"/>
+    <mergeCell ref="R26:T27"/>
+    <mergeCell ref="V26:Z27"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:P18"/>
+    <mergeCell ref="R17:T18"/>
+    <mergeCell ref="V17:Z18"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:P21"/>
+    <mergeCell ref="R20:T21"/>
+    <mergeCell ref="V20:Z21"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:P12"/>
+    <mergeCell ref="R11:T12"/>
+    <mergeCell ref="V11:Z12"/>
+    <mergeCell ref="L14:P15"/>
+    <mergeCell ref="R14:T15"/>
+    <mergeCell ref="V14:Z15"/>
+    <mergeCell ref="H14:K15"/>
+    <mergeCell ref="H2:Z3"/>
+    <mergeCell ref="R5:T6"/>
+    <mergeCell ref="V5:Z6"/>
+    <mergeCell ref="R8:T9"/>
+    <mergeCell ref="V8:Z9"/>
+    <mergeCell ref="L5:P6"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:P9"/>
+    <mergeCell ref="H5:K6"/>
+    <mergeCell ref="L38:P39"/>
+    <mergeCell ref="R38:T39"/>
+    <mergeCell ref="V38:Z39"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="L41:P42"/>
+    <mergeCell ref="R41:T42"/>
+    <mergeCell ref="V41:Z42"/>
+    <mergeCell ref="H38:K39"/>
+    <mergeCell ref="V50:Z51"/>
+    <mergeCell ref="V44:Z45"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="L47:P48"/>
+    <mergeCell ref="R47:T48"/>
+    <mergeCell ref="V47:Z48"/>
     <mergeCell ref="K50:K51"/>
     <mergeCell ref="L50:P51"/>
     <mergeCell ref="R50:T51"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="L35:P36"/>
-    <mergeCell ref="R35:T36"/>
     <mergeCell ref="K44:K45"/>
     <mergeCell ref="L44:P45"/>
     <mergeCell ref="R44:T45"/>
@@ -2388,174 +2648,174 @@
       <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="H2" s="13" t="s">
+    <row r="2" spans="6:25" x14ac:dyDescent="0.25">
+      <c r="H2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="R2" s="13" t="s">
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="R2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
-    </row>
-    <row r="3" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="13"/>
-    </row>
-    <row r="5" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F5" s="12">
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+    </row>
+    <row r="3" spans="6:25" x14ac:dyDescent="0.25">
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+    </row>
+    <row r="5" spans="6:25" x14ac:dyDescent="0.25">
+      <c r="F5" s="13">
         <v>1</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-    </row>
-    <row r="6" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-    </row>
-    <row r="8" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F8" s="12">
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+    </row>
+    <row r="6" spans="6:25" x14ac:dyDescent="0.25">
+      <c r="F6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+    </row>
+    <row r="8" spans="6:25" x14ac:dyDescent="0.25">
+      <c r="F8" s="13">
         <v>2</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-    </row>
-    <row r="9" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-    </row>
-    <row r="11" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F11" s="12">
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+    </row>
+    <row r="9" spans="6:25" x14ac:dyDescent="0.25">
+      <c r="F9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+    </row>
+    <row r="11" spans="6:25" x14ac:dyDescent="0.25">
+      <c r="F11" s="13">
         <v>3</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-    </row>
-    <row r="12" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-    </row>
-    <row r="14" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F14" s="12">
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+    </row>
+    <row r="12" spans="6:25" x14ac:dyDescent="0.25">
+      <c r="F12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+    </row>
+    <row r="14" spans="6:25" x14ac:dyDescent="0.25">
+      <c r="F14" s="13">
         <v>4</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-    </row>
-    <row r="15" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+    </row>
+    <row r="15" spans="6:25" x14ac:dyDescent="0.25">
+      <c r="F15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="H14:P15"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="H11:P12"/>
+    <mergeCell ref="H2:P3"/>
     <mergeCell ref="R2:Y3"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="H5:P6"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="H8:P9"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="H14:P15"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="H11:P12"/>
-    <mergeCell ref="H2:P3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2569,13 +2829,13 @@
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="6.53125" customWidth="1"/>
-    <col min="6" max="6" width="9.06640625" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="2" spans="3:16" x14ac:dyDescent="0.25">
       <c r="J2" s="14" t="s">
         <v>12</v>
       </c>
@@ -2586,7 +2846,7 @@
       <c r="O2" s="14"/>
       <c r="P2" s="14"/>
     </row>
-    <row r="3" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="3" spans="3:16" x14ac:dyDescent="0.25">
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
@@ -2595,7 +2855,7 @@
       <c r="O3" s="14"/>
       <c r="P3" s="14"/>
     </row>
-    <row r="5" spans="3:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="3:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="16" t="s">
         <v>17</v>
       </c>
@@ -2613,7 +2873,7 @@
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
     </row>
-    <row r="6" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="6" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C6" s="16"/>
       <c r="F6" s="15" t="s">
         <v>14</v>
@@ -2629,28 +2889,28 @@
       <c r="O6" s="15"/>
       <c r="P6" s="15"/>
     </row>
-    <row r="7" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C7" s="16"/>
       <c r="F7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C8" s="16"/>
       <c r="F8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C9" s="16"/>
     </row>
-    <row r="10" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C10" s="16"/>
     </row>
-    <row r="11" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="11" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C11" s="16"/>
     </row>
-    <row r="12" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="12" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C12" s="16"/>
     </row>
   </sheetData>

--- a/Documents/Targets&Planning.xlsx
+++ b/Documents/Targets&Planning.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Blogging Website\blogPosts\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BloggingRepositories\blogPosts\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B5EE41-C76C-4573-8E83-151BD68052A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE27DEB-5BD3-4601-9D3C-E7F1586C6670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="15196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="48">
   <si>
     <t>November</t>
   </si>
@@ -135,13 +135,49 @@
   </si>
   <si>
     <t>26,November,2023, Sunday</t>
+  </si>
+  <si>
+    <t>27,November,2023, Monday</t>
+  </si>
+  <si>
+    <t>Spend atleast 2 hour on Video Scripts &amp; Editing</t>
+  </si>
+  <si>
+    <t>Spend atleast 2 hour on Article Writing</t>
+  </si>
+  <si>
+    <t>Go to GYM</t>
+  </si>
+  <si>
+    <t>1.5 Hour</t>
+  </si>
+  <si>
+    <t>Daily Routines</t>
+  </si>
+  <si>
+    <t>Build 25 Backlinks For Both Patel's &amp; VehicleMasti Blog</t>
+  </si>
+  <si>
+    <t>Read at least 10 pages from selected books</t>
+  </si>
+  <si>
+    <t>Half-an-Hour</t>
+  </si>
+  <si>
+    <t>Daily Tasks</t>
+  </si>
+  <si>
+    <t>Daily Routine Taks One</t>
+  </si>
+  <si>
+    <t>Day 1 of 75</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,8 +220,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -263,6 +306,16 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -273,35 +326,37 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -309,6 +364,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -325,12 +383,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Accent5" xfId="3" builtinId="45"/>
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -609,15 +676,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB66"/>
+  <dimension ref="A1:AB104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E45" workbookViewId="0">
-      <selection activeCell="H67" sqref="H67"/>
+    <sheetView tabSelected="1" topLeftCell="F77" workbookViewId="0">
+      <selection activeCell="M100" sqref="M100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -647,7 +714,7 @@
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -655,31 +722,31 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -687,29 +754,29 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="9"/>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="9"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -739,7 +806,7 @@
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -747,12 +814,12 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
       <c r="L5" s="8" t="s">
         <v>1</v>
       </c>
@@ -777,7 +844,7 @@
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -785,10 +852,10 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
@@ -807,7 +874,7 @@
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -837,7 +904,7 @@
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -848,34 +915,34 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="4">
+      <c r="K8" s="3">
         <v>1</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="L8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
       <c r="Q8" s="1"/>
-      <c r="R8" s="6" t="s">
+      <c r="R8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
       <c r="U8" s="1"/>
-      <c r="V8" s="3" t="s">
+      <c r="V8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -886,26 +953,26 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
       <c r="Q9" s="1"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
       <c r="U9" s="1"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="3"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
     </row>
-    <row r="10" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -935,7 +1002,7 @@
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -946,34 +1013,34 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="4">
+      <c r="K11" s="3">
         <v>2</v>
       </c>
-      <c r="L11" s="6" t="s">
+      <c r="L11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
       <c r="Q11" s="1"/>
-      <c r="R11" s="6" t="s">
+      <c r="R11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
       <c r="U11" s="1"/>
-      <c r="V11" s="3" t="s">
+      <c r="V11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -984,26 +1051,26 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
       <c r="Q12" s="1"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
       <c r="U12" s="1"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1033,7 +1100,7 @@
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1041,12 +1108,12 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
       <c r="L14" s="8" t="s">
         <v>1</v>
       </c>
@@ -1071,7 +1138,7 @@
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1079,10 +1146,10 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
@@ -1101,7 +1168,7 @@
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1131,7 +1198,7 @@
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1142,34 +1209,34 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="4">
+      <c r="K17" s="3">
         <v>1</v>
       </c>
-      <c r="L17" s="6" t="s">
+      <c r="L17" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
       <c r="Q17" s="1"/>
-      <c r="R17" s="6" t="s">
+      <c r="R17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
       <c r="U17" s="1"/>
-      <c r="V17" s="3" t="s">
+      <c r="V17" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1180,26 +1247,26 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
       <c r="Q18" s="1"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
       <c r="U18" s="1"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1229,7 +1296,7 @@
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1240,34 +1307,34 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="4">
+      <c r="K20" s="3">
         <v>2</v>
       </c>
-      <c r="L20" s="6" t="s">
+      <c r="L20" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
       <c r="Q20" s="1"/>
-      <c r="R20" s="6" t="s">
+      <c r="R20" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
       <c r="U20" s="1"/>
-      <c r="V20" s="3" t="s">
+      <c r="V20" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="3"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="6"/>
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1278,26 +1345,26 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
       <c r="Q21" s="1"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
       <c r="U21" s="1"/>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
-      <c r="Y21" s="3"/>
-      <c r="Z21" s="3"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6"/>
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1327,7 +1394,7 @@
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1338,22 +1405,22 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
-      <c r="K23" s="4">
+      <c r="K23" s="3">
         <v>3</v>
       </c>
-      <c r="L23" s="6" t="s">
+      <c r="L23" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
       <c r="Q23" s="1"/>
-      <c r="R23" s="6" t="s">
+      <c r="R23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
       <c r="U23" s="1"/>
       <c r="V23" s="10" t="s">
         <v>23</v>
@@ -1365,7 +1432,7 @@
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1376,16 +1443,16 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
       <c r="Q24" s="1"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="6"/>
-      <c r="T24" s="6"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
       <c r="U24" s="1"/>
       <c r="V24" s="10"/>
       <c r="W24" s="10"/>
@@ -1395,7 +1462,7 @@
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1425,7 +1492,7 @@
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
     </row>
-    <row r="26" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1436,7 +1503,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="4">
+      <c r="K26" s="3">
         <v>4</v>
       </c>
       <c r="L26" s="5" t="s">
@@ -1447,11 +1514,11 @@
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
       <c r="Q26" s="1"/>
-      <c r="R26" s="6" t="s">
+      <c r="R26" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="S26" s="6"/>
-      <c r="T26" s="6"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
       <c r="U26" s="1"/>
       <c r="V26" s="10" t="s">
         <v>23</v>
@@ -1463,7 +1530,7 @@
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1474,16 +1541,16 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
-      <c r="K27" s="4"/>
+      <c r="K27" s="3"/>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
       <c r="P27" s="5"/>
       <c r="Q27" s="1"/>
-      <c r="R27" s="6"/>
-      <c r="S27" s="6"/>
-      <c r="T27" s="6"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
       <c r="U27" s="1"/>
       <c r="V27" s="10"/>
       <c r="W27" s="10"/>
@@ -1493,7 +1560,7 @@
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1523,7 +1590,7 @@
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1534,7 +1601,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
-      <c r="K29" s="4">
+      <c r="K29" s="3">
         <v>5</v>
       </c>
       <c r="L29" s="5" t="s">
@@ -1545,11 +1612,11 @@
       <c r="O29" s="5"/>
       <c r="P29" s="5"/>
       <c r="Q29" s="1"/>
-      <c r="R29" s="6" t="s">
+      <c r="R29" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="S29" s="6"/>
-      <c r="T29" s="6"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
       <c r="U29" s="1"/>
       <c r="V29" s="10" t="s">
         <v>23</v>
@@ -1561,7 +1628,7 @@
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1572,16 +1639,16 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
-      <c r="K30" s="4"/>
+      <c r="K30" s="3"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
       <c r="Q30" s="1"/>
-      <c r="R30" s="6"/>
-      <c r="S30" s="6"/>
-      <c r="T30" s="6"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
       <c r="U30" s="1"/>
       <c r="V30" s="10"/>
       <c r="W30" s="10"/>
@@ -1591,7 +1658,7 @@
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1621,7 +1688,7 @@
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
     </row>
-    <row r="32" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1632,7 +1699,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
-      <c r="K32" s="4">
+      <c r="K32" s="3">
         <v>6</v>
       </c>
       <c r="L32" s="5" t="s">
@@ -1643,23 +1710,23 @@
       <c r="O32" s="5"/>
       <c r="P32" s="5"/>
       <c r="Q32" s="1"/>
-      <c r="R32" s="6" t="s">
+      <c r="R32" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="S32" s="6"/>
-      <c r="T32" s="6"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
       <c r="U32" s="1"/>
-      <c r="V32" s="3" t="s">
+      <c r="V32" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="W32" s="3"/>
-      <c r="X32" s="3"/>
-      <c r="Y32" s="3"/>
-      <c r="Z32" s="3"/>
+      <c r="W32" s="6"/>
+      <c r="X32" s="6"/>
+      <c r="Y32" s="6"/>
+      <c r="Z32" s="6"/>
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1670,26 +1737,26 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
-      <c r="K33" s="4"/>
+      <c r="K33" s="3"/>
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
       <c r="Q33" s="1"/>
-      <c r="R33" s="6"/>
-      <c r="S33" s="6"/>
-      <c r="T33" s="6"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
       <c r="U33" s="1"/>
-      <c r="V33" s="3"/>
-      <c r="W33" s="3"/>
-      <c r="X33" s="3"/>
-      <c r="Y33" s="3"/>
-      <c r="Z33" s="3"/>
+      <c r="V33" s="6"/>
+      <c r="W33" s="6"/>
+      <c r="X33" s="6"/>
+      <c r="Y33" s="6"/>
+      <c r="Z33" s="6"/>
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1719,7 +1786,7 @@
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
     </row>
-    <row r="35" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1730,7 +1797,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
-      <c r="K35" s="4">
+      <c r="K35" s="3">
         <v>7</v>
       </c>
       <c r="L35" s="5" t="s">
@@ -1741,11 +1808,11 @@
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
       <c r="Q35" s="1"/>
-      <c r="R35" s="6" t="s">
+      <c r="R35" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="S35" s="6"/>
-      <c r="T35" s="6"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
       <c r="U35" s="1"/>
       <c r="V35" s="11" t="s">
         <v>28</v>
@@ -1757,7 +1824,7 @@
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1768,16 +1835,16 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
-      <c r="K36" s="4"/>
+      <c r="K36" s="3"/>
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
       <c r="O36" s="5"/>
       <c r="P36" s="5"/>
       <c r="Q36" s="1"/>
-      <c r="R36" s="6"/>
-      <c r="S36" s="6"/>
-      <c r="T36" s="6"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
       <c r="U36" s="1"/>
       <c r="V36" s="11"/>
       <c r="W36" s="11"/>
@@ -1787,7 +1854,7 @@
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1817,7 +1884,7 @@
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1825,12 +1892,12 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="7" t="s">
+      <c r="H38" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
       <c r="L38" s="8" t="s">
         <v>1</v>
       </c>
@@ -1855,7 +1922,7 @@
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1863,10 +1930,10 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
       <c r="L39" s="8"/>
       <c r="M39" s="8"/>
       <c r="N39" s="8"/>
@@ -1885,7 +1952,7 @@
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1915,7 +1982,7 @@
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1926,34 +1993,34 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
-      <c r="K41" s="4">
+      <c r="K41" s="3">
         <v>1</v>
       </c>
-      <c r="L41" s="6" t="s">
+      <c r="L41" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="M41" s="6"/>
-      <c r="N41" s="6"/>
-      <c r="O41" s="6"/>
-      <c r="P41" s="6"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
       <c r="Q41" s="1"/>
-      <c r="R41" s="6" t="s">
+      <c r="R41" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="S41" s="6"/>
-      <c r="T41" s="6"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
       <c r="U41" s="1"/>
-      <c r="V41" s="3" t="s">
+      <c r="V41" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="W41" s="3"/>
-      <c r="X41" s="3"/>
-      <c r="Y41" s="3"/>
-      <c r="Z41" s="3"/>
+      <c r="W41" s="6"/>
+      <c r="X41" s="6"/>
+      <c r="Y41" s="6"/>
+      <c r="Z41" s="6"/>
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1964,26 +2031,26 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="6"/>
-      <c r="M42" s="6"/>
-      <c r="N42" s="6"/>
-      <c r="O42" s="6"/>
-      <c r="P42" s="6"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
       <c r="Q42" s="1"/>
-      <c r="R42" s="6"/>
-      <c r="S42" s="6"/>
-      <c r="T42" s="6"/>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="4"/>
       <c r="U42" s="1"/>
-      <c r="V42" s="3"/>
-      <c r="W42" s="3"/>
-      <c r="X42" s="3"/>
-      <c r="Y42" s="3"/>
-      <c r="Z42" s="3"/>
+      <c r="V42" s="6"/>
+      <c r="W42" s="6"/>
+      <c r="X42" s="6"/>
+      <c r="Y42" s="6"/>
+      <c r="Z42" s="6"/>
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2013,7 +2080,7 @@
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2024,34 +2091,34 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
-      <c r="K44" s="4">
+      <c r="K44" s="3">
         <v>2</v>
       </c>
-      <c r="L44" s="6" t="s">
+      <c r="L44" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="M44" s="6"/>
-      <c r="N44" s="6"/>
-      <c r="O44" s="6"/>
-      <c r="P44" s="6"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
       <c r="Q44" s="1"/>
-      <c r="R44" s="6" t="s">
+      <c r="R44" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="S44" s="6"/>
-      <c r="T44" s="6"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="4"/>
       <c r="U44" s="1"/>
-      <c r="V44" s="3" t="s">
+      <c r="V44" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="W44" s="3"/>
-      <c r="X44" s="3"/>
-      <c r="Y44" s="3"/>
-      <c r="Z44" s="3"/>
+      <c r="W44" s="6"/>
+      <c r="X44" s="6"/>
+      <c r="Y44" s="6"/>
+      <c r="Z44" s="6"/>
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2062,26 +2129,26 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="6"/>
-      <c r="M45" s="6"/>
-      <c r="N45" s="6"/>
-      <c r="O45" s="6"/>
-      <c r="P45" s="6"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
       <c r="Q45" s="1"/>
-      <c r="R45" s="6"/>
-      <c r="S45" s="6"/>
-      <c r="T45" s="6"/>
+      <c r="R45" s="4"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="4"/>
       <c r="U45" s="1"/>
-      <c r="V45" s="3"/>
-      <c r="W45" s="3"/>
-      <c r="X45" s="3"/>
-      <c r="Y45" s="3"/>
-      <c r="Z45" s="3"/>
+      <c r="V45" s="6"/>
+      <c r="W45" s="6"/>
+      <c r="X45" s="6"/>
+      <c r="Y45" s="6"/>
+      <c r="Z45" s="6"/>
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -2111,7 +2178,7 @@
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
     </row>
-    <row r="47" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2122,7 +2189,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
-      <c r="K47" s="4">
+      <c r="K47" s="3">
         <v>3</v>
       </c>
       <c r="L47" s="5" t="s">
@@ -2133,23 +2200,23 @@
       <c r="O47" s="5"/>
       <c r="P47" s="5"/>
       <c r="Q47" s="1"/>
-      <c r="R47" s="6" t="s">
+      <c r="R47" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="S47" s="6"/>
-      <c r="T47" s="6"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="4"/>
       <c r="U47" s="1"/>
-      <c r="V47" s="3" t="s">
+      <c r="V47" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="W47" s="3"/>
-      <c r="X47" s="3"/>
-      <c r="Y47" s="3"/>
-      <c r="Z47" s="3"/>
+      <c r="W47" s="6"/>
+      <c r="X47" s="6"/>
+      <c r="Y47" s="6"/>
+      <c r="Z47" s="6"/>
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2160,26 +2227,26 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
-      <c r="K48" s="4"/>
+      <c r="K48" s="3"/>
       <c r="L48" s="5"/>
       <c r="M48" s="5"/>
       <c r="N48" s="5"/>
       <c r="O48" s="5"/>
       <c r="P48" s="5"/>
       <c r="Q48" s="1"/>
-      <c r="R48" s="6"/>
-      <c r="S48" s="6"/>
-      <c r="T48" s="6"/>
+      <c r="R48" s="4"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="4"/>
       <c r="U48" s="1"/>
-      <c r="V48" s="3"/>
-      <c r="W48" s="3"/>
-      <c r="X48" s="3"/>
-      <c r="Y48" s="3"/>
-      <c r="Z48" s="3"/>
+      <c r="V48" s="6"/>
+      <c r="W48" s="6"/>
+      <c r="X48" s="6"/>
+      <c r="Y48" s="6"/>
+      <c r="Z48" s="6"/>
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2209,7 +2276,7 @@
       <c r="AA49" s="1"/>
       <c r="AB49" s="1"/>
     </row>
-    <row r="50" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2220,7 +2287,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
-      <c r="K50" s="4">
+      <c r="K50" s="3">
         <v>4</v>
       </c>
       <c r="L50" s="5" t="s">
@@ -2231,23 +2298,23 @@
       <c r="O50" s="5"/>
       <c r="P50" s="5"/>
       <c r="Q50" s="1"/>
-      <c r="R50" s="6" t="s">
+      <c r="R50" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="S50" s="6"/>
-      <c r="T50" s="6"/>
+      <c r="S50" s="4"/>
+      <c r="T50" s="4"/>
       <c r="U50" s="1"/>
-      <c r="V50" s="3" t="s">
+      <c r="V50" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="W50" s="3"/>
-      <c r="X50" s="3"/>
-      <c r="Y50" s="3"/>
-      <c r="Z50" s="3"/>
+      <c r="W50" s="6"/>
+      <c r="X50" s="6"/>
+      <c r="Y50" s="6"/>
+      <c r="Z50" s="6"/>
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2258,26 +2325,26 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
-      <c r="K51" s="4"/>
+      <c r="K51" s="3"/>
       <c r="L51" s="5"/>
       <c r="M51" s="5"/>
       <c r="N51" s="5"/>
       <c r="O51" s="5"/>
       <c r="P51" s="5"/>
       <c r="Q51" s="1"/>
-      <c r="R51" s="6"/>
-      <c r="S51" s="6"/>
-      <c r="T51" s="6"/>
+      <c r="R51" s="4"/>
+      <c r="S51" s="4"/>
+      <c r="T51" s="4"/>
       <c r="U51" s="1"/>
-      <c r="V51" s="3"/>
-      <c r="W51" s="3"/>
-      <c r="X51" s="3"/>
-      <c r="Y51" s="3"/>
-      <c r="Z51" s="3"/>
+      <c r="V51" s="6"/>
+      <c r="W51" s="6"/>
+      <c r="X51" s="6"/>
+      <c r="Y51" s="6"/>
+      <c r="Z51" s="6"/>
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2307,7 +2374,7 @@
       <c r="AA52" s="1"/>
       <c r="AB52" s="1"/>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2315,12 +2382,12 @@
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
-      <c r="H53" s="7" t="s">
+      <c r="H53" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="I53" s="7"/>
-      <c r="J53" s="7"/>
-      <c r="K53" s="7"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
       <c r="L53" s="8" t="s">
         <v>1</v>
       </c>
@@ -2345,11 +2412,11 @@
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="7"/>
-      <c r="K54" s="7"/>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
       <c r="L54" s="8"/>
       <c r="M54" s="8"/>
       <c r="N54" s="8"/>
@@ -2366,57 +2433,57 @@
       <c r="Y54" s="8"/>
       <c r="Z54" s="8"/>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="H56" s="17" t="s">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="H56" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="I56" s="17"/>
-      <c r="J56" s="17"/>
-      <c r="K56" s="17"/>
-      <c r="L56" s="17"/>
-      <c r="M56" s="17"/>
-      <c r="N56" s="17"/>
-      <c r="O56" s="17"/>
-      <c r="P56" s="17"/>
-      <c r="Q56" s="17"/>
-      <c r="R56" s="17"/>
-      <c r="S56" s="17"/>
-      <c r="T56" s="17"/>
-      <c r="U56" s="17"/>
-      <c r="V56" s="17"/>
-      <c r="W56" s="17"/>
-      <c r="X56" s="17"/>
-      <c r="Y56" s="17"/>
-      <c r="Z56" s="17"/>
-    </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="H57" s="17"/>
-      <c r="I57" s="17"/>
-      <c r="J57" s="17"/>
-      <c r="K57" s="17"/>
-      <c r="L57" s="17"/>
-      <c r="M57" s="17"/>
-      <c r="N57" s="17"/>
-      <c r="O57" s="17"/>
-      <c r="P57" s="17"/>
-      <c r="Q57" s="17"/>
-      <c r="R57" s="17"/>
-      <c r="S57" s="17"/>
-      <c r="T57" s="17"/>
-      <c r="U57" s="17"/>
-      <c r="V57" s="17"/>
-      <c r="W57" s="17"/>
-      <c r="X57" s="17"/>
-      <c r="Y57" s="17"/>
-      <c r="Z57" s="17"/>
-    </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="H59" s="7" t="s">
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="12"/>
+      <c r="M56" s="12"/>
+      <c r="N56" s="12"/>
+      <c r="O56" s="12"/>
+      <c r="P56" s="12"/>
+      <c r="Q56" s="12"/>
+      <c r="R56" s="12"/>
+      <c r="S56" s="12"/>
+      <c r="T56" s="12"/>
+      <c r="U56" s="12"/>
+      <c r="V56" s="12"/>
+      <c r="W56" s="12"/>
+      <c r="X56" s="12"/>
+      <c r="Y56" s="12"/>
+      <c r="Z56" s="12"/>
+    </row>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="12"/>
+      <c r="M57" s="12"/>
+      <c r="N57" s="12"/>
+      <c r="O57" s="12"/>
+      <c r="P57" s="12"/>
+      <c r="Q57" s="12"/>
+      <c r="R57" s="12"/>
+      <c r="S57" s="12"/>
+      <c r="T57" s="12"/>
+      <c r="U57" s="12"/>
+      <c r="V57" s="12"/>
+      <c r="W57" s="12"/>
+      <c r="X57" s="12"/>
+      <c r="Y57" s="12"/>
+      <c r="Z57" s="12"/>
+    </row>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="H59" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="I59" s="7"/>
-      <c r="J59" s="7"/>
-      <c r="K59" s="7"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
       <c r="L59" s="8" t="s">
         <v>1</v>
       </c>
@@ -2439,11 +2506,11 @@
       <c r="Y59" s="8"/>
       <c r="Z59" s="8"/>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="H60" s="7"/>
-      <c r="I60" s="7"/>
-      <c r="J60" s="7"/>
-      <c r="K60" s="7"/>
+    <row r="60" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
       <c r="L60" s="8"/>
       <c r="M60" s="8"/>
       <c r="N60" s="8"/>
@@ -2460,57 +2527,57 @@
       <c r="Y60" s="8"/>
       <c r="Z60" s="8"/>
     </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="H62" s="17" t="s">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="H62" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="I62" s="17"/>
-      <c r="J62" s="17"/>
-      <c r="K62" s="17"/>
-      <c r="L62" s="17"/>
-      <c r="M62" s="17"/>
-      <c r="N62" s="17"/>
-      <c r="O62" s="17"/>
-      <c r="P62" s="17"/>
-      <c r="Q62" s="17"/>
-      <c r="R62" s="17"/>
-      <c r="S62" s="17"/>
-      <c r="T62" s="17"/>
-      <c r="U62" s="17"/>
-      <c r="V62" s="17"/>
-      <c r="W62" s="17"/>
-      <c r="X62" s="17"/>
-      <c r="Y62" s="17"/>
-      <c r="Z62" s="17"/>
-    </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="H63" s="17"/>
-      <c r="I63" s="17"/>
-      <c r="J63" s="17"/>
-      <c r="K63" s="17"/>
-      <c r="L63" s="17"/>
-      <c r="M63" s="17"/>
-      <c r="N63" s="17"/>
-      <c r="O63" s="17"/>
-      <c r="P63" s="17"/>
-      <c r="Q63" s="17"/>
-      <c r="R63" s="17"/>
-      <c r="S63" s="17"/>
-      <c r="T63" s="17"/>
-      <c r="U63" s="17"/>
-      <c r="V63" s="17"/>
-      <c r="W63" s="17"/>
-      <c r="X63" s="17"/>
-      <c r="Y63" s="17"/>
-      <c r="Z63" s="17"/>
-    </row>
-    <row r="65" spans="8:26" x14ac:dyDescent="0.25">
-      <c r="H65" s="7" t="s">
+      <c r="I62" s="12"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="12"/>
+      <c r="L62" s="12"/>
+      <c r="M62" s="12"/>
+      <c r="N62" s="12"/>
+      <c r="O62" s="12"/>
+      <c r="P62" s="12"/>
+      <c r="Q62" s="12"/>
+      <c r="R62" s="12"/>
+      <c r="S62" s="12"/>
+      <c r="T62" s="12"/>
+      <c r="U62" s="12"/>
+      <c r="V62" s="12"/>
+      <c r="W62" s="12"/>
+      <c r="X62" s="12"/>
+      <c r="Y62" s="12"/>
+      <c r="Z62" s="12"/>
+    </row>
+    <row r="63" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="12"/>
+      <c r="K63" s="12"/>
+      <c r="L63" s="12"/>
+      <c r="M63" s="12"/>
+      <c r="N63" s="12"/>
+      <c r="O63" s="12"/>
+      <c r="P63" s="12"/>
+      <c r="Q63" s="12"/>
+      <c r="R63" s="12"/>
+      <c r="S63" s="12"/>
+      <c r="T63" s="12"/>
+      <c r="U63" s="12"/>
+      <c r="V63" s="12"/>
+      <c r="W63" s="12"/>
+      <c r="X63" s="12"/>
+      <c r="Y63" s="12"/>
+      <c r="Z63" s="12"/>
+    </row>
+    <row r="65" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="H65" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="I65" s="7"/>
-      <c r="J65" s="7"/>
-      <c r="K65" s="7"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
       <c r="L65" s="8" t="s">
         <v>1</v>
       </c>
@@ -2533,11 +2600,11 @@
       <c r="Y65" s="8"/>
       <c r="Z65" s="8"/>
     </row>
-    <row r="66" spans="8:26" x14ac:dyDescent="0.25">
-      <c r="H66" s="7"/>
-      <c r="I66" s="7"/>
-      <c r="J66" s="7"/>
-      <c r="K66" s="7"/>
+    <row r="66" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
       <c r="L66" s="8"/>
       <c r="M66" s="8"/>
       <c r="N66" s="8"/>
@@ -2554,8 +2621,445 @@
       <c r="Y66" s="8"/>
       <c r="Z66" s="8"/>
     </row>
+    <row r="68" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="H68" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I68" s="12"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="12"/>
+      <c r="L68" s="12"/>
+      <c r="M68" s="12"/>
+      <c r="N68" s="12"/>
+      <c r="O68" s="12"/>
+      <c r="P68" s="12"/>
+      <c r="Q68" s="12"/>
+      <c r="R68" s="12"/>
+      <c r="S68" s="12"/>
+      <c r="T68" s="12"/>
+      <c r="U68" s="12"/>
+      <c r="V68" s="12"/>
+      <c r="W68" s="12"/>
+      <c r="X68" s="12"/>
+      <c r="Y68" s="12"/>
+      <c r="Z68" s="12"/>
+    </row>
+    <row r="69" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="H69" s="12"/>
+      <c r="I69" s="12"/>
+      <c r="J69" s="12"/>
+      <c r="K69" s="12"/>
+      <c r="L69" s="12"/>
+      <c r="M69" s="12"/>
+      <c r="N69" s="12"/>
+      <c r="O69" s="12"/>
+      <c r="P69" s="12"/>
+      <c r="Q69" s="12"/>
+      <c r="R69" s="12"/>
+      <c r="S69" s="12"/>
+      <c r="T69" s="12"/>
+      <c r="U69" s="12"/>
+      <c r="V69" s="12"/>
+      <c r="W69" s="12"/>
+      <c r="X69" s="12"/>
+      <c r="Y69" s="12"/>
+      <c r="Z69" s="12"/>
+    </row>
+    <row r="71" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="H71" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c r="L71" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="M71" s="8"/>
+      <c r="N71" s="8"/>
+      <c r="O71" s="8"/>
+      <c r="P71" s="8"/>
+      <c r="Q71" s="1"/>
+      <c r="R71" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="S71" s="8"/>
+      <c r="T71" s="8"/>
+      <c r="U71" s="1"/>
+      <c r="V71" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="W71" s="8"/>
+      <c r="X71" s="8"/>
+      <c r="Y71" s="8"/>
+      <c r="Z71" s="8"/>
+    </row>
+    <row r="72" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c r="L72" s="8"/>
+      <c r="M72" s="8"/>
+      <c r="N72" s="8"/>
+      <c r="O72" s="8"/>
+      <c r="P72" s="8"/>
+      <c r="Q72" s="1"/>
+      <c r="R72" s="8"/>
+      <c r="S72" s="8"/>
+      <c r="T72" s="8"/>
+      <c r="U72" s="1"/>
+      <c r="V72" s="8"/>
+      <c r="W72" s="8"/>
+      <c r="X72" s="8"/>
+      <c r="Y72" s="8"/>
+      <c r="Z72" s="8"/>
+    </row>
+    <row r="73" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="N73" s="18"/>
+      <c r="O73" s="18"/>
+      <c r="P73" s="18"/>
+      <c r="Q73" s="18"/>
+      <c r="R73" s="18"/>
+      <c r="S73" s="18"/>
+      <c r="T73" s="18"/>
+      <c r="U73" s="18"/>
+      <c r="V73" s="18"/>
+      <c r="W73" s="18"/>
+      <c r="X73" s="18"/>
+      <c r="Y73" s="18"/>
+      <c r="Z73" s="18"/>
+    </row>
+    <row r="75" spans="8:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I75" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="K75" s="3">
+        <v>1</v>
+      </c>
+      <c r="L75" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="M75" s="5"/>
+      <c r="N75" s="5"/>
+      <c r="O75" s="5"/>
+      <c r="P75" s="5"/>
+      <c r="Q75" s="1"/>
+      <c r="R75" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S75" s="4"/>
+      <c r="T75" s="4"/>
+      <c r="U75" s="1"/>
+      <c r="V75" s="18"/>
+      <c r="W75" s="18"/>
+      <c r="X75" s="18"/>
+      <c r="Y75" s="18"/>
+      <c r="Z75" s="18"/>
+    </row>
+    <row r="76" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="I76" s="20"/>
+      <c r="K76" s="3"/>
+      <c r="L76" s="5"/>
+      <c r="M76" s="5"/>
+      <c r="N76" s="5"/>
+      <c r="O76" s="5"/>
+      <c r="P76" s="5"/>
+      <c r="Q76" s="1"/>
+      <c r="R76" s="4"/>
+      <c r="S76" s="4"/>
+      <c r="T76" s="4"/>
+      <c r="U76" s="1"/>
+      <c r="V76" s="18"/>
+      <c r="W76" s="18"/>
+      <c r="X76" s="18"/>
+      <c r="Y76" s="18"/>
+      <c r="Z76" s="18"/>
+    </row>
+    <row r="77" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="I77" s="20"/>
+    </row>
+    <row r="78" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="I78" s="20"/>
+      <c r="K78" s="3">
+        <v>2</v>
+      </c>
+      <c r="L78" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M78" s="4"/>
+      <c r="N78" s="4"/>
+      <c r="O78" s="4"/>
+      <c r="P78" s="4"/>
+      <c r="Q78" s="1"/>
+      <c r="R78" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S78" s="4"/>
+      <c r="T78" s="4"/>
+      <c r="U78" s="1"/>
+      <c r="V78" s="18"/>
+      <c r="W78" s="18"/>
+      <c r="X78" s="18"/>
+      <c r="Y78" s="18"/>
+      <c r="Z78" s="18"/>
+    </row>
+    <row r="79" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="I79" s="20"/>
+      <c r="K79" s="3"/>
+      <c r="L79" s="4"/>
+      <c r="M79" s="4"/>
+      <c r="N79" s="4"/>
+      <c r="O79" s="4"/>
+      <c r="P79" s="4"/>
+      <c r="Q79" s="1"/>
+      <c r="R79" s="4"/>
+      <c r="S79" s="4"/>
+      <c r="T79" s="4"/>
+      <c r="U79" s="1"/>
+      <c r="V79" s="18"/>
+      <c r="W79" s="18"/>
+      <c r="X79" s="18"/>
+      <c r="Y79" s="18"/>
+      <c r="Z79" s="18"/>
+    </row>
+    <row r="80" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="I80" s="20"/>
+    </row>
+    <row r="81" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="I81" s="20"/>
+      <c r="K81" s="3">
+        <v>3</v>
+      </c>
+      <c r="L81" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M81" s="4"/>
+      <c r="N81" s="4"/>
+      <c r="O81" s="4"/>
+      <c r="P81" s="4"/>
+      <c r="Q81" s="1"/>
+      <c r="R81" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S81" s="4"/>
+      <c r="T81" s="4"/>
+    </row>
+    <row r="82" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G82" s="21"/>
+      <c r="I82" s="20"/>
+      <c r="K82" s="3"/>
+      <c r="L82" s="4"/>
+      <c r="M82" s="4"/>
+      <c r="N82" s="4"/>
+      <c r="O82" s="4"/>
+      <c r="P82" s="4"/>
+      <c r="Q82" s="1"/>
+      <c r="R82" s="4"/>
+      <c r="S82" s="4"/>
+      <c r="T82" s="4"/>
+    </row>
+    <row r="83" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G83" s="21"/>
+      <c r="I83" s="20"/>
+    </row>
+    <row r="84" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G84" s="21"/>
+      <c r="I84" s="20"/>
+      <c r="K84" s="3">
+        <v>4</v>
+      </c>
+      <c r="L84" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M84" s="4"/>
+      <c r="N84" s="4"/>
+      <c r="O84" s="4"/>
+      <c r="P84" s="4"/>
+      <c r="Q84" s="1"/>
+      <c r="R84" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="S84" s="4"/>
+      <c r="T84" s="4"/>
+    </row>
+    <row r="85" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G85" s="21"/>
+      <c r="I85" s="20"/>
+      <c r="K85" s="3"/>
+      <c r="L85" s="4"/>
+      <c r="M85" s="4"/>
+      <c r="N85" s="4"/>
+      <c r="O85" s="4"/>
+      <c r="P85" s="4"/>
+      <c r="Q85" s="1"/>
+      <c r="R85" s="4"/>
+      <c r="S85" s="4"/>
+      <c r="T85" s="4"/>
+    </row>
+    <row r="86" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G86" s="21"/>
+      <c r="I86" s="20"/>
+    </row>
+    <row r="87" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G87" s="21"/>
+      <c r="I87" s="20"/>
+      <c r="K87" s="3">
+        <v>5</v>
+      </c>
+      <c r="L87" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M87" s="4"/>
+      <c r="N87" s="4"/>
+      <c r="O87" s="4"/>
+      <c r="P87" s="4"/>
+      <c r="Q87" s="1"/>
+      <c r="R87" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="S87" s="4"/>
+      <c r="T87" s="4"/>
+    </row>
+    <row r="88" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G88" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" s="20"/>
+      <c r="K88" s="3"/>
+      <c r="L88" s="4"/>
+      <c r="M88" s="4"/>
+      <c r="N88" s="4"/>
+      <c r="O88" s="4"/>
+      <c r="P88" s="4"/>
+      <c r="Q88" s="1"/>
+      <c r="R88" s="4"/>
+      <c r="S88" s="4"/>
+      <c r="T88" s="4"/>
+    </row>
+    <row r="89" spans="7:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G89" s="19"/>
+    </row>
+    <row r="90" spans="7:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G90" s="19"/>
+      <c r="I90" s="18"/>
+      <c r="K90" s="18"/>
+      <c r="L90" s="18"/>
+      <c r="M90" s="18"/>
+      <c r="N90" s="18"/>
+      <c r="O90" s="18"/>
+      <c r="P90" s="18"/>
+      <c r="Q90" s="18"/>
+      <c r="R90" s="18"/>
+      <c r="S90" s="18"/>
+      <c r="T90" s="18"/>
+    </row>
+    <row r="91" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G91" s="19"/>
+      <c r="I91" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K91" s="3">
+        <v>1</v>
+      </c>
+      <c r="L91" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M91" s="5"/>
+      <c r="N91" s="5"/>
+      <c r="O91" s="5"/>
+      <c r="P91" s="5"/>
+      <c r="Q91" s="1"/>
+      <c r="R91" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="S91" s="4"/>
+      <c r="T91" s="4"/>
+    </row>
+    <row r="92" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G92" s="21"/>
+      <c r="I92" s="20"/>
+      <c r="K92" s="3"/>
+      <c r="L92" s="5"/>
+      <c r="M92" s="5"/>
+      <c r="N92" s="5"/>
+      <c r="O92" s="5"/>
+      <c r="P92" s="5"/>
+      <c r="Q92" s="1"/>
+      <c r="R92" s="4"/>
+      <c r="S92" s="4"/>
+      <c r="T92" s="4"/>
+    </row>
+    <row r="93" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G93" s="21"/>
+      <c r="I93" s="20"/>
+    </row>
+    <row r="94" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G94" s="21"/>
+      <c r="I94" s="20"/>
+    </row>
+    <row r="95" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G95" s="21"/>
+      <c r="I95" s="20"/>
+    </row>
+    <row r="96" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G96" s="21"/>
+      <c r="I96" s="20"/>
+    </row>
+    <row r="97" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G97" s="21"/>
+      <c r="I97" s="20"/>
+    </row>
+    <row r="98" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G98" s="21"/>
+      <c r="I98" s="20"/>
+    </row>
+    <row r="99" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="I99" s="20"/>
+    </row>
+    <row r="100" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="I100" s="20"/>
+    </row>
+    <row r="101" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="I101" s="20"/>
+    </row>
+    <row r="102" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="I102" s="20"/>
+    </row>
+    <row r="103" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="I103" s="20"/>
+    </row>
+    <row r="104" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="I104" s="20"/>
+    </row>
   </sheetData>
-  <mergeCells count="79">
+  <mergeCells count="105">
+    <mergeCell ref="G88:G91"/>
+    <mergeCell ref="I91:I104"/>
+    <mergeCell ref="K91:K92"/>
+    <mergeCell ref="L91:P92"/>
+    <mergeCell ref="R91:T92"/>
+    <mergeCell ref="L81:P82"/>
+    <mergeCell ref="R81:T82"/>
+    <mergeCell ref="K84:K85"/>
+    <mergeCell ref="L84:P85"/>
+    <mergeCell ref="R84:T85"/>
+    <mergeCell ref="L78:P79"/>
+    <mergeCell ref="R78:T79"/>
+    <mergeCell ref="K87:K88"/>
+    <mergeCell ref="L87:P88"/>
+    <mergeCell ref="R87:T88"/>
+    <mergeCell ref="I75:I88"/>
+    <mergeCell ref="K78:K79"/>
+    <mergeCell ref="K81:K82"/>
+    <mergeCell ref="K75:K76"/>
+    <mergeCell ref="L75:P76"/>
+    <mergeCell ref="R75:T76"/>
+    <mergeCell ref="H68:Z69"/>
+    <mergeCell ref="H71:K72"/>
+    <mergeCell ref="L71:P72"/>
+    <mergeCell ref="R71:T72"/>
+    <mergeCell ref="V71:Z72"/>
     <mergeCell ref="L65:P66"/>
     <mergeCell ref="R65:T66"/>
     <mergeCell ref="V65:Z66"/>
@@ -2571,17 +3075,28 @@
     <mergeCell ref="R53:T54"/>
     <mergeCell ref="V53:Z54"/>
     <mergeCell ref="V35:Z36"/>
+    <mergeCell ref="L38:P39"/>
+    <mergeCell ref="R38:T39"/>
+    <mergeCell ref="V38:Z39"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="L41:P42"/>
+    <mergeCell ref="R41:T42"/>
+    <mergeCell ref="V41:Z42"/>
+    <mergeCell ref="H38:K39"/>
+    <mergeCell ref="V50:Z51"/>
+    <mergeCell ref="V44:Z45"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="V29:Z30"/>
+    <mergeCell ref="V32:Z33"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="L35:P36"/>
+    <mergeCell ref="R35:T36"/>
     <mergeCell ref="K29:K30"/>
     <mergeCell ref="L29:P30"/>
     <mergeCell ref="R29:T30"/>
     <mergeCell ref="K32:K33"/>
     <mergeCell ref="L32:P33"/>
     <mergeCell ref="R32:T33"/>
-    <mergeCell ref="V29:Z30"/>
-    <mergeCell ref="V32:Z33"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="L35:P36"/>
-    <mergeCell ref="R35:T36"/>
     <mergeCell ref="K23:K24"/>
     <mergeCell ref="L23:P24"/>
     <mergeCell ref="R23:T24"/>
@@ -2598,14 +3113,15 @@
     <mergeCell ref="L20:P21"/>
     <mergeCell ref="R20:T21"/>
     <mergeCell ref="V20:Z21"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:P12"/>
-    <mergeCell ref="R11:T12"/>
     <mergeCell ref="V11:Z12"/>
     <mergeCell ref="L14:P15"/>
     <mergeCell ref="R14:T15"/>
     <mergeCell ref="V14:Z15"/>
     <mergeCell ref="H14:K15"/>
+    <mergeCell ref="V47:Z48"/>
+    <mergeCell ref="K50:K51"/>
+    <mergeCell ref="L50:P51"/>
+    <mergeCell ref="R50:T51"/>
     <mergeCell ref="H2:Z3"/>
     <mergeCell ref="R5:T6"/>
     <mergeCell ref="V5:Z6"/>
@@ -2615,26 +3131,14 @@
     <mergeCell ref="K8:K9"/>
     <mergeCell ref="L8:P9"/>
     <mergeCell ref="H5:K6"/>
-    <mergeCell ref="L38:P39"/>
-    <mergeCell ref="R38:T39"/>
-    <mergeCell ref="V38:Z39"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="L41:P42"/>
-    <mergeCell ref="R41:T42"/>
-    <mergeCell ref="V41:Z42"/>
-    <mergeCell ref="H38:K39"/>
-    <mergeCell ref="V50:Z51"/>
-    <mergeCell ref="V44:Z45"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="L47:P48"/>
-    <mergeCell ref="R47:T48"/>
-    <mergeCell ref="V47:Z48"/>
-    <mergeCell ref="K50:K51"/>
-    <mergeCell ref="L50:P51"/>
-    <mergeCell ref="R50:T51"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:P12"/>
+    <mergeCell ref="R11:T12"/>
     <mergeCell ref="K44:K45"/>
     <mergeCell ref="L44:P45"/>
     <mergeCell ref="R44:T45"/>
+    <mergeCell ref="L47:P48"/>
+    <mergeCell ref="R47:T48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2648,161 +3152,161 @@
       <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="6:25" x14ac:dyDescent="0.25">
-      <c r="H2" s="12" t="s">
+    <row r="2" spans="6:25" x14ac:dyDescent="0.45">
+      <c r="H2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="R2" s="12" t="s">
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="R2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-    </row>
-    <row r="3" spans="6:25" x14ac:dyDescent="0.25">
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-    </row>
-    <row r="5" spans="6:25" x14ac:dyDescent="0.25">
-      <c r="F5" s="13">
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+    </row>
+    <row r="3" spans="6:25" x14ac:dyDescent="0.45">
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
+    </row>
+    <row r="5" spans="6:25" x14ac:dyDescent="0.45">
+      <c r="F5" s="14">
         <v>1</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-    </row>
-    <row r="6" spans="6:25" x14ac:dyDescent="0.25">
-      <c r="F6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-    </row>
-    <row r="8" spans="6:25" x14ac:dyDescent="0.25">
-      <c r="F8" s="13">
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+    </row>
+    <row r="6" spans="6:25" x14ac:dyDescent="0.45">
+      <c r="F6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+    </row>
+    <row r="8" spans="6:25" x14ac:dyDescent="0.45">
+      <c r="F8" s="14">
         <v>2</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-    </row>
-    <row r="9" spans="6:25" x14ac:dyDescent="0.25">
-      <c r="F9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-    </row>
-    <row r="11" spans="6:25" x14ac:dyDescent="0.25">
-      <c r="F11" s="13">
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+    </row>
+    <row r="9" spans="6:25" x14ac:dyDescent="0.45">
+      <c r="F9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+    </row>
+    <row r="11" spans="6:25" x14ac:dyDescent="0.45">
+      <c r="F11" s="14">
         <v>3</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-    </row>
-    <row r="12" spans="6:25" x14ac:dyDescent="0.25">
-      <c r="F12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-    </row>
-    <row r="14" spans="6:25" x14ac:dyDescent="0.25">
-      <c r="F14" s="13">
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+    </row>
+    <row r="12" spans="6:25" x14ac:dyDescent="0.45">
+      <c r="F12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+    </row>
+    <row r="14" spans="6:25" x14ac:dyDescent="0.45">
+      <c r="F14" s="14">
         <v>4</v>
       </c>
-      <c r="H14" s="13" t="s">
+      <c r="H14" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-    </row>
-    <row r="15" spans="6:25" x14ac:dyDescent="0.25">
-      <c r="F15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+    </row>
+    <row r="15" spans="6:25" x14ac:dyDescent="0.45">
+      <c r="F15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2829,89 +3333,89 @@
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="6.5703125" customWidth="1"/>
+    <col min="3" max="3" width="6.59765625" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="J2" s="14" t="s">
+    <row r="2" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="J2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-    </row>
-    <row r="3" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-    </row>
-    <row r="5" spans="3:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="16" t="s">
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+    </row>
+    <row r="3" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+    </row>
+    <row r="5" spans="3:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C5" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-    </row>
-    <row r="6" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C6" s="16"/>
-      <c r="F6" s="15" t="s">
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+    </row>
+    <row r="6" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="C6" s="17"/>
+      <c r="F6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-    </row>
-    <row r="7" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C7" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+    </row>
+    <row r="7" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="C7" s="17"/>
       <c r="F7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C8" s="16"/>
+    <row r="8" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="C8" s="17"/>
       <c r="F8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C9" s="16"/>
-    </row>
-    <row r="10" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C10" s="16"/>
-    </row>
-    <row r="11" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C11" s="16"/>
-    </row>
-    <row r="12" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C12" s="16"/>
+    <row r="9" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="C9" s="17"/>
+    </row>
+    <row r="10" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="C10" s="17"/>
+    </row>
+    <row r="11" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="C11" s="17"/>
+    </row>
+    <row r="12" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="C12" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Documents/Targets&Planning.xlsx
+++ b/Documents/Targets&Planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BloggingRepositories\blogPosts\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE27DEB-5BD3-4601-9D3C-E7F1586C6670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD919007-6883-4804-991D-321E02141FF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="15196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -332,46 +332,55 @@
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -382,16 +391,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -678,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F77" workbookViewId="0">
-      <selection activeCell="M100" sqref="M100"/>
+    <sheetView tabSelected="1" topLeftCell="D65" zoomScale="93" workbookViewId="0">
+      <selection activeCell="L90" sqref="L90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -722,27 +721,27 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
     </row>
@@ -754,25 +753,25 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="15"/>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
     </row>
@@ -814,33 +813,33 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="8" t="s">
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
       <c r="Q5" s="1"/>
-      <c r="R5" s="8" t="s">
+      <c r="R5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
       <c r="U5" s="1"/>
-      <c r="V5" s="8" t="s">
+      <c r="V5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="W5" s="8"/>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="8"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
     </row>
@@ -852,25 +851,25 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
       <c r="Q6" s="1"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
       <c r="U6" s="1"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="8"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
     </row>
@@ -915,30 +914,30 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="3">
+      <c r="K8" s="6">
         <v>1</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="L8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
       <c r="Q8" s="1"/>
-      <c r="R8" s="4" t="s">
+      <c r="R8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
       <c r="U8" s="1"/>
-      <c r="V8" s="6" t="s">
+      <c r="V8" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="13"/>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
     </row>
@@ -953,22 +952,22 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
       <c r="Q9" s="1"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
       <c r="U9" s="1"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="6"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13"/>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
     </row>
@@ -1013,30 +1012,30 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="3">
+      <c r="K11" s="6">
         <v>2</v>
       </c>
-      <c r="L11" s="4" t="s">
+      <c r="L11" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
       <c r="Q11" s="1"/>
-      <c r="R11" s="4" t="s">
+      <c r="R11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
       <c r="U11" s="1"/>
-      <c r="V11" s="6" t="s">
+      <c r="V11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="W11" s="6"/>
-      <c r="X11" s="6"/>
-      <c r="Y11" s="6"/>
-      <c r="Z11" s="6"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
     </row>
@@ -1051,22 +1050,22 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
       <c r="Q12" s="1"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
       <c r="U12" s="1"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="6"/>
-      <c r="Y12" s="6"/>
-      <c r="Z12" s="6"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
     </row>
@@ -1108,33 +1107,33 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="8" t="s">
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
       <c r="Q14" s="1"/>
-      <c r="R14" s="8" t="s">
+      <c r="R14" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
       <c r="U14" s="1"/>
-      <c r="V14" s="8" t="s">
+      <c r="V14" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="W14" s="8"/>
-      <c r="X14" s="8"/>
-      <c r="Y14" s="8"/>
-      <c r="Z14" s="8"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
     </row>
@@ -1146,25 +1145,25 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
       <c r="Q15" s="1"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
       <c r="U15" s="1"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="8"/>
-      <c r="X15" s="8"/>
-      <c r="Y15" s="8"/>
-      <c r="Z15" s="8"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
     </row>
@@ -1209,30 +1208,30 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="3">
+      <c r="K17" s="6">
         <v>1</v>
       </c>
-      <c r="L17" s="4" t="s">
+      <c r="L17" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
       <c r="Q17" s="1"/>
-      <c r="R17" s="4" t="s">
+      <c r="R17" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
       <c r="U17" s="1"/>
-      <c r="V17" s="6" t="s">
+      <c r="V17" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="W17" s="6"/>
-      <c r="X17" s="6"/>
-      <c r="Y17" s="6"/>
-      <c r="Z17" s="6"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="13"/>
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
     </row>
@@ -1247,22 +1246,22 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
       <c r="Q18" s="1"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
       <c r="U18" s="1"/>
-      <c r="V18" s="6"/>
-      <c r="W18" s="6"/>
-      <c r="X18" s="6"/>
-      <c r="Y18" s="6"/>
-      <c r="Z18" s="6"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="13"/>
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
     </row>
@@ -1307,30 +1306,30 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="3">
+      <c r="K20" s="6">
         <v>2</v>
       </c>
-      <c r="L20" s="4" t="s">
+      <c r="L20" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
       <c r="Q20" s="1"/>
-      <c r="R20" s="4" t="s">
+      <c r="R20" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
       <c r="U20" s="1"/>
-      <c r="V20" s="6" t="s">
+      <c r="V20" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="W20" s="6"/>
-      <c r="X20" s="6"/>
-      <c r="Y20" s="6"/>
-      <c r="Z20" s="6"/>
+      <c r="W20" s="13"/>
+      <c r="X20" s="13"/>
+      <c r="Y20" s="13"/>
+      <c r="Z20" s="13"/>
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
     </row>
@@ -1345,22 +1344,22 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
       <c r="Q21" s="1"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
       <c r="U21" s="1"/>
-      <c r="V21" s="6"/>
-      <c r="W21" s="6"/>
-      <c r="X21" s="6"/>
-      <c r="Y21" s="6"/>
-      <c r="Z21" s="6"/>
+      <c r="V21" s="13"/>
+      <c r="W21" s="13"/>
+      <c r="X21" s="13"/>
+      <c r="Y21" s="13"/>
+      <c r="Z21" s="13"/>
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
     </row>
@@ -1405,30 +1404,30 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
-      <c r="K23" s="3">
+      <c r="K23" s="6">
         <v>3</v>
       </c>
-      <c r="L23" s="4" t="s">
+      <c r="L23" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
       <c r="Q23" s="1"/>
-      <c r="R23" s="4" t="s">
+      <c r="R23" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
       <c r="U23" s="1"/>
-      <c r="V23" s="10" t="s">
+      <c r="V23" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="W23" s="10"/>
-      <c r="X23" s="10"/>
-      <c r="Y23" s="10"/>
-      <c r="Z23" s="10"/>
+      <c r="W23" s="14"/>
+      <c r="X23" s="14"/>
+      <c r="Y23" s="14"/>
+      <c r="Z23" s="14"/>
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
     </row>
@@ -1443,22 +1442,22 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
       <c r="Q24" s="1"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
       <c r="U24" s="1"/>
-      <c r="V24" s="10"/>
-      <c r="W24" s="10"/>
-      <c r="X24" s="10"/>
-      <c r="Y24" s="10"/>
-      <c r="Z24" s="10"/>
+      <c r="V24" s="14"/>
+      <c r="W24" s="14"/>
+      <c r="X24" s="14"/>
+      <c r="Y24" s="14"/>
+      <c r="Z24" s="14"/>
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
     </row>
@@ -1503,30 +1502,30 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="3">
+      <c r="K26" s="6">
         <v>4</v>
       </c>
-      <c r="L26" s="5" t="s">
+      <c r="L26" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
       <c r="Q26" s="1"/>
-      <c r="R26" s="4" t="s">
+      <c r="R26" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
       <c r="U26" s="1"/>
-      <c r="V26" s="10" t="s">
+      <c r="V26" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="W26" s="10"/>
-      <c r="X26" s="10"/>
-      <c r="Y26" s="10"/>
-      <c r="Z26" s="10"/>
+      <c r="W26" s="14"/>
+      <c r="X26" s="14"/>
+      <c r="Y26" s="14"/>
+      <c r="Z26" s="14"/>
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
     </row>
@@ -1541,22 +1540,22 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
       <c r="Q27" s="1"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="4"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
       <c r="U27" s="1"/>
-      <c r="V27" s="10"/>
-      <c r="W27" s="10"/>
-      <c r="X27" s="10"/>
-      <c r="Y27" s="10"/>
-      <c r="Z27" s="10"/>
+      <c r="V27" s="14"/>
+      <c r="W27" s="14"/>
+      <c r="X27" s="14"/>
+      <c r="Y27" s="14"/>
+      <c r="Z27" s="14"/>
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
     </row>
@@ -1601,30 +1600,30 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
-      <c r="K29" s="3">
+      <c r="K29" s="6">
         <v>5</v>
       </c>
-      <c r="L29" s="5" t="s">
+      <c r="L29" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
       <c r="Q29" s="1"/>
-      <c r="R29" s="4" t="s">
+      <c r="R29" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
       <c r="U29" s="1"/>
-      <c r="V29" s="10" t="s">
+      <c r="V29" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="W29" s="10"/>
-      <c r="X29" s="10"/>
-      <c r="Y29" s="10"/>
-      <c r="Z29" s="10"/>
+      <c r="W29" s="14"/>
+      <c r="X29" s="14"/>
+      <c r="Y29" s="14"/>
+      <c r="Z29" s="14"/>
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
     </row>
@@ -1639,22 +1638,22 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
       <c r="Q30" s="1"/>
-      <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="4"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
       <c r="U30" s="1"/>
-      <c r="V30" s="10"/>
-      <c r="W30" s="10"/>
-      <c r="X30" s="10"/>
-      <c r="Y30" s="10"/>
-      <c r="Z30" s="10"/>
+      <c r="V30" s="14"/>
+      <c r="W30" s="14"/>
+      <c r="X30" s="14"/>
+      <c r="Y30" s="14"/>
+      <c r="Z30" s="14"/>
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
     </row>
@@ -1699,30 +1698,30 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
-      <c r="K32" s="3">
+      <c r="K32" s="6">
         <v>6</v>
       </c>
-      <c r="L32" s="5" t="s">
+      <c r="L32" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
       <c r="Q32" s="1"/>
-      <c r="R32" s="4" t="s">
+      <c r="R32" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="S32" s="4"/>
-      <c r="T32" s="4"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="8"/>
       <c r="U32" s="1"/>
-      <c r="V32" s="6" t="s">
+      <c r="V32" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="W32" s="6"/>
-      <c r="X32" s="6"/>
-      <c r="Y32" s="6"/>
-      <c r="Z32" s="6"/>
+      <c r="W32" s="13"/>
+      <c r="X32" s="13"/>
+      <c r="Y32" s="13"/>
+      <c r="Z32" s="13"/>
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
     </row>
@@ -1737,22 +1736,22 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
       <c r="Q33" s="1"/>
-      <c r="R33" s="4"/>
-      <c r="S33" s="4"/>
-      <c r="T33" s="4"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
       <c r="U33" s="1"/>
-      <c r="V33" s="6"/>
-      <c r="W33" s="6"/>
-      <c r="X33" s="6"/>
-      <c r="Y33" s="6"/>
-      <c r="Z33" s="6"/>
+      <c r="V33" s="13"/>
+      <c r="W33" s="13"/>
+      <c r="X33" s="13"/>
+      <c r="Y33" s="13"/>
+      <c r="Z33" s="13"/>
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
     </row>
@@ -1797,30 +1796,30 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
-      <c r="K35" s="3">
+      <c r="K35" s="6">
         <v>7</v>
       </c>
-      <c r="L35" s="5" t="s">
+      <c r="L35" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
       <c r="Q35" s="1"/>
-      <c r="R35" s="4" t="s">
+      <c r="R35" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="S35" s="4"/>
-      <c r="T35" s="4"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="8"/>
       <c r="U35" s="1"/>
-      <c r="V35" s="11" t="s">
+      <c r="V35" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="W35" s="11"/>
-      <c r="X35" s="11"/>
-      <c r="Y35" s="11"/>
-      <c r="Z35" s="11"/>
+      <c r="W35" s="12"/>
+      <c r="X35" s="12"/>
+      <c r="Y35" s="12"/>
+      <c r="Z35" s="12"/>
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
     </row>
@@ -1835,22 +1834,22 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="5"/>
-      <c r="P36" s="5"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
       <c r="Q36" s="1"/>
-      <c r="R36" s="4"/>
-      <c r="S36" s="4"/>
-      <c r="T36" s="4"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="8"/>
+      <c r="T36" s="8"/>
       <c r="U36" s="1"/>
-      <c r="V36" s="11"/>
-      <c r="W36" s="11"/>
-      <c r="X36" s="11"/>
-      <c r="Y36" s="11"/>
-      <c r="Z36" s="11"/>
+      <c r="V36" s="12"/>
+      <c r="W36" s="12"/>
+      <c r="X36" s="12"/>
+      <c r="Y36" s="12"/>
+      <c r="Z36" s="12"/>
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
     </row>
@@ -1892,33 +1891,33 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="9" t="s">
+      <c r="H38" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="8" t="s">
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="8"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
       <c r="Q38" s="1"/>
-      <c r="R38" s="8" t="s">
+      <c r="R38" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="S38" s="8"/>
-      <c r="T38" s="8"/>
+      <c r="S38" s="11"/>
+      <c r="T38" s="11"/>
       <c r="U38" s="1"/>
-      <c r="V38" s="8" t="s">
+      <c r="V38" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="W38" s="8"/>
-      <c r="X38" s="8"/>
-      <c r="Y38" s="8"/>
-      <c r="Z38" s="8"/>
+      <c r="W38" s="11"/>
+      <c r="X38" s="11"/>
+      <c r="Y38" s="11"/>
+      <c r="Z38" s="11"/>
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
     </row>
@@ -1930,25 +1929,25 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
-      <c r="O39" s="8"/>
-      <c r="P39" s="8"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
       <c r="Q39" s="1"/>
-      <c r="R39" s="8"/>
-      <c r="S39" s="8"/>
-      <c r="T39" s="8"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="11"/>
+      <c r="T39" s="11"/>
       <c r="U39" s="1"/>
-      <c r="V39" s="8"/>
-      <c r="W39" s="8"/>
-      <c r="X39" s="8"/>
-      <c r="Y39" s="8"/>
-      <c r="Z39" s="8"/>
+      <c r="V39" s="11"/>
+      <c r="W39" s="11"/>
+      <c r="X39" s="11"/>
+      <c r="Y39" s="11"/>
+      <c r="Z39" s="11"/>
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
     </row>
@@ -1993,30 +1992,30 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
-      <c r="K41" s="3">
+      <c r="K41" s="6">
         <v>1</v>
       </c>
-      <c r="L41" s="4" t="s">
+      <c r="L41" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
-      <c r="O41" s="4"/>
-      <c r="P41" s="4"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
       <c r="Q41" s="1"/>
-      <c r="R41" s="4" t="s">
+      <c r="R41" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="S41" s="4"/>
-      <c r="T41" s="4"/>
+      <c r="S41" s="8"/>
+      <c r="T41" s="8"/>
       <c r="U41" s="1"/>
-      <c r="V41" s="6" t="s">
+      <c r="V41" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="W41" s="6"/>
-      <c r="X41" s="6"/>
-      <c r="Y41" s="6"/>
-      <c r="Z41" s="6"/>
+      <c r="W41" s="13"/>
+      <c r="X41" s="13"/>
+      <c r="Y41" s="13"/>
+      <c r="Z41" s="13"/>
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
     </row>
@@ -2031,22 +2030,22 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
-      <c r="O42" s="4"/>
-      <c r="P42" s="4"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
       <c r="Q42" s="1"/>
-      <c r="R42" s="4"/>
-      <c r="S42" s="4"/>
-      <c r="T42" s="4"/>
+      <c r="R42" s="8"/>
+      <c r="S42" s="8"/>
+      <c r="T42" s="8"/>
       <c r="U42" s="1"/>
-      <c r="V42" s="6"/>
-      <c r="W42" s="6"/>
-      <c r="X42" s="6"/>
-      <c r="Y42" s="6"/>
-      <c r="Z42" s="6"/>
+      <c r="V42" s="13"/>
+      <c r="W42" s="13"/>
+      <c r="X42" s="13"/>
+      <c r="Y42" s="13"/>
+      <c r="Z42" s="13"/>
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
     </row>
@@ -2091,30 +2090,30 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
-      <c r="K44" s="3">
+      <c r="K44" s="6">
         <v>2</v>
       </c>
-      <c r="L44" s="4" t="s">
+      <c r="L44" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
-      <c r="O44" s="4"/>
-      <c r="P44" s="4"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="8"/>
       <c r="Q44" s="1"/>
-      <c r="R44" s="4" t="s">
+      <c r="R44" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="S44" s="4"/>
-      <c r="T44" s="4"/>
+      <c r="S44" s="8"/>
+      <c r="T44" s="8"/>
       <c r="U44" s="1"/>
-      <c r="V44" s="6" t="s">
+      <c r="V44" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="W44" s="6"/>
-      <c r="X44" s="6"/>
-      <c r="Y44" s="6"/>
-      <c r="Z44" s="6"/>
+      <c r="W44" s="13"/>
+      <c r="X44" s="13"/>
+      <c r="Y44" s="13"/>
+      <c r="Z44" s="13"/>
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
     </row>
@@ -2129,22 +2128,22 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
-      <c r="N45" s="4"/>
-      <c r="O45" s="4"/>
-      <c r="P45" s="4"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="8"/>
+      <c r="P45" s="8"/>
       <c r="Q45" s="1"/>
-      <c r="R45" s="4"/>
-      <c r="S45" s="4"/>
-      <c r="T45" s="4"/>
+      <c r="R45" s="8"/>
+      <c r="S45" s="8"/>
+      <c r="T45" s="8"/>
       <c r="U45" s="1"/>
-      <c r="V45" s="6"/>
-      <c r="W45" s="6"/>
-      <c r="X45" s="6"/>
-      <c r="Y45" s="6"/>
-      <c r="Z45" s="6"/>
+      <c r="V45" s="13"/>
+      <c r="W45" s="13"/>
+      <c r="X45" s="13"/>
+      <c r="Y45" s="13"/>
+      <c r="Z45" s="13"/>
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
     </row>
@@ -2189,30 +2188,30 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
-      <c r="K47" s="3">
+      <c r="K47" s="6">
         <v>3</v>
       </c>
-      <c r="L47" s="5" t="s">
+      <c r="L47" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="M47" s="5"/>
-      <c r="N47" s="5"/>
-      <c r="O47" s="5"/>
-      <c r="P47" s="5"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
       <c r="Q47" s="1"/>
-      <c r="R47" s="4" t="s">
+      <c r="R47" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="S47" s="4"/>
-      <c r="T47" s="4"/>
+      <c r="S47" s="8"/>
+      <c r="T47" s="8"/>
       <c r="U47" s="1"/>
-      <c r="V47" s="6" t="s">
+      <c r="V47" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="W47" s="6"/>
-      <c r="X47" s="6"/>
-      <c r="Y47" s="6"/>
-      <c r="Z47" s="6"/>
+      <c r="W47" s="13"/>
+      <c r="X47" s="13"/>
+      <c r="Y47" s="13"/>
+      <c r="Z47" s="13"/>
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
     </row>
@@ -2227,22 +2226,22 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="5"/>
-      <c r="N48" s="5"/>
-      <c r="O48" s="5"/>
-      <c r="P48" s="5"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7"/>
       <c r="Q48" s="1"/>
-      <c r="R48" s="4"/>
-      <c r="S48" s="4"/>
-      <c r="T48" s="4"/>
+      <c r="R48" s="8"/>
+      <c r="S48" s="8"/>
+      <c r="T48" s="8"/>
       <c r="U48" s="1"/>
-      <c r="V48" s="6"/>
-      <c r="W48" s="6"/>
-      <c r="X48" s="6"/>
-      <c r="Y48" s="6"/>
-      <c r="Z48" s="6"/>
+      <c r="V48" s="13"/>
+      <c r="W48" s="13"/>
+      <c r="X48" s="13"/>
+      <c r="Y48" s="13"/>
+      <c r="Z48" s="13"/>
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
     </row>
@@ -2287,30 +2286,30 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
-      <c r="K50" s="3">
+      <c r="K50" s="6">
         <v>4</v>
       </c>
-      <c r="L50" s="5" t="s">
+      <c r="L50" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="M50" s="5"/>
-      <c r="N50" s="5"/>
-      <c r="O50" s="5"/>
-      <c r="P50" s="5"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="7"/>
+      <c r="P50" s="7"/>
       <c r="Q50" s="1"/>
-      <c r="R50" s="4" t="s">
+      <c r="R50" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="S50" s="4"/>
-      <c r="T50" s="4"/>
+      <c r="S50" s="8"/>
+      <c r="T50" s="8"/>
       <c r="U50" s="1"/>
-      <c r="V50" s="6" t="s">
+      <c r="V50" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="W50" s="6"/>
-      <c r="X50" s="6"/>
-      <c r="Y50" s="6"/>
-      <c r="Z50" s="6"/>
+      <c r="W50" s="13"/>
+      <c r="X50" s="13"/>
+      <c r="Y50" s="13"/>
+      <c r="Z50" s="13"/>
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
     </row>
@@ -2325,22 +2324,22 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="5"/>
-      <c r="M51" s="5"/>
-      <c r="N51" s="5"/>
-      <c r="O51" s="5"/>
-      <c r="P51" s="5"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="7"/>
+      <c r="P51" s="7"/>
       <c r="Q51" s="1"/>
-      <c r="R51" s="4"/>
-      <c r="S51" s="4"/>
-      <c r="T51" s="4"/>
+      <c r="R51" s="8"/>
+      <c r="S51" s="8"/>
+      <c r="T51" s="8"/>
       <c r="U51" s="1"/>
-      <c r="V51" s="6"/>
-      <c r="W51" s="6"/>
-      <c r="X51" s="6"/>
-      <c r="Y51" s="6"/>
-      <c r="Z51" s="6"/>
+      <c r="V51" s="13"/>
+      <c r="W51" s="13"/>
+      <c r="X51" s="13"/>
+      <c r="Y51" s="13"/>
+      <c r="Z51" s="13"/>
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
     </row>
@@ -2382,694 +2381,665 @@
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
-      <c r="H53" s="9" t="s">
+      <c r="H53" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="I53" s="9"/>
-      <c r="J53" s="9"/>
-      <c r="K53" s="9"/>
-      <c r="L53" s="8" t="s">
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="M53" s="8"/>
-      <c r="N53" s="8"/>
-      <c r="O53" s="8"/>
-      <c r="P53" s="8"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="11"/>
+      <c r="P53" s="11"/>
       <c r="Q53" s="1"/>
-      <c r="R53" s="8" t="s">
+      <c r="R53" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="S53" s="8"/>
-      <c r="T53" s="8"/>
+      <c r="S53" s="11"/>
+      <c r="T53" s="11"/>
       <c r="U53" s="1"/>
-      <c r="V53" s="8" t="s">
+      <c r="V53" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="W53" s="8"/>
-      <c r="X53" s="8"/>
-      <c r="Y53" s="8"/>
-      <c r="Z53" s="8"/>
+      <c r="W53" s="11"/>
+      <c r="X53" s="11"/>
+      <c r="Y53" s="11"/>
+      <c r="Z53" s="11"/>
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="9"/>
-      <c r="K54" s="9"/>
-      <c r="L54" s="8"/>
-      <c r="M54" s="8"/>
-      <c r="N54" s="8"/>
-      <c r="O54" s="8"/>
-      <c r="P54" s="8"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="11"/>
+      <c r="P54" s="11"/>
       <c r="Q54" s="1"/>
-      <c r="R54" s="8"/>
-      <c r="S54" s="8"/>
-      <c r="T54" s="8"/>
+      <c r="R54" s="11"/>
+      <c r="S54" s="11"/>
+      <c r="T54" s="11"/>
       <c r="U54" s="1"/>
-      <c r="V54" s="8"/>
-      <c r="W54" s="8"/>
-      <c r="X54" s="8"/>
-      <c r="Y54" s="8"/>
-      <c r="Z54" s="8"/>
+      <c r="V54" s="11"/>
+      <c r="W54" s="11"/>
+      <c r="X54" s="11"/>
+      <c r="Y54" s="11"/>
+      <c r="Z54" s="11"/>
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="H56" s="12" t="s">
+      <c r="H56" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="I56" s="12"/>
-      <c r="J56" s="12"/>
-      <c r="K56" s="12"/>
-      <c r="L56" s="12"/>
-      <c r="M56" s="12"/>
-      <c r="N56" s="12"/>
-      <c r="O56" s="12"/>
-      <c r="P56" s="12"/>
-      <c r="Q56" s="12"/>
-      <c r="R56" s="12"/>
-      <c r="S56" s="12"/>
-      <c r="T56" s="12"/>
-      <c r="U56" s="12"/>
-      <c r="V56" s="12"/>
-      <c r="W56" s="12"/>
-      <c r="X56" s="12"/>
-      <c r="Y56" s="12"/>
-      <c r="Z56" s="12"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="9"/>
+      <c r="N56" s="9"/>
+      <c r="O56" s="9"/>
+      <c r="P56" s="9"/>
+      <c r="Q56" s="9"/>
+      <c r="R56" s="9"/>
+      <c r="S56" s="9"/>
+      <c r="T56" s="9"/>
+      <c r="U56" s="9"/>
+      <c r="V56" s="9"/>
+      <c r="W56" s="9"/>
+      <c r="X56" s="9"/>
+      <c r="Y56" s="9"/>
+      <c r="Z56" s="9"/>
     </row>
     <row r="57" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="H57" s="12"/>
-      <c r="I57" s="12"/>
-      <c r="J57" s="12"/>
-      <c r="K57" s="12"/>
-      <c r="L57" s="12"/>
-      <c r="M57" s="12"/>
-      <c r="N57" s="12"/>
-      <c r="O57" s="12"/>
-      <c r="P57" s="12"/>
-      <c r="Q57" s="12"/>
-      <c r="R57" s="12"/>
-      <c r="S57" s="12"/>
-      <c r="T57" s="12"/>
-      <c r="U57" s="12"/>
-      <c r="V57" s="12"/>
-      <c r="W57" s="12"/>
-      <c r="X57" s="12"/>
-      <c r="Y57" s="12"/>
-      <c r="Z57" s="12"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="9"/>
+      <c r="N57" s="9"/>
+      <c r="O57" s="9"/>
+      <c r="P57" s="9"/>
+      <c r="Q57" s="9"/>
+      <c r="R57" s="9"/>
+      <c r="S57" s="9"/>
+      <c r="T57" s="9"/>
+      <c r="U57" s="9"/>
+      <c r="V57" s="9"/>
+      <c r="W57" s="9"/>
+      <c r="X57" s="9"/>
+      <c r="Y57" s="9"/>
+      <c r="Z57" s="9"/>
     </row>
     <row r="59" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="H59" s="9" t="s">
+      <c r="H59" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="I59" s="9"/>
-      <c r="J59" s="9"/>
-      <c r="K59" s="9"/>
-      <c r="L59" s="8" t="s">
+      <c r="I59" s="10"/>
+      <c r="J59" s="10"/>
+      <c r="K59" s="10"/>
+      <c r="L59" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="M59" s="8"/>
-      <c r="N59" s="8"/>
-      <c r="O59" s="8"/>
-      <c r="P59" s="8"/>
+      <c r="M59" s="11"/>
+      <c r="N59" s="11"/>
+      <c r="O59" s="11"/>
+      <c r="P59" s="11"/>
       <c r="Q59" s="1"/>
-      <c r="R59" s="8" t="s">
+      <c r="R59" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="S59" s="8"/>
-      <c r="T59" s="8"/>
+      <c r="S59" s="11"/>
+      <c r="T59" s="11"/>
       <c r="U59" s="1"/>
-      <c r="V59" s="8" t="s">
+      <c r="V59" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="W59" s="8"/>
-      <c r="X59" s="8"/>
-      <c r="Y59" s="8"/>
-      <c r="Z59" s="8"/>
+      <c r="W59" s="11"/>
+      <c r="X59" s="11"/>
+      <c r="Y59" s="11"/>
+      <c r="Z59" s="11"/>
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="H60" s="9"/>
-      <c r="I60" s="9"/>
-      <c r="J60" s="9"/>
-      <c r="K60" s="9"/>
-      <c r="L60" s="8"/>
-      <c r="M60" s="8"/>
-      <c r="N60" s="8"/>
-      <c r="O60" s="8"/>
-      <c r="P60" s="8"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
+      <c r="L60" s="11"/>
+      <c r="M60" s="11"/>
+      <c r="N60" s="11"/>
+      <c r="O60" s="11"/>
+      <c r="P60" s="11"/>
       <c r="Q60" s="1"/>
-      <c r="R60" s="8"/>
-      <c r="S60" s="8"/>
-      <c r="T60" s="8"/>
+      <c r="R60" s="11"/>
+      <c r="S60" s="11"/>
+      <c r="T60" s="11"/>
       <c r="U60" s="1"/>
-      <c r="V60" s="8"/>
-      <c r="W60" s="8"/>
-      <c r="X60" s="8"/>
-      <c r="Y60" s="8"/>
-      <c r="Z60" s="8"/>
+      <c r="V60" s="11"/>
+      <c r="W60" s="11"/>
+      <c r="X60" s="11"/>
+      <c r="Y60" s="11"/>
+      <c r="Z60" s="11"/>
     </row>
     <row r="62" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="H62" s="12" t="s">
+      <c r="H62" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="I62" s="12"/>
-      <c r="J62" s="12"/>
-      <c r="K62" s="12"/>
-      <c r="L62" s="12"/>
-      <c r="M62" s="12"/>
-      <c r="N62" s="12"/>
-      <c r="O62" s="12"/>
-      <c r="P62" s="12"/>
-      <c r="Q62" s="12"/>
-      <c r="R62" s="12"/>
-      <c r="S62" s="12"/>
-      <c r="T62" s="12"/>
-      <c r="U62" s="12"/>
-      <c r="V62" s="12"/>
-      <c r="W62" s="12"/>
-      <c r="X62" s="12"/>
-      <c r="Y62" s="12"/>
-      <c r="Z62" s="12"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="9"/>
+      <c r="O62" s="9"/>
+      <c r="P62" s="9"/>
+      <c r="Q62" s="9"/>
+      <c r="R62" s="9"/>
+      <c r="S62" s="9"/>
+      <c r="T62" s="9"/>
+      <c r="U62" s="9"/>
+      <c r="V62" s="9"/>
+      <c r="W62" s="9"/>
+      <c r="X62" s="9"/>
+      <c r="Y62" s="9"/>
+      <c r="Z62" s="9"/>
     </row>
     <row r="63" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="H63" s="12"/>
-      <c r="I63" s="12"/>
-      <c r="J63" s="12"/>
-      <c r="K63" s="12"/>
-      <c r="L63" s="12"/>
-      <c r="M63" s="12"/>
-      <c r="N63" s="12"/>
-      <c r="O63" s="12"/>
-      <c r="P63" s="12"/>
-      <c r="Q63" s="12"/>
-      <c r="R63" s="12"/>
-      <c r="S63" s="12"/>
-      <c r="T63" s="12"/>
-      <c r="U63" s="12"/>
-      <c r="V63" s="12"/>
-      <c r="W63" s="12"/>
-      <c r="X63" s="12"/>
-      <c r="Y63" s="12"/>
-      <c r="Z63" s="12"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="9"/>
+      <c r="O63" s="9"/>
+      <c r="P63" s="9"/>
+      <c r="Q63" s="9"/>
+      <c r="R63" s="9"/>
+      <c r="S63" s="9"/>
+      <c r="T63" s="9"/>
+      <c r="U63" s="9"/>
+      <c r="V63" s="9"/>
+      <c r="W63" s="9"/>
+      <c r="X63" s="9"/>
+      <c r="Y63" s="9"/>
+      <c r="Z63" s="9"/>
     </row>
     <row r="65" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="H65" s="9" t="s">
+      <c r="H65" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="I65" s="9"/>
-      <c r="J65" s="9"/>
-      <c r="K65" s="9"/>
-      <c r="L65" s="8" t="s">
+      <c r="I65" s="10"/>
+      <c r="J65" s="10"/>
+      <c r="K65" s="10"/>
+      <c r="L65" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="M65" s="8"/>
-      <c r="N65" s="8"/>
-      <c r="O65" s="8"/>
-      <c r="P65" s="8"/>
+      <c r="M65" s="11"/>
+      <c r="N65" s="11"/>
+      <c r="O65" s="11"/>
+      <c r="P65" s="11"/>
       <c r="Q65" s="1"/>
-      <c r="R65" s="8" t="s">
+      <c r="R65" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="S65" s="8"/>
-      <c r="T65" s="8"/>
+      <c r="S65" s="11"/>
+      <c r="T65" s="11"/>
       <c r="U65" s="1"/>
-      <c r="V65" s="8" t="s">
+      <c r="V65" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="W65" s="8"/>
-      <c r="X65" s="8"/>
-      <c r="Y65" s="8"/>
-      <c r="Z65" s="8"/>
+      <c r="W65" s="11"/>
+      <c r="X65" s="11"/>
+      <c r="Y65" s="11"/>
+      <c r="Z65" s="11"/>
     </row>
     <row r="66" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="H66" s="9"/>
-      <c r="I66" s="9"/>
-      <c r="J66" s="9"/>
-      <c r="K66" s="9"/>
-      <c r="L66" s="8"/>
-      <c r="M66" s="8"/>
-      <c r="N66" s="8"/>
-      <c r="O66" s="8"/>
-      <c r="P66" s="8"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="10"/>
+      <c r="K66" s="10"/>
+      <c r="L66" s="11"/>
+      <c r="M66" s="11"/>
+      <c r="N66" s="11"/>
+      <c r="O66" s="11"/>
+      <c r="P66" s="11"/>
       <c r="Q66" s="1"/>
-      <c r="R66" s="8"/>
-      <c r="S66" s="8"/>
-      <c r="T66" s="8"/>
+      <c r="R66" s="11"/>
+      <c r="S66" s="11"/>
+      <c r="T66" s="11"/>
       <c r="U66" s="1"/>
-      <c r="V66" s="8"/>
-      <c r="W66" s="8"/>
-      <c r="X66" s="8"/>
-      <c r="Y66" s="8"/>
-      <c r="Z66" s="8"/>
+      <c r="V66" s="11"/>
+      <c r="W66" s="11"/>
+      <c r="X66" s="11"/>
+      <c r="Y66" s="11"/>
+      <c r="Z66" s="11"/>
     </row>
     <row r="68" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="H68" s="12" t="s">
+      <c r="H68" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="I68" s="12"/>
-      <c r="J68" s="12"/>
-      <c r="K68" s="12"/>
-      <c r="L68" s="12"/>
-      <c r="M68" s="12"/>
-      <c r="N68" s="12"/>
-      <c r="O68" s="12"/>
-      <c r="P68" s="12"/>
-      <c r="Q68" s="12"/>
-      <c r="R68" s="12"/>
-      <c r="S68" s="12"/>
-      <c r="T68" s="12"/>
-      <c r="U68" s="12"/>
-      <c r="V68" s="12"/>
-      <c r="W68" s="12"/>
-      <c r="X68" s="12"/>
-      <c r="Y68" s="12"/>
-      <c r="Z68" s="12"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="9"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="9"/>
+      <c r="O68" s="9"/>
+      <c r="P68" s="9"/>
+      <c r="Q68" s="9"/>
+      <c r="R68" s="9"/>
+      <c r="S68" s="9"/>
+      <c r="T68" s="9"/>
+      <c r="U68" s="9"/>
+      <c r="V68" s="9"/>
+      <c r="W68" s="9"/>
+      <c r="X68" s="9"/>
+      <c r="Y68" s="9"/>
+      <c r="Z68" s="9"/>
     </row>
     <row r="69" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="H69" s="12"/>
-      <c r="I69" s="12"/>
-      <c r="J69" s="12"/>
-      <c r="K69" s="12"/>
-      <c r="L69" s="12"/>
-      <c r="M69" s="12"/>
-      <c r="N69" s="12"/>
-      <c r="O69" s="12"/>
-      <c r="P69" s="12"/>
-      <c r="Q69" s="12"/>
-      <c r="R69" s="12"/>
-      <c r="S69" s="12"/>
-      <c r="T69" s="12"/>
-      <c r="U69" s="12"/>
-      <c r="V69" s="12"/>
-      <c r="W69" s="12"/>
-      <c r="X69" s="12"/>
-      <c r="Y69" s="12"/>
-      <c r="Z69" s="12"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c r="L69" s="9"/>
+      <c r="M69" s="9"/>
+      <c r="N69" s="9"/>
+      <c r="O69" s="9"/>
+      <c r="P69" s="9"/>
+      <c r="Q69" s="9"/>
+      <c r="R69" s="9"/>
+      <c r="S69" s="9"/>
+      <c r="T69" s="9"/>
+      <c r="U69" s="9"/>
+      <c r="V69" s="9"/>
+      <c r="W69" s="9"/>
+      <c r="X69" s="9"/>
+      <c r="Y69" s="9"/>
+      <c r="Z69" s="9"/>
     </row>
     <row r="71" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="H71" s="9" t="s">
+      <c r="H71" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="I71" s="9"/>
-      <c r="J71" s="9"/>
-      <c r="K71" s="9"/>
-      <c r="L71" s="8" t="s">
+      <c r="I71" s="10"/>
+      <c r="J71" s="10"/>
+      <c r="K71" s="10"/>
+      <c r="L71" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="M71" s="8"/>
-      <c r="N71" s="8"/>
-      <c r="O71" s="8"/>
-      <c r="P71" s="8"/>
+      <c r="M71" s="11"/>
+      <c r="N71" s="11"/>
+      <c r="O71" s="11"/>
+      <c r="P71" s="11"/>
       <c r="Q71" s="1"/>
-      <c r="R71" s="8" t="s">
+      <c r="R71" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="S71" s="8"/>
-      <c r="T71" s="8"/>
+      <c r="S71" s="11"/>
+      <c r="T71" s="11"/>
       <c r="U71" s="1"/>
-      <c r="V71" s="8" t="s">
+      <c r="V71" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="W71" s="8"/>
-      <c r="X71" s="8"/>
-      <c r="Y71" s="8"/>
-      <c r="Z71" s="8"/>
+      <c r="W71" s="11"/>
+      <c r="X71" s="11"/>
+      <c r="Y71" s="11"/>
+      <c r="Z71" s="11"/>
     </row>
     <row r="72" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="H72" s="9"/>
-      <c r="I72" s="9"/>
-      <c r="J72" s="9"/>
-      <c r="K72" s="9"/>
-      <c r="L72" s="8"/>
-      <c r="M72" s="8"/>
-      <c r="N72" s="8"/>
-      <c r="O72" s="8"/>
-      <c r="P72" s="8"/>
+      <c r="H72" s="10"/>
+      <c r="I72" s="10"/>
+      <c r="J72" s="10"/>
+      <c r="K72" s="10"/>
+      <c r="L72" s="11"/>
+      <c r="M72" s="11"/>
+      <c r="N72" s="11"/>
+      <c r="O72" s="11"/>
+      <c r="P72" s="11"/>
       <c r="Q72" s="1"/>
-      <c r="R72" s="8"/>
-      <c r="S72" s="8"/>
-      <c r="T72" s="8"/>
+      <c r="R72" s="11"/>
+      <c r="S72" s="11"/>
+      <c r="T72" s="11"/>
       <c r="U72" s="1"/>
-      <c r="V72" s="8"/>
-      <c r="W72" s="8"/>
-      <c r="X72" s="8"/>
-      <c r="Y72" s="8"/>
-      <c r="Z72" s="8"/>
-    </row>
-    <row r="73" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="N73" s="18"/>
-      <c r="O73" s="18"/>
-      <c r="P73" s="18"/>
-      <c r="Q73" s="18"/>
-      <c r="R73" s="18"/>
-      <c r="S73" s="18"/>
-      <c r="T73" s="18"/>
-      <c r="U73" s="18"/>
-      <c r="V73" s="18"/>
-      <c r="W73" s="18"/>
-      <c r="X73" s="18"/>
-      <c r="Y73" s="18"/>
-      <c r="Z73" s="18"/>
+      <c r="V72" s="11"/>
+      <c r="W72" s="11"/>
+      <c r="X72" s="11"/>
+      <c r="Y72" s="11"/>
+      <c r="Z72" s="11"/>
     </row>
     <row r="75" spans="8:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I75" s="20" t="s">
+      <c r="I75" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="K75" s="3">
+      <c r="K75" s="6">
         <v>1</v>
       </c>
-      <c r="L75" s="5" t="s">
+      <c r="L75" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="M75" s="5"/>
-      <c r="N75" s="5"/>
-      <c r="O75" s="5"/>
-      <c r="P75" s="5"/>
+      <c r="M75" s="7"/>
+      <c r="N75" s="7"/>
+      <c r="O75" s="7"/>
+      <c r="P75" s="7"/>
       <c r="Q75" s="1"/>
-      <c r="R75" s="4" t="s">
+      <c r="R75" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="S75" s="4"/>
-      <c r="T75" s="4"/>
+      <c r="S75" s="8"/>
+      <c r="T75" s="8"/>
       <c r="U75" s="1"/>
-      <c r="V75" s="18"/>
-      <c r="W75" s="18"/>
-      <c r="X75" s="18"/>
-      <c r="Y75" s="18"/>
-      <c r="Z75" s="18"/>
     </row>
     <row r="76" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="I76" s="20"/>
-      <c r="K76" s="3"/>
-      <c r="L76" s="5"/>
-      <c r="M76" s="5"/>
-      <c r="N76" s="5"/>
-      <c r="O76" s="5"/>
-      <c r="P76" s="5"/>
+      <c r="I76" s="5"/>
+      <c r="K76" s="6"/>
+      <c r="L76" s="7"/>
+      <c r="M76" s="7"/>
+      <c r="N76" s="7"/>
+      <c r="O76" s="7"/>
+      <c r="P76" s="7"/>
       <c r="Q76" s="1"/>
-      <c r="R76" s="4"/>
-      <c r="S76" s="4"/>
-      <c r="T76" s="4"/>
+      <c r="R76" s="8"/>
+      <c r="S76" s="8"/>
+      <c r="T76" s="8"/>
       <c r="U76" s="1"/>
-      <c r="V76" s="18"/>
-      <c r="W76" s="18"/>
-      <c r="X76" s="18"/>
-      <c r="Y76" s="18"/>
-      <c r="Z76" s="18"/>
     </row>
     <row r="77" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="I77" s="20"/>
+      <c r="I77" s="5"/>
     </row>
     <row r="78" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="I78" s="20"/>
-      <c r="K78" s="3">
+      <c r="I78" s="5"/>
+      <c r="K78" s="6">
         <v>2</v>
       </c>
-      <c r="L78" s="4" t="s">
+      <c r="L78" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="M78" s="4"/>
-      <c r="N78" s="4"/>
-      <c r="O78" s="4"/>
-      <c r="P78" s="4"/>
+      <c r="M78" s="8"/>
+      <c r="N78" s="8"/>
+      <c r="O78" s="8"/>
+      <c r="P78" s="8"/>
       <c r="Q78" s="1"/>
-      <c r="R78" s="4" t="s">
+      <c r="R78" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="S78" s="4"/>
-      <c r="T78" s="4"/>
+      <c r="S78" s="8"/>
+      <c r="T78" s="8"/>
       <c r="U78" s="1"/>
-      <c r="V78" s="18"/>
-      <c r="W78" s="18"/>
-      <c r="X78" s="18"/>
-      <c r="Y78" s="18"/>
-      <c r="Z78" s="18"/>
     </row>
     <row r="79" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="I79" s="20"/>
-      <c r="K79" s="3"/>
-      <c r="L79" s="4"/>
-      <c r="M79" s="4"/>
-      <c r="N79" s="4"/>
-      <c r="O79" s="4"/>
-      <c r="P79" s="4"/>
+      <c r="I79" s="5"/>
+      <c r="K79" s="6"/>
+      <c r="L79" s="8"/>
+      <c r="M79" s="8"/>
+      <c r="N79" s="8"/>
+      <c r="O79" s="8"/>
+      <c r="P79" s="8"/>
       <c r="Q79" s="1"/>
-      <c r="R79" s="4"/>
-      <c r="S79" s="4"/>
-      <c r="T79" s="4"/>
+      <c r="R79" s="8"/>
+      <c r="S79" s="8"/>
+      <c r="T79" s="8"/>
       <c r="U79" s="1"/>
-      <c r="V79" s="18"/>
-      <c r="W79" s="18"/>
-      <c r="X79" s="18"/>
-      <c r="Y79" s="18"/>
-      <c r="Z79" s="18"/>
     </row>
     <row r="80" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="I80" s="20"/>
+      <c r="I80" s="5"/>
     </row>
     <row r="81" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="I81" s="20"/>
-      <c r="K81" s="3">
+      <c r="I81" s="5"/>
+      <c r="K81" s="6">
         <v>3</v>
       </c>
-      <c r="L81" s="4" t="s">
+      <c r="L81" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="M81" s="4"/>
-      <c r="N81" s="4"/>
-      <c r="O81" s="4"/>
-      <c r="P81" s="4"/>
+      <c r="M81" s="8"/>
+      <c r="N81" s="8"/>
+      <c r="O81" s="8"/>
+      <c r="P81" s="8"/>
       <c r="Q81" s="1"/>
-      <c r="R81" s="4" t="s">
+      <c r="R81" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="S81" s="4"/>
-      <c r="T81" s="4"/>
+      <c r="S81" s="8"/>
+      <c r="T81" s="8"/>
     </row>
     <row r="82" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="G82" s="21"/>
-      <c r="I82" s="20"/>
-      <c r="K82" s="3"/>
-      <c r="L82" s="4"/>
-      <c r="M82" s="4"/>
-      <c r="N82" s="4"/>
-      <c r="O82" s="4"/>
-      <c r="P82" s="4"/>
+      <c r="G82" s="3"/>
+      <c r="I82" s="5"/>
+      <c r="K82" s="6"/>
+      <c r="L82" s="8"/>
+      <c r="M82" s="8"/>
+      <c r="N82" s="8"/>
+      <c r="O82" s="8"/>
+      <c r="P82" s="8"/>
       <c r="Q82" s="1"/>
-      <c r="R82" s="4"/>
-      <c r="S82" s="4"/>
-      <c r="T82" s="4"/>
+      <c r="R82" s="8"/>
+      <c r="S82" s="8"/>
+      <c r="T82" s="8"/>
     </row>
     <row r="83" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="G83" s="21"/>
-      <c r="I83" s="20"/>
+      <c r="G83" s="3"/>
+      <c r="I83" s="5"/>
     </row>
     <row r="84" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="G84" s="21"/>
-      <c r="I84" s="20"/>
-      <c r="K84" s="3">
+      <c r="G84" s="3"/>
+      <c r="I84" s="5"/>
+      <c r="K84" s="6">
         <v>4</v>
       </c>
-      <c r="L84" s="4" t="s">
+      <c r="L84" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="M84" s="4"/>
-      <c r="N84" s="4"/>
-      <c r="O84" s="4"/>
-      <c r="P84" s="4"/>
+      <c r="M84" s="8"/>
+      <c r="N84" s="8"/>
+      <c r="O84" s="8"/>
+      <c r="P84" s="8"/>
       <c r="Q84" s="1"/>
-      <c r="R84" s="4" t="s">
+      <c r="R84" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="S84" s="4"/>
-      <c r="T84" s="4"/>
+      <c r="S84" s="8"/>
+      <c r="T84" s="8"/>
     </row>
     <row r="85" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="G85" s="21"/>
-      <c r="I85" s="20"/>
-      <c r="K85" s="3"/>
-      <c r="L85" s="4"/>
-      <c r="M85" s="4"/>
-      <c r="N85" s="4"/>
-      <c r="O85" s="4"/>
-      <c r="P85" s="4"/>
+      <c r="G85" s="3"/>
+      <c r="I85" s="5"/>
+      <c r="K85" s="6"/>
+      <c r="L85" s="8"/>
+      <c r="M85" s="8"/>
+      <c r="N85" s="8"/>
+      <c r="O85" s="8"/>
+      <c r="P85" s="8"/>
       <c r="Q85" s="1"/>
-      <c r="R85" s="4"/>
-      <c r="S85" s="4"/>
-      <c r="T85" s="4"/>
+      <c r="R85" s="8"/>
+      <c r="S85" s="8"/>
+      <c r="T85" s="8"/>
     </row>
     <row r="86" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="G86" s="21"/>
-      <c r="I86" s="20"/>
+      <c r="G86" s="3"/>
+      <c r="I86" s="5"/>
     </row>
     <row r="87" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="G87" s="21"/>
-      <c r="I87" s="20"/>
-      <c r="K87" s="3">
+      <c r="G87" s="3"/>
+      <c r="I87" s="5"/>
+      <c r="K87" s="6">
         <v>5</v>
       </c>
-      <c r="L87" s="4" t="s">
+      <c r="L87" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="M87" s="4"/>
-      <c r="N87" s="4"/>
-      <c r="O87" s="4"/>
-      <c r="P87" s="4"/>
+      <c r="M87" s="8"/>
+      <c r="N87" s="8"/>
+      <c r="O87" s="8"/>
+      <c r="P87" s="8"/>
       <c r="Q87" s="1"/>
-      <c r="R87" s="4" t="s">
+      <c r="R87" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="S87" s="4"/>
-      <c r="T87" s="4"/>
+      <c r="S87" s="8"/>
+      <c r="T87" s="8"/>
     </row>
     <row r="88" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="G88" s="19" t="s">
+      <c r="G88" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I88" s="20"/>
-      <c r="K88" s="3"/>
-      <c r="L88" s="4"/>
-      <c r="M88" s="4"/>
-      <c r="N88" s="4"/>
-      <c r="O88" s="4"/>
-      <c r="P88" s="4"/>
+      <c r="I88" s="5"/>
+      <c r="K88" s="6"/>
+      <c r="L88" s="8"/>
+      <c r="M88" s="8"/>
+      <c r="N88" s="8"/>
+      <c r="O88" s="8"/>
+      <c r="P88" s="8"/>
       <c r="Q88" s="1"/>
-      <c r="R88" s="4"/>
-      <c r="S88" s="4"/>
-      <c r="T88" s="4"/>
+      <c r="R88" s="8"/>
+      <c r="S88" s="8"/>
+      <c r="T88" s="8"/>
     </row>
     <row r="89" spans="7:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G89" s="19"/>
+      <c r="G89" s="4"/>
     </row>
     <row r="90" spans="7:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G90" s="19"/>
-      <c r="I90" s="18"/>
-      <c r="K90" s="18"/>
-      <c r="L90" s="18"/>
-      <c r="M90" s="18"/>
-      <c r="N90" s="18"/>
-      <c r="O90" s="18"/>
-      <c r="P90" s="18"/>
-      <c r="Q90" s="18"/>
-      <c r="R90" s="18"/>
-      <c r="S90" s="18"/>
-      <c r="T90" s="18"/>
+      <c r="G90" s="4"/>
     </row>
     <row r="91" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="G91" s="19"/>
-      <c r="I91" s="20" t="s">
+      <c r="G91" s="4"/>
+      <c r="I91" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="K91" s="3">
+      <c r="K91" s="6">
         <v>1</v>
       </c>
-      <c r="L91" s="5" t="s">
+      <c r="L91" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="M91" s="5"/>
-      <c r="N91" s="5"/>
-      <c r="O91" s="5"/>
-      <c r="P91" s="5"/>
+      <c r="M91" s="7"/>
+      <c r="N91" s="7"/>
+      <c r="O91" s="7"/>
+      <c r="P91" s="7"/>
       <c r="Q91" s="1"/>
-      <c r="R91" s="4" t="s">
+      <c r="R91" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="S91" s="4"/>
-      <c r="T91" s="4"/>
+      <c r="S91" s="8"/>
+      <c r="T91" s="8"/>
     </row>
     <row r="92" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="G92" s="21"/>
-      <c r="I92" s="20"/>
-      <c r="K92" s="3"/>
-      <c r="L92" s="5"/>
-      <c r="M92" s="5"/>
-      <c r="N92" s="5"/>
-      <c r="O92" s="5"/>
-      <c r="P92" s="5"/>
+      <c r="G92" s="3"/>
+      <c r="I92" s="5"/>
+      <c r="K92" s="6"/>
+      <c r="L92" s="7"/>
+      <c r="M92" s="7"/>
+      <c r="N92" s="7"/>
+      <c r="O92" s="7"/>
+      <c r="P92" s="7"/>
       <c r="Q92" s="1"/>
-      <c r="R92" s="4"/>
-      <c r="S92" s="4"/>
-      <c r="T92" s="4"/>
+      <c r="R92" s="8"/>
+      <c r="S92" s="8"/>
+      <c r="T92" s="8"/>
     </row>
     <row r="93" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="G93" s="21"/>
-      <c r="I93" s="20"/>
+      <c r="G93" s="3"/>
+      <c r="I93" s="5"/>
     </row>
     <row r="94" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="G94" s="21"/>
-      <c r="I94" s="20"/>
+      <c r="G94" s="3"/>
+      <c r="I94" s="5"/>
     </row>
     <row r="95" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="G95" s="21"/>
-      <c r="I95" s="20"/>
+      <c r="G95" s="3"/>
+      <c r="I95" s="5"/>
     </row>
     <row r="96" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="G96" s="21"/>
-      <c r="I96" s="20"/>
+      <c r="G96" s="3"/>
+      <c r="I96" s="5"/>
     </row>
     <row r="97" spans="7:9" x14ac:dyDescent="0.45">
-      <c r="G97" s="21"/>
-      <c r="I97" s="20"/>
+      <c r="G97" s="3"/>
+      <c r="I97" s="5"/>
     </row>
     <row r="98" spans="7:9" x14ac:dyDescent="0.45">
-      <c r="G98" s="21"/>
-      <c r="I98" s="20"/>
+      <c r="G98" s="3"/>
+      <c r="I98" s="5"/>
     </row>
     <row r="99" spans="7:9" x14ac:dyDescent="0.45">
-      <c r="I99" s="20"/>
+      <c r="I99" s="5"/>
     </row>
     <row r="100" spans="7:9" x14ac:dyDescent="0.45">
-      <c r="I100" s="20"/>
+      <c r="I100" s="5"/>
     </row>
     <row r="101" spans="7:9" x14ac:dyDescent="0.45">
-      <c r="I101" s="20"/>
+      <c r="I101" s="5"/>
     </row>
     <row r="102" spans="7:9" x14ac:dyDescent="0.45">
-      <c r="I102" s="20"/>
+      <c r="I102" s="5"/>
     </row>
     <row r="103" spans="7:9" x14ac:dyDescent="0.45">
-      <c r="I103" s="20"/>
+      <c r="I103" s="5"/>
     </row>
     <row r="104" spans="7:9" x14ac:dyDescent="0.45">
-      <c r="I104" s="20"/>
+      <c r="I104" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="105">
-    <mergeCell ref="G88:G91"/>
-    <mergeCell ref="I91:I104"/>
-    <mergeCell ref="K91:K92"/>
-    <mergeCell ref="L91:P92"/>
-    <mergeCell ref="R91:T92"/>
-    <mergeCell ref="L81:P82"/>
-    <mergeCell ref="R81:T82"/>
-    <mergeCell ref="K84:K85"/>
-    <mergeCell ref="L84:P85"/>
-    <mergeCell ref="R84:T85"/>
-    <mergeCell ref="L78:P79"/>
-    <mergeCell ref="R78:T79"/>
-    <mergeCell ref="K87:K88"/>
-    <mergeCell ref="L87:P88"/>
-    <mergeCell ref="R87:T88"/>
-    <mergeCell ref="I75:I88"/>
-    <mergeCell ref="K78:K79"/>
-    <mergeCell ref="K81:K82"/>
-    <mergeCell ref="K75:K76"/>
-    <mergeCell ref="L75:P76"/>
-    <mergeCell ref="R75:T76"/>
-    <mergeCell ref="H68:Z69"/>
-    <mergeCell ref="H71:K72"/>
-    <mergeCell ref="L71:P72"/>
-    <mergeCell ref="R71:T72"/>
-    <mergeCell ref="V71:Z72"/>
-    <mergeCell ref="L65:P66"/>
-    <mergeCell ref="R65:T66"/>
-    <mergeCell ref="V65:Z66"/>
-    <mergeCell ref="H56:Z57"/>
-    <mergeCell ref="H59:K60"/>
-    <mergeCell ref="H62:Z63"/>
-    <mergeCell ref="H65:K66"/>
-    <mergeCell ref="L59:P60"/>
-    <mergeCell ref="R59:T60"/>
-    <mergeCell ref="V59:Z60"/>
+    <mergeCell ref="H2:Z3"/>
+    <mergeCell ref="R5:T6"/>
+    <mergeCell ref="V5:Z6"/>
+    <mergeCell ref="R8:T9"/>
+    <mergeCell ref="V8:Z9"/>
+    <mergeCell ref="L5:P6"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:P9"/>
+    <mergeCell ref="H5:K6"/>
+    <mergeCell ref="V11:Z12"/>
+    <mergeCell ref="L14:P15"/>
+    <mergeCell ref="R14:T15"/>
+    <mergeCell ref="V14:Z15"/>
+    <mergeCell ref="H14:K15"/>
+    <mergeCell ref="V47:Z48"/>
+    <mergeCell ref="K50:K51"/>
+    <mergeCell ref="L50:P51"/>
+    <mergeCell ref="R50:T51"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:P12"/>
+    <mergeCell ref="R11:T12"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="L44:P45"/>
+    <mergeCell ref="R44:T45"/>
+    <mergeCell ref="L47:P48"/>
+    <mergeCell ref="R47:T48"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:P24"/>
+    <mergeCell ref="R23:T24"/>
+    <mergeCell ref="V23:Z24"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:P27"/>
+    <mergeCell ref="R26:T27"/>
+    <mergeCell ref="V26:Z27"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:P18"/>
+    <mergeCell ref="R17:T18"/>
+    <mergeCell ref="V17:Z18"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:P21"/>
+    <mergeCell ref="R20:T21"/>
+    <mergeCell ref="V20:Z21"/>
+    <mergeCell ref="V29:Z30"/>
+    <mergeCell ref="V32:Z33"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="L35:P36"/>
+    <mergeCell ref="R35:T36"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="L29:P30"/>
+    <mergeCell ref="R29:T30"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="L32:P33"/>
+    <mergeCell ref="R32:T33"/>
     <mergeCell ref="H53:K54"/>
     <mergeCell ref="L53:P54"/>
     <mergeCell ref="R53:T54"/>
@@ -3086,59 +3056,42 @@
     <mergeCell ref="V50:Z51"/>
     <mergeCell ref="V44:Z45"/>
     <mergeCell ref="K47:K48"/>
-    <mergeCell ref="V29:Z30"/>
-    <mergeCell ref="V32:Z33"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="L35:P36"/>
-    <mergeCell ref="R35:T36"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="L29:P30"/>
-    <mergeCell ref="R29:T30"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="L32:P33"/>
-    <mergeCell ref="R32:T33"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="L23:P24"/>
-    <mergeCell ref="R23:T24"/>
-    <mergeCell ref="V23:Z24"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:P27"/>
-    <mergeCell ref="R26:T27"/>
-    <mergeCell ref="V26:Z27"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="L17:P18"/>
-    <mergeCell ref="R17:T18"/>
-    <mergeCell ref="V17:Z18"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:P21"/>
-    <mergeCell ref="R20:T21"/>
-    <mergeCell ref="V20:Z21"/>
-    <mergeCell ref="V11:Z12"/>
-    <mergeCell ref="L14:P15"/>
-    <mergeCell ref="R14:T15"/>
-    <mergeCell ref="V14:Z15"/>
-    <mergeCell ref="H14:K15"/>
-    <mergeCell ref="V47:Z48"/>
-    <mergeCell ref="K50:K51"/>
-    <mergeCell ref="L50:P51"/>
-    <mergeCell ref="R50:T51"/>
-    <mergeCell ref="H2:Z3"/>
-    <mergeCell ref="R5:T6"/>
-    <mergeCell ref="V5:Z6"/>
-    <mergeCell ref="R8:T9"/>
-    <mergeCell ref="V8:Z9"/>
-    <mergeCell ref="L5:P6"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:P9"/>
-    <mergeCell ref="H5:K6"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:P12"/>
-    <mergeCell ref="R11:T12"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="L44:P45"/>
-    <mergeCell ref="R44:T45"/>
-    <mergeCell ref="L47:P48"/>
-    <mergeCell ref="R47:T48"/>
+    <mergeCell ref="H68:Z69"/>
+    <mergeCell ref="H71:K72"/>
+    <mergeCell ref="L71:P72"/>
+    <mergeCell ref="R71:T72"/>
+    <mergeCell ref="V71:Z72"/>
+    <mergeCell ref="L65:P66"/>
+    <mergeCell ref="R65:T66"/>
+    <mergeCell ref="V65:Z66"/>
+    <mergeCell ref="H56:Z57"/>
+    <mergeCell ref="H59:K60"/>
+    <mergeCell ref="H62:Z63"/>
+    <mergeCell ref="H65:K66"/>
+    <mergeCell ref="L59:P60"/>
+    <mergeCell ref="R59:T60"/>
+    <mergeCell ref="V59:Z60"/>
+    <mergeCell ref="L78:P79"/>
+    <mergeCell ref="R78:T79"/>
+    <mergeCell ref="K87:K88"/>
+    <mergeCell ref="L87:P88"/>
+    <mergeCell ref="R87:T88"/>
+    <mergeCell ref="I75:I88"/>
+    <mergeCell ref="K78:K79"/>
+    <mergeCell ref="K81:K82"/>
+    <mergeCell ref="K75:K76"/>
+    <mergeCell ref="L75:P76"/>
+    <mergeCell ref="R75:T76"/>
+    <mergeCell ref="G88:G91"/>
+    <mergeCell ref="I91:I104"/>
+    <mergeCell ref="K91:K92"/>
+    <mergeCell ref="L91:P92"/>
+    <mergeCell ref="R91:T92"/>
+    <mergeCell ref="L81:P82"/>
+    <mergeCell ref="R81:T82"/>
+    <mergeCell ref="K84:K85"/>
+    <mergeCell ref="L84:P85"/>
+    <mergeCell ref="R84:T85"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3155,171 +3108,171 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="2" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="R2" s="13" t="s">
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="R2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
     </row>
     <row r="3" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="13"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="17"/>
     </row>
     <row r="5" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F5" s="14">
+      <c r="F5" s="16">
         <v>1</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
     </row>
     <row r="6" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
+      <c r="F6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
     </row>
     <row r="8" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F8" s="14">
+      <c r="F8" s="16">
         <v>2</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
     </row>
     <row r="9" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
+      <c r="F9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
     </row>
     <row r="11" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F11" s="14">
+      <c r="F11" s="16">
         <v>3</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="H11" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
     </row>
     <row r="12" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
+      <c r="F12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
     </row>
     <row r="14" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F14" s="14">
+      <c r="F14" s="16">
         <v>4</v>
       </c>
-      <c r="H14" s="14" t="s">
+      <c r="H14" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
     </row>
     <row r="15" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
+      <c r="F15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="R2:Y3"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="H5:P6"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="H8:P9"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="H14:P15"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="H11:P12"/>
     <mergeCell ref="H2:P3"/>
-    <mergeCell ref="R2:Y3"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="H5:P6"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="H8:P9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3340,82 +3293,82 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
     </row>
     <row r="3" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
     </row>
     <row r="5" spans="3:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
     </row>
     <row r="6" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="C6" s="17"/>
-      <c r="F6" s="16" t="s">
+      <c r="C6" s="20"/>
+      <c r="F6" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
     </row>
     <row r="7" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="C7" s="17"/>
+      <c r="C7" s="20"/>
       <c r="F7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="C8" s="17"/>
+      <c r="C8" s="20"/>
       <c r="F8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="C9" s="17"/>
+      <c r="C9" s="20"/>
     </row>
     <row r="10" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="C10" s="17"/>
+      <c r="C10" s="20"/>
     </row>
     <row r="11" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="C11" s="17"/>
+      <c r="C11" s="20"/>
     </row>
     <row r="12" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="C12" s="17"/>
+      <c r="C12" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Documents/Targets&Planning.xlsx
+++ b/Documents/Targets&Planning.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BloggingRepositories\blogPosts\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Blogging Website\blogPosts\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD919007-6883-4804-991D-321E02141FF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7EADD1C-BE45-4E1F-B22F-3A08CC58426F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="15196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27525" yWindow="315" windowWidth="26100" windowHeight="14610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="51">
   <si>
     <t>November</t>
   </si>
@@ -167,10 +167,19 @@
     <t>Daily Tasks</t>
   </si>
   <si>
-    <t>Daily Routine Taks One</t>
-  </si>
-  <si>
     <t>Day 1 of 75</t>
+  </si>
+  <si>
+    <t>https://www.health-value.info/tata-suv-vehicles/</t>
+  </si>
+  <si>
+    <t>https://geniuslink.com/vs-onelink</t>
+  </si>
+  <si>
+    <t>Add Bing Analytics to both Websites</t>
+  </si>
+  <si>
+    <t>Create WIX Profile and add an article</t>
   </si>
 </sst>
 </file>
@@ -341,46 +350,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -677,13 +686,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D65" zoomScale="93" workbookViewId="0">
-      <selection activeCell="L90" sqref="L90"/>
+    <sheetView tabSelected="1" topLeftCell="D73" zoomScale="93" workbookViewId="0">
+      <selection activeCell="O93" sqref="O93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -713,7 +722,7 @@
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -721,31 +730,31 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="15"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -753,29 +762,29 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="15"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -805,7 +814,7 @@
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -813,37 +822,37 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="11" t="s">
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
       <c r="Q5" s="1"/>
-      <c r="R5" s="11" t="s">
+      <c r="R5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
       <c r="U5" s="1"/>
-      <c r="V5" s="11" t="s">
+      <c r="V5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="11"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -851,29 +860,29 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
       <c r="Q6" s="1"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
       <c r="U6" s="1"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -903,7 +912,7 @@
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -914,34 +923,34 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="6">
+      <c r="K8" s="8">
         <v>1</v>
       </c>
-      <c r="L8" s="8" t="s">
+      <c r="L8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
       <c r="Q8" s="1"/>
-      <c r="R8" s="8" t="s">
+      <c r="R8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
       <c r="U8" s="1"/>
-      <c r="V8" s="13" t="s">
+      <c r="V8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="W8" s="13"/>
-      <c r="X8" s="13"/>
-      <c r="Y8" s="13"/>
-      <c r="Z8" s="13"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -952,26 +961,26 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
       <c r="Q9" s="1"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
       <c r="U9" s="1"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="13"/>
-      <c r="X9" s="13"/>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="13"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
     </row>
-    <row r="10" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1001,7 +1010,7 @@
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1012,34 +1021,34 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="6">
+      <c r="K11" s="8">
         <v>2</v>
       </c>
-      <c r="L11" s="8" t="s">
+      <c r="L11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
       <c r="Q11" s="1"/>
-      <c r="R11" s="8" t="s">
+      <c r="R11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
       <c r="U11" s="1"/>
-      <c r="V11" s="13" t="s">
+      <c r="V11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="W11" s="13"/>
-      <c r="X11" s="13"/>
-      <c r="Y11" s="13"/>
-      <c r="Z11" s="13"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1050,26 +1059,26 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
       <c r="Q12" s="1"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
       <c r="U12" s="1"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
-      <c r="X12" s="13"/>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="13"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1099,7 +1108,7 @@
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1107,37 +1116,37 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="10" t="s">
+      <c r="H14" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="11" t="s">
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
       <c r="Q14" s="1"/>
-      <c r="R14" s="11" t="s">
+      <c r="R14" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
       <c r="U14" s="1"/>
-      <c r="V14" s="11" t="s">
+      <c r="V14" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="W14" s="11"/>
-      <c r="X14" s="11"/>
-      <c r="Y14" s="11"/>
-      <c r="Z14" s="11"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1145,29 +1154,29 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
       <c r="Q15" s="1"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
       <c r="U15" s="1"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
-      <c r="X15" s="11"/>
-      <c r="Y15" s="11"/>
-      <c r="Z15" s="11"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1197,7 +1206,7 @@
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1208,34 +1217,34 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="6">
+      <c r="K17" s="8">
         <v>1</v>
       </c>
-      <c r="L17" s="8" t="s">
+      <c r="L17" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
       <c r="Q17" s="1"/>
-      <c r="R17" s="8" t="s">
+      <c r="R17" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
       <c r="U17" s="1"/>
-      <c r="V17" s="13" t="s">
+      <c r="V17" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="W17" s="13"/>
-      <c r="X17" s="13"/>
-      <c r="Y17" s="13"/>
-      <c r="Z17" s="13"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1246,26 +1255,26 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
       <c r="Q18" s="1"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
       <c r="U18" s="1"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="13"/>
-      <c r="X18" s="13"/>
-      <c r="Y18" s="13"/>
-      <c r="Z18" s="13"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1295,7 +1304,7 @@
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1306,34 +1315,34 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="6">
+      <c r="K20" s="8">
         <v>2</v>
       </c>
-      <c r="L20" s="8" t="s">
+      <c r="L20" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
       <c r="Q20" s="1"/>
-      <c r="R20" s="8" t="s">
+      <c r="R20" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="S20" s="8"/>
-      <c r="T20" s="8"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
       <c r="U20" s="1"/>
-      <c r="V20" s="13" t="s">
+      <c r="V20" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="W20" s="13"/>
-      <c r="X20" s="13"/>
-      <c r="Y20" s="13"/>
-      <c r="Z20" s="13"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7"/>
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1344,26 +1353,26 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
       <c r="Q21" s="1"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
       <c r="U21" s="1"/>
-      <c r="V21" s="13"/>
-      <c r="W21" s="13"/>
-      <c r="X21" s="13"/>
-      <c r="Y21" s="13"/>
-      <c r="Z21" s="13"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="7"/>
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1393,7 +1402,7 @@
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1404,34 +1413,34 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
-      <c r="K23" s="6">
+      <c r="K23" s="8">
         <v>3</v>
       </c>
-      <c r="L23" s="8" t="s">
+      <c r="L23" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
       <c r="Q23" s="1"/>
-      <c r="R23" s="8" t="s">
+      <c r="R23" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
       <c r="U23" s="1"/>
-      <c r="V23" s="14" t="s">
+      <c r="V23" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="W23" s="14"/>
-      <c r="X23" s="14"/>
-      <c r="Y23" s="14"/>
-      <c r="Z23" s="14"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="11"/>
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1442,26 +1451,26 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
       <c r="Q24" s="1"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
       <c r="U24" s="1"/>
-      <c r="V24" s="14"/>
-      <c r="W24" s="14"/>
-      <c r="X24" s="14"/>
-      <c r="Y24" s="14"/>
-      <c r="Z24" s="14"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="11"/>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="11"/>
+      <c r="Z24" s="11"/>
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1491,7 +1500,7 @@
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
     </row>
-    <row r="26" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1502,34 +1511,34 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="6">
+      <c r="K26" s="8">
         <v>4</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="L26" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
       <c r="Q26" s="1"/>
-      <c r="R26" s="8" t="s">
+      <c r="R26" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="S26" s="8"/>
-      <c r="T26" s="8"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
       <c r="U26" s="1"/>
-      <c r="V26" s="14" t="s">
+      <c r="V26" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="W26" s="14"/>
-      <c r="X26" s="14"/>
-      <c r="Y26" s="14"/>
-      <c r="Z26" s="14"/>
+      <c r="W26" s="11"/>
+      <c r="X26" s="11"/>
+      <c r="Y26" s="11"/>
+      <c r="Z26" s="11"/>
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1540,26 +1549,26 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
       <c r="Q27" s="1"/>
-      <c r="R27" s="8"/>
-      <c r="S27" s="8"/>
-      <c r="T27" s="8"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
       <c r="U27" s="1"/>
-      <c r="V27" s="14"/>
-      <c r="W27" s="14"/>
-      <c r="X27" s="14"/>
-      <c r="Y27" s="14"/>
-      <c r="Z27" s="14"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="11"/>
+      <c r="X27" s="11"/>
+      <c r="Y27" s="11"/>
+      <c r="Z27" s="11"/>
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1589,7 +1598,7 @@
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1600,34 +1609,34 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
-      <c r="K29" s="6">
+      <c r="K29" s="8">
         <v>5</v>
       </c>
-      <c r="L29" s="7" t="s">
+      <c r="L29" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="7"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
       <c r="Q29" s="1"/>
-      <c r="R29" s="8" t="s">
+      <c r="R29" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="S29" s="8"/>
-      <c r="T29" s="8"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
       <c r="U29" s="1"/>
-      <c r="V29" s="14" t="s">
+      <c r="V29" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="W29" s="14"/>
-      <c r="X29" s="14"/>
-      <c r="Y29" s="14"/>
-      <c r="Z29" s="14"/>
+      <c r="W29" s="11"/>
+      <c r="X29" s="11"/>
+      <c r="Y29" s="11"/>
+      <c r="Z29" s="11"/>
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1638,26 +1647,26 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="7"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
       <c r="Q30" s="1"/>
-      <c r="R30" s="8"/>
-      <c r="S30" s="8"/>
-      <c r="T30" s="8"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="6"/>
       <c r="U30" s="1"/>
-      <c r="V30" s="14"/>
-      <c r="W30" s="14"/>
-      <c r="X30" s="14"/>
-      <c r="Y30" s="14"/>
-      <c r="Z30" s="14"/>
+      <c r="V30" s="11"/>
+      <c r="W30" s="11"/>
+      <c r="X30" s="11"/>
+      <c r="Y30" s="11"/>
+      <c r="Z30" s="11"/>
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1687,7 +1696,7 @@
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
     </row>
-    <row r="32" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1698,34 +1707,34 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
-      <c r="K32" s="6">
+      <c r="K32" s="8">
         <v>6</v>
       </c>
-      <c r="L32" s="7" t="s">
+      <c r="L32" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="7"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
       <c r="Q32" s="1"/>
-      <c r="R32" s="8" t="s">
+      <c r="R32" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="S32" s="8"/>
-      <c r="T32" s="8"/>
+      <c r="S32" s="6"/>
+      <c r="T32" s="6"/>
       <c r="U32" s="1"/>
-      <c r="V32" s="13" t="s">
+      <c r="V32" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="W32" s="13"/>
-      <c r="X32" s="13"/>
-      <c r="Y32" s="13"/>
-      <c r="Z32" s="13"/>
+      <c r="W32" s="7"/>
+      <c r="X32" s="7"/>
+      <c r="Y32" s="7"/>
+      <c r="Z32" s="7"/>
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1736,26 +1745,26 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="7"/>
-      <c r="P33" s="7"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
       <c r="Q33" s="1"/>
-      <c r="R33" s="8"/>
-      <c r="S33" s="8"/>
-      <c r="T33" s="8"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6"/>
+      <c r="T33" s="6"/>
       <c r="U33" s="1"/>
-      <c r="V33" s="13"/>
-      <c r="W33" s="13"/>
-      <c r="X33" s="13"/>
-      <c r="Y33" s="13"/>
-      <c r="Z33" s="13"/>
+      <c r="V33" s="7"/>
+      <c r="W33" s="7"/>
+      <c r="X33" s="7"/>
+      <c r="Y33" s="7"/>
+      <c r="Z33" s="7"/>
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1785,7 +1794,7 @@
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
     </row>
-    <row r="35" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1796,22 +1805,22 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
-      <c r="K35" s="6">
+      <c r="K35" s="8">
         <v>7</v>
       </c>
-      <c r="L35" s="7" t="s">
+      <c r="L35" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="7"/>
-      <c r="P35" s="7"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
       <c r="Q35" s="1"/>
-      <c r="R35" s="8" t="s">
+      <c r="R35" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="S35" s="8"/>
-      <c r="T35" s="8"/>
+      <c r="S35" s="6"/>
+      <c r="T35" s="6"/>
       <c r="U35" s="1"/>
       <c r="V35" s="12" t="s">
         <v>28</v>
@@ -1823,7 +1832,7 @@
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1834,16 +1843,16 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="7"/>
-      <c r="O36" s="7"/>
-      <c r="P36" s="7"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
       <c r="Q36" s="1"/>
-      <c r="R36" s="8"/>
-      <c r="S36" s="8"/>
-      <c r="T36" s="8"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="6"/>
+      <c r="T36" s="6"/>
       <c r="U36" s="1"/>
       <c r="V36" s="12"/>
       <c r="W36" s="12"/>
@@ -1853,7 +1862,7 @@
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1883,7 +1892,7 @@
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1891,37 +1900,37 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="10" t="s">
+      <c r="H38" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="11" t="s">
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="M38" s="11"/>
-      <c r="N38" s="11"/>
-      <c r="O38" s="11"/>
-      <c r="P38" s="11"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
       <c r="Q38" s="1"/>
-      <c r="R38" s="11" t="s">
+      <c r="R38" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="S38" s="11"/>
-      <c r="T38" s="11"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
       <c r="U38" s="1"/>
-      <c r="V38" s="11" t="s">
+      <c r="V38" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="W38" s="11"/>
-      <c r="X38" s="11"/>
-      <c r="Y38" s="11"/>
-      <c r="Z38" s="11"/>
+      <c r="W38" s="5"/>
+      <c r="X38" s="5"/>
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="5"/>
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1929,29 +1938,29 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="11"/>
-      <c r="M39" s="11"/>
-      <c r="N39" s="11"/>
-      <c r="O39" s="11"/>
-      <c r="P39" s="11"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
       <c r="Q39" s="1"/>
-      <c r="R39" s="11"/>
-      <c r="S39" s="11"/>
-      <c r="T39" s="11"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
       <c r="U39" s="1"/>
-      <c r="V39" s="11"/>
-      <c r="W39" s="11"/>
-      <c r="X39" s="11"/>
-      <c r="Y39" s="11"/>
-      <c r="Z39" s="11"/>
+      <c r="V39" s="5"/>
+      <c r="W39" s="5"/>
+      <c r="X39" s="5"/>
+      <c r="Y39" s="5"/>
+      <c r="Z39" s="5"/>
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1981,7 +1990,7 @@
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1992,34 +2001,34 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
-      <c r="K41" s="6">
+      <c r="K41" s="8">
         <v>1</v>
       </c>
-      <c r="L41" s="8" t="s">
+      <c r="L41" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8"/>
-      <c r="O41" s="8"/>
-      <c r="P41" s="8"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
       <c r="Q41" s="1"/>
-      <c r="R41" s="8" t="s">
+      <c r="R41" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="S41" s="8"/>
-      <c r="T41" s="8"/>
+      <c r="S41" s="6"/>
+      <c r="T41" s="6"/>
       <c r="U41" s="1"/>
-      <c r="V41" s="13" t="s">
+      <c r="V41" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="W41" s="13"/>
-      <c r="X41" s="13"/>
-      <c r="Y41" s="13"/>
-      <c r="Z41" s="13"/>
+      <c r="W41" s="7"/>
+      <c r="X41" s="7"/>
+      <c r="Y41" s="7"/>
+      <c r="Z41" s="7"/>
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2030,26 +2039,26 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="8"/>
-      <c r="O42" s="8"/>
-      <c r="P42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
       <c r="Q42" s="1"/>
-      <c r="R42" s="8"/>
-      <c r="S42" s="8"/>
-      <c r="T42" s="8"/>
+      <c r="R42" s="6"/>
+      <c r="S42" s="6"/>
+      <c r="T42" s="6"/>
       <c r="U42" s="1"/>
-      <c r="V42" s="13"/>
-      <c r="W42" s="13"/>
-      <c r="X42" s="13"/>
-      <c r="Y42" s="13"/>
-      <c r="Z42" s="13"/>
+      <c r="V42" s="7"/>
+      <c r="W42" s="7"/>
+      <c r="X42" s="7"/>
+      <c r="Y42" s="7"/>
+      <c r="Z42" s="7"/>
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2079,7 +2088,7 @@
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2090,34 +2099,34 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
-      <c r="K44" s="6">
+      <c r="K44" s="8">
         <v>2</v>
       </c>
-      <c r="L44" s="8" t="s">
+      <c r="L44" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="M44" s="8"/>
-      <c r="N44" s="8"/>
-      <c r="O44" s="8"/>
-      <c r="P44" s="8"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
       <c r="Q44" s="1"/>
-      <c r="R44" s="8" t="s">
+      <c r="R44" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="S44" s="8"/>
-      <c r="T44" s="8"/>
+      <c r="S44" s="6"/>
+      <c r="T44" s="6"/>
       <c r="U44" s="1"/>
-      <c r="V44" s="13" t="s">
+      <c r="V44" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="W44" s="13"/>
-      <c r="X44" s="13"/>
-      <c r="Y44" s="13"/>
-      <c r="Z44" s="13"/>
+      <c r="W44" s="7"/>
+      <c r="X44" s="7"/>
+      <c r="Y44" s="7"/>
+      <c r="Z44" s="7"/>
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2128,26 +2137,26 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="8"/>
-      <c r="O45" s="8"/>
-      <c r="P45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
+      <c r="P45" s="6"/>
       <c r="Q45" s="1"/>
-      <c r="R45" s="8"/>
-      <c r="S45" s="8"/>
-      <c r="T45" s="8"/>
+      <c r="R45" s="6"/>
+      <c r="S45" s="6"/>
+      <c r="T45" s="6"/>
       <c r="U45" s="1"/>
-      <c r="V45" s="13"/>
-      <c r="W45" s="13"/>
-      <c r="X45" s="13"/>
-      <c r="Y45" s="13"/>
-      <c r="Z45" s="13"/>
+      <c r="V45" s="7"/>
+      <c r="W45" s="7"/>
+      <c r="X45" s="7"/>
+      <c r="Y45" s="7"/>
+      <c r="Z45" s="7"/>
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -2177,7 +2186,7 @@
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
     </row>
-    <row r="47" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2188,34 +2197,34 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
-      <c r="K47" s="6">
+      <c r="K47" s="8">
         <v>3</v>
       </c>
-      <c r="L47" s="7" t="s">
+      <c r="L47" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="M47" s="7"/>
-      <c r="N47" s="7"/>
-      <c r="O47" s="7"/>
-      <c r="P47" s="7"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
       <c r="Q47" s="1"/>
-      <c r="R47" s="8" t="s">
+      <c r="R47" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="S47" s="8"/>
-      <c r="T47" s="8"/>
+      <c r="S47" s="6"/>
+      <c r="T47" s="6"/>
       <c r="U47" s="1"/>
-      <c r="V47" s="13" t="s">
+      <c r="V47" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="W47" s="13"/>
-      <c r="X47" s="13"/>
-      <c r="Y47" s="13"/>
-      <c r="Z47" s="13"/>
+      <c r="W47" s="7"/>
+      <c r="X47" s="7"/>
+      <c r="Y47" s="7"/>
+      <c r="Z47" s="7"/>
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2226,26 +2235,26 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="7"/>
-      <c r="M48" s="7"/>
-      <c r="N48" s="7"/>
-      <c r="O48" s="7"/>
-      <c r="P48" s="7"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="10"/>
       <c r="Q48" s="1"/>
-      <c r="R48" s="8"/>
-      <c r="S48" s="8"/>
-      <c r="T48" s="8"/>
+      <c r="R48" s="6"/>
+      <c r="S48" s="6"/>
+      <c r="T48" s="6"/>
       <c r="U48" s="1"/>
-      <c r="V48" s="13"/>
-      <c r="W48" s="13"/>
-      <c r="X48" s="13"/>
-      <c r="Y48" s="13"/>
-      <c r="Z48" s="13"/>
+      <c r="V48" s="7"/>
+      <c r="W48" s="7"/>
+      <c r="X48" s="7"/>
+      <c r="Y48" s="7"/>
+      <c r="Z48" s="7"/>
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2275,7 +2284,7 @@
       <c r="AA49" s="1"/>
       <c r="AB49" s="1"/>
     </row>
-    <row r="50" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2286,34 +2295,34 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
-      <c r="K50" s="6">
+      <c r="K50" s="8">
         <v>4</v>
       </c>
-      <c r="L50" s="7" t="s">
+      <c r="L50" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="M50" s="7"/>
-      <c r="N50" s="7"/>
-      <c r="O50" s="7"/>
-      <c r="P50" s="7"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
+      <c r="P50" s="10"/>
       <c r="Q50" s="1"/>
-      <c r="R50" s="8" t="s">
+      <c r="R50" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="S50" s="8"/>
-      <c r="T50" s="8"/>
+      <c r="S50" s="6"/>
+      <c r="T50" s="6"/>
       <c r="U50" s="1"/>
-      <c r="V50" s="13" t="s">
+      <c r="V50" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="W50" s="13"/>
-      <c r="X50" s="13"/>
-      <c r="Y50" s="13"/>
-      <c r="Z50" s="13"/>
+      <c r="W50" s="7"/>
+      <c r="X50" s="7"/>
+      <c r="Y50" s="7"/>
+      <c r="Z50" s="7"/>
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2324,26 +2333,26 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
-      <c r="K51" s="6"/>
-      <c r="L51" s="7"/>
-      <c r="M51" s="7"/>
-      <c r="N51" s="7"/>
-      <c r="O51" s="7"/>
-      <c r="P51" s="7"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10"/>
+      <c r="P51" s="10"/>
       <c r="Q51" s="1"/>
-      <c r="R51" s="8"/>
-      <c r="S51" s="8"/>
-      <c r="T51" s="8"/>
+      <c r="R51" s="6"/>
+      <c r="S51" s="6"/>
+      <c r="T51" s="6"/>
       <c r="U51" s="1"/>
-      <c r="V51" s="13"/>
-      <c r="W51" s="13"/>
-      <c r="X51" s="13"/>
-      <c r="Y51" s="13"/>
-      <c r="Z51" s="13"/>
+      <c r="V51" s="7"/>
+      <c r="W51" s="7"/>
+      <c r="X51" s="7"/>
+      <c r="Y51" s="7"/>
+      <c r="Z51" s="7"/>
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2373,7 +2382,7 @@
       <c r="AA52" s="1"/>
       <c r="AB52" s="1"/>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2381,621 +2390,713 @@
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
-      <c r="H53" s="10" t="s">
+      <c r="H53" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="10"/>
-      <c r="L53" s="11" t="s">
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="M53" s="11"/>
-      <c r="N53" s="11"/>
-      <c r="O53" s="11"/>
-      <c r="P53" s="11"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+      <c r="P53" s="5"/>
       <c r="Q53" s="1"/>
-      <c r="R53" s="11" t="s">
+      <c r="R53" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="S53" s="11"/>
-      <c r="T53" s="11"/>
+      <c r="S53" s="5"/>
+      <c r="T53" s="5"/>
       <c r="U53" s="1"/>
-      <c r="V53" s="11" t="s">
+      <c r="V53" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="W53" s="11"/>
-      <c r="X53" s="11"/>
-      <c r="Y53" s="11"/>
-      <c r="Z53" s="11"/>
+      <c r="W53" s="5"/>
+      <c r="X53" s="5"/>
+      <c r="Y53" s="5"/>
+      <c r="Z53" s="5"/>
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="H54" s="10"/>
-      <c r="I54" s="10"/>
-      <c r="J54" s="10"/>
-      <c r="K54" s="10"/>
-      <c r="L54" s="11"/>
-      <c r="M54" s="11"/>
-      <c r="N54" s="11"/>
-      <c r="O54" s="11"/>
-      <c r="P54" s="11"/>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="5"/>
       <c r="Q54" s="1"/>
-      <c r="R54" s="11"/>
-      <c r="S54" s="11"/>
-      <c r="T54" s="11"/>
+      <c r="R54" s="5"/>
+      <c r="S54" s="5"/>
+      <c r="T54" s="5"/>
       <c r="U54" s="1"/>
-      <c r="V54" s="11"/>
-      <c r="W54" s="11"/>
-      <c r="X54" s="11"/>
-      <c r="Y54" s="11"/>
-      <c r="Z54" s="11"/>
-    </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="H56" s="9" t="s">
+      <c r="V54" s="5"/>
+      <c r="W54" s="5"/>
+      <c r="X54" s="5"/>
+      <c r="Y54" s="5"/>
+      <c r="Z54" s="5"/>
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="H56" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="I56" s="9"/>
-      <c r="J56" s="9"/>
-      <c r="K56" s="9"/>
-      <c r="L56" s="9"/>
-      <c r="M56" s="9"/>
-      <c r="N56" s="9"/>
-      <c r="O56" s="9"/>
-      <c r="P56" s="9"/>
-      <c r="Q56" s="9"/>
-      <c r="R56" s="9"/>
-      <c r="S56" s="9"/>
-      <c r="T56" s="9"/>
-      <c r="U56" s="9"/>
-      <c r="V56" s="9"/>
-      <c r="W56" s="9"/>
-      <c r="X56" s="9"/>
-      <c r="Y56" s="9"/>
-      <c r="Z56" s="9"/>
-    </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
-      <c r="J57" s="9"/>
-      <c r="K57" s="9"/>
-      <c r="L57" s="9"/>
-      <c r="M57" s="9"/>
-      <c r="N57" s="9"/>
-      <c r="O57" s="9"/>
-      <c r="P57" s="9"/>
-      <c r="Q57" s="9"/>
-      <c r="R57" s="9"/>
-      <c r="S57" s="9"/>
-      <c r="T57" s="9"/>
-      <c r="U57" s="9"/>
-      <c r="V57" s="9"/>
-      <c r="W57" s="9"/>
-      <c r="X57" s="9"/>
-      <c r="Y57" s="9"/>
-      <c r="Z57" s="9"/>
-    </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="H59" s="10" t="s">
+      <c r="I56" s="13"/>
+      <c r="J56" s="13"/>
+      <c r="K56" s="13"/>
+      <c r="L56" s="13"/>
+      <c r="M56" s="13"/>
+      <c r="N56" s="13"/>
+      <c r="O56" s="13"/>
+      <c r="P56" s="13"/>
+      <c r="Q56" s="13"/>
+      <c r="R56" s="13"/>
+      <c r="S56" s="13"/>
+      <c r="T56" s="13"/>
+      <c r="U56" s="13"/>
+      <c r="V56" s="13"/>
+      <c r="W56" s="13"/>
+      <c r="X56" s="13"/>
+      <c r="Y56" s="13"/>
+      <c r="Z56" s="13"/>
+    </row>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="H57" s="13"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="13"/>
+      <c r="K57" s="13"/>
+      <c r="L57" s="13"/>
+      <c r="M57" s="13"/>
+      <c r="N57" s="13"/>
+      <c r="O57" s="13"/>
+      <c r="P57" s="13"/>
+      <c r="Q57" s="13"/>
+      <c r="R57" s="13"/>
+      <c r="S57" s="13"/>
+      <c r="T57" s="13"/>
+      <c r="U57" s="13"/>
+      <c r="V57" s="13"/>
+      <c r="W57" s="13"/>
+      <c r="X57" s="13"/>
+      <c r="Y57" s="13"/>
+      <c r="Z57" s="13"/>
+    </row>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="H59" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="I59" s="10"/>
-      <c r="J59" s="10"/>
-      <c r="K59" s="10"/>
-      <c r="L59" s="11" t="s">
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="M59" s="11"/>
-      <c r="N59" s="11"/>
-      <c r="O59" s="11"/>
-      <c r="P59" s="11"/>
+      <c r="M59" s="5"/>
+      <c r="N59" s="5"/>
+      <c r="O59" s="5"/>
+      <c r="P59" s="5"/>
       <c r="Q59" s="1"/>
-      <c r="R59" s="11" t="s">
+      <c r="R59" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="S59" s="11"/>
-      <c r="T59" s="11"/>
+      <c r="S59" s="5"/>
+      <c r="T59" s="5"/>
       <c r="U59" s="1"/>
-      <c r="V59" s="11" t="s">
+      <c r="V59" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="W59" s="11"/>
-      <c r="X59" s="11"/>
-      <c r="Y59" s="11"/>
-      <c r="Z59" s="11"/>
-    </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="H60" s="10"/>
-      <c r="I60" s="10"/>
-      <c r="J60" s="10"/>
-      <c r="K60" s="10"/>
-      <c r="L60" s="11"/>
-      <c r="M60" s="11"/>
-      <c r="N60" s="11"/>
-      <c r="O60" s="11"/>
-      <c r="P60" s="11"/>
+      <c r="W59" s="5"/>
+      <c r="X59" s="5"/>
+      <c r="Y59" s="5"/>
+      <c r="Z59" s="5"/>
+    </row>
+    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="5"/>
+      <c r="M60" s="5"/>
+      <c r="N60" s="5"/>
+      <c r="O60" s="5"/>
+      <c r="P60" s="5"/>
       <c r="Q60" s="1"/>
-      <c r="R60" s="11"/>
-      <c r="S60" s="11"/>
-      <c r="T60" s="11"/>
+      <c r="R60" s="5"/>
+      <c r="S60" s="5"/>
+      <c r="T60" s="5"/>
       <c r="U60" s="1"/>
-      <c r="V60" s="11"/>
-      <c r="W60" s="11"/>
-      <c r="X60" s="11"/>
-      <c r="Y60" s="11"/>
-      <c r="Z60" s="11"/>
-    </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="H62" s="9" t="s">
+      <c r="V60" s="5"/>
+      <c r="W60" s="5"/>
+      <c r="X60" s="5"/>
+      <c r="Y60" s="5"/>
+      <c r="Z60" s="5"/>
+    </row>
+    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="H62" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="I62" s="9"/>
-      <c r="J62" s="9"/>
-      <c r="K62" s="9"/>
-      <c r="L62" s="9"/>
-      <c r="M62" s="9"/>
-      <c r="N62" s="9"/>
-      <c r="O62" s="9"/>
-      <c r="P62" s="9"/>
-      <c r="Q62" s="9"/>
-      <c r="R62" s="9"/>
-      <c r="S62" s="9"/>
-      <c r="T62" s="9"/>
-      <c r="U62" s="9"/>
-      <c r="V62" s="9"/>
-      <c r="W62" s="9"/>
-      <c r="X62" s="9"/>
-      <c r="Y62" s="9"/>
-      <c r="Z62" s="9"/>
-    </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="H63" s="9"/>
-      <c r="I63" s="9"/>
-      <c r="J63" s="9"/>
-      <c r="K63" s="9"/>
-      <c r="L63" s="9"/>
-      <c r="M63" s="9"/>
-      <c r="N63" s="9"/>
-      <c r="O63" s="9"/>
-      <c r="P63" s="9"/>
-      <c r="Q63" s="9"/>
-      <c r="R63" s="9"/>
-      <c r="S63" s="9"/>
-      <c r="T63" s="9"/>
-      <c r="U63" s="9"/>
-      <c r="V63" s="9"/>
-      <c r="W63" s="9"/>
-      <c r="X63" s="9"/>
-      <c r="Y63" s="9"/>
-      <c r="Z63" s="9"/>
-    </row>
-    <row r="65" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="H65" s="10" t="s">
+      <c r="I62" s="13"/>
+      <c r="J62" s="13"/>
+      <c r="K62" s="13"/>
+      <c r="L62" s="13"/>
+      <c r="M62" s="13"/>
+      <c r="N62" s="13"/>
+      <c r="O62" s="13"/>
+      <c r="P62" s="13"/>
+      <c r="Q62" s="13"/>
+      <c r="R62" s="13"/>
+      <c r="S62" s="13"/>
+      <c r="T62" s="13"/>
+      <c r="U62" s="13"/>
+      <c r="V62" s="13"/>
+      <c r="W62" s="13"/>
+      <c r="X62" s="13"/>
+      <c r="Y62" s="13"/>
+      <c r="Z62" s="13"/>
+    </row>
+    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="H63" s="13"/>
+      <c r="I63" s="13"/>
+      <c r="J63" s="13"/>
+      <c r="K63" s="13"/>
+      <c r="L63" s="13"/>
+      <c r="M63" s="13"/>
+      <c r="N63" s="13"/>
+      <c r="O63" s="13"/>
+      <c r="P63" s="13"/>
+      <c r="Q63" s="13"/>
+      <c r="R63" s="13"/>
+      <c r="S63" s="13"/>
+      <c r="T63" s="13"/>
+      <c r="U63" s="13"/>
+      <c r="V63" s="13"/>
+      <c r="W63" s="13"/>
+      <c r="X63" s="13"/>
+      <c r="Y63" s="13"/>
+      <c r="Z63" s="13"/>
+    </row>
+    <row r="65" spans="8:26" x14ac:dyDescent="0.25">
+      <c r="H65" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="I65" s="10"/>
-      <c r="J65" s="10"/>
-      <c r="K65" s="10"/>
-      <c r="L65" s="11" t="s">
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c r="L65" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="M65" s="11"/>
-      <c r="N65" s="11"/>
-      <c r="O65" s="11"/>
-      <c r="P65" s="11"/>
+      <c r="M65" s="5"/>
+      <c r="N65" s="5"/>
+      <c r="O65" s="5"/>
+      <c r="P65" s="5"/>
       <c r="Q65" s="1"/>
-      <c r="R65" s="11" t="s">
+      <c r="R65" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="S65" s="11"/>
-      <c r="T65" s="11"/>
+      <c r="S65" s="5"/>
+      <c r="T65" s="5"/>
       <c r="U65" s="1"/>
-      <c r="V65" s="11" t="s">
+      <c r="V65" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="W65" s="11"/>
-      <c r="X65" s="11"/>
-      <c r="Y65" s="11"/>
-      <c r="Z65" s="11"/>
-    </row>
-    <row r="66" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="H66" s="10"/>
-      <c r="I66" s="10"/>
-      <c r="J66" s="10"/>
-      <c r="K66" s="10"/>
-      <c r="L66" s="11"/>
-      <c r="M66" s="11"/>
-      <c r="N66" s="11"/>
-      <c r="O66" s="11"/>
-      <c r="P66" s="11"/>
+      <c r="W65" s="5"/>
+      <c r="X65" s="5"/>
+      <c r="Y65" s="5"/>
+      <c r="Z65" s="5"/>
+    </row>
+    <row r="66" spans="8:26" x14ac:dyDescent="0.25">
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c r="L66" s="5"/>
+      <c r="M66" s="5"/>
+      <c r="N66" s="5"/>
+      <c r="O66" s="5"/>
+      <c r="P66" s="5"/>
       <c r="Q66" s="1"/>
-      <c r="R66" s="11"/>
-      <c r="S66" s="11"/>
-      <c r="T66" s="11"/>
+      <c r="R66" s="5"/>
+      <c r="S66" s="5"/>
+      <c r="T66" s="5"/>
       <c r="U66" s="1"/>
-      <c r="V66" s="11"/>
-      <c r="W66" s="11"/>
-      <c r="X66" s="11"/>
-      <c r="Y66" s="11"/>
-      <c r="Z66" s="11"/>
-    </row>
-    <row r="68" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="H68" s="9" t="s">
+      <c r="V66" s="5"/>
+      <c r="W66" s="5"/>
+      <c r="X66" s="5"/>
+      <c r="Y66" s="5"/>
+      <c r="Z66" s="5"/>
+    </row>
+    <row r="68" spans="8:26" x14ac:dyDescent="0.25">
+      <c r="H68" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="I68" s="9"/>
-      <c r="J68" s="9"/>
-      <c r="K68" s="9"/>
-      <c r="L68" s="9"/>
-      <c r="M68" s="9"/>
-      <c r="N68" s="9"/>
-      <c r="O68" s="9"/>
-      <c r="P68" s="9"/>
-      <c r="Q68" s="9"/>
-      <c r="R68" s="9"/>
-      <c r="S68" s="9"/>
-      <c r="T68" s="9"/>
-      <c r="U68" s="9"/>
-      <c r="V68" s="9"/>
-      <c r="W68" s="9"/>
-      <c r="X68" s="9"/>
-      <c r="Y68" s="9"/>
-      <c r="Z68" s="9"/>
-    </row>
-    <row r="69" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="H69" s="9"/>
-      <c r="I69" s="9"/>
-      <c r="J69" s="9"/>
-      <c r="K69" s="9"/>
-      <c r="L69" s="9"/>
-      <c r="M69" s="9"/>
-      <c r="N69" s="9"/>
-      <c r="O69" s="9"/>
-      <c r="P69" s="9"/>
-      <c r="Q69" s="9"/>
-      <c r="R69" s="9"/>
-      <c r="S69" s="9"/>
-      <c r="T69" s="9"/>
-      <c r="U69" s="9"/>
-      <c r="V69" s="9"/>
-      <c r="W69" s="9"/>
-      <c r="X69" s="9"/>
-      <c r="Y69" s="9"/>
-      <c r="Z69" s="9"/>
-    </row>
-    <row r="71" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="H71" s="10" t="s">
+      <c r="I68" s="13"/>
+      <c r="J68" s="13"/>
+      <c r="K68" s="13"/>
+      <c r="L68" s="13"/>
+      <c r="M68" s="13"/>
+      <c r="N68" s="13"/>
+      <c r="O68" s="13"/>
+      <c r="P68" s="13"/>
+      <c r="Q68" s="13"/>
+      <c r="R68" s="13"/>
+      <c r="S68" s="13"/>
+      <c r="T68" s="13"/>
+      <c r="U68" s="13"/>
+      <c r="V68" s="13"/>
+      <c r="W68" s="13"/>
+      <c r="X68" s="13"/>
+      <c r="Y68" s="13"/>
+      <c r="Z68" s="13"/>
+    </row>
+    <row r="69" spans="8:26" x14ac:dyDescent="0.25">
+      <c r="H69" s="13"/>
+      <c r="I69" s="13"/>
+      <c r="J69" s="13"/>
+      <c r="K69" s="13"/>
+      <c r="L69" s="13"/>
+      <c r="M69" s="13"/>
+      <c r="N69" s="13"/>
+      <c r="O69" s="13"/>
+      <c r="P69" s="13"/>
+      <c r="Q69" s="13"/>
+      <c r="R69" s="13"/>
+      <c r="S69" s="13"/>
+      <c r="T69" s="13"/>
+      <c r="U69" s="13"/>
+      <c r="V69" s="13"/>
+      <c r="W69" s="13"/>
+      <c r="X69" s="13"/>
+      <c r="Y69" s="13"/>
+      <c r="Z69" s="13"/>
+    </row>
+    <row r="71" spans="8:26" x14ac:dyDescent="0.25">
+      <c r="H71" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="I71" s="10"/>
-      <c r="J71" s="10"/>
-      <c r="K71" s="10"/>
-      <c r="L71" s="11" t="s">
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c r="L71" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="M71" s="11"/>
-      <c r="N71" s="11"/>
-      <c r="O71" s="11"/>
-      <c r="P71" s="11"/>
+      <c r="M71" s="5"/>
+      <c r="N71" s="5"/>
+      <c r="O71" s="5"/>
+      <c r="P71" s="5"/>
       <c r="Q71" s="1"/>
-      <c r="R71" s="11" t="s">
+      <c r="R71" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="S71" s="11"/>
-      <c r="T71" s="11"/>
+      <c r="S71" s="5"/>
+      <c r="T71" s="5"/>
       <c r="U71" s="1"/>
-      <c r="V71" s="11" t="s">
+      <c r="V71" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="W71" s="11"/>
-      <c r="X71" s="11"/>
-      <c r="Y71" s="11"/>
-      <c r="Z71" s="11"/>
-    </row>
-    <row r="72" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="H72" s="10"/>
-      <c r="I72" s="10"/>
-      <c r="J72" s="10"/>
-      <c r="K72" s="10"/>
-      <c r="L72" s="11"/>
-      <c r="M72" s="11"/>
-      <c r="N72" s="11"/>
-      <c r="O72" s="11"/>
-      <c r="P72" s="11"/>
+      <c r="W71" s="5"/>
+      <c r="X71" s="5"/>
+      <c r="Y71" s="5"/>
+      <c r="Z71" s="5"/>
+    </row>
+    <row r="72" spans="8:26" x14ac:dyDescent="0.25">
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c r="L72" s="5"/>
+      <c r="M72" s="5"/>
+      <c r="N72" s="5"/>
+      <c r="O72" s="5"/>
+      <c r="P72" s="5"/>
       <c r="Q72" s="1"/>
-      <c r="R72" s="11"/>
-      <c r="S72" s="11"/>
-      <c r="T72" s="11"/>
+      <c r="R72" s="5"/>
+      <c r="S72" s="5"/>
+      <c r="T72" s="5"/>
       <c r="U72" s="1"/>
-      <c r="V72" s="11"/>
-      <c r="W72" s="11"/>
-      <c r="X72" s="11"/>
-      <c r="Y72" s="11"/>
-      <c r="Z72" s="11"/>
-    </row>
-    <row r="75" spans="8:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I75" s="5" t="s">
+      <c r="V72" s="5"/>
+      <c r="W72" s="5"/>
+      <c r="X72" s="5"/>
+      <c r="Y72" s="5"/>
+      <c r="Z72" s="5"/>
+    </row>
+    <row r="75" spans="8:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I75" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="K75" s="6">
+      <c r="K75" s="8">
         <v>1</v>
       </c>
-      <c r="L75" s="7" t="s">
+      <c r="L75" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="M75" s="7"/>
-      <c r="N75" s="7"/>
-      <c r="O75" s="7"/>
-      <c r="P75" s="7"/>
+      <c r="M75" s="10"/>
+      <c r="N75" s="10"/>
+      <c r="O75" s="10"/>
+      <c r="P75" s="10"/>
       <c r="Q75" s="1"/>
-      <c r="R75" s="8" t="s">
+      <c r="R75" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="S75" s="8"/>
-      <c r="T75" s="8"/>
+      <c r="S75" s="6"/>
+      <c r="T75" s="6"/>
       <c r="U75" s="1"/>
     </row>
-    <row r="76" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="I76" s="5"/>
-      <c r="K76" s="6"/>
-      <c r="L76" s="7"/>
-      <c r="M76" s="7"/>
-      <c r="N76" s="7"/>
-      <c r="O76" s="7"/>
-      <c r="P76" s="7"/>
+    <row r="76" spans="8:26" x14ac:dyDescent="0.25">
+      <c r="I76" s="14"/>
+      <c r="K76" s="8"/>
+      <c r="L76" s="10"/>
+      <c r="M76" s="10"/>
+      <c r="N76" s="10"/>
+      <c r="O76" s="10"/>
+      <c r="P76" s="10"/>
       <c r="Q76" s="1"/>
-      <c r="R76" s="8"/>
-      <c r="S76" s="8"/>
-      <c r="T76" s="8"/>
+      <c r="R76" s="6"/>
+      <c r="S76" s="6"/>
+      <c r="T76" s="6"/>
       <c r="U76" s="1"/>
     </row>
-    <row r="77" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="I77" s="5"/>
-    </row>
-    <row r="78" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="I78" s="5"/>
-      <c r="K78" s="6">
+    <row r="77" spans="8:26" x14ac:dyDescent="0.25">
+      <c r="I77" s="14"/>
+    </row>
+    <row r="78" spans="8:26" x14ac:dyDescent="0.25">
+      <c r="I78" s="14"/>
+      <c r="K78" s="8">
         <v>2</v>
       </c>
-      <c r="L78" s="8" t="s">
+      <c r="L78" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="M78" s="8"/>
-      <c r="N78" s="8"/>
-      <c r="O78" s="8"/>
-      <c r="P78" s="8"/>
+      <c r="M78" s="6"/>
+      <c r="N78" s="6"/>
+      <c r="O78" s="6"/>
+      <c r="P78" s="6"/>
       <c r="Q78" s="1"/>
-      <c r="R78" s="8" t="s">
+      <c r="R78" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="S78" s="8"/>
-      <c r="T78" s="8"/>
+      <c r="S78" s="6"/>
+      <c r="T78" s="6"/>
       <c r="U78" s="1"/>
     </row>
-    <row r="79" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="I79" s="5"/>
-      <c r="K79" s="6"/>
-      <c r="L79" s="8"/>
-      <c r="M79" s="8"/>
-      <c r="N79" s="8"/>
-      <c r="O79" s="8"/>
-      <c r="P79" s="8"/>
+    <row r="79" spans="8:26" x14ac:dyDescent="0.25">
+      <c r="I79" s="14"/>
+      <c r="K79" s="8"/>
+      <c r="L79" s="6"/>
+      <c r="M79" s="6"/>
+      <c r="N79" s="6"/>
+      <c r="O79" s="6"/>
+      <c r="P79" s="6"/>
       <c r="Q79" s="1"/>
-      <c r="R79" s="8"/>
-      <c r="S79" s="8"/>
-      <c r="T79" s="8"/>
+      <c r="R79" s="6"/>
+      <c r="S79" s="6"/>
+      <c r="T79" s="6"/>
       <c r="U79" s="1"/>
     </row>
-    <row r="80" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="I80" s="5"/>
-    </row>
-    <row r="81" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="I81" s="5"/>
-      <c r="K81" s="6">
+    <row r="80" spans="8:26" x14ac:dyDescent="0.25">
+      <c r="I80" s="14"/>
+    </row>
+    <row r="81" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="I81" s="14"/>
+      <c r="K81" s="8">
         <v>3</v>
       </c>
-      <c r="L81" s="8" t="s">
+      <c r="L81" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="M81" s="8"/>
-      <c r="N81" s="8"/>
-      <c r="O81" s="8"/>
-      <c r="P81" s="8"/>
+      <c r="M81" s="6"/>
+      <c r="N81" s="6"/>
+      <c r="O81" s="6"/>
+      <c r="P81" s="6"/>
       <c r="Q81" s="1"/>
-      <c r="R81" s="8" t="s">
+      <c r="R81" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="S81" s="8"/>
-      <c r="T81" s="8"/>
-    </row>
-    <row r="82" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="S81" s="6"/>
+      <c r="T81" s="6"/>
+    </row>
+    <row r="82" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G82" s="3"/>
-      <c r="I82" s="5"/>
-      <c r="K82" s="6"/>
-      <c r="L82" s="8"/>
-      <c r="M82" s="8"/>
-      <c r="N82" s="8"/>
-      <c r="O82" s="8"/>
-      <c r="P82" s="8"/>
+      <c r="I82" s="14"/>
+      <c r="K82" s="8"/>
+      <c r="L82" s="6"/>
+      <c r="M82" s="6"/>
+      <c r="N82" s="6"/>
+      <c r="O82" s="6"/>
+      <c r="P82" s="6"/>
       <c r="Q82" s="1"/>
-      <c r="R82" s="8"/>
-      <c r="S82" s="8"/>
-      <c r="T82" s="8"/>
-    </row>
-    <row r="83" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="R82" s="6"/>
+      <c r="S82" s="6"/>
+      <c r="T82" s="6"/>
+    </row>
+    <row r="83" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G83" s="3"/>
-      <c r="I83" s="5"/>
-    </row>
-    <row r="84" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="I83" s="14"/>
+    </row>
+    <row r="84" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G84" s="3"/>
-      <c r="I84" s="5"/>
-      <c r="K84" s="6">
+      <c r="I84" s="14"/>
+      <c r="K84" s="8">
         <v>4</v>
       </c>
-      <c r="L84" s="8" t="s">
+      <c r="L84" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="M84" s="8"/>
-      <c r="N84" s="8"/>
-      <c r="O84" s="8"/>
-      <c r="P84" s="8"/>
+      <c r="M84" s="6"/>
+      <c r="N84" s="6"/>
+      <c r="O84" s="6"/>
+      <c r="P84" s="6"/>
       <c r="Q84" s="1"/>
-      <c r="R84" s="8" t="s">
+      <c r="R84" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="S84" s="8"/>
-      <c r="T84" s="8"/>
-    </row>
-    <row r="85" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="S84" s="6"/>
+      <c r="T84" s="6"/>
+    </row>
+    <row r="85" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G85" s="3"/>
-      <c r="I85" s="5"/>
-      <c r="K85" s="6"/>
-      <c r="L85" s="8"/>
-      <c r="M85" s="8"/>
-      <c r="N85" s="8"/>
-      <c r="O85" s="8"/>
-      <c r="P85" s="8"/>
+      <c r="I85" s="14"/>
+      <c r="K85" s="8"/>
+      <c r="L85" s="6"/>
+      <c r="M85" s="6"/>
+      <c r="N85" s="6"/>
+      <c r="O85" s="6"/>
+      <c r="P85" s="6"/>
       <c r="Q85" s="1"/>
-      <c r="R85" s="8"/>
-      <c r="S85" s="8"/>
-      <c r="T85" s="8"/>
-    </row>
-    <row r="86" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="R85" s="6"/>
+      <c r="S85" s="6"/>
+      <c r="T85" s="6"/>
+    </row>
+    <row r="86" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G86" s="3"/>
-      <c r="I86" s="5"/>
-    </row>
-    <row r="87" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="I86" s="14"/>
+    </row>
+    <row r="87" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G87" s="3"/>
-      <c r="I87" s="5"/>
-      <c r="K87" s="6">
+      <c r="I87" s="14"/>
+      <c r="K87" s="8">
         <v>5</v>
       </c>
-      <c r="L87" s="8" t="s">
+      <c r="L87" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="M87" s="8"/>
-      <c r="N87" s="8"/>
-      <c r="O87" s="8"/>
-      <c r="P87" s="8"/>
+      <c r="M87" s="6"/>
+      <c r="N87" s="6"/>
+      <c r="O87" s="6"/>
+      <c r="P87" s="6"/>
       <c r="Q87" s="1"/>
-      <c r="R87" s="8" t="s">
+      <c r="R87" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="S87" s="8"/>
-      <c r="T87" s="8"/>
-    </row>
-    <row r="88" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="G88" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I88" s="5"/>
-      <c r="K88" s="6"/>
-      <c r="L88" s="8"/>
-      <c r="M88" s="8"/>
-      <c r="N88" s="8"/>
-      <c r="O88" s="8"/>
-      <c r="P88" s="8"/>
+      <c r="S87" s="6"/>
+      <c r="T87" s="6"/>
+    </row>
+    <row r="88" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G88" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I88" s="14"/>
+      <c r="K88" s="8"/>
+      <c r="L88" s="6"/>
+      <c r="M88" s="6"/>
+      <c r="N88" s="6"/>
+      <c r="O88" s="6"/>
+      <c r="P88" s="6"/>
       <c r="Q88" s="1"/>
-      <c r="R88" s="8"/>
-      <c r="S88" s="8"/>
-      <c r="T88" s="8"/>
-    </row>
-    <row r="89" spans="7:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G89" s="4"/>
-    </row>
-    <row r="90" spans="7:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G90" s="4"/>
-    </row>
-    <row r="91" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="G91" s="4"/>
-      <c r="I91" s="5" t="s">
+      <c r="R88" s="6"/>
+      <c r="S88" s="6"/>
+      <c r="T88" s="6"/>
+    </row>
+    <row r="89" spans="7:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G89" s="15"/>
+    </row>
+    <row r="90" spans="7:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G90" s="15"/>
+    </row>
+    <row r="91" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G91" s="15"/>
+      <c r="I91" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="K91" s="6">
+      <c r="K91" s="8">
         <v>1</v>
       </c>
-      <c r="L91" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M91" s="7"/>
-      <c r="N91" s="7"/>
-      <c r="O91" s="7"/>
-      <c r="P91" s="7"/>
+      <c r="L91" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c r="N91" s="10"/>
+      <c r="O91" s="10"/>
+      <c r="P91" s="10"/>
       <c r="Q91" s="1"/>
-      <c r="R91" s="8" t="s">
+      <c r="R91" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="S91" s="8"/>
-      <c r="T91" s="8"/>
-    </row>
-    <row r="92" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="S91" s="6"/>
+      <c r="T91" s="6"/>
+    </row>
+    <row r="92" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G92" s="3"/>
-      <c r="I92" s="5"/>
-      <c r="K92" s="6"/>
-      <c r="L92" s="7"/>
-      <c r="M92" s="7"/>
-      <c r="N92" s="7"/>
-      <c r="O92" s="7"/>
-      <c r="P92" s="7"/>
+      <c r="I92" s="14"/>
+      <c r="K92" s="8"/>
+      <c r="L92" s="10"/>
+      <c r="M92" s="10"/>
+      <c r="N92" s="10"/>
+      <c r="O92" s="10"/>
+      <c r="P92" s="10"/>
       <c r="Q92" s="1"/>
-      <c r="R92" s="8"/>
-      <c r="S92" s="8"/>
-      <c r="T92" s="8"/>
-    </row>
-    <row r="93" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="R92" s="6"/>
+      <c r="S92" s="6"/>
+      <c r="T92" s="6"/>
+    </row>
+    <row r="93" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G93" s="3"/>
-      <c r="I93" s="5"/>
-    </row>
-    <row r="94" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="I93" s="14"/>
+    </row>
+    <row r="94" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G94" s="3"/>
-      <c r="I94" s="5"/>
-    </row>
-    <row r="95" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="I94" s="14"/>
+      <c r="K94" s="8">
+        <v>2</v>
+      </c>
+      <c r="L94" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c r="N94" s="10"/>
+      <c r="O94" s="10"/>
+      <c r="P94" s="10"/>
+      <c r="Q94" s="1"/>
+      <c r="R94" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="S94" s="6"/>
+      <c r="T94" s="6"/>
+    </row>
+    <row r="95" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G95" s="3"/>
-      <c r="I95" s="5"/>
-    </row>
-    <row r="96" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="I95" s="14"/>
+      <c r="K95" s="8"/>
+      <c r="L95" s="10"/>
+      <c r="M95" s="10"/>
+      <c r="N95" s="10"/>
+      <c r="O95" s="10"/>
+      <c r="P95" s="10"/>
+      <c r="Q95" s="1"/>
+      <c r="R95" s="6"/>
+      <c r="S95" s="6"/>
+      <c r="T95" s="6"/>
+    </row>
+    <row r="96" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G96" s="3"/>
-      <c r="I96" s="5"/>
-    </row>
-    <row r="97" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="I96" s="14"/>
+    </row>
+    <row r="97" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G97" s="3"/>
-      <c r="I97" s="5"/>
-    </row>
-    <row r="98" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="I97" s="14"/>
+    </row>
+    <row r="98" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G98" s="3"/>
-      <c r="I98" s="5"/>
-    </row>
-    <row r="99" spans="7:9" x14ac:dyDescent="0.45">
-      <c r="I99" s="5"/>
-    </row>
-    <row r="100" spans="7:9" x14ac:dyDescent="0.45">
-      <c r="I100" s="5"/>
-    </row>
-    <row r="101" spans="7:9" x14ac:dyDescent="0.45">
-      <c r="I101" s="5"/>
-    </row>
-    <row r="102" spans="7:9" x14ac:dyDescent="0.45">
-      <c r="I102" s="5"/>
-    </row>
-    <row r="103" spans="7:9" x14ac:dyDescent="0.45">
-      <c r="I103" s="5"/>
-    </row>
-    <row r="104" spans="7:9" x14ac:dyDescent="0.45">
-      <c r="I104" s="5"/>
+      <c r="I98" s="14"/>
+    </row>
+    <row r="99" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="I99" s="14"/>
+    </row>
+    <row r="100" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="I100" s="14"/>
+    </row>
+    <row r="101" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="I101" s="14"/>
+    </row>
+    <row r="102" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="I102" s="14"/>
+    </row>
+    <row r="103" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="I103" s="14"/>
+    </row>
+    <row r="104" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="I104" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="105">
-    <mergeCell ref="H2:Z3"/>
-    <mergeCell ref="R5:T6"/>
-    <mergeCell ref="V5:Z6"/>
-    <mergeCell ref="R8:T9"/>
-    <mergeCell ref="V8:Z9"/>
-    <mergeCell ref="L5:P6"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:P9"/>
-    <mergeCell ref="H5:K6"/>
+  <mergeCells count="108">
+    <mergeCell ref="G88:G91"/>
+    <mergeCell ref="I91:I104"/>
+    <mergeCell ref="K91:K92"/>
+    <mergeCell ref="L91:P92"/>
+    <mergeCell ref="R91:T92"/>
+    <mergeCell ref="L81:P82"/>
+    <mergeCell ref="R81:T82"/>
+    <mergeCell ref="K84:K85"/>
+    <mergeCell ref="L84:P85"/>
+    <mergeCell ref="R84:T85"/>
+    <mergeCell ref="K94:K95"/>
+    <mergeCell ref="L94:P95"/>
+    <mergeCell ref="R94:T95"/>
+    <mergeCell ref="L78:P79"/>
+    <mergeCell ref="R78:T79"/>
+    <mergeCell ref="K87:K88"/>
+    <mergeCell ref="L87:P88"/>
+    <mergeCell ref="R87:T88"/>
+    <mergeCell ref="I75:I88"/>
+    <mergeCell ref="K78:K79"/>
+    <mergeCell ref="K81:K82"/>
+    <mergeCell ref="K75:K76"/>
+    <mergeCell ref="L75:P76"/>
+    <mergeCell ref="R75:T76"/>
+    <mergeCell ref="H68:Z69"/>
+    <mergeCell ref="H71:K72"/>
+    <mergeCell ref="L71:P72"/>
+    <mergeCell ref="R71:T72"/>
+    <mergeCell ref="V71:Z72"/>
+    <mergeCell ref="L65:P66"/>
+    <mergeCell ref="R65:T66"/>
+    <mergeCell ref="V65:Z66"/>
+    <mergeCell ref="H56:Z57"/>
+    <mergeCell ref="H59:K60"/>
+    <mergeCell ref="H62:Z63"/>
+    <mergeCell ref="H65:K66"/>
+    <mergeCell ref="L59:P60"/>
+    <mergeCell ref="R59:T60"/>
+    <mergeCell ref="V59:Z60"/>
+    <mergeCell ref="H53:K54"/>
+    <mergeCell ref="L53:P54"/>
+    <mergeCell ref="R53:T54"/>
+    <mergeCell ref="V53:Z54"/>
+    <mergeCell ref="V35:Z36"/>
+    <mergeCell ref="L38:P39"/>
+    <mergeCell ref="R38:T39"/>
+    <mergeCell ref="V38:Z39"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="L41:P42"/>
+    <mergeCell ref="R41:T42"/>
+    <mergeCell ref="V41:Z42"/>
+    <mergeCell ref="H38:K39"/>
+    <mergeCell ref="V50:Z51"/>
+    <mergeCell ref="V44:Z45"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="V29:Z30"/>
+    <mergeCell ref="V32:Z33"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="L35:P36"/>
+    <mergeCell ref="R35:T36"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="L29:P30"/>
+    <mergeCell ref="R29:T30"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="L32:P33"/>
+    <mergeCell ref="R32:T33"/>
+    <mergeCell ref="V26:Z27"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:P18"/>
+    <mergeCell ref="R17:T18"/>
+    <mergeCell ref="V17:Z18"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:P21"/>
+    <mergeCell ref="R20:T21"/>
+    <mergeCell ref="V20:Z21"/>
     <mergeCell ref="V11:Z12"/>
     <mergeCell ref="L14:P15"/>
     <mergeCell ref="R14:T15"/>
@@ -3020,78 +3121,15 @@
     <mergeCell ref="K26:K27"/>
     <mergeCell ref="L26:P27"/>
     <mergeCell ref="R26:T27"/>
-    <mergeCell ref="V26:Z27"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="L17:P18"/>
-    <mergeCell ref="R17:T18"/>
-    <mergeCell ref="V17:Z18"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:P21"/>
-    <mergeCell ref="R20:T21"/>
-    <mergeCell ref="V20:Z21"/>
-    <mergeCell ref="V29:Z30"/>
-    <mergeCell ref="V32:Z33"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="L35:P36"/>
-    <mergeCell ref="R35:T36"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="L29:P30"/>
-    <mergeCell ref="R29:T30"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="L32:P33"/>
-    <mergeCell ref="R32:T33"/>
-    <mergeCell ref="H53:K54"/>
-    <mergeCell ref="L53:P54"/>
-    <mergeCell ref="R53:T54"/>
-    <mergeCell ref="V53:Z54"/>
-    <mergeCell ref="V35:Z36"/>
-    <mergeCell ref="L38:P39"/>
-    <mergeCell ref="R38:T39"/>
-    <mergeCell ref="V38:Z39"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="L41:P42"/>
-    <mergeCell ref="R41:T42"/>
-    <mergeCell ref="V41:Z42"/>
-    <mergeCell ref="H38:K39"/>
-    <mergeCell ref="V50:Z51"/>
-    <mergeCell ref="V44:Z45"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="H68:Z69"/>
-    <mergeCell ref="H71:K72"/>
-    <mergeCell ref="L71:P72"/>
-    <mergeCell ref="R71:T72"/>
-    <mergeCell ref="V71:Z72"/>
-    <mergeCell ref="L65:P66"/>
-    <mergeCell ref="R65:T66"/>
-    <mergeCell ref="V65:Z66"/>
-    <mergeCell ref="H56:Z57"/>
-    <mergeCell ref="H59:K60"/>
-    <mergeCell ref="H62:Z63"/>
-    <mergeCell ref="H65:K66"/>
-    <mergeCell ref="L59:P60"/>
-    <mergeCell ref="R59:T60"/>
-    <mergeCell ref="V59:Z60"/>
-    <mergeCell ref="L78:P79"/>
-    <mergeCell ref="R78:T79"/>
-    <mergeCell ref="K87:K88"/>
-    <mergeCell ref="L87:P88"/>
-    <mergeCell ref="R87:T88"/>
-    <mergeCell ref="I75:I88"/>
-    <mergeCell ref="K78:K79"/>
-    <mergeCell ref="K81:K82"/>
-    <mergeCell ref="K75:K76"/>
-    <mergeCell ref="L75:P76"/>
-    <mergeCell ref="R75:T76"/>
-    <mergeCell ref="G88:G91"/>
-    <mergeCell ref="I91:I104"/>
-    <mergeCell ref="K91:K92"/>
-    <mergeCell ref="L91:P92"/>
-    <mergeCell ref="R91:T92"/>
-    <mergeCell ref="L81:P82"/>
-    <mergeCell ref="R81:T82"/>
-    <mergeCell ref="K84:K85"/>
-    <mergeCell ref="L84:P85"/>
-    <mergeCell ref="R84:T85"/>
+    <mergeCell ref="H2:Z3"/>
+    <mergeCell ref="R5:T6"/>
+    <mergeCell ref="V5:Z6"/>
+    <mergeCell ref="R8:T9"/>
+    <mergeCell ref="V8:Z9"/>
+    <mergeCell ref="L5:P6"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:P9"/>
+    <mergeCell ref="H5:K6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3105,174 +3143,174 @@
       <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="H2" s="17" t="s">
+    <row r="2" spans="6:25" x14ac:dyDescent="0.25">
+      <c r="H2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="R2" s="17" t="s">
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="R2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-    </row>
-    <row r="3" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="17"/>
-    </row>
-    <row r="5" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F5" s="16">
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16"/>
+    </row>
+    <row r="3" spans="6:25" x14ac:dyDescent="0.25">
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="16"/>
+      <c r="X3" s="16"/>
+      <c r="Y3" s="16"/>
+    </row>
+    <row r="5" spans="6:25" x14ac:dyDescent="0.25">
+      <c r="F5" s="17">
         <v>1</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-    </row>
-    <row r="6" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-    </row>
-    <row r="8" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F8" s="16">
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+    </row>
+    <row r="6" spans="6:25" x14ac:dyDescent="0.25">
+      <c r="F6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+    </row>
+    <row r="8" spans="6:25" x14ac:dyDescent="0.25">
+      <c r="F8" s="17">
         <v>2</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-    </row>
-    <row r="9" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-    </row>
-    <row r="11" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F11" s="16">
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+    </row>
+    <row r="9" spans="6:25" x14ac:dyDescent="0.25">
+      <c r="F9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+    </row>
+    <row r="11" spans="6:25" x14ac:dyDescent="0.25">
+      <c r="F11" s="17">
         <v>3</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="H11" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-    </row>
-    <row r="12" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-    </row>
-    <row r="14" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F14" s="16">
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+    </row>
+    <row r="12" spans="6:25" x14ac:dyDescent="0.25">
+      <c r="F12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+    </row>
+    <row r="14" spans="6:25" x14ac:dyDescent="0.25">
+      <c r="F14" s="17">
         <v>4</v>
       </c>
-      <c r="H14" s="16" t="s">
+      <c r="H14" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-    </row>
-    <row r="15" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+    </row>
+    <row r="15" spans="6:25" x14ac:dyDescent="0.25">
+      <c r="F15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="H14:P15"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="H11:P12"/>
+    <mergeCell ref="H2:P3"/>
     <mergeCell ref="R2:Y3"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="H5:P6"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="H8:P9"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="H14:P15"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="H11:P12"/>
-    <mergeCell ref="H2:P3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3283,16 +3321,16 @@
   <dimension ref="C2:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="6.59765625" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="2" spans="3:16" x14ac:dyDescent="0.25">
       <c r="J2" s="18" t="s">
         <v>12</v>
       </c>
@@ -3303,7 +3341,7 @@
       <c r="O2" s="18"/>
       <c r="P2" s="18"/>
     </row>
-    <row r="3" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="3" spans="3:16" x14ac:dyDescent="0.25">
       <c r="J3" s="18"/>
       <c r="K3" s="18"/>
       <c r="L3" s="18"/>
@@ -3312,7 +3350,7 @@
       <c r="O3" s="18"/>
       <c r="P3" s="18"/>
     </row>
-    <row r="5" spans="3:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="3:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="20" t="s">
         <v>17</v>
       </c>
@@ -3330,7 +3368,7 @@
       <c r="O5" s="19"/>
       <c r="P5" s="19"/>
     </row>
-    <row r="6" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="6" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C6" s="20"/>
       <c r="F6" s="19" t="s">
         <v>14</v>
@@ -3346,28 +3384,34 @@
       <c r="O6" s="19"/>
       <c r="P6" s="19"/>
     </row>
-    <row r="7" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C7" s="20"/>
       <c r="F7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C8" s="20"/>
       <c r="F8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C9" s="20"/>
-    </row>
-    <row r="10" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="F9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C10" s="20"/>
-    </row>
-    <row r="11" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="F10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C11" s="20"/>
     </row>
-    <row r="12" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="12" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C12" s="20"/>
     </row>
   </sheetData>

--- a/Documents/Targets&Planning.xlsx
+++ b/Documents/Targets&Planning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Blogging Website\blogPosts\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7EADD1C-BE45-4E1F-B22F-3A08CC58426F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C02447A-B7F4-4DD7-BBC5-217AB01F58F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27525" yWindow="315" windowWidth="26100" windowHeight="14610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1050" yWindow="1140" windowWidth="26100" windowHeight="14610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="86">
   <si>
     <t>November</t>
   </si>
@@ -180,13 +180,118 @@
   </si>
   <si>
     <t>Create WIX Profile and add an article</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>28,November,2023, Tuesday</t>
+  </si>
+  <si>
+    <t>https://entmnt.com/</t>
+  </si>
+  <si>
+    <t>Publish or Edit wikipedia page and send out the backlink to us</t>
+  </si>
+  <si>
+    <t>https://mahir-al-hujjah.blogspot.com/</t>
+  </si>
+  <si>
+    <t>https://eyolos-best.ngontinh24.com/articles/qual-o-tamanho-da-lamina-do-laringoscopio-para-32-semanas-1-4-kg-198</t>
+  </si>
+  <si>
+    <t>https://budati-best.ngontinh24.com/article/future-of-diesel-cars-in-india</t>
+  </si>
+  <si>
+    <t>https://meesingz.blogspot.com/2022/10/how-much-seo-do-you-need-to-get-top.html?sc=1701128530236#c479777348393037671</t>
+  </si>
+  <si>
+    <t>https://stprimea.blogspot.com/2022/10/achieve-top-ranking-with-effective.html?sc=1701128865308#c6866907815013414999</t>
+  </si>
+  <si>
+    <t>Bloggers.com Comment</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.vehiclemasti.com"&gt;Vehicle Masti&lt;/a&gt;,</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.vehiclemasti.com/cars/tata/tata_safari."&gt;Tata safari&lt;/a&gt;,</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.karunakarpatel.com"&gt;Karunakar Patel&lt;/a&gt;,</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.karunakarpatel.com/Blog"&gt;Karunakar Patel Blog Page&lt;/a&gt;,</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.karunakarpatel.com/Blog/nextjs_installation"&gt;Next js Installation&lt;/a&gt;,</t>
+  </si>
+  <si>
+    <t>https://spinlistoz.blogspot.com/2022/10/how-much-seo-do-you-need-to-get-top.html?sc=1701129252773#c1669641211051154630</t>
+  </si>
+  <si>
+    <t>https://meesingz.blogspot.com/2022/10/how-much-seo-do-you-need-to-get-top.html?showComment=1701126872631</t>
+  </si>
+  <si>
+    <t>Here is the most useful websites that you can later look after and i felt really happy by reading your blog post. Thanks for sharing such an amazing article.</t>
+  </si>
+  <si>
+    <t>https://fumankong.blogspot.com/2022/10/how-much-seo-do-you-need-to-get-top.html#comment-form</t>
+  </si>
+  <si>
+    <t>https://kylemcz.blogspot.com/2022/10/how-much-seo-do-you-need-to-get-top.html#comment-form</t>
+  </si>
+  <si>
+    <t>https://solidbau.blogspot.com/2022/10/achieve-top-ranking-with-effective.html#comment-form</t>
+  </si>
+  <si>
+    <t>https://cyberhaiz.blogspot.com/2022/10/how-much-seo-do-you-need-to-get-top.html#comment-form</t>
+  </si>
+  <si>
+    <t>https://refresher.sk/profil/karunakar-patel-business</t>
+  </si>
+  <si>
+    <t>https://www.rediff.com/</t>
+  </si>
+  <si>
+    <t>https://www.screamingfrog.co.uk/brightonseo-san-diego-23/?unapproved=480568&amp;moderation-hash=6fad491a326a145ea4812b07a8fb7f78#comment-480568</t>
+  </si>
+  <si>
+    <t>https://publitzx.blogspot.com/2022/10/improve-google-ranking-submit-press.html#comment-form</t>
+  </si>
+  <si>
+    <t>https://nikolaroza.com/semrush-pricing/</t>
+  </si>
+  <si>
+    <t>https://hostingpapers.com/best-free-website-hosting/?unapproved=4&amp;moderation-hash=4b97ab5ec77998690950321c977c8d1d#comment-4</t>
+  </si>
+  <si>
+    <t>https://www.robbierichards.com/seo/increase-organic-traffic/#comment-298495</t>
+  </si>
+  <si>
+    <t>https://infobunny.com/wp-comments-post.php</t>
+  </si>
+  <si>
+    <t>Create All Profiles like Pinterest, Amazon etc where we can add links in profile</t>
+  </si>
+  <si>
+    <t>Add Bing Analytics code to both websites</t>
+  </si>
+  <si>
+    <t>https://webscountry.com/guest-post-add-my-site/</t>
+  </si>
+  <si>
+    <t>https://anonymania.com/bullet-vpn-review/#comment-119387</t>
+  </si>
+  <si>
+    <t>bloggingtriggers.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,8 +341,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -325,8 +445,13 @@
         <fgColor theme="8"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -334,14 +459,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -350,46 +492,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -401,11 +543,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="6">
     <cellStyle name="Accent5" xfId="3" builtinId="45"/>
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Good" xfId="2" builtinId="26"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
+    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -684,10 +839,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB104"/>
+  <dimension ref="A1:AB121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D73" zoomScale="93" workbookViewId="0">
-      <selection activeCell="O93" sqref="O93"/>
+    <sheetView tabSelected="1" topLeftCell="D97" zoomScale="93" workbookViewId="0">
+      <selection activeCell="N127" sqref="N127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,27 +885,27 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
     </row>
@@ -762,25 +917,25 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="15"/>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
     </row>
@@ -822,33 +977,33 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="5" t="s">
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
       <c r="Q5" s="1"/>
-      <c r="R5" s="5" t="s">
+      <c r="R5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
       <c r="U5" s="1"/>
-      <c r="V5" s="5" t="s">
+      <c r="V5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
     </row>
@@ -860,25 +1015,25 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
       <c r="Q6" s="1"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
       <c r="U6" s="1"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
     </row>
@@ -923,30 +1078,30 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="8">
+      <c r="K8" s="6">
         <v>1</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="L8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
       <c r="Q8" s="1"/>
-      <c r="R8" s="6" t="s">
+      <c r="R8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
       <c r="U8" s="1"/>
-      <c r="V8" s="7" t="s">
+      <c r="V8" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="13"/>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
     </row>
@@ -961,22 +1116,22 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
       <c r="Q9" s="1"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
       <c r="U9" s="1"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13"/>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
     </row>
@@ -1021,30 +1176,30 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="8">
+      <c r="K11" s="6">
         <v>2</v>
       </c>
-      <c r="L11" s="6" t="s">
+      <c r="L11" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
       <c r="Q11" s="1"/>
-      <c r="R11" s="6" t="s">
+      <c r="R11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
       <c r="U11" s="1"/>
-      <c r="V11" s="7" t="s">
+      <c r="V11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
-      <c r="Z11" s="7"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
     </row>
@@ -1059,22 +1214,22 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
       <c r="Q12" s="1"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
       <c r="U12" s="1"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="7"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
     </row>
@@ -1116,33 +1271,33 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="5" t="s">
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
       <c r="Q14" s="1"/>
-      <c r="R14" s="5" t="s">
+      <c r="R14" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
       <c r="U14" s="1"/>
-      <c r="V14" s="5" t="s">
+      <c r="V14" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
     </row>
@@ -1154,25 +1309,25 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
       <c r="Q15" s="1"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
       <c r="U15" s="1"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
     </row>
@@ -1217,30 +1372,30 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="8">
+      <c r="K17" s="6">
         <v>1</v>
       </c>
-      <c r="L17" s="6" t="s">
+      <c r="L17" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
       <c r="Q17" s="1"/>
-      <c r="R17" s="6" t="s">
+      <c r="R17" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
       <c r="U17" s="1"/>
-      <c r="V17" s="7" t="s">
+      <c r="V17" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="W17" s="7"/>
-      <c r="X17" s="7"/>
-      <c r="Y17" s="7"/>
-      <c r="Z17" s="7"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="13"/>
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
     </row>
@@ -1255,22 +1410,22 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
       <c r="Q18" s="1"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
       <c r="U18" s="1"/>
-      <c r="V18" s="7"/>
-      <c r="W18" s="7"/>
-      <c r="X18" s="7"/>
-      <c r="Y18" s="7"/>
-      <c r="Z18" s="7"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="13"/>
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
     </row>
@@ -1315,30 +1470,30 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="8">
+      <c r="K20" s="6">
         <v>2</v>
       </c>
-      <c r="L20" s="6" t="s">
+      <c r="L20" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
       <c r="Q20" s="1"/>
-      <c r="R20" s="6" t="s">
+      <c r="R20" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
       <c r="U20" s="1"/>
-      <c r="V20" s="7" t="s">
+      <c r="V20" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="W20" s="7"/>
-      <c r="X20" s="7"/>
-      <c r="Y20" s="7"/>
-      <c r="Z20" s="7"/>
+      <c r="W20" s="13"/>
+      <c r="X20" s="13"/>
+      <c r="Y20" s="13"/>
+      <c r="Z20" s="13"/>
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
     </row>
@@ -1353,22 +1508,22 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
       <c r="Q21" s="1"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
       <c r="U21" s="1"/>
-      <c r="V21" s="7"/>
-      <c r="W21" s="7"/>
-      <c r="X21" s="7"/>
-      <c r="Y21" s="7"/>
-      <c r="Z21" s="7"/>
+      <c r="V21" s="13"/>
+      <c r="W21" s="13"/>
+      <c r="X21" s="13"/>
+      <c r="Y21" s="13"/>
+      <c r="Z21" s="13"/>
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
     </row>
@@ -1413,30 +1568,30 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
-      <c r="K23" s="8">
+      <c r="K23" s="6">
         <v>3</v>
       </c>
-      <c r="L23" s="6" t="s">
+      <c r="L23" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
       <c r="Q23" s="1"/>
-      <c r="R23" s="6" t="s">
+      <c r="R23" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
       <c r="U23" s="1"/>
-      <c r="V23" s="11" t="s">
+      <c r="V23" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="W23" s="11"/>
-      <c r="X23" s="11"/>
-      <c r="Y23" s="11"/>
-      <c r="Z23" s="11"/>
+      <c r="W23" s="14"/>
+      <c r="X23" s="14"/>
+      <c r="Y23" s="14"/>
+      <c r="Z23" s="14"/>
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
     </row>
@@ -1451,22 +1606,22 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
       <c r="Q24" s="1"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="6"/>
-      <c r="T24" s="6"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
       <c r="U24" s="1"/>
-      <c r="V24" s="11"/>
-      <c r="W24" s="11"/>
-      <c r="X24" s="11"/>
-      <c r="Y24" s="11"/>
-      <c r="Z24" s="11"/>
+      <c r="V24" s="14"/>
+      <c r="W24" s="14"/>
+      <c r="X24" s="14"/>
+      <c r="Y24" s="14"/>
+      <c r="Z24" s="14"/>
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
     </row>
@@ -1511,30 +1666,30 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="8">
+      <c r="K26" s="6">
         <v>4</v>
       </c>
-      <c r="L26" s="10" t="s">
+      <c r="L26" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
       <c r="Q26" s="1"/>
-      <c r="R26" s="6" t="s">
+      <c r="R26" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="S26" s="6"/>
-      <c r="T26" s="6"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
       <c r="U26" s="1"/>
-      <c r="V26" s="11" t="s">
+      <c r="V26" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="W26" s="11"/>
-      <c r="X26" s="11"/>
-      <c r="Y26" s="11"/>
-      <c r="Z26" s="11"/>
+      <c r="W26" s="14"/>
+      <c r="X26" s="14"/>
+      <c r="Y26" s="14"/>
+      <c r="Z26" s="14"/>
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
     </row>
@@ -1549,22 +1704,22 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
       <c r="Q27" s="1"/>
-      <c r="R27" s="6"/>
-      <c r="S27" s="6"/>
-      <c r="T27" s="6"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
       <c r="U27" s="1"/>
-      <c r="V27" s="11"/>
-      <c r="W27" s="11"/>
-      <c r="X27" s="11"/>
-      <c r="Y27" s="11"/>
-      <c r="Z27" s="11"/>
+      <c r="V27" s="14"/>
+      <c r="W27" s="14"/>
+      <c r="X27" s="14"/>
+      <c r="Y27" s="14"/>
+      <c r="Z27" s="14"/>
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
     </row>
@@ -1609,30 +1764,30 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
-      <c r="K29" s="8">
+      <c r="K29" s="6">
         <v>5</v>
       </c>
-      <c r="L29" s="10" t="s">
+      <c r="L29" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
       <c r="Q29" s="1"/>
-      <c r="R29" s="6" t="s">
+      <c r="R29" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="S29" s="6"/>
-      <c r="T29" s="6"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
       <c r="U29" s="1"/>
-      <c r="V29" s="11" t="s">
+      <c r="V29" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="W29" s="11"/>
-      <c r="X29" s="11"/>
-      <c r="Y29" s="11"/>
-      <c r="Z29" s="11"/>
+      <c r="W29" s="14"/>
+      <c r="X29" s="14"/>
+      <c r="Y29" s="14"/>
+      <c r="Z29" s="14"/>
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
     </row>
@@ -1647,22 +1802,22 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
       <c r="Q30" s="1"/>
-      <c r="R30" s="6"/>
-      <c r="S30" s="6"/>
-      <c r="T30" s="6"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
       <c r="U30" s="1"/>
-      <c r="V30" s="11"/>
-      <c r="W30" s="11"/>
-      <c r="X30" s="11"/>
-      <c r="Y30" s="11"/>
-      <c r="Z30" s="11"/>
+      <c r="V30" s="14"/>
+      <c r="W30" s="14"/>
+      <c r="X30" s="14"/>
+      <c r="Y30" s="14"/>
+      <c r="Z30" s="14"/>
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
     </row>
@@ -1707,30 +1862,30 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
-      <c r="K32" s="8">
+      <c r="K32" s="6">
         <v>6</v>
       </c>
-      <c r="L32" s="10" t="s">
+      <c r="L32" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
       <c r="Q32" s="1"/>
-      <c r="R32" s="6" t="s">
+      <c r="R32" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="S32" s="6"/>
-      <c r="T32" s="6"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="8"/>
       <c r="U32" s="1"/>
-      <c r="V32" s="7" t="s">
+      <c r="V32" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="W32" s="7"/>
-      <c r="X32" s="7"/>
-      <c r="Y32" s="7"/>
-      <c r="Z32" s="7"/>
+      <c r="W32" s="13"/>
+      <c r="X32" s="13"/>
+      <c r="Y32" s="13"/>
+      <c r="Z32" s="13"/>
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
     </row>
@@ -1745,22 +1900,22 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
       <c r="Q33" s="1"/>
-      <c r="R33" s="6"/>
-      <c r="S33" s="6"/>
-      <c r="T33" s="6"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
       <c r="U33" s="1"/>
-      <c r="V33" s="7"/>
-      <c r="W33" s="7"/>
-      <c r="X33" s="7"/>
-      <c r="Y33" s="7"/>
-      <c r="Z33" s="7"/>
+      <c r="V33" s="13"/>
+      <c r="W33" s="13"/>
+      <c r="X33" s="13"/>
+      <c r="Y33" s="13"/>
+      <c r="Z33" s="13"/>
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
     </row>
@@ -1805,22 +1960,22 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
-      <c r="K35" s="8">
+      <c r="K35" s="6">
         <v>7</v>
       </c>
-      <c r="L35" s="10" t="s">
+      <c r="L35" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
       <c r="Q35" s="1"/>
-      <c r="R35" s="6" t="s">
+      <c r="R35" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="S35" s="6"/>
-      <c r="T35" s="6"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="8"/>
       <c r="U35" s="1"/>
       <c r="V35" s="12" t="s">
         <v>28</v>
@@ -1843,16 +1998,16 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="10"/>
-      <c r="P36" s="10"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
       <c r="Q36" s="1"/>
-      <c r="R36" s="6"/>
-      <c r="S36" s="6"/>
-      <c r="T36" s="6"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="8"/>
+      <c r="T36" s="8"/>
       <c r="U36" s="1"/>
       <c r="V36" s="12"/>
       <c r="W36" s="12"/>
@@ -1900,33 +2055,33 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="9" t="s">
+      <c r="H38" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="5" t="s">
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="5"/>
-      <c r="P38" s="5"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
       <c r="Q38" s="1"/>
-      <c r="R38" s="5" t="s">
+      <c r="R38" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="S38" s="5"/>
-      <c r="T38" s="5"/>
+      <c r="S38" s="11"/>
+      <c r="T38" s="11"/>
       <c r="U38" s="1"/>
-      <c r="V38" s="5" t="s">
+      <c r="V38" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="W38" s="5"/>
-      <c r="X38" s="5"/>
-      <c r="Y38" s="5"/>
-      <c r="Z38" s="5"/>
+      <c r="W38" s="11"/>
+      <c r="X38" s="11"/>
+      <c r="Y38" s="11"/>
+      <c r="Z38" s="11"/>
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
     </row>
@@ -1938,25 +2093,25 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="5"/>
-      <c r="P39" s="5"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
       <c r="Q39" s="1"/>
-      <c r="R39" s="5"/>
-      <c r="S39" s="5"/>
-      <c r="T39" s="5"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="11"/>
+      <c r="T39" s="11"/>
       <c r="U39" s="1"/>
-      <c r="V39" s="5"/>
-      <c r="W39" s="5"/>
-      <c r="X39" s="5"/>
-      <c r="Y39" s="5"/>
-      <c r="Z39" s="5"/>
+      <c r="V39" s="11"/>
+      <c r="W39" s="11"/>
+      <c r="X39" s="11"/>
+      <c r="Y39" s="11"/>
+      <c r="Z39" s="11"/>
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
     </row>
@@ -2001,30 +2156,30 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
-      <c r="K41" s="8">
+      <c r="K41" s="6">
         <v>1</v>
       </c>
-      <c r="L41" s="6" t="s">
+      <c r="L41" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="M41" s="6"/>
-      <c r="N41" s="6"/>
-      <c r="O41" s="6"/>
-      <c r="P41" s="6"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
       <c r="Q41" s="1"/>
-      <c r="R41" s="6" t="s">
+      <c r="R41" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="S41" s="6"/>
-      <c r="T41" s="6"/>
+      <c r="S41" s="8"/>
+      <c r="T41" s="8"/>
       <c r="U41" s="1"/>
-      <c r="V41" s="7" t="s">
+      <c r="V41" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="W41" s="7"/>
-      <c r="X41" s="7"/>
-      <c r="Y41" s="7"/>
-      <c r="Z41" s="7"/>
+      <c r="W41" s="13"/>
+      <c r="X41" s="13"/>
+      <c r="Y41" s="13"/>
+      <c r="Z41" s="13"/>
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
     </row>
@@ -2039,22 +2194,22 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="6"/>
-      <c r="M42" s="6"/>
-      <c r="N42" s="6"/>
-      <c r="O42" s="6"/>
-      <c r="P42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
       <c r="Q42" s="1"/>
-      <c r="R42" s="6"/>
-      <c r="S42" s="6"/>
-      <c r="T42" s="6"/>
+      <c r="R42" s="8"/>
+      <c r="S42" s="8"/>
+      <c r="T42" s="8"/>
       <c r="U42" s="1"/>
-      <c r="V42" s="7"/>
-      <c r="W42" s="7"/>
-      <c r="X42" s="7"/>
-      <c r="Y42" s="7"/>
-      <c r="Z42" s="7"/>
+      <c r="V42" s="13"/>
+      <c r="W42" s="13"/>
+      <c r="X42" s="13"/>
+      <c r="Y42" s="13"/>
+      <c r="Z42" s="13"/>
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
     </row>
@@ -2099,30 +2254,30 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
-      <c r="K44" s="8">
+      <c r="K44" s="6">
         <v>2</v>
       </c>
-      <c r="L44" s="6" t="s">
+      <c r="L44" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="M44" s="6"/>
-      <c r="N44" s="6"/>
-      <c r="O44" s="6"/>
-      <c r="P44" s="6"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="8"/>
       <c r="Q44" s="1"/>
-      <c r="R44" s="6" t="s">
+      <c r="R44" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="S44" s="6"/>
-      <c r="T44" s="6"/>
+      <c r="S44" s="8"/>
+      <c r="T44" s="8"/>
       <c r="U44" s="1"/>
-      <c r="V44" s="7" t="s">
+      <c r="V44" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="W44" s="7"/>
-      <c r="X44" s="7"/>
-      <c r="Y44" s="7"/>
-      <c r="Z44" s="7"/>
+      <c r="W44" s="13"/>
+      <c r="X44" s="13"/>
+      <c r="Y44" s="13"/>
+      <c r="Z44" s="13"/>
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
     </row>
@@ -2137,22 +2292,22 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="6"/>
-      <c r="M45" s="6"/>
-      <c r="N45" s="6"/>
-      <c r="O45" s="6"/>
-      <c r="P45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="8"/>
+      <c r="P45" s="8"/>
       <c r="Q45" s="1"/>
-      <c r="R45" s="6"/>
-      <c r="S45" s="6"/>
-      <c r="T45" s="6"/>
+      <c r="R45" s="8"/>
+      <c r="S45" s="8"/>
+      <c r="T45" s="8"/>
       <c r="U45" s="1"/>
-      <c r="V45" s="7"/>
-      <c r="W45" s="7"/>
-      <c r="X45" s="7"/>
-      <c r="Y45" s="7"/>
-      <c r="Z45" s="7"/>
+      <c r="V45" s="13"/>
+      <c r="W45" s="13"/>
+      <c r="X45" s="13"/>
+      <c r="Y45" s="13"/>
+      <c r="Z45" s="13"/>
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
     </row>
@@ -2197,30 +2352,30 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
-      <c r="K47" s="8">
+      <c r="K47" s="6">
         <v>3</v>
       </c>
-      <c r="L47" s="10" t="s">
+      <c r="L47" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="M47" s="10"/>
-      <c r="N47" s="10"/>
-      <c r="O47" s="10"/>
-      <c r="P47" s="10"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
       <c r="Q47" s="1"/>
-      <c r="R47" s="6" t="s">
+      <c r="R47" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="S47" s="6"/>
-      <c r="T47" s="6"/>
+      <c r="S47" s="8"/>
+      <c r="T47" s="8"/>
       <c r="U47" s="1"/>
-      <c r="V47" s="7" t="s">
+      <c r="V47" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="W47" s="7"/>
-      <c r="X47" s="7"/>
-      <c r="Y47" s="7"/>
-      <c r="Z47" s="7"/>
+      <c r="W47" s="13"/>
+      <c r="X47" s="13"/>
+      <c r="Y47" s="13"/>
+      <c r="Z47" s="13"/>
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
     </row>
@@ -2235,22 +2390,22 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="10"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="10"/>
-      <c r="O48" s="10"/>
-      <c r="P48" s="10"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7"/>
       <c r="Q48" s="1"/>
-      <c r="R48" s="6"/>
-      <c r="S48" s="6"/>
-      <c r="T48" s="6"/>
+      <c r="R48" s="8"/>
+      <c r="S48" s="8"/>
+      <c r="T48" s="8"/>
       <c r="U48" s="1"/>
-      <c r="V48" s="7"/>
-      <c r="W48" s="7"/>
-      <c r="X48" s="7"/>
-      <c r="Y48" s="7"/>
-      <c r="Z48" s="7"/>
+      <c r="V48" s="13"/>
+      <c r="W48" s="13"/>
+      <c r="X48" s="13"/>
+      <c r="Y48" s="13"/>
+      <c r="Z48" s="13"/>
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
     </row>
@@ -2295,30 +2450,30 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
-      <c r="K50" s="8">
+      <c r="K50" s="6">
         <v>4</v>
       </c>
-      <c r="L50" s="10" t="s">
+      <c r="L50" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="M50" s="10"/>
-      <c r="N50" s="10"/>
-      <c r="O50" s="10"/>
-      <c r="P50" s="10"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="7"/>
+      <c r="P50" s="7"/>
       <c r="Q50" s="1"/>
-      <c r="R50" s="6" t="s">
+      <c r="R50" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="S50" s="6"/>
-      <c r="T50" s="6"/>
+      <c r="S50" s="8"/>
+      <c r="T50" s="8"/>
       <c r="U50" s="1"/>
-      <c r="V50" s="7" t="s">
+      <c r="V50" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="W50" s="7"/>
-      <c r="X50" s="7"/>
-      <c r="Y50" s="7"/>
-      <c r="Z50" s="7"/>
+      <c r="W50" s="13"/>
+      <c r="X50" s="13"/>
+      <c r="Y50" s="13"/>
+      <c r="Z50" s="13"/>
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
     </row>
@@ -2333,22 +2488,22 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="10"/>
-      <c r="M51" s="10"/>
-      <c r="N51" s="10"/>
-      <c r="O51" s="10"/>
-      <c r="P51" s="10"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="7"/>
+      <c r="P51" s="7"/>
       <c r="Q51" s="1"/>
-      <c r="R51" s="6"/>
-      <c r="S51" s="6"/>
-      <c r="T51" s="6"/>
+      <c r="R51" s="8"/>
+      <c r="S51" s="8"/>
+      <c r="T51" s="8"/>
       <c r="U51" s="1"/>
-      <c r="V51" s="7"/>
-      <c r="W51" s="7"/>
-      <c r="X51" s="7"/>
-      <c r="Y51" s="7"/>
-      <c r="Z51" s="7"/>
+      <c r="V51" s="13"/>
+      <c r="W51" s="13"/>
+      <c r="X51" s="13"/>
+      <c r="Y51" s="13"/>
+      <c r="Z51" s="13"/>
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
     </row>
@@ -2390,713 +2545,1112 @@
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
-      <c r="H53" s="9" t="s">
+      <c r="H53" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="I53" s="9"/>
-      <c r="J53" s="9"/>
-      <c r="K53" s="9"/>
-      <c r="L53" s="5" t="s">
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="5"/>
-      <c r="P53" s="5"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="11"/>
+      <c r="P53" s="11"/>
       <c r="Q53" s="1"/>
-      <c r="R53" s="5" t="s">
+      <c r="R53" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="S53" s="5"/>
-      <c r="T53" s="5"/>
+      <c r="S53" s="11"/>
+      <c r="T53" s="11"/>
       <c r="U53" s="1"/>
-      <c r="V53" s="5" t="s">
+      <c r="V53" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="W53" s="5"/>
-      <c r="X53" s="5"/>
-      <c r="Y53" s="5"/>
-      <c r="Z53" s="5"/>
+      <c r="W53" s="11"/>
+      <c r="X53" s="11"/>
+      <c r="Y53" s="11"/>
+      <c r="Z53" s="11"/>
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="9"/>
-      <c r="K54" s="9"/>
-      <c r="L54" s="5"/>
-      <c r="M54" s="5"/>
-      <c r="N54" s="5"/>
-      <c r="O54" s="5"/>
-      <c r="P54" s="5"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="11"/>
+      <c r="P54" s="11"/>
       <c r="Q54" s="1"/>
-      <c r="R54" s="5"/>
-      <c r="S54" s="5"/>
-      <c r="T54" s="5"/>
+      <c r="R54" s="11"/>
+      <c r="S54" s="11"/>
+      <c r="T54" s="11"/>
       <c r="U54" s="1"/>
-      <c r="V54" s="5"/>
-      <c r="W54" s="5"/>
-      <c r="X54" s="5"/>
-      <c r="Y54" s="5"/>
-      <c r="Z54" s="5"/>
+      <c r="V54" s="11"/>
+      <c r="W54" s="11"/>
+      <c r="X54" s="11"/>
+      <c r="Y54" s="11"/>
+      <c r="Z54" s="11"/>
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="H56" s="13" t="s">
+      <c r="H56" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="I56" s="13"/>
-      <c r="J56" s="13"/>
-      <c r="K56" s="13"/>
-      <c r="L56" s="13"/>
-      <c r="M56" s="13"/>
-      <c r="N56" s="13"/>
-      <c r="O56" s="13"/>
-      <c r="P56" s="13"/>
-      <c r="Q56" s="13"/>
-      <c r="R56" s="13"/>
-      <c r="S56" s="13"/>
-      <c r="T56" s="13"/>
-      <c r="U56" s="13"/>
-      <c r="V56" s="13"/>
-      <c r="W56" s="13"/>
-      <c r="X56" s="13"/>
-      <c r="Y56" s="13"/>
-      <c r="Z56" s="13"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="9"/>
+      <c r="N56" s="9"/>
+      <c r="O56" s="9"/>
+      <c r="P56" s="9"/>
+      <c r="Q56" s="9"/>
+      <c r="R56" s="9"/>
+      <c r="S56" s="9"/>
+      <c r="T56" s="9"/>
+      <c r="U56" s="9"/>
+      <c r="V56" s="9"/>
+      <c r="W56" s="9"/>
+      <c r="X56" s="9"/>
+      <c r="Y56" s="9"/>
+      <c r="Z56" s="9"/>
     </row>
     <row r="57" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="H57" s="13"/>
-      <c r="I57" s="13"/>
-      <c r="J57" s="13"/>
-      <c r="K57" s="13"/>
-      <c r="L57" s="13"/>
-      <c r="M57" s="13"/>
-      <c r="N57" s="13"/>
-      <c r="O57" s="13"/>
-      <c r="P57" s="13"/>
-      <c r="Q57" s="13"/>
-      <c r="R57" s="13"/>
-      <c r="S57" s="13"/>
-      <c r="T57" s="13"/>
-      <c r="U57" s="13"/>
-      <c r="V57" s="13"/>
-      <c r="W57" s="13"/>
-      <c r="X57" s="13"/>
-      <c r="Y57" s="13"/>
-      <c r="Z57" s="13"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="9"/>
+      <c r="N57" s="9"/>
+      <c r="O57" s="9"/>
+      <c r="P57" s="9"/>
+      <c r="Q57" s="9"/>
+      <c r="R57" s="9"/>
+      <c r="S57" s="9"/>
+      <c r="T57" s="9"/>
+      <c r="U57" s="9"/>
+      <c r="V57" s="9"/>
+      <c r="W57" s="9"/>
+      <c r="X57" s="9"/>
+      <c r="Y57" s="9"/>
+      <c r="Z57" s="9"/>
     </row>
     <row r="59" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="H59" s="9" t="s">
+      <c r="H59" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="I59" s="9"/>
-      <c r="J59" s="9"/>
-      <c r="K59" s="9"/>
-      <c r="L59" s="5" t="s">
+      <c r="I59" s="10"/>
+      <c r="J59" s="10"/>
+      <c r="K59" s="10"/>
+      <c r="L59" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="M59" s="5"/>
-      <c r="N59" s="5"/>
-      <c r="O59" s="5"/>
-      <c r="P59" s="5"/>
+      <c r="M59" s="11"/>
+      <c r="N59" s="11"/>
+      <c r="O59" s="11"/>
+      <c r="P59" s="11"/>
       <c r="Q59" s="1"/>
-      <c r="R59" s="5" t="s">
+      <c r="R59" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="S59" s="5"/>
-      <c r="T59" s="5"/>
+      <c r="S59" s="11"/>
+      <c r="T59" s="11"/>
       <c r="U59" s="1"/>
-      <c r="V59" s="5" t="s">
+      <c r="V59" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="W59" s="5"/>
-      <c r="X59" s="5"/>
-      <c r="Y59" s="5"/>
-      <c r="Z59" s="5"/>
+      <c r="W59" s="11"/>
+      <c r="X59" s="11"/>
+      <c r="Y59" s="11"/>
+      <c r="Z59" s="11"/>
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="H60" s="9"/>
-      <c r="I60" s="9"/>
-      <c r="J60" s="9"/>
-      <c r="K60" s="9"/>
-      <c r="L60" s="5"/>
-      <c r="M60" s="5"/>
-      <c r="N60" s="5"/>
-      <c r="O60" s="5"/>
-      <c r="P60" s="5"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
+      <c r="L60" s="11"/>
+      <c r="M60" s="11"/>
+      <c r="N60" s="11"/>
+      <c r="O60" s="11"/>
+      <c r="P60" s="11"/>
       <c r="Q60" s="1"/>
-      <c r="R60" s="5"/>
-      <c r="S60" s="5"/>
-      <c r="T60" s="5"/>
+      <c r="R60" s="11"/>
+      <c r="S60" s="11"/>
+      <c r="T60" s="11"/>
       <c r="U60" s="1"/>
-      <c r="V60" s="5"/>
-      <c r="W60" s="5"/>
-      <c r="X60" s="5"/>
-      <c r="Y60" s="5"/>
-      <c r="Z60" s="5"/>
+      <c r="V60" s="11"/>
+      <c r="W60" s="11"/>
+      <c r="X60" s="11"/>
+      <c r="Y60" s="11"/>
+      <c r="Z60" s="11"/>
     </row>
     <row r="62" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="H62" s="13" t="s">
+      <c r="H62" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="I62" s="13"/>
-      <c r="J62" s="13"/>
-      <c r="K62" s="13"/>
-      <c r="L62" s="13"/>
-      <c r="M62" s="13"/>
-      <c r="N62" s="13"/>
-      <c r="O62" s="13"/>
-      <c r="P62" s="13"/>
-      <c r="Q62" s="13"/>
-      <c r="R62" s="13"/>
-      <c r="S62" s="13"/>
-      <c r="T62" s="13"/>
-      <c r="U62" s="13"/>
-      <c r="V62" s="13"/>
-      <c r="W62" s="13"/>
-      <c r="X62" s="13"/>
-      <c r="Y62" s="13"/>
-      <c r="Z62" s="13"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="9"/>
+      <c r="O62" s="9"/>
+      <c r="P62" s="9"/>
+      <c r="Q62" s="9"/>
+      <c r="R62" s="9"/>
+      <c r="S62" s="9"/>
+      <c r="T62" s="9"/>
+      <c r="U62" s="9"/>
+      <c r="V62" s="9"/>
+      <c r="W62" s="9"/>
+      <c r="X62" s="9"/>
+      <c r="Y62" s="9"/>
+      <c r="Z62" s="9"/>
     </row>
     <row r="63" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="H63" s="13"/>
-      <c r="I63" s="13"/>
-      <c r="J63" s="13"/>
-      <c r="K63" s="13"/>
-      <c r="L63" s="13"/>
-      <c r="M63" s="13"/>
-      <c r="N63" s="13"/>
-      <c r="O63" s="13"/>
-      <c r="P63" s="13"/>
-      <c r="Q63" s="13"/>
-      <c r="R63" s="13"/>
-      <c r="S63" s="13"/>
-      <c r="T63" s="13"/>
-      <c r="U63" s="13"/>
-      <c r="V63" s="13"/>
-      <c r="W63" s="13"/>
-      <c r="X63" s="13"/>
-      <c r="Y63" s="13"/>
-      <c r="Z63" s="13"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="9"/>
+      <c r="O63" s="9"/>
+      <c r="P63" s="9"/>
+      <c r="Q63" s="9"/>
+      <c r="R63" s="9"/>
+      <c r="S63" s="9"/>
+      <c r="T63" s="9"/>
+      <c r="U63" s="9"/>
+      <c r="V63" s="9"/>
+      <c r="W63" s="9"/>
+      <c r="X63" s="9"/>
+      <c r="Y63" s="9"/>
+      <c r="Z63" s="9"/>
     </row>
     <row r="65" spans="8:26" x14ac:dyDescent="0.25">
-      <c r="H65" s="9" t="s">
+      <c r="H65" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="I65" s="9"/>
-      <c r="J65" s="9"/>
-      <c r="K65" s="9"/>
-      <c r="L65" s="5" t="s">
+      <c r="I65" s="10"/>
+      <c r="J65" s="10"/>
+      <c r="K65" s="10"/>
+      <c r="L65" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="M65" s="5"/>
-      <c r="N65" s="5"/>
-      <c r="O65" s="5"/>
-      <c r="P65" s="5"/>
+      <c r="M65" s="11"/>
+      <c r="N65" s="11"/>
+      <c r="O65" s="11"/>
+      <c r="P65" s="11"/>
       <c r="Q65" s="1"/>
-      <c r="R65" s="5" t="s">
+      <c r="R65" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="S65" s="5"/>
-      <c r="T65" s="5"/>
+      <c r="S65" s="11"/>
+      <c r="T65" s="11"/>
       <c r="U65" s="1"/>
-      <c r="V65" s="5" t="s">
+      <c r="V65" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="W65" s="5"/>
-      <c r="X65" s="5"/>
-      <c r="Y65" s="5"/>
-      <c r="Z65" s="5"/>
+      <c r="W65" s="11"/>
+      <c r="X65" s="11"/>
+      <c r="Y65" s="11"/>
+      <c r="Z65" s="11"/>
     </row>
     <row r="66" spans="8:26" x14ac:dyDescent="0.25">
-      <c r="H66" s="9"/>
-      <c r="I66" s="9"/>
-      <c r="J66" s="9"/>
-      <c r="K66" s="9"/>
-      <c r="L66" s="5"/>
-      <c r="M66" s="5"/>
-      <c r="N66" s="5"/>
-      <c r="O66" s="5"/>
-      <c r="P66" s="5"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="10"/>
+      <c r="K66" s="10"/>
+      <c r="L66" s="11"/>
+      <c r="M66" s="11"/>
+      <c r="N66" s="11"/>
+      <c r="O66" s="11"/>
+      <c r="P66" s="11"/>
       <c r="Q66" s="1"/>
-      <c r="R66" s="5"/>
-      <c r="S66" s="5"/>
-      <c r="T66" s="5"/>
+      <c r="R66" s="11"/>
+      <c r="S66" s="11"/>
+      <c r="T66" s="11"/>
       <c r="U66" s="1"/>
-      <c r="V66" s="5"/>
-      <c r="W66" s="5"/>
-      <c r="X66" s="5"/>
-      <c r="Y66" s="5"/>
-      <c r="Z66" s="5"/>
+      <c r="V66" s="11"/>
+      <c r="W66" s="11"/>
+      <c r="X66" s="11"/>
+      <c r="Y66" s="11"/>
+      <c r="Z66" s="11"/>
     </row>
     <row r="68" spans="8:26" x14ac:dyDescent="0.25">
-      <c r="H68" s="13" t="s">
+      <c r="H68" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="I68" s="13"/>
-      <c r="J68" s="13"/>
-      <c r="K68" s="13"/>
-      <c r="L68" s="13"/>
-      <c r="M68" s="13"/>
-      <c r="N68" s="13"/>
-      <c r="O68" s="13"/>
-      <c r="P68" s="13"/>
-      <c r="Q68" s="13"/>
-      <c r="R68" s="13"/>
-      <c r="S68" s="13"/>
-      <c r="T68" s="13"/>
-      <c r="U68" s="13"/>
-      <c r="V68" s="13"/>
-      <c r="W68" s="13"/>
-      <c r="X68" s="13"/>
-      <c r="Y68" s="13"/>
-      <c r="Z68" s="13"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="9"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="9"/>
+      <c r="O68" s="9"/>
+      <c r="P68" s="9"/>
+      <c r="Q68" s="9"/>
+      <c r="R68" s="9"/>
+      <c r="S68" s="9"/>
+      <c r="T68" s="9"/>
+      <c r="U68" s="9"/>
+      <c r="V68" s="9"/>
+      <c r="W68" s="9"/>
+      <c r="X68" s="9"/>
+      <c r="Y68" s="9"/>
+      <c r="Z68" s="9"/>
     </row>
     <row r="69" spans="8:26" x14ac:dyDescent="0.25">
-      <c r="H69" s="13"/>
-      <c r="I69" s="13"/>
-      <c r="J69" s="13"/>
-      <c r="K69" s="13"/>
-      <c r="L69" s="13"/>
-      <c r="M69" s="13"/>
-      <c r="N69" s="13"/>
-      <c r="O69" s="13"/>
-      <c r="P69" s="13"/>
-      <c r="Q69" s="13"/>
-      <c r="R69" s="13"/>
-      <c r="S69" s="13"/>
-      <c r="T69" s="13"/>
-      <c r="U69" s="13"/>
-      <c r="V69" s="13"/>
-      <c r="W69" s="13"/>
-      <c r="X69" s="13"/>
-      <c r="Y69" s="13"/>
-      <c r="Z69" s="13"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c r="L69" s="9"/>
+      <c r="M69" s="9"/>
+      <c r="N69" s="9"/>
+      <c r="O69" s="9"/>
+      <c r="P69" s="9"/>
+      <c r="Q69" s="9"/>
+      <c r="R69" s="9"/>
+      <c r="S69" s="9"/>
+      <c r="T69" s="9"/>
+      <c r="U69" s="9"/>
+      <c r="V69" s="9"/>
+      <c r="W69" s="9"/>
+      <c r="X69" s="9"/>
+      <c r="Y69" s="9"/>
+      <c r="Z69" s="9"/>
     </row>
     <row r="71" spans="8:26" x14ac:dyDescent="0.25">
-      <c r="H71" s="9" t="s">
+      <c r="H71" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="I71" s="9"/>
-      <c r="J71" s="9"/>
-      <c r="K71" s="9"/>
-      <c r="L71" s="5" t="s">
+      <c r="I71" s="10"/>
+      <c r="J71" s="10"/>
+      <c r="K71" s="10"/>
+      <c r="L71" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="M71" s="5"/>
-      <c r="N71" s="5"/>
-      <c r="O71" s="5"/>
-      <c r="P71" s="5"/>
+      <c r="M71" s="11"/>
+      <c r="N71" s="11"/>
+      <c r="O71" s="11"/>
+      <c r="P71" s="11"/>
       <c r="Q71" s="1"/>
-      <c r="R71" s="5" t="s">
+      <c r="R71" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="S71" s="5"/>
-      <c r="T71" s="5"/>
+      <c r="S71" s="11"/>
+      <c r="T71" s="11"/>
       <c r="U71" s="1"/>
-      <c r="V71" s="5" t="s">
+      <c r="V71" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="W71" s="5"/>
-      <c r="X71" s="5"/>
-      <c r="Y71" s="5"/>
-      <c r="Z71" s="5"/>
+      <c r="W71" s="11"/>
+      <c r="X71" s="11"/>
+      <c r="Y71" s="11"/>
+      <c r="Z71" s="11"/>
     </row>
     <row r="72" spans="8:26" x14ac:dyDescent="0.25">
-      <c r="H72" s="9"/>
-      <c r="I72" s="9"/>
-      <c r="J72" s="9"/>
-      <c r="K72" s="9"/>
-      <c r="L72" s="5"/>
-      <c r="M72" s="5"/>
-      <c r="N72" s="5"/>
-      <c r="O72" s="5"/>
-      <c r="P72" s="5"/>
+      <c r="H72" s="10"/>
+      <c r="I72" s="10"/>
+      <c r="J72" s="10"/>
+      <c r="K72" s="10"/>
+      <c r="L72" s="11"/>
+      <c r="M72" s="11"/>
+      <c r="N72" s="11"/>
+      <c r="O72" s="11"/>
+      <c r="P72" s="11"/>
       <c r="Q72" s="1"/>
-      <c r="R72" s="5"/>
-      <c r="S72" s="5"/>
-      <c r="T72" s="5"/>
+      <c r="R72" s="11"/>
+      <c r="S72" s="11"/>
+      <c r="T72" s="11"/>
       <c r="U72" s="1"/>
-      <c r="V72" s="5"/>
-      <c r="W72" s="5"/>
-      <c r="X72" s="5"/>
-      <c r="Y72" s="5"/>
-      <c r="Z72" s="5"/>
+      <c r="V72" s="11"/>
+      <c r="W72" s="11"/>
+      <c r="X72" s="11"/>
+      <c r="Y72" s="11"/>
+      <c r="Z72" s="11"/>
     </row>
     <row r="75" spans="8:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I75" s="14" t="s">
+      <c r="I75" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="K75" s="8">
+      <c r="K75" s="6">
         <v>1</v>
       </c>
-      <c r="L75" s="10" t="s">
+      <c r="L75" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="M75" s="10"/>
-      <c r="N75" s="10"/>
-      <c r="O75" s="10"/>
-      <c r="P75" s="10"/>
+      <c r="M75" s="7"/>
+      <c r="N75" s="7"/>
+      <c r="O75" s="7"/>
+      <c r="P75" s="7"/>
       <c r="Q75" s="1"/>
-      <c r="R75" s="6" t="s">
+      <c r="R75" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="S75" s="6"/>
-      <c r="T75" s="6"/>
+      <c r="S75" s="8"/>
+      <c r="T75" s="8"/>
       <c r="U75" s="1"/>
+      <c r="V75" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="W75" s="9"/>
+      <c r="X75" s="9"/>
+      <c r="Y75" s="9"/>
+      <c r="Z75" s="9"/>
     </row>
     <row r="76" spans="8:26" x14ac:dyDescent="0.25">
-      <c r="I76" s="14"/>
-      <c r="K76" s="8"/>
-      <c r="L76" s="10"/>
-      <c r="M76" s="10"/>
-      <c r="N76" s="10"/>
-      <c r="O76" s="10"/>
-      <c r="P76" s="10"/>
+      <c r="I76" s="5"/>
+      <c r="K76" s="6"/>
+      <c r="L76" s="7"/>
+      <c r="M76" s="7"/>
+      <c r="N76" s="7"/>
+      <c r="O76" s="7"/>
+      <c r="P76" s="7"/>
       <c r="Q76" s="1"/>
-      <c r="R76" s="6"/>
-      <c r="S76" s="6"/>
-      <c r="T76" s="6"/>
+      <c r="R76" s="8"/>
+      <c r="S76" s="8"/>
+      <c r="T76" s="8"/>
       <c r="U76" s="1"/>
+      <c r="V76" s="9"/>
+      <c r="W76" s="9"/>
+      <c r="X76" s="9"/>
+      <c r="Y76" s="9"/>
+      <c r="Z76" s="9"/>
     </row>
     <row r="77" spans="8:26" x14ac:dyDescent="0.25">
-      <c r="I77" s="14"/>
+      <c r="I77" s="5"/>
     </row>
     <row r="78" spans="8:26" x14ac:dyDescent="0.25">
-      <c r="I78" s="14"/>
-      <c r="K78" s="8">
+      <c r="I78" s="5"/>
+      <c r="K78" s="6">
         <v>2</v>
       </c>
-      <c r="L78" s="6" t="s">
+      <c r="L78" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="M78" s="6"/>
-      <c r="N78" s="6"/>
-      <c r="O78" s="6"/>
-      <c r="P78" s="6"/>
+      <c r="M78" s="8"/>
+      <c r="N78" s="8"/>
+      <c r="O78" s="8"/>
+      <c r="P78" s="8"/>
       <c r="Q78" s="1"/>
-      <c r="R78" s="6" t="s">
+      <c r="R78" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="S78" s="6"/>
-      <c r="T78" s="6"/>
+      <c r="S78" s="8"/>
+      <c r="T78" s="8"/>
       <c r="U78" s="1"/>
+      <c r="V78" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="W78" s="9"/>
+      <c r="X78" s="9"/>
+      <c r="Y78" s="9"/>
+      <c r="Z78" s="9"/>
     </row>
     <row r="79" spans="8:26" x14ac:dyDescent="0.25">
-      <c r="I79" s="14"/>
-      <c r="K79" s="8"/>
-      <c r="L79" s="6"/>
-      <c r="M79" s="6"/>
-      <c r="N79" s="6"/>
-      <c r="O79" s="6"/>
-      <c r="P79" s="6"/>
+      <c r="I79" s="5"/>
+      <c r="K79" s="6"/>
+      <c r="L79" s="8"/>
+      <c r="M79" s="8"/>
+      <c r="N79" s="8"/>
+      <c r="O79" s="8"/>
+      <c r="P79" s="8"/>
       <c r="Q79" s="1"/>
-      <c r="R79" s="6"/>
-      <c r="S79" s="6"/>
-      <c r="T79" s="6"/>
+      <c r="R79" s="8"/>
+      <c r="S79" s="8"/>
+      <c r="T79" s="8"/>
       <c r="U79" s="1"/>
+      <c r="V79" s="9"/>
+      <c r="W79" s="9"/>
+      <c r="X79" s="9"/>
+      <c r="Y79" s="9"/>
+      <c r="Z79" s="9"/>
     </row>
     <row r="80" spans="8:26" x14ac:dyDescent="0.25">
-      <c r="I80" s="14"/>
-    </row>
-    <row r="81" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="I81" s="14"/>
-      <c r="K81" s="8">
+      <c r="I80" s="5"/>
+    </row>
+    <row r="81" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="I81" s="5"/>
+      <c r="K81" s="6">
         <v>3</v>
       </c>
-      <c r="L81" s="6" t="s">
+      <c r="L81" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="M81" s="6"/>
-      <c r="N81" s="6"/>
-      <c r="O81" s="6"/>
-      <c r="P81" s="6"/>
+      <c r="M81" s="8"/>
+      <c r="N81" s="8"/>
+      <c r="O81" s="8"/>
+      <c r="P81" s="8"/>
       <c r="Q81" s="1"/>
-      <c r="R81" s="6" t="s">
+      <c r="R81" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="S81" s="6"/>
-      <c r="T81" s="6"/>
-    </row>
-    <row r="82" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="S81" s="8"/>
+      <c r="T81" s="8"/>
+      <c r="V81" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="W81" s="9"/>
+      <c r="X81" s="9"/>
+      <c r="Y81" s="9"/>
+      <c r="Z81" s="9"/>
+    </row>
+    <row r="82" spans="7:26" x14ac:dyDescent="0.25">
       <c r="G82" s="3"/>
-      <c r="I82" s="14"/>
-      <c r="K82" s="8"/>
-      <c r="L82" s="6"/>
-      <c r="M82" s="6"/>
-      <c r="N82" s="6"/>
-      <c r="O82" s="6"/>
-      <c r="P82" s="6"/>
+      <c r="I82" s="5"/>
+      <c r="K82" s="6"/>
+      <c r="L82" s="8"/>
+      <c r="M82" s="8"/>
+      <c r="N82" s="8"/>
+      <c r="O82" s="8"/>
+      <c r="P82" s="8"/>
       <c r="Q82" s="1"/>
-      <c r="R82" s="6"/>
-      <c r="S82" s="6"/>
-      <c r="T82" s="6"/>
-    </row>
-    <row r="83" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="R82" s="8"/>
+      <c r="S82" s="8"/>
+      <c r="T82" s="8"/>
+      <c r="V82" s="9"/>
+      <c r="W82" s="9"/>
+      <c r="X82" s="9"/>
+      <c r="Y82" s="9"/>
+      <c r="Z82" s="9"/>
+    </row>
+    <row r="83" spans="7:26" x14ac:dyDescent="0.25">
       <c r="G83" s="3"/>
-      <c r="I83" s="14"/>
-    </row>
-    <row r="84" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="I83" s="5"/>
+    </row>
+    <row r="84" spans="7:26" x14ac:dyDescent="0.25">
       <c r="G84" s="3"/>
-      <c r="I84" s="14"/>
-      <c r="K84" s="8">
+      <c r="I84" s="5"/>
+      <c r="K84" s="6">
         <v>4</v>
       </c>
-      <c r="L84" s="6" t="s">
+      <c r="L84" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="M84" s="6"/>
-      <c r="N84" s="6"/>
-      <c r="O84" s="6"/>
-      <c r="P84" s="6"/>
+      <c r="M84" s="8"/>
+      <c r="N84" s="8"/>
+      <c r="O84" s="8"/>
+      <c r="P84" s="8"/>
       <c r="Q84" s="1"/>
-      <c r="R84" s="6" t="s">
+      <c r="R84" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="S84" s="6"/>
-      <c r="T84" s="6"/>
-    </row>
-    <row r="85" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="S84" s="8"/>
+      <c r="T84" s="8"/>
+      <c r="V84" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="W84" s="9"/>
+      <c r="X84" s="9"/>
+      <c r="Y84" s="9"/>
+      <c r="Z84" s="9"/>
+    </row>
+    <row r="85" spans="7:26" x14ac:dyDescent="0.25">
       <c r="G85" s="3"/>
-      <c r="I85" s="14"/>
-      <c r="K85" s="8"/>
-      <c r="L85" s="6"/>
-      <c r="M85" s="6"/>
-      <c r="N85" s="6"/>
-      <c r="O85" s="6"/>
-      <c r="P85" s="6"/>
+      <c r="I85" s="5"/>
+      <c r="K85" s="6"/>
+      <c r="L85" s="8"/>
+      <c r="M85" s="8"/>
+      <c r="N85" s="8"/>
+      <c r="O85" s="8"/>
+      <c r="P85" s="8"/>
       <c r="Q85" s="1"/>
-      <c r="R85" s="6"/>
-      <c r="S85" s="6"/>
-      <c r="T85" s="6"/>
-    </row>
-    <row r="86" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="R85" s="8"/>
+      <c r="S85" s="8"/>
+      <c r="T85" s="8"/>
+      <c r="V85" s="9"/>
+      <c r="W85" s="9"/>
+      <c r="X85" s="9"/>
+      <c r="Y85" s="9"/>
+      <c r="Z85" s="9"/>
+    </row>
+    <row r="86" spans="7:26" x14ac:dyDescent="0.25">
       <c r="G86" s="3"/>
-      <c r="I86" s="14"/>
-    </row>
-    <row r="87" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="I86" s="5"/>
+    </row>
+    <row r="87" spans="7:26" x14ac:dyDescent="0.25">
       <c r="G87" s="3"/>
-      <c r="I87" s="14"/>
-      <c r="K87" s="8">
+      <c r="I87" s="5"/>
+      <c r="K87" s="6">
         <v>5</v>
       </c>
-      <c r="L87" s="6" t="s">
+      <c r="L87" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="M87" s="6"/>
-      <c r="N87" s="6"/>
-      <c r="O87" s="6"/>
-      <c r="P87" s="6"/>
+      <c r="M87" s="8"/>
+      <c r="N87" s="8"/>
+      <c r="O87" s="8"/>
+      <c r="P87" s="8"/>
       <c r="Q87" s="1"/>
-      <c r="R87" s="6" t="s">
+      <c r="R87" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="S87" s="6"/>
-      <c r="T87" s="6"/>
-    </row>
-    <row r="88" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="G88" s="15" t="s">
+      <c r="S87" s="8"/>
+      <c r="T87" s="8"/>
+      <c r="V87" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="W87" s="9"/>
+      <c r="X87" s="9"/>
+      <c r="Y87" s="9"/>
+      <c r="Z87" s="9"/>
+    </row>
+    <row r="88" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="G88" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="I88" s="14"/>
-      <c r="K88" s="8"/>
-      <c r="L88" s="6"/>
-      <c r="M88" s="6"/>
-      <c r="N88" s="6"/>
-      <c r="O88" s="6"/>
-      <c r="P88" s="6"/>
+      <c r="I88" s="5"/>
+      <c r="K88" s="6"/>
+      <c r="L88" s="8"/>
+      <c r="M88" s="8"/>
+      <c r="N88" s="8"/>
+      <c r="O88" s="8"/>
+      <c r="P88" s="8"/>
       <c r="Q88" s="1"/>
-      <c r="R88" s="6"/>
-      <c r="S88" s="6"/>
-      <c r="T88" s="6"/>
-    </row>
-    <row r="89" spans="7:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G89" s="15"/>
-    </row>
-    <row r="90" spans="7:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G90" s="15"/>
-    </row>
-    <row r="91" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="G91" s="15"/>
-      <c r="I91" s="14" t="s">
+      <c r="R88" s="8"/>
+      <c r="S88" s="8"/>
+      <c r="T88" s="8"/>
+      <c r="V88" s="9"/>
+      <c r="W88" s="9"/>
+      <c r="X88" s="9"/>
+      <c r="Y88" s="9"/>
+      <c r="Z88" s="9"/>
+    </row>
+    <row r="89" spans="7:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G89" s="22"/>
+    </row>
+    <row r="90" spans="7:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G90" s="22"/>
+    </row>
+    <row r="91" spans="7:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G91" s="22"/>
+      <c r="I91" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="K91" s="8">
+      <c r="K91" s="6">
         <v>1</v>
       </c>
-      <c r="L91" s="10" t="s">
+      <c r="L91" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="M91" s="10"/>
-      <c r="N91" s="10"/>
-      <c r="O91" s="10"/>
-      <c r="P91" s="10"/>
+      <c r="M91" s="7"/>
+      <c r="N91" s="7"/>
+      <c r="O91" s="7"/>
+      <c r="P91" s="7"/>
       <c r="Q91" s="1"/>
-      <c r="R91" s="6" t="s">
+      <c r="R91" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="S91" s="6"/>
-      <c r="T91" s="6"/>
-    </row>
-    <row r="92" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="S91" s="8"/>
+      <c r="T91" s="8"/>
+      <c r="V91" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="W91" s="13"/>
+      <c r="X91" s="13"/>
+      <c r="Y91" s="13"/>
+      <c r="Z91" s="13"/>
+    </row>
+    <row r="92" spans="7:26" x14ac:dyDescent="0.25">
       <c r="G92" s="3"/>
-      <c r="I92" s="14"/>
-      <c r="K92" s="8"/>
-      <c r="L92" s="10"/>
-      <c r="M92" s="10"/>
-      <c r="N92" s="10"/>
-      <c r="O92" s="10"/>
-      <c r="P92" s="10"/>
+      <c r="I92" s="5"/>
+      <c r="K92" s="6"/>
+      <c r="L92" s="7"/>
+      <c r="M92" s="7"/>
+      <c r="N92" s="7"/>
+      <c r="O92" s="7"/>
+      <c r="P92" s="7"/>
       <c r="Q92" s="1"/>
-      <c r="R92" s="6"/>
-      <c r="S92" s="6"/>
-      <c r="T92" s="6"/>
-    </row>
-    <row r="93" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="R92" s="8"/>
+      <c r="S92" s="8"/>
+      <c r="T92" s="8"/>
+      <c r="V92" s="13"/>
+      <c r="W92" s="13"/>
+      <c r="X92" s="13"/>
+      <c r="Y92" s="13"/>
+      <c r="Z92" s="13"/>
+    </row>
+    <row r="93" spans="7:26" x14ac:dyDescent="0.25">
       <c r="G93" s="3"/>
-      <c r="I93" s="14"/>
-    </row>
-    <row r="94" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="I93" s="5"/>
+    </row>
+    <row r="94" spans="7:26" x14ac:dyDescent="0.25">
       <c r="G94" s="3"/>
-      <c r="I94" s="14"/>
-      <c r="K94" s="8">
+      <c r="I94" s="5"/>
+      <c r="K94" s="6">
         <v>2</v>
       </c>
-      <c r="L94" s="10" t="s">
+      <c r="L94" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="M94" s="10"/>
-      <c r="N94" s="10"/>
-      <c r="O94" s="10"/>
-      <c r="P94" s="10"/>
+      <c r="M94" s="7"/>
+      <c r="N94" s="7"/>
+      <c r="O94" s="7"/>
+      <c r="P94" s="7"/>
       <c r="Q94" s="1"/>
-      <c r="R94" s="6" t="s">
+      <c r="R94" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="S94" s="6"/>
-      <c r="T94" s="6"/>
-    </row>
-    <row r="95" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="S94" s="8"/>
+      <c r="T94" s="8"/>
+      <c r="V94" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="W94" s="13"/>
+      <c r="X94" s="13"/>
+      <c r="Y94" s="13"/>
+      <c r="Z94" s="13"/>
+    </row>
+    <row r="95" spans="7:26" x14ac:dyDescent="0.25">
       <c r="G95" s="3"/>
-      <c r="I95" s="14"/>
-      <c r="K95" s="8"/>
-      <c r="L95" s="10"/>
-      <c r="M95" s="10"/>
-      <c r="N95" s="10"/>
-      <c r="O95" s="10"/>
-      <c r="P95" s="10"/>
+      <c r="I95" s="5"/>
+      <c r="K95" s="6"/>
+      <c r="L95" s="7"/>
+      <c r="M95" s="7"/>
+      <c r="N95" s="7"/>
+      <c r="O95" s="7"/>
+      <c r="P95" s="7"/>
       <c r="Q95" s="1"/>
-      <c r="R95" s="6"/>
-      <c r="S95" s="6"/>
-      <c r="T95" s="6"/>
-    </row>
-    <row r="96" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="R95" s="8"/>
+      <c r="S95" s="8"/>
+      <c r="T95" s="8"/>
+      <c r="V95" s="13"/>
+      <c r="W95" s="13"/>
+      <c r="X95" s="13"/>
+      <c r="Y95" s="13"/>
+      <c r="Z95" s="13"/>
+    </row>
+    <row r="96" spans="7:26" x14ac:dyDescent="0.25">
       <c r="G96" s="3"/>
-      <c r="I96" s="14"/>
-    </row>
-    <row r="97" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="7:26" x14ac:dyDescent="0.25">
       <c r="G97" s="3"/>
-      <c r="I97" s="14"/>
-    </row>
-    <row r="98" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="H97" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I97" s="10"/>
+      <c r="J97" s="10"/>
+      <c r="K97" s="10"/>
+      <c r="L97" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="M97" s="11"/>
+      <c r="N97" s="11"/>
+      <c r="O97" s="11"/>
+      <c r="P97" s="11"/>
+      <c r="Q97" s="1"/>
+      <c r="R97" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="S97" s="11"/>
+      <c r="T97" s="11"/>
+      <c r="U97" s="1"/>
+      <c r="V97" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="W97" s="11"/>
+      <c r="X97" s="11"/>
+      <c r="Y97" s="11"/>
+      <c r="Z97" s="11"/>
+    </row>
+    <row r="98" spans="7:26" x14ac:dyDescent="0.25">
       <c r="G98" s="3"/>
-      <c r="I98" s="14"/>
-    </row>
-    <row r="99" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="I99" s="14"/>
-    </row>
-    <row r="100" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="I100" s="14"/>
-    </row>
-    <row r="101" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="I101" s="14"/>
-    </row>
-    <row r="102" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="I102" s="14"/>
-    </row>
-    <row r="103" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="I103" s="14"/>
-    </row>
-    <row r="104" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="I104" s="14"/>
+      <c r="H98" s="10"/>
+      <c r="I98" s="10"/>
+      <c r="J98" s="10"/>
+      <c r="K98" s="10"/>
+      <c r="L98" s="11"/>
+      <c r="M98" s="11"/>
+      <c r="N98" s="11"/>
+      <c r="O98" s="11"/>
+      <c r="P98" s="11"/>
+      <c r="Q98" s="1"/>
+      <c r="R98" s="11"/>
+      <c r="S98" s="11"/>
+      <c r="T98" s="11"/>
+      <c r="U98" s="1"/>
+      <c r="V98" s="11"/>
+      <c r="W98" s="11"/>
+      <c r="X98" s="11"/>
+      <c r="Y98" s="11"/>
+      <c r="Z98" s="11"/>
+    </row>
+    <row r="101" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="I101" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K101" s="6">
+        <v>1</v>
+      </c>
+      <c r="L101" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M101" s="7"/>
+      <c r="N101" s="7"/>
+      <c r="O101" s="7"/>
+      <c r="P101" s="7"/>
+      <c r="Q101" s="1"/>
+      <c r="R101" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="S101" s="8"/>
+      <c r="T101" s="8"/>
+      <c r="U101" s="1"/>
+      <c r="V101" s="21"/>
+      <c r="W101" s="21"/>
+      <c r="X101" s="21"/>
+      <c r="Y101" s="21"/>
+      <c r="Z101" s="21"/>
+    </row>
+    <row r="102" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="I102" s="5"/>
+      <c r="K102" s="6"/>
+      <c r="L102" s="7"/>
+      <c r="M102" s="7"/>
+      <c r="N102" s="7"/>
+      <c r="O102" s="7"/>
+      <c r="P102" s="7"/>
+      <c r="Q102" s="1"/>
+      <c r="R102" s="8"/>
+      <c r="S102" s="8"/>
+      <c r="T102" s="8"/>
+      <c r="U102" s="1"/>
+      <c r="V102" s="21"/>
+      <c r="W102" s="21"/>
+      <c r="X102" s="21"/>
+      <c r="Y102" s="21"/>
+      <c r="Z102" s="21"/>
+    </row>
+    <row r="103" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="I103" s="5"/>
+    </row>
+    <row r="104" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="I104" s="5"/>
+      <c r="K104" s="6">
+        <v>2</v>
+      </c>
+      <c r="L104" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M104" s="8"/>
+      <c r="N104" s="8"/>
+      <c r="O104" s="8"/>
+      <c r="P104" s="8"/>
+      <c r="Q104" s="1"/>
+      <c r="R104" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="S104" s="8"/>
+      <c r="T104" s="8"/>
+      <c r="U104" s="1"/>
+      <c r="V104" s="21"/>
+      <c r="W104" s="21"/>
+      <c r="X104" s="21"/>
+      <c r="Y104" s="21"/>
+      <c r="Z104" s="21"/>
+    </row>
+    <row r="105" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="I105" s="5"/>
+      <c r="K105" s="6"/>
+      <c r="L105" s="8"/>
+      <c r="M105" s="8"/>
+      <c r="N105" s="8"/>
+      <c r="O105" s="8"/>
+      <c r="P105" s="8"/>
+      <c r="Q105" s="1"/>
+      <c r="R105" s="8"/>
+      <c r="S105" s="8"/>
+      <c r="T105" s="8"/>
+      <c r="U105" s="1"/>
+      <c r="V105" s="21"/>
+      <c r="W105" s="21"/>
+      <c r="X105" s="21"/>
+      <c r="Y105" s="21"/>
+      <c r="Z105" s="21"/>
+    </row>
+    <row r="106" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="I106" s="5"/>
+    </row>
+    <row r="107" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="I107" s="5"/>
+      <c r="K107" s="6">
+        <v>3</v>
+      </c>
+      <c r="L107" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="M107" s="8"/>
+      <c r="N107" s="8"/>
+      <c r="O107" s="8"/>
+      <c r="P107" s="8"/>
+      <c r="Q107" s="1"/>
+      <c r="R107" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="S107" s="8"/>
+      <c r="T107" s="8"/>
+      <c r="V107" s="21"/>
+      <c r="W107" s="21"/>
+      <c r="X107" s="21"/>
+      <c r="Y107" s="21"/>
+      <c r="Z107" s="21"/>
+    </row>
+    <row r="108" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="I108" s="5"/>
+      <c r="K108" s="6"/>
+      <c r="L108" s="8"/>
+      <c r="M108" s="8"/>
+      <c r="N108" s="8"/>
+      <c r="O108" s="8"/>
+      <c r="P108" s="8"/>
+      <c r="Q108" s="1"/>
+      <c r="R108" s="8"/>
+      <c r="S108" s="8"/>
+      <c r="T108" s="8"/>
+      <c r="V108" s="21"/>
+      <c r="W108" s="21"/>
+      <c r="X108" s="21"/>
+      <c r="Y108" s="21"/>
+      <c r="Z108" s="21"/>
+    </row>
+    <row r="109" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="I109" s="5"/>
+    </row>
+    <row r="110" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="I110" s="5"/>
+      <c r="K110" s="6">
+        <v>4</v>
+      </c>
+      <c r="L110" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M110" s="8"/>
+      <c r="N110" s="8"/>
+      <c r="O110" s="8"/>
+      <c r="P110" s="8"/>
+      <c r="Q110" s="1"/>
+      <c r="R110" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="S110" s="8"/>
+      <c r="T110" s="8"/>
+      <c r="V110" s="21"/>
+      <c r="W110" s="21"/>
+      <c r="X110" s="21"/>
+      <c r="Y110" s="21"/>
+      <c r="Z110" s="21"/>
+    </row>
+    <row r="111" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="I111" s="5"/>
+      <c r="K111" s="6"/>
+      <c r="L111" s="8"/>
+      <c r="M111" s="8"/>
+      <c r="N111" s="8"/>
+      <c r="O111" s="8"/>
+      <c r="P111" s="8"/>
+      <c r="Q111" s="1"/>
+      <c r="R111" s="8"/>
+      <c r="S111" s="8"/>
+      <c r="T111" s="8"/>
+      <c r="V111" s="21"/>
+      <c r="W111" s="21"/>
+      <c r="X111" s="21"/>
+      <c r="Y111" s="21"/>
+      <c r="Z111" s="21"/>
+    </row>
+    <row r="112" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="I112" s="5"/>
+    </row>
+    <row r="113" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="I113" s="5"/>
+      <c r="K113" s="6">
+        <v>5</v>
+      </c>
+      <c r="L113" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="M113" s="8"/>
+      <c r="N113" s="8"/>
+      <c r="O113" s="8"/>
+      <c r="P113" s="8"/>
+      <c r="Q113" s="1"/>
+      <c r="R113" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S113" s="8"/>
+      <c r="T113" s="8"/>
+      <c r="V113" s="21"/>
+      <c r="W113" s="21"/>
+      <c r="X113" s="21"/>
+      <c r="Y113" s="21"/>
+      <c r="Z113" s="21"/>
+    </row>
+    <row r="114" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="I114" s="5"/>
+      <c r="K114" s="6"/>
+      <c r="L114" s="8"/>
+      <c r="M114" s="8"/>
+      <c r="N114" s="8"/>
+      <c r="O114" s="8"/>
+      <c r="P114" s="8"/>
+      <c r="Q114" s="1"/>
+      <c r="R114" s="8"/>
+      <c r="S114" s="8"/>
+      <c r="T114" s="8"/>
+      <c r="V114" s="21"/>
+      <c r="W114" s="21"/>
+      <c r="X114" s="21"/>
+      <c r="Y114" s="21"/>
+      <c r="Z114" s="21"/>
+    </row>
+    <row r="115" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="G115" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="116" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="G116" s="4"/>
+    </row>
+    <row r="117" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="G117" s="4"/>
+      <c r="I117" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K117" s="6">
+        <v>1</v>
+      </c>
+      <c r="L117" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M117" s="7"/>
+      <c r="N117" s="7"/>
+      <c r="O117" s="7"/>
+      <c r="P117" s="7"/>
+      <c r="Q117" s="1"/>
+      <c r="R117" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S117" s="8"/>
+      <c r="T117" s="8"/>
+      <c r="V117" s="21"/>
+      <c r="W117" s="21"/>
+      <c r="X117" s="21"/>
+      <c r="Y117" s="21"/>
+      <c r="Z117" s="21"/>
+    </row>
+    <row r="118" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="G118" s="4"/>
+      <c r="I118" s="5"/>
+      <c r="K118" s="6"/>
+      <c r="L118" s="7"/>
+      <c r="M118" s="7"/>
+      <c r="N118" s="7"/>
+      <c r="O118" s="7"/>
+      <c r="P118" s="7"/>
+      <c r="Q118" s="1"/>
+      <c r="R118" s="8"/>
+      <c r="S118" s="8"/>
+      <c r="T118" s="8"/>
+      <c r="V118" s="21"/>
+      <c r="W118" s="21"/>
+      <c r="X118" s="21"/>
+      <c r="Y118" s="21"/>
+      <c r="Z118" s="21"/>
+    </row>
+    <row r="119" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="I119" s="5"/>
+    </row>
+    <row r="120" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="I120" s="5"/>
+      <c r="K120" s="6">
+        <v>2</v>
+      </c>
+      <c r="L120" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M120" s="7"/>
+      <c r="N120" s="7"/>
+      <c r="O120" s="7"/>
+      <c r="P120" s="7"/>
+      <c r="Q120" s="1"/>
+      <c r="R120" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S120" s="8"/>
+      <c r="T120" s="8"/>
+      <c r="V120" s="21"/>
+      <c r="W120" s="21"/>
+      <c r="X120" s="21"/>
+      <c r="Y120" s="21"/>
+      <c r="Z120" s="21"/>
+    </row>
+    <row r="121" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="I121" s="5"/>
+      <c r="K121" s="6"/>
+      <c r="L121" s="7"/>
+      <c r="M121" s="7"/>
+      <c r="N121" s="7"/>
+      <c r="O121" s="7"/>
+      <c r="P121" s="7"/>
+      <c r="Q121" s="1"/>
+      <c r="R121" s="8"/>
+      <c r="S121" s="8"/>
+      <c r="T121" s="8"/>
+      <c r="V121" s="21"/>
+      <c r="W121" s="21"/>
+      <c r="X121" s="21"/>
+      <c r="Y121" s="21"/>
+      <c r="Z121" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="108">
-    <mergeCell ref="G88:G91"/>
-    <mergeCell ref="I91:I104"/>
-    <mergeCell ref="K91:K92"/>
-    <mergeCell ref="L91:P92"/>
-    <mergeCell ref="R91:T92"/>
-    <mergeCell ref="L81:P82"/>
-    <mergeCell ref="R81:T82"/>
-    <mergeCell ref="K84:K85"/>
-    <mergeCell ref="L84:P85"/>
-    <mergeCell ref="R84:T85"/>
-    <mergeCell ref="K94:K95"/>
-    <mergeCell ref="L94:P95"/>
-    <mergeCell ref="R94:T95"/>
-    <mergeCell ref="L78:P79"/>
-    <mergeCell ref="R78:T79"/>
-    <mergeCell ref="K87:K88"/>
-    <mergeCell ref="L87:P88"/>
-    <mergeCell ref="R87:T88"/>
-    <mergeCell ref="I75:I88"/>
-    <mergeCell ref="K78:K79"/>
-    <mergeCell ref="K81:K82"/>
-    <mergeCell ref="K75:K76"/>
-    <mergeCell ref="L75:P76"/>
-    <mergeCell ref="R75:T76"/>
-    <mergeCell ref="H68:Z69"/>
-    <mergeCell ref="H71:K72"/>
-    <mergeCell ref="L71:P72"/>
-    <mergeCell ref="R71:T72"/>
-    <mergeCell ref="V71:Z72"/>
-    <mergeCell ref="L65:P66"/>
-    <mergeCell ref="R65:T66"/>
-    <mergeCell ref="V65:Z66"/>
-    <mergeCell ref="H56:Z57"/>
-    <mergeCell ref="H59:K60"/>
-    <mergeCell ref="H62:Z63"/>
-    <mergeCell ref="H65:K66"/>
-    <mergeCell ref="L59:P60"/>
-    <mergeCell ref="R59:T60"/>
-    <mergeCell ref="V59:Z60"/>
-    <mergeCell ref="H53:K54"/>
-    <mergeCell ref="L53:P54"/>
-    <mergeCell ref="R53:T54"/>
-    <mergeCell ref="V53:Z54"/>
-    <mergeCell ref="V35:Z36"/>
-    <mergeCell ref="L38:P39"/>
-    <mergeCell ref="R38:T39"/>
-    <mergeCell ref="V38:Z39"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="L41:P42"/>
-    <mergeCell ref="R41:T42"/>
-    <mergeCell ref="V41:Z42"/>
-    <mergeCell ref="H38:K39"/>
-    <mergeCell ref="V50:Z51"/>
-    <mergeCell ref="V44:Z45"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="V29:Z30"/>
-    <mergeCell ref="V32:Z33"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="L35:P36"/>
-    <mergeCell ref="R35:T36"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="L29:P30"/>
-    <mergeCell ref="R29:T30"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="L32:P33"/>
-    <mergeCell ref="R32:T33"/>
-    <mergeCell ref="V26:Z27"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="L17:P18"/>
-    <mergeCell ref="R17:T18"/>
-    <mergeCell ref="V17:Z18"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:P21"/>
-    <mergeCell ref="R20:T21"/>
-    <mergeCell ref="V20:Z21"/>
+  <mergeCells count="143">
+    <mergeCell ref="G115:G118"/>
+    <mergeCell ref="K113:K114"/>
+    <mergeCell ref="L113:P114"/>
+    <mergeCell ref="R113:T114"/>
+    <mergeCell ref="I117:I121"/>
+    <mergeCell ref="K117:K118"/>
+    <mergeCell ref="L117:P118"/>
+    <mergeCell ref="R117:T118"/>
+    <mergeCell ref="K120:K121"/>
+    <mergeCell ref="L120:P121"/>
+    <mergeCell ref="R120:T121"/>
+    <mergeCell ref="K104:K105"/>
+    <mergeCell ref="L104:P105"/>
+    <mergeCell ref="R104:T105"/>
+    <mergeCell ref="K107:K108"/>
+    <mergeCell ref="L107:P108"/>
+    <mergeCell ref="R107:T108"/>
+    <mergeCell ref="V75:Z76"/>
+    <mergeCell ref="V78:Z79"/>
+    <mergeCell ref="V81:Z82"/>
+    <mergeCell ref="V84:Z85"/>
+    <mergeCell ref="V87:Z88"/>
+    <mergeCell ref="V91:Z92"/>
+    <mergeCell ref="V94:Z95"/>
+    <mergeCell ref="I91:I95"/>
+    <mergeCell ref="H97:K98"/>
+    <mergeCell ref="L97:P98"/>
+    <mergeCell ref="R97:T98"/>
+    <mergeCell ref="V97:Z98"/>
+    <mergeCell ref="H2:Z3"/>
+    <mergeCell ref="R5:T6"/>
+    <mergeCell ref="V5:Z6"/>
+    <mergeCell ref="R8:T9"/>
+    <mergeCell ref="V8:Z9"/>
+    <mergeCell ref="L5:P6"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:P9"/>
+    <mergeCell ref="H5:K6"/>
     <mergeCell ref="V11:Z12"/>
     <mergeCell ref="L14:P15"/>
     <mergeCell ref="R14:T15"/>
@@ -3121,15 +3675,87 @@
     <mergeCell ref="K26:K27"/>
     <mergeCell ref="L26:P27"/>
     <mergeCell ref="R26:T27"/>
-    <mergeCell ref="H2:Z3"/>
-    <mergeCell ref="R5:T6"/>
-    <mergeCell ref="V5:Z6"/>
-    <mergeCell ref="R8:T9"/>
-    <mergeCell ref="V8:Z9"/>
-    <mergeCell ref="L5:P6"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:P9"/>
-    <mergeCell ref="H5:K6"/>
+    <mergeCell ref="V26:Z27"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:P18"/>
+    <mergeCell ref="R17:T18"/>
+    <mergeCell ref="V17:Z18"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:P21"/>
+    <mergeCell ref="R20:T21"/>
+    <mergeCell ref="V20:Z21"/>
+    <mergeCell ref="V29:Z30"/>
+    <mergeCell ref="V32:Z33"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="L35:P36"/>
+    <mergeCell ref="R35:T36"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="L29:P30"/>
+    <mergeCell ref="R29:T30"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="L32:P33"/>
+    <mergeCell ref="R32:T33"/>
+    <mergeCell ref="H53:K54"/>
+    <mergeCell ref="L53:P54"/>
+    <mergeCell ref="R53:T54"/>
+    <mergeCell ref="V53:Z54"/>
+    <mergeCell ref="V35:Z36"/>
+    <mergeCell ref="L38:P39"/>
+    <mergeCell ref="R38:T39"/>
+    <mergeCell ref="V38:Z39"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="L41:P42"/>
+    <mergeCell ref="R41:T42"/>
+    <mergeCell ref="V41:Z42"/>
+    <mergeCell ref="H38:K39"/>
+    <mergeCell ref="V50:Z51"/>
+    <mergeCell ref="V44:Z45"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="H68:Z69"/>
+    <mergeCell ref="H71:K72"/>
+    <mergeCell ref="L71:P72"/>
+    <mergeCell ref="R71:T72"/>
+    <mergeCell ref="V71:Z72"/>
+    <mergeCell ref="L65:P66"/>
+    <mergeCell ref="R65:T66"/>
+    <mergeCell ref="V65:Z66"/>
+    <mergeCell ref="H56:Z57"/>
+    <mergeCell ref="H59:K60"/>
+    <mergeCell ref="H62:Z63"/>
+    <mergeCell ref="H65:K66"/>
+    <mergeCell ref="L59:P60"/>
+    <mergeCell ref="R59:T60"/>
+    <mergeCell ref="V59:Z60"/>
+    <mergeCell ref="L78:P79"/>
+    <mergeCell ref="R78:T79"/>
+    <mergeCell ref="K87:K88"/>
+    <mergeCell ref="L87:P88"/>
+    <mergeCell ref="R87:T88"/>
+    <mergeCell ref="I75:I88"/>
+    <mergeCell ref="K78:K79"/>
+    <mergeCell ref="K81:K82"/>
+    <mergeCell ref="K75:K76"/>
+    <mergeCell ref="L75:P76"/>
+    <mergeCell ref="R75:T76"/>
+    <mergeCell ref="G88:G91"/>
+    <mergeCell ref="K91:K92"/>
+    <mergeCell ref="L91:P92"/>
+    <mergeCell ref="R91:T92"/>
+    <mergeCell ref="L81:P82"/>
+    <mergeCell ref="R81:T82"/>
+    <mergeCell ref="K84:K85"/>
+    <mergeCell ref="L84:P85"/>
+    <mergeCell ref="R84:T85"/>
+    <mergeCell ref="K94:K95"/>
+    <mergeCell ref="L94:P95"/>
+    <mergeCell ref="R94:T95"/>
+    <mergeCell ref="I101:I114"/>
+    <mergeCell ref="K101:K102"/>
+    <mergeCell ref="L101:P102"/>
+    <mergeCell ref="R101:T102"/>
+    <mergeCell ref="K110:K111"/>
+    <mergeCell ref="L110:P111"/>
+    <mergeCell ref="R110:T111"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3137,180 +3763,270 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C6280AF-F913-4213-90F7-5D60D9FFA09E}">
-  <dimension ref="F2:Y15"/>
+  <dimension ref="F2:Y24"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+    <sheetView topLeftCell="C5" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="6:25" x14ac:dyDescent="0.25">
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="R2" s="16" t="s">
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="R2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="16"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
     </row>
     <row r="3" spans="6:25" x14ac:dyDescent="0.25">
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="16"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="17"/>
     </row>
     <row r="5" spans="6:25" x14ac:dyDescent="0.25">
-      <c r="F5" s="17">
+      <c r="F5" s="16">
         <v>1</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
     </row>
     <row r="6" spans="6:25" x14ac:dyDescent="0.25">
-      <c r="F6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
+      <c r="F6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
     </row>
     <row r="8" spans="6:25" x14ac:dyDescent="0.25">
-      <c r="F8" s="17">
+      <c r="F8" s="16">
         <v>2</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="H8" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
     </row>
     <row r="9" spans="6:25" x14ac:dyDescent="0.25">
-      <c r="F9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
+      <c r="F9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
     </row>
     <row r="11" spans="6:25" x14ac:dyDescent="0.25">
-      <c r="F11" s="17">
+      <c r="F11" s="16">
         <v>3</v>
       </c>
-      <c r="H11" s="17" t="s">
+      <c r="H11" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
     </row>
     <row r="12" spans="6:25" x14ac:dyDescent="0.25">
-      <c r="F12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
+      <c r="F12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
     </row>
     <row r="14" spans="6:25" x14ac:dyDescent="0.25">
-      <c r="F14" s="17">
+      <c r="F14" s="16">
         <v>4</v>
       </c>
-      <c r="H14" s="17" t="s">
+      <c r="H14" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
     </row>
     <row r="15" spans="6:25" x14ac:dyDescent="0.25">
-      <c r="F15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
+      <c r="F15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+    </row>
+    <row r="17" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F17" s="16">
+        <v>5</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+    </row>
+    <row r="18" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+    </row>
+    <row r="20" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F20" s="16">
+        <v>6</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+    </row>
+    <row r="21" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+    </row>
+    <row r="23" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F23" s="16">
+        <v>7</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+    </row>
+    <row r="24" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="16">
+    <mergeCell ref="H17:P18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="H20:P21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="H23:P24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="R2:Y3"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="H5:P6"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="H8:P9"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="H14:P15"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="H11:P12"/>
     <mergeCell ref="H2:P3"/>
-    <mergeCell ref="R2:Y3"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="H5:P6"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="H8:P9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3318,19 +4034,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37E2DAFF-6BFF-4CB8-B294-DE59EA805260}">
-  <dimension ref="C2:P12"/>
+  <dimension ref="C2:Y32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="6.5703125" customWidth="1"/>
-    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="6" max="6" width="140.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:25" x14ac:dyDescent="0.25">
       <c r="J2" s="18" t="s">
         <v>12</v>
       </c>
@@ -3341,7 +4057,7 @@
       <c r="O2" s="18"/>
       <c r="P2" s="18"/>
     </row>
-    <row r="3" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:25" x14ac:dyDescent="0.25">
       <c r="J3" s="18"/>
       <c r="K3" s="18"/>
       <c r="L3" s="18"/>
@@ -3350,11 +4066,11 @@
       <c r="O3" s="18"/>
       <c r="P3" s="18"/>
     </row>
-    <row r="5" spans="3:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="24" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="19"/>
@@ -3367,10 +4083,13 @@
       <c r="N5" s="19"/>
       <c r="O5" s="19"/>
       <c r="P5" s="19"/>
-    </row>
-    <row r="6" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="Y5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C6" s="20"/>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G6" s="19"/>
@@ -3384,43 +4103,210 @@
       <c r="O6" s="19"/>
       <c r="P6" s="19"/>
     </row>
-    <row r="7" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C7" s="20"/>
-      <c r="F7" t="s">
+      <c r="F7" s="23" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C8" s="20"/>
-      <c r="F8" t="s">
+      <c r="F8" s="23" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="Y8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C9" s="20"/>
-      <c r="F9" t="s">
+      <c r="F9" s="23" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="10" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="Y9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C10" s="20"/>
-      <c r="F10" t="s">
+      <c r="F10" s="23" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="11" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="Y10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C11" s="20"/>
-    </row>
-    <row r="12" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="F11" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C12" s="20"/>
+      <c r="F12" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="F13" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="F14" s="23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="F15" s="23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="F16" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F18" s="23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F19" s="23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F20" s="23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C21" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C22" s="25"/>
+      <c r="F22" s="23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C23" s="25"/>
+      <c r="F23" s="23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C24" s="25"/>
+      <c r="F24" s="23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C25" s="25"/>
+      <c r="F25" s="23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C26" s="25"/>
+      <c r="F26" s="23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C27" s="25"/>
+      <c r="F27" s="23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C28" s="25"/>
+      <c r="F28" s="23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C29" s="25"/>
+      <c r="F29" s="23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F30" s="23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F31" s="23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F32" s="23" t="s">
+        <v>84</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="J2:P3"/>
     <mergeCell ref="F5:P5"/>
     <mergeCell ref="F6:P6"/>
     <mergeCell ref="C5:C12"/>
+    <mergeCell ref="C21:C29"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F12" r:id="rId1" xr:uid="{E23F91D7-380A-41FA-914B-75FF21136A2E}"/>
+    <hyperlink ref="F13" r:id="rId2" xr:uid="{2502F509-2EB7-47C6-BCA8-5E928E685CCA}"/>
+    <hyperlink ref="F11" r:id="rId3" xr:uid="{914337B3-8527-40C4-9D1A-654D0088AA49}"/>
+    <hyperlink ref="F14" r:id="rId4" xr:uid="{66D26F8E-6379-4D84-BCE0-CB3236D0AE9E}"/>
+    <hyperlink ref="F15" r:id="rId5" location="c479777348393037671" xr:uid="{8BED87CA-96D8-4C7C-99F5-17D523CB3BBE}"/>
+    <hyperlink ref="F16" r:id="rId6" location="c6866907815013414999" xr:uid="{D5E35544-69BA-409A-BA0E-D89082E10F94}"/>
+    <hyperlink ref="F18" r:id="rId7" xr:uid="{71393549-DC66-4137-BB6E-B8A2729D54AC}"/>
+    <hyperlink ref="F17" r:id="rId8" location="c1669641211051154630" xr:uid="{942529FB-E1D4-455F-84C3-F5FACFDA0C9B}"/>
+    <hyperlink ref="F19" r:id="rId9" location="comment-form" xr:uid="{58BCF9DA-C812-4DC2-BF3C-25F00D17AF0C}"/>
+    <hyperlink ref="F20" r:id="rId10" location="comment-form" xr:uid="{272102C0-96A7-4657-98B5-02512D697641}"/>
+    <hyperlink ref="F21" r:id="rId11" location="comment-form" xr:uid="{AF2B597A-B843-44F4-BF40-9612479257B4}"/>
+    <hyperlink ref="F22" r:id="rId12" location="comment-form" xr:uid="{8CA94E28-E767-4748-86C1-D1B97865AA0F}"/>
+    <hyperlink ref="F23" r:id="rId13" xr:uid="{C39844A0-7593-406A-A270-FA5ED58E95E1}"/>
+    <hyperlink ref="F24" r:id="rId14" xr:uid="{F3AA199C-AEAA-4626-B274-08593DB8FD3A}"/>
+    <hyperlink ref="F25" r:id="rId15" location="comment-480568" xr:uid="{D79B8A47-7803-40A0-91AA-B9A28940F1B3}"/>
+    <hyperlink ref="F26" r:id="rId16" location="comment-form" xr:uid="{66048CA4-E050-4982-B178-EFF1FB3C38EF}"/>
+    <hyperlink ref="F27" r:id="rId17" xr:uid="{26BC4163-2A15-439D-842F-CDD3A92D2686}"/>
+    <hyperlink ref="F28" r:id="rId18" location="comment-4" xr:uid="{B31A608B-C6C4-49C0-8735-EBA5AAC21328}"/>
+    <hyperlink ref="F29" r:id="rId19" location="comment-298495" xr:uid="{3F571AB6-8B00-4C71-B4F9-83ABC323EC25}"/>
+    <hyperlink ref="F30" r:id="rId20" xr:uid="{57D79F77-3A8F-4601-99C5-0B4AC45572F9}"/>
+    <hyperlink ref="F31" r:id="rId21" xr:uid="{7651E741-AA9B-4B1D-AC3C-4D017C2CF0AC}"/>
+    <hyperlink ref="F32" r:id="rId22" location="comment-119387" xr:uid="{4B1368D9-58F9-4F23-847C-38A7CD030D75}"/>
+    <hyperlink ref="C21" r:id="rId23" display="www.bloggingtriggers.com" xr:uid="{BB121363-7A72-4884-92FA-78713535F522}"/>
+    <hyperlink ref="F10" r:id="rId24" xr:uid="{5BB72149-38E9-4D89-AC22-787AD855114E}"/>
+    <hyperlink ref="F9" r:id="rId25" xr:uid="{D1103AAE-A542-4618-9363-A1971EC80845}"/>
+    <hyperlink ref="F8" r:id="rId26" location="comment-69235" xr:uid="{E497C631-C5A2-4A8E-9E63-3523AC5AAC83}"/>
+    <hyperlink ref="F7" r:id="rId27" xr:uid="{668C6F21-0680-4DA4-846C-204187A8132D}"/>
+    <hyperlink ref="F6" r:id="rId28" location="comment-236383" xr:uid="{29DD075A-AFD1-418D-B819-55BB130C9772}"/>
+    <hyperlink ref="F5" r:id="rId29" xr:uid="{40D28288-9891-4FA1-8CE5-E04F4BA47820}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Documents/Targets&Planning.xlsx
+++ b/Documents/Targets&Planning.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Blogging Website\blogPosts\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BloggingRepositories\blogPosts\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C02447A-B7F4-4DD7-BBC5-217AB01F58F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F3B47E-04AF-4FC7-951B-728E5E4AAF41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1050" yWindow="1140" windowWidth="26100" windowHeight="14610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="15196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="99">
   <si>
     <t>November</t>
   </si>
@@ -285,6 +285,45 @@
   </si>
   <si>
     <t>bloggingtriggers.com</t>
+  </si>
+  <si>
+    <t>Add Inbound &amp; External Links in both the website blogs</t>
+  </si>
+  <si>
+    <t>Try out the Bing Ads Revenue feature</t>
+  </si>
+  <si>
+    <t>Add Typscript to VehicleMasti Blog</t>
+  </si>
+  <si>
+    <t>10 Minutes</t>
+  </si>
+  <si>
+    <t>50% Done</t>
+  </si>
+  <si>
+    <t>https://manage.wix.com/dashboard/8a7a7f7e-4526-4b8e-a904-0ecd54d4073e</t>
+  </si>
+  <si>
+    <t>WIX</t>
+  </si>
+  <si>
+    <t>https://in.pinterest.com/karunakar_patel_designs/karunakarpatel/</t>
+  </si>
+  <si>
+    <t>Pinterest</t>
+  </si>
+  <si>
+    <t>Feature is completed but implementation is pending</t>
+  </si>
+  <si>
+    <t>29,November,2023, Wednesday</t>
+  </si>
+  <si>
+    <t>Add Reading Progress Bar for Both Websites</t>
+  </si>
+  <si>
+    <t>Make custom 404 Page</t>
   </si>
 </sst>
 </file>
@@ -442,12 +481,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -475,15 +515,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -492,11 +531,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -507,35 +553,41 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -543,24 +595,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="7" fillId="15" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Accent5" xfId="3" builtinId="45"/>
+  <cellStyles count="5">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Good" xfId="2" builtinId="26"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
-    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -839,15 +892,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB121"/>
+  <dimension ref="A1:AB165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D97" zoomScale="93" workbookViewId="0">
-      <selection activeCell="N127" sqref="N127"/>
+    <sheetView tabSelected="1" topLeftCell="F143" zoomScale="93" workbookViewId="0">
+      <selection activeCell="U150" sqref="U150"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="6" max="6" width="9.06640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -877,7 +933,7 @@
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -885,31 +941,31 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="15"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17"/>
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -917,29 +973,29 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="15"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="17"/>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -969,7 +1025,7 @@
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -977,37 +1033,37 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="11" t="s">
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
       <c r="Q5" s="1"/>
-      <c r="R5" s="11" t="s">
+      <c r="R5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
       <c r="U5" s="1"/>
-      <c r="V5" s="11" t="s">
+      <c r="V5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="11"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="15"/>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1015,29 +1071,29 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
       <c r="Q6" s="1"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
       <c r="U6" s="1"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="15"/>
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1067,7 +1123,7 @@
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1078,34 +1134,34 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="6">
+      <c r="K8" s="9">
         <v>1</v>
       </c>
-      <c r="L8" s="8" t="s">
+      <c r="L8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
       <c r="Q8" s="1"/>
-      <c r="R8" s="8" t="s">
+      <c r="R8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
       <c r="U8" s="1"/>
-      <c r="V8" s="13" t="s">
+      <c r="V8" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="W8" s="13"/>
-      <c r="X8" s="13"/>
-      <c r="Y8" s="13"/>
-      <c r="Z8" s="13"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14"/>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1116,26 +1172,26 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
       <c r="Q9" s="1"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
       <c r="U9" s="1"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="13"/>
-      <c r="X9" s="13"/>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="13"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="14"/>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
     </row>
-    <row r="10" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1165,7 +1221,7 @@
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1176,34 +1232,34 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="6">
+      <c r="K11" s="9">
         <v>2</v>
       </c>
-      <c r="L11" s="8" t="s">
+      <c r="L11" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
       <c r="Q11" s="1"/>
-      <c r="R11" s="8" t="s">
+      <c r="R11" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
       <c r="U11" s="1"/>
-      <c r="V11" s="13" t="s">
+      <c r="V11" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="W11" s="13"/>
-      <c r="X11" s="13"/>
-      <c r="Y11" s="13"/>
-      <c r="Z11" s="13"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="14"/>
+      <c r="Z11" s="14"/>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1214,26 +1270,26 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
       <c r="Q12" s="1"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
       <c r="U12" s="1"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
-      <c r="X12" s="13"/>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="13"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="14"/>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1263,7 +1319,7 @@
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1271,37 +1327,37 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="10" t="s">
+      <c r="H14" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="11" t="s">
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
       <c r="Q14" s="1"/>
-      <c r="R14" s="11" t="s">
+      <c r="R14" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
       <c r="U14" s="1"/>
-      <c r="V14" s="11" t="s">
+      <c r="V14" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="W14" s="11"/>
-      <c r="X14" s="11"/>
-      <c r="Y14" s="11"/>
-      <c r="Z14" s="11"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="15"/>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1309,29 +1365,29 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
       <c r="Q15" s="1"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
       <c r="U15" s="1"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
-      <c r="X15" s="11"/>
-      <c r="Y15" s="11"/>
-      <c r="Z15" s="11"/>
+      <c r="V15" s="15"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="15"/>
+      <c r="Y15" s="15"/>
+      <c r="Z15" s="15"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1361,7 +1417,7 @@
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1372,34 +1428,34 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="6">
+      <c r="K17" s="9">
         <v>1</v>
       </c>
-      <c r="L17" s="8" t="s">
+      <c r="L17" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
       <c r="Q17" s="1"/>
-      <c r="R17" s="8" t="s">
+      <c r="R17" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
       <c r="U17" s="1"/>
-      <c r="V17" s="13" t="s">
+      <c r="V17" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="W17" s="13"/>
-      <c r="X17" s="13"/>
-      <c r="Y17" s="13"/>
-      <c r="Z17" s="13"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="14"/>
+      <c r="Y17" s="14"/>
+      <c r="Z17" s="14"/>
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1410,26 +1466,26 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
       <c r="Q18" s="1"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
       <c r="U18" s="1"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="13"/>
-      <c r="X18" s="13"/>
-      <c r="Y18" s="13"/>
-      <c r="Z18" s="13"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="14"/>
+      <c r="Y18" s="14"/>
+      <c r="Z18" s="14"/>
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1459,7 +1515,7 @@
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1470,34 +1526,34 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="6">
+      <c r="K20" s="9">
         <v>2</v>
       </c>
-      <c r="L20" s="8" t="s">
+      <c r="L20" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
       <c r="Q20" s="1"/>
-      <c r="R20" s="8" t="s">
+      <c r="R20" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="S20" s="8"/>
-      <c r="T20" s="8"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
       <c r="U20" s="1"/>
-      <c r="V20" s="13" t="s">
+      <c r="V20" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="W20" s="13"/>
-      <c r="X20" s="13"/>
-      <c r="Y20" s="13"/>
-      <c r="Z20" s="13"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="14"/>
+      <c r="Y20" s="14"/>
+      <c r="Z20" s="14"/>
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1508,26 +1564,26 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
       <c r="Q21" s="1"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
       <c r="U21" s="1"/>
-      <c r="V21" s="13"/>
-      <c r="W21" s="13"/>
-      <c r="X21" s="13"/>
-      <c r="Y21" s="13"/>
-      <c r="Z21" s="13"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="14"/>
+      <c r="X21" s="14"/>
+      <c r="Y21" s="14"/>
+      <c r="Z21" s="14"/>
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1557,7 +1613,7 @@
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1568,34 +1624,34 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
-      <c r="K23" s="6">
+      <c r="K23" s="9">
         <v>3</v>
       </c>
-      <c r="L23" s="8" t="s">
+      <c r="L23" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
       <c r="Q23" s="1"/>
-      <c r="R23" s="8" t="s">
+      <c r="R23" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
       <c r="U23" s="1"/>
-      <c r="V23" s="14" t="s">
+      <c r="V23" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="W23" s="14"/>
-      <c r="X23" s="14"/>
-      <c r="Y23" s="14"/>
-      <c r="Z23" s="14"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="8"/>
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1606,26 +1662,26 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
       <c r="Q24" s="1"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
       <c r="U24" s="1"/>
-      <c r="V24" s="14"/>
-      <c r="W24" s="14"/>
-      <c r="X24" s="14"/>
-      <c r="Y24" s="14"/>
-      <c r="Z24" s="14"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="8"/>
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1655,7 +1711,7 @@
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
     </row>
-    <row r="26" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1666,34 +1722,34 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="6">
+      <c r="K26" s="9">
         <v>4</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="L26" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
       <c r="Q26" s="1"/>
-      <c r="R26" s="8" t="s">
+      <c r="R26" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="S26" s="8"/>
-      <c r="T26" s="8"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
       <c r="U26" s="1"/>
-      <c r="V26" s="14" t="s">
+      <c r="V26" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="W26" s="14"/>
-      <c r="X26" s="14"/>
-      <c r="Y26" s="14"/>
-      <c r="Z26" s="14"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="8"/>
+      <c r="Z26" s="8"/>
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1704,26 +1760,26 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
       <c r="Q27" s="1"/>
-      <c r="R27" s="8"/>
-      <c r="S27" s="8"/>
-      <c r="T27" s="8"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
       <c r="U27" s="1"/>
-      <c r="V27" s="14"/>
-      <c r="W27" s="14"/>
-      <c r="X27" s="14"/>
-      <c r="Y27" s="14"/>
-      <c r="Z27" s="14"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="8"/>
+      <c r="Y27" s="8"/>
+      <c r="Z27" s="8"/>
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1753,7 +1809,7 @@
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1764,34 +1820,34 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
-      <c r="K29" s="6">
+      <c r="K29" s="9">
         <v>5</v>
       </c>
-      <c r="L29" s="7" t="s">
+      <c r="L29" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="7"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
       <c r="Q29" s="1"/>
-      <c r="R29" s="8" t="s">
+      <c r="R29" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="S29" s="8"/>
-      <c r="T29" s="8"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="11"/>
       <c r="U29" s="1"/>
-      <c r="V29" s="14" t="s">
+      <c r="V29" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="W29" s="14"/>
-      <c r="X29" s="14"/>
-      <c r="Y29" s="14"/>
-      <c r="Z29" s="14"/>
+      <c r="W29" s="8"/>
+      <c r="X29" s="8"/>
+      <c r="Y29" s="8"/>
+      <c r="Z29" s="8"/>
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1802,26 +1858,26 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="7"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
       <c r="Q30" s="1"/>
-      <c r="R30" s="8"/>
-      <c r="S30" s="8"/>
-      <c r="T30" s="8"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="11"/>
       <c r="U30" s="1"/>
-      <c r="V30" s="14"/>
-      <c r="W30" s="14"/>
-      <c r="X30" s="14"/>
-      <c r="Y30" s="14"/>
-      <c r="Z30" s="14"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8"/>
+      <c r="X30" s="8"/>
+      <c r="Y30" s="8"/>
+      <c r="Z30" s="8"/>
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1851,7 +1907,7 @@
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
     </row>
-    <row r="32" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1862,34 +1918,34 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
-      <c r="K32" s="6">
+      <c r="K32" s="9">
         <v>6</v>
       </c>
-      <c r="L32" s="7" t="s">
+      <c r="L32" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="7"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
       <c r="Q32" s="1"/>
-      <c r="R32" s="8" t="s">
+      <c r="R32" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="S32" s="8"/>
-      <c r="T32" s="8"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="11"/>
       <c r="U32" s="1"/>
-      <c r="V32" s="13" t="s">
+      <c r="V32" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="W32" s="13"/>
-      <c r="X32" s="13"/>
-      <c r="Y32" s="13"/>
-      <c r="Z32" s="13"/>
+      <c r="W32" s="14"/>
+      <c r="X32" s="14"/>
+      <c r="Y32" s="14"/>
+      <c r="Z32" s="14"/>
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1900,26 +1956,26 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="7"/>
-      <c r="P33" s="7"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
       <c r="Q33" s="1"/>
-      <c r="R33" s="8"/>
-      <c r="S33" s="8"/>
-      <c r="T33" s="8"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="11"/>
       <c r="U33" s="1"/>
-      <c r="V33" s="13"/>
-      <c r="W33" s="13"/>
-      <c r="X33" s="13"/>
-      <c r="Y33" s="13"/>
-      <c r="Z33" s="13"/>
+      <c r="V33" s="14"/>
+      <c r="W33" s="14"/>
+      <c r="X33" s="14"/>
+      <c r="Y33" s="14"/>
+      <c r="Z33" s="14"/>
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1949,7 +2005,7 @@
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
     </row>
-    <row r="35" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1960,34 +2016,34 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
-      <c r="K35" s="6">
+      <c r="K35" s="9">
         <v>7</v>
       </c>
-      <c r="L35" s="7" t="s">
+      <c r="L35" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="7"/>
-      <c r="P35" s="7"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
       <c r="Q35" s="1"/>
-      <c r="R35" s="8" t="s">
+      <c r="R35" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="S35" s="8"/>
-      <c r="T35" s="8"/>
+      <c r="S35" s="11"/>
+      <c r="T35" s="11"/>
       <c r="U35" s="1"/>
-      <c r="V35" s="12" t="s">
+      <c r="V35" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="W35" s="12"/>
-      <c r="X35" s="12"/>
-      <c r="Y35" s="12"/>
-      <c r="Z35" s="12"/>
+      <c r="W35" s="18"/>
+      <c r="X35" s="18"/>
+      <c r="Y35" s="18"/>
+      <c r="Z35" s="18"/>
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1998,26 +2054,26 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="7"/>
-      <c r="O36" s="7"/>
-      <c r="P36" s="7"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
       <c r="Q36" s="1"/>
-      <c r="R36" s="8"/>
-      <c r="S36" s="8"/>
-      <c r="T36" s="8"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="11"/>
+      <c r="T36" s="11"/>
       <c r="U36" s="1"/>
-      <c r="V36" s="12"/>
-      <c r="W36" s="12"/>
-      <c r="X36" s="12"/>
-      <c r="Y36" s="12"/>
-      <c r="Z36" s="12"/>
+      <c r="V36" s="18"/>
+      <c r="W36" s="18"/>
+      <c r="X36" s="18"/>
+      <c r="Y36" s="18"/>
+      <c r="Z36" s="18"/>
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2047,7 +2103,7 @@
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2055,37 +2111,37 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="10" t="s">
+      <c r="H38" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="11" t="s">
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="M38" s="11"/>
-      <c r="N38" s="11"/>
-      <c r="O38" s="11"/>
-      <c r="P38" s="11"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="15"/>
+      <c r="O38" s="15"/>
+      <c r="P38" s="15"/>
       <c r="Q38" s="1"/>
-      <c r="R38" s="11" t="s">
+      <c r="R38" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="S38" s="11"/>
-      <c r="T38" s="11"/>
+      <c r="S38" s="15"/>
+      <c r="T38" s="15"/>
       <c r="U38" s="1"/>
-      <c r="V38" s="11" t="s">
+      <c r="V38" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="W38" s="11"/>
-      <c r="X38" s="11"/>
-      <c r="Y38" s="11"/>
-      <c r="Z38" s="11"/>
+      <c r="W38" s="15"/>
+      <c r="X38" s="15"/>
+      <c r="Y38" s="15"/>
+      <c r="Z38" s="15"/>
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2093,29 +2149,29 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="11"/>
-      <c r="M39" s="11"/>
-      <c r="N39" s="11"/>
-      <c r="O39" s="11"/>
-      <c r="P39" s="11"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="15"/>
+      <c r="P39" s="15"/>
       <c r="Q39" s="1"/>
-      <c r="R39" s="11"/>
-      <c r="S39" s="11"/>
-      <c r="T39" s="11"/>
+      <c r="R39" s="15"/>
+      <c r="S39" s="15"/>
+      <c r="T39" s="15"/>
       <c r="U39" s="1"/>
-      <c r="V39" s="11"/>
-      <c r="W39" s="11"/>
-      <c r="X39" s="11"/>
-      <c r="Y39" s="11"/>
-      <c r="Z39" s="11"/>
+      <c r="V39" s="15"/>
+      <c r="W39" s="15"/>
+      <c r="X39" s="15"/>
+      <c r="Y39" s="15"/>
+      <c r="Z39" s="15"/>
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2145,7 +2201,7 @@
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2156,34 +2212,34 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
-      <c r="K41" s="6">
+      <c r="K41" s="9">
         <v>1</v>
       </c>
-      <c r="L41" s="8" t="s">
+      <c r="L41" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8"/>
-      <c r="O41" s="8"/>
-      <c r="P41" s="8"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
       <c r="Q41" s="1"/>
-      <c r="R41" s="8" t="s">
+      <c r="R41" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="S41" s="8"/>
-      <c r="T41" s="8"/>
+      <c r="S41" s="11"/>
+      <c r="T41" s="11"/>
       <c r="U41" s="1"/>
-      <c r="V41" s="13" t="s">
+      <c r="V41" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="W41" s="13"/>
-      <c r="X41" s="13"/>
-      <c r="Y41" s="13"/>
-      <c r="Z41" s="13"/>
+      <c r="W41" s="14"/>
+      <c r="X41" s="14"/>
+      <c r="Y41" s="14"/>
+      <c r="Z41" s="14"/>
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2194,26 +2250,26 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="8"/>
-      <c r="O42" s="8"/>
-      <c r="P42" s="8"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
       <c r="Q42" s="1"/>
-      <c r="R42" s="8"/>
-      <c r="S42" s="8"/>
-      <c r="T42" s="8"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="11"/>
+      <c r="T42" s="11"/>
       <c r="U42" s="1"/>
-      <c r="V42" s="13"/>
-      <c r="W42" s="13"/>
-      <c r="X42" s="13"/>
-      <c r="Y42" s="13"/>
-      <c r="Z42" s="13"/>
+      <c r="V42" s="14"/>
+      <c r="W42" s="14"/>
+      <c r="X42" s="14"/>
+      <c r="Y42" s="14"/>
+      <c r="Z42" s="14"/>
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2243,7 +2299,7 @@
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2254,34 +2310,34 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
-      <c r="K44" s="6">
+      <c r="K44" s="9">
         <v>2</v>
       </c>
-      <c r="L44" s="8" t="s">
+      <c r="L44" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="M44" s="8"/>
-      <c r="N44" s="8"/>
-      <c r="O44" s="8"/>
-      <c r="P44" s="8"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11"/>
       <c r="Q44" s="1"/>
-      <c r="R44" s="8" t="s">
+      <c r="R44" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="S44" s="8"/>
-      <c r="T44" s="8"/>
+      <c r="S44" s="11"/>
+      <c r="T44" s="11"/>
       <c r="U44" s="1"/>
-      <c r="V44" s="13" t="s">
+      <c r="V44" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="W44" s="13"/>
-      <c r="X44" s="13"/>
-      <c r="Y44" s="13"/>
-      <c r="Z44" s="13"/>
+      <c r="W44" s="14"/>
+      <c r="X44" s="14"/>
+      <c r="Y44" s="14"/>
+      <c r="Z44" s="14"/>
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2292,26 +2348,26 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="8"/>
-      <c r="O45" s="8"/>
-      <c r="P45" s="8"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="11"/>
       <c r="Q45" s="1"/>
-      <c r="R45" s="8"/>
-      <c r="S45" s="8"/>
-      <c r="T45" s="8"/>
+      <c r="R45" s="11"/>
+      <c r="S45" s="11"/>
+      <c r="T45" s="11"/>
       <c r="U45" s="1"/>
-      <c r="V45" s="13"/>
-      <c r="W45" s="13"/>
-      <c r="X45" s="13"/>
-      <c r="Y45" s="13"/>
-      <c r="Z45" s="13"/>
+      <c r="V45" s="14"/>
+      <c r="W45" s="14"/>
+      <c r="X45" s="14"/>
+      <c r="Y45" s="14"/>
+      <c r="Z45" s="14"/>
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -2341,7 +2397,7 @@
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
     </row>
-    <row r="47" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2352,34 +2408,34 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
-      <c r="K47" s="6">
+      <c r="K47" s="9">
         <v>3</v>
       </c>
-      <c r="L47" s="7" t="s">
+      <c r="L47" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="M47" s="7"/>
-      <c r="N47" s="7"/>
-      <c r="O47" s="7"/>
-      <c r="P47" s="7"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
       <c r="Q47" s="1"/>
-      <c r="R47" s="8" t="s">
+      <c r="R47" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="S47" s="8"/>
-      <c r="T47" s="8"/>
+      <c r="S47" s="11"/>
+      <c r="T47" s="11"/>
       <c r="U47" s="1"/>
-      <c r="V47" s="13" t="s">
+      <c r="V47" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="W47" s="13"/>
-      <c r="X47" s="13"/>
-      <c r="Y47" s="13"/>
-      <c r="Z47" s="13"/>
+      <c r="W47" s="14"/>
+      <c r="X47" s="14"/>
+      <c r="Y47" s="14"/>
+      <c r="Z47" s="14"/>
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2390,26 +2446,26 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="7"/>
-      <c r="M48" s="7"/>
-      <c r="N48" s="7"/>
-      <c r="O48" s="7"/>
-      <c r="P48" s="7"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="10"/>
       <c r="Q48" s="1"/>
-      <c r="R48" s="8"/>
-      <c r="S48" s="8"/>
-      <c r="T48" s="8"/>
+      <c r="R48" s="11"/>
+      <c r="S48" s="11"/>
+      <c r="T48" s="11"/>
       <c r="U48" s="1"/>
-      <c r="V48" s="13"/>
-      <c r="W48" s="13"/>
-      <c r="X48" s="13"/>
-      <c r="Y48" s="13"/>
-      <c r="Z48" s="13"/>
+      <c r="V48" s="14"/>
+      <c r="W48" s="14"/>
+      <c r="X48" s="14"/>
+      <c r="Y48" s="14"/>
+      <c r="Z48" s="14"/>
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2439,7 +2495,7 @@
       <c r="AA49" s="1"/>
       <c r="AB49" s="1"/>
     </row>
-    <row r="50" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2450,34 +2506,34 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
-      <c r="K50" s="6">
+      <c r="K50" s="9">
         <v>4</v>
       </c>
-      <c r="L50" s="7" t="s">
+      <c r="L50" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="M50" s="7"/>
-      <c r="N50" s="7"/>
-      <c r="O50" s="7"/>
-      <c r="P50" s="7"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
+      <c r="P50" s="10"/>
       <c r="Q50" s="1"/>
-      <c r="R50" s="8" t="s">
+      <c r="R50" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="S50" s="8"/>
-      <c r="T50" s="8"/>
+      <c r="S50" s="11"/>
+      <c r="T50" s="11"/>
       <c r="U50" s="1"/>
-      <c r="V50" s="13" t="s">
+      <c r="V50" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="W50" s="13"/>
-      <c r="X50" s="13"/>
-      <c r="Y50" s="13"/>
-      <c r="Z50" s="13"/>
+      <c r="W50" s="14"/>
+      <c r="X50" s="14"/>
+      <c r="Y50" s="14"/>
+      <c r="Z50" s="14"/>
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2488,26 +2544,26 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
-      <c r="K51" s="6"/>
-      <c r="L51" s="7"/>
-      <c r="M51" s="7"/>
-      <c r="N51" s="7"/>
-      <c r="O51" s="7"/>
-      <c r="P51" s="7"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10"/>
+      <c r="P51" s="10"/>
       <c r="Q51" s="1"/>
-      <c r="R51" s="8"/>
-      <c r="S51" s="8"/>
-      <c r="T51" s="8"/>
+      <c r="R51" s="11"/>
+      <c r="S51" s="11"/>
+      <c r="T51" s="11"/>
       <c r="U51" s="1"/>
-      <c r="V51" s="13"/>
-      <c r="W51" s="13"/>
-      <c r="X51" s="13"/>
-      <c r="Y51" s="13"/>
-      <c r="Z51" s="13"/>
+      <c r="V51" s="14"/>
+      <c r="W51" s="14"/>
+      <c r="X51" s="14"/>
+      <c r="Y51" s="14"/>
+      <c r="Z51" s="14"/>
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2537,7 +2593,7 @@
       <c r="AA52" s="1"/>
       <c r="AB52" s="1"/>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2545,1103 +2601,1774 @@
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
-      <c r="H53" s="10" t="s">
+      <c r="H53" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="10"/>
-      <c r="L53" s="11" t="s">
+      <c r="I53" s="16"/>
+      <c r="J53" s="16"/>
+      <c r="K53" s="16"/>
+      <c r="L53" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="M53" s="11"/>
-      <c r="N53" s="11"/>
-      <c r="O53" s="11"/>
-      <c r="P53" s="11"/>
+      <c r="M53" s="15"/>
+      <c r="N53" s="15"/>
+      <c r="O53" s="15"/>
+      <c r="P53" s="15"/>
       <c r="Q53" s="1"/>
-      <c r="R53" s="11" t="s">
+      <c r="R53" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="S53" s="11"/>
-      <c r="T53" s="11"/>
+      <c r="S53" s="15"/>
+      <c r="T53" s="15"/>
       <c r="U53" s="1"/>
-      <c r="V53" s="11" t="s">
+      <c r="V53" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="W53" s="11"/>
-      <c r="X53" s="11"/>
-      <c r="Y53" s="11"/>
-      <c r="Z53" s="11"/>
+      <c r="W53" s="15"/>
+      <c r="X53" s="15"/>
+      <c r="Y53" s="15"/>
+      <c r="Z53" s="15"/>
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="H54" s="10"/>
-      <c r="I54" s="10"/>
-      <c r="J54" s="10"/>
-      <c r="K54" s="10"/>
-      <c r="L54" s="11"/>
-      <c r="M54" s="11"/>
-      <c r="N54" s="11"/>
-      <c r="O54" s="11"/>
-      <c r="P54" s="11"/>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="16"/>
+      <c r="K54" s="16"/>
+      <c r="L54" s="15"/>
+      <c r="M54" s="15"/>
+      <c r="N54" s="15"/>
+      <c r="O54" s="15"/>
+      <c r="P54" s="15"/>
       <c r="Q54" s="1"/>
-      <c r="R54" s="11"/>
-      <c r="S54" s="11"/>
-      <c r="T54" s="11"/>
+      <c r="R54" s="15"/>
+      <c r="S54" s="15"/>
+      <c r="T54" s="15"/>
       <c r="U54" s="1"/>
-      <c r="V54" s="11"/>
-      <c r="W54" s="11"/>
-      <c r="X54" s="11"/>
-      <c r="Y54" s="11"/>
-      <c r="Z54" s="11"/>
-    </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="H56" s="9" t="s">
+      <c r="V54" s="15"/>
+      <c r="W54" s="15"/>
+      <c r="X54" s="15"/>
+      <c r="Y54" s="15"/>
+      <c r="Z54" s="15"/>
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="H56" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="I56" s="9"/>
-      <c r="J56" s="9"/>
-      <c r="K56" s="9"/>
-      <c r="L56" s="9"/>
-      <c r="M56" s="9"/>
-      <c r="N56" s="9"/>
-      <c r="O56" s="9"/>
-      <c r="P56" s="9"/>
-      <c r="Q56" s="9"/>
-      <c r="R56" s="9"/>
-      <c r="S56" s="9"/>
-      <c r="T56" s="9"/>
-      <c r="U56" s="9"/>
-      <c r="V56" s="9"/>
-      <c r="W56" s="9"/>
-      <c r="X56" s="9"/>
-      <c r="Y56" s="9"/>
-      <c r="Z56" s="9"/>
-    </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
-      <c r="J57" s="9"/>
-      <c r="K57" s="9"/>
-      <c r="L57" s="9"/>
-      <c r="M57" s="9"/>
-      <c r="N57" s="9"/>
-      <c r="O57" s="9"/>
-      <c r="P57" s="9"/>
-      <c r="Q57" s="9"/>
-      <c r="R57" s="9"/>
-      <c r="S57" s="9"/>
-      <c r="T57" s="9"/>
-      <c r="U57" s="9"/>
-      <c r="V57" s="9"/>
-      <c r="W57" s="9"/>
-      <c r="X57" s="9"/>
-      <c r="Y57" s="9"/>
-      <c r="Z57" s="9"/>
-    </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="H59" s="10" t="s">
+      <c r="I56" s="13"/>
+      <c r="J56" s="13"/>
+      <c r="K56" s="13"/>
+      <c r="L56" s="13"/>
+      <c r="M56" s="13"/>
+      <c r="N56" s="13"/>
+      <c r="O56" s="13"/>
+      <c r="P56" s="13"/>
+      <c r="Q56" s="13"/>
+      <c r="R56" s="13"/>
+      <c r="S56" s="13"/>
+      <c r="T56" s="13"/>
+      <c r="U56" s="13"/>
+      <c r="V56" s="13"/>
+      <c r="W56" s="13"/>
+      <c r="X56" s="13"/>
+      <c r="Y56" s="13"/>
+      <c r="Z56" s="13"/>
+    </row>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="H57" s="13"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="13"/>
+      <c r="K57" s="13"/>
+      <c r="L57" s="13"/>
+      <c r="M57" s="13"/>
+      <c r="N57" s="13"/>
+      <c r="O57" s="13"/>
+      <c r="P57" s="13"/>
+      <c r="Q57" s="13"/>
+      <c r="R57" s="13"/>
+      <c r="S57" s="13"/>
+      <c r="T57" s="13"/>
+      <c r="U57" s="13"/>
+      <c r="V57" s="13"/>
+      <c r="W57" s="13"/>
+      <c r="X57" s="13"/>
+      <c r="Y57" s="13"/>
+      <c r="Z57" s="13"/>
+    </row>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="H59" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="I59" s="10"/>
-      <c r="J59" s="10"/>
-      <c r="K59" s="10"/>
-      <c r="L59" s="11" t="s">
+      <c r="I59" s="16"/>
+      <c r="J59" s="16"/>
+      <c r="K59" s="16"/>
+      <c r="L59" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="M59" s="11"/>
-      <c r="N59" s="11"/>
-      <c r="O59" s="11"/>
-      <c r="P59" s="11"/>
+      <c r="M59" s="15"/>
+      <c r="N59" s="15"/>
+      <c r="O59" s="15"/>
+      <c r="P59" s="15"/>
       <c r="Q59" s="1"/>
-      <c r="R59" s="11" t="s">
+      <c r="R59" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="S59" s="11"/>
-      <c r="T59" s="11"/>
+      <c r="S59" s="15"/>
+      <c r="T59" s="15"/>
       <c r="U59" s="1"/>
-      <c r="V59" s="11" t="s">
+      <c r="V59" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="W59" s="11"/>
-      <c r="X59" s="11"/>
-      <c r="Y59" s="11"/>
-      <c r="Z59" s="11"/>
-    </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="H60" s="10"/>
-      <c r="I60" s="10"/>
-      <c r="J60" s="10"/>
-      <c r="K60" s="10"/>
-      <c r="L60" s="11"/>
-      <c r="M60" s="11"/>
-      <c r="N60" s="11"/>
-      <c r="O60" s="11"/>
-      <c r="P60" s="11"/>
+      <c r="W59" s="15"/>
+      <c r="X59" s="15"/>
+      <c r="Y59" s="15"/>
+      <c r="Z59" s="15"/>
+    </row>
+    <row r="60" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="H60" s="16"/>
+      <c r="I60" s="16"/>
+      <c r="J60" s="16"/>
+      <c r="K60" s="16"/>
+      <c r="L60" s="15"/>
+      <c r="M60" s="15"/>
+      <c r="N60" s="15"/>
+      <c r="O60" s="15"/>
+      <c r="P60" s="15"/>
       <c r="Q60" s="1"/>
-      <c r="R60" s="11"/>
-      <c r="S60" s="11"/>
-      <c r="T60" s="11"/>
+      <c r="R60" s="15"/>
+      <c r="S60" s="15"/>
+      <c r="T60" s="15"/>
       <c r="U60" s="1"/>
-      <c r="V60" s="11"/>
-      <c r="W60" s="11"/>
-      <c r="X60" s="11"/>
-      <c r="Y60" s="11"/>
-      <c r="Z60" s="11"/>
-    </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="H62" s="9" t="s">
+      <c r="V60" s="15"/>
+      <c r="W60" s="15"/>
+      <c r="X60" s="15"/>
+      <c r="Y60" s="15"/>
+      <c r="Z60" s="15"/>
+    </row>
+    <row r="62" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="H62" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="I62" s="9"/>
-      <c r="J62" s="9"/>
-      <c r="K62" s="9"/>
-      <c r="L62" s="9"/>
-      <c r="M62" s="9"/>
-      <c r="N62" s="9"/>
-      <c r="O62" s="9"/>
-      <c r="P62" s="9"/>
-      <c r="Q62" s="9"/>
-      <c r="R62" s="9"/>
-      <c r="S62" s="9"/>
-      <c r="T62" s="9"/>
-      <c r="U62" s="9"/>
-      <c r="V62" s="9"/>
-      <c r="W62" s="9"/>
-      <c r="X62" s="9"/>
-      <c r="Y62" s="9"/>
-      <c r="Z62" s="9"/>
-    </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="H63" s="9"/>
-      <c r="I63" s="9"/>
-      <c r="J63" s="9"/>
-      <c r="K63" s="9"/>
-      <c r="L63" s="9"/>
-      <c r="M63" s="9"/>
-      <c r="N63" s="9"/>
-      <c r="O63" s="9"/>
-      <c r="P63" s="9"/>
-      <c r="Q63" s="9"/>
-      <c r="R63" s="9"/>
-      <c r="S63" s="9"/>
-      <c r="T63" s="9"/>
-      <c r="U63" s="9"/>
-      <c r="V63" s="9"/>
-      <c r="W63" s="9"/>
-      <c r="X63" s="9"/>
-      <c r="Y63" s="9"/>
-      <c r="Z63" s="9"/>
-    </row>
-    <row r="65" spans="8:26" x14ac:dyDescent="0.25">
-      <c r="H65" s="10" t="s">
+      <c r="I62" s="13"/>
+      <c r="J62" s="13"/>
+      <c r="K62" s="13"/>
+      <c r="L62" s="13"/>
+      <c r="M62" s="13"/>
+      <c r="N62" s="13"/>
+      <c r="O62" s="13"/>
+      <c r="P62" s="13"/>
+      <c r="Q62" s="13"/>
+      <c r="R62" s="13"/>
+      <c r="S62" s="13"/>
+      <c r="T62" s="13"/>
+      <c r="U62" s="13"/>
+      <c r="V62" s="13"/>
+      <c r="W62" s="13"/>
+      <c r="X62" s="13"/>
+      <c r="Y62" s="13"/>
+      <c r="Z62" s="13"/>
+    </row>
+    <row r="63" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="H63" s="13"/>
+      <c r="I63" s="13"/>
+      <c r="J63" s="13"/>
+      <c r="K63" s="13"/>
+      <c r="L63" s="13"/>
+      <c r="M63" s="13"/>
+      <c r="N63" s="13"/>
+      <c r="O63" s="13"/>
+      <c r="P63" s="13"/>
+      <c r="Q63" s="13"/>
+      <c r="R63" s="13"/>
+      <c r="S63" s="13"/>
+      <c r="T63" s="13"/>
+      <c r="U63" s="13"/>
+      <c r="V63" s="13"/>
+      <c r="W63" s="13"/>
+      <c r="X63" s="13"/>
+      <c r="Y63" s="13"/>
+      <c r="Z63" s="13"/>
+    </row>
+    <row r="65" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="H65" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="I65" s="10"/>
-      <c r="J65" s="10"/>
-      <c r="K65" s="10"/>
-      <c r="L65" s="11" t="s">
+      <c r="I65" s="16"/>
+      <c r="J65" s="16"/>
+      <c r="K65" s="16"/>
+      <c r="L65" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="M65" s="11"/>
-      <c r="N65" s="11"/>
-      <c r="O65" s="11"/>
-      <c r="P65" s="11"/>
+      <c r="M65" s="15"/>
+      <c r="N65" s="15"/>
+      <c r="O65" s="15"/>
+      <c r="P65" s="15"/>
       <c r="Q65" s="1"/>
-      <c r="R65" s="11" t="s">
+      <c r="R65" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="S65" s="11"/>
-      <c r="T65" s="11"/>
+      <c r="S65" s="15"/>
+      <c r="T65" s="15"/>
       <c r="U65" s="1"/>
-      <c r="V65" s="11" t="s">
+      <c r="V65" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="W65" s="11"/>
-      <c r="X65" s="11"/>
-      <c r="Y65" s="11"/>
-      <c r="Z65" s="11"/>
-    </row>
-    <row r="66" spans="8:26" x14ac:dyDescent="0.25">
-      <c r="H66" s="10"/>
-      <c r="I66" s="10"/>
-      <c r="J66" s="10"/>
-      <c r="K66" s="10"/>
-      <c r="L66" s="11"/>
-      <c r="M66" s="11"/>
-      <c r="N66" s="11"/>
-      <c r="O66" s="11"/>
-      <c r="P66" s="11"/>
+      <c r="W65" s="15"/>
+      <c r="X65" s="15"/>
+      <c r="Y65" s="15"/>
+      <c r="Z65" s="15"/>
+    </row>
+    <row r="66" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="H66" s="16"/>
+      <c r="I66" s="16"/>
+      <c r="J66" s="16"/>
+      <c r="K66" s="16"/>
+      <c r="L66" s="15"/>
+      <c r="M66" s="15"/>
+      <c r="N66" s="15"/>
+      <c r="O66" s="15"/>
+      <c r="P66" s="15"/>
       <c r="Q66" s="1"/>
-      <c r="R66" s="11"/>
-      <c r="S66" s="11"/>
-      <c r="T66" s="11"/>
+      <c r="R66" s="15"/>
+      <c r="S66" s="15"/>
+      <c r="T66" s="15"/>
       <c r="U66" s="1"/>
-      <c r="V66" s="11"/>
-      <c r="W66" s="11"/>
-      <c r="X66" s="11"/>
-      <c r="Y66" s="11"/>
-      <c r="Z66" s="11"/>
-    </row>
-    <row r="68" spans="8:26" x14ac:dyDescent="0.25">
-      <c r="H68" s="9" t="s">
+      <c r="V66" s="15"/>
+      <c r="W66" s="15"/>
+      <c r="X66" s="15"/>
+      <c r="Y66" s="15"/>
+      <c r="Z66" s="15"/>
+    </row>
+    <row r="68" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="H68" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="I68" s="9"/>
-      <c r="J68" s="9"/>
-      <c r="K68" s="9"/>
-      <c r="L68" s="9"/>
-      <c r="M68" s="9"/>
-      <c r="N68" s="9"/>
-      <c r="O68" s="9"/>
-      <c r="P68" s="9"/>
-      <c r="Q68" s="9"/>
-      <c r="R68" s="9"/>
-      <c r="S68" s="9"/>
-      <c r="T68" s="9"/>
-      <c r="U68" s="9"/>
-      <c r="V68" s="9"/>
-      <c r="W68" s="9"/>
-      <c r="X68" s="9"/>
-      <c r="Y68" s="9"/>
-      <c r="Z68" s="9"/>
-    </row>
-    <row r="69" spans="8:26" x14ac:dyDescent="0.25">
-      <c r="H69" s="9"/>
-      <c r="I69" s="9"/>
-      <c r="J69" s="9"/>
-      <c r="K69" s="9"/>
-      <c r="L69" s="9"/>
-      <c r="M69" s="9"/>
-      <c r="N69" s="9"/>
-      <c r="O69" s="9"/>
-      <c r="P69" s="9"/>
-      <c r="Q69" s="9"/>
-      <c r="R69" s="9"/>
-      <c r="S69" s="9"/>
-      <c r="T69" s="9"/>
-      <c r="U69" s="9"/>
-      <c r="V69" s="9"/>
-      <c r="W69" s="9"/>
-      <c r="X69" s="9"/>
-      <c r="Y69" s="9"/>
-      <c r="Z69" s="9"/>
-    </row>
-    <row r="71" spans="8:26" x14ac:dyDescent="0.25">
-      <c r="H71" s="10" t="s">
+      <c r="I68" s="13"/>
+      <c r="J68" s="13"/>
+      <c r="K68" s="13"/>
+      <c r="L68" s="13"/>
+      <c r="M68" s="13"/>
+      <c r="N68" s="13"/>
+      <c r="O68" s="13"/>
+      <c r="P68" s="13"/>
+      <c r="Q68" s="13"/>
+      <c r="R68" s="13"/>
+      <c r="S68" s="13"/>
+      <c r="T68" s="13"/>
+      <c r="U68" s="13"/>
+      <c r="V68" s="13"/>
+      <c r="W68" s="13"/>
+      <c r="X68" s="13"/>
+      <c r="Y68" s="13"/>
+      <c r="Z68" s="13"/>
+    </row>
+    <row r="69" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="H69" s="13"/>
+      <c r="I69" s="13"/>
+      <c r="J69" s="13"/>
+      <c r="K69" s="13"/>
+      <c r="L69" s="13"/>
+      <c r="M69" s="13"/>
+      <c r="N69" s="13"/>
+      <c r="O69" s="13"/>
+      <c r="P69" s="13"/>
+      <c r="Q69" s="13"/>
+      <c r="R69" s="13"/>
+      <c r="S69" s="13"/>
+      <c r="T69" s="13"/>
+      <c r="U69" s="13"/>
+      <c r="V69" s="13"/>
+      <c r="W69" s="13"/>
+      <c r="X69" s="13"/>
+      <c r="Y69" s="13"/>
+      <c r="Z69" s="13"/>
+    </row>
+    <row r="71" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="H71" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="I71" s="10"/>
-      <c r="J71" s="10"/>
-      <c r="K71" s="10"/>
-      <c r="L71" s="11" t="s">
+      <c r="I71" s="16"/>
+      <c r="J71" s="16"/>
+      <c r="K71" s="16"/>
+      <c r="L71" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="M71" s="11"/>
-      <c r="N71" s="11"/>
-      <c r="O71" s="11"/>
-      <c r="P71" s="11"/>
+      <c r="M71" s="15"/>
+      <c r="N71" s="15"/>
+      <c r="O71" s="15"/>
+      <c r="P71" s="15"/>
       <c r="Q71" s="1"/>
-      <c r="R71" s="11" t="s">
+      <c r="R71" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="S71" s="11"/>
-      <c r="T71" s="11"/>
+      <c r="S71" s="15"/>
+      <c r="T71" s="15"/>
       <c r="U71" s="1"/>
-      <c r="V71" s="11" t="s">
+      <c r="V71" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="W71" s="11"/>
-      <c r="X71" s="11"/>
-      <c r="Y71" s="11"/>
-      <c r="Z71" s="11"/>
-    </row>
-    <row r="72" spans="8:26" x14ac:dyDescent="0.25">
-      <c r="H72" s="10"/>
-      <c r="I72" s="10"/>
-      <c r="J72" s="10"/>
-      <c r="K72" s="10"/>
-      <c r="L72" s="11"/>
-      <c r="M72" s="11"/>
-      <c r="N72" s="11"/>
-      <c r="O72" s="11"/>
-      <c r="P72" s="11"/>
+      <c r="W71" s="15"/>
+      <c r="X71" s="15"/>
+      <c r="Y71" s="15"/>
+      <c r="Z71" s="15"/>
+    </row>
+    <row r="72" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="H72" s="16"/>
+      <c r="I72" s="16"/>
+      <c r="J72" s="16"/>
+      <c r="K72" s="16"/>
+      <c r="L72" s="15"/>
+      <c r="M72" s="15"/>
+      <c r="N72" s="15"/>
+      <c r="O72" s="15"/>
+      <c r="P72" s="15"/>
       <c r="Q72" s="1"/>
-      <c r="R72" s="11"/>
-      <c r="S72" s="11"/>
-      <c r="T72" s="11"/>
+      <c r="R72" s="15"/>
+      <c r="S72" s="15"/>
+      <c r="T72" s="15"/>
       <c r="U72" s="1"/>
-      <c r="V72" s="11"/>
-      <c r="W72" s="11"/>
-      <c r="X72" s="11"/>
-      <c r="Y72" s="11"/>
-      <c r="Z72" s="11"/>
-    </row>
-    <row r="75" spans="8:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I75" s="5" t="s">
+      <c r="V72" s="15"/>
+      <c r="W72" s="15"/>
+      <c r="X72" s="15"/>
+      <c r="Y72" s="15"/>
+      <c r="Z72" s="15"/>
+    </row>
+    <row r="75" spans="8:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I75" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="K75" s="6">
+      <c r="K75" s="9">
         <v>1</v>
       </c>
-      <c r="L75" s="7" t="s">
+      <c r="L75" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="M75" s="7"/>
-      <c r="N75" s="7"/>
-      <c r="O75" s="7"/>
-      <c r="P75" s="7"/>
+      <c r="M75" s="10"/>
+      <c r="N75" s="10"/>
+      <c r="O75" s="10"/>
+      <c r="P75" s="10"/>
       <c r="Q75" s="1"/>
-      <c r="R75" s="8" t="s">
+      <c r="R75" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="S75" s="8"/>
-      <c r="T75" s="8"/>
+      <c r="S75" s="11"/>
+      <c r="T75" s="11"/>
       <c r="U75" s="1"/>
-      <c r="V75" s="9" t="s">
+      <c r="V75" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="W75" s="9"/>
-      <c r="X75" s="9"/>
-      <c r="Y75" s="9"/>
-      <c r="Z75" s="9"/>
-    </row>
-    <row r="76" spans="8:26" x14ac:dyDescent="0.25">
-      <c r="I76" s="5"/>
-      <c r="K76" s="6"/>
-      <c r="L76" s="7"/>
-      <c r="M76" s="7"/>
-      <c r="N76" s="7"/>
-      <c r="O76" s="7"/>
-      <c r="P76" s="7"/>
+      <c r="W75" s="13"/>
+      <c r="X75" s="13"/>
+      <c r="Y75" s="13"/>
+      <c r="Z75" s="13"/>
+    </row>
+    <row r="76" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="I76" s="12"/>
+      <c r="K76" s="9"/>
+      <c r="L76" s="10"/>
+      <c r="M76" s="10"/>
+      <c r="N76" s="10"/>
+      <c r="O76" s="10"/>
+      <c r="P76" s="10"/>
       <c r="Q76" s="1"/>
-      <c r="R76" s="8"/>
-      <c r="S76" s="8"/>
-      <c r="T76" s="8"/>
+      <c r="R76" s="11"/>
+      <c r="S76" s="11"/>
+      <c r="T76" s="11"/>
       <c r="U76" s="1"/>
-      <c r="V76" s="9"/>
-      <c r="W76" s="9"/>
-      <c r="X76" s="9"/>
-      <c r="Y76" s="9"/>
-      <c r="Z76" s="9"/>
-    </row>
-    <row r="77" spans="8:26" x14ac:dyDescent="0.25">
-      <c r="I77" s="5"/>
-    </row>
-    <row r="78" spans="8:26" x14ac:dyDescent="0.25">
-      <c r="I78" s="5"/>
-      <c r="K78" s="6">
+      <c r="V76" s="13"/>
+      <c r="W76" s="13"/>
+      <c r="X76" s="13"/>
+      <c r="Y76" s="13"/>
+      <c r="Z76" s="13"/>
+    </row>
+    <row r="77" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="I77" s="12"/>
+    </row>
+    <row r="78" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="I78" s="12"/>
+      <c r="K78" s="9">
         <v>2</v>
       </c>
-      <c r="L78" s="8" t="s">
+      <c r="L78" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="M78" s="8"/>
-      <c r="N78" s="8"/>
-      <c r="O78" s="8"/>
-      <c r="P78" s="8"/>
+      <c r="M78" s="11"/>
+      <c r="N78" s="11"/>
+      <c r="O78" s="11"/>
+      <c r="P78" s="11"/>
       <c r="Q78" s="1"/>
-      <c r="R78" s="8" t="s">
+      <c r="R78" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="S78" s="8"/>
-      <c r="T78" s="8"/>
+      <c r="S78" s="11"/>
+      <c r="T78" s="11"/>
       <c r="U78" s="1"/>
-      <c r="V78" s="9" t="s">
+      <c r="V78" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="W78" s="9"/>
-      <c r="X78" s="9"/>
-      <c r="Y78" s="9"/>
-      <c r="Z78" s="9"/>
-    </row>
-    <row r="79" spans="8:26" x14ac:dyDescent="0.25">
-      <c r="I79" s="5"/>
-      <c r="K79" s="6"/>
-      <c r="L79" s="8"/>
-      <c r="M79" s="8"/>
-      <c r="N79" s="8"/>
-      <c r="O79" s="8"/>
-      <c r="P79" s="8"/>
+      <c r="W78" s="13"/>
+      <c r="X78" s="13"/>
+      <c r="Y78" s="13"/>
+      <c r="Z78" s="13"/>
+    </row>
+    <row r="79" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="I79" s="12"/>
+      <c r="K79" s="9"/>
+      <c r="L79" s="11"/>
+      <c r="M79" s="11"/>
+      <c r="N79" s="11"/>
+      <c r="O79" s="11"/>
+      <c r="P79" s="11"/>
       <c r="Q79" s="1"/>
-      <c r="R79" s="8"/>
-      <c r="S79" s="8"/>
-      <c r="T79" s="8"/>
+      <c r="R79" s="11"/>
+      <c r="S79" s="11"/>
+      <c r="T79" s="11"/>
       <c r="U79" s="1"/>
-      <c r="V79" s="9"/>
-      <c r="W79" s="9"/>
-      <c r="X79" s="9"/>
-      <c r="Y79" s="9"/>
-      <c r="Z79" s="9"/>
-    </row>
-    <row r="80" spans="8:26" x14ac:dyDescent="0.25">
-      <c r="I80" s="5"/>
-    </row>
-    <row r="81" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="I81" s="5"/>
-      <c r="K81" s="6">
+      <c r="V79" s="13"/>
+      <c r="W79" s="13"/>
+      <c r="X79" s="13"/>
+      <c r="Y79" s="13"/>
+      <c r="Z79" s="13"/>
+    </row>
+    <row r="80" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="I80" s="12"/>
+    </row>
+    <row r="81" spans="7:26" x14ac:dyDescent="0.45">
+      <c r="I81" s="12"/>
+      <c r="K81" s="9">
         <v>3</v>
       </c>
-      <c r="L81" s="8" t="s">
+      <c r="L81" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="M81" s="8"/>
-      <c r="N81" s="8"/>
-      <c r="O81" s="8"/>
-      <c r="P81" s="8"/>
+      <c r="M81" s="11"/>
+      <c r="N81" s="11"/>
+      <c r="O81" s="11"/>
+      <c r="P81" s="11"/>
       <c r="Q81" s="1"/>
-      <c r="R81" s="8" t="s">
+      <c r="R81" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="S81" s="8"/>
-      <c r="T81" s="8"/>
-      <c r="V81" s="9" t="s">
+      <c r="S81" s="11"/>
+      <c r="T81" s="11"/>
+      <c r="V81" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="W81" s="9"/>
-      <c r="X81" s="9"/>
-      <c r="Y81" s="9"/>
-      <c r="Z81" s="9"/>
-    </row>
-    <row r="82" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="W81" s="13"/>
+      <c r="X81" s="13"/>
+      <c r="Y81" s="13"/>
+      <c r="Z81" s="13"/>
+    </row>
+    <row r="82" spans="7:26" x14ac:dyDescent="0.45">
       <c r="G82" s="3"/>
-      <c r="I82" s="5"/>
-      <c r="K82" s="6"/>
-      <c r="L82" s="8"/>
-      <c r="M82" s="8"/>
-      <c r="N82" s="8"/>
-      <c r="O82" s="8"/>
-      <c r="P82" s="8"/>
+      <c r="I82" s="12"/>
+      <c r="K82" s="9"/>
+      <c r="L82" s="11"/>
+      <c r="M82" s="11"/>
+      <c r="N82" s="11"/>
+      <c r="O82" s="11"/>
+      <c r="P82" s="11"/>
       <c r="Q82" s="1"/>
-      <c r="R82" s="8"/>
-      <c r="S82" s="8"/>
-      <c r="T82" s="8"/>
-      <c r="V82" s="9"/>
-      <c r="W82" s="9"/>
-      <c r="X82" s="9"/>
-      <c r="Y82" s="9"/>
-      <c r="Z82" s="9"/>
-    </row>
-    <row r="83" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="R82" s="11"/>
+      <c r="S82" s="11"/>
+      <c r="T82" s="11"/>
+      <c r="V82" s="13"/>
+      <c r="W82" s="13"/>
+      <c r="X82" s="13"/>
+      <c r="Y82" s="13"/>
+      <c r="Z82" s="13"/>
+    </row>
+    <row r="83" spans="7:26" x14ac:dyDescent="0.45">
       <c r="G83" s="3"/>
-      <c r="I83" s="5"/>
-    </row>
-    <row r="84" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="I83" s="12"/>
+    </row>
+    <row r="84" spans="7:26" x14ac:dyDescent="0.45">
       <c r="G84" s="3"/>
-      <c r="I84" s="5"/>
-      <c r="K84" s="6">
+      <c r="I84" s="12"/>
+      <c r="K84" s="9">
         <v>4</v>
       </c>
-      <c r="L84" s="8" t="s">
+      <c r="L84" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="M84" s="8"/>
-      <c r="N84" s="8"/>
-      <c r="O84" s="8"/>
-      <c r="P84" s="8"/>
+      <c r="M84" s="11"/>
+      <c r="N84" s="11"/>
+      <c r="O84" s="11"/>
+      <c r="P84" s="11"/>
       <c r="Q84" s="1"/>
-      <c r="R84" s="8" t="s">
+      <c r="R84" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="S84" s="8"/>
-      <c r="T84" s="8"/>
-      <c r="V84" s="9" t="s">
+      <c r="S84" s="11"/>
+      <c r="T84" s="11"/>
+      <c r="V84" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="W84" s="9"/>
-      <c r="X84" s="9"/>
-      <c r="Y84" s="9"/>
-      <c r="Z84" s="9"/>
-    </row>
-    <row r="85" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="W84" s="13"/>
+      <c r="X84" s="13"/>
+      <c r="Y84" s="13"/>
+      <c r="Z84" s="13"/>
+    </row>
+    <row r="85" spans="7:26" x14ac:dyDescent="0.45">
       <c r="G85" s="3"/>
-      <c r="I85" s="5"/>
-      <c r="K85" s="6"/>
-      <c r="L85" s="8"/>
-      <c r="M85" s="8"/>
-      <c r="N85" s="8"/>
-      <c r="O85" s="8"/>
-      <c r="P85" s="8"/>
+      <c r="I85" s="12"/>
+      <c r="K85" s="9"/>
+      <c r="L85" s="11"/>
+      <c r="M85" s="11"/>
+      <c r="N85" s="11"/>
+      <c r="O85" s="11"/>
+      <c r="P85" s="11"/>
       <c r="Q85" s="1"/>
-      <c r="R85" s="8"/>
-      <c r="S85" s="8"/>
-      <c r="T85" s="8"/>
-      <c r="V85" s="9"/>
-      <c r="W85" s="9"/>
-      <c r="X85" s="9"/>
-      <c r="Y85" s="9"/>
-      <c r="Z85" s="9"/>
-    </row>
-    <row r="86" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="R85" s="11"/>
+      <c r="S85" s="11"/>
+      <c r="T85" s="11"/>
+      <c r="V85" s="13"/>
+      <c r="W85" s="13"/>
+      <c r="X85" s="13"/>
+      <c r="Y85" s="13"/>
+      <c r="Z85" s="13"/>
+    </row>
+    <row r="86" spans="7:26" x14ac:dyDescent="0.45">
       <c r="G86" s="3"/>
-      <c r="I86" s="5"/>
-    </row>
-    <row r="87" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G87" s="3"/>
-      <c r="I87" s="5"/>
-      <c r="K87" s="6">
+      <c r="I86" s="12"/>
+    </row>
+    <row r="87" spans="7:26" x14ac:dyDescent="0.45">
+      <c r="G87" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I87" s="12"/>
+      <c r="K87" s="9">
         <v>5</v>
       </c>
-      <c r="L87" s="8" t="s">
+      <c r="L87" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="M87" s="8"/>
-      <c r="N87" s="8"/>
-      <c r="O87" s="8"/>
-      <c r="P87" s="8"/>
+      <c r="M87" s="11"/>
+      <c r="N87" s="11"/>
+      <c r="O87" s="11"/>
+      <c r="P87" s="11"/>
       <c r="Q87" s="1"/>
-      <c r="R87" s="8" t="s">
+      <c r="R87" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="S87" s="8"/>
-      <c r="T87" s="8"/>
-      <c r="V87" s="9" t="s">
+      <c r="S87" s="11"/>
+      <c r="T87" s="11"/>
+      <c r="V87" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="W87" s="9"/>
-      <c r="X87" s="9"/>
-      <c r="Y87" s="9"/>
-      <c r="Z87" s="9"/>
-    </row>
-    <row r="88" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G88" s="22" t="s">
+      <c r="W87" s="13"/>
+      <c r="X87" s="13"/>
+      <c r="Y87" s="13"/>
+      <c r="Z87" s="13"/>
+    </row>
+    <row r="88" spans="7:26" x14ac:dyDescent="0.45">
+      <c r="G88" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="I88" s="5"/>
-      <c r="K88" s="6"/>
-      <c r="L88" s="8"/>
-      <c r="M88" s="8"/>
-      <c r="N88" s="8"/>
-      <c r="O88" s="8"/>
-      <c r="P88" s="8"/>
+      <c r="I88" s="12"/>
+      <c r="K88" s="9"/>
+      <c r="L88" s="11"/>
+      <c r="M88" s="11"/>
+      <c r="N88" s="11"/>
+      <c r="O88" s="11"/>
+      <c r="P88" s="11"/>
       <c r="Q88" s="1"/>
-      <c r="R88" s="8"/>
-      <c r="S88" s="8"/>
-      <c r="T88" s="8"/>
-      <c r="V88" s="9"/>
-      <c r="W88" s="9"/>
-      <c r="X88" s="9"/>
-      <c r="Y88" s="9"/>
-      <c r="Z88" s="9"/>
-    </row>
-    <row r="89" spans="7:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G89" s="22"/>
-    </row>
-    <row r="90" spans="7:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G90" s="22"/>
-    </row>
-    <row r="91" spans="7:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G91" s="22"/>
-      <c r="I91" s="5" t="s">
+      <c r="R88" s="11"/>
+      <c r="S88" s="11"/>
+      <c r="T88" s="11"/>
+      <c r="V88" s="13"/>
+      <c r="W88" s="13"/>
+      <c r="X88" s="13"/>
+      <c r="Y88" s="13"/>
+      <c r="Z88" s="13"/>
+    </row>
+    <row r="89" spans="7:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G89" s="19"/>
+    </row>
+    <row r="90" spans="7:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G90" s="19"/>
+    </row>
+    <row r="91" spans="7:26" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G91" s="19"/>
+      <c r="I91" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="K91" s="6">
+      <c r="K91" s="9">
         <v>1</v>
       </c>
-      <c r="L91" s="7" t="s">
+      <c r="L91" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="M91" s="7"/>
-      <c r="N91" s="7"/>
-      <c r="O91" s="7"/>
-      <c r="P91" s="7"/>
+      <c r="M91" s="10"/>
+      <c r="N91" s="10"/>
+      <c r="O91" s="10"/>
+      <c r="P91" s="10"/>
       <c r="Q91" s="1"/>
-      <c r="R91" s="8" t="s">
+      <c r="R91" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="S91" s="8"/>
-      <c r="T91" s="8"/>
-      <c r="V91" s="13" t="s">
+      <c r="S91" s="11"/>
+      <c r="T91" s="11"/>
+      <c r="V91" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="W91" s="13"/>
-      <c r="X91" s="13"/>
-      <c r="Y91" s="13"/>
-      <c r="Z91" s="13"/>
-    </row>
-    <row r="92" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="W91" s="14"/>
+      <c r="X91" s="14"/>
+      <c r="Y91" s="14"/>
+      <c r="Z91" s="14"/>
+    </row>
+    <row r="92" spans="7:26" x14ac:dyDescent="0.45">
       <c r="G92" s="3"/>
-      <c r="I92" s="5"/>
-      <c r="K92" s="6"/>
-      <c r="L92" s="7"/>
-      <c r="M92" s="7"/>
-      <c r="N92" s="7"/>
-      <c r="O92" s="7"/>
-      <c r="P92" s="7"/>
+      <c r="I92" s="12"/>
+      <c r="K92" s="9"/>
+      <c r="L92" s="10"/>
+      <c r="M92" s="10"/>
+      <c r="N92" s="10"/>
+      <c r="O92" s="10"/>
+      <c r="P92" s="10"/>
       <c r="Q92" s="1"/>
-      <c r="R92" s="8"/>
-      <c r="S92" s="8"/>
-      <c r="T92" s="8"/>
-      <c r="V92" s="13"/>
-      <c r="W92" s="13"/>
-      <c r="X92" s="13"/>
-      <c r="Y92" s="13"/>
-      <c r="Z92" s="13"/>
-    </row>
-    <row r="93" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="R92" s="11"/>
+      <c r="S92" s="11"/>
+      <c r="T92" s="11"/>
+      <c r="V92" s="14"/>
+      <c r="W92" s="14"/>
+      <c r="X92" s="14"/>
+      <c r="Y92" s="14"/>
+      <c r="Z92" s="14"/>
+    </row>
+    <row r="93" spans="7:26" x14ac:dyDescent="0.45">
       <c r="G93" s="3"/>
-      <c r="I93" s="5"/>
-    </row>
-    <row r="94" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="I93" s="12"/>
+    </row>
+    <row r="94" spans="7:26" x14ac:dyDescent="0.45">
       <c r="G94" s="3"/>
-      <c r="I94" s="5"/>
-      <c r="K94" s="6">
+      <c r="I94" s="12"/>
+      <c r="K94" s="9">
         <v>2</v>
       </c>
-      <c r="L94" s="7" t="s">
+      <c r="L94" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="M94" s="7"/>
-      <c r="N94" s="7"/>
-      <c r="O94" s="7"/>
-      <c r="P94" s="7"/>
+      <c r="M94" s="10"/>
+      <c r="N94" s="10"/>
+      <c r="O94" s="10"/>
+      <c r="P94" s="10"/>
       <c r="Q94" s="1"/>
-      <c r="R94" s="8" t="s">
+      <c r="R94" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="S94" s="8"/>
-      <c r="T94" s="8"/>
-      <c r="V94" s="13" t="s">
+      <c r="S94" s="11"/>
+      <c r="T94" s="11"/>
+      <c r="V94" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="W94" s="13"/>
-      <c r="X94" s="13"/>
-      <c r="Y94" s="13"/>
-      <c r="Z94" s="13"/>
-    </row>
-    <row r="95" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="W94" s="14"/>
+      <c r="X94" s="14"/>
+      <c r="Y94" s="14"/>
+      <c r="Z94" s="14"/>
+    </row>
+    <row r="95" spans="7:26" x14ac:dyDescent="0.45">
       <c r="G95" s="3"/>
-      <c r="I95" s="5"/>
-      <c r="K95" s="6"/>
-      <c r="L95" s="7"/>
-      <c r="M95" s="7"/>
-      <c r="N95" s="7"/>
-      <c r="O95" s="7"/>
-      <c r="P95" s="7"/>
+      <c r="I95" s="12"/>
+      <c r="K95" s="9"/>
+      <c r="L95" s="10"/>
+      <c r="M95" s="10"/>
+      <c r="N95" s="10"/>
+      <c r="O95" s="10"/>
+      <c r="P95" s="10"/>
       <c r="Q95" s="1"/>
-      <c r="R95" s="8"/>
-      <c r="S95" s="8"/>
-      <c r="T95" s="8"/>
-      <c r="V95" s="13"/>
-      <c r="W95" s="13"/>
-      <c r="X95" s="13"/>
-      <c r="Y95" s="13"/>
-      <c r="Z95" s="13"/>
-    </row>
-    <row r="96" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="R95" s="11"/>
+      <c r="S95" s="11"/>
+      <c r="T95" s="11"/>
+      <c r="V95" s="14"/>
+      <c r="W95" s="14"/>
+      <c r="X95" s="14"/>
+      <c r="Y95" s="14"/>
+      <c r="Z95" s="14"/>
+    </row>
+    <row r="96" spans="7:26" x14ac:dyDescent="0.45">
       <c r="G96" s="3"/>
     </row>
-    <row r="97" spans="7:26" x14ac:dyDescent="0.25">
+    <row r="97" spans="7:26" x14ac:dyDescent="0.45">
       <c r="G97" s="3"/>
-      <c r="H97" s="10" t="s">
+      <c r="H97" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="I97" s="10"/>
-      <c r="J97" s="10"/>
-      <c r="K97" s="10"/>
-      <c r="L97" s="11" t="s">
+      <c r="I97" s="16"/>
+      <c r="J97" s="16"/>
+      <c r="K97" s="16"/>
+      <c r="L97" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="M97" s="11"/>
-      <c r="N97" s="11"/>
-      <c r="O97" s="11"/>
-      <c r="P97" s="11"/>
+      <c r="M97" s="15"/>
+      <c r="N97" s="15"/>
+      <c r="O97" s="15"/>
+      <c r="P97" s="15"/>
       <c r="Q97" s="1"/>
-      <c r="R97" s="11" t="s">
+      <c r="R97" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="S97" s="11"/>
-      <c r="T97" s="11"/>
+      <c r="S97" s="15"/>
+      <c r="T97" s="15"/>
       <c r="U97" s="1"/>
-      <c r="V97" s="11" t="s">
+      <c r="V97" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="W97" s="11"/>
-      <c r="X97" s="11"/>
-      <c r="Y97" s="11"/>
-      <c r="Z97" s="11"/>
-    </row>
-    <row r="98" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="W97" s="15"/>
+      <c r="X97" s="15"/>
+      <c r="Y97" s="15"/>
+      <c r="Z97" s="15"/>
+    </row>
+    <row r="98" spans="7:26" x14ac:dyDescent="0.45">
       <c r="G98" s="3"/>
-      <c r="H98" s="10"/>
-      <c r="I98" s="10"/>
-      <c r="J98" s="10"/>
-      <c r="K98" s="10"/>
-      <c r="L98" s="11"/>
-      <c r="M98" s="11"/>
-      <c r="N98" s="11"/>
-      <c r="O98" s="11"/>
-      <c r="P98" s="11"/>
+      <c r="H98" s="16"/>
+      <c r="I98" s="16"/>
+      <c r="J98" s="16"/>
+      <c r="K98" s="16"/>
+      <c r="L98" s="15"/>
+      <c r="M98" s="15"/>
+      <c r="N98" s="15"/>
+      <c r="O98" s="15"/>
+      <c r="P98" s="15"/>
       <c r="Q98" s="1"/>
-      <c r="R98" s="11"/>
-      <c r="S98" s="11"/>
-      <c r="T98" s="11"/>
+      <c r="R98" s="15"/>
+      <c r="S98" s="15"/>
+      <c r="T98" s="15"/>
       <c r="U98" s="1"/>
-      <c r="V98" s="11"/>
-      <c r="W98" s="11"/>
-      <c r="X98" s="11"/>
-      <c r="Y98" s="11"/>
-      <c r="Z98" s="11"/>
-    </row>
-    <row r="101" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="I101" s="5" t="s">
+      <c r="V98" s="15"/>
+      <c r="W98" s="15"/>
+      <c r="X98" s="15"/>
+      <c r="Y98" s="15"/>
+      <c r="Z98" s="15"/>
+    </row>
+    <row r="101" spans="7:26" x14ac:dyDescent="0.45">
+      <c r="I101" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="K101" s="6">
+      <c r="K101" s="9">
         <v>1</v>
       </c>
-      <c r="L101" s="7" t="s">
+      <c r="L101" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="M101" s="7"/>
-      <c r="N101" s="7"/>
-      <c r="O101" s="7"/>
-      <c r="P101" s="7"/>
+      <c r="M101" s="10"/>
+      <c r="N101" s="10"/>
+      <c r="O101" s="10"/>
+      <c r="P101" s="10"/>
       <c r="Q101" s="1"/>
-      <c r="R101" s="8" t="s">
+      <c r="R101" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="S101" s="8"/>
-      <c r="T101" s="8"/>
+      <c r="S101" s="11"/>
+      <c r="T101" s="11"/>
       <c r="U101" s="1"/>
-      <c r="V101" s="21"/>
-      <c r="W101" s="21"/>
-      <c r="X101" s="21"/>
-      <c r="Y101" s="21"/>
-      <c r="Z101" s="21"/>
-    </row>
-    <row r="102" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="I102" s="5"/>
-      <c r="K102" s="6"/>
-      <c r="L102" s="7"/>
-      <c r="M102" s="7"/>
-      <c r="N102" s="7"/>
-      <c r="O102" s="7"/>
-      <c r="P102" s="7"/>
+      <c r="V101" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="W101" s="8"/>
+      <c r="X101" s="8"/>
+      <c r="Y101" s="8"/>
+      <c r="Z101" s="8"/>
+    </row>
+    <row r="102" spans="7:26" x14ac:dyDescent="0.45">
+      <c r="I102" s="12"/>
+      <c r="K102" s="9"/>
+      <c r="L102" s="10"/>
+      <c r="M102" s="10"/>
+      <c r="N102" s="10"/>
+      <c r="O102" s="10"/>
+      <c r="P102" s="10"/>
       <c r="Q102" s="1"/>
-      <c r="R102" s="8"/>
-      <c r="S102" s="8"/>
-      <c r="T102" s="8"/>
+      <c r="R102" s="11"/>
+      <c r="S102" s="11"/>
+      <c r="T102" s="11"/>
       <c r="U102" s="1"/>
-      <c r="V102" s="21"/>
-      <c r="W102" s="21"/>
-      <c r="X102" s="21"/>
-      <c r="Y102" s="21"/>
-      <c r="Z102" s="21"/>
-    </row>
-    <row r="103" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="I103" s="5"/>
-    </row>
-    <row r="104" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="I104" s="5"/>
-      <c r="K104" s="6">
+      <c r="V102" s="8"/>
+      <c r="W102" s="8"/>
+      <c r="X102" s="8"/>
+      <c r="Y102" s="8"/>
+      <c r="Z102" s="8"/>
+    </row>
+    <row r="103" spans="7:26" x14ac:dyDescent="0.45">
+      <c r="I103" s="12"/>
+    </row>
+    <row r="104" spans="7:26" x14ac:dyDescent="0.45">
+      <c r="I104" s="12"/>
+      <c r="K104" s="9">
         <v>2</v>
       </c>
-      <c r="L104" s="8" t="s">
+      <c r="L104" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="M104" s="8"/>
-      <c r="N104" s="8"/>
-      <c r="O104" s="8"/>
-      <c r="P104" s="8"/>
+      <c r="M104" s="11"/>
+      <c r="N104" s="11"/>
+      <c r="O104" s="11"/>
+      <c r="P104" s="11"/>
       <c r="Q104" s="1"/>
-      <c r="R104" s="8" t="s">
+      <c r="R104" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="S104" s="8"/>
-      <c r="T104" s="8"/>
+      <c r="S104" s="11"/>
+      <c r="T104" s="11"/>
       <c r="U104" s="1"/>
-      <c r="V104" s="21"/>
-      <c r="W104" s="21"/>
-      <c r="X104" s="21"/>
-      <c r="Y104" s="21"/>
-      <c r="Z104" s="21"/>
-    </row>
-    <row r="105" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="I105" s="5"/>
-      <c r="K105" s="6"/>
-      <c r="L105" s="8"/>
-      <c r="M105" s="8"/>
-      <c r="N105" s="8"/>
-      <c r="O105" s="8"/>
-      <c r="P105" s="8"/>
+      <c r="V104" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="W104" s="13"/>
+      <c r="X104" s="13"/>
+      <c r="Y104" s="13"/>
+      <c r="Z104" s="13"/>
+    </row>
+    <row r="105" spans="7:26" x14ac:dyDescent="0.45">
+      <c r="I105" s="12"/>
+      <c r="K105" s="9"/>
+      <c r="L105" s="11"/>
+      <c r="M105" s="11"/>
+      <c r="N105" s="11"/>
+      <c r="O105" s="11"/>
+      <c r="P105" s="11"/>
       <c r="Q105" s="1"/>
-      <c r="R105" s="8"/>
-      <c r="S105" s="8"/>
-      <c r="T105" s="8"/>
+      <c r="R105" s="11"/>
+      <c r="S105" s="11"/>
+      <c r="T105" s="11"/>
       <c r="U105" s="1"/>
-      <c r="V105" s="21"/>
-      <c r="W105" s="21"/>
-      <c r="X105" s="21"/>
-      <c r="Y105" s="21"/>
-      <c r="Z105" s="21"/>
-    </row>
-    <row r="106" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="I106" s="5"/>
-    </row>
-    <row r="107" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="I107" s="5"/>
-      <c r="K107" s="6">
+      <c r="V105" s="13"/>
+      <c r="W105" s="13"/>
+      <c r="X105" s="13"/>
+      <c r="Y105" s="13"/>
+      <c r="Z105" s="13"/>
+    </row>
+    <row r="106" spans="7:26" x14ac:dyDescent="0.45">
+      <c r="I106" s="12"/>
+    </row>
+    <row r="107" spans="7:26" x14ac:dyDescent="0.45">
+      <c r="I107" s="12"/>
+      <c r="K107" s="9">
         <v>3</v>
       </c>
-      <c r="L107" s="8" t="s">
+      <c r="L107" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="M107" s="8"/>
-      <c r="N107" s="8"/>
-      <c r="O107" s="8"/>
-      <c r="P107" s="8"/>
+      <c r="M107" s="11"/>
+      <c r="N107" s="11"/>
+      <c r="O107" s="11"/>
+      <c r="P107" s="11"/>
       <c r="Q107" s="1"/>
-      <c r="R107" s="8" t="s">
+      <c r="R107" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="S107" s="8"/>
-      <c r="T107" s="8"/>
-      <c r="V107" s="21"/>
-      <c r="W107" s="21"/>
-      <c r="X107" s="21"/>
-      <c r="Y107" s="21"/>
-      <c r="Z107" s="21"/>
-    </row>
-    <row r="108" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="I108" s="5"/>
-      <c r="K108" s="6"/>
-      <c r="L108" s="8"/>
-      <c r="M108" s="8"/>
-      <c r="N108" s="8"/>
-      <c r="O108" s="8"/>
-      <c r="P108" s="8"/>
+      <c r="S107" s="11"/>
+      <c r="T107" s="11"/>
+      <c r="V107" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="W107" s="13"/>
+      <c r="X107" s="13"/>
+      <c r="Y107" s="13"/>
+      <c r="Z107" s="13"/>
+    </row>
+    <row r="108" spans="7:26" x14ac:dyDescent="0.45">
+      <c r="I108" s="12"/>
+      <c r="K108" s="9"/>
+      <c r="L108" s="11"/>
+      <c r="M108" s="11"/>
+      <c r="N108" s="11"/>
+      <c r="O108" s="11"/>
+      <c r="P108" s="11"/>
       <c r="Q108" s="1"/>
-      <c r="R108" s="8"/>
-      <c r="S108" s="8"/>
-      <c r="T108" s="8"/>
-      <c r="V108" s="21"/>
-      <c r="W108" s="21"/>
-      <c r="X108" s="21"/>
-      <c r="Y108" s="21"/>
-      <c r="Z108" s="21"/>
-    </row>
-    <row r="109" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="I109" s="5"/>
-    </row>
-    <row r="110" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="I110" s="5"/>
-      <c r="K110" s="6">
+      <c r="R108" s="11"/>
+      <c r="S108" s="11"/>
+      <c r="T108" s="11"/>
+      <c r="V108" s="13"/>
+      <c r="W108" s="13"/>
+      <c r="X108" s="13"/>
+      <c r="Y108" s="13"/>
+      <c r="Z108" s="13"/>
+    </row>
+    <row r="109" spans="7:26" x14ac:dyDescent="0.45">
+      <c r="I109" s="12"/>
+    </row>
+    <row r="110" spans="7:26" x14ac:dyDescent="0.45">
+      <c r="I110" s="12"/>
+      <c r="K110" s="9">
         <v>4</v>
       </c>
-      <c r="L110" s="8" t="s">
+      <c r="L110" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="M110" s="8"/>
-      <c r="N110" s="8"/>
-      <c r="O110" s="8"/>
-      <c r="P110" s="8"/>
+      <c r="M110" s="11"/>
+      <c r="N110" s="11"/>
+      <c r="O110" s="11"/>
+      <c r="P110" s="11"/>
       <c r="Q110" s="1"/>
-      <c r="R110" s="8" t="s">
+      <c r="R110" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="S110" s="8"/>
-      <c r="T110" s="8"/>
-      <c r="V110" s="21"/>
-      <c r="W110" s="21"/>
-      <c r="X110" s="21"/>
-      <c r="Y110" s="21"/>
-      <c r="Z110" s="21"/>
-    </row>
-    <row r="111" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="I111" s="5"/>
-      <c r="K111" s="6"/>
-      <c r="L111" s="8"/>
-      <c r="M111" s="8"/>
-      <c r="N111" s="8"/>
-      <c r="O111" s="8"/>
-      <c r="P111" s="8"/>
+      <c r="S110" s="11"/>
+      <c r="T110" s="11"/>
+      <c r="V110" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="W110" s="13"/>
+      <c r="X110" s="13"/>
+      <c r="Y110" s="13"/>
+      <c r="Z110" s="13"/>
+    </row>
+    <row r="111" spans="7:26" x14ac:dyDescent="0.45">
+      <c r="I111" s="12"/>
+      <c r="K111" s="9"/>
+      <c r="L111" s="11"/>
+      <c r="M111" s="11"/>
+      <c r="N111" s="11"/>
+      <c r="O111" s="11"/>
+      <c r="P111" s="11"/>
       <c r="Q111" s="1"/>
-      <c r="R111" s="8"/>
-      <c r="S111" s="8"/>
-      <c r="T111" s="8"/>
-      <c r="V111" s="21"/>
-      <c r="W111" s="21"/>
-      <c r="X111" s="21"/>
-      <c r="Y111" s="21"/>
-      <c r="Z111" s="21"/>
-    </row>
-    <row r="112" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="I112" s="5"/>
-    </row>
-    <row r="113" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="I113" s="5"/>
-      <c r="K113" s="6">
+      <c r="R111" s="11"/>
+      <c r="S111" s="11"/>
+      <c r="T111" s="11"/>
+      <c r="V111" s="13"/>
+      <c r="W111" s="13"/>
+      <c r="X111" s="13"/>
+      <c r="Y111" s="13"/>
+      <c r="Z111" s="13"/>
+    </row>
+    <row r="112" spans="7:26" x14ac:dyDescent="0.45">
+      <c r="I112" s="12"/>
+    </row>
+    <row r="113" spans="7:26" x14ac:dyDescent="0.45">
+      <c r="I113" s="12"/>
+      <c r="K113" s="9">
         <v>5</v>
       </c>
-      <c r="L113" s="8" t="s">
+      <c r="L113" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="M113" s="8"/>
-      <c r="N113" s="8"/>
-      <c r="O113" s="8"/>
-      <c r="P113" s="8"/>
+      <c r="M113" s="11"/>
+      <c r="N113" s="11"/>
+      <c r="O113" s="11"/>
+      <c r="P113" s="11"/>
       <c r="Q113" s="1"/>
-      <c r="R113" s="8" t="s">
+      <c r="R113" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="S113" s="8"/>
-      <c r="T113" s="8"/>
-      <c r="V113" s="21"/>
-      <c r="W113" s="21"/>
-      <c r="X113" s="21"/>
-      <c r="Y113" s="21"/>
-      <c r="Z113" s="21"/>
-    </row>
-    <row r="114" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="I114" s="5"/>
-      <c r="K114" s="6"/>
-      <c r="L114" s="8"/>
-      <c r="M114" s="8"/>
-      <c r="N114" s="8"/>
-      <c r="O114" s="8"/>
-      <c r="P114" s="8"/>
+      <c r="S113" s="11"/>
+      <c r="T113" s="11"/>
+      <c r="V113" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="W113" s="13"/>
+      <c r="X113" s="13"/>
+      <c r="Y113" s="13"/>
+      <c r="Z113" s="13"/>
+    </row>
+    <row r="114" spans="7:26" x14ac:dyDescent="0.45">
+      <c r="G114" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I114" s="12"/>
+      <c r="K114" s="9"/>
+      <c r="L114" s="11"/>
+      <c r="M114" s="11"/>
+      <c r="N114" s="11"/>
+      <c r="O114" s="11"/>
+      <c r="P114" s="11"/>
       <c r="Q114" s="1"/>
-      <c r="R114" s="8"/>
-      <c r="S114" s="8"/>
-      <c r="T114" s="8"/>
-      <c r="V114" s="21"/>
-      <c r="W114" s="21"/>
-      <c r="X114" s="21"/>
-      <c r="Y114" s="21"/>
-      <c r="Z114" s="21"/>
-    </row>
-    <row r="115" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G115" s="4" t="s">
+      <c r="R114" s="11"/>
+      <c r="S114" s="11"/>
+      <c r="T114" s="11"/>
+      <c r="V114" s="13"/>
+      <c r="W114" s="13"/>
+      <c r="X114" s="13"/>
+      <c r="Y114" s="13"/>
+      <c r="Z114" s="13"/>
+    </row>
+    <row r="115" spans="7:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G115" s="19" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="116" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G116" s="4"/>
-    </row>
-    <row r="117" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G117" s="4"/>
-      <c r="I117" s="5" t="s">
+    <row r="116" spans="7:26" x14ac:dyDescent="0.45">
+      <c r="G116" s="19"/>
+    </row>
+    <row r="117" spans="7:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G117" s="19"/>
+      <c r="I117" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="K117" s="6">
+      <c r="K117" s="9">
         <v>1</v>
       </c>
-      <c r="L117" s="7" t="s">
+      <c r="L117" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="M117" s="7"/>
-      <c r="N117" s="7"/>
-      <c r="O117" s="7"/>
-      <c r="P117" s="7"/>
+      <c r="M117" s="10"/>
+      <c r="N117" s="10"/>
+      <c r="O117" s="10"/>
+      <c r="P117" s="10"/>
       <c r="Q117" s="1"/>
-      <c r="R117" s="8" t="s">
+      <c r="R117" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="S117" s="8"/>
-      <c r="T117" s="8"/>
-      <c r="V117" s="21"/>
-      <c r="W117" s="21"/>
-      <c r="X117" s="21"/>
-      <c r="Y117" s="21"/>
-      <c r="Z117" s="21"/>
-    </row>
-    <row r="118" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G118" s="4"/>
-      <c r="I118" s="5"/>
-      <c r="K118" s="6"/>
-      <c r="L118" s="7"/>
-      <c r="M118" s="7"/>
-      <c r="N118" s="7"/>
-      <c r="O118" s="7"/>
-      <c r="P118" s="7"/>
+      <c r="S117" s="11"/>
+      <c r="T117" s="11"/>
+      <c r="V117" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="W117" s="8"/>
+      <c r="X117" s="8"/>
+      <c r="Y117" s="8"/>
+      <c r="Z117" s="8"/>
+    </row>
+    <row r="118" spans="7:26" x14ac:dyDescent="0.45">
+      <c r="G118" s="19"/>
+      <c r="I118" s="12"/>
+      <c r="K118" s="9"/>
+      <c r="L118" s="10"/>
+      <c r="M118" s="10"/>
+      <c r="N118" s="10"/>
+      <c r="O118" s="10"/>
+      <c r="P118" s="10"/>
       <c r="Q118" s="1"/>
-      <c r="R118" s="8"/>
-      <c r="S118" s="8"/>
-      <c r="T118" s="8"/>
-      <c r="V118" s="21"/>
-      <c r="W118" s="21"/>
-      <c r="X118" s="21"/>
-      <c r="Y118" s="21"/>
-      <c r="Z118" s="21"/>
-    </row>
-    <row r="119" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="I119" s="5"/>
-    </row>
-    <row r="120" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="I120" s="5"/>
-      <c r="K120" s="6">
+      <c r="R118" s="11"/>
+      <c r="S118" s="11"/>
+      <c r="T118" s="11"/>
+      <c r="V118" s="8"/>
+      <c r="W118" s="8"/>
+      <c r="X118" s="8"/>
+      <c r="Y118" s="8"/>
+      <c r="Z118" s="8"/>
+    </row>
+    <row r="119" spans="7:26" x14ac:dyDescent="0.45">
+      <c r="I119" s="12"/>
+    </row>
+    <row r="120" spans="7:26" x14ac:dyDescent="0.45">
+      <c r="I120" s="12"/>
+      <c r="K120" s="9">
         <v>2</v>
       </c>
-      <c r="L120" s="7" t="s">
+      <c r="L120" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="M120" s="7"/>
-      <c r="N120" s="7"/>
-      <c r="O120" s="7"/>
-      <c r="P120" s="7"/>
+      <c r="M120" s="10"/>
+      <c r="N120" s="10"/>
+      <c r="O120" s="10"/>
+      <c r="P120" s="10"/>
       <c r="Q120" s="1"/>
-      <c r="R120" s="8" t="s">
+      <c r="R120" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="S120" s="8"/>
-      <c r="T120" s="8"/>
-      <c r="V120" s="21"/>
-      <c r="W120" s="21"/>
-      <c r="X120" s="21"/>
-      <c r="Y120" s="21"/>
-      <c r="Z120" s="21"/>
-    </row>
-    <row r="121" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="I121" s="5"/>
-      <c r="K121" s="6"/>
-      <c r="L121" s="7"/>
-      <c r="M121" s="7"/>
-      <c r="N121" s="7"/>
-      <c r="O121" s="7"/>
-      <c r="P121" s="7"/>
+      <c r="S120" s="11"/>
+      <c r="T120" s="11"/>
+      <c r="V120" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="W120" s="8"/>
+      <c r="X120" s="8"/>
+      <c r="Y120" s="8"/>
+      <c r="Z120" s="8"/>
+    </row>
+    <row r="121" spans="7:26" x14ac:dyDescent="0.45">
+      <c r="I121" s="12"/>
+      <c r="K121" s="9"/>
+      <c r="L121" s="10"/>
+      <c r="M121" s="10"/>
+      <c r="N121" s="10"/>
+      <c r="O121" s="10"/>
+      <c r="P121" s="10"/>
       <c r="Q121" s="1"/>
-      <c r="R121" s="8"/>
-      <c r="S121" s="8"/>
-      <c r="T121" s="8"/>
-      <c r="V121" s="21"/>
-      <c r="W121" s="21"/>
-      <c r="X121" s="21"/>
-      <c r="Y121" s="21"/>
-      <c r="Z121" s="21"/>
+      <c r="R121" s="11"/>
+      <c r="S121" s="11"/>
+      <c r="T121" s="11"/>
+      <c r="V121" s="8"/>
+      <c r="W121" s="8"/>
+      <c r="X121" s="8"/>
+      <c r="Y121" s="8"/>
+      <c r="Z121" s="8"/>
+    </row>
+    <row r="122" spans="7:26" x14ac:dyDescent="0.45">
+      <c r="I122" s="12"/>
+    </row>
+    <row r="123" spans="7:26" x14ac:dyDescent="0.45">
+      <c r="I123" s="12"/>
+      <c r="K123" s="9">
+        <v>3</v>
+      </c>
+      <c r="L123" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c r="N123" s="10"/>
+      <c r="O123" s="10"/>
+      <c r="P123" s="10"/>
+      <c r="Q123" s="1"/>
+      <c r="R123" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="S123" s="11"/>
+      <c r="T123" s="11"/>
+      <c r="V123" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="W123" s="8"/>
+      <c r="X123" s="8"/>
+      <c r="Y123" s="8"/>
+      <c r="Z123" s="8"/>
+    </row>
+    <row r="124" spans="7:26" x14ac:dyDescent="0.45">
+      <c r="I124" s="12"/>
+      <c r="K124" s="9"/>
+      <c r="L124" s="10"/>
+      <c r="M124" s="10"/>
+      <c r="N124" s="10"/>
+      <c r="O124" s="10"/>
+      <c r="P124" s="10"/>
+      <c r="Q124" s="1"/>
+      <c r="R124" s="11"/>
+      <c r="S124" s="11"/>
+      <c r="T124" s="11"/>
+      <c r="V124" s="8"/>
+      <c r="W124" s="8"/>
+      <c r="X124" s="8"/>
+      <c r="Y124" s="8"/>
+      <c r="Z124" s="8"/>
+    </row>
+    <row r="125" spans="7:26" x14ac:dyDescent="0.45">
+      <c r="I125" s="12"/>
+    </row>
+    <row r="126" spans="7:26" x14ac:dyDescent="0.45">
+      <c r="I126" s="12"/>
+      <c r="K126" s="9">
+        <v>4</v>
+      </c>
+      <c r="L126" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="M126" s="10"/>
+      <c r="N126" s="10"/>
+      <c r="O126" s="10"/>
+      <c r="P126" s="10"/>
+      <c r="Q126" s="1"/>
+      <c r="R126" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="S126" s="11"/>
+      <c r="T126" s="11"/>
+      <c r="V126" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="W126" s="8"/>
+      <c r="X126" s="8"/>
+      <c r="Y126" s="8"/>
+      <c r="Z126" s="8"/>
+    </row>
+    <row r="127" spans="7:26" x14ac:dyDescent="0.45">
+      <c r="I127" s="12"/>
+      <c r="K127" s="9"/>
+      <c r="L127" s="10"/>
+      <c r="M127" s="10"/>
+      <c r="N127" s="10"/>
+      <c r="O127" s="10"/>
+      <c r="P127" s="10"/>
+      <c r="Q127" s="1"/>
+      <c r="R127" s="11"/>
+      <c r="S127" s="11"/>
+      <c r="T127" s="11"/>
+      <c r="V127" s="8"/>
+      <c r="W127" s="8"/>
+      <c r="X127" s="8"/>
+      <c r="Y127" s="8"/>
+      <c r="Z127" s="8"/>
+    </row>
+    <row r="128" spans="7:26" x14ac:dyDescent="0.45">
+      <c r="I128" s="12"/>
+    </row>
+    <row r="129" spans="7:26" x14ac:dyDescent="0.45">
+      <c r="I129" s="12"/>
+      <c r="K129" s="9">
+        <v>5</v>
+      </c>
+      <c r="L129" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="M129" s="10"/>
+      <c r="N129" s="10"/>
+      <c r="O129" s="10"/>
+      <c r="P129" s="10"/>
+      <c r="Q129" s="1"/>
+      <c r="R129" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="S129" s="11"/>
+      <c r="T129" s="11"/>
+      <c r="V129" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="W129" s="8"/>
+      <c r="X129" s="8"/>
+      <c r="Y129" s="8"/>
+      <c r="Z129" s="8"/>
+    </row>
+    <row r="130" spans="7:26" x14ac:dyDescent="0.45">
+      <c r="I130" s="12"/>
+      <c r="K130" s="9"/>
+      <c r="L130" s="10"/>
+      <c r="M130" s="10"/>
+      <c r="N130" s="10"/>
+      <c r="O130" s="10"/>
+      <c r="P130" s="10"/>
+      <c r="Q130" s="1"/>
+      <c r="R130" s="11"/>
+      <c r="S130" s="11"/>
+      <c r="T130" s="11"/>
+      <c r="V130" s="8"/>
+      <c r="W130" s="8"/>
+      <c r="X130" s="8"/>
+      <c r="Y130" s="8"/>
+      <c r="Z130" s="8"/>
+    </row>
+    <row r="132" spans="7:26" x14ac:dyDescent="0.45">
+      <c r="G132" s="3"/>
+      <c r="H132" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="I132" s="16"/>
+      <c r="J132" s="16"/>
+      <c r="K132" s="16"/>
+      <c r="L132" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="M132" s="15"/>
+      <c r="N132" s="15"/>
+      <c r="O132" s="15"/>
+      <c r="P132" s="15"/>
+      <c r="Q132" s="1"/>
+      <c r="R132" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="S132" s="15"/>
+      <c r="T132" s="15"/>
+      <c r="V132" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="W132" s="15"/>
+      <c r="X132" s="15"/>
+      <c r="Y132" s="15"/>
+      <c r="Z132" s="15"/>
+    </row>
+    <row r="133" spans="7:26" x14ac:dyDescent="0.45">
+      <c r="G133" s="3"/>
+      <c r="H133" s="16"/>
+      <c r="I133" s="16"/>
+      <c r="J133" s="16"/>
+      <c r="K133" s="16"/>
+      <c r="L133" s="15"/>
+      <c r="M133" s="15"/>
+      <c r="N133" s="15"/>
+      <c r="O133" s="15"/>
+      <c r="P133" s="15"/>
+      <c r="Q133" s="1"/>
+      <c r="R133" s="15"/>
+      <c r="S133" s="15"/>
+      <c r="T133" s="15"/>
+      <c r="V133" s="15"/>
+      <c r="W133" s="15"/>
+      <c r="X133" s="15"/>
+      <c r="Y133" s="15"/>
+      <c r="Z133" s="15"/>
+    </row>
+    <row r="136" spans="7:26" x14ac:dyDescent="0.45">
+      <c r="I136" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K136" s="9">
+        <v>1</v>
+      </c>
+      <c r="L136" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="M136" s="10"/>
+      <c r="N136" s="10"/>
+      <c r="O136" s="10"/>
+      <c r="P136" s="10"/>
+      <c r="Q136" s="1"/>
+      <c r="R136" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="S136" s="11"/>
+      <c r="T136" s="11"/>
+      <c r="V136" s="28"/>
+      <c r="W136" s="28"/>
+      <c r="X136" s="28"/>
+      <c r="Y136" s="28"/>
+      <c r="Z136" s="28"/>
+    </row>
+    <row r="137" spans="7:26" x14ac:dyDescent="0.45">
+      <c r="I137" s="12"/>
+      <c r="K137" s="9"/>
+      <c r="L137" s="10"/>
+      <c r="M137" s="10"/>
+      <c r="N137" s="10"/>
+      <c r="O137" s="10"/>
+      <c r="P137" s="10"/>
+      <c r="Q137" s="1"/>
+      <c r="R137" s="11"/>
+      <c r="S137" s="11"/>
+      <c r="T137" s="11"/>
+      <c r="V137" s="28"/>
+      <c r="W137" s="28"/>
+      <c r="X137" s="28"/>
+      <c r="Y137" s="28"/>
+      <c r="Z137" s="28"/>
+    </row>
+    <row r="138" spans="7:26" x14ac:dyDescent="0.45">
+      <c r="I138" s="12"/>
+    </row>
+    <row r="139" spans="7:26" x14ac:dyDescent="0.45">
+      <c r="I139" s="12"/>
+      <c r="K139" s="9">
+        <v>2</v>
+      </c>
+      <c r="L139" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="M139" s="11"/>
+      <c r="N139" s="11"/>
+      <c r="O139" s="11"/>
+      <c r="P139" s="11"/>
+      <c r="Q139" s="1"/>
+      <c r="R139" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="S139" s="11"/>
+      <c r="T139" s="11"/>
+    </row>
+    <row r="140" spans="7:26" x14ac:dyDescent="0.45">
+      <c r="I140" s="12"/>
+      <c r="K140" s="9"/>
+      <c r="L140" s="11"/>
+      <c r="M140" s="11"/>
+      <c r="N140" s="11"/>
+      <c r="O140" s="11"/>
+      <c r="P140" s="11"/>
+      <c r="Q140" s="1"/>
+      <c r="R140" s="11"/>
+      <c r="S140" s="11"/>
+      <c r="T140" s="11"/>
+    </row>
+    <row r="141" spans="7:26" x14ac:dyDescent="0.45">
+      <c r="I141" s="12"/>
+    </row>
+    <row r="142" spans="7:26" x14ac:dyDescent="0.45">
+      <c r="I142" s="12"/>
+      <c r="K142" s="9">
+        <v>3</v>
+      </c>
+      <c r="L142" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="M142" s="11"/>
+      <c r="N142" s="11"/>
+      <c r="O142" s="11"/>
+      <c r="P142" s="11"/>
+      <c r="Q142" s="1"/>
+      <c r="R142" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="S142" s="11"/>
+      <c r="T142" s="11"/>
+    </row>
+    <row r="143" spans="7:26" x14ac:dyDescent="0.45">
+      <c r="I143" s="12"/>
+      <c r="K143" s="9"/>
+      <c r="L143" s="11"/>
+      <c r="M143" s="11"/>
+      <c r="N143" s="11"/>
+      <c r="O143" s="11"/>
+      <c r="P143" s="11"/>
+      <c r="Q143" s="1"/>
+      <c r="R143" s="11"/>
+      <c r="S143" s="11"/>
+      <c r="T143" s="11"/>
+    </row>
+    <row r="144" spans="7:26" x14ac:dyDescent="0.45">
+      <c r="I144" s="12"/>
+    </row>
+    <row r="145" spans="7:26" x14ac:dyDescent="0.45">
+      <c r="I145" s="12"/>
+      <c r="K145" s="9">
+        <v>4</v>
+      </c>
+      <c r="L145" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="M145" s="11"/>
+      <c r="N145" s="11"/>
+      <c r="O145" s="11"/>
+      <c r="P145" s="11"/>
+      <c r="Q145" s="1"/>
+      <c r="R145" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="S145" s="11"/>
+      <c r="T145" s="11"/>
+    </row>
+    <row r="146" spans="7:26" x14ac:dyDescent="0.45">
+      <c r="I146" s="12"/>
+      <c r="K146" s="9"/>
+      <c r="L146" s="11"/>
+      <c r="M146" s="11"/>
+      <c r="N146" s="11"/>
+      <c r="O146" s="11"/>
+      <c r="P146" s="11"/>
+      <c r="Q146" s="1"/>
+      <c r="R146" s="11"/>
+      <c r="S146" s="11"/>
+      <c r="T146" s="11"/>
+    </row>
+    <row r="147" spans="7:26" x14ac:dyDescent="0.45">
+      <c r="I147" s="12"/>
+    </row>
+    <row r="148" spans="7:26" x14ac:dyDescent="0.45">
+      <c r="I148" s="12"/>
+      <c r="K148" s="9">
+        <v>5</v>
+      </c>
+      <c r="L148" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="M148" s="11"/>
+      <c r="N148" s="11"/>
+      <c r="O148" s="11"/>
+      <c r="P148" s="11"/>
+      <c r="Q148" s="1"/>
+      <c r="R148" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="S148" s="11"/>
+      <c r="T148" s="11"/>
+    </row>
+    <row r="149" spans="7:26" x14ac:dyDescent="0.45">
+      <c r="I149" s="12"/>
+      <c r="K149" s="9"/>
+      <c r="L149" s="11"/>
+      <c r="M149" s="11"/>
+      <c r="N149" s="11"/>
+      <c r="O149" s="11"/>
+      <c r="P149" s="11"/>
+      <c r="Q149" s="1"/>
+      <c r="R149" s="11"/>
+      <c r="S149" s="11"/>
+      <c r="T149" s="11"/>
+    </row>
+    <row r="150" spans="7:26" x14ac:dyDescent="0.45">
+      <c r="G150" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="151" spans="7:26" x14ac:dyDescent="0.45">
+      <c r="G151" s="12"/>
+    </row>
+    <row r="152" spans="7:26" x14ac:dyDescent="0.45">
+      <c r="G152" s="12"/>
+      <c r="I152" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K152" s="9">
+        <v>1</v>
+      </c>
+      <c r="L152" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="M152" s="10"/>
+      <c r="N152" s="10"/>
+      <c r="O152" s="10"/>
+      <c r="P152" s="10"/>
+      <c r="Q152" s="1"/>
+      <c r="R152" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="S152" s="11"/>
+      <c r="T152" s="11"/>
+      <c r="V152" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="W152" s="8"/>
+      <c r="X152" s="8"/>
+      <c r="Y152" s="8"/>
+      <c r="Z152" s="8"/>
+    </row>
+    <row r="153" spans="7:26" x14ac:dyDescent="0.45">
+      <c r="G153" s="12"/>
+      <c r="I153" s="12"/>
+      <c r="K153" s="9"/>
+      <c r="L153" s="10"/>
+      <c r="M153" s="10"/>
+      <c r="N153" s="10"/>
+      <c r="O153" s="10"/>
+      <c r="P153" s="10"/>
+      <c r="Q153" s="1"/>
+      <c r="R153" s="11"/>
+      <c r="S153" s="11"/>
+      <c r="T153" s="11"/>
+      <c r="V153" s="8"/>
+      <c r="W153" s="8"/>
+      <c r="X153" s="8"/>
+      <c r="Y153" s="8"/>
+      <c r="Z153" s="8"/>
+    </row>
+    <row r="154" spans="7:26" x14ac:dyDescent="0.45">
+      <c r="I154" s="12"/>
+    </row>
+    <row r="155" spans="7:26" x14ac:dyDescent="0.45">
+      <c r="I155" s="12"/>
+      <c r="K155" s="9">
+        <v>2</v>
+      </c>
+      <c r="L155" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="M155" s="10"/>
+      <c r="N155" s="10"/>
+      <c r="O155" s="10"/>
+      <c r="P155" s="10"/>
+      <c r="Q155" s="1"/>
+      <c r="R155" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="S155" s="11"/>
+      <c r="T155" s="11"/>
+      <c r="V155" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="W155" s="8"/>
+      <c r="X155" s="8"/>
+      <c r="Y155" s="8"/>
+      <c r="Z155" s="8"/>
+    </row>
+    <row r="156" spans="7:26" x14ac:dyDescent="0.45">
+      <c r="I156" s="12"/>
+      <c r="K156" s="9"/>
+      <c r="L156" s="10"/>
+      <c r="M156" s="10"/>
+      <c r="N156" s="10"/>
+      <c r="O156" s="10"/>
+      <c r="P156" s="10"/>
+      <c r="Q156" s="1"/>
+      <c r="R156" s="11"/>
+      <c r="S156" s="11"/>
+      <c r="T156" s="11"/>
+      <c r="V156" s="8"/>
+      <c r="W156" s="8"/>
+      <c r="X156" s="8"/>
+      <c r="Y156" s="8"/>
+      <c r="Z156" s="8"/>
+    </row>
+    <row r="157" spans="7:26" x14ac:dyDescent="0.45">
+      <c r="I157" s="12"/>
+    </row>
+    <row r="158" spans="7:26" x14ac:dyDescent="0.45">
+      <c r="I158" s="12"/>
+      <c r="K158" s="9">
+        <v>3</v>
+      </c>
+      <c r="L158" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="M158" s="10"/>
+      <c r="N158" s="10"/>
+      <c r="O158" s="10"/>
+      <c r="P158" s="10"/>
+      <c r="Q158" s="1"/>
+      <c r="R158" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="S158" s="11"/>
+      <c r="T158" s="11"/>
+    </row>
+    <row r="159" spans="7:26" x14ac:dyDescent="0.45">
+      <c r="I159" s="12"/>
+      <c r="K159" s="9"/>
+      <c r="L159" s="10"/>
+      <c r="M159" s="10"/>
+      <c r="N159" s="10"/>
+      <c r="O159" s="10"/>
+      <c r="P159" s="10"/>
+      <c r="Q159" s="1"/>
+      <c r="R159" s="11"/>
+      <c r="S159" s="11"/>
+      <c r="T159" s="11"/>
+    </row>
+    <row r="160" spans="7:26" x14ac:dyDescent="0.45">
+      <c r="I160" s="12"/>
+    </row>
+    <row r="161" spans="9:20" x14ac:dyDescent="0.45">
+      <c r="I161" s="12"/>
+      <c r="K161" s="28"/>
+      <c r="L161" s="28"/>
+      <c r="M161" s="28"/>
+      <c r="N161" s="28"/>
+      <c r="O161" s="28"/>
+      <c r="P161" s="28"/>
+      <c r="R161" s="28"/>
+      <c r="S161" s="28"/>
+      <c r="T161" s="28"/>
+    </row>
+    <row r="162" spans="9:20" x14ac:dyDescent="0.45">
+      <c r="I162" s="12"/>
+      <c r="K162" s="28"/>
+      <c r="L162" s="28"/>
+      <c r="M162" s="28"/>
+      <c r="N162" s="28"/>
+      <c r="O162" s="28"/>
+      <c r="P162" s="28"/>
+      <c r="R162" s="28"/>
+      <c r="S162" s="28"/>
+      <c r="T162" s="28"/>
+    </row>
+    <row r="163" spans="9:20" x14ac:dyDescent="0.45">
+      <c r="I163" s="12"/>
+    </row>
+    <row r="164" spans="9:20" x14ac:dyDescent="0.45">
+      <c r="I164" s="12"/>
+      <c r="K164" s="28"/>
+      <c r="L164" s="28"/>
+      <c r="M164" s="28"/>
+      <c r="N164" s="28"/>
+      <c r="O164" s="28"/>
+      <c r="P164" s="28"/>
+      <c r="R164" s="28"/>
+      <c r="S164" s="28"/>
+      <c r="T164" s="28"/>
+    </row>
+    <row r="165" spans="9:20" x14ac:dyDescent="0.45">
+      <c r="I165" s="12"/>
+      <c r="K165" s="28"/>
+      <c r="L165" s="28"/>
+      <c r="M165" s="28"/>
+      <c r="N165" s="28"/>
+      <c r="O165" s="28"/>
+      <c r="P165" s="28"/>
+      <c r="R165" s="28"/>
+      <c r="S165" s="28"/>
+      <c r="T165" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="143">
-    <mergeCell ref="G115:G118"/>
-    <mergeCell ref="K113:K114"/>
-    <mergeCell ref="L113:P114"/>
-    <mergeCell ref="R113:T114"/>
-    <mergeCell ref="I117:I121"/>
-    <mergeCell ref="K117:K118"/>
-    <mergeCell ref="L117:P118"/>
-    <mergeCell ref="R117:T118"/>
-    <mergeCell ref="K120:K121"/>
-    <mergeCell ref="L120:P121"/>
-    <mergeCell ref="R120:T121"/>
+  <mergeCells count="195">
+    <mergeCell ref="V123:Z124"/>
+    <mergeCell ref="V155:Z156"/>
+    <mergeCell ref="V152:Z153"/>
+    <mergeCell ref="G150:G153"/>
+    <mergeCell ref="I152:I165"/>
+    <mergeCell ref="K152:K153"/>
+    <mergeCell ref="L152:P153"/>
+    <mergeCell ref="R152:T153"/>
+    <mergeCell ref="K155:K156"/>
+    <mergeCell ref="L155:P156"/>
+    <mergeCell ref="R155:T156"/>
+    <mergeCell ref="K158:K159"/>
+    <mergeCell ref="L158:P159"/>
+    <mergeCell ref="R158:T159"/>
+    <mergeCell ref="I136:I149"/>
+    <mergeCell ref="K136:K137"/>
+    <mergeCell ref="L136:P137"/>
+    <mergeCell ref="R136:T137"/>
+    <mergeCell ref="K139:K140"/>
+    <mergeCell ref="L139:P140"/>
+    <mergeCell ref="R139:T140"/>
+    <mergeCell ref="K142:K143"/>
+    <mergeCell ref="L142:P143"/>
+    <mergeCell ref="R142:T143"/>
+    <mergeCell ref="K145:K146"/>
+    <mergeCell ref="L145:P146"/>
+    <mergeCell ref="R145:T146"/>
+    <mergeCell ref="K148:K149"/>
+    <mergeCell ref="L148:P149"/>
+    <mergeCell ref="R148:T149"/>
+    <mergeCell ref="I117:I130"/>
+    <mergeCell ref="V101:Z102"/>
+    <mergeCell ref="V104:Z105"/>
+    <mergeCell ref="V107:Z108"/>
+    <mergeCell ref="V110:Z111"/>
+    <mergeCell ref="V113:Z114"/>
+    <mergeCell ref="H132:K133"/>
+    <mergeCell ref="L132:P133"/>
+    <mergeCell ref="R132:T133"/>
+    <mergeCell ref="V132:Z133"/>
+    <mergeCell ref="L81:P82"/>
+    <mergeCell ref="R81:T82"/>
+    <mergeCell ref="K84:K85"/>
+    <mergeCell ref="L84:P85"/>
+    <mergeCell ref="R84:T85"/>
+    <mergeCell ref="I91:I95"/>
+    <mergeCell ref="K87:K88"/>
+    <mergeCell ref="K94:K95"/>
+    <mergeCell ref="V117:Z118"/>
+    <mergeCell ref="I75:I88"/>
+    <mergeCell ref="K78:K79"/>
+    <mergeCell ref="K81:K82"/>
+    <mergeCell ref="K75:K76"/>
+    <mergeCell ref="L75:P76"/>
+    <mergeCell ref="R75:T76"/>
+    <mergeCell ref="H97:K98"/>
+    <mergeCell ref="L97:P98"/>
+    <mergeCell ref="R97:T98"/>
+    <mergeCell ref="V97:Z98"/>
     <mergeCell ref="K104:K105"/>
     <mergeCell ref="L104:P105"/>
     <mergeCell ref="R104:T105"/>
     <mergeCell ref="K107:K108"/>
-    <mergeCell ref="L107:P108"/>
-    <mergeCell ref="R107:T108"/>
-    <mergeCell ref="V75:Z76"/>
-    <mergeCell ref="V78:Z79"/>
-    <mergeCell ref="V81:Z82"/>
-    <mergeCell ref="V84:Z85"/>
-    <mergeCell ref="V87:Z88"/>
-    <mergeCell ref="V91:Z92"/>
-    <mergeCell ref="V94:Z95"/>
-    <mergeCell ref="I91:I95"/>
-    <mergeCell ref="H97:K98"/>
-    <mergeCell ref="L97:P98"/>
-    <mergeCell ref="R97:T98"/>
-    <mergeCell ref="V97:Z98"/>
+    <mergeCell ref="H68:Z69"/>
+    <mergeCell ref="H71:K72"/>
+    <mergeCell ref="L71:P72"/>
+    <mergeCell ref="R71:T72"/>
+    <mergeCell ref="V71:Z72"/>
+    <mergeCell ref="L65:P66"/>
+    <mergeCell ref="R65:T66"/>
+    <mergeCell ref="V65:Z66"/>
+    <mergeCell ref="H56:Z57"/>
+    <mergeCell ref="H59:K60"/>
+    <mergeCell ref="H62:Z63"/>
+    <mergeCell ref="H65:K66"/>
+    <mergeCell ref="L59:P60"/>
+    <mergeCell ref="R59:T60"/>
+    <mergeCell ref="V59:Z60"/>
+    <mergeCell ref="H53:K54"/>
+    <mergeCell ref="L53:P54"/>
+    <mergeCell ref="R53:T54"/>
+    <mergeCell ref="V53:Z54"/>
+    <mergeCell ref="V35:Z36"/>
+    <mergeCell ref="L38:P39"/>
+    <mergeCell ref="R38:T39"/>
+    <mergeCell ref="V38:Z39"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="L41:P42"/>
+    <mergeCell ref="R41:T42"/>
+    <mergeCell ref="V41:Z42"/>
+    <mergeCell ref="H38:K39"/>
+    <mergeCell ref="V50:Z51"/>
+    <mergeCell ref="V44:Z45"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="V29:Z30"/>
+    <mergeCell ref="V32:Z33"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="L35:P36"/>
+    <mergeCell ref="R35:T36"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="L29:P30"/>
+    <mergeCell ref="R29:T30"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="L32:P33"/>
+    <mergeCell ref="R32:T33"/>
+    <mergeCell ref="V26:Z27"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:P18"/>
+    <mergeCell ref="R17:T18"/>
+    <mergeCell ref="V17:Z18"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:P21"/>
+    <mergeCell ref="R20:T21"/>
+    <mergeCell ref="V20:Z21"/>
     <mergeCell ref="H2:Z3"/>
     <mergeCell ref="R5:T6"/>
     <mergeCell ref="V5:Z6"/>
@@ -3675,87 +4402,54 @@
     <mergeCell ref="K26:K27"/>
     <mergeCell ref="L26:P27"/>
     <mergeCell ref="R26:T27"/>
-    <mergeCell ref="V26:Z27"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="L17:P18"/>
-    <mergeCell ref="R17:T18"/>
-    <mergeCell ref="V17:Z18"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:P21"/>
-    <mergeCell ref="R20:T21"/>
-    <mergeCell ref="V20:Z21"/>
-    <mergeCell ref="V29:Z30"/>
-    <mergeCell ref="V32:Z33"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="L35:P36"/>
-    <mergeCell ref="R35:T36"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="L29:P30"/>
-    <mergeCell ref="R29:T30"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="L32:P33"/>
-    <mergeCell ref="R32:T33"/>
-    <mergeCell ref="H53:K54"/>
-    <mergeCell ref="L53:P54"/>
-    <mergeCell ref="R53:T54"/>
-    <mergeCell ref="V53:Z54"/>
-    <mergeCell ref="V35:Z36"/>
-    <mergeCell ref="L38:P39"/>
-    <mergeCell ref="R38:T39"/>
-    <mergeCell ref="V38:Z39"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="L41:P42"/>
-    <mergeCell ref="R41:T42"/>
-    <mergeCell ref="V41:Z42"/>
-    <mergeCell ref="H38:K39"/>
-    <mergeCell ref="V50:Z51"/>
-    <mergeCell ref="V44:Z45"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="H68:Z69"/>
-    <mergeCell ref="H71:K72"/>
-    <mergeCell ref="L71:P72"/>
-    <mergeCell ref="R71:T72"/>
-    <mergeCell ref="V71:Z72"/>
-    <mergeCell ref="L65:P66"/>
-    <mergeCell ref="R65:T66"/>
-    <mergeCell ref="V65:Z66"/>
-    <mergeCell ref="H56:Z57"/>
-    <mergeCell ref="H59:K60"/>
-    <mergeCell ref="H62:Z63"/>
-    <mergeCell ref="H65:K66"/>
-    <mergeCell ref="L59:P60"/>
-    <mergeCell ref="R59:T60"/>
-    <mergeCell ref="V59:Z60"/>
+    <mergeCell ref="G115:G118"/>
+    <mergeCell ref="K113:K114"/>
+    <mergeCell ref="L113:P114"/>
+    <mergeCell ref="R113:T114"/>
+    <mergeCell ref="K117:K118"/>
+    <mergeCell ref="L117:P118"/>
+    <mergeCell ref="R117:T118"/>
+    <mergeCell ref="V75:Z76"/>
+    <mergeCell ref="V78:Z79"/>
+    <mergeCell ref="V81:Z82"/>
+    <mergeCell ref="V84:Z85"/>
+    <mergeCell ref="V87:Z88"/>
+    <mergeCell ref="V91:Z92"/>
+    <mergeCell ref="V94:Z95"/>
     <mergeCell ref="L78:P79"/>
     <mergeCell ref="R78:T79"/>
-    <mergeCell ref="K87:K88"/>
     <mergeCell ref="L87:P88"/>
     <mergeCell ref="R87:T88"/>
-    <mergeCell ref="I75:I88"/>
-    <mergeCell ref="K78:K79"/>
-    <mergeCell ref="K81:K82"/>
-    <mergeCell ref="K75:K76"/>
-    <mergeCell ref="L75:P76"/>
-    <mergeCell ref="R75:T76"/>
+    <mergeCell ref="L94:P95"/>
+    <mergeCell ref="R94:T95"/>
     <mergeCell ref="G88:G91"/>
     <mergeCell ref="K91:K92"/>
     <mergeCell ref="L91:P92"/>
     <mergeCell ref="R91:T92"/>
-    <mergeCell ref="L81:P82"/>
-    <mergeCell ref="R81:T82"/>
-    <mergeCell ref="K84:K85"/>
-    <mergeCell ref="L84:P85"/>
-    <mergeCell ref="R84:T85"/>
-    <mergeCell ref="K94:K95"/>
-    <mergeCell ref="L94:P95"/>
-    <mergeCell ref="R94:T95"/>
+    <mergeCell ref="V126:Z127"/>
+    <mergeCell ref="V129:Z130"/>
+    <mergeCell ref="V120:Z121"/>
+    <mergeCell ref="K120:K121"/>
+    <mergeCell ref="L120:P121"/>
+    <mergeCell ref="R120:T121"/>
     <mergeCell ref="I101:I114"/>
+    <mergeCell ref="K110:K111"/>
+    <mergeCell ref="L110:P111"/>
+    <mergeCell ref="R110:T111"/>
+    <mergeCell ref="K129:K130"/>
+    <mergeCell ref="L129:P130"/>
+    <mergeCell ref="R129:T130"/>
     <mergeCell ref="K101:K102"/>
     <mergeCell ref="L101:P102"/>
     <mergeCell ref="R101:T102"/>
-    <mergeCell ref="K110:K111"/>
-    <mergeCell ref="L110:P111"/>
-    <mergeCell ref="R110:T111"/>
+    <mergeCell ref="K123:K124"/>
+    <mergeCell ref="L123:P124"/>
+    <mergeCell ref="R123:T124"/>
+    <mergeCell ref="K126:K127"/>
+    <mergeCell ref="L126:P127"/>
+    <mergeCell ref="R126:T127"/>
+    <mergeCell ref="L107:P108"/>
+    <mergeCell ref="R107:T108"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3763,270 +4457,501 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C6280AF-F913-4213-90F7-5D60D9FFA09E}">
-  <dimension ref="F2:Y24"/>
+  <dimension ref="F2:Y30"/>
   <sheetViews>
-    <sheetView topLeftCell="C5" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23:F24"/>
+    <sheetView topLeftCell="E7" workbookViewId="0">
+      <selection activeCell="R29" sqref="R29:Y30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="6:25" x14ac:dyDescent="0.25">
-      <c r="H2" s="17" t="s">
+    <row r="2" spans="6:25" x14ac:dyDescent="0.45">
+      <c r="H2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="R2" s="17" t="s">
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="R2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-    </row>
-    <row r="3" spans="6:25" x14ac:dyDescent="0.25">
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="17"/>
-    </row>
-    <row r="5" spans="6:25" x14ac:dyDescent="0.25">
-      <c r="F5" s="16">
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+    </row>
+    <row r="3" spans="6:25" x14ac:dyDescent="0.45">
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
+    </row>
+    <row r="5" spans="6:25" x14ac:dyDescent="0.45">
+      <c r="F5" s="21">
         <v>1</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-    </row>
-    <row r="6" spans="6:25" x14ac:dyDescent="0.25">
-      <c r="F6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-    </row>
-    <row r="8" spans="6:25" x14ac:dyDescent="0.25">
-      <c r="F8" s="16">
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="R5" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
+      <c r="V5" s="30"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="30"/>
+      <c r="Y5" s="30"/>
+    </row>
+    <row r="6" spans="6:25" x14ac:dyDescent="0.45">
+      <c r="F6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="30"/>
+    </row>
+    <row r="8" spans="6:25" x14ac:dyDescent="0.45">
+      <c r="F8" s="21">
         <v>2</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-    </row>
-    <row r="9" spans="6:25" x14ac:dyDescent="0.25">
-      <c r="F9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-    </row>
-    <row r="11" spans="6:25" x14ac:dyDescent="0.25">
-      <c r="F11" s="16">
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="R8" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="27"/>
+      <c r="V8" s="27"/>
+      <c r="W8" s="27"/>
+      <c r="X8" s="27"/>
+      <c r="Y8" s="27"/>
+    </row>
+    <row r="9" spans="6:25" x14ac:dyDescent="0.45">
+      <c r="F9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="27"/>
+      <c r="W9" s="27"/>
+      <c r="X9" s="27"/>
+      <c r="Y9" s="27"/>
+    </row>
+    <row r="11" spans="6:25" x14ac:dyDescent="0.45">
+      <c r="F11" s="21">
         <v>3</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="H11" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-    </row>
-    <row r="12" spans="6:25" x14ac:dyDescent="0.25">
-      <c r="F12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-    </row>
-    <row r="14" spans="6:25" x14ac:dyDescent="0.25">
-      <c r="F14" s="16">
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="R11" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27"/>
+      <c r="W11" s="27"/>
+      <c r="X11" s="27"/>
+      <c r="Y11" s="27"/>
+    </row>
+    <row r="12" spans="6:25" x14ac:dyDescent="0.45">
+      <c r="F12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="27"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="27"/>
+      <c r="V12" s="27"/>
+      <c r="W12" s="27"/>
+      <c r="X12" s="27"/>
+      <c r="Y12" s="27"/>
+    </row>
+    <row r="14" spans="6:25" x14ac:dyDescent="0.45">
+      <c r="F14" s="21">
         <v>4</v>
       </c>
-      <c r="H14" s="16" t="s">
+      <c r="H14" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-    </row>
-    <row r="15" spans="6:25" x14ac:dyDescent="0.25">
-      <c r="F15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-    </row>
-    <row r="17" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F17" s="16">
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="R14" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="S14" s="27"/>
+      <c r="T14" s="27"/>
+      <c r="U14" s="27"/>
+      <c r="V14" s="27"/>
+      <c r="W14" s="27"/>
+      <c r="X14" s="27"/>
+      <c r="Y14" s="27"/>
+    </row>
+    <row r="15" spans="6:25" x14ac:dyDescent="0.45">
+      <c r="F15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="27"/>
+      <c r="V15" s="27"/>
+      <c r="W15" s="27"/>
+      <c r="X15" s="27"/>
+      <c r="Y15" s="27"/>
+    </row>
+    <row r="17" spans="6:25" x14ac:dyDescent="0.45">
+      <c r="F17" s="21">
         <v>5</v>
       </c>
-      <c r="H17" s="16" t="s">
+      <c r="H17" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
-    </row>
-    <row r="18" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-    </row>
-    <row r="20" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F20" s="16">
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="R17" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="13"/>
+    </row>
+    <row r="18" spans="6:25" x14ac:dyDescent="0.45">
+      <c r="F18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="13"/>
+    </row>
+    <row r="20" spans="6:25" x14ac:dyDescent="0.45">
+      <c r="F20" s="21">
         <v>6</v>
       </c>
-      <c r="H20" s="16" t="s">
+      <c r="H20" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-    </row>
-    <row r="21" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-    </row>
-    <row r="23" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F23" s="16">
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="R20" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="S20" s="27"/>
+      <c r="T20" s="27"/>
+      <c r="U20" s="27"/>
+      <c r="V20" s="27"/>
+      <c r="W20" s="27"/>
+      <c r="X20" s="27"/>
+      <c r="Y20" s="27"/>
+    </row>
+    <row r="21" spans="6:25" x14ac:dyDescent="0.45">
+      <c r="F21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="27"/>
+      <c r="T21" s="27"/>
+      <c r="U21" s="27"/>
+      <c r="V21" s="27"/>
+      <c r="W21" s="27"/>
+      <c r="X21" s="27"/>
+      <c r="Y21" s="27"/>
+    </row>
+    <row r="23" spans="6:25" x14ac:dyDescent="0.45">
+      <c r="F23" s="21">
         <v>7</v>
       </c>
-      <c r="H23" s="16" t="s">
+      <c r="H23" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16"/>
-    </row>
-    <row r="24" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="16"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="R23" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="S23" s="27"/>
+      <c r="T23" s="27"/>
+      <c r="U23" s="27"/>
+      <c r="V23" s="27"/>
+      <c r="W23" s="27"/>
+      <c r="X23" s="27"/>
+      <c r="Y23" s="27"/>
+    </row>
+    <row r="24" spans="6:25" x14ac:dyDescent="0.45">
+      <c r="F24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
+      <c r="R24" s="27"/>
+      <c r="S24" s="27"/>
+      <c r="T24" s="27"/>
+      <c r="U24" s="27"/>
+      <c r="V24" s="27"/>
+      <c r="W24" s="27"/>
+      <c r="X24" s="27"/>
+      <c r="Y24" s="27"/>
+    </row>
+    <row r="26" spans="6:25" x14ac:dyDescent="0.45">
+      <c r="F26" s="21">
+        <v>9</v>
+      </c>
+      <c r="H26" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="R26" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="S26" s="13"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="13"/>
+      <c r="V26" s="13"/>
+      <c r="W26" s="13"/>
+      <c r="X26" s="13"/>
+      <c r="Y26" s="13"/>
+    </row>
+    <row r="27" spans="6:25" x14ac:dyDescent="0.45">
+      <c r="F27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="13"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="13"/>
+      <c r="V27" s="13"/>
+      <c r="W27" s="13"/>
+      <c r="X27" s="13"/>
+      <c r="Y27" s="13"/>
+    </row>
+    <row r="29" spans="6:25" x14ac:dyDescent="0.45">
+      <c r="F29" s="21">
+        <v>10</v>
+      </c>
+      <c r="H29" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
+      <c r="R29" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="S29" s="13"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="13"/>
+      <c r="V29" s="13"/>
+      <c r="W29" s="13"/>
+      <c r="X29" s="13"/>
+      <c r="Y29" s="13"/>
+    </row>
+    <row r="30" spans="6:25" x14ac:dyDescent="0.45">
+      <c r="F30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="21"/>
+      <c r="R30" s="13"/>
+      <c r="S30" s="13"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="13"/>
+      <c r="V30" s="13"/>
+      <c r="W30" s="13"/>
+      <c r="X30" s="13"/>
+      <c r="Y30" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="29">
+    <mergeCell ref="R11:Y12"/>
+    <mergeCell ref="R5:Y6"/>
+    <mergeCell ref="R20:Y21"/>
+    <mergeCell ref="R23:Y24"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="H29:P30"/>
+    <mergeCell ref="R14:Y15"/>
+    <mergeCell ref="R17:Y18"/>
+    <mergeCell ref="R26:Y27"/>
+    <mergeCell ref="R29:Y30"/>
+    <mergeCell ref="H26:P27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="H14:P15"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="H11:P12"/>
     <mergeCell ref="H17:P18"/>
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="H20:P21"/>
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="H23:P24"/>
     <mergeCell ref="F23:F24"/>
+    <mergeCell ref="H2:P3"/>
     <mergeCell ref="R2:Y3"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="H5:P6"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="H8:P9"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="H14:P15"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="H11:P12"/>
-    <mergeCell ref="H2:P3"/>
+    <mergeCell ref="R8:Y9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4036,235 +4961,249 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37E2DAFF-6BFF-4CB8-B294-DE59EA805260}">
   <dimension ref="C2:Y32"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="6.5703125" customWidth="1"/>
-    <col min="6" max="6" width="140.140625" customWidth="1"/>
+    <col min="3" max="3" width="6.59765625" customWidth="1"/>
+    <col min="6" max="6" width="140.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="J2" s="18" t="s">
+    <row r="2" spans="3:25" x14ac:dyDescent="0.45">
+      <c r="J2" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-    </row>
-    <row r="3" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-    </row>
-    <row r="5" spans="3:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="20" t="s">
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+    </row>
+    <row r="3" spans="3:25" x14ac:dyDescent="0.45">
+      <c r="E3" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+    </row>
+    <row r="4" spans="3:25" x14ac:dyDescent="0.45">
+      <c r="E4" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="3:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C5" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
       <c r="Y5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C6" s="20"/>
-      <c r="F6" s="24" t="s">
+    <row r="6" spans="3:25" x14ac:dyDescent="0.45">
+      <c r="C6" s="25"/>
+      <c r="F6" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-    </row>
-    <row r="7" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C7" s="20"/>
-      <c r="F7" s="23" t="s">
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+    </row>
+    <row r="7" spans="3:25" x14ac:dyDescent="0.45">
+      <c r="C7" s="25"/>
+      <c r="F7" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C8" s="20"/>
-      <c r="F8" s="23" t="s">
+    <row r="8" spans="3:25" x14ac:dyDescent="0.45">
+      <c r="C8" s="25"/>
+      <c r="F8" s="4" t="s">
         <v>16</v>
       </c>
       <c r="Y8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C9" s="20"/>
-      <c r="F9" s="23" t="s">
+    <row r="9" spans="3:25" x14ac:dyDescent="0.45">
+      <c r="C9" s="25"/>
+      <c r="F9" s="4" t="s">
         <v>47</v>
       </c>
       <c r="Y9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C10" s="20"/>
-      <c r="F10" s="23" t="s">
+    <row r="10" spans="3:25" x14ac:dyDescent="0.45">
+      <c r="C10" s="25"/>
+      <c r="F10" s="4" t="s">
         <v>48</v>
       </c>
       <c r="Y10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C11" s="20"/>
-      <c r="F11" s="23" t="s">
+    <row r="11" spans="3:25" x14ac:dyDescent="0.45">
+      <c r="C11" s="25"/>
+      <c r="F11" s="4" t="s">
         <v>53</v>
       </c>
       <c r="Y11" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C12" s="20"/>
-      <c r="F12" s="23" t="s">
+    <row r="12" spans="3:25" x14ac:dyDescent="0.45">
+      <c r="C12" s="25"/>
+      <c r="F12" s="4" t="s">
         <v>55</v>
       </c>
       <c r="Y12" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="F13" s="23" t="s">
+    <row r="13" spans="3:25" x14ac:dyDescent="0.45">
+      <c r="F13" s="4" t="s">
         <v>56</v>
       </c>
       <c r="Y13" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="F14" s="23" t="s">
+    <row r="14" spans="3:25" x14ac:dyDescent="0.45">
+      <c r="F14" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="F15" s="23" t="s">
+    <row r="15" spans="3:25" x14ac:dyDescent="0.45">
+      <c r="F15" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="F16" s="23" t="s">
+    <row r="16" spans="3:25" x14ac:dyDescent="0.45">
+      <c r="F16" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="F17" s="23" t="s">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="F17" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="F18" s="23" t="s">
+    <row r="18" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="F18" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="F19" s="23" t="s">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="F19" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="F20" s="23" t="s">
+    <row r="20" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="F20" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C21" s="25" t="s">
+    <row r="21" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C21" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="F21" s="23" t="s">
+      <c r="F21" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C22" s="25"/>
-      <c r="F22" s="23" t="s">
+    <row r="22" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C22" s="26"/>
+      <c r="F22" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C23" s="25"/>
-      <c r="F23" s="23" t="s">
+    <row r="23" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C23" s="26"/>
+      <c r="F23" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C24" s="25"/>
-      <c r="F24" s="23" t="s">
+    <row r="24" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C24" s="26"/>
+      <c r="F24" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C25" s="25"/>
-      <c r="F25" s="23" t="s">
+    <row r="25" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C25" s="26"/>
+      <c r="F25" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C26" s="25"/>
-      <c r="F26" s="23" t="s">
+    <row r="26" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C26" s="26"/>
+      <c r="F26" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C27" s="25"/>
-      <c r="F27" s="23" t="s">
+    <row r="27" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C27" s="26"/>
+      <c r="F27" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C28" s="25"/>
-      <c r="F28" s="23" t="s">
+    <row r="28" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C28" s="26"/>
+      <c r="F28" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C29" s="25"/>
-      <c r="F29" s="23" t="s">
+    <row r="29" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C29" s="26"/>
+      <c r="F29" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="F30" s="23" t="s">
+    <row r="30" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="F30" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="F31" s="23" t="s">
+    <row r="31" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="F31" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="F32" s="23" t="s">
+    <row r="32" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="F32" s="4" t="s">
         <v>84</v>
       </c>
     </row>
@@ -4306,6 +5245,8 @@
     <hyperlink ref="F7" r:id="rId27" xr:uid="{668C6F21-0680-4DA4-846C-204187A8132D}"/>
     <hyperlink ref="F6" r:id="rId28" location="comment-236383" xr:uid="{29DD075A-AFD1-418D-B819-55BB130C9772}"/>
     <hyperlink ref="F5" r:id="rId29" xr:uid="{40D28288-9891-4FA1-8CE5-E04F4BA47820}"/>
+    <hyperlink ref="F4" r:id="rId30" xr:uid="{1F3C45FB-13B4-4198-A4A0-167B8E36ABBF}"/>
+    <hyperlink ref="F3" r:id="rId31" xr:uid="{CC012E1D-D027-4773-B6E1-AE2337A1D039}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documents/Targets&Planning.xlsx
+++ b/Documents/Targets&Planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BloggingRepositories\blogPosts\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F3B47E-04AF-4FC7-951B-728E5E4AAF41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA74549-288A-4D53-B483-09B8BBF684DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="15196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="101">
   <si>
     <t>November</t>
   </si>
@@ -324,6 +324,12 @@
   </si>
   <si>
     <t>Make custom 404 Page</t>
+  </si>
+  <si>
+    <t>30, November,2023, Thursday</t>
+  </si>
+  <si>
+    <t>Fix the Card Images Bug</t>
   </si>
 </sst>
 </file>
@@ -522,7 +528,7 @@
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -544,6 +550,9 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -553,34 +562,40 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="15" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -597,16 +612,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="7" fillId="15" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -892,10 +897,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB165"/>
+  <dimension ref="A1:AB182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F143" zoomScale="93" workbookViewId="0">
-      <selection activeCell="U150" sqref="U150"/>
+    <sheetView tabSelected="1" topLeftCell="F157" zoomScale="93" workbookViewId="0">
+      <selection activeCell="Q173" sqref="Q173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -941,27 +946,27 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="18"/>
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
     </row>
@@ -973,25 +978,25 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="17"/>
-      <c r="Z3" s="17"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="18"/>
+      <c r="Z3" s="18"/>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
     </row>
@@ -1033,12 +1038,12 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
       <c r="L5" s="15" t="s">
         <v>1</v>
       </c>
@@ -1071,10 +1076,10 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
       <c r="N6" s="15"/>
@@ -1134,30 +1139,30 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="9">
+      <c r="K8" s="10">
         <v>1</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="L8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
       <c r="Q8" s="1"/>
-      <c r="R8" s="11" t="s">
+      <c r="R8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
       <c r="U8" s="1"/>
-      <c r="V8" s="14" t="s">
+      <c r="V8" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="W8" s="14"/>
-      <c r="X8" s="14"/>
-      <c r="Y8" s="14"/>
-      <c r="Z8" s="14"/>
+      <c r="W8" s="17"/>
+      <c r="X8" s="17"/>
+      <c r="Y8" s="17"/>
+      <c r="Z8" s="17"/>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
     </row>
@@ -1172,22 +1177,22 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
       <c r="Q9" s="1"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
       <c r="U9" s="1"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="14"/>
-      <c r="X9" s="14"/>
-      <c r="Y9" s="14"/>
-      <c r="Z9" s="14"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
+      <c r="X9" s="17"/>
+      <c r="Y9" s="17"/>
+      <c r="Z9" s="17"/>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
     </row>
@@ -1232,30 +1237,30 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="9">
+      <c r="K11" s="10">
         <v>2</v>
       </c>
-      <c r="L11" s="11" t="s">
+      <c r="L11" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
       <c r="Q11" s="1"/>
-      <c r="R11" s="11" t="s">
+      <c r="R11" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
       <c r="U11" s="1"/>
-      <c r="V11" s="14" t="s">
+      <c r="V11" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="W11" s="14"/>
-      <c r="X11" s="14"/>
-      <c r="Y11" s="14"/>
-      <c r="Z11" s="14"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="17"/>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
     </row>
@@ -1270,22 +1275,22 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
       <c r="Q12" s="1"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
       <c r="U12" s="1"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="14"/>
-      <c r="X12" s="14"/>
-      <c r="Y12" s="14"/>
-      <c r="Z12" s="14"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="17"/>
+      <c r="Z12" s="17"/>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
     </row>
@@ -1327,12 +1332,12 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="16" t="s">
+      <c r="H14" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
       <c r="L14" s="15" t="s">
         <v>1</v>
       </c>
@@ -1365,10 +1370,10 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
       <c r="L15" s="15"/>
       <c r="M15" s="15"/>
       <c r="N15" s="15"/>
@@ -1428,30 +1433,30 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="9">
+      <c r="K17" s="10">
         <v>1</v>
       </c>
-      <c r="L17" s="11" t="s">
+      <c r="L17" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
       <c r="Q17" s="1"/>
-      <c r="R17" s="11" t="s">
+      <c r="R17" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
       <c r="U17" s="1"/>
-      <c r="V17" s="14" t="s">
+      <c r="V17" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="W17" s="14"/>
-      <c r="X17" s="14"/>
-      <c r="Y17" s="14"/>
-      <c r="Z17" s="14"/>
+      <c r="W17" s="17"/>
+      <c r="X17" s="17"/>
+      <c r="Y17" s="17"/>
+      <c r="Z17" s="17"/>
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
     </row>
@@ -1466,22 +1471,22 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
       <c r="Q18" s="1"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
       <c r="U18" s="1"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="14"/>
-      <c r="X18" s="14"/>
-      <c r="Y18" s="14"/>
-      <c r="Z18" s="14"/>
+      <c r="V18" s="17"/>
+      <c r="W18" s="17"/>
+      <c r="X18" s="17"/>
+      <c r="Y18" s="17"/>
+      <c r="Z18" s="17"/>
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
     </row>
@@ -1526,30 +1531,30 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="9">
+      <c r="K20" s="10">
         <v>2</v>
       </c>
-      <c r="L20" s="11" t="s">
+      <c r="L20" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
       <c r="Q20" s="1"/>
-      <c r="R20" s="11" t="s">
+      <c r="R20" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
       <c r="U20" s="1"/>
-      <c r="V20" s="14" t="s">
+      <c r="V20" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="W20" s="14"/>
-      <c r="X20" s="14"/>
-      <c r="Y20" s="14"/>
-      <c r="Z20" s="14"/>
+      <c r="W20" s="17"/>
+      <c r="X20" s="17"/>
+      <c r="Y20" s="17"/>
+      <c r="Z20" s="17"/>
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
     </row>
@@ -1564,22 +1569,22 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
       <c r="Q21" s="1"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="11"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
       <c r="U21" s="1"/>
-      <c r="V21" s="14"/>
-      <c r="W21" s="14"/>
-      <c r="X21" s="14"/>
-      <c r="Y21" s="14"/>
-      <c r="Z21" s="14"/>
+      <c r="V21" s="17"/>
+      <c r="W21" s="17"/>
+      <c r="X21" s="17"/>
+      <c r="Y21" s="17"/>
+      <c r="Z21" s="17"/>
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
     </row>
@@ -1624,22 +1629,22 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
-      <c r="K23" s="9">
+      <c r="K23" s="10">
         <v>3</v>
       </c>
-      <c r="L23" s="11" t="s">
+      <c r="L23" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
       <c r="Q23" s="1"/>
-      <c r="R23" s="11" t="s">
+      <c r="R23" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="S23" s="11"/>
-      <c r="T23" s="11"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
       <c r="U23" s="1"/>
       <c r="V23" s="8" t="s">
         <v>23</v>
@@ -1662,16 +1667,16 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
       <c r="Q24" s="1"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="11"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
       <c r="U24" s="1"/>
       <c r="V24" s="8"/>
       <c r="W24" s="8"/>
@@ -1722,22 +1727,22 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="9">
+      <c r="K26" s="10">
         <v>4</v>
       </c>
-      <c r="L26" s="10" t="s">
+      <c r="L26" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
       <c r="Q26" s="1"/>
-      <c r="R26" s="11" t="s">
+      <c r="R26" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="S26" s="11"/>
-      <c r="T26" s="11"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
       <c r="U26" s="1"/>
       <c r="V26" s="8" t="s">
         <v>23</v>
@@ -1760,16 +1765,16 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
       <c r="Q27" s="1"/>
-      <c r="R27" s="11"/>
-      <c r="S27" s="11"/>
-      <c r="T27" s="11"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="12"/>
       <c r="U27" s="1"/>
       <c r="V27" s="8"/>
       <c r="W27" s="8"/>
@@ -1820,22 +1825,22 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
-      <c r="K29" s="9">
+      <c r="K29" s="10">
         <v>5</v>
       </c>
-      <c r="L29" s="10" t="s">
+      <c r="L29" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
       <c r="Q29" s="1"/>
-      <c r="R29" s="11" t="s">
+      <c r="R29" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="S29" s="11"/>
-      <c r="T29" s="11"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="12"/>
       <c r="U29" s="1"/>
       <c r="V29" s="8" t="s">
         <v>23</v>
@@ -1858,16 +1863,16 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
       <c r="Q30" s="1"/>
-      <c r="R30" s="11"/>
-      <c r="S30" s="11"/>
-      <c r="T30" s="11"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
       <c r="U30" s="1"/>
       <c r="V30" s="8"/>
       <c r="W30" s="8"/>
@@ -1918,30 +1923,30 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
-      <c r="K32" s="9">
+      <c r="K32" s="10">
         <v>6</v>
       </c>
-      <c r="L32" s="10" t="s">
+      <c r="L32" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
       <c r="Q32" s="1"/>
-      <c r="R32" s="11" t="s">
+      <c r="R32" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="S32" s="11"/>
-      <c r="T32" s="11"/>
+      <c r="S32" s="12"/>
+      <c r="T32" s="12"/>
       <c r="U32" s="1"/>
-      <c r="V32" s="14" t="s">
+      <c r="V32" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="W32" s="14"/>
-      <c r="X32" s="14"/>
-      <c r="Y32" s="14"/>
-      <c r="Z32" s="14"/>
+      <c r="W32" s="17"/>
+      <c r="X32" s="17"/>
+      <c r="Y32" s="17"/>
+      <c r="Z32" s="17"/>
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
     </row>
@@ -1956,22 +1961,22 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
       <c r="Q33" s="1"/>
-      <c r="R33" s="11"/>
-      <c r="S33" s="11"/>
-      <c r="T33" s="11"/>
+      <c r="R33" s="12"/>
+      <c r="S33" s="12"/>
+      <c r="T33" s="12"/>
       <c r="U33" s="1"/>
-      <c r="V33" s="14"/>
-      <c r="W33" s="14"/>
-      <c r="X33" s="14"/>
-      <c r="Y33" s="14"/>
-      <c r="Z33" s="14"/>
+      <c r="V33" s="17"/>
+      <c r="W33" s="17"/>
+      <c r="X33" s="17"/>
+      <c r="Y33" s="17"/>
+      <c r="Z33" s="17"/>
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
     </row>
@@ -2016,30 +2021,30 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
-      <c r="K35" s="9">
+      <c r="K35" s="10">
         <v>7</v>
       </c>
-      <c r="L35" s="10" t="s">
+      <c r="L35" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
       <c r="Q35" s="1"/>
-      <c r="R35" s="11" t="s">
+      <c r="R35" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="S35" s="11"/>
-      <c r="T35" s="11"/>
+      <c r="S35" s="12"/>
+      <c r="T35" s="12"/>
       <c r="U35" s="1"/>
-      <c r="V35" s="18" t="s">
+      <c r="V35" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="W35" s="18"/>
-      <c r="X35" s="18"/>
-      <c r="Y35" s="18"/>
-      <c r="Z35" s="18"/>
+      <c r="W35" s="16"/>
+      <c r="X35" s="16"/>
+      <c r="Y35" s="16"/>
+      <c r="Z35" s="16"/>
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
     </row>
@@ -2054,22 +2059,22 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="10"/>
-      <c r="P36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
       <c r="Q36" s="1"/>
-      <c r="R36" s="11"/>
-      <c r="S36" s="11"/>
-      <c r="T36" s="11"/>
+      <c r="R36" s="12"/>
+      <c r="S36" s="12"/>
+      <c r="T36" s="12"/>
       <c r="U36" s="1"/>
-      <c r="V36" s="18"/>
-      <c r="W36" s="18"/>
-      <c r="X36" s="18"/>
-      <c r="Y36" s="18"/>
-      <c r="Z36" s="18"/>
+      <c r="V36" s="16"/>
+      <c r="W36" s="16"/>
+      <c r="X36" s="16"/>
+      <c r="Y36" s="16"/>
+      <c r="Z36" s="16"/>
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
     </row>
@@ -2111,12 +2116,12 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="16" t="s">
+      <c r="H38" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
       <c r="L38" s="15" t="s">
         <v>1</v>
       </c>
@@ -2149,10 +2154,10 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
       <c r="L39" s="15"/>
       <c r="M39" s="15"/>
       <c r="N39" s="15"/>
@@ -2212,30 +2217,30 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
-      <c r="K41" s="9">
+      <c r="K41" s="10">
         <v>1</v>
       </c>
-      <c r="L41" s="11" t="s">
+      <c r="L41" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="M41" s="11"/>
-      <c r="N41" s="11"/>
-      <c r="O41" s="11"/>
-      <c r="P41" s="11"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
       <c r="Q41" s="1"/>
-      <c r="R41" s="11" t="s">
+      <c r="R41" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="S41" s="11"/>
-      <c r="T41" s="11"/>
+      <c r="S41" s="12"/>
+      <c r="T41" s="12"/>
       <c r="U41" s="1"/>
-      <c r="V41" s="14" t="s">
+      <c r="V41" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="W41" s="14"/>
-      <c r="X41" s="14"/>
-      <c r="Y41" s="14"/>
-      <c r="Z41" s="14"/>
+      <c r="W41" s="17"/>
+      <c r="X41" s="17"/>
+      <c r="Y41" s="17"/>
+      <c r="Z41" s="17"/>
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
     </row>
@@ -2250,22 +2255,22 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="11"/>
-      <c r="M42" s="11"/>
-      <c r="N42" s="11"/>
-      <c r="O42" s="11"/>
-      <c r="P42" s="11"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
       <c r="Q42" s="1"/>
-      <c r="R42" s="11"/>
-      <c r="S42" s="11"/>
-      <c r="T42" s="11"/>
+      <c r="R42" s="12"/>
+      <c r="S42" s="12"/>
+      <c r="T42" s="12"/>
       <c r="U42" s="1"/>
-      <c r="V42" s="14"/>
-      <c r="W42" s="14"/>
-      <c r="X42" s="14"/>
-      <c r="Y42" s="14"/>
-      <c r="Z42" s="14"/>
+      <c r="V42" s="17"/>
+      <c r="W42" s="17"/>
+      <c r="X42" s="17"/>
+      <c r="Y42" s="17"/>
+      <c r="Z42" s="17"/>
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
     </row>
@@ -2310,30 +2315,30 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
-      <c r="K44" s="9">
+      <c r="K44" s="10">
         <v>2</v>
       </c>
-      <c r="L44" s="11" t="s">
+      <c r="L44" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="M44" s="11"/>
-      <c r="N44" s="11"/>
-      <c r="O44" s="11"/>
-      <c r="P44" s="11"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="12"/>
+      <c r="P44" s="12"/>
       <c r="Q44" s="1"/>
-      <c r="R44" s="11" t="s">
+      <c r="R44" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="S44" s="11"/>
-      <c r="T44" s="11"/>
+      <c r="S44" s="12"/>
+      <c r="T44" s="12"/>
       <c r="U44" s="1"/>
-      <c r="V44" s="14" t="s">
+      <c r="V44" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="W44" s="14"/>
-      <c r="X44" s="14"/>
-      <c r="Y44" s="14"/>
-      <c r="Z44" s="14"/>
+      <c r="W44" s="17"/>
+      <c r="X44" s="17"/>
+      <c r="Y44" s="17"/>
+      <c r="Z44" s="17"/>
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
     </row>
@@ -2348,22 +2353,22 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="11"/>
-      <c r="M45" s="11"/>
-      <c r="N45" s="11"/>
-      <c r="O45" s="11"/>
-      <c r="P45" s="11"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="12"/>
+      <c r="O45" s="12"/>
+      <c r="P45" s="12"/>
       <c r="Q45" s="1"/>
-      <c r="R45" s="11"/>
-      <c r="S45" s="11"/>
-      <c r="T45" s="11"/>
+      <c r="R45" s="12"/>
+      <c r="S45" s="12"/>
+      <c r="T45" s="12"/>
       <c r="U45" s="1"/>
-      <c r="V45" s="14"/>
-      <c r="W45" s="14"/>
-      <c r="X45" s="14"/>
-      <c r="Y45" s="14"/>
-      <c r="Z45" s="14"/>
+      <c r="V45" s="17"/>
+      <c r="W45" s="17"/>
+      <c r="X45" s="17"/>
+      <c r="Y45" s="17"/>
+      <c r="Z45" s="17"/>
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
     </row>
@@ -2408,30 +2413,30 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
-      <c r="K47" s="9">
+      <c r="K47" s="10">
         <v>3</v>
       </c>
-      <c r="L47" s="10" t="s">
+      <c r="L47" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="M47" s="10"/>
-      <c r="N47" s="10"/>
-      <c r="O47" s="10"/>
-      <c r="P47" s="10"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="11"/>
+      <c r="P47" s="11"/>
       <c r="Q47" s="1"/>
-      <c r="R47" s="11" t="s">
+      <c r="R47" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="S47" s="11"/>
-      <c r="T47" s="11"/>
+      <c r="S47" s="12"/>
+      <c r="T47" s="12"/>
       <c r="U47" s="1"/>
-      <c r="V47" s="14" t="s">
+      <c r="V47" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="W47" s="14"/>
-      <c r="X47" s="14"/>
-      <c r="Y47" s="14"/>
-      <c r="Z47" s="14"/>
+      <c r="W47" s="17"/>
+      <c r="X47" s="17"/>
+      <c r="Y47" s="17"/>
+      <c r="Z47" s="17"/>
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
     </row>
@@ -2446,22 +2451,22 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
-      <c r="K48" s="9"/>
-      <c r="L48" s="10"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="10"/>
-      <c r="O48" s="10"/>
-      <c r="P48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="11"/>
+      <c r="P48" s="11"/>
       <c r="Q48" s="1"/>
-      <c r="R48" s="11"/>
-      <c r="S48" s="11"/>
-      <c r="T48" s="11"/>
+      <c r="R48" s="12"/>
+      <c r="S48" s="12"/>
+      <c r="T48" s="12"/>
       <c r="U48" s="1"/>
-      <c r="V48" s="14"/>
-      <c r="W48" s="14"/>
-      <c r="X48" s="14"/>
-      <c r="Y48" s="14"/>
-      <c r="Z48" s="14"/>
+      <c r="V48" s="17"/>
+      <c r="W48" s="17"/>
+      <c r="X48" s="17"/>
+      <c r="Y48" s="17"/>
+      <c r="Z48" s="17"/>
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
     </row>
@@ -2506,30 +2511,30 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
-      <c r="K50" s="9">
+      <c r="K50" s="10">
         <v>4</v>
       </c>
-      <c r="L50" s="10" t="s">
+      <c r="L50" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="M50" s="10"/>
-      <c r="N50" s="10"/>
-      <c r="O50" s="10"/>
-      <c r="P50" s="10"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="11"/>
+      <c r="P50" s="11"/>
       <c r="Q50" s="1"/>
-      <c r="R50" s="11" t="s">
+      <c r="R50" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="S50" s="11"/>
-      <c r="T50" s="11"/>
+      <c r="S50" s="12"/>
+      <c r="T50" s="12"/>
       <c r="U50" s="1"/>
-      <c r="V50" s="14" t="s">
+      <c r="V50" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="W50" s="14"/>
-      <c r="X50" s="14"/>
-      <c r="Y50" s="14"/>
-      <c r="Z50" s="14"/>
+      <c r="W50" s="17"/>
+      <c r="X50" s="17"/>
+      <c r="Y50" s="17"/>
+      <c r="Z50" s="17"/>
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
     </row>
@@ -2544,22 +2549,22 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
-      <c r="K51" s="9"/>
-      <c r="L51" s="10"/>
-      <c r="M51" s="10"/>
-      <c r="N51" s="10"/>
-      <c r="O51" s="10"/>
-      <c r="P51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="11"/>
+      <c r="P51" s="11"/>
       <c r="Q51" s="1"/>
-      <c r="R51" s="11"/>
-      <c r="S51" s="11"/>
-      <c r="T51" s="11"/>
+      <c r="R51" s="12"/>
+      <c r="S51" s="12"/>
+      <c r="T51" s="12"/>
       <c r="U51" s="1"/>
-      <c r="V51" s="14"/>
-      <c r="W51" s="14"/>
-      <c r="X51" s="14"/>
-      <c r="Y51" s="14"/>
-      <c r="Z51" s="14"/>
+      <c r="V51" s="17"/>
+      <c r="W51" s="17"/>
+      <c r="X51" s="17"/>
+      <c r="Y51" s="17"/>
+      <c r="Z51" s="17"/>
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
     </row>
@@ -2601,12 +2606,12 @@
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
-      <c r="H53" s="16" t="s">
+      <c r="H53" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="I53" s="16"/>
-      <c r="J53" s="16"/>
-      <c r="K53" s="16"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="14"/>
       <c r="L53" s="15" t="s">
         <v>1</v>
       </c>
@@ -2632,10 +2637,10 @@
       <c r="AB53" s="1"/>
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="H54" s="16"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="16"/>
-      <c r="K54" s="16"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="14"/>
+      <c r="K54" s="14"/>
       <c r="L54" s="15"/>
       <c r="M54" s="15"/>
       <c r="N54" s="15"/>
@@ -2697,12 +2702,12 @@
       <c r="Z57" s="13"/>
     </row>
     <row r="59" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="H59" s="16" t="s">
+      <c r="H59" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I59" s="16"/>
-      <c r="J59" s="16"/>
-      <c r="K59" s="16"/>
+      <c r="I59" s="14"/>
+      <c r="J59" s="14"/>
+      <c r="K59" s="14"/>
       <c r="L59" s="15" t="s">
         <v>1</v>
       </c>
@@ -2726,10 +2731,10 @@
       <c r="Z59" s="15"/>
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="H60" s="16"/>
-      <c r="I60" s="16"/>
-      <c r="J60" s="16"/>
-      <c r="K60" s="16"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="14"/>
+      <c r="J60" s="14"/>
+      <c r="K60" s="14"/>
       <c r="L60" s="15"/>
       <c r="M60" s="15"/>
       <c r="N60" s="15"/>
@@ -2791,12 +2796,12 @@
       <c r="Z63" s="13"/>
     </row>
     <row r="65" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="H65" s="16" t="s">
+      <c r="H65" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="I65" s="16"/>
-      <c r="J65" s="16"/>
-      <c r="K65" s="16"/>
+      <c r="I65" s="14"/>
+      <c r="J65" s="14"/>
+      <c r="K65" s="14"/>
       <c r="L65" s="15" t="s">
         <v>1</v>
       </c>
@@ -2820,10 +2825,10 @@
       <c r="Z65" s="15"/>
     </row>
     <row r="66" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="H66" s="16"/>
-      <c r="I66" s="16"/>
-      <c r="J66" s="16"/>
-      <c r="K66" s="16"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="14"/>
+      <c r="J66" s="14"/>
+      <c r="K66" s="14"/>
       <c r="L66" s="15"/>
       <c r="M66" s="15"/>
       <c r="N66" s="15"/>
@@ -2885,12 +2890,12 @@
       <c r="Z69" s="13"/>
     </row>
     <row r="71" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="H71" s="16" t="s">
+      <c r="H71" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="I71" s="16"/>
-      <c r="J71" s="16"/>
-      <c r="K71" s="16"/>
+      <c r="I71" s="14"/>
+      <c r="J71" s="14"/>
+      <c r="K71" s="14"/>
       <c r="L71" s="15" t="s">
         <v>1</v>
       </c>
@@ -2914,10 +2919,10 @@
       <c r="Z71" s="15"/>
     </row>
     <row r="72" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="H72" s="16"/>
-      <c r="I72" s="16"/>
-      <c r="J72" s="16"/>
-      <c r="K72" s="16"/>
+      <c r="H72" s="14"/>
+      <c r="I72" s="14"/>
+      <c r="J72" s="14"/>
+      <c r="K72" s="14"/>
       <c r="L72" s="15"/>
       <c r="M72" s="15"/>
       <c r="N72" s="15"/>
@@ -2935,25 +2940,25 @@
       <c r="Z72" s="15"/>
     </row>
     <row r="75" spans="8:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I75" s="12" t="s">
+      <c r="I75" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="K75" s="9">
+      <c r="K75" s="10">
         <v>1</v>
       </c>
-      <c r="L75" s="10" t="s">
+      <c r="L75" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="M75" s="10"/>
-      <c r="N75" s="10"/>
-      <c r="O75" s="10"/>
-      <c r="P75" s="10"/>
+      <c r="M75" s="11"/>
+      <c r="N75" s="11"/>
+      <c r="O75" s="11"/>
+      <c r="P75" s="11"/>
       <c r="Q75" s="1"/>
-      <c r="R75" s="11" t="s">
+      <c r="R75" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="S75" s="11"/>
-      <c r="T75" s="11"/>
+      <c r="S75" s="12"/>
+      <c r="T75" s="12"/>
       <c r="U75" s="1"/>
       <c r="V75" s="13" t="s">
         <v>51</v>
@@ -2964,17 +2969,17 @@
       <c r="Z75" s="13"/>
     </row>
     <row r="76" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="I76" s="12"/>
-      <c r="K76" s="9"/>
-      <c r="L76" s="10"/>
-      <c r="M76" s="10"/>
-      <c r="N76" s="10"/>
-      <c r="O76" s="10"/>
-      <c r="P76" s="10"/>
+      <c r="I76" s="9"/>
+      <c r="K76" s="10"/>
+      <c r="L76" s="11"/>
+      <c r="M76" s="11"/>
+      <c r="N76" s="11"/>
+      <c r="O76" s="11"/>
+      <c r="P76" s="11"/>
       <c r="Q76" s="1"/>
-      <c r="R76" s="11"/>
-      <c r="S76" s="11"/>
-      <c r="T76" s="11"/>
+      <c r="R76" s="12"/>
+      <c r="S76" s="12"/>
+      <c r="T76" s="12"/>
       <c r="U76" s="1"/>
       <c r="V76" s="13"/>
       <c r="W76" s="13"/>
@@ -2983,26 +2988,26 @@
       <c r="Z76" s="13"/>
     </row>
     <row r="77" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="I77" s="12"/>
+      <c r="I77" s="9"/>
     </row>
     <row r="78" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="I78" s="12"/>
-      <c r="K78" s="9">
+      <c r="I78" s="9"/>
+      <c r="K78" s="10">
         <v>2</v>
       </c>
-      <c r="L78" s="11" t="s">
+      <c r="L78" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="M78" s="11"/>
-      <c r="N78" s="11"/>
-      <c r="O78" s="11"/>
-      <c r="P78" s="11"/>
+      <c r="M78" s="12"/>
+      <c r="N78" s="12"/>
+      <c r="O78" s="12"/>
+      <c r="P78" s="12"/>
       <c r="Q78" s="1"/>
-      <c r="R78" s="11" t="s">
+      <c r="R78" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="S78" s="11"/>
-      <c r="T78" s="11"/>
+      <c r="S78" s="12"/>
+      <c r="T78" s="12"/>
       <c r="U78" s="1"/>
       <c r="V78" s="13" t="s">
         <v>51</v>
@@ -3013,17 +3018,17 @@
       <c r="Z78" s="13"/>
     </row>
     <row r="79" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="I79" s="12"/>
-      <c r="K79" s="9"/>
-      <c r="L79" s="11"/>
-      <c r="M79" s="11"/>
-      <c r="N79" s="11"/>
-      <c r="O79" s="11"/>
-      <c r="P79" s="11"/>
+      <c r="I79" s="9"/>
+      <c r="K79" s="10"/>
+      <c r="L79" s="12"/>
+      <c r="M79" s="12"/>
+      <c r="N79" s="12"/>
+      <c r="O79" s="12"/>
+      <c r="P79" s="12"/>
       <c r="Q79" s="1"/>
-      <c r="R79" s="11"/>
-      <c r="S79" s="11"/>
-      <c r="T79" s="11"/>
+      <c r="R79" s="12"/>
+      <c r="S79" s="12"/>
+      <c r="T79" s="12"/>
       <c r="U79" s="1"/>
       <c r="V79" s="13"/>
       <c r="W79" s="13"/>
@@ -3032,26 +3037,26 @@
       <c r="Z79" s="13"/>
     </row>
     <row r="80" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="I80" s="12"/>
+      <c r="I80" s="9"/>
     </row>
     <row r="81" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I81" s="12"/>
-      <c r="K81" s="9">
+      <c r="I81" s="9"/>
+      <c r="K81" s="10">
         <v>3</v>
       </c>
-      <c r="L81" s="11" t="s">
+      <c r="L81" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="M81" s="11"/>
-      <c r="N81" s="11"/>
-      <c r="O81" s="11"/>
-      <c r="P81" s="11"/>
+      <c r="M81" s="12"/>
+      <c r="N81" s="12"/>
+      <c r="O81" s="12"/>
+      <c r="P81" s="12"/>
       <c r="Q81" s="1"/>
-      <c r="R81" s="11" t="s">
+      <c r="R81" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="S81" s="11"/>
-      <c r="T81" s="11"/>
+      <c r="S81" s="12"/>
+      <c r="T81" s="12"/>
       <c r="V81" s="13" t="s">
         <v>51</v>
       </c>
@@ -3062,17 +3067,17 @@
     </row>
     <row r="82" spans="7:26" x14ac:dyDescent="0.45">
       <c r="G82" s="3"/>
-      <c r="I82" s="12"/>
-      <c r="K82" s="9"/>
-      <c r="L82" s="11"/>
-      <c r="M82" s="11"/>
-      <c r="N82" s="11"/>
-      <c r="O82" s="11"/>
-      <c r="P82" s="11"/>
+      <c r="I82" s="9"/>
+      <c r="K82" s="10"/>
+      <c r="L82" s="12"/>
+      <c r="M82" s="12"/>
+      <c r="N82" s="12"/>
+      <c r="O82" s="12"/>
+      <c r="P82" s="12"/>
       <c r="Q82" s="1"/>
-      <c r="R82" s="11"/>
-      <c r="S82" s="11"/>
-      <c r="T82" s="11"/>
+      <c r="R82" s="12"/>
+      <c r="S82" s="12"/>
+      <c r="T82" s="12"/>
       <c r="V82" s="13"/>
       <c r="W82" s="13"/>
       <c r="X82" s="13"/>
@@ -3081,27 +3086,27 @@
     </row>
     <row r="83" spans="7:26" x14ac:dyDescent="0.45">
       <c r="G83" s="3"/>
-      <c r="I83" s="12"/>
+      <c r="I83" s="9"/>
     </row>
     <row r="84" spans="7:26" x14ac:dyDescent="0.45">
       <c r="G84" s="3"/>
-      <c r="I84" s="12"/>
-      <c r="K84" s="9">
+      <c r="I84" s="9"/>
+      <c r="K84" s="10">
         <v>4</v>
       </c>
-      <c r="L84" s="11" t="s">
+      <c r="L84" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="M84" s="11"/>
-      <c r="N84" s="11"/>
-      <c r="O84" s="11"/>
-      <c r="P84" s="11"/>
+      <c r="M84" s="12"/>
+      <c r="N84" s="12"/>
+      <c r="O84" s="12"/>
+      <c r="P84" s="12"/>
       <c r="Q84" s="1"/>
-      <c r="R84" s="11" t="s">
+      <c r="R84" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="S84" s="11"/>
-      <c r="T84" s="11"/>
+      <c r="S84" s="12"/>
+      <c r="T84" s="12"/>
       <c r="V84" s="13" t="s">
         <v>51</v>
       </c>
@@ -3112,17 +3117,17 @@
     </row>
     <row r="85" spans="7:26" x14ac:dyDescent="0.45">
       <c r="G85" s="3"/>
-      <c r="I85" s="12"/>
-      <c r="K85" s="9"/>
-      <c r="L85" s="11"/>
-      <c r="M85" s="11"/>
-      <c r="N85" s="11"/>
-      <c r="O85" s="11"/>
-      <c r="P85" s="11"/>
+      <c r="I85" s="9"/>
+      <c r="K85" s="10"/>
+      <c r="L85" s="12"/>
+      <c r="M85" s="12"/>
+      <c r="N85" s="12"/>
+      <c r="O85" s="12"/>
+      <c r="P85" s="12"/>
       <c r="Q85" s="1"/>
-      <c r="R85" s="11"/>
-      <c r="S85" s="11"/>
-      <c r="T85" s="11"/>
+      <c r="R85" s="12"/>
+      <c r="S85" s="12"/>
+      <c r="T85" s="12"/>
       <c r="V85" s="13"/>
       <c r="W85" s="13"/>
       <c r="X85" s="13"/>
@@ -3131,29 +3136,29 @@
     </row>
     <row r="86" spans="7:26" x14ac:dyDescent="0.45">
       <c r="G86" s="3"/>
-      <c r="I86" s="12"/>
+      <c r="I86" s="9"/>
     </row>
     <row r="87" spans="7:26" x14ac:dyDescent="0.45">
       <c r="G87" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I87" s="12"/>
-      <c r="K87" s="9">
+      <c r="I87" s="9"/>
+      <c r="K87" s="10">
         <v>5</v>
       </c>
-      <c r="L87" s="11" t="s">
+      <c r="L87" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="M87" s="11"/>
-      <c r="N87" s="11"/>
-      <c r="O87" s="11"/>
-      <c r="P87" s="11"/>
+      <c r="M87" s="12"/>
+      <c r="N87" s="12"/>
+      <c r="O87" s="12"/>
+      <c r="P87" s="12"/>
       <c r="Q87" s="1"/>
-      <c r="R87" s="11" t="s">
+      <c r="R87" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="S87" s="11"/>
-      <c r="T87" s="11"/>
+      <c r="S87" s="12"/>
+      <c r="T87" s="12"/>
       <c r="V87" s="13" t="s">
         <v>51</v>
       </c>
@@ -3166,17 +3171,17 @@
       <c r="G88" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="I88" s="12"/>
-      <c r="K88" s="9"/>
-      <c r="L88" s="11"/>
-      <c r="M88" s="11"/>
-      <c r="N88" s="11"/>
-      <c r="O88" s="11"/>
-      <c r="P88" s="11"/>
+      <c r="I88" s="9"/>
+      <c r="K88" s="10"/>
+      <c r="L88" s="12"/>
+      <c r="M88" s="12"/>
+      <c r="N88" s="12"/>
+      <c r="O88" s="12"/>
+      <c r="P88" s="12"/>
       <c r="Q88" s="1"/>
-      <c r="R88" s="11"/>
-      <c r="S88" s="11"/>
-      <c r="T88" s="11"/>
+      <c r="R88" s="12"/>
+      <c r="S88" s="12"/>
+      <c r="T88" s="12"/>
       <c r="V88" s="13"/>
       <c r="W88" s="13"/>
       <c r="X88" s="13"/>
@@ -3191,113 +3196,113 @@
     </row>
     <row r="91" spans="7:26" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G91" s="19"/>
-      <c r="I91" s="12" t="s">
+      <c r="I91" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="K91" s="9">
+      <c r="K91" s="10">
         <v>1</v>
       </c>
-      <c r="L91" s="10" t="s">
+      <c r="L91" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="M91" s="10"/>
-      <c r="N91" s="10"/>
-      <c r="O91" s="10"/>
-      <c r="P91" s="10"/>
+      <c r="M91" s="11"/>
+      <c r="N91" s="11"/>
+      <c r="O91" s="11"/>
+      <c r="P91" s="11"/>
       <c r="Q91" s="1"/>
-      <c r="R91" s="11" t="s">
+      <c r="R91" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="S91" s="11"/>
-      <c r="T91" s="11"/>
-      <c r="V91" s="14" t="s">
+      <c r="S91" s="12"/>
+      <c r="T91" s="12"/>
+      <c r="V91" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="W91" s="14"/>
-      <c r="X91" s="14"/>
-      <c r="Y91" s="14"/>
-      <c r="Z91" s="14"/>
+      <c r="W91" s="17"/>
+      <c r="X91" s="17"/>
+      <c r="Y91" s="17"/>
+      <c r="Z91" s="17"/>
     </row>
     <row r="92" spans="7:26" x14ac:dyDescent="0.45">
       <c r="G92" s="3"/>
-      <c r="I92" s="12"/>
-      <c r="K92" s="9"/>
-      <c r="L92" s="10"/>
-      <c r="M92" s="10"/>
-      <c r="N92" s="10"/>
-      <c r="O92" s="10"/>
-      <c r="P92" s="10"/>
+      <c r="I92" s="9"/>
+      <c r="K92" s="10"/>
+      <c r="L92" s="11"/>
+      <c r="M92" s="11"/>
+      <c r="N92" s="11"/>
+      <c r="O92" s="11"/>
+      <c r="P92" s="11"/>
       <c r="Q92" s="1"/>
-      <c r="R92" s="11"/>
-      <c r="S92" s="11"/>
-      <c r="T92" s="11"/>
-      <c r="V92" s="14"/>
-      <c r="W92" s="14"/>
-      <c r="X92" s="14"/>
-      <c r="Y92" s="14"/>
-      <c r="Z92" s="14"/>
+      <c r="R92" s="12"/>
+      <c r="S92" s="12"/>
+      <c r="T92" s="12"/>
+      <c r="V92" s="17"/>
+      <c r="W92" s="17"/>
+      <c r="X92" s="17"/>
+      <c r="Y92" s="17"/>
+      <c r="Z92" s="17"/>
     </row>
     <row r="93" spans="7:26" x14ac:dyDescent="0.45">
       <c r="G93" s="3"/>
-      <c r="I93" s="12"/>
+      <c r="I93" s="9"/>
     </row>
     <row r="94" spans="7:26" x14ac:dyDescent="0.45">
       <c r="G94" s="3"/>
-      <c r="I94" s="12"/>
-      <c r="K94" s="9">
+      <c r="I94" s="9"/>
+      <c r="K94" s="10">
         <v>2</v>
       </c>
-      <c r="L94" s="10" t="s">
+      <c r="L94" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="M94" s="10"/>
-      <c r="N94" s="10"/>
-      <c r="O94" s="10"/>
-      <c r="P94" s="10"/>
+      <c r="M94" s="11"/>
+      <c r="N94" s="11"/>
+      <c r="O94" s="11"/>
+      <c r="P94" s="11"/>
       <c r="Q94" s="1"/>
-      <c r="R94" s="11" t="s">
+      <c r="R94" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="S94" s="11"/>
-      <c r="T94" s="11"/>
-      <c r="V94" s="14" t="s">
+      <c r="S94" s="12"/>
+      <c r="T94" s="12"/>
+      <c r="V94" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="W94" s="14"/>
-      <c r="X94" s="14"/>
-      <c r="Y94" s="14"/>
-      <c r="Z94" s="14"/>
+      <c r="W94" s="17"/>
+      <c r="X94" s="17"/>
+      <c r="Y94" s="17"/>
+      <c r="Z94" s="17"/>
     </row>
     <row r="95" spans="7:26" x14ac:dyDescent="0.45">
       <c r="G95" s="3"/>
-      <c r="I95" s="12"/>
-      <c r="K95" s="9"/>
-      <c r="L95" s="10"/>
-      <c r="M95" s="10"/>
-      <c r="N95" s="10"/>
-      <c r="O95" s="10"/>
-      <c r="P95" s="10"/>
+      <c r="I95" s="9"/>
+      <c r="K95" s="10"/>
+      <c r="L95" s="11"/>
+      <c r="M95" s="11"/>
+      <c r="N95" s="11"/>
+      <c r="O95" s="11"/>
+      <c r="P95" s="11"/>
       <c r="Q95" s="1"/>
-      <c r="R95" s="11"/>
-      <c r="S95" s="11"/>
-      <c r="T95" s="11"/>
-      <c r="V95" s="14"/>
-      <c r="W95" s="14"/>
-      <c r="X95" s="14"/>
-      <c r="Y95" s="14"/>
-      <c r="Z95" s="14"/>
+      <c r="R95" s="12"/>
+      <c r="S95" s="12"/>
+      <c r="T95" s="12"/>
+      <c r="V95" s="17"/>
+      <c r="W95" s="17"/>
+      <c r="X95" s="17"/>
+      <c r="Y95" s="17"/>
+      <c r="Z95" s="17"/>
     </row>
     <row r="96" spans="7:26" x14ac:dyDescent="0.45">
       <c r="G96" s="3"/>
     </row>
     <row r="97" spans="7:26" x14ac:dyDescent="0.45">
       <c r="G97" s="3"/>
-      <c r="H97" s="16" t="s">
+      <c r="H97" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="I97" s="16"/>
-      <c r="J97" s="16"/>
-      <c r="K97" s="16"/>
+      <c r="I97" s="14"/>
+      <c r="J97" s="14"/>
+      <c r="K97" s="14"/>
       <c r="L97" s="15" t="s">
         <v>1</v>
       </c>
@@ -3322,10 +3327,10 @@
     </row>
     <row r="98" spans="7:26" x14ac:dyDescent="0.45">
       <c r="G98" s="3"/>
-      <c r="H98" s="16"/>
-      <c r="I98" s="16"/>
-      <c r="J98" s="16"/>
-      <c r="K98" s="16"/>
+      <c r="H98" s="14"/>
+      <c r="I98" s="14"/>
+      <c r="J98" s="14"/>
+      <c r="K98" s="14"/>
       <c r="L98" s="15"/>
       <c r="M98" s="15"/>
       <c r="N98" s="15"/>
@@ -3343,25 +3348,25 @@
       <c r="Z98" s="15"/>
     </row>
     <row r="101" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I101" s="12" t="s">
+      <c r="I101" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="K101" s="9">
+      <c r="K101" s="10">
         <v>1</v>
       </c>
-      <c r="L101" s="10" t="s">
+      <c r="L101" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="M101" s="10"/>
-      <c r="N101" s="10"/>
-      <c r="O101" s="10"/>
-      <c r="P101" s="10"/>
+      <c r="M101" s="11"/>
+      <c r="N101" s="11"/>
+      <c r="O101" s="11"/>
+      <c r="P101" s="11"/>
       <c r="Q101" s="1"/>
-      <c r="R101" s="11" t="s">
+      <c r="R101" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="S101" s="11"/>
-      <c r="T101" s="11"/>
+      <c r="S101" s="12"/>
+      <c r="T101" s="12"/>
       <c r="U101" s="1"/>
       <c r="V101" s="8" t="s">
         <v>23</v>
@@ -3372,17 +3377,17 @@
       <c r="Z101" s="8"/>
     </row>
     <row r="102" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I102" s="12"/>
-      <c r="K102" s="9"/>
-      <c r="L102" s="10"/>
-      <c r="M102" s="10"/>
-      <c r="N102" s="10"/>
-      <c r="O102" s="10"/>
-      <c r="P102" s="10"/>
+      <c r="I102" s="9"/>
+      <c r="K102" s="10"/>
+      <c r="L102" s="11"/>
+      <c r="M102" s="11"/>
+      <c r="N102" s="11"/>
+      <c r="O102" s="11"/>
+      <c r="P102" s="11"/>
       <c r="Q102" s="1"/>
-      <c r="R102" s="11"/>
-      <c r="S102" s="11"/>
-      <c r="T102" s="11"/>
+      <c r="R102" s="12"/>
+      <c r="S102" s="12"/>
+      <c r="T102" s="12"/>
       <c r="U102" s="1"/>
       <c r="V102" s="8"/>
       <c r="W102" s="8"/>
@@ -3391,26 +3396,26 @@
       <c r="Z102" s="8"/>
     </row>
     <row r="103" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I103" s="12"/>
+      <c r="I103" s="9"/>
     </row>
     <row r="104" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I104" s="12"/>
-      <c r="K104" s="9">
+      <c r="I104" s="9"/>
+      <c r="K104" s="10">
         <v>2</v>
       </c>
-      <c r="L104" s="11" t="s">
+      <c r="L104" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="M104" s="11"/>
-      <c r="N104" s="11"/>
-      <c r="O104" s="11"/>
-      <c r="P104" s="11"/>
+      <c r="M104" s="12"/>
+      <c r="N104" s="12"/>
+      <c r="O104" s="12"/>
+      <c r="P104" s="12"/>
       <c r="Q104" s="1"/>
-      <c r="R104" s="11" t="s">
+      <c r="R104" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="S104" s="11"/>
-      <c r="T104" s="11"/>
+      <c r="S104" s="12"/>
+      <c r="T104" s="12"/>
       <c r="U104" s="1"/>
       <c r="V104" s="13" t="s">
         <v>51</v>
@@ -3421,17 +3426,17 @@
       <c r="Z104" s="13"/>
     </row>
     <row r="105" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I105" s="12"/>
-      <c r="K105" s="9"/>
-      <c r="L105" s="11"/>
-      <c r="M105" s="11"/>
-      <c r="N105" s="11"/>
-      <c r="O105" s="11"/>
-      <c r="P105" s="11"/>
+      <c r="I105" s="9"/>
+      <c r="K105" s="10"/>
+      <c r="L105" s="12"/>
+      <c r="M105" s="12"/>
+      <c r="N105" s="12"/>
+      <c r="O105" s="12"/>
+      <c r="P105" s="12"/>
       <c r="Q105" s="1"/>
-      <c r="R105" s="11"/>
-      <c r="S105" s="11"/>
-      <c r="T105" s="11"/>
+      <c r="R105" s="12"/>
+      <c r="S105" s="12"/>
+      <c r="T105" s="12"/>
       <c r="U105" s="1"/>
       <c r="V105" s="13"/>
       <c r="W105" s="13"/>
@@ -3440,26 +3445,26 @@
       <c r="Z105" s="13"/>
     </row>
     <row r="106" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I106" s="12"/>
+      <c r="I106" s="9"/>
     </row>
     <row r="107" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I107" s="12"/>
-      <c r="K107" s="9">
+      <c r="I107" s="9"/>
+      <c r="K107" s="10">
         <v>3</v>
       </c>
-      <c r="L107" s="11" t="s">
+      <c r="L107" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="M107" s="11"/>
-      <c r="N107" s="11"/>
-      <c r="O107" s="11"/>
-      <c r="P107" s="11"/>
+      <c r="M107" s="12"/>
+      <c r="N107" s="12"/>
+      <c r="O107" s="12"/>
+      <c r="P107" s="12"/>
       <c r="Q107" s="1"/>
-      <c r="R107" s="11" t="s">
+      <c r="R107" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="S107" s="11"/>
-      <c r="T107" s="11"/>
+      <c r="S107" s="12"/>
+      <c r="T107" s="12"/>
       <c r="V107" s="13" t="s">
         <v>51</v>
       </c>
@@ -3469,17 +3474,17 @@
       <c r="Z107" s="13"/>
     </row>
     <row r="108" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I108" s="12"/>
-      <c r="K108" s="9"/>
-      <c r="L108" s="11"/>
-      <c r="M108" s="11"/>
-      <c r="N108" s="11"/>
-      <c r="O108" s="11"/>
-      <c r="P108" s="11"/>
+      <c r="I108" s="9"/>
+      <c r="K108" s="10"/>
+      <c r="L108" s="12"/>
+      <c r="M108" s="12"/>
+      <c r="N108" s="12"/>
+      <c r="O108" s="12"/>
+      <c r="P108" s="12"/>
       <c r="Q108" s="1"/>
-      <c r="R108" s="11"/>
-      <c r="S108" s="11"/>
-      <c r="T108" s="11"/>
+      <c r="R108" s="12"/>
+      <c r="S108" s="12"/>
+      <c r="T108" s="12"/>
       <c r="V108" s="13"/>
       <c r="W108" s="13"/>
       <c r="X108" s="13"/>
@@ -3487,26 +3492,26 @@
       <c r="Z108" s="13"/>
     </row>
     <row r="109" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I109" s="12"/>
+      <c r="I109" s="9"/>
     </row>
     <row r="110" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I110" s="12"/>
-      <c r="K110" s="9">
+      <c r="I110" s="9"/>
+      <c r="K110" s="10">
         <v>4</v>
       </c>
-      <c r="L110" s="11" t="s">
+      <c r="L110" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="M110" s="11"/>
-      <c r="N110" s="11"/>
-      <c r="O110" s="11"/>
-      <c r="P110" s="11"/>
+      <c r="M110" s="12"/>
+      <c r="N110" s="12"/>
+      <c r="O110" s="12"/>
+      <c r="P110" s="12"/>
       <c r="Q110" s="1"/>
-      <c r="R110" s="11" t="s">
+      <c r="R110" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="S110" s="11"/>
-      <c r="T110" s="11"/>
+      <c r="S110" s="12"/>
+      <c r="T110" s="12"/>
       <c r="V110" s="13" t="s">
         <v>51</v>
       </c>
@@ -3516,17 +3521,17 @@
       <c r="Z110" s="13"/>
     </row>
     <row r="111" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I111" s="12"/>
-      <c r="K111" s="9"/>
-      <c r="L111" s="11"/>
-      <c r="M111" s="11"/>
-      <c r="N111" s="11"/>
-      <c r="O111" s="11"/>
-      <c r="P111" s="11"/>
+      <c r="I111" s="9"/>
+      <c r="K111" s="10"/>
+      <c r="L111" s="12"/>
+      <c r="M111" s="12"/>
+      <c r="N111" s="12"/>
+      <c r="O111" s="12"/>
+      <c r="P111" s="12"/>
       <c r="Q111" s="1"/>
-      <c r="R111" s="11"/>
-      <c r="S111" s="11"/>
-      <c r="T111" s="11"/>
+      <c r="R111" s="12"/>
+      <c r="S111" s="12"/>
+      <c r="T111" s="12"/>
       <c r="V111" s="13"/>
       <c r="W111" s="13"/>
       <c r="X111" s="13"/>
@@ -3534,26 +3539,26 @@
       <c r="Z111" s="13"/>
     </row>
     <row r="112" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I112" s="12"/>
+      <c r="I112" s="9"/>
     </row>
     <row r="113" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I113" s="12"/>
-      <c r="K113" s="9">
+      <c r="I113" s="9"/>
+      <c r="K113" s="10">
         <v>5</v>
       </c>
-      <c r="L113" s="11" t="s">
+      <c r="L113" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="M113" s="11"/>
-      <c r="N113" s="11"/>
-      <c r="O113" s="11"/>
-      <c r="P113" s="11"/>
+      <c r="M113" s="12"/>
+      <c r="N113" s="12"/>
+      <c r="O113" s="12"/>
+      <c r="P113" s="12"/>
       <c r="Q113" s="1"/>
-      <c r="R113" s="11" t="s">
+      <c r="R113" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="S113" s="11"/>
-      <c r="T113" s="11"/>
+      <c r="S113" s="12"/>
+      <c r="T113" s="12"/>
       <c r="V113" s="13" t="s">
         <v>51</v>
       </c>
@@ -3566,17 +3571,17 @@
       <c r="G114" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I114" s="12"/>
-      <c r="K114" s="9"/>
-      <c r="L114" s="11"/>
-      <c r="M114" s="11"/>
-      <c r="N114" s="11"/>
-      <c r="O114" s="11"/>
-      <c r="P114" s="11"/>
+      <c r="I114" s="9"/>
+      <c r="K114" s="10"/>
+      <c r="L114" s="12"/>
+      <c r="M114" s="12"/>
+      <c r="N114" s="12"/>
+      <c r="O114" s="12"/>
+      <c r="P114" s="12"/>
       <c r="Q114" s="1"/>
-      <c r="R114" s="11"/>
-      <c r="S114" s="11"/>
-      <c r="T114" s="11"/>
+      <c r="R114" s="12"/>
+      <c r="S114" s="12"/>
+      <c r="T114" s="12"/>
       <c r="V114" s="13"/>
       <c r="W114" s="13"/>
       <c r="X114" s="13"/>
@@ -3593,25 +3598,25 @@
     </row>
     <row r="117" spans="7:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G117" s="19"/>
-      <c r="I117" s="12" t="s">
+      <c r="I117" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="K117" s="9">
+      <c r="K117" s="10">
         <v>1</v>
       </c>
-      <c r="L117" s="10" t="s">
+      <c r="L117" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="M117" s="10"/>
-      <c r="N117" s="10"/>
-      <c r="O117" s="10"/>
-      <c r="P117" s="10"/>
+      <c r="M117" s="11"/>
+      <c r="N117" s="11"/>
+      <c r="O117" s="11"/>
+      <c r="P117" s="11"/>
       <c r="Q117" s="1"/>
-      <c r="R117" s="11" t="s">
+      <c r="R117" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="S117" s="11"/>
-      <c r="T117" s="11"/>
+      <c r="S117" s="12"/>
+      <c r="T117" s="12"/>
       <c r="V117" s="8" t="s">
         <v>23</v>
       </c>
@@ -3622,17 +3627,17 @@
     </row>
     <row r="118" spans="7:26" x14ac:dyDescent="0.45">
       <c r="G118" s="19"/>
-      <c r="I118" s="12"/>
-      <c r="K118" s="9"/>
-      <c r="L118" s="10"/>
-      <c r="M118" s="10"/>
-      <c r="N118" s="10"/>
-      <c r="O118" s="10"/>
-      <c r="P118" s="10"/>
+      <c r="I118" s="9"/>
+      <c r="K118" s="10"/>
+      <c r="L118" s="11"/>
+      <c r="M118" s="11"/>
+      <c r="N118" s="11"/>
+      <c r="O118" s="11"/>
+      <c r="P118" s="11"/>
       <c r="Q118" s="1"/>
-      <c r="R118" s="11"/>
-      <c r="S118" s="11"/>
-      <c r="T118" s="11"/>
+      <c r="R118" s="12"/>
+      <c r="S118" s="12"/>
+      <c r="T118" s="12"/>
       <c r="V118" s="8"/>
       <c r="W118" s="8"/>
       <c r="X118" s="8"/>
@@ -3640,26 +3645,26 @@
       <c r="Z118" s="8"/>
     </row>
     <row r="119" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I119" s="12"/>
+      <c r="I119" s="9"/>
     </row>
     <row r="120" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I120" s="12"/>
-      <c r="K120" s="9">
+      <c r="I120" s="9"/>
+      <c r="K120" s="10">
         <v>2</v>
       </c>
-      <c r="L120" s="10" t="s">
+      <c r="L120" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="M120" s="10"/>
-      <c r="N120" s="10"/>
-      <c r="O120" s="10"/>
-      <c r="P120" s="10"/>
+      <c r="M120" s="11"/>
+      <c r="N120" s="11"/>
+      <c r="O120" s="11"/>
+      <c r="P120" s="11"/>
       <c r="Q120" s="1"/>
-      <c r="R120" s="11" t="s">
+      <c r="R120" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="S120" s="11"/>
-      <c r="T120" s="11"/>
+      <c r="S120" s="12"/>
+      <c r="T120" s="12"/>
       <c r="V120" s="8" t="s">
         <v>23</v>
       </c>
@@ -3669,17 +3674,17 @@
       <c r="Z120" s="8"/>
     </row>
     <row r="121" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I121" s="12"/>
-      <c r="K121" s="9"/>
-      <c r="L121" s="10"/>
-      <c r="M121" s="10"/>
-      <c r="N121" s="10"/>
-      <c r="O121" s="10"/>
-      <c r="P121" s="10"/>
+      <c r="I121" s="9"/>
+      <c r="K121" s="10"/>
+      <c r="L121" s="11"/>
+      <c r="M121" s="11"/>
+      <c r="N121" s="11"/>
+      <c r="O121" s="11"/>
+      <c r="P121" s="11"/>
       <c r="Q121" s="1"/>
-      <c r="R121" s="11"/>
-      <c r="S121" s="11"/>
-      <c r="T121" s="11"/>
+      <c r="R121" s="12"/>
+      <c r="S121" s="12"/>
+      <c r="T121" s="12"/>
       <c r="V121" s="8"/>
       <c r="W121" s="8"/>
       <c r="X121" s="8"/>
@@ -3687,26 +3692,26 @@
       <c r="Z121" s="8"/>
     </row>
     <row r="122" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I122" s="12"/>
+      <c r="I122" s="9"/>
     </row>
     <row r="123" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I123" s="12"/>
-      <c r="K123" s="9">
+      <c r="I123" s="9"/>
+      <c r="K123" s="10">
         <v>3</v>
       </c>
-      <c r="L123" s="10" t="s">
+      <c r="L123" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="M123" s="10"/>
-      <c r="N123" s="10"/>
-      <c r="O123" s="10"/>
-      <c r="P123" s="10"/>
+      <c r="M123" s="11"/>
+      <c r="N123" s="11"/>
+      <c r="O123" s="11"/>
+      <c r="P123" s="11"/>
       <c r="Q123" s="1"/>
-      <c r="R123" s="11" t="s">
+      <c r="R123" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="S123" s="11"/>
-      <c r="T123" s="11"/>
+      <c r="S123" s="12"/>
+      <c r="T123" s="12"/>
       <c r="V123" s="8" t="s">
         <v>23</v>
       </c>
@@ -3716,17 +3721,17 @@
       <c r="Z123" s="8"/>
     </row>
     <row r="124" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I124" s="12"/>
-      <c r="K124" s="9"/>
-      <c r="L124" s="10"/>
-      <c r="M124" s="10"/>
-      <c r="N124" s="10"/>
-      <c r="O124" s="10"/>
-      <c r="P124" s="10"/>
+      <c r="I124" s="9"/>
+      <c r="K124" s="10"/>
+      <c r="L124" s="11"/>
+      <c r="M124" s="11"/>
+      <c r="N124" s="11"/>
+      <c r="O124" s="11"/>
+      <c r="P124" s="11"/>
       <c r="Q124" s="1"/>
-      <c r="R124" s="11"/>
-      <c r="S124" s="11"/>
-      <c r="T124" s="11"/>
+      <c r="R124" s="12"/>
+      <c r="S124" s="12"/>
+      <c r="T124" s="12"/>
       <c r="V124" s="8"/>
       <c r="W124" s="8"/>
       <c r="X124" s="8"/>
@@ -3734,26 +3739,26 @@
       <c r="Z124" s="8"/>
     </row>
     <row r="125" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I125" s="12"/>
+      <c r="I125" s="9"/>
     </row>
     <row r="126" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I126" s="12"/>
-      <c r="K126" s="9">
+      <c r="I126" s="9"/>
+      <c r="K126" s="10">
         <v>4</v>
       </c>
-      <c r="L126" s="10" t="s">
+      <c r="L126" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="M126" s="10"/>
-      <c r="N126" s="10"/>
-      <c r="O126" s="10"/>
-      <c r="P126" s="10"/>
+      <c r="M126" s="11"/>
+      <c r="N126" s="11"/>
+      <c r="O126" s="11"/>
+      <c r="P126" s="11"/>
       <c r="Q126" s="1"/>
-      <c r="R126" s="11" t="s">
+      <c r="R126" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="S126" s="11"/>
-      <c r="T126" s="11"/>
+      <c r="S126" s="12"/>
+      <c r="T126" s="12"/>
       <c r="V126" s="8" t="s">
         <v>23</v>
       </c>
@@ -3763,17 +3768,17 @@
       <c r="Z126" s="8"/>
     </row>
     <row r="127" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I127" s="12"/>
-      <c r="K127" s="9"/>
-      <c r="L127" s="10"/>
-      <c r="M127" s="10"/>
-      <c r="N127" s="10"/>
-      <c r="O127" s="10"/>
-      <c r="P127" s="10"/>
+      <c r="I127" s="9"/>
+      <c r="K127" s="10"/>
+      <c r="L127" s="11"/>
+      <c r="M127" s="11"/>
+      <c r="N127" s="11"/>
+      <c r="O127" s="11"/>
+      <c r="P127" s="11"/>
       <c r="Q127" s="1"/>
-      <c r="R127" s="11"/>
-      <c r="S127" s="11"/>
-      <c r="T127" s="11"/>
+      <c r="R127" s="12"/>
+      <c r="S127" s="12"/>
+      <c r="T127" s="12"/>
       <c r="V127" s="8"/>
       <c r="W127" s="8"/>
       <c r="X127" s="8"/>
@@ -3781,26 +3786,26 @@
       <c r="Z127" s="8"/>
     </row>
     <row r="128" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I128" s="12"/>
+      <c r="I128" s="9"/>
     </row>
     <row r="129" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I129" s="12"/>
-      <c r="K129" s="9">
+      <c r="I129" s="9"/>
+      <c r="K129" s="10">
         <v>5</v>
       </c>
-      <c r="L129" s="10" t="s">
+      <c r="L129" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="M129" s="10"/>
-      <c r="N129" s="10"/>
-      <c r="O129" s="10"/>
-      <c r="P129" s="10"/>
+      <c r="M129" s="11"/>
+      <c r="N129" s="11"/>
+      <c r="O129" s="11"/>
+      <c r="P129" s="11"/>
       <c r="Q129" s="1"/>
-      <c r="R129" s="11" t="s">
+      <c r="R129" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="S129" s="11"/>
-      <c r="T129" s="11"/>
+      <c r="S129" s="12"/>
+      <c r="T129" s="12"/>
       <c r="V129" s="8" t="s">
         <v>90</v>
       </c>
@@ -3810,17 +3815,17 @@
       <c r="Z129" s="8"/>
     </row>
     <row r="130" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I130" s="12"/>
-      <c r="K130" s="9"/>
-      <c r="L130" s="10"/>
-      <c r="M130" s="10"/>
-      <c r="N130" s="10"/>
-      <c r="O130" s="10"/>
-      <c r="P130" s="10"/>
+      <c r="I130" s="9"/>
+      <c r="K130" s="10"/>
+      <c r="L130" s="11"/>
+      <c r="M130" s="11"/>
+      <c r="N130" s="11"/>
+      <c r="O130" s="11"/>
+      <c r="P130" s="11"/>
       <c r="Q130" s="1"/>
-      <c r="R130" s="11"/>
-      <c r="S130" s="11"/>
-      <c r="T130" s="11"/>
+      <c r="R130" s="12"/>
+      <c r="S130" s="12"/>
+      <c r="T130" s="12"/>
       <c r="V130" s="8"/>
       <c r="W130" s="8"/>
       <c r="X130" s="8"/>
@@ -3829,12 +3834,12 @@
     </row>
     <row r="132" spans="7:26" x14ac:dyDescent="0.45">
       <c r="G132" s="3"/>
-      <c r="H132" s="16" t="s">
+      <c r="H132" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="I132" s="16"/>
-      <c r="J132" s="16"/>
-      <c r="K132" s="16"/>
+      <c r="I132" s="14"/>
+      <c r="J132" s="14"/>
+      <c r="K132" s="14"/>
       <c r="L132" s="15" t="s">
         <v>1</v>
       </c>
@@ -3858,10 +3863,10 @@
     </row>
     <row r="133" spans="7:26" x14ac:dyDescent="0.45">
       <c r="G133" s="3"/>
-      <c r="H133" s="16"/>
-      <c r="I133" s="16"/>
-      <c r="J133" s="16"/>
-      <c r="K133" s="16"/>
+      <c r="H133" s="14"/>
+      <c r="I133" s="14"/>
+      <c r="J133" s="14"/>
+      <c r="K133" s="14"/>
       <c r="L133" s="15"/>
       <c r="M133" s="15"/>
       <c r="N133" s="15"/>
@@ -3878,218 +3883,271 @@
       <c r="Z133" s="15"/>
     </row>
     <row r="136" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I136" s="12" t="s">
+      <c r="I136" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="K136" s="9">
+      <c r="K136" s="10">
         <v>1</v>
       </c>
-      <c r="L136" s="10" t="s">
+      <c r="L136" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="M136" s="10"/>
-      <c r="N136" s="10"/>
-      <c r="O136" s="10"/>
-      <c r="P136" s="10"/>
+      <c r="M136" s="11"/>
+      <c r="N136" s="11"/>
+      <c r="O136" s="11"/>
+      <c r="P136" s="11"/>
       <c r="Q136" s="1"/>
-      <c r="R136" s="11" t="s">
+      <c r="R136" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="S136" s="11"/>
-      <c r="T136" s="11"/>
-      <c r="V136" s="28"/>
-      <c r="W136" s="28"/>
-      <c r="X136" s="28"/>
-      <c r="Y136" s="28"/>
-      <c r="Z136" s="28"/>
+      <c r="S136" s="12"/>
+      <c r="T136" s="12"/>
+      <c r="V136" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="W136" s="13"/>
+      <c r="X136" s="13"/>
+      <c r="Y136" s="13"/>
+      <c r="Z136" s="13"/>
     </row>
     <row r="137" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I137" s="12"/>
-      <c r="K137" s="9"/>
-      <c r="L137" s="10"/>
-      <c r="M137" s="10"/>
-      <c r="N137" s="10"/>
-      <c r="O137" s="10"/>
-      <c r="P137" s="10"/>
+      <c r="I137" s="9"/>
+      <c r="K137" s="10"/>
+      <c r="L137" s="11"/>
+      <c r="M137" s="11"/>
+      <c r="N137" s="11"/>
+      <c r="O137" s="11"/>
+      <c r="P137" s="11"/>
       <c r="Q137" s="1"/>
-      <c r="R137" s="11"/>
-      <c r="S137" s="11"/>
-      <c r="T137" s="11"/>
-      <c r="V137" s="28"/>
-      <c r="W137" s="28"/>
-      <c r="X137" s="28"/>
-      <c r="Y137" s="28"/>
-      <c r="Z137" s="28"/>
+      <c r="R137" s="12"/>
+      <c r="S137" s="12"/>
+      <c r="T137" s="12"/>
+      <c r="V137" s="13"/>
+      <c r="W137" s="13"/>
+      <c r="X137" s="13"/>
+      <c r="Y137" s="13"/>
+      <c r="Z137" s="13"/>
     </row>
     <row r="138" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I138" s="12"/>
+      <c r="I138" s="9"/>
     </row>
     <row r="139" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I139" s="12"/>
-      <c r="K139" s="9">
+      <c r="I139" s="9"/>
+      <c r="K139" s="10">
         <v>2</v>
       </c>
-      <c r="L139" s="11" t="s">
+      <c r="L139" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="M139" s="11"/>
-      <c r="N139" s="11"/>
-      <c r="O139" s="11"/>
-      <c r="P139" s="11"/>
+      <c r="M139" s="12"/>
+      <c r="N139" s="12"/>
+      <c r="O139" s="12"/>
+      <c r="P139" s="12"/>
       <c r="Q139" s="1"/>
-      <c r="R139" s="11" t="s">
+      <c r="R139" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="S139" s="11"/>
-      <c r="T139" s="11"/>
+      <c r="S139" s="12"/>
+      <c r="T139" s="12"/>
+      <c r="V139" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="W139" s="13"/>
+      <c r="X139" s="13"/>
+      <c r="Y139" s="13"/>
+      <c r="Z139" s="13"/>
     </row>
     <row r="140" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I140" s="12"/>
-      <c r="K140" s="9"/>
-      <c r="L140" s="11"/>
-      <c r="M140" s="11"/>
-      <c r="N140" s="11"/>
-      <c r="O140" s="11"/>
-      <c r="P140" s="11"/>
+      <c r="I140" s="9"/>
+      <c r="K140" s="10"/>
+      <c r="L140" s="12"/>
+      <c r="M140" s="12"/>
+      <c r="N140" s="12"/>
+      <c r="O140" s="12"/>
+      <c r="P140" s="12"/>
       <c r="Q140" s="1"/>
-      <c r="R140" s="11"/>
-      <c r="S140" s="11"/>
-      <c r="T140" s="11"/>
+      <c r="R140" s="12"/>
+      <c r="S140" s="12"/>
+      <c r="T140" s="12"/>
+      <c r="V140" s="13"/>
+      <c r="W140" s="13"/>
+      <c r="X140" s="13"/>
+      <c r="Y140" s="13"/>
+      <c r="Z140" s="13"/>
     </row>
     <row r="141" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I141" s="12"/>
+      <c r="I141" s="9"/>
     </row>
     <row r="142" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I142" s="12"/>
-      <c r="K142" s="9">
+      <c r="I142" s="9"/>
+      <c r="K142" s="10">
         <v>3</v>
       </c>
-      <c r="L142" s="11" t="s">
+      <c r="L142" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="M142" s="11"/>
-      <c r="N142" s="11"/>
-      <c r="O142" s="11"/>
-      <c r="P142" s="11"/>
+      <c r="M142" s="12"/>
+      <c r="N142" s="12"/>
+      <c r="O142" s="12"/>
+      <c r="P142" s="12"/>
       <c r="Q142" s="1"/>
-      <c r="R142" s="11" t="s">
+      <c r="R142" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="S142" s="11"/>
-      <c r="T142" s="11"/>
+      <c r="S142" s="12"/>
+      <c r="T142" s="12"/>
+      <c r="V142" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="W142" s="13"/>
+      <c r="X142" s="13"/>
+      <c r="Y142" s="13"/>
+      <c r="Z142" s="13"/>
     </row>
     <row r="143" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I143" s="12"/>
-      <c r="K143" s="9"/>
-      <c r="L143" s="11"/>
-      <c r="M143" s="11"/>
-      <c r="N143" s="11"/>
-      <c r="O143" s="11"/>
-      <c r="P143" s="11"/>
+      <c r="I143" s="9"/>
+      <c r="K143" s="10"/>
+      <c r="L143" s="12"/>
+      <c r="M143" s="12"/>
+      <c r="N143" s="12"/>
+      <c r="O143" s="12"/>
+      <c r="P143" s="12"/>
       <c r="Q143" s="1"/>
-      <c r="R143" s="11"/>
-      <c r="S143" s="11"/>
-      <c r="T143" s="11"/>
+      <c r="R143" s="12"/>
+      <c r="S143" s="12"/>
+      <c r="T143" s="12"/>
+      <c r="V143" s="13"/>
+      <c r="W143" s="13"/>
+      <c r="X143" s="13"/>
+      <c r="Y143" s="13"/>
+      <c r="Z143" s="13"/>
     </row>
     <row r="144" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I144" s="12"/>
+      <c r="I144" s="9"/>
     </row>
     <row r="145" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I145" s="12"/>
-      <c r="K145" s="9">
+      <c r="I145" s="9"/>
+      <c r="K145" s="10">
         <v>4</v>
       </c>
-      <c r="L145" s="11" t="s">
+      <c r="L145" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="M145" s="11"/>
-      <c r="N145" s="11"/>
-      <c r="O145" s="11"/>
-      <c r="P145" s="11"/>
+      <c r="M145" s="12"/>
+      <c r="N145" s="12"/>
+      <c r="O145" s="12"/>
+      <c r="P145" s="12"/>
       <c r="Q145" s="1"/>
-      <c r="R145" s="11" t="s">
+      <c r="R145" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="S145" s="11"/>
-      <c r="T145" s="11"/>
+      <c r="S145" s="12"/>
+      <c r="T145" s="12"/>
+      <c r="V145" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="W145" s="13"/>
+      <c r="X145" s="13"/>
+      <c r="Y145" s="13"/>
+      <c r="Z145" s="13"/>
     </row>
     <row r="146" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I146" s="12"/>
-      <c r="K146" s="9"/>
-      <c r="L146" s="11"/>
-      <c r="M146" s="11"/>
-      <c r="N146" s="11"/>
-      <c r="O146" s="11"/>
-      <c r="P146" s="11"/>
+      <c r="I146" s="9"/>
+      <c r="K146" s="10"/>
+      <c r="L146" s="12"/>
+      <c r="M146" s="12"/>
+      <c r="N146" s="12"/>
+      <c r="O146" s="12"/>
+      <c r="P146" s="12"/>
       <c r="Q146" s="1"/>
-      <c r="R146" s="11"/>
-      <c r="S146" s="11"/>
-      <c r="T146" s="11"/>
+      <c r="R146" s="12"/>
+      <c r="S146" s="12"/>
+      <c r="T146" s="12"/>
+      <c r="V146" s="13"/>
+      <c r="W146" s="13"/>
+      <c r="X146" s="13"/>
+      <c r="Y146" s="13"/>
+      <c r="Z146" s="13"/>
     </row>
     <row r="147" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I147" s="12"/>
+      <c r="I147" s="9"/>
     </row>
     <row r="148" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I148" s="12"/>
-      <c r="K148" s="9">
+      <c r="I148" s="9"/>
+      <c r="K148" s="10">
         <v>5</v>
       </c>
-      <c r="L148" s="11" t="s">
+      <c r="L148" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="M148" s="11"/>
-      <c r="N148" s="11"/>
-      <c r="O148" s="11"/>
-      <c r="P148" s="11"/>
+      <c r="M148" s="12"/>
+      <c r="N148" s="12"/>
+      <c r="O148" s="12"/>
+      <c r="P148" s="12"/>
       <c r="Q148" s="1"/>
-      <c r="R148" s="11" t="s">
+      <c r="R148" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="S148" s="11"/>
-      <c r="T148" s="11"/>
+      <c r="S148" s="12"/>
+      <c r="T148" s="12"/>
+      <c r="V148" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="W148" s="13"/>
+      <c r="X148" s="13"/>
+      <c r="Y148" s="13"/>
+      <c r="Z148" s="13"/>
     </row>
     <row r="149" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I149" s="12"/>
-      <c r="K149" s="9"/>
-      <c r="L149" s="11"/>
-      <c r="M149" s="11"/>
-      <c r="N149" s="11"/>
-      <c r="O149" s="11"/>
-      <c r="P149" s="11"/>
+      <c r="G149" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I149" s="9"/>
+      <c r="K149" s="10"/>
+      <c r="L149" s="12"/>
+      <c r="M149" s="12"/>
+      <c r="N149" s="12"/>
+      <c r="O149" s="12"/>
+      <c r="P149" s="12"/>
       <c r="Q149" s="1"/>
-      <c r="R149" s="11"/>
-      <c r="S149" s="11"/>
-      <c r="T149" s="11"/>
-    </row>
-    <row r="150" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="G150" s="12" t="s">
+      <c r="R149" s="12"/>
+      <c r="S149" s="12"/>
+      <c r="T149" s="12"/>
+      <c r="V149" s="13"/>
+      <c r="W149" s="13"/>
+      <c r="X149" s="13"/>
+      <c r="Y149" s="13"/>
+      <c r="Z149" s="13"/>
+    </row>
+    <row r="150" spans="7:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G150" s="19" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="151" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="G151" s="12"/>
-    </row>
-    <row r="152" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="G152" s="12"/>
-      <c r="I152" s="12" t="s">
+      <c r="G151" s="19"/>
+    </row>
+    <row r="152" spans="7:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G152" s="19"/>
+      <c r="I152" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="K152" s="9">
+      <c r="K152" s="10">
         <v>1</v>
       </c>
-      <c r="L152" s="10" t="s">
+      <c r="L152" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="M152" s="10"/>
-      <c r="N152" s="10"/>
-      <c r="O152" s="10"/>
-      <c r="P152" s="10"/>
+      <c r="M152" s="11"/>
+      <c r="N152" s="11"/>
+      <c r="O152" s="11"/>
+      <c r="P152" s="11"/>
       <c r="Q152" s="1"/>
-      <c r="R152" s="11" t="s">
+      <c r="R152" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="S152" s="11"/>
-      <c r="T152" s="11"/>
+      <c r="S152" s="12"/>
+      <c r="T152" s="12"/>
       <c r="V152" s="8" t="s">
         <v>23</v>
       </c>
@@ -4099,18 +4157,18 @@
       <c r="Z152" s="8"/>
     </row>
     <row r="153" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="G153" s="12"/>
-      <c r="I153" s="12"/>
-      <c r="K153" s="9"/>
-      <c r="L153" s="10"/>
-      <c r="M153" s="10"/>
-      <c r="N153" s="10"/>
-      <c r="O153" s="10"/>
-      <c r="P153" s="10"/>
+      <c r="G153" s="19"/>
+      <c r="I153" s="20"/>
+      <c r="K153" s="10"/>
+      <c r="L153" s="11"/>
+      <c r="M153" s="11"/>
+      <c r="N153" s="11"/>
+      <c r="O153" s="11"/>
+      <c r="P153" s="11"/>
       <c r="Q153" s="1"/>
-      <c r="R153" s="11"/>
-      <c r="S153" s="11"/>
-      <c r="T153" s="11"/>
+      <c r="R153" s="12"/>
+      <c r="S153" s="12"/>
+      <c r="T153" s="12"/>
       <c r="V153" s="8"/>
       <c r="W153" s="8"/>
       <c r="X153" s="8"/>
@@ -4118,26 +4176,26 @@
       <c r="Z153" s="8"/>
     </row>
     <row r="154" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I154" s="12"/>
+      <c r="I154" s="20"/>
     </row>
     <row r="155" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I155" s="12"/>
-      <c r="K155" s="9">
+      <c r="I155" s="20"/>
+      <c r="K155" s="10">
         <v>2</v>
       </c>
-      <c r="L155" s="10" t="s">
+      <c r="L155" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="M155" s="10"/>
-      <c r="N155" s="10"/>
-      <c r="O155" s="10"/>
-      <c r="P155" s="10"/>
+      <c r="M155" s="11"/>
+      <c r="N155" s="11"/>
+      <c r="O155" s="11"/>
+      <c r="P155" s="11"/>
       <c r="Q155" s="1"/>
-      <c r="R155" s="11" t="s">
+      <c r="R155" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="S155" s="11"/>
-      <c r="T155" s="11"/>
+      <c r="S155" s="12"/>
+      <c r="T155" s="12"/>
       <c r="V155" s="8" t="s">
         <v>23</v>
       </c>
@@ -4147,17 +4205,17 @@
       <c r="Z155" s="8"/>
     </row>
     <row r="156" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I156" s="12"/>
-      <c r="K156" s="9"/>
-      <c r="L156" s="10"/>
-      <c r="M156" s="10"/>
-      <c r="N156" s="10"/>
-      <c r="O156" s="10"/>
-      <c r="P156" s="10"/>
+      <c r="I156" s="20"/>
+      <c r="K156" s="10"/>
+      <c r="L156" s="11"/>
+      <c r="M156" s="11"/>
+      <c r="N156" s="11"/>
+      <c r="O156" s="11"/>
+      <c r="P156" s="11"/>
       <c r="Q156" s="1"/>
-      <c r="R156" s="11"/>
-      <c r="S156" s="11"/>
-      <c r="T156" s="11"/>
+      <c r="R156" s="12"/>
+      <c r="S156" s="12"/>
+      <c r="T156" s="12"/>
       <c r="V156" s="8"/>
       <c r="W156" s="8"/>
       <c r="X156" s="8"/>
@@ -4165,219 +4223,472 @@
       <c r="Z156" s="8"/>
     </row>
     <row r="157" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I157" s="12"/>
+      <c r="I157" s="20"/>
     </row>
     <row r="158" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I158" s="12"/>
-      <c r="K158" s="9">
+      <c r="I158" s="20"/>
+      <c r="K158" s="10">
         <v>3</v>
       </c>
-      <c r="L158" s="10" t="s">
+      <c r="L158" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="M158" s="10"/>
-      <c r="N158" s="10"/>
-      <c r="O158" s="10"/>
-      <c r="P158" s="10"/>
+      <c r="M158" s="11"/>
+      <c r="N158" s="11"/>
+      <c r="O158" s="11"/>
+      <c r="P158" s="11"/>
       <c r="Q158" s="1"/>
-      <c r="R158" s="11" t="s">
+      <c r="R158" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="S158" s="11"/>
-      <c r="T158" s="11"/>
+      <c r="S158" s="12"/>
+      <c r="T158" s="12"/>
+      <c r="V158" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="W158" s="17"/>
+      <c r="X158" s="17"/>
+      <c r="Y158" s="17"/>
+      <c r="Z158" s="17"/>
     </row>
     <row r="159" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I159" s="12"/>
-      <c r="K159" s="9"/>
-      <c r="L159" s="10"/>
-      <c r="M159" s="10"/>
-      <c r="N159" s="10"/>
-      <c r="O159" s="10"/>
-      <c r="P159" s="10"/>
+      <c r="I159" s="20"/>
+      <c r="K159" s="10"/>
+      <c r="L159" s="11"/>
+      <c r="M159" s="11"/>
+      <c r="N159" s="11"/>
+      <c r="O159" s="11"/>
+      <c r="P159" s="11"/>
       <c r="Q159" s="1"/>
-      <c r="R159" s="11"/>
-      <c r="S159" s="11"/>
-      <c r="T159" s="11"/>
-    </row>
-    <row r="160" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I160" s="12"/>
-    </row>
-    <row r="161" spans="9:20" x14ac:dyDescent="0.45">
-      <c r="I161" s="12"/>
-      <c r="K161" s="28"/>
-      <c r="L161" s="28"/>
-      <c r="M161" s="28"/>
-      <c r="N161" s="28"/>
-      <c r="O161" s="28"/>
-      <c r="P161" s="28"/>
-      <c r="R161" s="28"/>
-      <c r="S161" s="28"/>
-      <c r="T161" s="28"/>
-    </row>
-    <row r="162" spans="9:20" x14ac:dyDescent="0.45">
-      <c r="I162" s="12"/>
-      <c r="K162" s="28"/>
-      <c r="L162" s="28"/>
-      <c r="M162" s="28"/>
-      <c r="N162" s="28"/>
-      <c r="O162" s="28"/>
-      <c r="P162" s="28"/>
-      <c r="R162" s="28"/>
-      <c r="S162" s="28"/>
-      <c r="T162" s="28"/>
-    </row>
-    <row r="163" spans="9:20" x14ac:dyDescent="0.45">
-      <c r="I163" s="12"/>
-    </row>
-    <row r="164" spans="9:20" x14ac:dyDescent="0.45">
-      <c r="I164" s="12"/>
-      <c r="K164" s="28"/>
-      <c r="L164" s="28"/>
-      <c r="M164" s="28"/>
-      <c r="N164" s="28"/>
-      <c r="O164" s="28"/>
-      <c r="P164" s="28"/>
-      <c r="R164" s="28"/>
-      <c r="S164" s="28"/>
-      <c r="T164" s="28"/>
-    </row>
-    <row r="165" spans="9:20" x14ac:dyDescent="0.45">
-      <c r="I165" s="12"/>
-      <c r="K165" s="28"/>
-      <c r="L165" s="28"/>
-      <c r="M165" s="28"/>
-      <c r="N165" s="28"/>
-      <c r="O165" s="28"/>
-      <c r="P165" s="28"/>
-      <c r="R165" s="28"/>
-      <c r="S165" s="28"/>
-      <c r="T165" s="28"/>
+      <c r="R159" s="12"/>
+      <c r="S159" s="12"/>
+      <c r="T159" s="12"/>
+      <c r="V159" s="17"/>
+      <c r="W159" s="17"/>
+      <c r="X159" s="17"/>
+      <c r="Y159" s="17"/>
+      <c r="Z159" s="17"/>
+    </row>
+    <row r="161" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="H161" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="I161" s="14"/>
+      <c r="J161" s="14"/>
+      <c r="K161" s="14"/>
+      <c r="L161" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="M161" s="15"/>
+      <c r="N161" s="15"/>
+      <c r="O161" s="15"/>
+      <c r="P161" s="15"/>
+      <c r="Q161" s="1"/>
+      <c r="R161" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="S161" s="15"/>
+      <c r="T161" s="15"/>
+      <c r="V161" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="W161" s="15"/>
+      <c r="X161" s="15"/>
+      <c r="Y161" s="15"/>
+      <c r="Z161" s="15"/>
+    </row>
+    <row r="162" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="H162" s="14"/>
+      <c r="I162" s="14"/>
+      <c r="J162" s="14"/>
+      <c r="K162" s="14"/>
+      <c r="L162" s="15"/>
+      <c r="M162" s="15"/>
+      <c r="N162" s="15"/>
+      <c r="O162" s="15"/>
+      <c r="P162" s="15"/>
+      <c r="Q162" s="1"/>
+      <c r="R162" s="15"/>
+      <c r="S162" s="15"/>
+      <c r="T162" s="15"/>
+      <c r="V162" s="15"/>
+      <c r="W162" s="15"/>
+      <c r="X162" s="15"/>
+      <c r="Y162" s="15"/>
+      <c r="Z162" s="15"/>
+    </row>
+    <row r="165" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="I165" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="K165" s="10">
+        <v>1</v>
+      </c>
+      <c r="L165" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="M165" s="11"/>
+      <c r="N165" s="11"/>
+      <c r="O165" s="11"/>
+      <c r="P165" s="11"/>
+      <c r="Q165" s="1"/>
+      <c r="R165" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="S165" s="12"/>
+      <c r="T165" s="12"/>
+      <c r="V165" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="W165" s="13"/>
+      <c r="X165" s="13"/>
+      <c r="Y165" s="13"/>
+      <c r="Z165" s="13"/>
+    </row>
+    <row r="166" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="I166" s="9"/>
+      <c r="K166" s="10"/>
+      <c r="L166" s="11"/>
+      <c r="M166" s="11"/>
+      <c r="N166" s="11"/>
+      <c r="O166" s="11"/>
+      <c r="P166" s="11"/>
+      <c r="Q166" s="1"/>
+      <c r="R166" s="12"/>
+      <c r="S166" s="12"/>
+      <c r="T166" s="12"/>
+      <c r="V166" s="13"/>
+      <c r="W166" s="13"/>
+      <c r="X166" s="13"/>
+      <c r="Y166" s="13"/>
+      <c r="Z166" s="13"/>
+    </row>
+    <row r="167" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="I167" s="9"/>
+    </row>
+    <row r="168" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="I168" s="9"/>
+      <c r="K168" s="10">
+        <v>2</v>
+      </c>
+      <c r="L168" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="M168" s="12"/>
+      <c r="N168" s="12"/>
+      <c r="O168" s="12"/>
+      <c r="P168" s="12"/>
+      <c r="Q168" s="1"/>
+      <c r="R168" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="S168" s="12"/>
+      <c r="T168" s="12"/>
+      <c r="V168" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="W168" s="13"/>
+      <c r="X168" s="13"/>
+      <c r="Y168" s="13"/>
+      <c r="Z168" s="13"/>
+    </row>
+    <row r="169" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="I169" s="9"/>
+      <c r="K169" s="10"/>
+      <c r="L169" s="12"/>
+      <c r="M169" s="12"/>
+      <c r="N169" s="12"/>
+      <c r="O169" s="12"/>
+      <c r="P169" s="12"/>
+      <c r="Q169" s="1"/>
+      <c r="R169" s="12"/>
+      <c r="S169" s="12"/>
+      <c r="T169" s="12"/>
+      <c r="V169" s="13"/>
+      <c r="W169" s="13"/>
+      <c r="X169" s="13"/>
+      <c r="Y169" s="13"/>
+      <c r="Z169" s="13"/>
+    </row>
+    <row r="170" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="I170" s="9"/>
+    </row>
+    <row r="171" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="I171" s="9"/>
+      <c r="K171" s="10">
+        <v>3</v>
+      </c>
+      <c r="L171" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="M171" s="12"/>
+      <c r="N171" s="12"/>
+      <c r="O171" s="12"/>
+      <c r="P171" s="12"/>
+      <c r="Q171" s="1"/>
+      <c r="R171" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="S171" s="12"/>
+      <c r="T171" s="12"/>
+      <c r="V171" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="W171" s="13"/>
+      <c r="X171" s="13"/>
+      <c r="Y171" s="13"/>
+      <c r="Z171" s="13"/>
+    </row>
+    <row r="172" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="I172" s="9"/>
+      <c r="K172" s="10"/>
+      <c r="L172" s="12"/>
+      <c r="M172" s="12"/>
+      <c r="N172" s="12"/>
+      <c r="O172" s="12"/>
+      <c r="P172" s="12"/>
+      <c r="Q172" s="1"/>
+      <c r="R172" s="12"/>
+      <c r="S172" s="12"/>
+      <c r="T172" s="12"/>
+      <c r="V172" s="13"/>
+      <c r="W172" s="13"/>
+      <c r="X172" s="13"/>
+      <c r="Y172" s="13"/>
+      <c r="Z172" s="13"/>
+    </row>
+    <row r="173" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="I173" s="9"/>
+    </row>
+    <row r="174" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="I174" s="9"/>
+      <c r="K174" s="10">
+        <v>4</v>
+      </c>
+      <c r="L174" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="M174" s="12"/>
+      <c r="N174" s="12"/>
+      <c r="O174" s="12"/>
+      <c r="P174" s="12"/>
+      <c r="Q174" s="1"/>
+      <c r="R174" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="S174" s="12"/>
+      <c r="T174" s="12"/>
+      <c r="V174" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="W174" s="13"/>
+      <c r="X174" s="13"/>
+      <c r="Y174" s="13"/>
+      <c r="Z174" s="13"/>
+    </row>
+    <row r="175" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="I175" s="9"/>
+      <c r="K175" s="10"/>
+      <c r="L175" s="12"/>
+      <c r="M175" s="12"/>
+      <c r="N175" s="12"/>
+      <c r="O175" s="12"/>
+      <c r="P175" s="12"/>
+      <c r="Q175" s="1"/>
+      <c r="R175" s="12"/>
+      <c r="S175" s="12"/>
+      <c r="T175" s="12"/>
+      <c r="V175" s="13"/>
+      <c r="W175" s="13"/>
+      <c r="X175" s="13"/>
+      <c r="Y175" s="13"/>
+      <c r="Z175" s="13"/>
+    </row>
+    <row r="176" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="I176" s="9"/>
+    </row>
+    <row r="177" spans="7:26" x14ac:dyDescent="0.45">
+      <c r="I177" s="9"/>
+      <c r="K177" s="10">
+        <v>5</v>
+      </c>
+      <c r="L177" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="M177" s="12"/>
+      <c r="N177" s="12"/>
+      <c r="O177" s="12"/>
+      <c r="P177" s="12"/>
+      <c r="Q177" s="1"/>
+      <c r="R177" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="S177" s="12"/>
+      <c r="T177" s="12"/>
+      <c r="V177" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="W177" s="13"/>
+      <c r="X177" s="13"/>
+      <c r="Y177" s="13"/>
+      <c r="Z177" s="13"/>
+    </row>
+    <row r="178" spans="7:26" x14ac:dyDescent="0.45">
+      <c r="G178" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I178" s="9"/>
+      <c r="K178" s="10"/>
+      <c r="L178" s="12"/>
+      <c r="M178" s="12"/>
+      <c r="N178" s="12"/>
+      <c r="O178" s="12"/>
+      <c r="P178" s="12"/>
+      <c r="Q178" s="1"/>
+      <c r="R178" s="12"/>
+      <c r="S178" s="12"/>
+      <c r="T178" s="12"/>
+      <c r="V178" s="13"/>
+      <c r="W178" s="13"/>
+      <c r="X178" s="13"/>
+      <c r="Y178" s="13"/>
+      <c r="Z178" s="13"/>
+    </row>
+    <row r="179" spans="7:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G179" s="19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="180" spans="7:26" x14ac:dyDescent="0.45">
+      <c r="G180" s="19"/>
+    </row>
+    <row r="181" spans="7:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G181" s="19"/>
+      <c r="I181" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K181" s="10">
+        <v>1</v>
+      </c>
+      <c r="L181" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="M181" s="11"/>
+      <c r="N181" s="11"/>
+      <c r="O181" s="11"/>
+      <c r="P181" s="11"/>
+      <c r="Q181" s="1"/>
+      <c r="R181" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="S181" s="12"/>
+      <c r="T181" s="12"/>
+      <c r="V181" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="W181" s="8"/>
+      <c r="X181" s="8"/>
+      <c r="Y181" s="8"/>
+      <c r="Z181" s="8"/>
+    </row>
+    <row r="182" spans="7:26" x14ac:dyDescent="0.45">
+      <c r="G182" s="19"/>
+      <c r="I182" s="20"/>
+      <c r="K182" s="10"/>
+      <c r="L182" s="11"/>
+      <c r="M182" s="11"/>
+      <c r="N182" s="11"/>
+      <c r="O182" s="11"/>
+      <c r="P182" s="11"/>
+      <c r="Q182" s="1"/>
+      <c r="R182" s="12"/>
+      <c r="S182" s="12"/>
+      <c r="T182" s="12"/>
+      <c r="V182" s="8"/>
+      <c r="W182" s="8"/>
+      <c r="X182" s="8"/>
+      <c r="Y182" s="8"/>
+      <c r="Z182" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="195">
-    <mergeCell ref="V123:Z124"/>
-    <mergeCell ref="V155:Z156"/>
-    <mergeCell ref="V152:Z153"/>
-    <mergeCell ref="G150:G153"/>
-    <mergeCell ref="I152:I165"/>
-    <mergeCell ref="K152:K153"/>
-    <mergeCell ref="L152:P153"/>
-    <mergeCell ref="R152:T153"/>
-    <mergeCell ref="K155:K156"/>
-    <mergeCell ref="L155:P156"/>
-    <mergeCell ref="R155:T156"/>
-    <mergeCell ref="K158:K159"/>
-    <mergeCell ref="L158:P159"/>
-    <mergeCell ref="R158:T159"/>
-    <mergeCell ref="I136:I149"/>
-    <mergeCell ref="K136:K137"/>
-    <mergeCell ref="L136:P137"/>
-    <mergeCell ref="R136:T137"/>
-    <mergeCell ref="K139:K140"/>
-    <mergeCell ref="L139:P140"/>
-    <mergeCell ref="R139:T140"/>
-    <mergeCell ref="K142:K143"/>
-    <mergeCell ref="L142:P143"/>
-    <mergeCell ref="R142:T143"/>
-    <mergeCell ref="K145:K146"/>
-    <mergeCell ref="L145:P146"/>
-    <mergeCell ref="R145:T146"/>
-    <mergeCell ref="K148:K149"/>
-    <mergeCell ref="L148:P149"/>
-    <mergeCell ref="R148:T149"/>
-    <mergeCell ref="I117:I130"/>
-    <mergeCell ref="V101:Z102"/>
-    <mergeCell ref="V104:Z105"/>
-    <mergeCell ref="V107:Z108"/>
-    <mergeCell ref="V110:Z111"/>
-    <mergeCell ref="V113:Z114"/>
-    <mergeCell ref="H132:K133"/>
-    <mergeCell ref="L132:P133"/>
-    <mergeCell ref="R132:T133"/>
-    <mergeCell ref="V132:Z133"/>
-    <mergeCell ref="L81:P82"/>
-    <mergeCell ref="R81:T82"/>
-    <mergeCell ref="K84:K85"/>
-    <mergeCell ref="L84:P85"/>
-    <mergeCell ref="R84:T85"/>
-    <mergeCell ref="I91:I95"/>
-    <mergeCell ref="K87:K88"/>
-    <mergeCell ref="K94:K95"/>
-    <mergeCell ref="V117:Z118"/>
-    <mergeCell ref="I75:I88"/>
-    <mergeCell ref="K78:K79"/>
-    <mergeCell ref="K81:K82"/>
-    <mergeCell ref="K75:K76"/>
-    <mergeCell ref="L75:P76"/>
-    <mergeCell ref="R75:T76"/>
-    <mergeCell ref="H97:K98"/>
-    <mergeCell ref="L97:P98"/>
-    <mergeCell ref="R97:T98"/>
-    <mergeCell ref="V97:Z98"/>
-    <mergeCell ref="K104:K105"/>
-    <mergeCell ref="L104:P105"/>
-    <mergeCell ref="R104:T105"/>
-    <mergeCell ref="K107:K108"/>
-    <mergeCell ref="H68:Z69"/>
-    <mergeCell ref="H71:K72"/>
-    <mergeCell ref="L71:P72"/>
-    <mergeCell ref="R71:T72"/>
-    <mergeCell ref="V71:Z72"/>
-    <mergeCell ref="L65:P66"/>
-    <mergeCell ref="R65:T66"/>
-    <mergeCell ref="V65:Z66"/>
-    <mergeCell ref="H56:Z57"/>
-    <mergeCell ref="H59:K60"/>
-    <mergeCell ref="H62:Z63"/>
-    <mergeCell ref="H65:K66"/>
-    <mergeCell ref="L59:P60"/>
-    <mergeCell ref="R59:T60"/>
-    <mergeCell ref="V59:Z60"/>
-    <mergeCell ref="H53:K54"/>
-    <mergeCell ref="L53:P54"/>
-    <mergeCell ref="R53:T54"/>
-    <mergeCell ref="V53:Z54"/>
-    <mergeCell ref="V35:Z36"/>
-    <mergeCell ref="L38:P39"/>
-    <mergeCell ref="R38:T39"/>
-    <mergeCell ref="V38:Z39"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="L41:P42"/>
-    <mergeCell ref="R41:T42"/>
-    <mergeCell ref="V41:Z42"/>
-    <mergeCell ref="H38:K39"/>
-    <mergeCell ref="V50:Z51"/>
-    <mergeCell ref="V44:Z45"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="V29:Z30"/>
-    <mergeCell ref="V32:Z33"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="L35:P36"/>
-    <mergeCell ref="R35:T36"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="L29:P30"/>
-    <mergeCell ref="R29:T30"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="L32:P33"/>
-    <mergeCell ref="R32:T33"/>
-    <mergeCell ref="V26:Z27"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="L17:P18"/>
-    <mergeCell ref="R17:T18"/>
-    <mergeCell ref="V17:Z18"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:P21"/>
-    <mergeCell ref="R20:T21"/>
-    <mergeCell ref="V20:Z21"/>
-    <mergeCell ref="H2:Z3"/>
-    <mergeCell ref="R5:T6"/>
-    <mergeCell ref="V5:Z6"/>
-    <mergeCell ref="R8:T9"/>
-    <mergeCell ref="V8:Z9"/>
-    <mergeCell ref="L5:P6"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:P9"/>
-    <mergeCell ref="H5:K6"/>
+  <mergeCells count="232">
+    <mergeCell ref="K181:K182"/>
+    <mergeCell ref="L181:P182"/>
+    <mergeCell ref="R181:T182"/>
+    <mergeCell ref="G179:G182"/>
+    <mergeCell ref="V181:Z182"/>
+    <mergeCell ref="I181:I182"/>
+    <mergeCell ref="I165:I178"/>
+    <mergeCell ref="K165:K166"/>
+    <mergeCell ref="L165:P166"/>
+    <mergeCell ref="R165:T166"/>
+    <mergeCell ref="V165:Z166"/>
+    <mergeCell ref="K168:K169"/>
+    <mergeCell ref="L168:P169"/>
+    <mergeCell ref="R168:T169"/>
+    <mergeCell ref="V168:Z169"/>
+    <mergeCell ref="K171:K172"/>
+    <mergeCell ref="L171:P172"/>
+    <mergeCell ref="R171:T172"/>
+    <mergeCell ref="V171:Z172"/>
+    <mergeCell ref="K174:K175"/>
+    <mergeCell ref="L174:P175"/>
+    <mergeCell ref="R174:T175"/>
+    <mergeCell ref="V174:Z175"/>
+    <mergeCell ref="K177:K178"/>
+    <mergeCell ref="L177:P178"/>
+    <mergeCell ref="R177:T178"/>
+    <mergeCell ref="V177:Z178"/>
+    <mergeCell ref="V136:Z137"/>
+    <mergeCell ref="V139:Z140"/>
+    <mergeCell ref="V142:Z143"/>
+    <mergeCell ref="V145:Z146"/>
+    <mergeCell ref="V148:Z149"/>
+    <mergeCell ref="V158:Z159"/>
+    <mergeCell ref="I152:I159"/>
+    <mergeCell ref="H161:K162"/>
+    <mergeCell ref="L161:P162"/>
+    <mergeCell ref="R161:T162"/>
+    <mergeCell ref="V161:Z162"/>
+    <mergeCell ref="R110:T111"/>
+    <mergeCell ref="K129:K130"/>
+    <mergeCell ref="L129:P130"/>
+    <mergeCell ref="R129:T130"/>
+    <mergeCell ref="K101:K102"/>
+    <mergeCell ref="L101:P102"/>
+    <mergeCell ref="R101:T102"/>
+    <mergeCell ref="K123:K124"/>
+    <mergeCell ref="L123:P124"/>
+    <mergeCell ref="R123:T124"/>
+    <mergeCell ref="K126:K127"/>
+    <mergeCell ref="L126:P127"/>
+    <mergeCell ref="R126:T127"/>
+    <mergeCell ref="L107:P108"/>
+    <mergeCell ref="R107:T108"/>
+    <mergeCell ref="G115:G118"/>
+    <mergeCell ref="K113:K114"/>
+    <mergeCell ref="L113:P114"/>
+    <mergeCell ref="R113:T114"/>
+    <mergeCell ref="K117:K118"/>
+    <mergeCell ref="L117:P118"/>
+    <mergeCell ref="R117:T118"/>
+    <mergeCell ref="V75:Z76"/>
+    <mergeCell ref="V78:Z79"/>
+    <mergeCell ref="V81:Z82"/>
+    <mergeCell ref="V84:Z85"/>
+    <mergeCell ref="V87:Z88"/>
+    <mergeCell ref="V91:Z92"/>
+    <mergeCell ref="V94:Z95"/>
+    <mergeCell ref="L78:P79"/>
+    <mergeCell ref="R78:T79"/>
+    <mergeCell ref="L87:P88"/>
+    <mergeCell ref="R87:T88"/>
+    <mergeCell ref="L94:P95"/>
+    <mergeCell ref="R94:T95"/>
+    <mergeCell ref="G88:G91"/>
+    <mergeCell ref="K91:K92"/>
+    <mergeCell ref="L91:P92"/>
+    <mergeCell ref="R91:T92"/>
     <mergeCell ref="V11:Z12"/>
     <mergeCell ref="L14:P15"/>
     <mergeCell ref="R14:T15"/>
@@ -4402,54 +4713,137 @@
     <mergeCell ref="K26:K27"/>
     <mergeCell ref="L26:P27"/>
     <mergeCell ref="R26:T27"/>
-    <mergeCell ref="G115:G118"/>
-    <mergeCell ref="K113:K114"/>
-    <mergeCell ref="L113:P114"/>
-    <mergeCell ref="R113:T114"/>
-    <mergeCell ref="K117:K118"/>
-    <mergeCell ref="L117:P118"/>
-    <mergeCell ref="R117:T118"/>
-    <mergeCell ref="V75:Z76"/>
-    <mergeCell ref="V78:Z79"/>
-    <mergeCell ref="V81:Z82"/>
-    <mergeCell ref="V84:Z85"/>
-    <mergeCell ref="V87:Z88"/>
-    <mergeCell ref="V91:Z92"/>
-    <mergeCell ref="V94:Z95"/>
-    <mergeCell ref="L78:P79"/>
-    <mergeCell ref="R78:T79"/>
-    <mergeCell ref="L87:P88"/>
-    <mergeCell ref="R87:T88"/>
-    <mergeCell ref="L94:P95"/>
-    <mergeCell ref="R94:T95"/>
-    <mergeCell ref="G88:G91"/>
-    <mergeCell ref="K91:K92"/>
-    <mergeCell ref="L91:P92"/>
-    <mergeCell ref="R91:T92"/>
+    <mergeCell ref="H2:Z3"/>
+    <mergeCell ref="R5:T6"/>
+    <mergeCell ref="V5:Z6"/>
+    <mergeCell ref="R8:T9"/>
+    <mergeCell ref="V8:Z9"/>
+    <mergeCell ref="L5:P6"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:P9"/>
+    <mergeCell ref="H5:K6"/>
+    <mergeCell ref="V26:Z27"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:P18"/>
+    <mergeCell ref="R17:T18"/>
+    <mergeCell ref="V17:Z18"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:P21"/>
+    <mergeCell ref="R20:T21"/>
+    <mergeCell ref="V20:Z21"/>
+    <mergeCell ref="V29:Z30"/>
+    <mergeCell ref="V32:Z33"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="L35:P36"/>
+    <mergeCell ref="R35:T36"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="L29:P30"/>
+    <mergeCell ref="R29:T30"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="L32:P33"/>
+    <mergeCell ref="R32:T33"/>
+    <mergeCell ref="H53:K54"/>
+    <mergeCell ref="L53:P54"/>
+    <mergeCell ref="R53:T54"/>
+    <mergeCell ref="V53:Z54"/>
+    <mergeCell ref="V35:Z36"/>
+    <mergeCell ref="L38:P39"/>
+    <mergeCell ref="R38:T39"/>
+    <mergeCell ref="V38:Z39"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="L41:P42"/>
+    <mergeCell ref="R41:T42"/>
+    <mergeCell ref="V41:Z42"/>
+    <mergeCell ref="H38:K39"/>
+    <mergeCell ref="V50:Z51"/>
+    <mergeCell ref="V44:Z45"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="H68:Z69"/>
+    <mergeCell ref="H71:K72"/>
+    <mergeCell ref="L71:P72"/>
+    <mergeCell ref="R71:T72"/>
+    <mergeCell ref="V71:Z72"/>
+    <mergeCell ref="L65:P66"/>
+    <mergeCell ref="R65:T66"/>
+    <mergeCell ref="V65:Z66"/>
+    <mergeCell ref="H56:Z57"/>
+    <mergeCell ref="H59:K60"/>
+    <mergeCell ref="H62:Z63"/>
+    <mergeCell ref="H65:K66"/>
+    <mergeCell ref="L59:P60"/>
+    <mergeCell ref="R59:T60"/>
+    <mergeCell ref="V59:Z60"/>
+    <mergeCell ref="L81:P82"/>
+    <mergeCell ref="R81:T82"/>
+    <mergeCell ref="K84:K85"/>
+    <mergeCell ref="L84:P85"/>
+    <mergeCell ref="R84:T85"/>
+    <mergeCell ref="I91:I95"/>
+    <mergeCell ref="K87:K88"/>
+    <mergeCell ref="K94:K95"/>
+    <mergeCell ref="V117:Z118"/>
+    <mergeCell ref="I75:I88"/>
+    <mergeCell ref="K78:K79"/>
+    <mergeCell ref="K81:K82"/>
+    <mergeCell ref="K75:K76"/>
+    <mergeCell ref="L75:P76"/>
+    <mergeCell ref="R75:T76"/>
+    <mergeCell ref="H97:K98"/>
+    <mergeCell ref="L97:P98"/>
+    <mergeCell ref="R97:T98"/>
+    <mergeCell ref="V97:Z98"/>
+    <mergeCell ref="K104:K105"/>
+    <mergeCell ref="L104:P105"/>
+    <mergeCell ref="R104:T105"/>
+    <mergeCell ref="K107:K108"/>
+    <mergeCell ref="I101:I114"/>
+    <mergeCell ref="K145:K146"/>
+    <mergeCell ref="L145:P146"/>
+    <mergeCell ref="R145:T146"/>
+    <mergeCell ref="K148:K149"/>
+    <mergeCell ref="L148:P149"/>
+    <mergeCell ref="R148:T149"/>
+    <mergeCell ref="I117:I130"/>
+    <mergeCell ref="V101:Z102"/>
+    <mergeCell ref="V104:Z105"/>
+    <mergeCell ref="V107:Z108"/>
+    <mergeCell ref="V110:Z111"/>
+    <mergeCell ref="V113:Z114"/>
+    <mergeCell ref="H132:K133"/>
+    <mergeCell ref="L132:P133"/>
+    <mergeCell ref="R132:T133"/>
+    <mergeCell ref="V132:Z133"/>
     <mergeCell ref="V126:Z127"/>
     <mergeCell ref="V129:Z130"/>
     <mergeCell ref="V120:Z121"/>
     <mergeCell ref="K120:K121"/>
     <mergeCell ref="L120:P121"/>
     <mergeCell ref="R120:T121"/>
-    <mergeCell ref="I101:I114"/>
     <mergeCell ref="K110:K111"/>
     <mergeCell ref="L110:P111"/>
-    <mergeCell ref="R110:T111"/>
-    <mergeCell ref="K129:K130"/>
-    <mergeCell ref="L129:P130"/>
-    <mergeCell ref="R129:T130"/>
-    <mergeCell ref="K101:K102"/>
-    <mergeCell ref="L101:P102"/>
-    <mergeCell ref="R101:T102"/>
-    <mergeCell ref="K123:K124"/>
-    <mergeCell ref="L123:P124"/>
-    <mergeCell ref="R123:T124"/>
-    <mergeCell ref="K126:K127"/>
-    <mergeCell ref="L126:P127"/>
-    <mergeCell ref="R126:T127"/>
-    <mergeCell ref="L107:P108"/>
-    <mergeCell ref="R107:T108"/>
+    <mergeCell ref="V123:Z124"/>
+    <mergeCell ref="V155:Z156"/>
+    <mergeCell ref="V152:Z153"/>
+    <mergeCell ref="G150:G153"/>
+    <mergeCell ref="K152:K153"/>
+    <mergeCell ref="L152:P153"/>
+    <mergeCell ref="R152:T153"/>
+    <mergeCell ref="K155:K156"/>
+    <mergeCell ref="L155:P156"/>
+    <mergeCell ref="R155:T156"/>
+    <mergeCell ref="K158:K159"/>
+    <mergeCell ref="L158:P159"/>
+    <mergeCell ref="R158:T159"/>
+    <mergeCell ref="I136:I149"/>
+    <mergeCell ref="K136:K137"/>
+    <mergeCell ref="L136:P137"/>
+    <mergeCell ref="R136:T137"/>
+    <mergeCell ref="K139:K140"/>
+    <mergeCell ref="L139:P140"/>
+    <mergeCell ref="R139:T140"/>
+    <mergeCell ref="K142:K143"/>
+    <mergeCell ref="L142:P143"/>
+    <mergeCell ref="R142:T143"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4457,255 +4851,255 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C6280AF-F913-4213-90F7-5D60D9FFA09E}">
-  <dimension ref="F2:Y30"/>
+  <dimension ref="F2:Y33"/>
   <sheetViews>
-    <sheetView topLeftCell="E7" workbookViewId="0">
-      <selection activeCell="R29" sqref="R29:Y30"/>
+    <sheetView topLeftCell="E20" workbookViewId="0">
+      <selection activeCell="S34" sqref="S34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="2" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="R2" s="20" t="s">
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="R2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="24"/>
     </row>
     <row r="3" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="20"/>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="20"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="24"/>
+      <c r="X3" s="24"/>
+      <c r="Y3" s="24"/>
     </row>
     <row r="5" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F5" s="21">
+      <c r="F5" s="23">
         <v>1</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="H5" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="R5" s="29" t="s">
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="R5" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="S5" s="30"/>
-      <c r="T5" s="30"/>
-      <c r="U5" s="30"/>
-      <c r="V5" s="30"/>
-      <c r="W5" s="30"/>
-      <c r="X5" s="30"/>
-      <c r="Y5" s="30"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
+      <c r="X5" s="22"/>
+      <c r="Y5" s="22"/>
     </row>
     <row r="6" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="30"/>
-      <c r="U6" s="30"/>
-      <c r="V6" s="30"/>
-      <c r="W6" s="30"/>
-      <c r="X6" s="30"/>
-      <c r="Y6" s="30"/>
+      <c r="F6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="22"/>
+      <c r="Y6" s="22"/>
     </row>
     <row r="8" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F8" s="21">
+      <c r="F8" s="23">
         <v>2</v>
       </c>
-      <c r="H8" s="21" t="s">
+      <c r="H8" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="R8" s="27" t="s">
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="R8" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="S8" s="27"/>
-      <c r="T8" s="27"/>
-      <c r="U8" s="27"/>
-      <c r="V8" s="27"/>
-      <c r="W8" s="27"/>
-      <c r="X8" s="27"/>
-      <c r="Y8" s="27"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="20"/>
+      <c r="X8" s="20"/>
+      <c r="Y8" s="20"/>
     </row>
     <row r="9" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="R9" s="27"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="27"/>
-      <c r="U9" s="27"/>
-      <c r="V9" s="27"/>
-      <c r="W9" s="27"/>
-      <c r="X9" s="27"/>
-      <c r="Y9" s="27"/>
+      <c r="F9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="20"/>
+      <c r="X9" s="20"/>
+      <c r="Y9" s="20"/>
     </row>
     <row r="11" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F11" s="21">
+      <c r="F11" s="23">
         <v>3</v>
       </c>
-      <c r="H11" s="21" t="s">
+      <c r="H11" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="R11" s="27" t="s">
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="R11" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="S11" s="27"/>
-      <c r="T11" s="27"/>
-      <c r="U11" s="27"/>
-      <c r="V11" s="27"/>
-      <c r="W11" s="27"/>
-      <c r="X11" s="27"/>
-      <c r="Y11" s="27"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="20"/>
+      <c r="X11" s="20"/>
+      <c r="Y11" s="20"/>
     </row>
     <row r="12" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="R12" s="27"/>
-      <c r="S12" s="27"/>
-      <c r="T12" s="27"/>
-      <c r="U12" s="27"/>
-      <c r="V12" s="27"/>
-      <c r="W12" s="27"/>
-      <c r="X12" s="27"/>
-      <c r="Y12" s="27"/>
+      <c r="F12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="20"/>
     </row>
     <row r="14" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F14" s="21">
+      <c r="F14" s="23">
         <v>4</v>
       </c>
-      <c r="H14" s="21" t="s">
+      <c r="H14" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="R14" s="27" t="s">
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="R14" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="S14" s="27"/>
-      <c r="T14" s="27"/>
-      <c r="U14" s="27"/>
-      <c r="V14" s="27"/>
-      <c r="W14" s="27"/>
-      <c r="X14" s="27"/>
-      <c r="Y14" s="27"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="20"/>
+      <c r="W14" s="20"/>
+      <c r="X14" s="20"/>
+      <c r="Y14" s="20"/>
     </row>
     <row r="15" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="R15" s="27"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="27"/>
-      <c r="U15" s="27"/>
-      <c r="V15" s="27"/>
-      <c r="W15" s="27"/>
-      <c r="X15" s="27"/>
-      <c r="Y15" s="27"/>
+      <c r="F15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="20"/>
+      <c r="W15" s="20"/>
+      <c r="X15" s="20"/>
+      <c r="Y15" s="20"/>
     </row>
     <row r="17" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F17" s="21">
+      <c r="F17" s="23">
         <v>5</v>
       </c>
-      <c r="H17" s="21" t="s">
+      <c r="H17" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
       <c r="R17" s="13" t="s">
         <v>19</v>
       </c>
@@ -4718,16 +5112,16 @@
       <c r="Y17" s="13"/>
     </row>
     <row r="18" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
+      <c r="F18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
       <c r="R18" s="13"/>
       <c r="S18" s="13"/>
       <c r="T18" s="13"/>
@@ -4738,112 +5132,112 @@
       <c r="Y18" s="13"/>
     </row>
     <row r="20" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F20" s="21">
+      <c r="F20" s="23">
         <v>6</v>
       </c>
-      <c r="H20" s="21" t="s">
+      <c r="H20" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
-      <c r="R20" s="27" t="s">
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="R20" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="S20" s="27"/>
-      <c r="T20" s="27"/>
-      <c r="U20" s="27"/>
-      <c r="V20" s="27"/>
-      <c r="W20" s="27"/>
-      <c r="X20" s="27"/>
-      <c r="Y20" s="27"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="20"/>
+      <c r="U20" s="20"/>
+      <c r="V20" s="20"/>
+      <c r="W20" s="20"/>
+      <c r="X20" s="20"/>
+      <c r="Y20" s="20"/>
     </row>
     <row r="21" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
-      <c r="R21" s="27"/>
-      <c r="S21" s="27"/>
-      <c r="T21" s="27"/>
-      <c r="U21" s="27"/>
-      <c r="V21" s="27"/>
-      <c r="W21" s="27"/>
-      <c r="X21" s="27"/>
-      <c r="Y21" s="27"/>
+      <c r="F21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="20"/>
+      <c r="T21" s="20"/>
+      <c r="U21" s="20"/>
+      <c r="V21" s="20"/>
+      <c r="W21" s="20"/>
+      <c r="X21" s="20"/>
+      <c r="Y21" s="20"/>
     </row>
     <row r="23" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F23" s="21">
+      <c r="F23" s="23">
         <v>7</v>
       </c>
-      <c r="H23" s="21" t="s">
+      <c r="H23" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
-      <c r="R23" s="27" t="s">
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
+      <c r="R23" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="S23" s="27"/>
-      <c r="T23" s="27"/>
-      <c r="U23" s="27"/>
-      <c r="V23" s="27"/>
-      <c r="W23" s="27"/>
-      <c r="X23" s="27"/>
-      <c r="Y23" s="27"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="20"/>
+      <c r="V23" s="20"/>
+      <c r="W23" s="20"/>
+      <c r="X23" s="20"/>
+      <c r="Y23" s="20"/>
     </row>
     <row r="24" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
-      <c r="R24" s="27"/>
-      <c r="S24" s="27"/>
-      <c r="T24" s="27"/>
-      <c r="U24" s="27"/>
-      <c r="V24" s="27"/>
-      <c r="W24" s="27"/>
-      <c r="X24" s="27"/>
-      <c r="Y24" s="27"/>
+      <c r="F24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="20"/>
+      <c r="V24" s="20"/>
+      <c r="W24" s="20"/>
+      <c r="X24" s="20"/>
+      <c r="Y24" s="20"/>
     </row>
     <row r="26" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F26" s="21">
+      <c r="F26" s="23">
         <v>9</v>
       </c>
-      <c r="H26" s="21" t="s">
+      <c r="H26" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="21"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
       <c r="R26" s="13" t="s">
         <v>19</v>
       </c>
@@ -4856,16 +5250,16 @@
       <c r="Y26" s="13"/>
     </row>
     <row r="27" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
+      <c r="F27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="23"/>
       <c r="R27" s="13"/>
       <c r="S27" s="13"/>
       <c r="T27" s="13"/>
@@ -4876,20 +5270,20 @@
       <c r="Y27" s="13"/>
     </row>
     <row r="29" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F29" s="21">
+      <c r="F29" s="23">
         <v>10</v>
       </c>
-      <c r="H29" s="21" t="s">
+      <c r="H29" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="21"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="23"/>
       <c r="R29" s="13" t="s">
         <v>19</v>
       </c>
@@ -4902,16 +5296,16 @@
       <c r="Y29" s="13"/>
     </row>
     <row r="30" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="21"/>
-      <c r="O30" s="21"/>
-      <c r="P30" s="21"/>
+      <c r="F30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="23"/>
       <c r="R30" s="13"/>
       <c r="S30" s="13"/>
       <c r="T30" s="13"/>
@@ -4921,8 +5315,70 @@
       <c r="X30" s="13"/>
       <c r="Y30" s="13"/>
     </row>
+    <row r="32" spans="6:25" x14ac:dyDescent="0.45">
+      <c r="F32" s="23">
+        <v>11</v>
+      </c>
+      <c r="H32" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="23"/>
+      <c r="P32" s="23"/>
+      <c r="R32" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="S32" s="13"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="13"/>
+      <c r="V32" s="13"/>
+      <c r="W32" s="13"/>
+      <c r="X32" s="13"/>
+      <c r="Y32" s="13"/>
+    </row>
+    <row r="33" spans="6:25" x14ac:dyDescent="0.45">
+      <c r="F33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="23"/>
+      <c r="O33" s="23"/>
+      <c r="P33" s="23"/>
+      <c r="R33" s="13"/>
+      <c r="S33" s="13"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="13"/>
+      <c r="V33" s="13"/>
+      <c r="W33" s="13"/>
+      <c r="X33" s="13"/>
+      <c r="Y33" s="13"/>
+    </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="32">
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="H32:P33"/>
+    <mergeCell ref="R32:Y33"/>
+    <mergeCell ref="H2:P3"/>
+    <mergeCell ref="R2:Y3"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="H5:P6"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="H8:P9"/>
+    <mergeCell ref="R8:Y9"/>
+    <mergeCell ref="H17:P18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="H20:P21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="H23:P24"/>
+    <mergeCell ref="F23:F24"/>
     <mergeCell ref="R11:Y12"/>
     <mergeCell ref="R5:Y6"/>
     <mergeCell ref="R20:Y21"/>
@@ -4939,19 +5395,6 @@
     <mergeCell ref="H14:P15"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="H11:P12"/>
-    <mergeCell ref="H17:P18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="H20:P21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="H23:P24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="H2:P3"/>
-    <mergeCell ref="R2:Y3"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="H5:P6"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="H8:P9"/>
-    <mergeCell ref="R8:Y9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4961,8 +5404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37E2DAFF-6BFF-4CB8-B294-DE59EA805260}">
   <dimension ref="C2:Y32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4972,15 +5415,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:25" x14ac:dyDescent="0.45">
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
     </row>
     <row r="3" spans="3:25" x14ac:dyDescent="0.45">
       <c r="E3" s="5" t="s">
@@ -4989,13 +5432,13 @@
       <c r="F3" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
     </row>
     <row r="4" spans="3:25" x14ac:dyDescent="0.45">
       <c r="E4" s="7" t="s">
@@ -5006,50 +5449,50 @@
       </c>
     </row>
     <row r="5" spans="3:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
       <c r="Y5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="6" spans="3:25" x14ac:dyDescent="0.45">
-      <c r="C6" s="25"/>
-      <c r="F6" s="23" t="s">
+      <c r="C6" s="28"/>
+      <c r="F6" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
     </row>
     <row r="7" spans="3:25" x14ac:dyDescent="0.45">
-      <c r="C7" s="25"/>
+      <c r="C7" s="28"/>
       <c r="F7" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="3:25" x14ac:dyDescent="0.45">
-      <c r="C8" s="25"/>
+      <c r="C8" s="28"/>
       <c r="F8" s="4" t="s">
         <v>16</v>
       </c>
@@ -5058,7 +5501,7 @@
       </c>
     </row>
     <row r="9" spans="3:25" x14ac:dyDescent="0.45">
-      <c r="C9" s="25"/>
+      <c r="C9" s="28"/>
       <c r="F9" s="4" t="s">
         <v>47</v>
       </c>
@@ -5067,7 +5510,7 @@
       </c>
     </row>
     <row r="10" spans="3:25" x14ac:dyDescent="0.45">
-      <c r="C10" s="25"/>
+      <c r="C10" s="28"/>
       <c r="F10" s="4" t="s">
         <v>48</v>
       </c>
@@ -5076,7 +5519,7 @@
       </c>
     </row>
     <row r="11" spans="3:25" x14ac:dyDescent="0.45">
-      <c r="C11" s="25"/>
+      <c r="C11" s="28"/>
       <c r="F11" s="4" t="s">
         <v>53</v>
       </c>
@@ -5085,7 +5528,7 @@
       </c>
     </row>
     <row r="12" spans="3:25" x14ac:dyDescent="0.45">
-      <c r="C12" s="25"/>
+      <c r="C12" s="28"/>
       <c r="F12" s="4" t="s">
         <v>55</v>
       </c>
@@ -5137,7 +5580,7 @@
       </c>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="29" t="s">
         <v>85</v>
       </c>
       <c r="F21" s="4" t="s">
@@ -5145,49 +5588,49 @@
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C22" s="26"/>
+      <c r="C22" s="29"/>
       <c r="F22" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C23" s="26"/>
+      <c r="C23" s="29"/>
       <c r="F23" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C24" s="26"/>
+      <c r="C24" s="29"/>
       <c r="F24" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C25" s="26"/>
+      <c r="C25" s="29"/>
       <c r="F25" s="4" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C26" s="26"/>
+      <c r="C26" s="29"/>
       <c r="F26" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C27" s="26"/>
+      <c r="C27" s="29"/>
       <c r="F27" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C28" s="26"/>
+      <c r="C28" s="29"/>
       <c r="F28" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C29" s="26"/>
+      <c r="C29" s="29"/>
       <c r="F29" s="4" t="s">
         <v>79</v>
       </c>

--- a/Documents/Targets&Planning.xlsx
+++ b/Documents/Targets&Planning.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BloggingRepositories\blogPosts\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA74549-288A-4D53-B483-09B8BBF684DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B361930-A9C1-47A1-A3BC-6036D1CF3DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="15196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="15196" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="1" r:id="rId1"/>
     <sheet name="Backlogs" sheetId="2" r:id="rId2"/>
     <sheet name="Backlink_Audit" sheetId="3" r:id="rId3"/>
+    <sheet name="BacklinksInspiration" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="113">
   <si>
     <t>November</t>
   </si>
@@ -330,13 +332,49 @@
   </si>
   <si>
     <t>Fix the Card Images Bug</t>
+  </si>
+  <si>
+    <t>Create About US Page For Both Websites</t>
+  </si>
+  <si>
+    <t>Create Disclaimer Page For Both Websites</t>
+  </si>
+  <si>
+    <t>Create Privacy policy page for both websites</t>
+  </si>
+  <si>
+    <t>Create Contact US page for both websites</t>
+  </si>
+  <si>
+    <t>Add Images and remove empty background screens in both websites</t>
+  </si>
+  <si>
+    <t>Add Pages to the Navigation and also add /cars/tata or /cars navigation icons</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>https://www.gadg8.in</t>
+  </si>
+  <si>
+    <t>https://www.apnahindi.in</t>
+  </si>
+  <si>
+    <t>https://svweightloss.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://marugujaratupdates.com/ </t>
+  </si>
+  <si>
+    <t>https://lichy.in/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -347,13 +385,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -523,76 +554,76 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="15" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="15" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -601,16 +632,16 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -899,8 +930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F157" zoomScale="93" workbookViewId="0">
-      <selection activeCell="Q173" sqref="Q173"/>
+    <sheetView topLeftCell="F181" zoomScale="93" workbookViewId="0">
+      <selection activeCell="K188" sqref="K188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -946,27 +977,27 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="18"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="19"/>
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
     </row>
@@ -978,25 +1009,25 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
-      <c r="X3" s="18"/>
-      <c r="Y3" s="18"/>
-      <c r="Z3" s="18"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
+      <c r="X3" s="19"/>
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="19"/>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
     </row>
@@ -1139,30 +1170,30 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="10">
+      <c r="K8" s="8">
         <v>1</v>
       </c>
-      <c r="L8" s="12" t="s">
+      <c r="L8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
       <c r="Q8" s="1"/>
-      <c r="R8" s="12" t="s">
+      <c r="R8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
       <c r="U8" s="1"/>
-      <c r="V8" s="17" t="s">
+      <c r="V8" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="W8" s="17"/>
-      <c r="X8" s="17"/>
-      <c r="Y8" s="17"/>
-      <c r="Z8" s="17"/>
+      <c r="W8" s="18"/>
+      <c r="X8" s="18"/>
+      <c r="Y8" s="18"/>
+      <c r="Z8" s="18"/>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
     </row>
@@ -1177,22 +1208,22 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
       <c r="Q9" s="1"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
       <c r="U9" s="1"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="17"/>
-      <c r="X9" s="17"/>
-      <c r="Y9" s="17"/>
-      <c r="Z9" s="17"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="18"/>
+      <c r="X9" s="18"/>
+      <c r="Y9" s="18"/>
+      <c r="Z9" s="18"/>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
     </row>
@@ -1237,30 +1268,30 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="10">
+      <c r="K11" s="8">
         <v>2</v>
       </c>
-      <c r="L11" s="12" t="s">
+      <c r="L11" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
       <c r="Q11" s="1"/>
-      <c r="R11" s="12" t="s">
+      <c r="R11" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
       <c r="U11" s="1"/>
-      <c r="V11" s="17" t="s">
+      <c r="V11" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="W11" s="17"/>
-      <c r="X11" s="17"/>
-      <c r="Y11" s="17"/>
-      <c r="Z11" s="17"/>
+      <c r="W11" s="18"/>
+      <c r="X11" s="18"/>
+      <c r="Y11" s="18"/>
+      <c r="Z11" s="18"/>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
     </row>
@@ -1275,22 +1306,22 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
       <c r="Q12" s="1"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
       <c r="U12" s="1"/>
-      <c r="V12" s="17"/>
-      <c r="W12" s="17"/>
-      <c r="X12" s="17"/>
-      <c r="Y12" s="17"/>
-      <c r="Z12" s="17"/>
+      <c r="V12" s="18"/>
+      <c r="W12" s="18"/>
+      <c r="X12" s="18"/>
+      <c r="Y12" s="18"/>
+      <c r="Z12" s="18"/>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
     </row>
@@ -1433,30 +1464,30 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="10">
+      <c r="K17" s="8">
         <v>1</v>
       </c>
-      <c r="L17" s="12" t="s">
+      <c r="L17" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
       <c r="Q17" s="1"/>
-      <c r="R17" s="12" t="s">
+      <c r="R17" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
       <c r="U17" s="1"/>
-      <c r="V17" s="17" t="s">
+      <c r="V17" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="W17" s="17"/>
-      <c r="X17" s="17"/>
-      <c r="Y17" s="17"/>
-      <c r="Z17" s="17"/>
+      <c r="W17" s="18"/>
+      <c r="X17" s="18"/>
+      <c r="Y17" s="18"/>
+      <c r="Z17" s="18"/>
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
     </row>
@@ -1471,22 +1502,22 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
       <c r="Q18" s="1"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
       <c r="U18" s="1"/>
-      <c r="V18" s="17"/>
-      <c r="W18" s="17"/>
-      <c r="X18" s="17"/>
-      <c r="Y18" s="17"/>
-      <c r="Z18" s="17"/>
+      <c r="V18" s="18"/>
+      <c r="W18" s="18"/>
+      <c r="X18" s="18"/>
+      <c r="Y18" s="18"/>
+      <c r="Z18" s="18"/>
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
     </row>
@@ -1531,30 +1562,30 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="10">
+      <c r="K20" s="8">
         <v>2</v>
       </c>
-      <c r="L20" s="12" t="s">
+      <c r="L20" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
       <c r="Q20" s="1"/>
-      <c r="R20" s="12" t="s">
+      <c r="R20" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
       <c r="U20" s="1"/>
-      <c r="V20" s="17" t="s">
+      <c r="V20" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="W20" s="17"/>
-      <c r="X20" s="17"/>
-      <c r="Y20" s="17"/>
-      <c r="Z20" s="17"/>
+      <c r="W20" s="18"/>
+      <c r="X20" s="18"/>
+      <c r="Y20" s="18"/>
+      <c r="Z20" s="18"/>
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
     </row>
@@ -1569,22 +1600,22 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
       <c r="Q21" s="1"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
       <c r="U21" s="1"/>
-      <c r="V21" s="17"/>
-      <c r="W21" s="17"/>
-      <c r="X21" s="17"/>
-      <c r="Y21" s="17"/>
-      <c r="Z21" s="17"/>
+      <c r="V21" s="18"/>
+      <c r="W21" s="18"/>
+      <c r="X21" s="18"/>
+      <c r="Y21" s="18"/>
+      <c r="Z21" s="18"/>
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
     </row>
@@ -1629,30 +1660,30 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
-      <c r="K23" s="10">
+      <c r="K23" s="8">
         <v>3</v>
       </c>
-      <c r="L23" s="12" t="s">
+      <c r="L23" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
       <c r="Q23" s="1"/>
-      <c r="R23" s="12" t="s">
+      <c r="R23" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="S23" s="12"/>
-      <c r="T23" s="12"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
       <c r="U23" s="1"/>
-      <c r="V23" s="8" t="s">
+      <c r="V23" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="W23" s="8"/>
-      <c r="X23" s="8"/>
-      <c r="Y23" s="8"/>
-      <c r="Z23" s="8"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="12"/>
+      <c r="Y23" s="12"/>
+      <c r="Z23" s="12"/>
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
     </row>
@@ -1667,22 +1698,22 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
       <c r="Q24" s="1"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="12"/>
-      <c r="T24" s="12"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
       <c r="U24" s="1"/>
-      <c r="V24" s="8"/>
-      <c r="W24" s="8"/>
-      <c r="X24" s="8"/>
-      <c r="Y24" s="8"/>
-      <c r="Z24" s="8"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="12"/>
+      <c r="X24" s="12"/>
+      <c r="Y24" s="12"/>
+      <c r="Z24" s="12"/>
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
     </row>
@@ -1727,7 +1758,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="10">
+      <c r="K26" s="8">
         <v>4</v>
       </c>
       <c r="L26" s="11" t="s">
@@ -1738,19 +1769,19 @@
       <c r="O26" s="11"/>
       <c r="P26" s="11"/>
       <c r="Q26" s="1"/>
-      <c r="R26" s="12" t="s">
+      <c r="R26" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="S26" s="12"/>
-      <c r="T26" s="12"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
       <c r="U26" s="1"/>
-      <c r="V26" s="8" t="s">
+      <c r="V26" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="W26" s="8"/>
-      <c r="X26" s="8"/>
-      <c r="Y26" s="8"/>
-      <c r="Z26" s="8"/>
+      <c r="W26" s="12"/>
+      <c r="X26" s="12"/>
+      <c r="Y26" s="12"/>
+      <c r="Z26" s="12"/>
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
     </row>
@@ -1765,22 +1796,22 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
-      <c r="K27" s="10"/>
+      <c r="K27" s="8"/>
       <c r="L27" s="11"/>
       <c r="M27" s="11"/>
       <c r="N27" s="11"/>
       <c r="O27" s="11"/>
       <c r="P27" s="11"/>
       <c r="Q27" s="1"/>
-      <c r="R27" s="12"/>
-      <c r="S27" s="12"/>
-      <c r="T27" s="12"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9"/>
       <c r="U27" s="1"/>
-      <c r="V27" s="8"/>
-      <c r="W27" s="8"/>
-      <c r="X27" s="8"/>
-      <c r="Y27" s="8"/>
-      <c r="Z27" s="8"/>
+      <c r="V27" s="12"/>
+      <c r="W27" s="12"/>
+      <c r="X27" s="12"/>
+      <c r="Y27" s="12"/>
+      <c r="Z27" s="12"/>
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
     </row>
@@ -1825,7 +1856,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
-      <c r="K29" s="10">
+      <c r="K29" s="8">
         <v>5</v>
       </c>
       <c r="L29" s="11" t="s">
@@ -1836,19 +1867,19 @@
       <c r="O29" s="11"/>
       <c r="P29" s="11"/>
       <c r="Q29" s="1"/>
-      <c r="R29" s="12" t="s">
+      <c r="R29" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="S29" s="12"/>
-      <c r="T29" s="12"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="9"/>
       <c r="U29" s="1"/>
-      <c r="V29" s="8" t="s">
+      <c r="V29" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="W29" s="8"/>
-      <c r="X29" s="8"/>
-      <c r="Y29" s="8"/>
-      <c r="Z29" s="8"/>
+      <c r="W29" s="12"/>
+      <c r="X29" s="12"/>
+      <c r="Y29" s="12"/>
+      <c r="Z29" s="12"/>
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
     </row>
@@ -1863,22 +1894,22 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
-      <c r="K30" s="10"/>
+      <c r="K30" s="8"/>
       <c r="L30" s="11"/>
       <c r="M30" s="11"/>
       <c r="N30" s="11"/>
       <c r="O30" s="11"/>
       <c r="P30" s="11"/>
       <c r="Q30" s="1"/>
-      <c r="R30" s="12"/>
-      <c r="S30" s="12"/>
-      <c r="T30" s="12"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="9"/>
       <c r="U30" s="1"/>
-      <c r="V30" s="8"/>
-      <c r="W30" s="8"/>
-      <c r="X30" s="8"/>
-      <c r="Y30" s="8"/>
-      <c r="Z30" s="8"/>
+      <c r="V30" s="12"/>
+      <c r="W30" s="12"/>
+      <c r="X30" s="12"/>
+      <c r="Y30" s="12"/>
+      <c r="Z30" s="12"/>
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
     </row>
@@ -1923,7 +1954,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
-      <c r="K32" s="10">
+      <c r="K32" s="8">
         <v>6</v>
       </c>
       <c r="L32" s="11" t="s">
@@ -1934,19 +1965,19 @@
       <c r="O32" s="11"/>
       <c r="P32" s="11"/>
       <c r="Q32" s="1"/>
-      <c r="R32" s="12" t="s">
+      <c r="R32" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="S32" s="12"/>
-      <c r="T32" s="12"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="9"/>
       <c r="U32" s="1"/>
-      <c r="V32" s="17" t="s">
+      <c r="V32" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="W32" s="17"/>
-      <c r="X32" s="17"/>
-      <c r="Y32" s="17"/>
-      <c r="Z32" s="17"/>
+      <c r="W32" s="18"/>
+      <c r="X32" s="18"/>
+      <c r="Y32" s="18"/>
+      <c r="Z32" s="18"/>
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
     </row>
@@ -1961,22 +1992,22 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
-      <c r="K33" s="10"/>
+      <c r="K33" s="8"/>
       <c r="L33" s="11"/>
       <c r="M33" s="11"/>
       <c r="N33" s="11"/>
       <c r="O33" s="11"/>
       <c r="P33" s="11"/>
       <c r="Q33" s="1"/>
-      <c r="R33" s="12"/>
-      <c r="S33" s="12"/>
-      <c r="T33" s="12"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="9"/>
       <c r="U33" s="1"/>
-      <c r="V33" s="17"/>
-      <c r="W33" s="17"/>
-      <c r="X33" s="17"/>
-      <c r="Y33" s="17"/>
-      <c r="Z33" s="17"/>
+      <c r="V33" s="18"/>
+      <c r="W33" s="18"/>
+      <c r="X33" s="18"/>
+      <c r="Y33" s="18"/>
+      <c r="Z33" s="18"/>
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
     </row>
@@ -2021,7 +2052,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
-      <c r="K35" s="10">
+      <c r="K35" s="8">
         <v>7</v>
       </c>
       <c r="L35" s="11" t="s">
@@ -2032,19 +2063,19 @@
       <c r="O35" s="11"/>
       <c r="P35" s="11"/>
       <c r="Q35" s="1"/>
-      <c r="R35" s="12" t="s">
+      <c r="R35" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="S35" s="12"/>
-      <c r="T35" s="12"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="9"/>
       <c r="U35" s="1"/>
-      <c r="V35" s="16" t="s">
+      <c r="V35" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="W35" s="16"/>
-      <c r="X35" s="16"/>
-      <c r="Y35" s="16"/>
-      <c r="Z35" s="16"/>
+      <c r="W35" s="17"/>
+      <c r="X35" s="17"/>
+      <c r="Y35" s="17"/>
+      <c r="Z35" s="17"/>
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
     </row>
@@ -2059,22 +2090,22 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
-      <c r="K36" s="10"/>
+      <c r="K36" s="8"/>
       <c r="L36" s="11"/>
       <c r="M36" s="11"/>
       <c r="N36" s="11"/>
       <c r="O36" s="11"/>
       <c r="P36" s="11"/>
       <c r="Q36" s="1"/>
-      <c r="R36" s="12"/>
-      <c r="S36" s="12"/>
-      <c r="T36" s="12"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="9"/>
       <c r="U36" s="1"/>
-      <c r="V36" s="16"/>
-      <c r="W36" s="16"/>
-      <c r="X36" s="16"/>
-      <c r="Y36" s="16"/>
-      <c r="Z36" s="16"/>
+      <c r="V36" s="17"/>
+      <c r="W36" s="17"/>
+      <c r="X36" s="17"/>
+      <c r="Y36" s="17"/>
+      <c r="Z36" s="17"/>
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
     </row>
@@ -2217,30 +2248,30 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
-      <c r="K41" s="10">
+      <c r="K41" s="8">
         <v>1</v>
       </c>
-      <c r="L41" s="12" t="s">
+      <c r="L41" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="M41" s="12"/>
-      <c r="N41" s="12"/>
-      <c r="O41" s="12"/>
-      <c r="P41" s="12"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
+      <c r="P41" s="9"/>
       <c r="Q41" s="1"/>
-      <c r="R41" s="12" t="s">
+      <c r="R41" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="S41" s="12"/>
-      <c r="T41" s="12"/>
+      <c r="S41" s="9"/>
+      <c r="T41" s="9"/>
       <c r="U41" s="1"/>
-      <c r="V41" s="17" t="s">
+      <c r="V41" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="W41" s="17"/>
-      <c r="X41" s="17"/>
-      <c r="Y41" s="17"/>
-      <c r="Z41" s="17"/>
+      <c r="W41" s="18"/>
+      <c r="X41" s="18"/>
+      <c r="Y41" s="18"/>
+      <c r="Z41" s="18"/>
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
     </row>
@@ -2255,22 +2286,22 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="12"/>
-      <c r="M42" s="12"/>
-      <c r="N42" s="12"/>
-      <c r="O42" s="12"/>
-      <c r="P42" s="12"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="9"/>
+      <c r="P42" s="9"/>
       <c r="Q42" s="1"/>
-      <c r="R42" s="12"/>
-      <c r="S42" s="12"/>
-      <c r="T42" s="12"/>
+      <c r="R42" s="9"/>
+      <c r="S42" s="9"/>
+      <c r="T42" s="9"/>
       <c r="U42" s="1"/>
-      <c r="V42" s="17"/>
-      <c r="W42" s="17"/>
-      <c r="X42" s="17"/>
-      <c r="Y42" s="17"/>
-      <c r="Z42" s="17"/>
+      <c r="V42" s="18"/>
+      <c r="W42" s="18"/>
+      <c r="X42" s="18"/>
+      <c r="Y42" s="18"/>
+      <c r="Z42" s="18"/>
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
     </row>
@@ -2315,30 +2346,30 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
-      <c r="K44" s="10">
+      <c r="K44" s="8">
         <v>2</v>
       </c>
-      <c r="L44" s="12" t="s">
+      <c r="L44" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="M44" s="12"/>
-      <c r="N44" s="12"/>
-      <c r="O44" s="12"/>
-      <c r="P44" s="12"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="9"/>
+      <c r="P44" s="9"/>
       <c r="Q44" s="1"/>
-      <c r="R44" s="12" t="s">
+      <c r="R44" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="S44" s="12"/>
-      <c r="T44" s="12"/>
+      <c r="S44" s="9"/>
+      <c r="T44" s="9"/>
       <c r="U44" s="1"/>
-      <c r="V44" s="17" t="s">
+      <c r="V44" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="W44" s="17"/>
-      <c r="X44" s="17"/>
-      <c r="Y44" s="17"/>
-      <c r="Z44" s="17"/>
+      <c r="W44" s="18"/>
+      <c r="X44" s="18"/>
+      <c r="Y44" s="18"/>
+      <c r="Z44" s="18"/>
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
     </row>
@@ -2353,22 +2384,22 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="12"/>
-      <c r="M45" s="12"/>
-      <c r="N45" s="12"/>
-      <c r="O45" s="12"/>
-      <c r="P45" s="12"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="9"/>
+      <c r="P45" s="9"/>
       <c r="Q45" s="1"/>
-      <c r="R45" s="12"/>
-      <c r="S45" s="12"/>
-      <c r="T45" s="12"/>
+      <c r="R45" s="9"/>
+      <c r="S45" s="9"/>
+      <c r="T45" s="9"/>
       <c r="U45" s="1"/>
-      <c r="V45" s="17"/>
-      <c r="W45" s="17"/>
-      <c r="X45" s="17"/>
-      <c r="Y45" s="17"/>
-      <c r="Z45" s="17"/>
+      <c r="V45" s="18"/>
+      <c r="W45" s="18"/>
+      <c r="X45" s="18"/>
+      <c r="Y45" s="18"/>
+      <c r="Z45" s="18"/>
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
     </row>
@@ -2413,7 +2444,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
-      <c r="K47" s="10">
+      <c r="K47" s="8">
         <v>3</v>
       </c>
       <c r="L47" s="11" t="s">
@@ -2424,19 +2455,19 @@
       <c r="O47" s="11"/>
       <c r="P47" s="11"/>
       <c r="Q47" s="1"/>
-      <c r="R47" s="12" t="s">
+      <c r="R47" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="S47" s="12"/>
-      <c r="T47" s="12"/>
+      <c r="S47" s="9"/>
+      <c r="T47" s="9"/>
       <c r="U47" s="1"/>
-      <c r="V47" s="17" t="s">
+      <c r="V47" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="W47" s="17"/>
-      <c r="X47" s="17"/>
-      <c r="Y47" s="17"/>
-      <c r="Z47" s="17"/>
+      <c r="W47" s="18"/>
+      <c r="X47" s="18"/>
+      <c r="Y47" s="18"/>
+      <c r="Z47" s="18"/>
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
     </row>
@@ -2451,22 +2482,22 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
-      <c r="K48" s="10"/>
+      <c r="K48" s="8"/>
       <c r="L48" s="11"/>
       <c r="M48" s="11"/>
       <c r="N48" s="11"/>
       <c r="O48" s="11"/>
       <c r="P48" s="11"/>
       <c r="Q48" s="1"/>
-      <c r="R48" s="12"/>
-      <c r="S48" s="12"/>
-      <c r="T48" s="12"/>
+      <c r="R48" s="9"/>
+      <c r="S48" s="9"/>
+      <c r="T48" s="9"/>
       <c r="U48" s="1"/>
-      <c r="V48" s="17"/>
-      <c r="W48" s="17"/>
-      <c r="X48" s="17"/>
-      <c r="Y48" s="17"/>
-      <c r="Z48" s="17"/>
+      <c r="V48" s="18"/>
+      <c r="W48" s="18"/>
+      <c r="X48" s="18"/>
+      <c r="Y48" s="18"/>
+      <c r="Z48" s="18"/>
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
     </row>
@@ -2511,7 +2542,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
-      <c r="K50" s="10">
+      <c r="K50" s="8">
         <v>4</v>
       </c>
       <c r="L50" s="11" t="s">
@@ -2522,19 +2553,19 @@
       <c r="O50" s="11"/>
       <c r="P50" s="11"/>
       <c r="Q50" s="1"/>
-      <c r="R50" s="12" t="s">
+      <c r="R50" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="S50" s="12"/>
-      <c r="T50" s="12"/>
+      <c r="S50" s="9"/>
+      <c r="T50" s="9"/>
       <c r="U50" s="1"/>
-      <c r="V50" s="17" t="s">
+      <c r="V50" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="W50" s="17"/>
-      <c r="X50" s="17"/>
-      <c r="Y50" s="17"/>
-      <c r="Z50" s="17"/>
+      <c r="W50" s="18"/>
+      <c r="X50" s="18"/>
+      <c r="Y50" s="18"/>
+      <c r="Z50" s="18"/>
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
     </row>
@@ -2549,22 +2580,22 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
-      <c r="K51" s="10"/>
+      <c r="K51" s="8"/>
       <c r="L51" s="11"/>
       <c r="M51" s="11"/>
       <c r="N51" s="11"/>
       <c r="O51" s="11"/>
       <c r="P51" s="11"/>
       <c r="Q51" s="1"/>
-      <c r="R51" s="12"/>
-      <c r="S51" s="12"/>
-      <c r="T51" s="12"/>
+      <c r="R51" s="9"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="9"/>
       <c r="U51" s="1"/>
-      <c r="V51" s="17"/>
-      <c r="W51" s="17"/>
-      <c r="X51" s="17"/>
-      <c r="Y51" s="17"/>
-      <c r="Z51" s="17"/>
+      <c r="V51" s="18"/>
+      <c r="W51" s="18"/>
+      <c r="X51" s="18"/>
+      <c r="Y51" s="18"/>
+      <c r="Z51" s="18"/>
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
     </row>
@@ -2940,10 +2971,10 @@
       <c r="Z72" s="15"/>
     </row>
     <row r="75" spans="8:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I75" s="9" t="s">
+      <c r="I75" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="K75" s="10">
+      <c r="K75" s="8">
         <v>1</v>
       </c>
       <c r="L75" s="11" t="s">
@@ -2954,11 +2985,11 @@
       <c r="O75" s="11"/>
       <c r="P75" s="11"/>
       <c r="Q75" s="1"/>
-      <c r="R75" s="12" t="s">
+      <c r="R75" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="S75" s="12"/>
-      <c r="T75" s="12"/>
+      <c r="S75" s="9"/>
+      <c r="T75" s="9"/>
       <c r="U75" s="1"/>
       <c r="V75" s="13" t="s">
         <v>51</v>
@@ -2969,17 +3000,17 @@
       <c r="Z75" s="13"/>
     </row>
     <row r="76" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="I76" s="9"/>
-      <c r="K76" s="10"/>
+      <c r="I76" s="16"/>
+      <c r="K76" s="8"/>
       <c r="L76" s="11"/>
       <c r="M76" s="11"/>
       <c r="N76" s="11"/>
       <c r="O76" s="11"/>
       <c r="P76" s="11"/>
       <c r="Q76" s="1"/>
-      <c r="R76" s="12"/>
-      <c r="S76" s="12"/>
-      <c r="T76" s="12"/>
+      <c r="R76" s="9"/>
+      <c r="S76" s="9"/>
+      <c r="T76" s="9"/>
       <c r="U76" s="1"/>
       <c r="V76" s="13"/>
       <c r="W76" s="13"/>
@@ -2988,26 +3019,26 @@
       <c r="Z76" s="13"/>
     </row>
     <row r="77" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="I77" s="9"/>
+      <c r="I77" s="16"/>
     </row>
     <row r="78" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="I78" s="9"/>
-      <c r="K78" s="10">
+      <c r="I78" s="16"/>
+      <c r="K78" s="8">
         <v>2</v>
       </c>
-      <c r="L78" s="12" t="s">
+      <c r="L78" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="M78" s="12"/>
-      <c r="N78" s="12"/>
-      <c r="O78" s="12"/>
-      <c r="P78" s="12"/>
+      <c r="M78" s="9"/>
+      <c r="N78" s="9"/>
+      <c r="O78" s="9"/>
+      <c r="P78" s="9"/>
       <c r="Q78" s="1"/>
-      <c r="R78" s="12" t="s">
+      <c r="R78" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="S78" s="12"/>
-      <c r="T78" s="12"/>
+      <c r="S78" s="9"/>
+      <c r="T78" s="9"/>
       <c r="U78" s="1"/>
       <c r="V78" s="13" t="s">
         <v>51</v>
@@ -3018,17 +3049,17 @@
       <c r="Z78" s="13"/>
     </row>
     <row r="79" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="I79" s="9"/>
-      <c r="K79" s="10"/>
-      <c r="L79" s="12"/>
-      <c r="M79" s="12"/>
-      <c r="N79" s="12"/>
-      <c r="O79" s="12"/>
-      <c r="P79" s="12"/>
+      <c r="I79" s="16"/>
+      <c r="K79" s="8"/>
+      <c r="L79" s="9"/>
+      <c r="M79" s="9"/>
+      <c r="N79" s="9"/>
+      <c r="O79" s="9"/>
+      <c r="P79" s="9"/>
       <c r="Q79" s="1"/>
-      <c r="R79" s="12"/>
-      <c r="S79" s="12"/>
-      <c r="T79" s="12"/>
+      <c r="R79" s="9"/>
+      <c r="S79" s="9"/>
+      <c r="T79" s="9"/>
       <c r="U79" s="1"/>
       <c r="V79" s="13"/>
       <c r="W79" s="13"/>
@@ -3037,26 +3068,26 @@
       <c r="Z79" s="13"/>
     </row>
     <row r="80" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="I80" s="9"/>
+      <c r="I80" s="16"/>
     </row>
     <row r="81" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I81" s="9"/>
-      <c r="K81" s="10">
+      <c r="I81" s="16"/>
+      <c r="K81" s="8">
         <v>3</v>
       </c>
-      <c r="L81" s="12" t="s">
+      <c r="L81" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="M81" s="12"/>
-      <c r="N81" s="12"/>
-      <c r="O81" s="12"/>
-      <c r="P81" s="12"/>
+      <c r="M81" s="9"/>
+      <c r="N81" s="9"/>
+      <c r="O81" s="9"/>
+      <c r="P81" s="9"/>
       <c r="Q81" s="1"/>
-      <c r="R81" s="12" t="s">
+      <c r="R81" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="S81" s="12"/>
-      <c r="T81" s="12"/>
+      <c r="S81" s="9"/>
+      <c r="T81" s="9"/>
       <c r="V81" s="13" t="s">
         <v>51</v>
       </c>
@@ -3067,17 +3098,17 @@
     </row>
     <row r="82" spans="7:26" x14ac:dyDescent="0.45">
       <c r="G82" s="3"/>
-      <c r="I82" s="9"/>
-      <c r="K82" s="10"/>
-      <c r="L82" s="12"/>
-      <c r="M82" s="12"/>
-      <c r="N82" s="12"/>
-      <c r="O82" s="12"/>
-      <c r="P82" s="12"/>
+      <c r="I82" s="16"/>
+      <c r="K82" s="8"/>
+      <c r="L82" s="9"/>
+      <c r="M82" s="9"/>
+      <c r="N82" s="9"/>
+      <c r="O82" s="9"/>
+      <c r="P82" s="9"/>
       <c r="Q82" s="1"/>
-      <c r="R82" s="12"/>
-      <c r="S82" s="12"/>
-      <c r="T82" s="12"/>
+      <c r="R82" s="9"/>
+      <c r="S82" s="9"/>
+      <c r="T82" s="9"/>
       <c r="V82" s="13"/>
       <c r="W82" s="13"/>
       <c r="X82" s="13"/>
@@ -3086,27 +3117,27 @@
     </row>
     <row r="83" spans="7:26" x14ac:dyDescent="0.45">
       <c r="G83" s="3"/>
-      <c r="I83" s="9"/>
+      <c r="I83" s="16"/>
     </row>
     <row r="84" spans="7:26" x14ac:dyDescent="0.45">
       <c r="G84" s="3"/>
-      <c r="I84" s="9"/>
-      <c r="K84" s="10">
+      <c r="I84" s="16"/>
+      <c r="K84" s="8">
         <v>4</v>
       </c>
-      <c r="L84" s="12" t="s">
+      <c r="L84" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="M84" s="12"/>
-      <c r="N84" s="12"/>
-      <c r="O84" s="12"/>
-      <c r="P84" s="12"/>
+      <c r="M84" s="9"/>
+      <c r="N84" s="9"/>
+      <c r="O84" s="9"/>
+      <c r="P84" s="9"/>
       <c r="Q84" s="1"/>
-      <c r="R84" s="12" t="s">
+      <c r="R84" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="S84" s="12"/>
-      <c r="T84" s="12"/>
+      <c r="S84" s="9"/>
+      <c r="T84" s="9"/>
       <c r="V84" s="13" t="s">
         <v>51</v>
       </c>
@@ -3117,17 +3148,17 @@
     </row>
     <row r="85" spans="7:26" x14ac:dyDescent="0.45">
       <c r="G85" s="3"/>
-      <c r="I85" s="9"/>
-      <c r="K85" s="10"/>
-      <c r="L85" s="12"/>
-      <c r="M85" s="12"/>
-      <c r="N85" s="12"/>
-      <c r="O85" s="12"/>
-      <c r="P85" s="12"/>
+      <c r="I85" s="16"/>
+      <c r="K85" s="8"/>
+      <c r="L85" s="9"/>
+      <c r="M85" s="9"/>
+      <c r="N85" s="9"/>
+      <c r="O85" s="9"/>
+      <c r="P85" s="9"/>
       <c r="Q85" s="1"/>
-      <c r="R85" s="12"/>
-      <c r="S85" s="12"/>
-      <c r="T85" s="12"/>
+      <c r="R85" s="9"/>
+      <c r="S85" s="9"/>
+      <c r="T85" s="9"/>
       <c r="V85" s="13"/>
       <c r="W85" s="13"/>
       <c r="X85" s="13"/>
@@ -3136,29 +3167,29 @@
     </row>
     <row r="86" spans="7:26" x14ac:dyDescent="0.45">
       <c r="G86" s="3"/>
-      <c r="I86" s="9"/>
+      <c r="I86" s="16"/>
     </row>
     <row r="87" spans="7:26" x14ac:dyDescent="0.45">
       <c r="G87" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I87" s="9"/>
-      <c r="K87" s="10">
+      <c r="I87" s="16"/>
+      <c r="K87" s="8">
         <v>5</v>
       </c>
-      <c r="L87" s="12" t="s">
+      <c r="L87" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="M87" s="12"/>
-      <c r="N87" s="12"/>
-      <c r="O87" s="12"/>
-      <c r="P87" s="12"/>
+      <c r="M87" s="9"/>
+      <c r="N87" s="9"/>
+      <c r="O87" s="9"/>
+      <c r="P87" s="9"/>
       <c r="Q87" s="1"/>
-      <c r="R87" s="12" t="s">
+      <c r="R87" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="S87" s="12"/>
-      <c r="T87" s="12"/>
+      <c r="S87" s="9"/>
+      <c r="T87" s="9"/>
       <c r="V87" s="13" t="s">
         <v>51</v>
       </c>
@@ -3168,20 +3199,20 @@
       <c r="Z87" s="13"/>
     </row>
     <row r="88" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="G88" s="19" t="s">
+      <c r="G88" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I88" s="9"/>
-      <c r="K88" s="10"/>
-      <c r="L88" s="12"/>
-      <c r="M88" s="12"/>
-      <c r="N88" s="12"/>
-      <c r="O88" s="12"/>
-      <c r="P88" s="12"/>
+      <c r="I88" s="16"/>
+      <c r="K88" s="8"/>
+      <c r="L88" s="9"/>
+      <c r="M88" s="9"/>
+      <c r="N88" s="9"/>
+      <c r="O88" s="9"/>
+      <c r="P88" s="9"/>
       <c r="Q88" s="1"/>
-      <c r="R88" s="12"/>
-      <c r="S88" s="12"/>
-      <c r="T88" s="12"/>
+      <c r="R88" s="9"/>
+      <c r="S88" s="9"/>
+      <c r="T88" s="9"/>
       <c r="V88" s="13"/>
       <c r="W88" s="13"/>
       <c r="X88" s="13"/>
@@ -3189,17 +3220,17 @@
       <c r="Z88" s="13"/>
     </row>
     <row r="89" spans="7:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G89" s="19"/>
+      <c r="G89" s="10"/>
     </row>
     <row r="90" spans="7:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G90" s="19"/>
+      <c r="G90" s="10"/>
     </row>
     <row r="91" spans="7:26" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G91" s="19"/>
-      <c r="I91" s="9" t="s">
+      <c r="G91" s="10"/>
+      <c r="I91" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="K91" s="10">
+      <c r="K91" s="8">
         <v>1</v>
       </c>
       <c r="L91" s="11" t="s">
@@ -3210,46 +3241,46 @@
       <c r="O91" s="11"/>
       <c r="P91" s="11"/>
       <c r="Q91" s="1"/>
-      <c r="R91" s="12" t="s">
+      <c r="R91" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="S91" s="12"/>
-      <c r="T91" s="12"/>
-      <c r="V91" s="17" t="s">
+      <c r="S91" s="9"/>
+      <c r="T91" s="9"/>
+      <c r="V91" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="W91" s="17"/>
-      <c r="X91" s="17"/>
-      <c r="Y91" s="17"/>
-      <c r="Z91" s="17"/>
+      <c r="W91" s="18"/>
+      <c r="X91" s="18"/>
+      <c r="Y91" s="18"/>
+      <c r="Z91" s="18"/>
     </row>
     <row r="92" spans="7:26" x14ac:dyDescent="0.45">
       <c r="G92" s="3"/>
-      <c r="I92" s="9"/>
-      <c r="K92" s="10"/>
+      <c r="I92" s="16"/>
+      <c r="K92" s="8"/>
       <c r="L92" s="11"/>
       <c r="M92" s="11"/>
       <c r="N92" s="11"/>
       <c r="O92" s="11"/>
       <c r="P92" s="11"/>
       <c r="Q92" s="1"/>
-      <c r="R92" s="12"/>
-      <c r="S92" s="12"/>
-      <c r="T92" s="12"/>
-      <c r="V92" s="17"/>
-      <c r="W92" s="17"/>
-      <c r="X92" s="17"/>
-      <c r="Y92" s="17"/>
-      <c r="Z92" s="17"/>
+      <c r="R92" s="9"/>
+      <c r="S92" s="9"/>
+      <c r="T92" s="9"/>
+      <c r="V92" s="18"/>
+      <c r="W92" s="18"/>
+      <c r="X92" s="18"/>
+      <c r="Y92" s="18"/>
+      <c r="Z92" s="18"/>
     </row>
     <row r="93" spans="7:26" x14ac:dyDescent="0.45">
       <c r="G93" s="3"/>
-      <c r="I93" s="9"/>
+      <c r="I93" s="16"/>
     </row>
     <row r="94" spans="7:26" x14ac:dyDescent="0.45">
       <c r="G94" s="3"/>
-      <c r="I94" s="9"/>
-      <c r="K94" s="10">
+      <c r="I94" s="16"/>
+      <c r="K94" s="8">
         <v>2</v>
       </c>
       <c r="L94" s="11" t="s">
@@ -3260,37 +3291,37 @@
       <c r="O94" s="11"/>
       <c r="P94" s="11"/>
       <c r="Q94" s="1"/>
-      <c r="R94" s="12" t="s">
+      <c r="R94" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="S94" s="12"/>
-      <c r="T94" s="12"/>
-      <c r="V94" s="17" t="s">
+      <c r="S94" s="9"/>
+      <c r="T94" s="9"/>
+      <c r="V94" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="W94" s="17"/>
-      <c r="X94" s="17"/>
-      <c r="Y94" s="17"/>
-      <c r="Z94" s="17"/>
+      <c r="W94" s="18"/>
+      <c r="X94" s="18"/>
+      <c r="Y94" s="18"/>
+      <c r="Z94" s="18"/>
     </row>
     <row r="95" spans="7:26" x14ac:dyDescent="0.45">
       <c r="G95" s="3"/>
-      <c r="I95" s="9"/>
-      <c r="K95" s="10"/>
+      <c r="I95" s="16"/>
+      <c r="K95" s="8"/>
       <c r="L95" s="11"/>
       <c r="M95" s="11"/>
       <c r="N95" s="11"/>
       <c r="O95" s="11"/>
       <c r="P95" s="11"/>
       <c r="Q95" s="1"/>
-      <c r="R95" s="12"/>
-      <c r="S95" s="12"/>
-      <c r="T95" s="12"/>
-      <c r="V95" s="17"/>
-      <c r="W95" s="17"/>
-      <c r="X95" s="17"/>
-      <c r="Y95" s="17"/>
-      <c r="Z95" s="17"/>
+      <c r="R95" s="9"/>
+      <c r="S95" s="9"/>
+      <c r="T95" s="9"/>
+      <c r="V95" s="18"/>
+      <c r="W95" s="18"/>
+      <c r="X95" s="18"/>
+      <c r="Y95" s="18"/>
+      <c r="Z95" s="18"/>
     </row>
     <row r="96" spans="7:26" x14ac:dyDescent="0.45">
       <c r="G96" s="3"/>
@@ -3348,10 +3379,10 @@
       <c r="Z98" s="15"/>
     </row>
     <row r="101" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I101" s="9" t="s">
+      <c r="I101" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="K101" s="10">
+      <c r="K101" s="8">
         <v>1</v>
       </c>
       <c r="L101" s="11" t="s">
@@ -3362,60 +3393,60 @@
       <c r="O101" s="11"/>
       <c r="P101" s="11"/>
       <c r="Q101" s="1"/>
-      <c r="R101" s="12" t="s">
+      <c r="R101" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="S101" s="12"/>
-      <c r="T101" s="12"/>
+      <c r="S101" s="9"/>
+      <c r="T101" s="9"/>
       <c r="U101" s="1"/>
-      <c r="V101" s="8" t="s">
+      <c r="V101" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="W101" s="8"/>
-      <c r="X101" s="8"/>
-      <c r="Y101" s="8"/>
-      <c r="Z101" s="8"/>
+      <c r="W101" s="12"/>
+      <c r="X101" s="12"/>
+      <c r="Y101" s="12"/>
+      <c r="Z101" s="12"/>
     </row>
     <row r="102" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I102" s="9"/>
-      <c r="K102" s="10"/>
+      <c r="I102" s="16"/>
+      <c r="K102" s="8"/>
       <c r="L102" s="11"/>
       <c r="M102" s="11"/>
       <c r="N102" s="11"/>
       <c r="O102" s="11"/>
       <c r="P102" s="11"/>
       <c r="Q102" s="1"/>
-      <c r="R102" s="12"/>
-      <c r="S102" s="12"/>
-      <c r="T102" s="12"/>
+      <c r="R102" s="9"/>
+      <c r="S102" s="9"/>
+      <c r="T102" s="9"/>
       <c r="U102" s="1"/>
-      <c r="V102" s="8"/>
-      <c r="W102" s="8"/>
-      <c r="X102" s="8"/>
-      <c r="Y102" s="8"/>
-      <c r="Z102" s="8"/>
+      <c r="V102" s="12"/>
+      <c r="W102" s="12"/>
+      <c r="X102" s="12"/>
+      <c r="Y102" s="12"/>
+      <c r="Z102" s="12"/>
     </row>
     <row r="103" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I103" s="9"/>
+      <c r="I103" s="16"/>
     </row>
     <row r="104" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I104" s="9"/>
-      <c r="K104" s="10">
+      <c r="I104" s="16"/>
+      <c r="K104" s="8">
         <v>2</v>
       </c>
-      <c r="L104" s="12" t="s">
+      <c r="L104" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="M104" s="12"/>
-      <c r="N104" s="12"/>
-      <c r="O104" s="12"/>
-      <c r="P104" s="12"/>
+      <c r="M104" s="9"/>
+      <c r="N104" s="9"/>
+      <c r="O104" s="9"/>
+      <c r="P104" s="9"/>
       <c r="Q104" s="1"/>
-      <c r="R104" s="12" t="s">
+      <c r="R104" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="S104" s="12"/>
-      <c r="T104" s="12"/>
+      <c r="S104" s="9"/>
+      <c r="T104" s="9"/>
       <c r="U104" s="1"/>
       <c r="V104" s="13" t="s">
         <v>51</v>
@@ -3426,17 +3457,17 @@
       <c r="Z104" s="13"/>
     </row>
     <row r="105" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I105" s="9"/>
-      <c r="K105" s="10"/>
-      <c r="L105" s="12"/>
-      <c r="M105" s="12"/>
-      <c r="N105" s="12"/>
-      <c r="O105" s="12"/>
-      <c r="P105" s="12"/>
+      <c r="I105" s="16"/>
+      <c r="K105" s="8"/>
+      <c r="L105" s="9"/>
+      <c r="M105" s="9"/>
+      <c r="N105" s="9"/>
+      <c r="O105" s="9"/>
+      <c r="P105" s="9"/>
       <c r="Q105" s="1"/>
-      <c r="R105" s="12"/>
-      <c r="S105" s="12"/>
-      <c r="T105" s="12"/>
+      <c r="R105" s="9"/>
+      <c r="S105" s="9"/>
+      <c r="T105" s="9"/>
       <c r="U105" s="1"/>
       <c r="V105" s="13"/>
       <c r="W105" s="13"/>
@@ -3445,26 +3476,26 @@
       <c r="Z105" s="13"/>
     </row>
     <row r="106" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I106" s="9"/>
+      <c r="I106" s="16"/>
     </row>
     <row r="107" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I107" s="9"/>
-      <c r="K107" s="10">
+      <c r="I107" s="16"/>
+      <c r="K107" s="8">
         <v>3</v>
       </c>
-      <c r="L107" s="12" t="s">
+      <c r="L107" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="M107" s="12"/>
-      <c r="N107" s="12"/>
-      <c r="O107" s="12"/>
-      <c r="P107" s="12"/>
+      <c r="M107" s="9"/>
+      <c r="N107" s="9"/>
+      <c r="O107" s="9"/>
+      <c r="P107" s="9"/>
       <c r="Q107" s="1"/>
-      <c r="R107" s="12" t="s">
+      <c r="R107" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="S107" s="12"/>
-      <c r="T107" s="12"/>
+      <c r="S107" s="9"/>
+      <c r="T107" s="9"/>
       <c r="V107" s="13" t="s">
         <v>51</v>
       </c>
@@ -3474,17 +3505,17 @@
       <c r="Z107" s="13"/>
     </row>
     <row r="108" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I108" s="9"/>
-      <c r="K108" s="10"/>
-      <c r="L108" s="12"/>
-      <c r="M108" s="12"/>
-      <c r="N108" s="12"/>
-      <c r="O108" s="12"/>
-      <c r="P108" s="12"/>
+      <c r="I108" s="16"/>
+      <c r="K108" s="8"/>
+      <c r="L108" s="9"/>
+      <c r="M108" s="9"/>
+      <c r="N108" s="9"/>
+      <c r="O108" s="9"/>
+      <c r="P108" s="9"/>
       <c r="Q108" s="1"/>
-      <c r="R108" s="12"/>
-      <c r="S108" s="12"/>
-      <c r="T108" s="12"/>
+      <c r="R108" s="9"/>
+      <c r="S108" s="9"/>
+      <c r="T108" s="9"/>
       <c r="V108" s="13"/>
       <c r="W108" s="13"/>
       <c r="X108" s="13"/>
@@ -3492,26 +3523,26 @@
       <c r="Z108" s="13"/>
     </row>
     <row r="109" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I109" s="9"/>
+      <c r="I109" s="16"/>
     </row>
     <row r="110" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I110" s="9"/>
-      <c r="K110" s="10">
+      <c r="I110" s="16"/>
+      <c r="K110" s="8">
         <v>4</v>
       </c>
-      <c r="L110" s="12" t="s">
+      <c r="L110" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="M110" s="12"/>
-      <c r="N110" s="12"/>
-      <c r="O110" s="12"/>
-      <c r="P110" s="12"/>
+      <c r="M110" s="9"/>
+      <c r="N110" s="9"/>
+      <c r="O110" s="9"/>
+      <c r="P110" s="9"/>
       <c r="Q110" s="1"/>
-      <c r="R110" s="12" t="s">
+      <c r="R110" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="S110" s="12"/>
-      <c r="T110" s="12"/>
+      <c r="S110" s="9"/>
+      <c r="T110" s="9"/>
       <c r="V110" s="13" t="s">
         <v>51</v>
       </c>
@@ -3521,17 +3552,17 @@
       <c r="Z110" s="13"/>
     </row>
     <row r="111" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I111" s="9"/>
-      <c r="K111" s="10"/>
-      <c r="L111" s="12"/>
-      <c r="M111" s="12"/>
-      <c r="N111" s="12"/>
-      <c r="O111" s="12"/>
-      <c r="P111" s="12"/>
+      <c r="I111" s="16"/>
+      <c r="K111" s="8"/>
+      <c r="L111" s="9"/>
+      <c r="M111" s="9"/>
+      <c r="N111" s="9"/>
+      <c r="O111" s="9"/>
+      <c r="P111" s="9"/>
       <c r="Q111" s="1"/>
-      <c r="R111" s="12"/>
-      <c r="S111" s="12"/>
-      <c r="T111" s="12"/>
+      <c r="R111" s="9"/>
+      <c r="S111" s="9"/>
+      <c r="T111" s="9"/>
       <c r="V111" s="13"/>
       <c r="W111" s="13"/>
       <c r="X111" s="13"/>
@@ -3539,26 +3570,26 @@
       <c r="Z111" s="13"/>
     </row>
     <row r="112" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I112" s="9"/>
+      <c r="I112" s="16"/>
     </row>
     <row r="113" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I113" s="9"/>
-      <c r="K113" s="10">
+      <c r="I113" s="16"/>
+      <c r="K113" s="8">
         <v>5</v>
       </c>
-      <c r="L113" s="12" t="s">
+      <c r="L113" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="M113" s="12"/>
-      <c r="N113" s="12"/>
-      <c r="O113" s="12"/>
-      <c r="P113" s="12"/>
+      <c r="M113" s="9"/>
+      <c r="N113" s="9"/>
+      <c r="O113" s="9"/>
+      <c r="P113" s="9"/>
       <c r="Q113" s="1"/>
-      <c r="R113" s="12" t="s">
+      <c r="R113" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="S113" s="12"/>
-      <c r="T113" s="12"/>
+      <c r="S113" s="9"/>
+      <c r="T113" s="9"/>
       <c r="V113" s="13" t="s">
         <v>51</v>
       </c>
@@ -3571,17 +3602,17 @@
       <c r="G114" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I114" s="9"/>
-      <c r="K114" s="10"/>
-      <c r="L114" s="12"/>
-      <c r="M114" s="12"/>
-      <c r="N114" s="12"/>
-      <c r="O114" s="12"/>
-      <c r="P114" s="12"/>
+      <c r="I114" s="16"/>
+      <c r="K114" s="8"/>
+      <c r="L114" s="9"/>
+      <c r="M114" s="9"/>
+      <c r="N114" s="9"/>
+      <c r="O114" s="9"/>
+      <c r="P114" s="9"/>
       <c r="Q114" s="1"/>
-      <c r="R114" s="12"/>
-      <c r="S114" s="12"/>
-      <c r="T114" s="12"/>
+      <c r="R114" s="9"/>
+      <c r="S114" s="9"/>
+      <c r="T114" s="9"/>
       <c r="V114" s="13"/>
       <c r="W114" s="13"/>
       <c r="X114" s="13"/>
@@ -3589,19 +3620,19 @@
       <c r="Z114" s="13"/>
     </row>
     <row r="115" spans="7:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G115" s="19" t="s">
+      <c r="G115" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="116" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="G116" s="19"/>
+      <c r="G116" s="10"/>
     </row>
     <row r="117" spans="7:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G117" s="19"/>
-      <c r="I117" s="9" t="s">
+      <c r="G117" s="10"/>
+      <c r="I117" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="K117" s="10">
+      <c r="K117" s="8">
         <v>1</v>
       </c>
       <c r="L117" s="11" t="s">
@@ -3612,44 +3643,44 @@
       <c r="O117" s="11"/>
       <c r="P117" s="11"/>
       <c r="Q117" s="1"/>
-      <c r="R117" s="12" t="s">
+      <c r="R117" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="S117" s="12"/>
-      <c r="T117" s="12"/>
-      <c r="V117" s="8" t="s">
+      <c r="S117" s="9"/>
+      <c r="T117" s="9"/>
+      <c r="V117" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="W117" s="8"/>
-      <c r="X117" s="8"/>
-      <c r="Y117" s="8"/>
-      <c r="Z117" s="8"/>
+      <c r="W117" s="12"/>
+      <c r="X117" s="12"/>
+      <c r="Y117" s="12"/>
+      <c r="Z117" s="12"/>
     </row>
     <row r="118" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="G118" s="19"/>
-      <c r="I118" s="9"/>
-      <c r="K118" s="10"/>
+      <c r="G118" s="10"/>
+      <c r="I118" s="16"/>
+      <c r="K118" s="8"/>
       <c r="L118" s="11"/>
       <c r="M118" s="11"/>
       <c r="N118" s="11"/>
       <c r="O118" s="11"/>
       <c r="P118" s="11"/>
       <c r="Q118" s="1"/>
-      <c r="R118" s="12"/>
-      <c r="S118" s="12"/>
-      <c r="T118" s="12"/>
-      <c r="V118" s="8"/>
-      <c r="W118" s="8"/>
-      <c r="X118" s="8"/>
-      <c r="Y118" s="8"/>
-      <c r="Z118" s="8"/>
+      <c r="R118" s="9"/>
+      <c r="S118" s="9"/>
+      <c r="T118" s="9"/>
+      <c r="V118" s="12"/>
+      <c r="W118" s="12"/>
+      <c r="X118" s="12"/>
+      <c r="Y118" s="12"/>
+      <c r="Z118" s="12"/>
     </row>
     <row r="119" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I119" s="9"/>
+      <c r="I119" s="16"/>
     </row>
     <row r="120" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I120" s="9"/>
-      <c r="K120" s="10">
+      <c r="I120" s="16"/>
+      <c r="K120" s="8">
         <v>2</v>
       </c>
       <c r="L120" s="11" t="s">
@@ -3660,43 +3691,43 @@
       <c r="O120" s="11"/>
       <c r="P120" s="11"/>
       <c r="Q120" s="1"/>
-      <c r="R120" s="12" t="s">
+      <c r="R120" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="S120" s="12"/>
-      <c r="T120" s="12"/>
-      <c r="V120" s="8" t="s">
+      <c r="S120" s="9"/>
+      <c r="T120" s="9"/>
+      <c r="V120" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="W120" s="8"/>
-      <c r="X120" s="8"/>
-      <c r="Y120" s="8"/>
-      <c r="Z120" s="8"/>
+      <c r="W120" s="12"/>
+      <c r="X120" s="12"/>
+      <c r="Y120" s="12"/>
+      <c r="Z120" s="12"/>
     </row>
     <row r="121" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I121" s="9"/>
-      <c r="K121" s="10"/>
+      <c r="I121" s="16"/>
+      <c r="K121" s="8"/>
       <c r="L121" s="11"/>
       <c r="M121" s="11"/>
       <c r="N121" s="11"/>
       <c r="O121" s="11"/>
       <c r="P121" s="11"/>
       <c r="Q121" s="1"/>
-      <c r="R121" s="12"/>
-      <c r="S121" s="12"/>
-      <c r="T121" s="12"/>
-      <c r="V121" s="8"/>
-      <c r="W121" s="8"/>
-      <c r="X121" s="8"/>
-      <c r="Y121" s="8"/>
-      <c r="Z121" s="8"/>
+      <c r="R121" s="9"/>
+      <c r="S121" s="9"/>
+      <c r="T121" s="9"/>
+      <c r="V121" s="12"/>
+      <c r="W121" s="12"/>
+      <c r="X121" s="12"/>
+      <c r="Y121" s="12"/>
+      <c r="Z121" s="12"/>
     </row>
     <row r="122" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I122" s="9"/>
+      <c r="I122" s="16"/>
     </row>
     <row r="123" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I123" s="9"/>
-      <c r="K123" s="10">
+      <c r="I123" s="16"/>
+      <c r="K123" s="8">
         <v>3</v>
       </c>
       <c r="L123" s="11" t="s">
@@ -3707,43 +3738,43 @@
       <c r="O123" s="11"/>
       <c r="P123" s="11"/>
       <c r="Q123" s="1"/>
-      <c r="R123" s="12" t="s">
+      <c r="R123" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="S123" s="12"/>
-      <c r="T123" s="12"/>
-      <c r="V123" s="8" t="s">
+      <c r="S123" s="9"/>
+      <c r="T123" s="9"/>
+      <c r="V123" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="W123" s="8"/>
-      <c r="X123" s="8"/>
-      <c r="Y123" s="8"/>
-      <c r="Z123" s="8"/>
+      <c r="W123" s="12"/>
+      <c r="X123" s="12"/>
+      <c r="Y123" s="12"/>
+      <c r="Z123" s="12"/>
     </row>
     <row r="124" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I124" s="9"/>
-      <c r="K124" s="10"/>
+      <c r="I124" s="16"/>
+      <c r="K124" s="8"/>
       <c r="L124" s="11"/>
       <c r="M124" s="11"/>
       <c r="N124" s="11"/>
       <c r="O124" s="11"/>
       <c r="P124" s="11"/>
       <c r="Q124" s="1"/>
-      <c r="R124" s="12"/>
-      <c r="S124" s="12"/>
-      <c r="T124" s="12"/>
-      <c r="V124" s="8"/>
-      <c r="W124" s="8"/>
-      <c r="X124" s="8"/>
-      <c r="Y124" s="8"/>
-      <c r="Z124" s="8"/>
+      <c r="R124" s="9"/>
+      <c r="S124" s="9"/>
+      <c r="T124" s="9"/>
+      <c r="V124" s="12"/>
+      <c r="W124" s="12"/>
+      <c r="X124" s="12"/>
+      <c r="Y124" s="12"/>
+      <c r="Z124" s="12"/>
     </row>
     <row r="125" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I125" s="9"/>
+      <c r="I125" s="16"/>
     </row>
     <row r="126" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I126" s="9"/>
-      <c r="K126" s="10">
+      <c r="I126" s="16"/>
+      <c r="K126" s="8">
         <v>4</v>
       </c>
       <c r="L126" s="11" t="s">
@@ -3754,43 +3785,43 @@
       <c r="O126" s="11"/>
       <c r="P126" s="11"/>
       <c r="Q126" s="1"/>
-      <c r="R126" s="12" t="s">
+      <c r="R126" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="S126" s="12"/>
-      <c r="T126" s="12"/>
-      <c r="V126" s="8" t="s">
+      <c r="S126" s="9"/>
+      <c r="T126" s="9"/>
+      <c r="V126" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="W126" s="8"/>
-      <c r="X126" s="8"/>
-      <c r="Y126" s="8"/>
-      <c r="Z126" s="8"/>
+      <c r="W126" s="12"/>
+      <c r="X126" s="12"/>
+      <c r="Y126" s="12"/>
+      <c r="Z126" s="12"/>
     </row>
     <row r="127" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I127" s="9"/>
-      <c r="K127" s="10"/>
+      <c r="I127" s="16"/>
+      <c r="K127" s="8"/>
       <c r="L127" s="11"/>
       <c r="M127" s="11"/>
       <c r="N127" s="11"/>
       <c r="O127" s="11"/>
       <c r="P127" s="11"/>
       <c r="Q127" s="1"/>
-      <c r="R127" s="12"/>
-      <c r="S127" s="12"/>
-      <c r="T127" s="12"/>
-      <c r="V127" s="8"/>
-      <c r="W127" s="8"/>
-      <c r="X127" s="8"/>
-      <c r="Y127" s="8"/>
-      <c r="Z127" s="8"/>
+      <c r="R127" s="9"/>
+      <c r="S127" s="9"/>
+      <c r="T127" s="9"/>
+      <c r="V127" s="12"/>
+      <c r="W127" s="12"/>
+      <c r="X127" s="12"/>
+      <c r="Y127" s="12"/>
+      <c r="Z127" s="12"/>
     </row>
     <row r="128" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I128" s="9"/>
+      <c r="I128" s="16"/>
     </row>
     <row r="129" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I129" s="9"/>
-      <c r="K129" s="10">
+      <c r="I129" s="16"/>
+      <c r="K129" s="8">
         <v>5</v>
       </c>
       <c r="L129" s="11" t="s">
@@ -3801,36 +3832,36 @@
       <c r="O129" s="11"/>
       <c r="P129" s="11"/>
       <c r="Q129" s="1"/>
-      <c r="R129" s="12" t="s">
+      <c r="R129" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="S129" s="12"/>
-      <c r="T129" s="12"/>
-      <c r="V129" s="8" t="s">
+      <c r="S129" s="9"/>
+      <c r="T129" s="9"/>
+      <c r="V129" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="W129" s="8"/>
-      <c r="X129" s="8"/>
-      <c r="Y129" s="8"/>
-      <c r="Z129" s="8"/>
+      <c r="W129" s="12"/>
+      <c r="X129" s="12"/>
+      <c r="Y129" s="12"/>
+      <c r="Z129" s="12"/>
     </row>
     <row r="130" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I130" s="9"/>
-      <c r="K130" s="10"/>
+      <c r="I130" s="16"/>
+      <c r="K130" s="8"/>
       <c r="L130" s="11"/>
       <c r="M130" s="11"/>
       <c r="N130" s="11"/>
       <c r="O130" s="11"/>
       <c r="P130" s="11"/>
       <c r="Q130" s="1"/>
-      <c r="R130" s="12"/>
-      <c r="S130" s="12"/>
-      <c r="T130" s="12"/>
-      <c r="V130" s="8"/>
-      <c r="W130" s="8"/>
-      <c r="X130" s="8"/>
-      <c r="Y130" s="8"/>
-      <c r="Z130" s="8"/>
+      <c r="R130" s="9"/>
+      <c r="S130" s="9"/>
+      <c r="T130" s="9"/>
+      <c r="V130" s="12"/>
+      <c r="W130" s="12"/>
+      <c r="X130" s="12"/>
+      <c r="Y130" s="12"/>
+      <c r="Z130" s="12"/>
     </row>
     <row r="132" spans="7:26" x14ac:dyDescent="0.45">
       <c r="G132" s="3"/>
@@ -3883,10 +3914,10 @@
       <c r="Z133" s="15"/>
     </row>
     <row r="136" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I136" s="9" t="s">
+      <c r="I136" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="K136" s="10">
+      <c r="K136" s="8">
         <v>1</v>
       </c>
       <c r="L136" s="11" t="s">
@@ -3897,11 +3928,11 @@
       <c r="O136" s="11"/>
       <c r="P136" s="11"/>
       <c r="Q136" s="1"/>
-      <c r="R136" s="12" t="s">
+      <c r="R136" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="S136" s="12"/>
-      <c r="T136" s="12"/>
+      <c r="S136" s="9"/>
+      <c r="T136" s="9"/>
       <c r="V136" s="13" t="s">
         <v>51</v>
       </c>
@@ -3911,17 +3942,17 @@
       <c r="Z136" s="13"/>
     </row>
     <row r="137" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I137" s="9"/>
-      <c r="K137" s="10"/>
+      <c r="I137" s="16"/>
+      <c r="K137" s="8"/>
       <c r="L137" s="11"/>
       <c r="M137" s="11"/>
       <c r="N137" s="11"/>
       <c r="O137" s="11"/>
       <c r="P137" s="11"/>
       <c r="Q137" s="1"/>
-      <c r="R137" s="12"/>
-      <c r="S137" s="12"/>
-      <c r="T137" s="12"/>
+      <c r="R137" s="9"/>
+      <c r="S137" s="9"/>
+      <c r="T137" s="9"/>
       <c r="V137" s="13"/>
       <c r="W137" s="13"/>
       <c r="X137" s="13"/>
@@ -3929,26 +3960,26 @@
       <c r="Z137" s="13"/>
     </row>
     <row r="138" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I138" s="9"/>
+      <c r="I138" s="16"/>
     </row>
     <row r="139" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I139" s="9"/>
-      <c r="K139" s="10">
+      <c r="I139" s="16"/>
+      <c r="K139" s="8">
         <v>2</v>
       </c>
-      <c r="L139" s="12" t="s">
+      <c r="L139" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="M139" s="12"/>
-      <c r="N139" s="12"/>
-      <c r="O139" s="12"/>
-      <c r="P139" s="12"/>
+      <c r="M139" s="9"/>
+      <c r="N139" s="9"/>
+      <c r="O139" s="9"/>
+      <c r="P139" s="9"/>
       <c r="Q139" s="1"/>
-      <c r="R139" s="12" t="s">
+      <c r="R139" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="S139" s="12"/>
-      <c r="T139" s="12"/>
+      <c r="S139" s="9"/>
+      <c r="T139" s="9"/>
       <c r="V139" s="13" t="s">
         <v>51</v>
       </c>
@@ -3958,17 +3989,17 @@
       <c r="Z139" s="13"/>
     </row>
     <row r="140" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I140" s="9"/>
-      <c r="K140" s="10"/>
-      <c r="L140" s="12"/>
-      <c r="M140" s="12"/>
-      <c r="N140" s="12"/>
-      <c r="O140" s="12"/>
-      <c r="P140" s="12"/>
+      <c r="I140" s="16"/>
+      <c r="K140" s="8"/>
+      <c r="L140" s="9"/>
+      <c r="M140" s="9"/>
+      <c r="N140" s="9"/>
+      <c r="O140" s="9"/>
+      <c r="P140" s="9"/>
       <c r="Q140" s="1"/>
-      <c r="R140" s="12"/>
-      <c r="S140" s="12"/>
-      <c r="T140" s="12"/>
+      <c r="R140" s="9"/>
+      <c r="S140" s="9"/>
+      <c r="T140" s="9"/>
       <c r="V140" s="13"/>
       <c r="W140" s="13"/>
       <c r="X140" s="13"/>
@@ -3976,26 +4007,26 @@
       <c r="Z140" s="13"/>
     </row>
     <row r="141" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I141" s="9"/>
+      <c r="I141" s="16"/>
     </row>
     <row r="142" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I142" s="9"/>
-      <c r="K142" s="10">
+      <c r="I142" s="16"/>
+      <c r="K142" s="8">
         <v>3</v>
       </c>
-      <c r="L142" s="12" t="s">
+      <c r="L142" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="M142" s="12"/>
-      <c r="N142" s="12"/>
-      <c r="O142" s="12"/>
-      <c r="P142" s="12"/>
+      <c r="M142" s="9"/>
+      <c r="N142" s="9"/>
+      <c r="O142" s="9"/>
+      <c r="P142" s="9"/>
       <c r="Q142" s="1"/>
-      <c r="R142" s="12" t="s">
+      <c r="R142" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="S142" s="12"/>
-      <c r="T142" s="12"/>
+      <c r="S142" s="9"/>
+      <c r="T142" s="9"/>
       <c r="V142" s="13" t="s">
         <v>51</v>
       </c>
@@ -4005,17 +4036,17 @@
       <c r="Z142" s="13"/>
     </row>
     <row r="143" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I143" s="9"/>
-      <c r="K143" s="10"/>
-      <c r="L143" s="12"/>
-      <c r="M143" s="12"/>
-      <c r="N143" s="12"/>
-      <c r="O143" s="12"/>
-      <c r="P143" s="12"/>
+      <c r="I143" s="16"/>
+      <c r="K143" s="8"/>
+      <c r="L143" s="9"/>
+      <c r="M143" s="9"/>
+      <c r="N143" s="9"/>
+      <c r="O143" s="9"/>
+      <c r="P143" s="9"/>
       <c r="Q143" s="1"/>
-      <c r="R143" s="12"/>
-      <c r="S143" s="12"/>
-      <c r="T143" s="12"/>
+      <c r="R143" s="9"/>
+      <c r="S143" s="9"/>
+      <c r="T143" s="9"/>
       <c r="V143" s="13"/>
       <c r="W143" s="13"/>
       <c r="X143" s="13"/>
@@ -4023,26 +4054,26 @@
       <c r="Z143" s="13"/>
     </row>
     <row r="144" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I144" s="9"/>
+      <c r="I144" s="16"/>
     </row>
     <row r="145" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I145" s="9"/>
-      <c r="K145" s="10">
+      <c r="I145" s="16"/>
+      <c r="K145" s="8">
         <v>4</v>
       </c>
-      <c r="L145" s="12" t="s">
+      <c r="L145" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="M145" s="12"/>
-      <c r="N145" s="12"/>
-      <c r="O145" s="12"/>
-      <c r="P145" s="12"/>
+      <c r="M145" s="9"/>
+      <c r="N145" s="9"/>
+      <c r="O145" s="9"/>
+      <c r="P145" s="9"/>
       <c r="Q145" s="1"/>
-      <c r="R145" s="12" t="s">
+      <c r="R145" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="S145" s="12"/>
-      <c r="T145" s="12"/>
+      <c r="S145" s="9"/>
+      <c r="T145" s="9"/>
       <c r="V145" s="13" t="s">
         <v>51</v>
       </c>
@@ -4052,17 +4083,17 @@
       <c r="Z145" s="13"/>
     </row>
     <row r="146" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I146" s="9"/>
-      <c r="K146" s="10"/>
-      <c r="L146" s="12"/>
-      <c r="M146" s="12"/>
-      <c r="N146" s="12"/>
-      <c r="O146" s="12"/>
-      <c r="P146" s="12"/>
+      <c r="I146" s="16"/>
+      <c r="K146" s="8"/>
+      <c r="L146" s="9"/>
+      <c r="M146" s="9"/>
+      <c r="N146" s="9"/>
+      <c r="O146" s="9"/>
+      <c r="P146" s="9"/>
       <c r="Q146" s="1"/>
-      <c r="R146" s="12"/>
-      <c r="S146" s="12"/>
-      <c r="T146" s="12"/>
+      <c r="R146" s="9"/>
+      <c r="S146" s="9"/>
+      <c r="T146" s="9"/>
       <c r="V146" s="13"/>
       <c r="W146" s="13"/>
       <c r="X146" s="13"/>
@@ -4070,26 +4101,26 @@
       <c r="Z146" s="13"/>
     </row>
     <row r="147" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I147" s="9"/>
+      <c r="I147" s="16"/>
     </row>
     <row r="148" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I148" s="9"/>
-      <c r="K148" s="10">
+      <c r="I148" s="16"/>
+      <c r="K148" s="8">
         <v>5</v>
       </c>
-      <c r="L148" s="12" t="s">
+      <c r="L148" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="M148" s="12"/>
-      <c r="N148" s="12"/>
-      <c r="O148" s="12"/>
-      <c r="P148" s="12"/>
+      <c r="M148" s="9"/>
+      <c r="N148" s="9"/>
+      <c r="O148" s="9"/>
+      <c r="P148" s="9"/>
       <c r="Q148" s="1"/>
-      <c r="R148" s="12" t="s">
+      <c r="R148" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="S148" s="12"/>
-      <c r="T148" s="12"/>
+      <c r="S148" s="9"/>
+      <c r="T148" s="9"/>
       <c r="V148" s="13" t="s">
         <v>51</v>
       </c>
@@ -4102,17 +4133,17 @@
       <c r="G149" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I149" s="9"/>
-      <c r="K149" s="10"/>
-      <c r="L149" s="12"/>
-      <c r="M149" s="12"/>
-      <c r="N149" s="12"/>
-      <c r="O149" s="12"/>
-      <c r="P149" s="12"/>
+      <c r="I149" s="16"/>
+      <c r="K149" s="8"/>
+      <c r="L149" s="9"/>
+      <c r="M149" s="9"/>
+      <c r="N149" s="9"/>
+      <c r="O149" s="9"/>
+      <c r="P149" s="9"/>
       <c r="Q149" s="1"/>
-      <c r="R149" s="12"/>
-      <c r="S149" s="12"/>
-      <c r="T149" s="12"/>
+      <c r="R149" s="9"/>
+      <c r="S149" s="9"/>
+      <c r="T149" s="9"/>
       <c r="V149" s="13"/>
       <c r="W149" s="13"/>
       <c r="X149" s="13"/>
@@ -4120,19 +4151,19 @@
       <c r="Z149" s="13"/>
     </row>
     <row r="150" spans="7:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G150" s="19" t="s">
+      <c r="G150" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="151" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="G151" s="19"/>
+      <c r="G151" s="10"/>
     </row>
     <row r="152" spans="7:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G152" s="19"/>
+      <c r="G152" s="10"/>
       <c r="I152" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="K152" s="10">
+      <c r="K152" s="8">
         <v>1</v>
       </c>
       <c r="L152" s="11" t="s">
@@ -4143,44 +4174,44 @@
       <c r="O152" s="11"/>
       <c r="P152" s="11"/>
       <c r="Q152" s="1"/>
-      <c r="R152" s="12" t="s">
+      <c r="R152" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="S152" s="12"/>
-      <c r="T152" s="12"/>
-      <c r="V152" s="8" t="s">
+      <c r="S152" s="9"/>
+      <c r="T152" s="9"/>
+      <c r="V152" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="W152" s="8"/>
-      <c r="X152" s="8"/>
-      <c r="Y152" s="8"/>
-      <c r="Z152" s="8"/>
+      <c r="W152" s="12"/>
+      <c r="X152" s="12"/>
+      <c r="Y152" s="12"/>
+      <c r="Z152" s="12"/>
     </row>
     <row r="153" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="G153" s="19"/>
+      <c r="G153" s="10"/>
       <c r="I153" s="20"/>
-      <c r="K153" s="10"/>
+      <c r="K153" s="8"/>
       <c r="L153" s="11"/>
       <c r="M153" s="11"/>
       <c r="N153" s="11"/>
       <c r="O153" s="11"/>
       <c r="P153" s="11"/>
       <c r="Q153" s="1"/>
-      <c r="R153" s="12"/>
-      <c r="S153" s="12"/>
-      <c r="T153" s="12"/>
-      <c r="V153" s="8"/>
-      <c r="W153" s="8"/>
-      <c r="X153" s="8"/>
-      <c r="Y153" s="8"/>
-      <c r="Z153" s="8"/>
+      <c r="R153" s="9"/>
+      <c r="S153" s="9"/>
+      <c r="T153" s="9"/>
+      <c r="V153" s="12"/>
+      <c r="W153" s="12"/>
+      <c r="X153" s="12"/>
+      <c r="Y153" s="12"/>
+      <c r="Z153" s="12"/>
     </row>
     <row r="154" spans="7:26" x14ac:dyDescent="0.45">
       <c r="I154" s="20"/>
     </row>
     <row r="155" spans="7:26" x14ac:dyDescent="0.45">
       <c r="I155" s="20"/>
-      <c r="K155" s="10">
+      <c r="K155" s="8">
         <v>2</v>
       </c>
       <c r="L155" s="11" t="s">
@@ -4191,43 +4222,43 @@
       <c r="O155" s="11"/>
       <c r="P155" s="11"/>
       <c r="Q155" s="1"/>
-      <c r="R155" s="12" t="s">
+      <c r="R155" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="S155" s="12"/>
-      <c r="T155" s="12"/>
-      <c r="V155" s="8" t="s">
+      <c r="S155" s="9"/>
+      <c r="T155" s="9"/>
+      <c r="V155" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="W155" s="8"/>
-      <c r="X155" s="8"/>
-      <c r="Y155" s="8"/>
-      <c r="Z155" s="8"/>
+      <c r="W155" s="12"/>
+      <c r="X155" s="12"/>
+      <c r="Y155" s="12"/>
+      <c r="Z155" s="12"/>
     </row>
     <row r="156" spans="7:26" x14ac:dyDescent="0.45">
       <c r="I156" s="20"/>
-      <c r="K156" s="10"/>
+      <c r="K156" s="8"/>
       <c r="L156" s="11"/>
       <c r="M156" s="11"/>
       <c r="N156" s="11"/>
       <c r="O156" s="11"/>
       <c r="P156" s="11"/>
       <c r="Q156" s="1"/>
-      <c r="R156" s="12"/>
-      <c r="S156" s="12"/>
-      <c r="T156" s="12"/>
-      <c r="V156" s="8"/>
-      <c r="W156" s="8"/>
-      <c r="X156" s="8"/>
-      <c r="Y156" s="8"/>
-      <c r="Z156" s="8"/>
+      <c r="R156" s="9"/>
+      <c r="S156" s="9"/>
+      <c r="T156" s="9"/>
+      <c r="V156" s="12"/>
+      <c r="W156" s="12"/>
+      <c r="X156" s="12"/>
+      <c r="Y156" s="12"/>
+      <c r="Z156" s="12"/>
     </row>
     <row r="157" spans="7:26" x14ac:dyDescent="0.45">
       <c r="I157" s="20"/>
     </row>
     <row r="158" spans="7:26" x14ac:dyDescent="0.45">
       <c r="I158" s="20"/>
-      <c r="K158" s="10">
+      <c r="K158" s="8">
         <v>3</v>
       </c>
       <c r="L158" s="11" t="s">
@@ -4238,36 +4269,36 @@
       <c r="O158" s="11"/>
       <c r="P158" s="11"/>
       <c r="Q158" s="1"/>
-      <c r="R158" s="12" t="s">
+      <c r="R158" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="S158" s="12"/>
-      <c r="T158" s="12"/>
-      <c r="V158" s="17" t="s">
+      <c r="S158" s="9"/>
+      <c r="T158" s="9"/>
+      <c r="V158" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="W158" s="17"/>
-      <c r="X158" s="17"/>
-      <c r="Y158" s="17"/>
-      <c r="Z158" s="17"/>
+      <c r="W158" s="18"/>
+      <c r="X158" s="18"/>
+      <c r="Y158" s="18"/>
+      <c r="Z158" s="18"/>
     </row>
     <row r="159" spans="7:26" x14ac:dyDescent="0.45">
       <c r="I159" s="20"/>
-      <c r="K159" s="10"/>
+      <c r="K159" s="8"/>
       <c r="L159" s="11"/>
       <c r="M159" s="11"/>
       <c r="N159" s="11"/>
       <c r="O159" s="11"/>
       <c r="P159" s="11"/>
       <c r="Q159" s="1"/>
-      <c r="R159" s="12"/>
-      <c r="S159" s="12"/>
-      <c r="T159" s="12"/>
-      <c r="V159" s="17"/>
-      <c r="W159" s="17"/>
-      <c r="X159" s="17"/>
-      <c r="Y159" s="17"/>
-      <c r="Z159" s="17"/>
+      <c r="R159" s="9"/>
+      <c r="S159" s="9"/>
+      <c r="T159" s="9"/>
+      <c r="V159" s="18"/>
+      <c r="W159" s="18"/>
+      <c r="X159" s="18"/>
+      <c r="Y159" s="18"/>
+      <c r="Z159" s="18"/>
     </row>
     <row r="161" spans="8:26" x14ac:dyDescent="0.45">
       <c r="H161" s="14" t="s">
@@ -4318,10 +4349,10 @@
       <c r="Z162" s="15"/>
     </row>
     <row r="165" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="I165" s="9" t="s">
+      <c r="I165" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="K165" s="10">
+      <c r="K165" s="8">
         <v>1</v>
       </c>
       <c r="L165" s="11" t="s">
@@ -4332,11 +4363,11 @@
       <c r="O165" s="11"/>
       <c r="P165" s="11"/>
       <c r="Q165" s="1"/>
-      <c r="R165" s="12" t="s">
+      <c r="R165" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="S165" s="12"/>
-      <c r="T165" s="12"/>
+      <c r="S165" s="9"/>
+      <c r="T165" s="9"/>
       <c r="V165" s="13" t="s">
         <v>51</v>
       </c>
@@ -4346,17 +4377,17 @@
       <c r="Z165" s="13"/>
     </row>
     <row r="166" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="I166" s="9"/>
-      <c r="K166" s="10"/>
+      <c r="I166" s="16"/>
+      <c r="K166" s="8"/>
       <c r="L166" s="11"/>
       <c r="M166" s="11"/>
       <c r="N166" s="11"/>
       <c r="O166" s="11"/>
       <c r="P166" s="11"/>
       <c r="Q166" s="1"/>
-      <c r="R166" s="12"/>
-      <c r="S166" s="12"/>
-      <c r="T166" s="12"/>
+      <c r="R166" s="9"/>
+      <c r="S166" s="9"/>
+      <c r="T166" s="9"/>
       <c r="V166" s="13"/>
       <c r="W166" s="13"/>
       <c r="X166" s="13"/>
@@ -4364,26 +4395,26 @@
       <c r="Z166" s="13"/>
     </row>
     <row r="167" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="I167" s="9"/>
+      <c r="I167" s="16"/>
     </row>
     <row r="168" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="I168" s="9"/>
-      <c r="K168" s="10">
+      <c r="I168" s="16"/>
+      <c r="K168" s="8">
         <v>2</v>
       </c>
-      <c r="L168" s="12" t="s">
+      <c r="L168" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="M168" s="12"/>
-      <c r="N168" s="12"/>
-      <c r="O168" s="12"/>
-      <c r="P168" s="12"/>
+      <c r="M168" s="9"/>
+      <c r="N168" s="9"/>
+      <c r="O168" s="9"/>
+      <c r="P168" s="9"/>
       <c r="Q168" s="1"/>
-      <c r="R168" s="12" t="s">
+      <c r="R168" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="S168" s="12"/>
-      <c r="T168" s="12"/>
+      <c r="S168" s="9"/>
+      <c r="T168" s="9"/>
       <c r="V168" s="13" t="s">
         <v>51</v>
       </c>
@@ -4393,17 +4424,17 @@
       <c r="Z168" s="13"/>
     </row>
     <row r="169" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="I169" s="9"/>
-      <c r="K169" s="10"/>
-      <c r="L169" s="12"/>
-      <c r="M169" s="12"/>
-      <c r="N169" s="12"/>
-      <c r="O169" s="12"/>
-      <c r="P169" s="12"/>
+      <c r="I169" s="16"/>
+      <c r="K169" s="8"/>
+      <c r="L169" s="9"/>
+      <c r="M169" s="9"/>
+      <c r="N169" s="9"/>
+      <c r="O169" s="9"/>
+      <c r="P169" s="9"/>
       <c r="Q169" s="1"/>
-      <c r="R169" s="12"/>
-      <c r="S169" s="12"/>
-      <c r="T169" s="12"/>
+      <c r="R169" s="9"/>
+      <c r="S169" s="9"/>
+      <c r="T169" s="9"/>
       <c r="V169" s="13"/>
       <c r="W169" s="13"/>
       <c r="X169" s="13"/>
@@ -4411,26 +4442,26 @@
       <c r="Z169" s="13"/>
     </row>
     <row r="170" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="I170" s="9"/>
+      <c r="I170" s="16"/>
     </row>
     <row r="171" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="I171" s="9"/>
-      <c r="K171" s="10">
+      <c r="I171" s="16"/>
+      <c r="K171" s="8">
         <v>3</v>
       </c>
-      <c r="L171" s="12" t="s">
+      <c r="L171" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="M171" s="12"/>
-      <c r="N171" s="12"/>
-      <c r="O171" s="12"/>
-      <c r="P171" s="12"/>
+      <c r="M171" s="9"/>
+      <c r="N171" s="9"/>
+      <c r="O171" s="9"/>
+      <c r="P171" s="9"/>
       <c r="Q171" s="1"/>
-      <c r="R171" s="12" t="s">
+      <c r="R171" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="S171" s="12"/>
-      <c r="T171" s="12"/>
+      <c r="S171" s="9"/>
+      <c r="T171" s="9"/>
       <c r="V171" s="13" t="s">
         <v>51</v>
       </c>
@@ -4440,17 +4471,17 @@
       <c r="Z171" s="13"/>
     </row>
     <row r="172" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="I172" s="9"/>
-      <c r="K172" s="10"/>
-      <c r="L172" s="12"/>
-      <c r="M172" s="12"/>
-      <c r="N172" s="12"/>
-      <c r="O172" s="12"/>
-      <c r="P172" s="12"/>
+      <c r="I172" s="16"/>
+      <c r="K172" s="8"/>
+      <c r="L172" s="9"/>
+      <c r="M172" s="9"/>
+      <c r="N172" s="9"/>
+      <c r="O172" s="9"/>
+      <c r="P172" s="9"/>
       <c r="Q172" s="1"/>
-      <c r="R172" s="12"/>
-      <c r="S172" s="12"/>
-      <c r="T172" s="12"/>
+      <c r="R172" s="9"/>
+      <c r="S172" s="9"/>
+      <c r="T172" s="9"/>
       <c r="V172" s="13"/>
       <c r="W172" s="13"/>
       <c r="X172" s="13"/>
@@ -4458,26 +4489,26 @@
       <c r="Z172" s="13"/>
     </row>
     <row r="173" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="I173" s="9"/>
+      <c r="I173" s="16"/>
     </row>
     <row r="174" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="I174" s="9"/>
-      <c r="K174" s="10">
+      <c r="I174" s="16"/>
+      <c r="K174" s="8">
         <v>4</v>
       </c>
-      <c r="L174" s="12" t="s">
+      <c r="L174" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="M174" s="12"/>
-      <c r="N174" s="12"/>
-      <c r="O174" s="12"/>
-      <c r="P174" s="12"/>
+      <c r="M174" s="9"/>
+      <c r="N174" s="9"/>
+      <c r="O174" s="9"/>
+      <c r="P174" s="9"/>
       <c r="Q174" s="1"/>
-      <c r="R174" s="12" t="s">
+      <c r="R174" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="S174" s="12"/>
-      <c r="T174" s="12"/>
+      <c r="S174" s="9"/>
+      <c r="T174" s="9"/>
       <c r="V174" s="13" t="s">
         <v>51</v>
       </c>
@@ -4487,17 +4518,17 @@
       <c r="Z174" s="13"/>
     </row>
     <row r="175" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="I175" s="9"/>
-      <c r="K175" s="10"/>
-      <c r="L175" s="12"/>
-      <c r="M175" s="12"/>
-      <c r="N175" s="12"/>
-      <c r="O175" s="12"/>
-      <c r="P175" s="12"/>
+      <c r="I175" s="16"/>
+      <c r="K175" s="8"/>
+      <c r="L175" s="9"/>
+      <c r="M175" s="9"/>
+      <c r="N175" s="9"/>
+      <c r="O175" s="9"/>
+      <c r="P175" s="9"/>
       <c r="Q175" s="1"/>
-      <c r="R175" s="12"/>
-      <c r="S175" s="12"/>
-      <c r="T175" s="12"/>
+      <c r="R175" s="9"/>
+      <c r="S175" s="9"/>
+      <c r="T175" s="9"/>
       <c r="V175" s="13"/>
       <c r="W175" s="13"/>
       <c r="X175" s="13"/>
@@ -4505,26 +4536,26 @@
       <c r="Z175" s="13"/>
     </row>
     <row r="176" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="I176" s="9"/>
+      <c r="I176" s="16"/>
     </row>
     <row r="177" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I177" s="9"/>
-      <c r="K177" s="10">
+      <c r="I177" s="16"/>
+      <c r="K177" s="8">
         <v>5</v>
       </c>
-      <c r="L177" s="12" t="s">
+      <c r="L177" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="M177" s="12"/>
-      <c r="N177" s="12"/>
-      <c r="O177" s="12"/>
-      <c r="P177" s="12"/>
+      <c r="M177" s="9"/>
+      <c r="N177" s="9"/>
+      <c r="O177" s="9"/>
+      <c r="P177" s="9"/>
       <c r="Q177" s="1"/>
-      <c r="R177" s="12" t="s">
+      <c r="R177" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="S177" s="12"/>
-      <c r="T177" s="12"/>
+      <c r="S177" s="9"/>
+      <c r="T177" s="9"/>
       <c r="V177" s="13" t="s">
         <v>51</v>
       </c>
@@ -4537,17 +4568,17 @@
       <c r="G178" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I178" s="9"/>
-      <c r="K178" s="10"/>
-      <c r="L178" s="12"/>
-      <c r="M178" s="12"/>
-      <c r="N178" s="12"/>
-      <c r="O178" s="12"/>
-      <c r="P178" s="12"/>
+      <c r="I178" s="16"/>
+      <c r="K178" s="8"/>
+      <c r="L178" s="9"/>
+      <c r="M178" s="9"/>
+      <c r="N178" s="9"/>
+      <c r="O178" s="9"/>
+      <c r="P178" s="9"/>
       <c r="Q178" s="1"/>
-      <c r="R178" s="12"/>
-      <c r="S178" s="12"/>
-      <c r="T178" s="12"/>
+      <c r="R178" s="9"/>
+      <c r="S178" s="9"/>
+      <c r="T178" s="9"/>
       <c r="V178" s="13"/>
       <c r="W178" s="13"/>
       <c r="X178" s="13"/>
@@ -4555,19 +4586,19 @@
       <c r="Z178" s="13"/>
     </row>
     <row r="179" spans="7:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G179" s="19" t="s">
+      <c r="G179" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="180" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="G180" s="19"/>
+      <c r="G180" s="10"/>
     </row>
     <row r="181" spans="7:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G181" s="19"/>
+      <c r="G181" s="10"/>
       <c r="I181" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="K181" s="10">
+      <c r="K181" s="8">
         <v>1</v>
       </c>
       <c r="L181" s="11" t="s">
@@ -4578,37 +4609,37 @@
       <c r="O181" s="11"/>
       <c r="P181" s="11"/>
       <c r="Q181" s="1"/>
-      <c r="R181" s="12" t="s">
+      <c r="R181" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="S181" s="12"/>
-      <c r="T181" s="12"/>
-      <c r="V181" s="8" t="s">
+      <c r="S181" s="9"/>
+      <c r="T181" s="9"/>
+      <c r="V181" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="W181" s="8"/>
-      <c r="X181" s="8"/>
-      <c r="Y181" s="8"/>
-      <c r="Z181" s="8"/>
+      <c r="W181" s="12"/>
+      <c r="X181" s="12"/>
+      <c r="Y181" s="12"/>
+      <c r="Z181" s="12"/>
     </row>
     <row r="182" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="G182" s="19"/>
+      <c r="G182" s="10"/>
       <c r="I182" s="20"/>
-      <c r="K182" s="10"/>
+      <c r="K182" s="8"/>
       <c r="L182" s="11"/>
       <c r="M182" s="11"/>
       <c r="N182" s="11"/>
       <c r="O182" s="11"/>
       <c r="P182" s="11"/>
       <c r="Q182" s="1"/>
-      <c r="R182" s="12"/>
-      <c r="S182" s="12"/>
-      <c r="T182" s="12"/>
-      <c r="V182" s="8"/>
-      <c r="W182" s="8"/>
-      <c r="X182" s="8"/>
-      <c r="Y182" s="8"/>
-      <c r="Z182" s="8"/>
+      <c r="R182" s="9"/>
+      <c r="S182" s="9"/>
+      <c r="T182" s="9"/>
+      <c r="V182" s="12"/>
+      <c r="W182" s="12"/>
+      <c r="X182" s="12"/>
+      <c r="Y182" s="12"/>
+      <c r="Z182" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="232">
@@ -4645,7 +4676,7 @@
     <mergeCell ref="V145:Z146"/>
     <mergeCell ref="V148:Z149"/>
     <mergeCell ref="V158:Z159"/>
-    <mergeCell ref="I152:I159"/>
+    <mergeCell ref="R139:T140"/>
     <mergeCell ref="H161:K162"/>
     <mergeCell ref="L161:P162"/>
     <mergeCell ref="R161:T162"/>
@@ -4654,9 +4685,21 @@
     <mergeCell ref="K129:K130"/>
     <mergeCell ref="L129:P130"/>
     <mergeCell ref="R129:T130"/>
-    <mergeCell ref="K101:K102"/>
-    <mergeCell ref="L101:P102"/>
-    <mergeCell ref="R101:T102"/>
+    <mergeCell ref="K145:K146"/>
+    <mergeCell ref="L145:P146"/>
+    <mergeCell ref="R145:T146"/>
+    <mergeCell ref="K148:K149"/>
+    <mergeCell ref="L148:P149"/>
+    <mergeCell ref="R148:T149"/>
+    <mergeCell ref="I117:I130"/>
+    <mergeCell ref="V155:Z156"/>
+    <mergeCell ref="V152:Z153"/>
+    <mergeCell ref="I136:I149"/>
+    <mergeCell ref="K136:K137"/>
+    <mergeCell ref="L136:P137"/>
+    <mergeCell ref="R136:T137"/>
+    <mergeCell ref="K139:K140"/>
+    <mergeCell ref="L139:P140"/>
     <mergeCell ref="K123:K124"/>
     <mergeCell ref="L123:P124"/>
     <mergeCell ref="R123:T124"/>
@@ -4665,6 +4708,7 @@
     <mergeCell ref="R126:T127"/>
     <mergeCell ref="L107:P108"/>
     <mergeCell ref="R107:T108"/>
+    <mergeCell ref="I152:I159"/>
     <mergeCell ref="G115:G118"/>
     <mergeCell ref="K113:K114"/>
     <mergeCell ref="L113:P114"/>
@@ -4797,13 +4841,9 @@
     <mergeCell ref="R104:T105"/>
     <mergeCell ref="K107:K108"/>
     <mergeCell ref="I101:I114"/>
-    <mergeCell ref="K145:K146"/>
-    <mergeCell ref="L145:P146"/>
-    <mergeCell ref="R145:T146"/>
-    <mergeCell ref="K148:K149"/>
-    <mergeCell ref="L148:P149"/>
-    <mergeCell ref="R148:T149"/>
-    <mergeCell ref="I117:I130"/>
+    <mergeCell ref="K158:K159"/>
+    <mergeCell ref="L158:P159"/>
+    <mergeCell ref="R158:T159"/>
     <mergeCell ref="V101:Z102"/>
     <mergeCell ref="V104:Z105"/>
     <mergeCell ref="V107:Z108"/>
@@ -4822,8 +4862,12 @@
     <mergeCell ref="K110:K111"/>
     <mergeCell ref="L110:P111"/>
     <mergeCell ref="V123:Z124"/>
-    <mergeCell ref="V155:Z156"/>
-    <mergeCell ref="V152:Z153"/>
+    <mergeCell ref="K101:K102"/>
+    <mergeCell ref="L101:P102"/>
+    <mergeCell ref="R101:T102"/>
+    <mergeCell ref="K142:K143"/>
+    <mergeCell ref="L142:P143"/>
+    <mergeCell ref="R142:T143"/>
     <mergeCell ref="G150:G153"/>
     <mergeCell ref="K152:K153"/>
     <mergeCell ref="L152:P153"/>
@@ -4831,19 +4875,6 @@
     <mergeCell ref="K155:K156"/>
     <mergeCell ref="L155:P156"/>
     <mergeCell ref="R155:T156"/>
-    <mergeCell ref="K158:K159"/>
-    <mergeCell ref="L158:P159"/>
-    <mergeCell ref="R158:T159"/>
-    <mergeCell ref="I136:I149"/>
-    <mergeCell ref="K136:K137"/>
-    <mergeCell ref="L136:P137"/>
-    <mergeCell ref="R136:T137"/>
-    <mergeCell ref="K139:K140"/>
-    <mergeCell ref="L139:P140"/>
-    <mergeCell ref="R139:T140"/>
-    <mergeCell ref="K142:K143"/>
-    <mergeCell ref="L142:P143"/>
-    <mergeCell ref="R142:T143"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4851,10 +4882,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C6280AF-F913-4213-90F7-5D60D9FFA09E}">
-  <dimension ref="F2:Y33"/>
+  <dimension ref="F2:Y51"/>
   <sheetViews>
-    <sheetView topLeftCell="E20" workbookViewId="0">
-      <selection activeCell="S34" sqref="S34"/>
+    <sheetView topLeftCell="E22" zoomScale="93" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44:P45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4902,66 +4933,66 @@
       <c r="Y3" s="24"/>
     </row>
     <row r="5" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F5" s="23">
+      <c r="F5" s="21">
         <v>1</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="R5" s="21" t="s">
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="R5" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="22"/>
-      <c r="W5" s="22"/>
-      <c r="X5" s="22"/>
-      <c r="Y5" s="22"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="23"/>
+      <c r="W5" s="23"/>
+      <c r="X5" s="23"/>
+      <c r="Y5" s="23"/>
     </row>
     <row r="6" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="22"/>
-      <c r="X6" s="22"/>
-      <c r="Y6" s="22"/>
+      <c r="F6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
+      <c r="V6" s="23"/>
+      <c r="W6" s="23"/>
+      <c r="X6" s="23"/>
+      <c r="Y6" s="23"/>
     </row>
     <row r="8" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F8" s="23">
+      <c r="F8" s="21">
         <v>2</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="H8" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
       <c r="R8" s="20" t="s">
         <v>23</v>
       </c>
@@ -4974,16 +5005,16 @@
       <c r="Y8" s="20"/>
     </row>
     <row r="9" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
+      <c r="F9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
       <c r="R9" s="20"/>
       <c r="S9" s="20"/>
       <c r="T9" s="20"/>
@@ -4994,20 +5025,20 @@
       <c r="Y9" s="20"/>
     </row>
     <row r="11" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F11" s="23">
+      <c r="F11" s="21">
         <v>3</v>
       </c>
-      <c r="H11" s="23" t="s">
+      <c r="H11" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
       <c r="R11" s="20" t="s">
         <v>23</v>
       </c>
@@ -5020,16 +5051,16 @@
       <c r="Y11" s="20"/>
     </row>
     <row r="12" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
+      <c r="F12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
       <c r="R12" s="20"/>
       <c r="S12" s="20"/>
       <c r="T12" s="20"/>
@@ -5040,20 +5071,20 @@
       <c r="Y12" s="20"/>
     </row>
     <row r="14" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F14" s="23">
+      <c r="F14" s="21">
         <v>4</v>
       </c>
-      <c r="H14" s="23" t="s">
+      <c r="H14" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
       <c r="R14" s="20" t="s">
         <v>23</v>
       </c>
@@ -5066,16 +5097,16 @@
       <c r="Y14" s="20"/>
     </row>
     <row r="15" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
+      <c r="F15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
       <c r="R15" s="20"/>
       <c r="S15" s="20"/>
       <c r="T15" s="20"/>
@@ -5086,20 +5117,20 @@
       <c r="Y15" s="20"/>
     </row>
     <row r="17" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F17" s="23">
+      <c r="F17" s="21">
         <v>5</v>
       </c>
-      <c r="H17" s="23" t="s">
+      <c r="H17" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
       <c r="R17" s="13" t="s">
         <v>19</v>
       </c>
@@ -5112,16 +5143,16 @@
       <c r="Y17" s="13"/>
     </row>
     <row r="18" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
+      <c r="F18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
       <c r="R18" s="13"/>
       <c r="S18" s="13"/>
       <c r="T18" s="13"/>
@@ -5132,20 +5163,20 @@
       <c r="Y18" s="13"/>
     </row>
     <row r="20" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F20" s="23">
+      <c r="F20" s="21">
         <v>6</v>
       </c>
-      <c r="H20" s="23" t="s">
+      <c r="H20" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
       <c r="R20" s="20" t="s">
         <v>23</v>
       </c>
@@ -5158,16 +5189,16 @@
       <c r="Y20" s="20"/>
     </row>
     <row r="21" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
+      <c r="F21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
       <c r="R21" s="20"/>
       <c r="S21" s="20"/>
       <c r="T21" s="20"/>
@@ -5178,20 +5209,20 @@
       <c r="Y21" s="20"/>
     </row>
     <row r="23" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F23" s="23">
+      <c r="F23" s="21">
         <v>7</v>
       </c>
-      <c r="H23" s="23" t="s">
+      <c r="H23" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="23"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
       <c r="R23" s="20" t="s">
         <v>23</v>
       </c>
@@ -5204,16 +5235,16 @@
       <c r="Y23" s="20"/>
     </row>
     <row r="24" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="23"/>
+      <c r="F24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
       <c r="R24" s="20"/>
       <c r="S24" s="20"/>
       <c r="T24" s="20"/>
@@ -5224,20 +5255,20 @@
       <c r="Y24" s="20"/>
     </row>
     <row r="26" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F26" s="23">
+      <c r="F26" s="21">
         <v>9</v>
       </c>
-      <c r="H26" s="23" t="s">
+      <c r="H26" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="23"/>
-      <c r="P26" s="23"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
       <c r="R26" s="13" t="s">
         <v>19</v>
       </c>
@@ -5250,16 +5281,16 @@
       <c r="Y26" s="13"/>
     </row>
     <row r="27" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="23"/>
-      <c r="P27" s="23"/>
+      <c r="F27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
       <c r="R27" s="13"/>
       <c r="S27" s="13"/>
       <c r="T27" s="13"/>
@@ -5270,20 +5301,20 @@
       <c r="Y27" s="13"/>
     </row>
     <row r="29" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F29" s="23">
+      <c r="F29" s="21">
         <v>10</v>
       </c>
-      <c r="H29" s="23" t="s">
+      <c r="H29" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="23"/>
-      <c r="O29" s="23"/>
-      <c r="P29" s="23"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
       <c r="R29" s="13" t="s">
         <v>19</v>
       </c>
@@ -5296,16 +5327,16 @@
       <c r="Y29" s="13"/>
     </row>
     <row r="30" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="23"/>
-      <c r="P30" s="23"/>
+      <c r="F30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="21"/>
       <c r="R30" s="13"/>
       <c r="S30" s="13"/>
       <c r="T30" s="13"/>
@@ -5316,20 +5347,20 @@
       <c r="Y30" s="13"/>
     </row>
     <row r="32" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F32" s="23">
+      <c r="F32" s="21">
         <v>11</v>
       </c>
-      <c r="H32" s="23" t="s">
+      <c r="H32" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="23"/>
-      <c r="M32" s="23"/>
-      <c r="N32" s="23"/>
-      <c r="O32" s="23"/>
-      <c r="P32" s="23"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="21"/>
       <c r="R32" s="13" t="s">
         <v>19</v>
       </c>
@@ -5342,16 +5373,16 @@
       <c r="Y32" s="13"/>
     </row>
     <row r="33" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="23"/>
-      <c r="M33" s="23"/>
-      <c r="N33" s="23"/>
-      <c r="O33" s="23"/>
-      <c r="P33" s="23"/>
+      <c r="F33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="21"/>
       <c r="R33" s="13"/>
       <c r="S33" s="13"/>
       <c r="T33" s="13"/>
@@ -5361,11 +5392,284 @@
       <c r="X33" s="13"/>
       <c r="Y33" s="13"/>
     </row>
+    <row r="35" spans="6:25" x14ac:dyDescent="0.45">
+      <c r="F35" s="21">
+        <v>12</v>
+      </c>
+      <c r="H35" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="21"/>
+      <c r="P35" s="21"/>
+      <c r="R35" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="S35" s="13"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="13"/>
+      <c r="V35" s="13"/>
+      <c r="W35" s="13"/>
+      <c r="X35" s="13"/>
+      <c r="Y35" s="13"/>
+    </row>
+    <row r="36" spans="6:25" x14ac:dyDescent="0.45">
+      <c r="F36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="21"/>
+      <c r="O36" s="21"/>
+      <c r="P36" s="21"/>
+      <c r="R36" s="13"/>
+      <c r="S36" s="13"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="13"/>
+      <c r="V36" s="13"/>
+      <c r="W36" s="13"/>
+      <c r="X36" s="13"/>
+      <c r="Y36" s="13"/>
+    </row>
+    <row r="38" spans="6:25" x14ac:dyDescent="0.45">
+      <c r="F38" s="21">
+        <v>13</v>
+      </c>
+      <c r="H38" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="21"/>
+      <c r="P38" s="21"/>
+      <c r="R38" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="S38" s="13"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="13"/>
+      <c r="V38" s="13"/>
+      <c r="W38" s="13"/>
+      <c r="X38" s="13"/>
+      <c r="Y38" s="13"/>
+    </row>
+    <row r="39" spans="6:25" x14ac:dyDescent="0.45">
+      <c r="F39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="21"/>
+      <c r="P39" s="21"/>
+      <c r="R39" s="13"/>
+      <c r="S39" s="13"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="13"/>
+      <c r="W39" s="13"/>
+      <c r="X39" s="13"/>
+      <c r="Y39" s="13"/>
+    </row>
+    <row r="41" spans="6:25" x14ac:dyDescent="0.45">
+      <c r="F41" s="21">
+        <v>14</v>
+      </c>
+      <c r="H41" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="21"/>
+      <c r="O41" s="21"/>
+      <c r="P41" s="21"/>
+      <c r="R41" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="S41" s="13"/>
+      <c r="T41" s="13"/>
+      <c r="U41" s="13"/>
+      <c r="V41" s="13"/>
+      <c r="W41" s="13"/>
+      <c r="X41" s="13"/>
+      <c r="Y41" s="13"/>
+    </row>
+    <row r="42" spans="6:25" x14ac:dyDescent="0.45">
+      <c r="F42" s="21"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="21"/>
+      <c r="M42" s="21"/>
+      <c r="N42" s="21"/>
+      <c r="O42" s="21"/>
+      <c r="P42" s="21"/>
+      <c r="R42" s="13"/>
+      <c r="S42" s="13"/>
+      <c r="T42" s="13"/>
+      <c r="U42" s="13"/>
+      <c r="V42" s="13"/>
+      <c r="W42" s="13"/>
+      <c r="X42" s="13"/>
+      <c r="Y42" s="13"/>
+    </row>
+    <row r="44" spans="6:25" x14ac:dyDescent="0.45">
+      <c r="F44" s="21">
+        <v>15</v>
+      </c>
+      <c r="H44" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="21"/>
+      <c r="M44" s="21"/>
+      <c r="N44" s="21"/>
+      <c r="O44" s="21"/>
+      <c r="P44" s="21"/>
+      <c r="R44" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="S44" s="13"/>
+      <c r="T44" s="13"/>
+      <c r="U44" s="13"/>
+      <c r="V44" s="13"/>
+      <c r="W44" s="13"/>
+      <c r="X44" s="13"/>
+      <c r="Y44" s="13"/>
+    </row>
+    <row r="45" spans="6:25" x14ac:dyDescent="0.45">
+      <c r="F45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="21"/>
+      <c r="N45" s="21"/>
+      <c r="O45" s="21"/>
+      <c r="P45" s="21"/>
+      <c r="R45" s="13"/>
+      <c r="S45" s="13"/>
+      <c r="T45" s="13"/>
+      <c r="U45" s="13"/>
+      <c r="V45" s="13"/>
+      <c r="W45" s="13"/>
+      <c r="X45" s="13"/>
+      <c r="Y45" s="13"/>
+    </row>
+    <row r="47" spans="6:25" x14ac:dyDescent="0.45">
+      <c r="F47" s="21">
+        <v>16</v>
+      </c>
+      <c r="H47" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="21"/>
+      <c r="L47" s="21"/>
+      <c r="M47" s="21"/>
+      <c r="N47" s="21"/>
+      <c r="O47" s="21"/>
+      <c r="P47" s="21"/>
+      <c r="R47" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="S47" s="13"/>
+      <c r="T47" s="13"/>
+      <c r="U47" s="13"/>
+      <c r="V47" s="13"/>
+      <c r="W47" s="13"/>
+      <c r="X47" s="13"/>
+      <c r="Y47" s="13"/>
+    </row>
+    <row r="48" spans="6:25" x14ac:dyDescent="0.45">
+      <c r="F48" s="21"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="21"/>
+      <c r="L48" s="21"/>
+      <c r="M48" s="21"/>
+      <c r="N48" s="21"/>
+      <c r="O48" s="21"/>
+      <c r="P48" s="21"/>
+      <c r="R48" s="13"/>
+      <c r="S48" s="13"/>
+      <c r="T48" s="13"/>
+      <c r="U48" s="13"/>
+      <c r="V48" s="13"/>
+      <c r="W48" s="13"/>
+      <c r="X48" s="13"/>
+      <c r="Y48" s="13"/>
+    </row>
+    <row r="50" spans="6:25" x14ac:dyDescent="0.45">
+      <c r="F50" s="21">
+        <v>17</v>
+      </c>
+      <c r="H50" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="I50" s="21"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="21"/>
+      <c r="M50" s="21"/>
+      <c r="N50" s="21"/>
+      <c r="O50" s="21"/>
+      <c r="P50" s="21"/>
+      <c r="R50" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="S50" s="13"/>
+      <c r="T50" s="13"/>
+      <c r="U50" s="13"/>
+      <c r="V50" s="13"/>
+      <c r="W50" s="13"/>
+      <c r="X50" s="13"/>
+      <c r="Y50" s="13"/>
+    </row>
+    <row r="51" spans="6:25" x14ac:dyDescent="0.45">
+      <c r="F51" s="21"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="21"/>
+      <c r="M51" s="21"/>
+      <c r="N51" s="21"/>
+      <c r="O51" s="21"/>
+      <c r="P51" s="21"/>
+      <c r="R51" s="13"/>
+      <c r="S51" s="13"/>
+      <c r="T51" s="13"/>
+      <c r="U51" s="13"/>
+      <c r="V51" s="13"/>
+      <c r="W51" s="13"/>
+      <c r="X51" s="13"/>
+      <c r="Y51" s="13"/>
+    </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="H32:P33"/>
-    <mergeCell ref="R32:Y33"/>
+  <mergeCells count="50">
     <mergeCell ref="H2:P3"/>
     <mergeCell ref="R2:Y3"/>
     <mergeCell ref="F5:F6"/>
@@ -5373,13 +5677,6 @@
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="H8:P9"/>
     <mergeCell ref="R8:Y9"/>
-    <mergeCell ref="H17:P18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="H20:P21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="H23:P24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="R11:Y12"/>
     <mergeCell ref="R5:Y6"/>
     <mergeCell ref="R20:Y21"/>
     <mergeCell ref="R23:Y24"/>
@@ -5395,6 +5692,34 @@
     <mergeCell ref="H14:P15"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="H11:P12"/>
+    <mergeCell ref="H17:P18"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="R11:Y12"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="H32:P33"/>
+    <mergeCell ref="R32:Y33"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="H20:P21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="H23:P24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="R35:Y36"/>
+    <mergeCell ref="R38:Y39"/>
+    <mergeCell ref="R41:Y42"/>
+    <mergeCell ref="R44:Y45"/>
+    <mergeCell ref="H47:P48"/>
+    <mergeCell ref="H35:P36"/>
+    <mergeCell ref="H38:P39"/>
+    <mergeCell ref="H41:P42"/>
+    <mergeCell ref="H44:P45"/>
+    <mergeCell ref="H50:P51"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="R47:Y48"/>
+    <mergeCell ref="R50:Y51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5404,8 +5729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37E2DAFF-6BFF-4CB8-B294-DE59EA805260}">
   <dimension ref="C2:Y32"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5449,7 +5774,7 @@
       </c>
     </row>
     <row r="5" spans="3:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="29" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="26" t="s">
@@ -5470,7 +5795,7 @@
       </c>
     </row>
     <row r="6" spans="3:25" x14ac:dyDescent="0.45">
-      <c r="C6" s="28"/>
+      <c r="C6" s="29"/>
       <c r="F6" s="26" t="s">
         <v>14</v>
       </c>
@@ -5486,13 +5811,13 @@
       <c r="P6" s="27"/>
     </row>
     <row r="7" spans="3:25" x14ac:dyDescent="0.45">
-      <c r="C7" s="28"/>
+      <c r="C7" s="29"/>
       <c r="F7" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="3:25" x14ac:dyDescent="0.45">
-      <c r="C8" s="28"/>
+      <c r="C8" s="29"/>
       <c r="F8" s="4" t="s">
         <v>16</v>
       </c>
@@ -5501,7 +5826,7 @@
       </c>
     </row>
     <row r="9" spans="3:25" x14ac:dyDescent="0.45">
-      <c r="C9" s="28"/>
+      <c r="C9" s="29"/>
       <c r="F9" s="4" t="s">
         <v>47</v>
       </c>
@@ -5510,7 +5835,7 @@
       </c>
     </row>
     <row r="10" spans="3:25" x14ac:dyDescent="0.45">
-      <c r="C10" s="28"/>
+      <c r="C10" s="29"/>
       <c r="F10" s="4" t="s">
         <v>48</v>
       </c>
@@ -5519,7 +5844,7 @@
       </c>
     </row>
     <row r="11" spans="3:25" x14ac:dyDescent="0.45">
-      <c r="C11" s="28"/>
+      <c r="C11" s="29"/>
       <c r="F11" s="4" t="s">
         <v>53</v>
       </c>
@@ -5528,7 +5853,7 @@
       </c>
     </row>
     <row r="12" spans="3:25" x14ac:dyDescent="0.45">
-      <c r="C12" s="28"/>
+      <c r="C12" s="29"/>
       <c r="F12" s="4" t="s">
         <v>55</v>
       </c>
@@ -5580,7 +5905,7 @@
       </c>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="28" t="s">
         <v>85</v>
       </c>
       <c r="F21" s="4" t="s">
@@ -5588,49 +5913,49 @@
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C22" s="29"/>
+      <c r="C22" s="28"/>
       <c r="F22" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C23" s="29"/>
+      <c r="C23" s="28"/>
       <c r="F23" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C24" s="29"/>
+      <c r="C24" s="28"/>
       <c r="F24" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C25" s="29"/>
+      <c r="C25" s="28"/>
       <c r="F25" s="4" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C26" s="29"/>
+      <c r="C26" s="28"/>
       <c r="F26" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C27" s="29"/>
+      <c r="C27" s="28"/>
       <c r="F27" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C28" s="29"/>
+      <c r="C28" s="28"/>
       <c r="F28" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C29" s="29"/>
+      <c r="C29" s="28"/>
       <c r="F29" s="4" t="s">
         <v>79</v>
       </c>
@@ -5693,4 +6018,59 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6545F231-4984-4A79-BEF3-A3EF63664EF4}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="4" max="4" width="33.1328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D4" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D5" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D6" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D7" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D8" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{B992F774-780B-42DA-B7AF-2B67C6CEDC3F}"/>
+    <hyperlink ref="D5" r:id="rId2" xr:uid="{37D2836A-ACDD-4903-B39F-A5947F057076}"/>
+    <hyperlink ref="D6" r:id="rId3" xr:uid="{7FB3D76B-E510-4E9B-9C88-0FDD66FC7A4A}"/>
+    <hyperlink ref="D7" r:id="rId4" xr:uid="{D2939239-8CCD-4B2B-A7BA-9306A5F6A1C7}"/>
+    <hyperlink ref="D8" r:id="rId5" xr:uid="{F82031BC-EA53-42DD-84AF-A41346196E0C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Documents/Targets&Planning.xlsx
+++ b/Documents/Targets&Planning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BloggingRepositories\blogPosts\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B361930-A9C1-47A1-A3BC-6036D1CF3DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6D458C-A7E6-4966-961B-DC072C97DB1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="15196" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="15196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="BacklinksInspiration" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="126">
   <si>
     <t>November</t>
   </si>
@@ -368,6 +367,45 @@
   </si>
   <si>
     <t>https://lichy.in/</t>
+  </si>
+  <si>
+    <t>01, December,2023, Friday</t>
+  </si>
+  <si>
+    <t>02, December,2023, Saturday</t>
+  </si>
+  <si>
+    <t>03, December,2023, Sunday</t>
+  </si>
+  <si>
+    <t>04, December,2023, Monday</t>
+  </si>
+  <si>
+    <t>05, December,2023, Tuesday</t>
+  </si>
+  <si>
+    <t>06, December,2023, Wednesday</t>
+  </si>
+  <si>
+    <t>07, December,2023, Thursday</t>
+  </si>
+  <si>
+    <t>08, December,2023, Friday</t>
+  </si>
+  <si>
+    <t>09, December,2023, Saturday</t>
+  </si>
+  <si>
+    <t>10, December,2023, Sunday</t>
+  </si>
+  <si>
+    <t>11, December,2023, Monday</t>
+  </si>
+  <si>
+    <t>12, December,2023, Tuesday</t>
+  </si>
+  <si>
+    <t>This is not required as per my knowledge</t>
   </si>
 </sst>
 </file>
@@ -578,20 +616,20 @@
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -602,8 +640,11 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -614,19 +655,16 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="15" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="15" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -638,10 +676,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -928,10 +966,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB182"/>
+  <dimension ref="A1:AB270"/>
   <sheetViews>
-    <sheetView topLeftCell="F181" zoomScale="93" workbookViewId="0">
-      <selection activeCell="K188" sqref="K188"/>
+    <sheetView tabSelected="1" topLeftCell="F242" zoomScale="93" workbookViewId="0">
+      <selection activeCell="K280" sqref="K280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -977,27 +1015,27 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="19"/>
-      <c r="Z2" s="19"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
     </row>
@@ -1009,25 +1047,25 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="19"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
+      <c r="Z3" s="20"/>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
     </row>
@@ -1170,30 +1208,30 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="8">
+      <c r="K8" s="9">
         <v>1</v>
       </c>
-      <c r="L8" s="9" t="s">
+      <c r="L8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
       <c r="Q8" s="1"/>
-      <c r="R8" s="9" t="s">
+      <c r="R8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
       <c r="U8" s="1"/>
-      <c r="V8" s="18" t="s">
+      <c r="V8" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="W8" s="18"/>
-      <c r="X8" s="18"/>
-      <c r="Y8" s="18"/>
-      <c r="Z8" s="18"/>
+      <c r="W8" s="19"/>
+      <c r="X8" s="19"/>
+      <c r="Y8" s="19"/>
+      <c r="Z8" s="19"/>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
     </row>
@@ -1208,22 +1246,22 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
       <c r="Q9" s="1"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
       <c r="U9" s="1"/>
-      <c r="V9" s="18"/>
-      <c r="W9" s="18"/>
-      <c r="X9" s="18"/>
-      <c r="Y9" s="18"/>
-      <c r="Z9" s="18"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="19"/>
+      <c r="Z9" s="19"/>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
     </row>
@@ -1268,30 +1306,30 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="8">
+      <c r="K11" s="9">
         <v>2</v>
       </c>
-      <c r="L11" s="9" t="s">
+      <c r="L11" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
       <c r="Q11" s="1"/>
-      <c r="R11" s="9" t="s">
+      <c r="R11" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
       <c r="U11" s="1"/>
-      <c r="V11" s="18" t="s">
+      <c r="V11" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="W11" s="18"/>
-      <c r="X11" s="18"/>
-      <c r="Y11" s="18"/>
-      <c r="Z11" s="18"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="19"/>
+      <c r="Y11" s="19"/>
+      <c r="Z11" s="19"/>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
     </row>
@@ -1306,22 +1344,22 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
       <c r="Q12" s="1"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
       <c r="U12" s="1"/>
-      <c r="V12" s="18"/>
-      <c r="W12" s="18"/>
-      <c r="X12" s="18"/>
-      <c r="Y12" s="18"/>
-      <c r="Z12" s="18"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="19"/>
+      <c r="Y12" s="19"/>
+      <c r="Z12" s="19"/>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
     </row>
@@ -1464,30 +1502,30 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="8">
+      <c r="K17" s="9">
         <v>1</v>
       </c>
-      <c r="L17" s="9" t="s">
+      <c r="L17" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
       <c r="Q17" s="1"/>
-      <c r="R17" s="9" t="s">
+      <c r="R17" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
       <c r="U17" s="1"/>
-      <c r="V17" s="18" t="s">
+      <c r="V17" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="W17" s="18"/>
-      <c r="X17" s="18"/>
-      <c r="Y17" s="18"/>
-      <c r="Z17" s="18"/>
+      <c r="W17" s="19"/>
+      <c r="X17" s="19"/>
+      <c r="Y17" s="19"/>
+      <c r="Z17" s="19"/>
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
     </row>
@@ -1502,22 +1540,22 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
       <c r="Q18" s="1"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
       <c r="U18" s="1"/>
-      <c r="V18" s="18"/>
-      <c r="W18" s="18"/>
-      <c r="X18" s="18"/>
-      <c r="Y18" s="18"/>
-      <c r="Z18" s="18"/>
+      <c r="V18" s="19"/>
+      <c r="W18" s="19"/>
+      <c r="X18" s="19"/>
+      <c r="Y18" s="19"/>
+      <c r="Z18" s="19"/>
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
     </row>
@@ -1562,30 +1600,30 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="8">
+      <c r="K20" s="9">
         <v>2</v>
       </c>
-      <c r="L20" s="9" t="s">
+      <c r="L20" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
       <c r="Q20" s="1"/>
-      <c r="R20" s="9" t="s">
+      <c r="R20" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
       <c r="U20" s="1"/>
-      <c r="V20" s="18" t="s">
+      <c r="V20" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="W20" s="18"/>
-      <c r="X20" s="18"/>
-      <c r="Y20" s="18"/>
-      <c r="Z20" s="18"/>
+      <c r="W20" s="19"/>
+      <c r="X20" s="19"/>
+      <c r="Y20" s="19"/>
+      <c r="Z20" s="19"/>
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
     </row>
@@ -1600,22 +1638,22 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
       <c r="Q21" s="1"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
       <c r="U21" s="1"/>
-      <c r="V21" s="18"/>
-      <c r="W21" s="18"/>
-      <c r="X21" s="18"/>
-      <c r="Y21" s="18"/>
-      <c r="Z21" s="18"/>
+      <c r="V21" s="19"/>
+      <c r="W21" s="19"/>
+      <c r="X21" s="19"/>
+      <c r="Y21" s="19"/>
+      <c r="Z21" s="19"/>
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
     </row>
@@ -1660,30 +1698,30 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
-      <c r="K23" s="8">
+      <c r="K23" s="9">
         <v>3</v>
       </c>
-      <c r="L23" s="9" t="s">
+      <c r="L23" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
       <c r="Q23" s="1"/>
-      <c r="R23" s="9" t="s">
+      <c r="R23" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
       <c r="U23" s="1"/>
-      <c r="V23" s="12" t="s">
+      <c r="V23" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="W23" s="12"/>
-      <c r="X23" s="12"/>
-      <c r="Y23" s="12"/>
-      <c r="Z23" s="12"/>
+      <c r="W23" s="17"/>
+      <c r="X23" s="17"/>
+      <c r="Y23" s="17"/>
+      <c r="Z23" s="17"/>
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
     </row>
@@ -1698,22 +1736,22 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
       <c r="Q24" s="1"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
       <c r="U24" s="1"/>
-      <c r="V24" s="12"/>
-      <c r="W24" s="12"/>
-      <c r="X24" s="12"/>
-      <c r="Y24" s="12"/>
-      <c r="Z24" s="12"/>
+      <c r="V24" s="17"/>
+      <c r="W24" s="17"/>
+      <c r="X24" s="17"/>
+      <c r="Y24" s="17"/>
+      <c r="Z24" s="17"/>
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
     </row>
@@ -1758,30 +1796,30 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="8">
+      <c r="K26" s="9">
         <v>4</v>
       </c>
-      <c r="L26" s="11" t="s">
+      <c r="L26" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
       <c r="Q26" s="1"/>
-      <c r="R26" s="9" t="s">
+      <c r="R26" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="S26" s="9"/>
-      <c r="T26" s="9"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
       <c r="U26" s="1"/>
-      <c r="V26" s="12" t="s">
+      <c r="V26" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="W26" s="12"/>
-      <c r="X26" s="12"/>
-      <c r="Y26" s="12"/>
-      <c r="Z26" s="12"/>
+      <c r="W26" s="17"/>
+      <c r="X26" s="17"/>
+      <c r="Y26" s="17"/>
+      <c r="Z26" s="17"/>
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
     </row>
@@ -1796,22 +1834,22 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
       <c r="Q27" s="1"/>
-      <c r="R27" s="9"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="9"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
       <c r="U27" s="1"/>
-      <c r="V27" s="12"/>
-      <c r="W27" s="12"/>
-      <c r="X27" s="12"/>
-      <c r="Y27" s="12"/>
-      <c r="Z27" s="12"/>
+      <c r="V27" s="17"/>
+      <c r="W27" s="17"/>
+      <c r="X27" s="17"/>
+      <c r="Y27" s="17"/>
+      <c r="Z27" s="17"/>
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
     </row>
@@ -1856,30 +1894,30 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
-      <c r="K29" s="8">
+      <c r="K29" s="9">
         <v>5</v>
       </c>
-      <c r="L29" s="11" t="s">
+      <c r="L29" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
       <c r="Q29" s="1"/>
-      <c r="R29" s="9" t="s">
+      <c r="R29" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="S29" s="9"/>
-      <c r="T29" s="9"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="11"/>
       <c r="U29" s="1"/>
-      <c r="V29" s="12" t="s">
+      <c r="V29" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="W29" s="12"/>
-      <c r="X29" s="12"/>
-      <c r="Y29" s="12"/>
-      <c r="Z29" s="12"/>
+      <c r="W29" s="17"/>
+      <c r="X29" s="17"/>
+      <c r="Y29" s="17"/>
+      <c r="Z29" s="17"/>
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
     </row>
@@ -1894,22 +1932,22 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
       <c r="Q30" s="1"/>
-      <c r="R30" s="9"/>
-      <c r="S30" s="9"/>
-      <c r="T30" s="9"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="11"/>
       <c r="U30" s="1"/>
-      <c r="V30" s="12"/>
-      <c r="W30" s="12"/>
-      <c r="X30" s="12"/>
-      <c r="Y30" s="12"/>
-      <c r="Z30" s="12"/>
+      <c r="V30" s="17"/>
+      <c r="W30" s="17"/>
+      <c r="X30" s="17"/>
+      <c r="Y30" s="17"/>
+      <c r="Z30" s="17"/>
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
     </row>
@@ -1954,30 +1992,30 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
-      <c r="K32" s="8">
+      <c r="K32" s="9">
         <v>6</v>
       </c>
-      <c r="L32" s="11" t="s">
+      <c r="L32" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="11"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
       <c r="Q32" s="1"/>
-      <c r="R32" s="9" t="s">
+      <c r="R32" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="S32" s="9"/>
-      <c r="T32" s="9"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="11"/>
       <c r="U32" s="1"/>
-      <c r="V32" s="18" t="s">
+      <c r="V32" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="W32" s="18"/>
-      <c r="X32" s="18"/>
-      <c r="Y32" s="18"/>
-      <c r="Z32" s="18"/>
+      <c r="W32" s="19"/>
+      <c r="X32" s="19"/>
+      <c r="Y32" s="19"/>
+      <c r="Z32" s="19"/>
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
     </row>
@@ -1992,22 +2030,22 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="11"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
       <c r="Q33" s="1"/>
-      <c r="R33" s="9"/>
-      <c r="S33" s="9"/>
-      <c r="T33" s="9"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="11"/>
       <c r="U33" s="1"/>
-      <c r="V33" s="18"/>
-      <c r="W33" s="18"/>
-      <c r="X33" s="18"/>
-      <c r="Y33" s="18"/>
-      <c r="Z33" s="18"/>
+      <c r="V33" s="19"/>
+      <c r="W33" s="19"/>
+      <c r="X33" s="19"/>
+      <c r="Y33" s="19"/>
+      <c r="Z33" s="19"/>
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
     </row>
@@ -2052,30 +2090,30 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
-      <c r="K35" s="8">
+      <c r="K35" s="9">
         <v>7</v>
       </c>
-      <c r="L35" s="11" t="s">
+      <c r="L35" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="M35" s="11"/>
-      <c r="N35" s="11"/>
-      <c r="O35" s="11"/>
-      <c r="P35" s="11"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
       <c r="Q35" s="1"/>
-      <c r="R35" s="9" t="s">
+      <c r="R35" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="S35" s="9"/>
-      <c r="T35" s="9"/>
+      <c r="S35" s="11"/>
+      <c r="T35" s="11"/>
       <c r="U35" s="1"/>
-      <c r="V35" s="17" t="s">
+      <c r="V35" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="W35" s="17"/>
-      <c r="X35" s="17"/>
-      <c r="Y35" s="17"/>
-      <c r="Z35" s="17"/>
+      <c r="W35" s="18"/>
+      <c r="X35" s="18"/>
+      <c r="Y35" s="18"/>
+      <c r="Z35" s="18"/>
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
     </row>
@@ -2090,22 +2128,22 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="11"/>
-      <c r="P36" s="11"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
       <c r="Q36" s="1"/>
-      <c r="R36" s="9"/>
-      <c r="S36" s="9"/>
-      <c r="T36" s="9"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="11"/>
+      <c r="T36" s="11"/>
       <c r="U36" s="1"/>
-      <c r="V36" s="17"/>
-      <c r="W36" s="17"/>
-      <c r="X36" s="17"/>
-      <c r="Y36" s="17"/>
-      <c r="Z36" s="17"/>
+      <c r="V36" s="18"/>
+      <c r="W36" s="18"/>
+      <c r="X36" s="18"/>
+      <c r="Y36" s="18"/>
+      <c r="Z36" s="18"/>
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
     </row>
@@ -2248,30 +2286,30 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
-      <c r="K41" s="8">
+      <c r="K41" s="9">
         <v>1</v>
       </c>
-      <c r="L41" s="9" t="s">
+      <c r="L41" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="M41" s="9"/>
-      <c r="N41" s="9"/>
-      <c r="O41" s="9"/>
-      <c r="P41" s="9"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
       <c r="Q41" s="1"/>
-      <c r="R41" s="9" t="s">
+      <c r="R41" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="S41" s="9"/>
-      <c r="T41" s="9"/>
+      <c r="S41" s="11"/>
+      <c r="T41" s="11"/>
       <c r="U41" s="1"/>
-      <c r="V41" s="18" t="s">
+      <c r="V41" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="W41" s="18"/>
-      <c r="X41" s="18"/>
-      <c r="Y41" s="18"/>
-      <c r="Z41" s="18"/>
+      <c r="W41" s="19"/>
+      <c r="X41" s="19"/>
+      <c r="Y41" s="19"/>
+      <c r="Z41" s="19"/>
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
     </row>
@@ -2286,22 +2324,22 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="9"/>
-      <c r="M42" s="9"/>
-      <c r="N42" s="9"/>
-      <c r="O42" s="9"/>
-      <c r="P42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
       <c r="Q42" s="1"/>
-      <c r="R42" s="9"/>
-      <c r="S42" s="9"/>
-      <c r="T42" s="9"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="11"/>
+      <c r="T42" s="11"/>
       <c r="U42" s="1"/>
-      <c r="V42" s="18"/>
-      <c r="W42" s="18"/>
-      <c r="X42" s="18"/>
-      <c r="Y42" s="18"/>
-      <c r="Z42" s="18"/>
+      <c r="V42" s="19"/>
+      <c r="W42" s="19"/>
+      <c r="X42" s="19"/>
+      <c r="Y42" s="19"/>
+      <c r="Z42" s="19"/>
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
     </row>
@@ -2346,30 +2384,30 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
-      <c r="K44" s="8">
+      <c r="K44" s="9">
         <v>2</v>
       </c>
-      <c r="L44" s="9" t="s">
+      <c r="L44" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="M44" s="9"/>
-      <c r="N44" s="9"/>
-      <c r="O44" s="9"/>
-      <c r="P44" s="9"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11"/>
       <c r="Q44" s="1"/>
-      <c r="R44" s="9" t="s">
+      <c r="R44" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="S44" s="9"/>
-      <c r="T44" s="9"/>
+      <c r="S44" s="11"/>
+      <c r="T44" s="11"/>
       <c r="U44" s="1"/>
-      <c r="V44" s="18" t="s">
+      <c r="V44" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="W44" s="18"/>
-      <c r="X44" s="18"/>
-      <c r="Y44" s="18"/>
-      <c r="Z44" s="18"/>
+      <c r="W44" s="19"/>
+      <c r="X44" s="19"/>
+      <c r="Y44" s="19"/>
+      <c r="Z44" s="19"/>
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
     </row>
@@ -2384,22 +2422,22 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="9"/>
-      <c r="M45" s="9"/>
-      <c r="N45" s="9"/>
-      <c r="O45" s="9"/>
-      <c r="P45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="11"/>
       <c r="Q45" s="1"/>
-      <c r="R45" s="9"/>
-      <c r="S45" s="9"/>
-      <c r="T45" s="9"/>
+      <c r="R45" s="11"/>
+      <c r="S45" s="11"/>
+      <c r="T45" s="11"/>
       <c r="U45" s="1"/>
-      <c r="V45" s="18"/>
-      <c r="W45" s="18"/>
-      <c r="X45" s="18"/>
-      <c r="Y45" s="18"/>
-      <c r="Z45" s="18"/>
+      <c r="V45" s="19"/>
+      <c r="W45" s="19"/>
+      <c r="X45" s="19"/>
+      <c r="Y45" s="19"/>
+      <c r="Z45" s="19"/>
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
     </row>
@@ -2444,30 +2482,30 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
-      <c r="K47" s="8">
+      <c r="K47" s="9">
         <v>3</v>
       </c>
-      <c r="L47" s="11" t="s">
+      <c r="L47" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="M47" s="11"/>
-      <c r="N47" s="11"/>
-      <c r="O47" s="11"/>
-      <c r="P47" s="11"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
       <c r="Q47" s="1"/>
-      <c r="R47" s="9" t="s">
+      <c r="R47" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="S47" s="9"/>
-      <c r="T47" s="9"/>
+      <c r="S47" s="11"/>
+      <c r="T47" s="11"/>
       <c r="U47" s="1"/>
-      <c r="V47" s="18" t="s">
+      <c r="V47" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="W47" s="18"/>
-      <c r="X47" s="18"/>
-      <c r="Y47" s="18"/>
-      <c r="Z47" s="18"/>
+      <c r="W47" s="19"/>
+      <c r="X47" s="19"/>
+      <c r="Y47" s="19"/>
+      <c r="Z47" s="19"/>
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
     </row>
@@ -2482,22 +2520,22 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="11"/>
-      <c r="M48" s="11"/>
-      <c r="N48" s="11"/>
-      <c r="O48" s="11"/>
-      <c r="P48" s="11"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="10"/>
       <c r="Q48" s="1"/>
-      <c r="R48" s="9"/>
-      <c r="S48" s="9"/>
-      <c r="T48" s="9"/>
+      <c r="R48" s="11"/>
+      <c r="S48" s="11"/>
+      <c r="T48" s="11"/>
       <c r="U48" s="1"/>
-      <c r="V48" s="18"/>
-      <c r="W48" s="18"/>
-      <c r="X48" s="18"/>
-      <c r="Y48" s="18"/>
-      <c r="Z48" s="18"/>
+      <c r="V48" s="19"/>
+      <c r="W48" s="19"/>
+      <c r="X48" s="19"/>
+      <c r="Y48" s="19"/>
+      <c r="Z48" s="19"/>
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
     </row>
@@ -2542,30 +2580,30 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
-      <c r="K50" s="8">
+      <c r="K50" s="9">
         <v>4</v>
       </c>
-      <c r="L50" s="11" t="s">
+      <c r="L50" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="M50" s="11"/>
-      <c r="N50" s="11"/>
-      <c r="O50" s="11"/>
-      <c r="P50" s="11"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
+      <c r="P50" s="10"/>
       <c r="Q50" s="1"/>
-      <c r="R50" s="9" t="s">
+      <c r="R50" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="S50" s="9"/>
-      <c r="T50" s="9"/>
+      <c r="S50" s="11"/>
+      <c r="T50" s="11"/>
       <c r="U50" s="1"/>
-      <c r="V50" s="18" t="s">
+      <c r="V50" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="W50" s="18"/>
-      <c r="X50" s="18"/>
-      <c r="Y50" s="18"/>
-      <c r="Z50" s="18"/>
+      <c r="W50" s="19"/>
+      <c r="X50" s="19"/>
+      <c r="Y50" s="19"/>
+      <c r="Z50" s="19"/>
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
     </row>
@@ -2580,22 +2618,22 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="11"/>
-      <c r="M51" s="11"/>
-      <c r="N51" s="11"/>
-      <c r="O51" s="11"/>
-      <c r="P51" s="11"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10"/>
+      <c r="P51" s="10"/>
       <c r="Q51" s="1"/>
-      <c r="R51" s="9"/>
-      <c r="S51" s="9"/>
-      <c r="T51" s="9"/>
+      <c r="R51" s="11"/>
+      <c r="S51" s="11"/>
+      <c r="T51" s="11"/>
       <c r="U51" s="1"/>
-      <c r="V51" s="18"/>
-      <c r="W51" s="18"/>
-      <c r="X51" s="18"/>
-      <c r="Y51" s="18"/>
-      <c r="Z51" s="18"/>
+      <c r="V51" s="19"/>
+      <c r="W51" s="19"/>
+      <c r="X51" s="19"/>
+      <c r="Y51" s="19"/>
+      <c r="Z51" s="19"/>
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
     </row>
@@ -2971,25 +3009,25 @@
       <c r="Z72" s="15"/>
     </row>
     <row r="75" spans="8:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I75" s="16" t="s">
+      <c r="I75" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="K75" s="8">
+      <c r="K75" s="9">
         <v>1</v>
       </c>
-      <c r="L75" s="11" t="s">
+      <c r="L75" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="M75" s="11"/>
-      <c r="N75" s="11"/>
-      <c r="O75" s="11"/>
-      <c r="P75" s="11"/>
+      <c r="M75" s="10"/>
+      <c r="N75" s="10"/>
+      <c r="O75" s="10"/>
+      <c r="P75" s="10"/>
       <c r="Q75" s="1"/>
-      <c r="R75" s="9" t="s">
+      <c r="R75" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="S75" s="9"/>
-      <c r="T75" s="9"/>
+      <c r="S75" s="11"/>
+      <c r="T75" s="11"/>
       <c r="U75" s="1"/>
       <c r="V75" s="13" t="s">
         <v>51</v>
@@ -3000,17 +3038,17 @@
       <c r="Z75" s="13"/>
     </row>
     <row r="76" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="I76" s="16"/>
-      <c r="K76" s="8"/>
-      <c r="L76" s="11"/>
-      <c r="M76" s="11"/>
-      <c r="N76" s="11"/>
-      <c r="O76" s="11"/>
-      <c r="P76" s="11"/>
+      <c r="I76" s="12"/>
+      <c r="K76" s="9"/>
+      <c r="L76" s="10"/>
+      <c r="M76" s="10"/>
+      <c r="N76" s="10"/>
+      <c r="O76" s="10"/>
+      <c r="P76" s="10"/>
       <c r="Q76" s="1"/>
-      <c r="R76" s="9"/>
-      <c r="S76" s="9"/>
-      <c r="T76" s="9"/>
+      <c r="R76" s="11"/>
+      <c r="S76" s="11"/>
+      <c r="T76" s="11"/>
       <c r="U76" s="1"/>
       <c r="V76" s="13"/>
       <c r="W76" s="13"/>
@@ -3019,26 +3057,26 @@
       <c r="Z76" s="13"/>
     </row>
     <row r="77" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="I77" s="16"/>
+      <c r="I77" s="12"/>
     </row>
     <row r="78" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="I78" s="16"/>
-      <c r="K78" s="8">
+      <c r="I78" s="12"/>
+      <c r="K78" s="9">
         <v>2</v>
       </c>
-      <c r="L78" s="9" t="s">
+      <c r="L78" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="M78" s="9"/>
-      <c r="N78" s="9"/>
-      <c r="O78" s="9"/>
-      <c r="P78" s="9"/>
+      <c r="M78" s="11"/>
+      <c r="N78" s="11"/>
+      <c r="O78" s="11"/>
+      <c r="P78" s="11"/>
       <c r="Q78" s="1"/>
-      <c r="R78" s="9" t="s">
+      <c r="R78" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="S78" s="9"/>
-      <c r="T78" s="9"/>
+      <c r="S78" s="11"/>
+      <c r="T78" s="11"/>
       <c r="U78" s="1"/>
       <c r="V78" s="13" t="s">
         <v>51</v>
@@ -3049,17 +3087,17 @@
       <c r="Z78" s="13"/>
     </row>
     <row r="79" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="I79" s="16"/>
-      <c r="K79" s="8"/>
-      <c r="L79" s="9"/>
-      <c r="M79" s="9"/>
-      <c r="N79" s="9"/>
-      <c r="O79" s="9"/>
-      <c r="P79" s="9"/>
+      <c r="I79" s="12"/>
+      <c r="K79" s="9"/>
+      <c r="L79" s="11"/>
+      <c r="M79" s="11"/>
+      <c r="N79" s="11"/>
+      <c r="O79" s="11"/>
+      <c r="P79" s="11"/>
       <c r="Q79" s="1"/>
-      <c r="R79" s="9"/>
-      <c r="S79" s="9"/>
-      <c r="T79" s="9"/>
+      <c r="R79" s="11"/>
+      <c r="S79" s="11"/>
+      <c r="T79" s="11"/>
       <c r="U79" s="1"/>
       <c r="V79" s="13"/>
       <c r="W79" s="13"/>
@@ -3068,26 +3106,26 @@
       <c r="Z79" s="13"/>
     </row>
     <row r="80" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="I80" s="16"/>
+      <c r="I80" s="12"/>
     </row>
     <row r="81" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I81" s="16"/>
-      <c r="K81" s="8">
+      <c r="I81" s="12"/>
+      <c r="K81" s="9">
         <v>3</v>
       </c>
-      <c r="L81" s="9" t="s">
+      <c r="L81" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="M81" s="9"/>
-      <c r="N81" s="9"/>
-      <c r="O81" s="9"/>
-      <c r="P81" s="9"/>
+      <c r="M81" s="11"/>
+      <c r="N81" s="11"/>
+      <c r="O81" s="11"/>
+      <c r="P81" s="11"/>
       <c r="Q81" s="1"/>
-      <c r="R81" s="9" t="s">
+      <c r="R81" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="S81" s="9"/>
-      <c r="T81" s="9"/>
+      <c r="S81" s="11"/>
+      <c r="T81" s="11"/>
       <c r="V81" s="13" t="s">
         <v>51</v>
       </c>
@@ -3098,17 +3136,17 @@
     </row>
     <row r="82" spans="7:26" x14ac:dyDescent="0.45">
       <c r="G82" s="3"/>
-      <c r="I82" s="16"/>
-      <c r="K82" s="8"/>
-      <c r="L82" s="9"/>
-      <c r="M82" s="9"/>
-      <c r="N82" s="9"/>
-      <c r="O82" s="9"/>
-      <c r="P82" s="9"/>
+      <c r="I82" s="12"/>
+      <c r="K82" s="9"/>
+      <c r="L82" s="11"/>
+      <c r="M82" s="11"/>
+      <c r="N82" s="11"/>
+      <c r="O82" s="11"/>
+      <c r="P82" s="11"/>
       <c r="Q82" s="1"/>
-      <c r="R82" s="9"/>
-      <c r="S82" s="9"/>
-      <c r="T82" s="9"/>
+      <c r="R82" s="11"/>
+      <c r="S82" s="11"/>
+      <c r="T82" s="11"/>
       <c r="V82" s="13"/>
       <c r="W82" s="13"/>
       <c r="X82" s="13"/>
@@ -3117,27 +3155,27 @@
     </row>
     <row r="83" spans="7:26" x14ac:dyDescent="0.45">
       <c r="G83" s="3"/>
-      <c r="I83" s="16"/>
+      <c r="I83" s="12"/>
     </row>
     <row r="84" spans="7:26" x14ac:dyDescent="0.45">
       <c r="G84" s="3"/>
-      <c r="I84" s="16"/>
-      <c r="K84" s="8">
+      <c r="I84" s="12"/>
+      <c r="K84" s="9">
         <v>4</v>
       </c>
-      <c r="L84" s="9" t="s">
+      <c r="L84" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="M84" s="9"/>
-      <c r="N84" s="9"/>
-      <c r="O84" s="9"/>
-      <c r="P84" s="9"/>
+      <c r="M84" s="11"/>
+      <c r="N84" s="11"/>
+      <c r="O84" s="11"/>
+      <c r="P84" s="11"/>
       <c r="Q84" s="1"/>
-      <c r="R84" s="9" t="s">
+      <c r="R84" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="S84" s="9"/>
-      <c r="T84" s="9"/>
+      <c r="S84" s="11"/>
+      <c r="T84" s="11"/>
       <c r="V84" s="13" t="s">
         <v>51</v>
       </c>
@@ -3148,17 +3186,17 @@
     </row>
     <row r="85" spans="7:26" x14ac:dyDescent="0.45">
       <c r="G85" s="3"/>
-      <c r="I85" s="16"/>
-      <c r="K85" s="8"/>
-      <c r="L85" s="9"/>
-      <c r="M85" s="9"/>
-      <c r="N85" s="9"/>
-      <c r="O85" s="9"/>
-      <c r="P85" s="9"/>
+      <c r="I85" s="12"/>
+      <c r="K85" s="9"/>
+      <c r="L85" s="11"/>
+      <c r="M85" s="11"/>
+      <c r="N85" s="11"/>
+      <c r="O85" s="11"/>
+      <c r="P85" s="11"/>
       <c r="Q85" s="1"/>
-      <c r="R85" s="9"/>
-      <c r="S85" s="9"/>
-      <c r="T85" s="9"/>
+      <c r="R85" s="11"/>
+      <c r="S85" s="11"/>
+      <c r="T85" s="11"/>
       <c r="V85" s="13"/>
       <c r="W85" s="13"/>
       <c r="X85" s="13"/>
@@ -3167,29 +3205,29 @@
     </row>
     <row r="86" spans="7:26" x14ac:dyDescent="0.45">
       <c r="G86" s="3"/>
-      <c r="I86" s="16"/>
+      <c r="I86" s="12"/>
     </row>
     <row r="87" spans="7:26" x14ac:dyDescent="0.45">
       <c r="G87" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I87" s="16"/>
-      <c r="K87" s="8">
+      <c r="I87" s="12"/>
+      <c r="K87" s="9">
         <v>5</v>
       </c>
-      <c r="L87" s="9" t="s">
+      <c r="L87" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="M87" s="9"/>
-      <c r="N87" s="9"/>
-      <c r="O87" s="9"/>
-      <c r="P87" s="9"/>
+      <c r="M87" s="11"/>
+      <c r="N87" s="11"/>
+      <c r="O87" s="11"/>
+      <c r="P87" s="11"/>
       <c r="Q87" s="1"/>
-      <c r="R87" s="9" t="s">
+      <c r="R87" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="S87" s="9"/>
-      <c r="T87" s="9"/>
+      <c r="S87" s="11"/>
+      <c r="T87" s="11"/>
       <c r="V87" s="13" t="s">
         <v>51</v>
       </c>
@@ -3199,20 +3237,20 @@
       <c r="Z87" s="13"/>
     </row>
     <row r="88" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="G88" s="10" t="s">
+      <c r="G88" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="I88" s="16"/>
-      <c r="K88" s="8"/>
-      <c r="L88" s="9"/>
-      <c r="M88" s="9"/>
-      <c r="N88" s="9"/>
-      <c r="O88" s="9"/>
-      <c r="P88" s="9"/>
+      <c r="I88" s="12"/>
+      <c r="K88" s="9"/>
+      <c r="L88" s="11"/>
+      <c r="M88" s="11"/>
+      <c r="N88" s="11"/>
+      <c r="O88" s="11"/>
+      <c r="P88" s="11"/>
       <c r="Q88" s="1"/>
-      <c r="R88" s="9"/>
-      <c r="S88" s="9"/>
-      <c r="T88" s="9"/>
+      <c r="R88" s="11"/>
+      <c r="S88" s="11"/>
+      <c r="T88" s="11"/>
       <c r="V88" s="13"/>
       <c r="W88" s="13"/>
       <c r="X88" s="13"/>
@@ -3220,108 +3258,108 @@
       <c r="Z88" s="13"/>
     </row>
     <row r="89" spans="7:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G89" s="10"/>
+      <c r="G89" s="16"/>
     </row>
     <row r="90" spans="7:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G90" s="10"/>
+      <c r="G90" s="16"/>
     </row>
     <row r="91" spans="7:26" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G91" s="10"/>
-      <c r="I91" s="16" t="s">
+      <c r="G91" s="16"/>
+      <c r="I91" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="K91" s="8">
+      <c r="K91" s="9">
         <v>1</v>
       </c>
-      <c r="L91" s="11" t="s">
+      <c r="L91" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="M91" s="11"/>
-      <c r="N91" s="11"/>
-      <c r="O91" s="11"/>
-      <c r="P91" s="11"/>
+      <c r="M91" s="10"/>
+      <c r="N91" s="10"/>
+      <c r="O91" s="10"/>
+      <c r="P91" s="10"/>
       <c r="Q91" s="1"/>
-      <c r="R91" s="9" t="s">
+      <c r="R91" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="S91" s="9"/>
-      <c r="T91" s="9"/>
-      <c r="V91" s="18" t="s">
+      <c r="S91" s="11"/>
+      <c r="T91" s="11"/>
+      <c r="V91" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="W91" s="18"/>
-      <c r="X91" s="18"/>
-      <c r="Y91" s="18"/>
-      <c r="Z91" s="18"/>
+      <c r="W91" s="19"/>
+      <c r="X91" s="19"/>
+      <c r="Y91" s="19"/>
+      <c r="Z91" s="19"/>
     </row>
     <row r="92" spans="7:26" x14ac:dyDescent="0.45">
       <c r="G92" s="3"/>
-      <c r="I92" s="16"/>
-      <c r="K92" s="8"/>
-      <c r="L92" s="11"/>
-      <c r="M92" s="11"/>
-      <c r="N92" s="11"/>
-      <c r="O92" s="11"/>
-      <c r="P92" s="11"/>
+      <c r="I92" s="12"/>
+      <c r="K92" s="9"/>
+      <c r="L92" s="10"/>
+      <c r="M92" s="10"/>
+      <c r="N92" s="10"/>
+      <c r="O92" s="10"/>
+      <c r="P92" s="10"/>
       <c r="Q92" s="1"/>
-      <c r="R92" s="9"/>
-      <c r="S92" s="9"/>
-      <c r="T92" s="9"/>
-      <c r="V92" s="18"/>
-      <c r="W92" s="18"/>
-      <c r="X92" s="18"/>
-      <c r="Y92" s="18"/>
-      <c r="Z92" s="18"/>
+      <c r="R92" s="11"/>
+      <c r="S92" s="11"/>
+      <c r="T92" s="11"/>
+      <c r="V92" s="19"/>
+      <c r="W92" s="19"/>
+      <c r="X92" s="19"/>
+      <c r="Y92" s="19"/>
+      <c r="Z92" s="19"/>
     </row>
     <row r="93" spans="7:26" x14ac:dyDescent="0.45">
       <c r="G93" s="3"/>
-      <c r="I93" s="16"/>
+      <c r="I93" s="12"/>
     </row>
     <row r="94" spans="7:26" x14ac:dyDescent="0.45">
       <c r="G94" s="3"/>
-      <c r="I94" s="16"/>
-      <c r="K94" s="8">
+      <c r="I94" s="12"/>
+      <c r="K94" s="9">
         <v>2</v>
       </c>
-      <c r="L94" s="11" t="s">
+      <c r="L94" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="M94" s="11"/>
-      <c r="N94" s="11"/>
-      <c r="O94" s="11"/>
-      <c r="P94" s="11"/>
+      <c r="M94" s="10"/>
+      <c r="N94" s="10"/>
+      <c r="O94" s="10"/>
+      <c r="P94" s="10"/>
       <c r="Q94" s="1"/>
-      <c r="R94" s="9" t="s">
+      <c r="R94" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="S94" s="9"/>
-      <c r="T94" s="9"/>
-      <c r="V94" s="18" t="s">
+      <c r="S94" s="11"/>
+      <c r="T94" s="11"/>
+      <c r="V94" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="W94" s="18"/>
-      <c r="X94" s="18"/>
-      <c r="Y94" s="18"/>
-      <c r="Z94" s="18"/>
+      <c r="W94" s="19"/>
+      <c r="X94" s="19"/>
+      <c r="Y94" s="19"/>
+      <c r="Z94" s="19"/>
     </row>
     <row r="95" spans="7:26" x14ac:dyDescent="0.45">
       <c r="G95" s="3"/>
-      <c r="I95" s="16"/>
-      <c r="K95" s="8"/>
-      <c r="L95" s="11"/>
-      <c r="M95" s="11"/>
-      <c r="N95" s="11"/>
-      <c r="O95" s="11"/>
-      <c r="P95" s="11"/>
+      <c r="I95" s="12"/>
+      <c r="K95" s="9"/>
+      <c r="L95" s="10"/>
+      <c r="M95" s="10"/>
+      <c r="N95" s="10"/>
+      <c r="O95" s="10"/>
+      <c r="P95" s="10"/>
       <c r="Q95" s="1"/>
-      <c r="R95" s="9"/>
-      <c r="S95" s="9"/>
-      <c r="T95" s="9"/>
-      <c r="V95" s="18"/>
-      <c r="W95" s="18"/>
-      <c r="X95" s="18"/>
-      <c r="Y95" s="18"/>
-      <c r="Z95" s="18"/>
+      <c r="R95" s="11"/>
+      <c r="S95" s="11"/>
+      <c r="T95" s="11"/>
+      <c r="V95" s="19"/>
+      <c r="W95" s="19"/>
+      <c r="X95" s="19"/>
+      <c r="Y95" s="19"/>
+      <c r="Z95" s="19"/>
     </row>
     <row r="96" spans="7:26" x14ac:dyDescent="0.45">
       <c r="G96" s="3"/>
@@ -3379,74 +3417,74 @@
       <c r="Z98" s="15"/>
     </row>
     <row r="101" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I101" s="16" t="s">
+      <c r="I101" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="K101" s="8">
+      <c r="K101" s="9">
         <v>1</v>
       </c>
-      <c r="L101" s="11" t="s">
+      <c r="L101" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="M101" s="11"/>
-      <c r="N101" s="11"/>
-      <c r="O101" s="11"/>
-      <c r="P101" s="11"/>
+      <c r="M101" s="10"/>
+      <c r="N101" s="10"/>
+      <c r="O101" s="10"/>
+      <c r="P101" s="10"/>
       <c r="Q101" s="1"/>
-      <c r="R101" s="9" t="s">
+      <c r="R101" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="S101" s="9"/>
-      <c r="T101" s="9"/>
+      <c r="S101" s="11"/>
+      <c r="T101" s="11"/>
       <c r="U101" s="1"/>
-      <c r="V101" s="12" t="s">
+      <c r="V101" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="W101" s="12"/>
-      <c r="X101" s="12"/>
-      <c r="Y101" s="12"/>
-      <c r="Z101" s="12"/>
+      <c r="W101" s="17"/>
+      <c r="X101" s="17"/>
+      <c r="Y101" s="17"/>
+      <c r="Z101" s="17"/>
     </row>
     <row r="102" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I102" s="16"/>
-      <c r="K102" s="8"/>
-      <c r="L102" s="11"/>
-      <c r="M102" s="11"/>
-      <c r="N102" s="11"/>
-      <c r="O102" s="11"/>
-      <c r="P102" s="11"/>
+      <c r="I102" s="12"/>
+      <c r="K102" s="9"/>
+      <c r="L102" s="10"/>
+      <c r="M102" s="10"/>
+      <c r="N102" s="10"/>
+      <c r="O102" s="10"/>
+      <c r="P102" s="10"/>
       <c r="Q102" s="1"/>
-      <c r="R102" s="9"/>
-      <c r="S102" s="9"/>
-      <c r="T102" s="9"/>
+      <c r="R102" s="11"/>
+      <c r="S102" s="11"/>
+      <c r="T102" s="11"/>
       <c r="U102" s="1"/>
-      <c r="V102" s="12"/>
-      <c r="W102" s="12"/>
-      <c r="X102" s="12"/>
-      <c r="Y102" s="12"/>
-      <c r="Z102" s="12"/>
+      <c r="V102" s="17"/>
+      <c r="W102" s="17"/>
+      <c r="X102" s="17"/>
+      <c r="Y102" s="17"/>
+      <c r="Z102" s="17"/>
     </row>
     <row r="103" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I103" s="16"/>
+      <c r="I103" s="12"/>
     </row>
     <row r="104" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I104" s="16"/>
-      <c r="K104" s="8">
+      <c r="I104" s="12"/>
+      <c r="K104" s="9">
         <v>2</v>
       </c>
-      <c r="L104" s="9" t="s">
+      <c r="L104" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="M104" s="9"/>
-      <c r="N104" s="9"/>
-      <c r="O104" s="9"/>
-      <c r="P104" s="9"/>
+      <c r="M104" s="11"/>
+      <c r="N104" s="11"/>
+      <c r="O104" s="11"/>
+      <c r="P104" s="11"/>
       <c r="Q104" s="1"/>
-      <c r="R104" s="9" t="s">
+      <c r="R104" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="S104" s="9"/>
-      <c r="T104" s="9"/>
+      <c r="S104" s="11"/>
+      <c r="T104" s="11"/>
       <c r="U104" s="1"/>
       <c r="V104" s="13" t="s">
         <v>51</v>
@@ -3457,17 +3495,17 @@
       <c r="Z104" s="13"/>
     </row>
     <row r="105" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I105" s="16"/>
-      <c r="K105" s="8"/>
-      <c r="L105" s="9"/>
-      <c r="M105" s="9"/>
-      <c r="N105" s="9"/>
-      <c r="O105" s="9"/>
-      <c r="P105" s="9"/>
+      <c r="I105" s="12"/>
+      <c r="K105" s="9"/>
+      <c r="L105" s="11"/>
+      <c r="M105" s="11"/>
+      <c r="N105" s="11"/>
+      <c r="O105" s="11"/>
+      <c r="P105" s="11"/>
       <c r="Q105" s="1"/>
-      <c r="R105" s="9"/>
-      <c r="S105" s="9"/>
-      <c r="T105" s="9"/>
+      <c r="R105" s="11"/>
+      <c r="S105" s="11"/>
+      <c r="T105" s="11"/>
       <c r="U105" s="1"/>
       <c r="V105" s="13"/>
       <c r="W105" s="13"/>
@@ -3476,26 +3514,26 @@
       <c r="Z105" s="13"/>
     </row>
     <row r="106" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I106" s="16"/>
+      <c r="I106" s="12"/>
     </row>
     <row r="107" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I107" s="16"/>
-      <c r="K107" s="8">
+      <c r="I107" s="12"/>
+      <c r="K107" s="9">
         <v>3</v>
       </c>
-      <c r="L107" s="9" t="s">
+      <c r="L107" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="M107" s="9"/>
-      <c r="N107" s="9"/>
-      <c r="O107" s="9"/>
-      <c r="P107" s="9"/>
+      <c r="M107" s="11"/>
+      <c r="N107" s="11"/>
+      <c r="O107" s="11"/>
+      <c r="P107" s="11"/>
       <c r="Q107" s="1"/>
-      <c r="R107" s="9" t="s">
+      <c r="R107" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="S107" s="9"/>
-      <c r="T107" s="9"/>
+      <c r="S107" s="11"/>
+      <c r="T107" s="11"/>
       <c r="V107" s="13" t="s">
         <v>51</v>
       </c>
@@ -3505,17 +3543,17 @@
       <c r="Z107" s="13"/>
     </row>
     <row r="108" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I108" s="16"/>
-      <c r="K108" s="8"/>
-      <c r="L108" s="9"/>
-      <c r="M108" s="9"/>
-      <c r="N108" s="9"/>
-      <c r="O108" s="9"/>
-      <c r="P108" s="9"/>
+      <c r="I108" s="12"/>
+      <c r="K108" s="9"/>
+      <c r="L108" s="11"/>
+      <c r="M108" s="11"/>
+      <c r="N108" s="11"/>
+      <c r="O108" s="11"/>
+      <c r="P108" s="11"/>
       <c r="Q108" s="1"/>
-      <c r="R108" s="9"/>
-      <c r="S108" s="9"/>
-      <c r="T108" s="9"/>
+      <c r="R108" s="11"/>
+      <c r="S108" s="11"/>
+      <c r="T108" s="11"/>
       <c r="V108" s="13"/>
       <c r="W108" s="13"/>
       <c r="X108" s="13"/>
@@ -3523,26 +3561,26 @@
       <c r="Z108" s="13"/>
     </row>
     <row r="109" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I109" s="16"/>
+      <c r="I109" s="12"/>
     </row>
     <row r="110" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I110" s="16"/>
-      <c r="K110" s="8">
+      <c r="I110" s="12"/>
+      <c r="K110" s="9">
         <v>4</v>
       </c>
-      <c r="L110" s="9" t="s">
+      <c r="L110" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="M110" s="9"/>
-      <c r="N110" s="9"/>
-      <c r="O110" s="9"/>
-      <c r="P110" s="9"/>
+      <c r="M110" s="11"/>
+      <c r="N110" s="11"/>
+      <c r="O110" s="11"/>
+      <c r="P110" s="11"/>
       <c r="Q110" s="1"/>
-      <c r="R110" s="9" t="s">
+      <c r="R110" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="S110" s="9"/>
-      <c r="T110" s="9"/>
+      <c r="S110" s="11"/>
+      <c r="T110" s="11"/>
       <c r="V110" s="13" t="s">
         <v>51</v>
       </c>
@@ -3552,17 +3590,17 @@
       <c r="Z110" s="13"/>
     </row>
     <row r="111" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I111" s="16"/>
-      <c r="K111" s="8"/>
-      <c r="L111" s="9"/>
-      <c r="M111" s="9"/>
-      <c r="N111" s="9"/>
-      <c r="O111" s="9"/>
-      <c r="P111" s="9"/>
+      <c r="I111" s="12"/>
+      <c r="K111" s="9"/>
+      <c r="L111" s="11"/>
+      <c r="M111" s="11"/>
+      <c r="N111" s="11"/>
+      <c r="O111" s="11"/>
+      <c r="P111" s="11"/>
       <c r="Q111" s="1"/>
-      <c r="R111" s="9"/>
-      <c r="S111" s="9"/>
-      <c r="T111" s="9"/>
+      <c r="R111" s="11"/>
+      <c r="S111" s="11"/>
+      <c r="T111" s="11"/>
       <c r="V111" s="13"/>
       <c r="W111" s="13"/>
       <c r="X111" s="13"/>
@@ -3570,26 +3608,26 @@
       <c r="Z111" s="13"/>
     </row>
     <row r="112" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I112" s="16"/>
+      <c r="I112" s="12"/>
     </row>
     <row r="113" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I113" s="16"/>
-      <c r="K113" s="8">
+      <c r="I113" s="12"/>
+      <c r="K113" s="9">
         <v>5</v>
       </c>
-      <c r="L113" s="9" t="s">
+      <c r="L113" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="M113" s="9"/>
-      <c r="N113" s="9"/>
-      <c r="O113" s="9"/>
-      <c r="P113" s="9"/>
+      <c r="M113" s="11"/>
+      <c r="N113" s="11"/>
+      <c r="O113" s="11"/>
+      <c r="P113" s="11"/>
       <c r="Q113" s="1"/>
-      <c r="R113" s="9" t="s">
+      <c r="R113" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="S113" s="9"/>
-      <c r="T113" s="9"/>
+      <c r="S113" s="11"/>
+      <c r="T113" s="11"/>
       <c r="V113" s="13" t="s">
         <v>51</v>
       </c>
@@ -3602,17 +3640,17 @@
       <c r="G114" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I114" s="16"/>
-      <c r="K114" s="8"/>
-      <c r="L114" s="9"/>
-      <c r="M114" s="9"/>
-      <c r="N114" s="9"/>
-      <c r="O114" s="9"/>
-      <c r="P114" s="9"/>
+      <c r="I114" s="12"/>
+      <c r="K114" s="9"/>
+      <c r="L114" s="11"/>
+      <c r="M114" s="11"/>
+      <c r="N114" s="11"/>
+      <c r="O114" s="11"/>
+      <c r="P114" s="11"/>
       <c r="Q114" s="1"/>
-      <c r="R114" s="9"/>
-      <c r="S114" s="9"/>
-      <c r="T114" s="9"/>
+      <c r="R114" s="11"/>
+      <c r="S114" s="11"/>
+      <c r="T114" s="11"/>
       <c r="V114" s="13"/>
       <c r="W114" s="13"/>
       <c r="X114" s="13"/>
@@ -3620,248 +3658,248 @@
       <c r="Z114" s="13"/>
     </row>
     <row r="115" spans="7:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G115" s="10" t="s">
+      <c r="G115" s="16" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="116" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="G116" s="10"/>
+      <c r="G116" s="16"/>
     </row>
     <row r="117" spans="7:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G117" s="10"/>
-      <c r="I117" s="16" t="s">
+      <c r="G117" s="16"/>
+      <c r="I117" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="K117" s="8">
+      <c r="K117" s="9">
         <v>1</v>
       </c>
-      <c r="L117" s="11" t="s">
+      <c r="L117" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="M117" s="11"/>
-      <c r="N117" s="11"/>
-      <c r="O117" s="11"/>
-      <c r="P117" s="11"/>
+      <c r="M117" s="10"/>
+      <c r="N117" s="10"/>
+      <c r="O117" s="10"/>
+      <c r="P117" s="10"/>
       <c r="Q117" s="1"/>
-      <c r="R117" s="9" t="s">
+      <c r="R117" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="S117" s="9"/>
-      <c r="T117" s="9"/>
-      <c r="V117" s="12" t="s">
+      <c r="S117" s="11"/>
+      <c r="T117" s="11"/>
+      <c r="V117" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="W117" s="12"/>
-      <c r="X117" s="12"/>
-      <c r="Y117" s="12"/>
-      <c r="Z117" s="12"/>
+      <c r="W117" s="17"/>
+      <c r="X117" s="17"/>
+      <c r="Y117" s="17"/>
+      <c r="Z117" s="17"/>
     </row>
     <row r="118" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="G118" s="10"/>
-      <c r="I118" s="16"/>
-      <c r="K118" s="8"/>
-      <c r="L118" s="11"/>
-      <c r="M118" s="11"/>
-      <c r="N118" s="11"/>
-      <c r="O118" s="11"/>
-      <c r="P118" s="11"/>
+      <c r="G118" s="16"/>
+      <c r="I118" s="12"/>
+      <c r="K118" s="9"/>
+      <c r="L118" s="10"/>
+      <c r="M118" s="10"/>
+      <c r="N118" s="10"/>
+      <c r="O118" s="10"/>
+      <c r="P118" s="10"/>
       <c r="Q118" s="1"/>
-      <c r="R118" s="9"/>
-      <c r="S118" s="9"/>
-      <c r="T118" s="9"/>
-      <c r="V118" s="12"/>
-      <c r="W118" s="12"/>
-      <c r="X118" s="12"/>
-      <c r="Y118" s="12"/>
-      <c r="Z118" s="12"/>
+      <c r="R118" s="11"/>
+      <c r="S118" s="11"/>
+      <c r="T118" s="11"/>
+      <c r="V118" s="17"/>
+      <c r="W118" s="17"/>
+      <c r="X118" s="17"/>
+      <c r="Y118" s="17"/>
+      <c r="Z118" s="17"/>
     </row>
     <row r="119" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I119" s="16"/>
+      <c r="I119" s="12"/>
     </row>
     <row r="120" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I120" s="16"/>
-      <c r="K120" s="8">
+      <c r="I120" s="12"/>
+      <c r="K120" s="9">
         <v>2</v>
       </c>
-      <c r="L120" s="11" t="s">
+      <c r="L120" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="M120" s="11"/>
-      <c r="N120" s="11"/>
-      <c r="O120" s="11"/>
-      <c r="P120" s="11"/>
+      <c r="M120" s="10"/>
+      <c r="N120" s="10"/>
+      <c r="O120" s="10"/>
+      <c r="P120" s="10"/>
       <c r="Q120" s="1"/>
-      <c r="R120" s="9" t="s">
+      <c r="R120" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="S120" s="9"/>
-      <c r="T120" s="9"/>
-      <c r="V120" s="12" t="s">
+      <c r="S120" s="11"/>
+      <c r="T120" s="11"/>
+      <c r="V120" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="W120" s="12"/>
-      <c r="X120" s="12"/>
-      <c r="Y120" s="12"/>
-      <c r="Z120" s="12"/>
+      <c r="W120" s="17"/>
+      <c r="X120" s="17"/>
+      <c r="Y120" s="17"/>
+      <c r="Z120" s="17"/>
     </row>
     <row r="121" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I121" s="16"/>
-      <c r="K121" s="8"/>
-      <c r="L121" s="11"/>
-      <c r="M121" s="11"/>
-      <c r="N121" s="11"/>
-      <c r="O121" s="11"/>
-      <c r="P121" s="11"/>
+      <c r="I121" s="12"/>
+      <c r="K121" s="9"/>
+      <c r="L121" s="10"/>
+      <c r="M121" s="10"/>
+      <c r="N121" s="10"/>
+      <c r="O121" s="10"/>
+      <c r="P121" s="10"/>
       <c r="Q121" s="1"/>
-      <c r="R121" s="9"/>
-      <c r="S121" s="9"/>
-      <c r="T121" s="9"/>
-      <c r="V121" s="12"/>
-      <c r="W121" s="12"/>
-      <c r="X121" s="12"/>
-      <c r="Y121" s="12"/>
-      <c r="Z121" s="12"/>
+      <c r="R121" s="11"/>
+      <c r="S121" s="11"/>
+      <c r="T121" s="11"/>
+      <c r="V121" s="17"/>
+      <c r="W121" s="17"/>
+      <c r="X121" s="17"/>
+      <c r="Y121" s="17"/>
+      <c r="Z121" s="17"/>
     </row>
     <row r="122" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I122" s="16"/>
+      <c r="I122" s="12"/>
     </row>
     <row r="123" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I123" s="16"/>
-      <c r="K123" s="8">
+      <c r="I123" s="12"/>
+      <c r="K123" s="9">
         <v>3</v>
       </c>
-      <c r="L123" s="11" t="s">
+      <c r="L123" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="M123" s="11"/>
-      <c r="N123" s="11"/>
-      <c r="O123" s="11"/>
-      <c r="P123" s="11"/>
+      <c r="M123" s="10"/>
+      <c r="N123" s="10"/>
+      <c r="O123" s="10"/>
+      <c r="P123" s="10"/>
       <c r="Q123" s="1"/>
-      <c r="R123" s="9" t="s">
+      <c r="R123" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="S123" s="9"/>
-      <c r="T123" s="9"/>
-      <c r="V123" s="12" t="s">
+      <c r="S123" s="11"/>
+      <c r="T123" s="11"/>
+      <c r="V123" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="W123" s="12"/>
-      <c r="X123" s="12"/>
-      <c r="Y123" s="12"/>
-      <c r="Z123" s="12"/>
+      <c r="W123" s="17"/>
+      <c r="X123" s="17"/>
+      <c r="Y123" s="17"/>
+      <c r="Z123" s="17"/>
     </row>
     <row r="124" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I124" s="16"/>
-      <c r="K124" s="8"/>
-      <c r="L124" s="11"/>
-      <c r="M124" s="11"/>
-      <c r="N124" s="11"/>
-      <c r="O124" s="11"/>
-      <c r="P124" s="11"/>
+      <c r="I124" s="12"/>
+      <c r="K124" s="9"/>
+      <c r="L124" s="10"/>
+      <c r="M124" s="10"/>
+      <c r="N124" s="10"/>
+      <c r="O124" s="10"/>
+      <c r="P124" s="10"/>
       <c r="Q124" s="1"/>
-      <c r="R124" s="9"/>
-      <c r="S124" s="9"/>
-      <c r="T124" s="9"/>
-      <c r="V124" s="12"/>
-      <c r="W124" s="12"/>
-      <c r="X124" s="12"/>
-      <c r="Y124" s="12"/>
-      <c r="Z124" s="12"/>
+      <c r="R124" s="11"/>
+      <c r="S124" s="11"/>
+      <c r="T124" s="11"/>
+      <c r="V124" s="17"/>
+      <c r="W124" s="17"/>
+      <c r="X124" s="17"/>
+      <c r="Y124" s="17"/>
+      <c r="Z124" s="17"/>
     </row>
     <row r="125" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I125" s="16"/>
+      <c r="I125" s="12"/>
     </row>
     <row r="126" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I126" s="16"/>
-      <c r="K126" s="8">
+      <c r="I126" s="12"/>
+      <c r="K126" s="9">
         <v>4</v>
       </c>
-      <c r="L126" s="11" t="s">
+      <c r="L126" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="M126" s="11"/>
-      <c r="N126" s="11"/>
-      <c r="O126" s="11"/>
-      <c r="P126" s="11"/>
+      <c r="M126" s="10"/>
+      <c r="N126" s="10"/>
+      <c r="O126" s="10"/>
+      <c r="P126" s="10"/>
       <c r="Q126" s="1"/>
-      <c r="R126" s="9" t="s">
+      <c r="R126" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="S126" s="9"/>
-      <c r="T126" s="9"/>
-      <c r="V126" s="12" t="s">
+      <c r="S126" s="11"/>
+      <c r="T126" s="11"/>
+      <c r="V126" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="W126" s="12"/>
-      <c r="X126" s="12"/>
-      <c r="Y126" s="12"/>
-      <c r="Z126" s="12"/>
+      <c r="W126" s="17"/>
+      <c r="X126" s="17"/>
+      <c r="Y126" s="17"/>
+      <c r="Z126" s="17"/>
     </row>
     <row r="127" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I127" s="16"/>
-      <c r="K127" s="8"/>
-      <c r="L127" s="11"/>
-      <c r="M127" s="11"/>
-      <c r="N127" s="11"/>
-      <c r="O127" s="11"/>
-      <c r="P127" s="11"/>
+      <c r="I127" s="12"/>
+      <c r="K127" s="9"/>
+      <c r="L127" s="10"/>
+      <c r="M127" s="10"/>
+      <c r="N127" s="10"/>
+      <c r="O127" s="10"/>
+      <c r="P127" s="10"/>
       <c r="Q127" s="1"/>
-      <c r="R127" s="9"/>
-      <c r="S127" s="9"/>
-      <c r="T127" s="9"/>
-      <c r="V127" s="12"/>
-      <c r="W127" s="12"/>
-      <c r="X127" s="12"/>
-      <c r="Y127" s="12"/>
-      <c r="Z127" s="12"/>
+      <c r="R127" s="11"/>
+      <c r="S127" s="11"/>
+      <c r="T127" s="11"/>
+      <c r="V127" s="17"/>
+      <c r="W127" s="17"/>
+      <c r="X127" s="17"/>
+      <c r="Y127" s="17"/>
+      <c r="Z127" s="17"/>
     </row>
     <row r="128" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I128" s="16"/>
+      <c r="I128" s="12"/>
     </row>
     <row r="129" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I129" s="16"/>
-      <c r="K129" s="8">
+      <c r="I129" s="12"/>
+      <c r="K129" s="9">
         <v>5</v>
       </c>
-      <c r="L129" s="11" t="s">
+      <c r="L129" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="M129" s="11"/>
-      <c r="N129" s="11"/>
-      <c r="O129" s="11"/>
-      <c r="P129" s="11"/>
+      <c r="M129" s="10"/>
+      <c r="N129" s="10"/>
+      <c r="O129" s="10"/>
+      <c r="P129" s="10"/>
       <c r="Q129" s="1"/>
-      <c r="R129" s="9" t="s">
+      <c r="R129" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="S129" s="9"/>
-      <c r="T129" s="9"/>
-      <c r="V129" s="12" t="s">
+      <c r="S129" s="11"/>
+      <c r="T129" s="11"/>
+      <c r="V129" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="W129" s="12"/>
-      <c r="X129" s="12"/>
-      <c r="Y129" s="12"/>
-      <c r="Z129" s="12"/>
+      <c r="W129" s="17"/>
+      <c r="X129" s="17"/>
+      <c r="Y129" s="17"/>
+      <c r="Z129" s="17"/>
     </row>
     <row r="130" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I130" s="16"/>
-      <c r="K130" s="8"/>
-      <c r="L130" s="11"/>
-      <c r="M130" s="11"/>
-      <c r="N130" s="11"/>
-      <c r="O130" s="11"/>
-      <c r="P130" s="11"/>
+      <c r="I130" s="12"/>
+      <c r="K130" s="9"/>
+      <c r="L130" s="10"/>
+      <c r="M130" s="10"/>
+      <c r="N130" s="10"/>
+      <c r="O130" s="10"/>
+      <c r="P130" s="10"/>
       <c r="Q130" s="1"/>
-      <c r="R130" s="9"/>
-      <c r="S130" s="9"/>
-      <c r="T130" s="9"/>
-      <c r="V130" s="12"/>
-      <c r="W130" s="12"/>
-      <c r="X130" s="12"/>
-      <c r="Y130" s="12"/>
-      <c r="Z130" s="12"/>
+      <c r="R130" s="11"/>
+      <c r="S130" s="11"/>
+      <c r="T130" s="11"/>
+      <c r="V130" s="17"/>
+      <c r="W130" s="17"/>
+      <c r="X130" s="17"/>
+      <c r="Y130" s="17"/>
+      <c r="Z130" s="17"/>
     </row>
     <row r="132" spans="7:26" x14ac:dyDescent="0.45">
       <c r="G132" s="3"/>
@@ -3914,25 +3952,25 @@
       <c r="Z133" s="15"/>
     </row>
     <row r="136" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I136" s="16" t="s">
+      <c r="I136" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="K136" s="8">
+      <c r="K136" s="9">
         <v>1</v>
       </c>
-      <c r="L136" s="11" t="s">
+      <c r="L136" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="M136" s="11"/>
-      <c r="N136" s="11"/>
-      <c r="O136" s="11"/>
-      <c r="P136" s="11"/>
+      <c r="M136" s="10"/>
+      <c r="N136" s="10"/>
+      <c r="O136" s="10"/>
+      <c r="P136" s="10"/>
       <c r="Q136" s="1"/>
-      <c r="R136" s="9" t="s">
+      <c r="R136" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="S136" s="9"/>
-      <c r="T136" s="9"/>
+      <c r="S136" s="11"/>
+      <c r="T136" s="11"/>
       <c r="V136" s="13" t="s">
         <v>51</v>
       </c>
@@ -3942,17 +3980,17 @@
       <c r="Z136" s="13"/>
     </row>
     <row r="137" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I137" s="16"/>
-      <c r="K137" s="8"/>
-      <c r="L137" s="11"/>
-      <c r="M137" s="11"/>
-      <c r="N137" s="11"/>
-      <c r="O137" s="11"/>
-      <c r="P137" s="11"/>
+      <c r="I137" s="12"/>
+      <c r="K137" s="9"/>
+      <c r="L137" s="10"/>
+      <c r="M137" s="10"/>
+      <c r="N137" s="10"/>
+      <c r="O137" s="10"/>
+      <c r="P137" s="10"/>
       <c r="Q137" s="1"/>
-      <c r="R137" s="9"/>
-      <c r="S137" s="9"/>
-      <c r="T137" s="9"/>
+      <c r="R137" s="11"/>
+      <c r="S137" s="11"/>
+      <c r="T137" s="11"/>
       <c r="V137" s="13"/>
       <c r="W137" s="13"/>
       <c r="X137" s="13"/>
@@ -3960,26 +3998,26 @@
       <c r="Z137" s="13"/>
     </row>
     <row r="138" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I138" s="16"/>
+      <c r="I138" s="12"/>
     </row>
     <row r="139" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I139" s="16"/>
-      <c r="K139" s="8">
+      <c r="I139" s="12"/>
+      <c r="K139" s="9">
         <v>2</v>
       </c>
-      <c r="L139" s="9" t="s">
+      <c r="L139" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="M139" s="9"/>
-      <c r="N139" s="9"/>
-      <c r="O139" s="9"/>
-      <c r="P139" s="9"/>
+      <c r="M139" s="11"/>
+      <c r="N139" s="11"/>
+      <c r="O139" s="11"/>
+      <c r="P139" s="11"/>
       <c r="Q139" s="1"/>
-      <c r="R139" s="9" t="s">
+      <c r="R139" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="S139" s="9"/>
-      <c r="T139" s="9"/>
+      <c r="S139" s="11"/>
+      <c r="T139" s="11"/>
       <c r="V139" s="13" t="s">
         <v>51</v>
       </c>
@@ -3989,17 +4027,17 @@
       <c r="Z139" s="13"/>
     </row>
     <row r="140" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I140" s="16"/>
-      <c r="K140" s="8"/>
-      <c r="L140" s="9"/>
-      <c r="M140" s="9"/>
-      <c r="N140" s="9"/>
-      <c r="O140" s="9"/>
-      <c r="P140" s="9"/>
+      <c r="I140" s="12"/>
+      <c r="K140" s="9"/>
+      <c r="L140" s="11"/>
+      <c r="M140" s="11"/>
+      <c r="N140" s="11"/>
+      <c r="O140" s="11"/>
+      <c r="P140" s="11"/>
       <c r="Q140" s="1"/>
-      <c r="R140" s="9"/>
-      <c r="S140" s="9"/>
-      <c r="T140" s="9"/>
+      <c r="R140" s="11"/>
+      <c r="S140" s="11"/>
+      <c r="T140" s="11"/>
       <c r="V140" s="13"/>
       <c r="W140" s="13"/>
       <c r="X140" s="13"/>
@@ -4007,26 +4045,26 @@
       <c r="Z140" s="13"/>
     </row>
     <row r="141" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I141" s="16"/>
+      <c r="I141" s="12"/>
     </row>
     <row r="142" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I142" s="16"/>
-      <c r="K142" s="8">
+      <c r="I142" s="12"/>
+      <c r="K142" s="9">
         <v>3</v>
       </c>
-      <c r="L142" s="9" t="s">
+      <c r="L142" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="M142" s="9"/>
-      <c r="N142" s="9"/>
-      <c r="O142" s="9"/>
-      <c r="P142" s="9"/>
+      <c r="M142" s="11"/>
+      <c r="N142" s="11"/>
+      <c r="O142" s="11"/>
+      <c r="P142" s="11"/>
       <c r="Q142" s="1"/>
-      <c r="R142" s="9" t="s">
+      <c r="R142" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="S142" s="9"/>
-      <c r="T142" s="9"/>
+      <c r="S142" s="11"/>
+      <c r="T142" s="11"/>
       <c r="V142" s="13" t="s">
         <v>51</v>
       </c>
@@ -4036,17 +4074,17 @@
       <c r="Z142" s="13"/>
     </row>
     <row r="143" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I143" s="16"/>
-      <c r="K143" s="8"/>
-      <c r="L143" s="9"/>
-      <c r="M143" s="9"/>
-      <c r="N143" s="9"/>
-      <c r="O143" s="9"/>
-      <c r="P143" s="9"/>
+      <c r="I143" s="12"/>
+      <c r="K143" s="9"/>
+      <c r="L143" s="11"/>
+      <c r="M143" s="11"/>
+      <c r="N143" s="11"/>
+      <c r="O143" s="11"/>
+      <c r="P143" s="11"/>
       <c r="Q143" s="1"/>
-      <c r="R143" s="9"/>
-      <c r="S143" s="9"/>
-      <c r="T143" s="9"/>
+      <c r="R143" s="11"/>
+      <c r="S143" s="11"/>
+      <c r="T143" s="11"/>
       <c r="V143" s="13"/>
       <c r="W143" s="13"/>
       <c r="X143" s="13"/>
@@ -4054,26 +4092,26 @@
       <c r="Z143" s="13"/>
     </row>
     <row r="144" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I144" s="16"/>
+      <c r="I144" s="12"/>
     </row>
     <row r="145" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I145" s="16"/>
-      <c r="K145" s="8">
+      <c r="I145" s="12"/>
+      <c r="K145" s="9">
         <v>4</v>
       </c>
-      <c r="L145" s="9" t="s">
+      <c r="L145" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="M145" s="9"/>
-      <c r="N145" s="9"/>
-      <c r="O145" s="9"/>
-      <c r="P145" s="9"/>
+      <c r="M145" s="11"/>
+      <c r="N145" s="11"/>
+      <c r="O145" s="11"/>
+      <c r="P145" s="11"/>
       <c r="Q145" s="1"/>
-      <c r="R145" s="9" t="s">
+      <c r="R145" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="S145" s="9"/>
-      <c r="T145" s="9"/>
+      <c r="S145" s="11"/>
+      <c r="T145" s="11"/>
       <c r="V145" s="13" t="s">
         <v>51</v>
       </c>
@@ -4083,17 +4121,17 @@
       <c r="Z145" s="13"/>
     </row>
     <row r="146" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I146" s="16"/>
-      <c r="K146" s="8"/>
-      <c r="L146" s="9"/>
-      <c r="M146" s="9"/>
-      <c r="N146" s="9"/>
-      <c r="O146" s="9"/>
-      <c r="P146" s="9"/>
+      <c r="I146" s="12"/>
+      <c r="K146" s="9"/>
+      <c r="L146" s="11"/>
+      <c r="M146" s="11"/>
+      <c r="N146" s="11"/>
+      <c r="O146" s="11"/>
+      <c r="P146" s="11"/>
       <c r="Q146" s="1"/>
-      <c r="R146" s="9"/>
-      <c r="S146" s="9"/>
-      <c r="T146" s="9"/>
+      <c r="R146" s="11"/>
+      <c r="S146" s="11"/>
+      <c r="T146" s="11"/>
       <c r="V146" s="13"/>
       <c r="W146" s="13"/>
       <c r="X146" s="13"/>
@@ -4101,26 +4139,26 @@
       <c r="Z146" s="13"/>
     </row>
     <row r="147" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I147" s="16"/>
+      <c r="I147" s="12"/>
     </row>
     <row r="148" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I148" s="16"/>
-      <c r="K148" s="8">
+      <c r="I148" s="12"/>
+      <c r="K148" s="9">
         <v>5</v>
       </c>
-      <c r="L148" s="9" t="s">
+      <c r="L148" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="M148" s="9"/>
-      <c r="N148" s="9"/>
-      <c r="O148" s="9"/>
-      <c r="P148" s="9"/>
+      <c r="M148" s="11"/>
+      <c r="N148" s="11"/>
+      <c r="O148" s="11"/>
+      <c r="P148" s="11"/>
       <c r="Q148" s="1"/>
-      <c r="R148" s="9" t="s">
+      <c r="R148" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="S148" s="9"/>
-      <c r="T148" s="9"/>
+      <c r="S148" s="11"/>
+      <c r="T148" s="11"/>
       <c r="V148" s="13" t="s">
         <v>51</v>
       </c>
@@ -4133,17 +4171,17 @@
       <c r="G149" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I149" s="16"/>
-      <c r="K149" s="8"/>
-      <c r="L149" s="9"/>
-      <c r="M149" s="9"/>
-      <c r="N149" s="9"/>
-      <c r="O149" s="9"/>
-      <c r="P149" s="9"/>
+      <c r="I149" s="12"/>
+      <c r="K149" s="9"/>
+      <c r="L149" s="11"/>
+      <c r="M149" s="11"/>
+      <c r="N149" s="11"/>
+      <c r="O149" s="11"/>
+      <c r="P149" s="11"/>
       <c r="Q149" s="1"/>
-      <c r="R149" s="9"/>
-      <c r="S149" s="9"/>
-      <c r="T149" s="9"/>
+      <c r="R149" s="11"/>
+      <c r="S149" s="11"/>
+      <c r="T149" s="11"/>
       <c r="V149" s="13"/>
       <c r="W149" s="13"/>
       <c r="X149" s="13"/>
@@ -4151,154 +4189,154 @@
       <c r="Z149" s="13"/>
     </row>
     <row r="150" spans="7:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G150" s="10" t="s">
+      <c r="G150" s="16" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="151" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="G151" s="10"/>
+      <c r="G151" s="16"/>
     </row>
     <row r="152" spans="7:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G152" s="10"/>
-      <c r="I152" s="20" t="s">
+      <c r="G152" s="16"/>
+      <c r="I152" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="K152" s="8">
+      <c r="K152" s="9">
         <v>1</v>
       </c>
-      <c r="L152" s="11" t="s">
+      <c r="L152" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="M152" s="11"/>
-      <c r="N152" s="11"/>
-      <c r="O152" s="11"/>
-      <c r="P152" s="11"/>
+      <c r="M152" s="10"/>
+      <c r="N152" s="10"/>
+      <c r="O152" s="10"/>
+      <c r="P152" s="10"/>
       <c r="Q152" s="1"/>
-      <c r="R152" s="9" t="s">
+      <c r="R152" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="S152" s="9"/>
-      <c r="T152" s="9"/>
-      <c r="V152" s="12" t="s">
+      <c r="S152" s="11"/>
+      <c r="T152" s="11"/>
+      <c r="V152" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="W152" s="12"/>
-      <c r="X152" s="12"/>
-      <c r="Y152" s="12"/>
-      <c r="Z152" s="12"/>
+      <c r="W152" s="17"/>
+      <c r="X152" s="17"/>
+      <c r="Y152" s="17"/>
+      <c r="Z152" s="17"/>
     </row>
     <row r="153" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="G153" s="10"/>
-      <c r="I153" s="20"/>
-      <c r="K153" s="8"/>
-      <c r="L153" s="11"/>
-      <c r="M153" s="11"/>
-      <c r="N153" s="11"/>
-      <c r="O153" s="11"/>
-      <c r="P153" s="11"/>
+      <c r="G153" s="16"/>
+      <c r="I153" s="8"/>
+      <c r="K153" s="9"/>
+      <c r="L153" s="10"/>
+      <c r="M153" s="10"/>
+      <c r="N153" s="10"/>
+      <c r="O153" s="10"/>
+      <c r="P153" s="10"/>
       <c r="Q153" s="1"/>
-      <c r="R153" s="9"/>
-      <c r="S153" s="9"/>
-      <c r="T153" s="9"/>
-      <c r="V153" s="12"/>
-      <c r="W153" s="12"/>
-      <c r="X153" s="12"/>
-      <c r="Y153" s="12"/>
-      <c r="Z153" s="12"/>
+      <c r="R153" s="11"/>
+      <c r="S153" s="11"/>
+      <c r="T153" s="11"/>
+      <c r="V153" s="17"/>
+      <c r="W153" s="17"/>
+      <c r="X153" s="17"/>
+      <c r="Y153" s="17"/>
+      <c r="Z153" s="17"/>
     </row>
     <row r="154" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I154" s="20"/>
+      <c r="I154" s="8"/>
     </row>
     <row r="155" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I155" s="20"/>
-      <c r="K155" s="8">
+      <c r="I155" s="8"/>
+      <c r="K155" s="9">
         <v>2</v>
       </c>
-      <c r="L155" s="11" t="s">
+      <c r="L155" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="M155" s="11"/>
-      <c r="N155" s="11"/>
-      <c r="O155" s="11"/>
-      <c r="P155" s="11"/>
+      <c r="M155" s="10"/>
+      <c r="N155" s="10"/>
+      <c r="O155" s="10"/>
+      <c r="P155" s="10"/>
       <c r="Q155" s="1"/>
-      <c r="R155" s="9" t="s">
+      <c r="R155" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="S155" s="9"/>
-      <c r="T155" s="9"/>
-      <c r="V155" s="12" t="s">
+      <c r="S155" s="11"/>
+      <c r="T155" s="11"/>
+      <c r="V155" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="W155" s="12"/>
-      <c r="X155" s="12"/>
-      <c r="Y155" s="12"/>
-      <c r="Z155" s="12"/>
+      <c r="W155" s="17"/>
+      <c r="X155" s="17"/>
+      <c r="Y155" s="17"/>
+      <c r="Z155" s="17"/>
     </row>
     <row r="156" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I156" s="20"/>
-      <c r="K156" s="8"/>
-      <c r="L156" s="11"/>
-      <c r="M156" s="11"/>
-      <c r="N156" s="11"/>
-      <c r="O156" s="11"/>
-      <c r="P156" s="11"/>
+      <c r="I156" s="8"/>
+      <c r="K156" s="9"/>
+      <c r="L156" s="10"/>
+      <c r="M156" s="10"/>
+      <c r="N156" s="10"/>
+      <c r="O156" s="10"/>
+      <c r="P156" s="10"/>
       <c r="Q156" s="1"/>
-      <c r="R156" s="9"/>
-      <c r="S156" s="9"/>
-      <c r="T156" s="9"/>
-      <c r="V156" s="12"/>
-      <c r="W156" s="12"/>
-      <c r="X156" s="12"/>
-      <c r="Y156" s="12"/>
-      <c r="Z156" s="12"/>
+      <c r="R156" s="11"/>
+      <c r="S156" s="11"/>
+      <c r="T156" s="11"/>
+      <c r="V156" s="17"/>
+      <c r="W156" s="17"/>
+      <c r="X156" s="17"/>
+      <c r="Y156" s="17"/>
+      <c r="Z156" s="17"/>
     </row>
     <row r="157" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I157" s="20"/>
+      <c r="I157" s="8"/>
     </row>
     <row r="158" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I158" s="20"/>
-      <c r="K158" s="8">
+      <c r="I158" s="8"/>
+      <c r="K158" s="9">
         <v>3</v>
       </c>
-      <c r="L158" s="11" t="s">
+      <c r="L158" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="M158" s="11"/>
-      <c r="N158" s="11"/>
-      <c r="O158" s="11"/>
-      <c r="P158" s="11"/>
+      <c r="M158" s="10"/>
+      <c r="N158" s="10"/>
+      <c r="O158" s="10"/>
+      <c r="P158" s="10"/>
       <c r="Q158" s="1"/>
-      <c r="R158" s="9" t="s">
+      <c r="R158" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="S158" s="9"/>
-      <c r="T158" s="9"/>
-      <c r="V158" s="18" t="s">
+      <c r="S158" s="11"/>
+      <c r="T158" s="11"/>
+      <c r="V158" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="W158" s="18"/>
-      <c r="X158" s="18"/>
-      <c r="Y158" s="18"/>
-      <c r="Z158" s="18"/>
+      <c r="W158" s="19"/>
+      <c r="X158" s="19"/>
+      <c r="Y158" s="19"/>
+      <c r="Z158" s="19"/>
     </row>
     <row r="159" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I159" s="20"/>
-      <c r="K159" s="8"/>
-      <c r="L159" s="11"/>
-      <c r="M159" s="11"/>
-      <c r="N159" s="11"/>
-      <c r="O159" s="11"/>
-      <c r="P159" s="11"/>
+      <c r="I159" s="8"/>
+      <c r="K159" s="9"/>
+      <c r="L159" s="10"/>
+      <c r="M159" s="10"/>
+      <c r="N159" s="10"/>
+      <c r="O159" s="10"/>
+      <c r="P159" s="10"/>
       <c r="Q159" s="1"/>
-      <c r="R159" s="9"/>
-      <c r="S159" s="9"/>
-      <c r="T159" s="9"/>
-      <c r="V159" s="18"/>
-      <c r="W159" s="18"/>
-      <c r="X159" s="18"/>
-      <c r="Y159" s="18"/>
-      <c r="Z159" s="18"/>
+      <c r="R159" s="11"/>
+      <c r="S159" s="11"/>
+      <c r="T159" s="11"/>
+      <c r="V159" s="19"/>
+      <c r="W159" s="19"/>
+      <c r="X159" s="19"/>
+      <c r="Y159" s="19"/>
+      <c r="Z159" s="19"/>
     </row>
     <row r="161" spans="8:26" x14ac:dyDescent="0.45">
       <c r="H161" s="14" t="s">
@@ -4349,25 +4387,25 @@
       <c r="Z162" s="15"/>
     </row>
     <row r="165" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="I165" s="16" t="s">
+      <c r="I165" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="K165" s="8">
+      <c r="K165" s="9">
         <v>1</v>
       </c>
-      <c r="L165" s="11" t="s">
+      <c r="L165" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="M165" s="11"/>
-      <c r="N165" s="11"/>
-      <c r="O165" s="11"/>
-      <c r="P165" s="11"/>
+      <c r="M165" s="10"/>
+      <c r="N165" s="10"/>
+      <c r="O165" s="10"/>
+      <c r="P165" s="10"/>
       <c r="Q165" s="1"/>
-      <c r="R165" s="9" t="s">
+      <c r="R165" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="S165" s="9"/>
-      <c r="T165" s="9"/>
+      <c r="S165" s="11"/>
+      <c r="T165" s="11"/>
       <c r="V165" s="13" t="s">
         <v>51</v>
       </c>
@@ -4377,17 +4415,17 @@
       <c r="Z165" s="13"/>
     </row>
     <row r="166" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="I166" s="16"/>
-      <c r="K166" s="8"/>
-      <c r="L166" s="11"/>
-      <c r="M166" s="11"/>
-      <c r="N166" s="11"/>
-      <c r="O166" s="11"/>
-      <c r="P166" s="11"/>
+      <c r="I166" s="12"/>
+      <c r="K166" s="9"/>
+      <c r="L166" s="10"/>
+      <c r="M166" s="10"/>
+      <c r="N166" s="10"/>
+      <c r="O166" s="10"/>
+      <c r="P166" s="10"/>
       <c r="Q166" s="1"/>
-      <c r="R166" s="9"/>
-      <c r="S166" s="9"/>
-      <c r="T166" s="9"/>
+      <c r="R166" s="11"/>
+      <c r="S166" s="11"/>
+      <c r="T166" s="11"/>
       <c r="V166" s="13"/>
       <c r="W166" s="13"/>
       <c r="X166" s="13"/>
@@ -4395,26 +4433,26 @@
       <c r="Z166" s="13"/>
     </row>
     <row r="167" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="I167" s="16"/>
+      <c r="I167" s="12"/>
     </row>
     <row r="168" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="I168" s="16"/>
-      <c r="K168" s="8">
+      <c r="I168" s="12"/>
+      <c r="K168" s="9">
         <v>2</v>
       </c>
-      <c r="L168" s="9" t="s">
+      <c r="L168" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="M168" s="9"/>
-      <c r="N168" s="9"/>
-      <c r="O168" s="9"/>
-      <c r="P168" s="9"/>
+      <c r="M168" s="11"/>
+      <c r="N168" s="11"/>
+      <c r="O168" s="11"/>
+      <c r="P168" s="11"/>
       <c r="Q168" s="1"/>
-      <c r="R168" s="9" t="s">
+      <c r="R168" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="S168" s="9"/>
-      <c r="T168" s="9"/>
+      <c r="S168" s="11"/>
+      <c r="T168" s="11"/>
       <c r="V168" s="13" t="s">
         <v>51</v>
       </c>
@@ -4424,17 +4462,17 @@
       <c r="Z168" s="13"/>
     </row>
     <row r="169" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="I169" s="16"/>
-      <c r="K169" s="8"/>
-      <c r="L169" s="9"/>
-      <c r="M169" s="9"/>
-      <c r="N169" s="9"/>
-      <c r="O169" s="9"/>
-      <c r="P169" s="9"/>
+      <c r="I169" s="12"/>
+      <c r="K169" s="9"/>
+      <c r="L169" s="11"/>
+      <c r="M169" s="11"/>
+      <c r="N169" s="11"/>
+      <c r="O169" s="11"/>
+      <c r="P169" s="11"/>
       <c r="Q169" s="1"/>
-      <c r="R169" s="9"/>
-      <c r="S169" s="9"/>
-      <c r="T169" s="9"/>
+      <c r="R169" s="11"/>
+      <c r="S169" s="11"/>
+      <c r="T169" s="11"/>
       <c r="V169" s="13"/>
       <c r="W169" s="13"/>
       <c r="X169" s="13"/>
@@ -4442,26 +4480,26 @@
       <c r="Z169" s="13"/>
     </row>
     <row r="170" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="I170" s="16"/>
+      <c r="I170" s="12"/>
     </row>
     <row r="171" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="I171" s="16"/>
-      <c r="K171" s="8">
+      <c r="I171" s="12"/>
+      <c r="K171" s="9">
         <v>3</v>
       </c>
-      <c r="L171" s="9" t="s">
+      <c r="L171" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="M171" s="9"/>
-      <c r="N171" s="9"/>
-      <c r="O171" s="9"/>
-      <c r="P171" s="9"/>
+      <c r="M171" s="11"/>
+      <c r="N171" s="11"/>
+      <c r="O171" s="11"/>
+      <c r="P171" s="11"/>
       <c r="Q171" s="1"/>
-      <c r="R171" s="9" t="s">
+      <c r="R171" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="S171" s="9"/>
-      <c r="T171" s="9"/>
+      <c r="S171" s="11"/>
+      <c r="T171" s="11"/>
       <c r="V171" s="13" t="s">
         <v>51</v>
       </c>
@@ -4471,17 +4509,17 @@
       <c r="Z171" s="13"/>
     </row>
     <row r="172" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="I172" s="16"/>
-      <c r="K172" s="8"/>
-      <c r="L172" s="9"/>
-      <c r="M172" s="9"/>
-      <c r="N172" s="9"/>
-      <c r="O172" s="9"/>
-      <c r="P172" s="9"/>
+      <c r="I172" s="12"/>
+      <c r="K172" s="9"/>
+      <c r="L172" s="11"/>
+      <c r="M172" s="11"/>
+      <c r="N172" s="11"/>
+      <c r="O172" s="11"/>
+      <c r="P172" s="11"/>
       <c r="Q172" s="1"/>
-      <c r="R172" s="9"/>
-      <c r="S172" s="9"/>
-      <c r="T172" s="9"/>
+      <c r="R172" s="11"/>
+      <c r="S172" s="11"/>
+      <c r="T172" s="11"/>
       <c r="V172" s="13"/>
       <c r="W172" s="13"/>
       <c r="X172" s="13"/>
@@ -4489,26 +4527,26 @@
       <c r="Z172" s="13"/>
     </row>
     <row r="173" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="I173" s="16"/>
+      <c r="I173" s="12"/>
     </row>
     <row r="174" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="I174" s="16"/>
-      <c r="K174" s="8">
+      <c r="I174" s="12"/>
+      <c r="K174" s="9">
         <v>4</v>
       </c>
-      <c r="L174" s="9" t="s">
+      <c r="L174" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="M174" s="9"/>
-      <c r="N174" s="9"/>
-      <c r="O174" s="9"/>
-      <c r="P174" s="9"/>
+      <c r="M174" s="11"/>
+      <c r="N174" s="11"/>
+      <c r="O174" s="11"/>
+      <c r="P174" s="11"/>
       <c r="Q174" s="1"/>
-      <c r="R174" s="9" t="s">
+      <c r="R174" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="S174" s="9"/>
-      <c r="T174" s="9"/>
+      <c r="S174" s="11"/>
+      <c r="T174" s="11"/>
       <c r="V174" s="13" t="s">
         <v>51</v>
       </c>
@@ -4518,17 +4556,17 @@
       <c r="Z174" s="13"/>
     </row>
     <row r="175" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="I175" s="16"/>
-      <c r="K175" s="8"/>
-      <c r="L175" s="9"/>
-      <c r="M175" s="9"/>
-      <c r="N175" s="9"/>
-      <c r="O175" s="9"/>
-      <c r="P175" s="9"/>
+      <c r="I175" s="12"/>
+      <c r="K175" s="9"/>
+      <c r="L175" s="11"/>
+      <c r="M175" s="11"/>
+      <c r="N175" s="11"/>
+      <c r="O175" s="11"/>
+      <c r="P175" s="11"/>
       <c r="Q175" s="1"/>
-      <c r="R175" s="9"/>
-      <c r="S175" s="9"/>
-      <c r="T175" s="9"/>
+      <c r="R175" s="11"/>
+      <c r="S175" s="11"/>
+      <c r="T175" s="11"/>
       <c r="V175" s="13"/>
       <c r="W175" s="13"/>
       <c r="X175" s="13"/>
@@ -4536,26 +4574,26 @@
       <c r="Z175" s="13"/>
     </row>
     <row r="176" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="I176" s="16"/>
+      <c r="I176" s="12"/>
     </row>
     <row r="177" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I177" s="16"/>
-      <c r="K177" s="8">
+      <c r="I177" s="12"/>
+      <c r="K177" s="9">
         <v>5</v>
       </c>
-      <c r="L177" s="9" t="s">
+      <c r="L177" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="M177" s="9"/>
-      <c r="N177" s="9"/>
-      <c r="O177" s="9"/>
-      <c r="P177" s="9"/>
+      <c r="M177" s="11"/>
+      <c r="N177" s="11"/>
+      <c r="O177" s="11"/>
+      <c r="P177" s="11"/>
       <c r="Q177" s="1"/>
-      <c r="R177" s="9" t="s">
+      <c r="R177" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="S177" s="9"/>
-      <c r="T177" s="9"/>
+      <c r="S177" s="11"/>
+      <c r="T177" s="11"/>
       <c r="V177" s="13" t="s">
         <v>51</v>
       </c>
@@ -4568,17 +4606,17 @@
       <c r="G178" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I178" s="16"/>
-      <c r="K178" s="8"/>
-      <c r="L178" s="9"/>
-      <c r="M178" s="9"/>
-      <c r="N178" s="9"/>
-      <c r="O178" s="9"/>
-      <c r="P178" s="9"/>
+      <c r="I178" s="12"/>
+      <c r="K178" s="9"/>
+      <c r="L178" s="11"/>
+      <c r="M178" s="11"/>
+      <c r="N178" s="11"/>
+      <c r="O178" s="11"/>
+      <c r="P178" s="11"/>
       <c r="Q178" s="1"/>
-      <c r="R178" s="9"/>
-      <c r="S178" s="9"/>
-      <c r="T178" s="9"/>
+      <c r="R178" s="11"/>
+      <c r="S178" s="11"/>
+      <c r="T178" s="11"/>
       <c r="V178" s="13"/>
       <c r="W178" s="13"/>
       <c r="X178" s="13"/>
@@ -4586,63 +4624,1429 @@
       <c r="Z178" s="13"/>
     </row>
     <row r="179" spans="7:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G179" s="10" t="s">
+      <c r="G179" s="16" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="180" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="G180" s="10"/>
+      <c r="G180" s="16"/>
     </row>
     <row r="181" spans="7:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G181" s="10"/>
-      <c r="I181" s="20" t="s">
+      <c r="G181" s="16"/>
+      <c r="I181" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="K181" s="8">
+      <c r="K181" s="9">
         <v>1</v>
       </c>
-      <c r="L181" s="11" t="s">
+      <c r="L181" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="M181" s="11"/>
-      <c r="N181" s="11"/>
-      <c r="O181" s="11"/>
-      <c r="P181" s="11"/>
+      <c r="M181" s="10"/>
+      <c r="N181" s="10"/>
+      <c r="O181" s="10"/>
+      <c r="P181" s="10"/>
       <c r="Q181" s="1"/>
-      <c r="R181" s="9" t="s">
+      <c r="R181" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="S181" s="9"/>
-      <c r="T181" s="9"/>
-      <c r="V181" s="12" t="s">
+      <c r="S181" s="11"/>
+      <c r="T181" s="11"/>
+      <c r="V181" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="W181" s="12"/>
-      <c r="X181" s="12"/>
-      <c r="Y181" s="12"/>
-      <c r="Z181" s="12"/>
+      <c r="W181" s="17"/>
+      <c r="X181" s="17"/>
+      <c r="Y181" s="17"/>
+      <c r="Z181" s="17"/>
     </row>
     <row r="182" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="G182" s="10"/>
-      <c r="I182" s="20"/>
-      <c r="K182" s="8"/>
-      <c r="L182" s="11"/>
-      <c r="M182" s="11"/>
-      <c r="N182" s="11"/>
-      <c r="O182" s="11"/>
-      <c r="P182" s="11"/>
+      <c r="G182" s="16"/>
+      <c r="I182" s="8"/>
+      <c r="K182" s="9"/>
+      <c r="L182" s="10"/>
+      <c r="M182" s="10"/>
+      <c r="N182" s="10"/>
+      <c r="O182" s="10"/>
+      <c r="P182" s="10"/>
       <c r="Q182" s="1"/>
-      <c r="R182" s="9"/>
-      <c r="S182" s="9"/>
-      <c r="T182" s="9"/>
-      <c r="V182" s="12"/>
-      <c r="W182" s="12"/>
-      <c r="X182" s="12"/>
-      <c r="Y182" s="12"/>
-      <c r="Z182" s="12"/>
+      <c r="R182" s="11"/>
+      <c r="S182" s="11"/>
+      <c r="T182" s="11"/>
+      <c r="V182" s="17"/>
+      <c r="W182" s="17"/>
+      <c r="X182" s="17"/>
+      <c r="Y182" s="17"/>
+      <c r="Z182" s="17"/>
+    </row>
+    <row r="184" spans="7:26" x14ac:dyDescent="0.45">
+      <c r="H184" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="I184" s="14"/>
+      <c r="J184" s="14"/>
+      <c r="K184" s="14"/>
+      <c r="L184" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="M184" s="15"/>
+      <c r="N184" s="15"/>
+      <c r="O184" s="15"/>
+      <c r="P184" s="15"/>
+      <c r="Q184" s="1"/>
+      <c r="R184" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="S184" s="15"/>
+      <c r="T184" s="15"/>
+      <c r="U184" s="1"/>
+      <c r="V184" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="W184" s="15"/>
+      <c r="X184" s="15"/>
+      <c r="Y184" s="15"/>
+      <c r="Z184" s="15"/>
+    </row>
+    <row r="185" spans="7:26" x14ac:dyDescent="0.45">
+      <c r="H185" s="14"/>
+      <c r="I185" s="14"/>
+      <c r="J185" s="14"/>
+      <c r="K185" s="14"/>
+      <c r="L185" s="15"/>
+      <c r="M185" s="15"/>
+      <c r="N185" s="15"/>
+      <c r="O185" s="15"/>
+      <c r="P185" s="15"/>
+      <c r="Q185" s="1"/>
+      <c r="R185" s="15"/>
+      <c r="S185" s="15"/>
+      <c r="T185" s="15"/>
+      <c r="U185" s="1"/>
+      <c r="V185" s="15"/>
+      <c r="W185" s="15"/>
+      <c r="X185" s="15"/>
+      <c r="Y185" s="15"/>
+      <c r="Z185" s="15"/>
+    </row>
+    <row r="187" spans="7:26" x14ac:dyDescent="0.45">
+      <c r="H187" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I187" s="13"/>
+      <c r="J187" s="13"/>
+      <c r="K187" s="13"/>
+      <c r="L187" s="13"/>
+      <c r="M187" s="13"/>
+      <c r="N187" s="13"/>
+      <c r="O187" s="13"/>
+      <c r="P187" s="13"/>
+      <c r="Q187" s="13"/>
+      <c r="R187" s="13"/>
+      <c r="S187" s="13"/>
+      <c r="T187" s="13"/>
+      <c r="U187" s="13"/>
+      <c r="V187" s="13"/>
+      <c r="W187" s="13"/>
+      <c r="X187" s="13"/>
+      <c r="Y187" s="13"/>
+      <c r="Z187" s="13"/>
+    </row>
+    <row r="188" spans="7:26" x14ac:dyDescent="0.45">
+      <c r="H188" s="13"/>
+      <c r="I188" s="13"/>
+      <c r="J188" s="13"/>
+      <c r="K188" s="13"/>
+      <c r="L188" s="13"/>
+      <c r="M188" s="13"/>
+      <c r="N188" s="13"/>
+      <c r="O188" s="13"/>
+      <c r="P188" s="13"/>
+      <c r="Q188" s="13"/>
+      <c r="R188" s="13"/>
+      <c r="S188" s="13"/>
+      <c r="T188" s="13"/>
+      <c r="U188" s="13"/>
+      <c r="V188" s="13"/>
+      <c r="W188" s="13"/>
+      <c r="X188" s="13"/>
+      <c r="Y188" s="13"/>
+      <c r="Z188" s="13"/>
+    </row>
+    <row r="190" spans="7:26" x14ac:dyDescent="0.45">
+      <c r="H190" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="I190" s="14"/>
+      <c r="J190" s="14"/>
+      <c r="K190" s="14"/>
+      <c r="L190" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="M190" s="15"/>
+      <c r="N190" s="15"/>
+      <c r="O190" s="15"/>
+      <c r="P190" s="15"/>
+      <c r="Q190" s="1"/>
+      <c r="R190" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="S190" s="15"/>
+      <c r="T190" s="15"/>
+      <c r="U190" s="1"/>
+      <c r="V190" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="W190" s="15"/>
+      <c r="X190" s="15"/>
+      <c r="Y190" s="15"/>
+      <c r="Z190" s="15"/>
+    </row>
+    <row r="191" spans="7:26" x14ac:dyDescent="0.45">
+      <c r="H191" s="14"/>
+      <c r="I191" s="14"/>
+      <c r="J191" s="14"/>
+      <c r="K191" s="14"/>
+      <c r="L191" s="15"/>
+      <c r="M191" s="15"/>
+      <c r="N191" s="15"/>
+      <c r="O191" s="15"/>
+      <c r="P191" s="15"/>
+      <c r="Q191" s="1"/>
+      <c r="R191" s="15"/>
+      <c r="S191" s="15"/>
+      <c r="T191" s="15"/>
+      <c r="U191" s="1"/>
+      <c r="V191" s="15"/>
+      <c r="W191" s="15"/>
+      <c r="X191" s="15"/>
+      <c r="Y191" s="15"/>
+      <c r="Z191" s="15"/>
+    </row>
+    <row r="193" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="H193" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I193" s="13"/>
+      <c r="J193" s="13"/>
+      <c r="K193" s="13"/>
+      <c r="L193" s="13"/>
+      <c r="M193" s="13"/>
+      <c r="N193" s="13"/>
+      <c r="O193" s="13"/>
+      <c r="P193" s="13"/>
+      <c r="Q193" s="13"/>
+      <c r="R193" s="13"/>
+      <c r="S193" s="13"/>
+      <c r="T193" s="13"/>
+      <c r="U193" s="13"/>
+      <c r="V193" s="13"/>
+      <c r="W193" s="13"/>
+      <c r="X193" s="13"/>
+      <c r="Y193" s="13"/>
+      <c r="Z193" s="13"/>
+    </row>
+    <row r="194" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="H194" s="13"/>
+      <c r="I194" s="13"/>
+      <c r="J194" s="13"/>
+      <c r="K194" s="13"/>
+      <c r="L194" s="13"/>
+      <c r="M194" s="13"/>
+      <c r="N194" s="13"/>
+      <c r="O194" s="13"/>
+      <c r="P194" s="13"/>
+      <c r="Q194" s="13"/>
+      <c r="R194" s="13"/>
+      <c r="S194" s="13"/>
+      <c r="T194" s="13"/>
+      <c r="U194" s="13"/>
+      <c r="V194" s="13"/>
+      <c r="W194" s="13"/>
+      <c r="X194" s="13"/>
+      <c r="Y194" s="13"/>
+      <c r="Z194" s="13"/>
+    </row>
+    <row r="196" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="H196" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="I196" s="14"/>
+      <c r="J196" s="14"/>
+      <c r="K196" s="14"/>
+      <c r="L196" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="M196" s="15"/>
+      <c r="N196" s="15"/>
+      <c r="O196" s="15"/>
+      <c r="P196" s="15"/>
+      <c r="Q196" s="1"/>
+      <c r="R196" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="S196" s="15"/>
+      <c r="T196" s="15"/>
+      <c r="U196" s="1"/>
+      <c r="V196" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="W196" s="15"/>
+      <c r="X196" s="15"/>
+      <c r="Y196" s="15"/>
+      <c r="Z196" s="15"/>
+    </row>
+    <row r="197" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="H197" s="14"/>
+      <c r="I197" s="14"/>
+      <c r="J197" s="14"/>
+      <c r="K197" s="14"/>
+      <c r="L197" s="15"/>
+      <c r="M197" s="15"/>
+      <c r="N197" s="15"/>
+      <c r="O197" s="15"/>
+      <c r="P197" s="15"/>
+      <c r="Q197" s="1"/>
+      <c r="R197" s="15"/>
+      <c r="S197" s="15"/>
+      <c r="T197" s="15"/>
+      <c r="U197" s="1"/>
+      <c r="V197" s="15"/>
+      <c r="W197" s="15"/>
+      <c r="X197" s="15"/>
+      <c r="Y197" s="15"/>
+      <c r="Z197" s="15"/>
+    </row>
+    <row r="199" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="H199" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I199" s="13"/>
+      <c r="J199" s="13"/>
+      <c r="K199" s="13"/>
+      <c r="L199" s="13"/>
+      <c r="M199" s="13"/>
+      <c r="N199" s="13"/>
+      <c r="O199" s="13"/>
+      <c r="P199" s="13"/>
+      <c r="Q199" s="13"/>
+      <c r="R199" s="13"/>
+      <c r="S199" s="13"/>
+      <c r="T199" s="13"/>
+      <c r="U199" s="13"/>
+      <c r="V199" s="13"/>
+      <c r="W199" s="13"/>
+      <c r="X199" s="13"/>
+      <c r="Y199" s="13"/>
+      <c r="Z199" s="13"/>
+    </row>
+    <row r="200" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="H200" s="13"/>
+      <c r="I200" s="13"/>
+      <c r="J200" s="13"/>
+      <c r="K200" s="13"/>
+      <c r="L200" s="13"/>
+      <c r="M200" s="13"/>
+      <c r="N200" s="13"/>
+      <c r="O200" s="13"/>
+      <c r="P200" s="13"/>
+      <c r="Q200" s="13"/>
+      <c r="R200" s="13"/>
+      <c r="S200" s="13"/>
+      <c r="T200" s="13"/>
+      <c r="U200" s="13"/>
+      <c r="V200" s="13"/>
+      <c r="W200" s="13"/>
+      <c r="X200" s="13"/>
+      <c r="Y200" s="13"/>
+      <c r="Z200" s="13"/>
+    </row>
+    <row r="202" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="H202" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="I202" s="14"/>
+      <c r="J202" s="14"/>
+      <c r="K202" s="14"/>
+      <c r="L202" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="M202" s="15"/>
+      <c r="N202" s="15"/>
+      <c r="O202" s="15"/>
+      <c r="P202" s="15"/>
+      <c r="Q202" s="1"/>
+      <c r="R202" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="S202" s="15"/>
+      <c r="T202" s="15"/>
+      <c r="U202" s="1"/>
+      <c r="V202" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="W202" s="15"/>
+      <c r="X202" s="15"/>
+      <c r="Y202" s="15"/>
+      <c r="Z202" s="15"/>
+    </row>
+    <row r="203" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="H203" s="14"/>
+      <c r="I203" s="14"/>
+      <c r="J203" s="14"/>
+      <c r="K203" s="14"/>
+      <c r="L203" s="15"/>
+      <c r="M203" s="15"/>
+      <c r="N203" s="15"/>
+      <c r="O203" s="15"/>
+      <c r="P203" s="15"/>
+      <c r="Q203" s="1"/>
+      <c r="R203" s="15"/>
+      <c r="S203" s="15"/>
+      <c r="T203" s="15"/>
+      <c r="U203" s="1"/>
+      <c r="V203" s="15"/>
+      <c r="W203" s="15"/>
+      <c r="X203" s="15"/>
+      <c r="Y203" s="15"/>
+      <c r="Z203" s="15"/>
+    </row>
+    <row r="205" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="H205" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I205" s="13"/>
+      <c r="J205" s="13"/>
+      <c r="K205" s="13"/>
+      <c r="L205" s="13"/>
+      <c r="M205" s="13"/>
+      <c r="N205" s="13"/>
+      <c r="O205" s="13"/>
+      <c r="P205" s="13"/>
+      <c r="Q205" s="13"/>
+      <c r="R205" s="13"/>
+      <c r="S205" s="13"/>
+      <c r="T205" s="13"/>
+      <c r="U205" s="13"/>
+      <c r="V205" s="13"/>
+      <c r="W205" s="13"/>
+      <c r="X205" s="13"/>
+      <c r="Y205" s="13"/>
+      <c r="Z205" s="13"/>
+    </row>
+    <row r="206" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="H206" s="13"/>
+      <c r="I206" s="13"/>
+      <c r="J206" s="13"/>
+      <c r="K206" s="13"/>
+      <c r="L206" s="13"/>
+      <c r="M206" s="13"/>
+      <c r="N206" s="13"/>
+      <c r="O206" s="13"/>
+      <c r="P206" s="13"/>
+      <c r="Q206" s="13"/>
+      <c r="R206" s="13"/>
+      <c r="S206" s="13"/>
+      <c r="T206" s="13"/>
+      <c r="U206" s="13"/>
+      <c r="V206" s="13"/>
+      <c r="W206" s="13"/>
+      <c r="X206" s="13"/>
+      <c r="Y206" s="13"/>
+      <c r="Z206" s="13"/>
+    </row>
+    <row r="208" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="H208" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="I208" s="14"/>
+      <c r="J208" s="14"/>
+      <c r="K208" s="14"/>
+      <c r="L208" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="M208" s="15"/>
+      <c r="N208" s="15"/>
+      <c r="O208" s="15"/>
+      <c r="P208" s="15"/>
+      <c r="Q208" s="1"/>
+      <c r="R208" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="S208" s="15"/>
+      <c r="T208" s="15"/>
+      <c r="U208" s="1"/>
+      <c r="V208" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="W208" s="15"/>
+      <c r="X208" s="15"/>
+      <c r="Y208" s="15"/>
+      <c r="Z208" s="15"/>
+    </row>
+    <row r="209" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="H209" s="14"/>
+      <c r="I209" s="14"/>
+      <c r="J209" s="14"/>
+      <c r="K209" s="14"/>
+      <c r="L209" s="15"/>
+      <c r="M209" s="15"/>
+      <c r="N209" s="15"/>
+      <c r="O209" s="15"/>
+      <c r="P209" s="15"/>
+      <c r="Q209" s="1"/>
+      <c r="R209" s="15"/>
+      <c r="S209" s="15"/>
+      <c r="T209" s="15"/>
+      <c r="U209" s="1"/>
+      <c r="V209" s="15"/>
+      <c r="W209" s="15"/>
+      <c r="X209" s="15"/>
+      <c r="Y209" s="15"/>
+      <c r="Z209" s="15"/>
+    </row>
+    <row r="211" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="H211" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I211" s="13"/>
+      <c r="J211" s="13"/>
+      <c r="K211" s="13"/>
+      <c r="L211" s="13"/>
+      <c r="M211" s="13"/>
+      <c r="N211" s="13"/>
+      <c r="O211" s="13"/>
+      <c r="P211" s="13"/>
+      <c r="Q211" s="13"/>
+      <c r="R211" s="13"/>
+      <c r="S211" s="13"/>
+      <c r="T211" s="13"/>
+      <c r="U211" s="13"/>
+      <c r="V211" s="13"/>
+      <c r="W211" s="13"/>
+      <c r="X211" s="13"/>
+      <c r="Y211" s="13"/>
+      <c r="Z211" s="13"/>
+    </row>
+    <row r="212" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="H212" s="13"/>
+      <c r="I212" s="13"/>
+      <c r="J212" s="13"/>
+      <c r="K212" s="13"/>
+      <c r="L212" s="13"/>
+      <c r="M212" s="13"/>
+      <c r="N212" s="13"/>
+      <c r="O212" s="13"/>
+      <c r="P212" s="13"/>
+      <c r="Q212" s="13"/>
+      <c r="R212" s="13"/>
+      <c r="S212" s="13"/>
+      <c r="T212" s="13"/>
+      <c r="U212" s="13"/>
+      <c r="V212" s="13"/>
+      <c r="W212" s="13"/>
+      <c r="X212" s="13"/>
+      <c r="Y212" s="13"/>
+      <c r="Z212" s="13"/>
+    </row>
+    <row r="214" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="H214" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="I214" s="14"/>
+      <c r="J214" s="14"/>
+      <c r="K214" s="14"/>
+      <c r="L214" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="M214" s="15"/>
+      <c r="N214" s="15"/>
+      <c r="O214" s="15"/>
+      <c r="P214" s="15"/>
+      <c r="Q214" s="1"/>
+      <c r="R214" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="S214" s="15"/>
+      <c r="T214" s="15"/>
+      <c r="U214" s="1"/>
+      <c r="V214" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="W214" s="15"/>
+      <c r="X214" s="15"/>
+      <c r="Y214" s="15"/>
+      <c r="Z214" s="15"/>
+    </row>
+    <row r="215" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="H215" s="14"/>
+      <c r="I215" s="14"/>
+      <c r="J215" s="14"/>
+      <c r="K215" s="14"/>
+      <c r="L215" s="15"/>
+      <c r="M215" s="15"/>
+      <c r="N215" s="15"/>
+      <c r="O215" s="15"/>
+      <c r="P215" s="15"/>
+      <c r="Q215" s="1"/>
+      <c r="R215" s="15"/>
+      <c r="S215" s="15"/>
+      <c r="T215" s="15"/>
+      <c r="U215" s="1"/>
+      <c r="V215" s="15"/>
+      <c r="W215" s="15"/>
+      <c r="X215" s="15"/>
+      <c r="Y215" s="15"/>
+      <c r="Z215" s="15"/>
+    </row>
+    <row r="217" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="H217" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I217" s="13"/>
+      <c r="J217" s="13"/>
+      <c r="K217" s="13"/>
+      <c r="L217" s="13"/>
+      <c r="M217" s="13"/>
+      <c r="N217" s="13"/>
+      <c r="O217" s="13"/>
+      <c r="P217" s="13"/>
+      <c r="Q217" s="13"/>
+      <c r="R217" s="13"/>
+      <c r="S217" s="13"/>
+      <c r="T217" s="13"/>
+      <c r="U217" s="13"/>
+      <c r="V217" s="13"/>
+      <c r="W217" s="13"/>
+      <c r="X217" s="13"/>
+      <c r="Y217" s="13"/>
+      <c r="Z217" s="13"/>
+    </row>
+    <row r="218" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="H218" s="13"/>
+      <c r="I218" s="13"/>
+      <c r="J218" s="13"/>
+      <c r="K218" s="13"/>
+      <c r="L218" s="13"/>
+      <c r="M218" s="13"/>
+      <c r="N218" s="13"/>
+      <c r="O218" s="13"/>
+      <c r="P218" s="13"/>
+      <c r="Q218" s="13"/>
+      <c r="R218" s="13"/>
+      <c r="S218" s="13"/>
+      <c r="T218" s="13"/>
+      <c r="U218" s="13"/>
+      <c r="V218" s="13"/>
+      <c r="W218" s="13"/>
+      <c r="X218" s="13"/>
+      <c r="Y218" s="13"/>
+      <c r="Z218" s="13"/>
+    </row>
+    <row r="220" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="H220" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="I220" s="14"/>
+      <c r="J220" s="14"/>
+      <c r="K220" s="14"/>
+      <c r="L220" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="M220" s="15"/>
+      <c r="N220" s="15"/>
+      <c r="O220" s="15"/>
+      <c r="P220" s="15"/>
+      <c r="Q220" s="1"/>
+      <c r="R220" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="S220" s="15"/>
+      <c r="T220" s="15"/>
+      <c r="U220" s="1"/>
+      <c r="V220" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="W220" s="15"/>
+      <c r="X220" s="15"/>
+      <c r="Y220" s="15"/>
+      <c r="Z220" s="15"/>
+    </row>
+    <row r="221" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="H221" s="14"/>
+      <c r="I221" s="14"/>
+      <c r="J221" s="14"/>
+      <c r="K221" s="14"/>
+      <c r="L221" s="15"/>
+      <c r="M221" s="15"/>
+      <c r="N221" s="15"/>
+      <c r="O221" s="15"/>
+      <c r="P221" s="15"/>
+      <c r="Q221" s="1"/>
+      <c r="R221" s="15"/>
+      <c r="S221" s="15"/>
+      <c r="T221" s="15"/>
+      <c r="U221" s="1"/>
+      <c r="V221" s="15"/>
+      <c r="W221" s="15"/>
+      <c r="X221" s="15"/>
+      <c r="Y221" s="15"/>
+      <c r="Z221" s="15"/>
+    </row>
+    <row r="223" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="H223" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I223" s="13"/>
+      <c r="J223" s="13"/>
+      <c r="K223" s="13"/>
+      <c r="L223" s="13"/>
+      <c r="M223" s="13"/>
+      <c r="N223" s="13"/>
+      <c r="O223" s="13"/>
+      <c r="P223" s="13"/>
+      <c r="Q223" s="13"/>
+      <c r="R223" s="13"/>
+      <c r="S223" s="13"/>
+      <c r="T223" s="13"/>
+      <c r="U223" s="13"/>
+      <c r="V223" s="13"/>
+      <c r="W223" s="13"/>
+      <c r="X223" s="13"/>
+      <c r="Y223" s="13"/>
+      <c r="Z223" s="13"/>
+    </row>
+    <row r="224" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="H224" s="13"/>
+      <c r="I224" s="13"/>
+      <c r="J224" s="13"/>
+      <c r="K224" s="13"/>
+      <c r="L224" s="13"/>
+      <c r="M224" s="13"/>
+      <c r="N224" s="13"/>
+      <c r="O224" s="13"/>
+      <c r="P224" s="13"/>
+      <c r="Q224" s="13"/>
+      <c r="R224" s="13"/>
+      <c r="S224" s="13"/>
+      <c r="T224" s="13"/>
+      <c r="U224" s="13"/>
+      <c r="V224" s="13"/>
+      <c r="W224" s="13"/>
+      <c r="X224" s="13"/>
+      <c r="Y224" s="13"/>
+      <c r="Z224" s="13"/>
+    </row>
+    <row r="226" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="H226" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="I226" s="14"/>
+      <c r="J226" s="14"/>
+      <c r="K226" s="14"/>
+      <c r="L226" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="M226" s="15"/>
+      <c r="N226" s="15"/>
+      <c r="O226" s="15"/>
+      <c r="P226" s="15"/>
+      <c r="Q226" s="1"/>
+      <c r="R226" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="S226" s="15"/>
+      <c r="T226" s="15"/>
+      <c r="U226" s="1"/>
+      <c r="V226" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="W226" s="15"/>
+      <c r="X226" s="15"/>
+      <c r="Y226" s="15"/>
+      <c r="Z226" s="15"/>
+    </row>
+    <row r="227" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="H227" s="14"/>
+      <c r="I227" s="14"/>
+      <c r="J227" s="14"/>
+      <c r="K227" s="14"/>
+      <c r="L227" s="15"/>
+      <c r="M227" s="15"/>
+      <c r="N227" s="15"/>
+      <c r="O227" s="15"/>
+      <c r="P227" s="15"/>
+      <c r="Q227" s="1"/>
+      <c r="R227" s="15"/>
+      <c r="S227" s="15"/>
+      <c r="T227" s="15"/>
+      <c r="U227" s="1"/>
+      <c r="V227" s="15"/>
+      <c r="W227" s="15"/>
+      <c r="X227" s="15"/>
+      <c r="Y227" s="15"/>
+      <c r="Z227" s="15"/>
+    </row>
+    <row r="229" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="H229" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I229" s="13"/>
+      <c r="J229" s="13"/>
+      <c r="K229" s="13"/>
+      <c r="L229" s="13"/>
+      <c r="M229" s="13"/>
+      <c r="N229" s="13"/>
+      <c r="O229" s="13"/>
+      <c r="P229" s="13"/>
+      <c r="Q229" s="13"/>
+      <c r="R229" s="13"/>
+      <c r="S229" s="13"/>
+      <c r="T229" s="13"/>
+      <c r="U229" s="13"/>
+      <c r="V229" s="13"/>
+      <c r="W229" s="13"/>
+      <c r="X229" s="13"/>
+      <c r="Y229" s="13"/>
+      <c r="Z229" s="13"/>
+    </row>
+    <row r="230" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="H230" s="13"/>
+      <c r="I230" s="13"/>
+      <c r="J230" s="13"/>
+      <c r="K230" s="13"/>
+      <c r="L230" s="13"/>
+      <c r="M230" s="13"/>
+      <c r="N230" s="13"/>
+      <c r="O230" s="13"/>
+      <c r="P230" s="13"/>
+      <c r="Q230" s="13"/>
+      <c r="R230" s="13"/>
+      <c r="S230" s="13"/>
+      <c r="T230" s="13"/>
+      <c r="U230" s="13"/>
+      <c r="V230" s="13"/>
+      <c r="W230" s="13"/>
+      <c r="X230" s="13"/>
+      <c r="Y230" s="13"/>
+      <c r="Z230" s="13"/>
+    </row>
+    <row r="232" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="H232" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="I232" s="14"/>
+      <c r="J232" s="14"/>
+      <c r="K232" s="14"/>
+      <c r="L232" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="M232" s="15"/>
+      <c r="N232" s="15"/>
+      <c r="O232" s="15"/>
+      <c r="P232" s="15"/>
+      <c r="Q232" s="1"/>
+      <c r="R232" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="S232" s="15"/>
+      <c r="T232" s="15"/>
+      <c r="U232" s="1"/>
+      <c r="V232" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="W232" s="15"/>
+      <c r="X232" s="15"/>
+      <c r="Y232" s="15"/>
+      <c r="Z232" s="15"/>
+    </row>
+    <row r="233" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="H233" s="14"/>
+      <c r="I233" s="14"/>
+      <c r="J233" s="14"/>
+      <c r="K233" s="14"/>
+      <c r="L233" s="15"/>
+      <c r="M233" s="15"/>
+      <c r="N233" s="15"/>
+      <c r="O233" s="15"/>
+      <c r="P233" s="15"/>
+      <c r="Q233" s="1"/>
+      <c r="R233" s="15"/>
+      <c r="S233" s="15"/>
+      <c r="T233" s="15"/>
+      <c r="U233" s="1"/>
+      <c r="V233" s="15"/>
+      <c r="W233" s="15"/>
+      <c r="X233" s="15"/>
+      <c r="Y233" s="15"/>
+      <c r="Z233" s="15"/>
+    </row>
+    <row r="235" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="H235" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I235" s="13"/>
+      <c r="J235" s="13"/>
+      <c r="K235" s="13"/>
+      <c r="L235" s="13"/>
+      <c r="M235" s="13"/>
+      <c r="N235" s="13"/>
+      <c r="O235" s="13"/>
+      <c r="P235" s="13"/>
+      <c r="Q235" s="13"/>
+      <c r="R235" s="13"/>
+      <c r="S235" s="13"/>
+      <c r="T235" s="13"/>
+      <c r="U235" s="13"/>
+      <c r="V235" s="13"/>
+      <c r="W235" s="13"/>
+      <c r="X235" s="13"/>
+      <c r="Y235" s="13"/>
+      <c r="Z235" s="13"/>
+    </row>
+    <row r="236" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="H236" s="13"/>
+      <c r="I236" s="13"/>
+      <c r="J236" s="13"/>
+      <c r="K236" s="13"/>
+      <c r="L236" s="13"/>
+      <c r="M236" s="13"/>
+      <c r="N236" s="13"/>
+      <c r="O236" s="13"/>
+      <c r="P236" s="13"/>
+      <c r="Q236" s="13"/>
+      <c r="R236" s="13"/>
+      <c r="S236" s="13"/>
+      <c r="T236" s="13"/>
+      <c r="U236" s="13"/>
+      <c r="V236" s="13"/>
+      <c r="W236" s="13"/>
+      <c r="X236" s="13"/>
+      <c r="Y236" s="13"/>
+      <c r="Z236" s="13"/>
+    </row>
+    <row r="238" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="H238" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="I238" s="14"/>
+      <c r="J238" s="14"/>
+      <c r="K238" s="14"/>
+      <c r="L238" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="M238" s="15"/>
+      <c r="N238" s="15"/>
+      <c r="O238" s="15"/>
+      <c r="P238" s="15"/>
+      <c r="Q238" s="1"/>
+      <c r="R238" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="S238" s="15"/>
+      <c r="T238" s="15"/>
+      <c r="U238" s="1"/>
+      <c r="V238" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="W238" s="15"/>
+      <c r="X238" s="15"/>
+      <c r="Y238" s="15"/>
+      <c r="Z238" s="15"/>
+    </row>
+    <row r="239" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="H239" s="14"/>
+      <c r="I239" s="14"/>
+      <c r="J239" s="14"/>
+      <c r="K239" s="14"/>
+      <c r="L239" s="15"/>
+      <c r="M239" s="15"/>
+      <c r="N239" s="15"/>
+      <c r="O239" s="15"/>
+      <c r="P239" s="15"/>
+      <c r="Q239" s="1"/>
+      <c r="R239" s="15"/>
+      <c r="S239" s="15"/>
+      <c r="T239" s="15"/>
+      <c r="U239" s="1"/>
+      <c r="V239" s="15"/>
+      <c r="W239" s="15"/>
+      <c r="X239" s="15"/>
+      <c r="Y239" s="15"/>
+      <c r="Z239" s="15"/>
+    </row>
+    <row r="241" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="H241" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I241" s="13"/>
+      <c r="J241" s="13"/>
+      <c r="K241" s="13"/>
+      <c r="L241" s="13"/>
+      <c r="M241" s="13"/>
+      <c r="N241" s="13"/>
+      <c r="O241" s="13"/>
+      <c r="P241" s="13"/>
+      <c r="Q241" s="13"/>
+      <c r="R241" s="13"/>
+      <c r="S241" s="13"/>
+      <c r="T241" s="13"/>
+      <c r="U241" s="13"/>
+      <c r="V241" s="13"/>
+      <c r="W241" s="13"/>
+      <c r="X241" s="13"/>
+      <c r="Y241" s="13"/>
+      <c r="Z241" s="13"/>
+    </row>
+    <row r="242" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="H242" s="13"/>
+      <c r="I242" s="13"/>
+      <c r="J242" s="13"/>
+      <c r="K242" s="13"/>
+      <c r="L242" s="13"/>
+      <c r="M242" s="13"/>
+      <c r="N242" s="13"/>
+      <c r="O242" s="13"/>
+      <c r="P242" s="13"/>
+      <c r="Q242" s="13"/>
+      <c r="R242" s="13"/>
+      <c r="S242" s="13"/>
+      <c r="T242" s="13"/>
+      <c r="U242" s="13"/>
+      <c r="V242" s="13"/>
+      <c r="W242" s="13"/>
+      <c r="X242" s="13"/>
+      <c r="Y242" s="13"/>
+      <c r="Z242" s="13"/>
+    </row>
+    <row r="244" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="H244" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="I244" s="14"/>
+      <c r="J244" s="14"/>
+      <c r="K244" s="14"/>
+      <c r="L244" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="M244" s="15"/>
+      <c r="N244" s="15"/>
+      <c r="O244" s="15"/>
+      <c r="P244" s="15"/>
+      <c r="Q244" s="1"/>
+      <c r="R244" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="S244" s="15"/>
+      <c r="T244" s="15"/>
+      <c r="U244" s="1"/>
+      <c r="V244" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="W244" s="15"/>
+      <c r="X244" s="15"/>
+      <c r="Y244" s="15"/>
+      <c r="Z244" s="15"/>
+    </row>
+    <row r="245" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="H245" s="14"/>
+      <c r="I245" s="14"/>
+      <c r="J245" s="14"/>
+      <c r="K245" s="14"/>
+      <c r="L245" s="15"/>
+      <c r="M245" s="15"/>
+      <c r="N245" s="15"/>
+      <c r="O245" s="15"/>
+      <c r="P245" s="15"/>
+      <c r="Q245" s="1"/>
+      <c r="R245" s="15"/>
+      <c r="S245" s="15"/>
+      <c r="T245" s="15"/>
+      <c r="U245" s="1"/>
+      <c r="V245" s="15"/>
+      <c r="W245" s="15"/>
+      <c r="X245" s="15"/>
+      <c r="Y245" s="15"/>
+      <c r="Z245" s="15"/>
+    </row>
+    <row r="247" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="H247" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I247" s="13"/>
+      <c r="J247" s="13"/>
+      <c r="K247" s="13"/>
+      <c r="L247" s="13"/>
+      <c r="M247" s="13"/>
+      <c r="N247" s="13"/>
+      <c r="O247" s="13"/>
+      <c r="P247" s="13"/>
+      <c r="Q247" s="13"/>
+      <c r="R247" s="13"/>
+      <c r="S247" s="13"/>
+      <c r="T247" s="13"/>
+      <c r="U247" s="13"/>
+      <c r="V247" s="13"/>
+      <c r="W247" s="13"/>
+      <c r="X247" s="13"/>
+      <c r="Y247" s="13"/>
+      <c r="Z247" s="13"/>
+    </row>
+    <row r="248" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="H248" s="13"/>
+      <c r="I248" s="13"/>
+      <c r="J248" s="13"/>
+      <c r="K248" s="13"/>
+      <c r="L248" s="13"/>
+      <c r="M248" s="13"/>
+      <c r="N248" s="13"/>
+      <c r="O248" s="13"/>
+      <c r="P248" s="13"/>
+      <c r="Q248" s="13"/>
+      <c r="R248" s="13"/>
+      <c r="S248" s="13"/>
+      <c r="T248" s="13"/>
+      <c r="U248" s="13"/>
+      <c r="V248" s="13"/>
+      <c r="W248" s="13"/>
+      <c r="X248" s="13"/>
+      <c r="Y248" s="13"/>
+      <c r="Z248" s="13"/>
+    </row>
+    <row r="250" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="H250" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="I250" s="14"/>
+      <c r="J250" s="14"/>
+      <c r="K250" s="14"/>
+      <c r="L250" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="M250" s="15"/>
+      <c r="N250" s="15"/>
+      <c r="O250" s="15"/>
+      <c r="P250" s="15"/>
+      <c r="Q250" s="1"/>
+      <c r="R250" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="S250" s="15"/>
+      <c r="T250" s="15"/>
+      <c r="U250" s="1"/>
+      <c r="V250" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="W250" s="15"/>
+      <c r="X250" s="15"/>
+      <c r="Y250" s="15"/>
+      <c r="Z250" s="15"/>
+    </row>
+    <row r="251" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="H251" s="14"/>
+      <c r="I251" s="14"/>
+      <c r="J251" s="14"/>
+      <c r="K251" s="14"/>
+      <c r="L251" s="15"/>
+      <c r="M251" s="15"/>
+      <c r="N251" s="15"/>
+      <c r="O251" s="15"/>
+      <c r="P251" s="15"/>
+      <c r="Q251" s="1"/>
+      <c r="R251" s="15"/>
+      <c r="S251" s="15"/>
+      <c r="T251" s="15"/>
+      <c r="U251" s="1"/>
+      <c r="V251" s="15"/>
+      <c r="W251" s="15"/>
+      <c r="X251" s="15"/>
+      <c r="Y251" s="15"/>
+      <c r="Z251" s="15"/>
+    </row>
+    <row r="253" spans="8:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="254" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="I254" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K254" s="9">
+        <v>1</v>
+      </c>
+      <c r="L254" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="M254" s="10"/>
+      <c r="N254" s="10"/>
+      <c r="O254" s="10"/>
+      <c r="P254" s="10"/>
+      <c r="Q254" s="1"/>
+      <c r="R254" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="S254" s="11"/>
+      <c r="T254" s="11"/>
+      <c r="V254" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="W254" s="13"/>
+      <c r="X254" s="13"/>
+      <c r="Y254" s="13"/>
+      <c r="Z254" s="13"/>
+    </row>
+    <row r="255" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="I255" s="12"/>
+      <c r="K255" s="9"/>
+      <c r="L255" s="10"/>
+      <c r="M255" s="10"/>
+      <c r="N255" s="10"/>
+      <c r="O255" s="10"/>
+      <c r="P255" s="10"/>
+      <c r="Q255" s="1"/>
+      <c r="R255" s="11"/>
+      <c r="S255" s="11"/>
+      <c r="T255" s="11"/>
+      <c r="V255" s="13"/>
+      <c r="W255" s="13"/>
+      <c r="X255" s="13"/>
+      <c r="Y255" s="13"/>
+      <c r="Z255" s="13"/>
+    </row>
+    <row r="256" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="I256" s="12"/>
+    </row>
+    <row r="257" spans="9:26" x14ac:dyDescent="0.45">
+      <c r="I257" s="12"/>
+      <c r="K257" s="9">
+        <v>2</v>
+      </c>
+      <c r="L257" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="M257" s="11"/>
+      <c r="N257" s="11"/>
+      <c r="O257" s="11"/>
+      <c r="P257" s="11"/>
+      <c r="Q257" s="1"/>
+      <c r="R257" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="S257" s="11"/>
+      <c r="T257" s="11"/>
+      <c r="V257" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="W257" s="13"/>
+      <c r="X257" s="13"/>
+      <c r="Y257" s="13"/>
+      <c r="Z257" s="13"/>
+    </row>
+    <row r="258" spans="9:26" x14ac:dyDescent="0.45">
+      <c r="I258" s="12"/>
+      <c r="K258" s="9"/>
+      <c r="L258" s="11"/>
+      <c r="M258" s="11"/>
+      <c r="N258" s="11"/>
+      <c r="O258" s="11"/>
+      <c r="P258" s="11"/>
+      <c r="Q258" s="1"/>
+      <c r="R258" s="11"/>
+      <c r="S258" s="11"/>
+      <c r="T258" s="11"/>
+      <c r="V258" s="13"/>
+      <c r="W258" s="13"/>
+      <c r="X258" s="13"/>
+      <c r="Y258" s="13"/>
+      <c r="Z258" s="13"/>
+    </row>
+    <row r="259" spans="9:26" x14ac:dyDescent="0.45">
+      <c r="I259" s="12"/>
+    </row>
+    <row r="260" spans="9:26" x14ac:dyDescent="0.45">
+      <c r="I260" s="12"/>
+      <c r="K260" s="9">
+        <v>3</v>
+      </c>
+      <c r="L260" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="M260" s="11"/>
+      <c r="N260" s="11"/>
+      <c r="O260" s="11"/>
+      <c r="P260" s="11"/>
+      <c r="Q260" s="1"/>
+      <c r="R260" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="S260" s="11"/>
+      <c r="T260" s="11"/>
+      <c r="V260" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="W260" s="13"/>
+      <c r="X260" s="13"/>
+      <c r="Y260" s="13"/>
+      <c r="Z260" s="13"/>
+    </row>
+    <row r="261" spans="9:26" x14ac:dyDescent="0.45">
+      <c r="I261" s="12"/>
+      <c r="K261" s="9"/>
+      <c r="L261" s="11"/>
+      <c r="M261" s="11"/>
+      <c r="N261" s="11"/>
+      <c r="O261" s="11"/>
+      <c r="P261" s="11"/>
+      <c r="Q261" s="1"/>
+      <c r="R261" s="11"/>
+      <c r="S261" s="11"/>
+      <c r="T261" s="11"/>
+      <c r="V261" s="13"/>
+      <c r="W261" s="13"/>
+      <c r="X261" s="13"/>
+      <c r="Y261" s="13"/>
+      <c r="Z261" s="13"/>
+    </row>
+    <row r="262" spans="9:26" x14ac:dyDescent="0.45">
+      <c r="I262" s="12"/>
+    </row>
+    <row r="263" spans="9:26" x14ac:dyDescent="0.45">
+      <c r="I263" s="12"/>
+      <c r="K263" s="9">
+        <v>4</v>
+      </c>
+      <c r="L263" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="M263" s="11"/>
+      <c r="N263" s="11"/>
+      <c r="O263" s="11"/>
+      <c r="P263" s="11"/>
+      <c r="Q263" s="1"/>
+      <c r="R263" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="S263" s="11"/>
+      <c r="T263" s="11"/>
+      <c r="V263" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="W263" s="13"/>
+      <c r="X263" s="13"/>
+      <c r="Y263" s="13"/>
+      <c r="Z263" s="13"/>
+    </row>
+    <row r="264" spans="9:26" x14ac:dyDescent="0.45">
+      <c r="I264" s="12"/>
+      <c r="K264" s="9"/>
+      <c r="L264" s="11"/>
+      <c r="M264" s="11"/>
+      <c r="N264" s="11"/>
+      <c r="O264" s="11"/>
+      <c r="P264" s="11"/>
+      <c r="Q264" s="1"/>
+      <c r="R264" s="11"/>
+      <c r="S264" s="11"/>
+      <c r="T264" s="11"/>
+      <c r="V264" s="13"/>
+      <c r="W264" s="13"/>
+      <c r="X264" s="13"/>
+      <c r="Y264" s="13"/>
+      <c r="Z264" s="13"/>
+    </row>
+    <row r="265" spans="9:26" x14ac:dyDescent="0.45">
+      <c r="I265" s="12"/>
+    </row>
+    <row r="266" spans="9:26" x14ac:dyDescent="0.45">
+      <c r="I266" s="12"/>
+      <c r="K266" s="9">
+        <v>5</v>
+      </c>
+      <c r="L266" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="M266" s="11"/>
+      <c r="N266" s="11"/>
+      <c r="O266" s="11"/>
+      <c r="P266" s="11"/>
+      <c r="Q266" s="1"/>
+      <c r="R266" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="S266" s="11"/>
+      <c r="T266" s="11"/>
+      <c r="V266" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="W266" s="13"/>
+      <c r="X266" s="13"/>
+      <c r="Y266" s="13"/>
+      <c r="Z266" s="13"/>
+    </row>
+    <row r="267" spans="9:26" x14ac:dyDescent="0.45">
+      <c r="I267" s="12"/>
+      <c r="K267" s="9"/>
+      <c r="L267" s="11"/>
+      <c r="M267" s="11"/>
+      <c r="N267" s="11"/>
+      <c r="O267" s="11"/>
+      <c r="P267" s="11"/>
+      <c r="Q267" s="1"/>
+      <c r="R267" s="11"/>
+      <c r="S267" s="11"/>
+      <c r="T267" s="11"/>
+      <c r="V267" s="13"/>
+      <c r="W267" s="13"/>
+      <c r="X267" s="13"/>
+      <c r="Y267" s="13"/>
+      <c r="Z267" s="13"/>
+    </row>
+    <row r="269" spans="9:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I269" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="K269" s="9">
+        <v>1</v>
+      </c>
+      <c r="L269" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="M269" s="10"/>
+      <c r="N269" s="10"/>
+      <c r="O269" s="10"/>
+      <c r="P269" s="10"/>
+      <c r="Q269" s="1"/>
+      <c r="R269" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="S269" s="11"/>
+      <c r="T269" s="11"/>
+      <c r="V269" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="W269" s="17"/>
+      <c r="X269" s="17"/>
+      <c r="Y269" s="17"/>
+      <c r="Z269" s="17"/>
+    </row>
+    <row r="270" spans="9:26" x14ac:dyDescent="0.45">
+      <c r="I270" s="8"/>
+      <c r="K270" s="9"/>
+      <c r="L270" s="10"/>
+      <c r="M270" s="10"/>
+      <c r="N270" s="10"/>
+      <c r="O270" s="10"/>
+      <c r="P270" s="10"/>
+      <c r="Q270" s="1"/>
+      <c r="R270" s="11"/>
+      <c r="S270" s="11"/>
+      <c r="T270" s="11"/>
+      <c r="V270" s="17"/>
+      <c r="W270" s="17"/>
+      <c r="X270" s="17"/>
+      <c r="Y270" s="17"/>
+      <c r="Z270" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="232">
+  <mergeCells count="317">
+    <mergeCell ref="V269:Z270"/>
     <mergeCell ref="K181:K182"/>
     <mergeCell ref="L181:P182"/>
     <mergeCell ref="R181:T182"/>
@@ -4667,6 +6071,10 @@
     <mergeCell ref="R174:T175"/>
     <mergeCell ref="V174:Z175"/>
     <mergeCell ref="K177:K178"/>
+    <mergeCell ref="R136:T137"/>
+    <mergeCell ref="K139:K140"/>
+    <mergeCell ref="L139:P140"/>
+    <mergeCell ref="K123:K124"/>
     <mergeCell ref="L177:P178"/>
     <mergeCell ref="R177:T178"/>
     <mergeCell ref="V177:Z178"/>
@@ -4677,11 +6085,19 @@
     <mergeCell ref="V148:Z149"/>
     <mergeCell ref="V158:Z159"/>
     <mergeCell ref="R139:T140"/>
-    <mergeCell ref="H161:K162"/>
-    <mergeCell ref="L161:P162"/>
-    <mergeCell ref="R161:T162"/>
-    <mergeCell ref="V161:Z162"/>
-    <mergeCell ref="R110:T111"/>
+    <mergeCell ref="G115:G118"/>
+    <mergeCell ref="K113:K114"/>
+    <mergeCell ref="L113:P114"/>
+    <mergeCell ref="R113:T114"/>
+    <mergeCell ref="K117:K118"/>
+    <mergeCell ref="L117:P118"/>
+    <mergeCell ref="R117:T118"/>
+    <mergeCell ref="K158:K159"/>
+    <mergeCell ref="L158:P159"/>
+    <mergeCell ref="R158:T159"/>
+    <mergeCell ref="K155:K156"/>
+    <mergeCell ref="L155:P156"/>
+    <mergeCell ref="R155:T156"/>
     <mergeCell ref="K129:K130"/>
     <mergeCell ref="L129:P130"/>
     <mergeCell ref="R129:T130"/>
@@ -4692,30 +6108,7 @@
     <mergeCell ref="L148:P149"/>
     <mergeCell ref="R148:T149"/>
     <mergeCell ref="I117:I130"/>
-    <mergeCell ref="V155:Z156"/>
-    <mergeCell ref="V152:Z153"/>
     <mergeCell ref="I136:I149"/>
-    <mergeCell ref="K136:K137"/>
-    <mergeCell ref="L136:P137"/>
-    <mergeCell ref="R136:T137"/>
-    <mergeCell ref="K139:K140"/>
-    <mergeCell ref="L139:P140"/>
-    <mergeCell ref="K123:K124"/>
-    <mergeCell ref="L123:P124"/>
-    <mergeCell ref="R123:T124"/>
-    <mergeCell ref="K126:K127"/>
-    <mergeCell ref="L126:P127"/>
-    <mergeCell ref="R126:T127"/>
-    <mergeCell ref="L107:P108"/>
-    <mergeCell ref="R107:T108"/>
-    <mergeCell ref="I152:I159"/>
-    <mergeCell ref="G115:G118"/>
-    <mergeCell ref="K113:K114"/>
-    <mergeCell ref="L113:P114"/>
-    <mergeCell ref="R113:T114"/>
-    <mergeCell ref="K117:K118"/>
-    <mergeCell ref="L117:P118"/>
-    <mergeCell ref="R117:T118"/>
     <mergeCell ref="V75:Z76"/>
     <mergeCell ref="V78:Z79"/>
     <mergeCell ref="V81:Z82"/>
@@ -4729,6 +6122,8 @@
     <mergeCell ref="R87:T88"/>
     <mergeCell ref="L94:P95"/>
     <mergeCell ref="R94:T95"/>
+    <mergeCell ref="L81:P82"/>
+    <mergeCell ref="R81:T82"/>
     <mergeCell ref="G88:G91"/>
     <mergeCell ref="K91:K92"/>
     <mergeCell ref="L91:P92"/>
@@ -4817,8 +6212,6 @@
     <mergeCell ref="L59:P60"/>
     <mergeCell ref="R59:T60"/>
     <mergeCell ref="V59:Z60"/>
-    <mergeCell ref="L81:P82"/>
-    <mergeCell ref="R81:T82"/>
     <mergeCell ref="K84:K85"/>
     <mergeCell ref="L84:P85"/>
     <mergeCell ref="R84:T85"/>
@@ -4841,11 +6234,12 @@
     <mergeCell ref="R104:T105"/>
     <mergeCell ref="K107:K108"/>
     <mergeCell ref="I101:I114"/>
-    <mergeCell ref="K158:K159"/>
-    <mergeCell ref="L158:P159"/>
-    <mergeCell ref="R158:T159"/>
     <mergeCell ref="V101:Z102"/>
     <mergeCell ref="V104:Z105"/>
+    <mergeCell ref="G150:G153"/>
+    <mergeCell ref="K152:K153"/>
+    <mergeCell ref="L152:P153"/>
+    <mergeCell ref="R152:T153"/>
     <mergeCell ref="V107:Z108"/>
     <mergeCell ref="V110:Z111"/>
     <mergeCell ref="V113:Z114"/>
@@ -4862,19 +6256,113 @@
     <mergeCell ref="K110:K111"/>
     <mergeCell ref="L110:P111"/>
     <mergeCell ref="V123:Z124"/>
+    <mergeCell ref="L123:P124"/>
+    <mergeCell ref="R123:T124"/>
+    <mergeCell ref="K126:K127"/>
+    <mergeCell ref="L126:P127"/>
+    <mergeCell ref="H184:K185"/>
+    <mergeCell ref="L184:P185"/>
+    <mergeCell ref="R184:T185"/>
+    <mergeCell ref="V184:Z185"/>
+    <mergeCell ref="H187:Z188"/>
     <mergeCell ref="K101:K102"/>
     <mergeCell ref="L101:P102"/>
     <mergeCell ref="R101:T102"/>
     <mergeCell ref="K142:K143"/>
     <mergeCell ref="L142:P143"/>
     <mergeCell ref="R142:T143"/>
-    <mergeCell ref="G150:G153"/>
-    <mergeCell ref="K152:K153"/>
-    <mergeCell ref="L152:P153"/>
-    <mergeCell ref="R152:T153"/>
-    <mergeCell ref="K155:K156"/>
-    <mergeCell ref="L155:P156"/>
-    <mergeCell ref="R155:T156"/>
+    <mergeCell ref="R126:T127"/>
+    <mergeCell ref="L107:P108"/>
+    <mergeCell ref="R107:T108"/>
+    <mergeCell ref="I152:I159"/>
+    <mergeCell ref="H161:K162"/>
+    <mergeCell ref="L161:P162"/>
+    <mergeCell ref="R161:T162"/>
+    <mergeCell ref="V161:Z162"/>
+    <mergeCell ref="R110:T111"/>
+    <mergeCell ref="V155:Z156"/>
+    <mergeCell ref="V152:Z153"/>
+    <mergeCell ref="K136:K137"/>
+    <mergeCell ref="L136:P137"/>
+    <mergeCell ref="H190:K191"/>
+    <mergeCell ref="L190:P191"/>
+    <mergeCell ref="R190:T191"/>
+    <mergeCell ref="V190:Z191"/>
+    <mergeCell ref="H193:Z194"/>
+    <mergeCell ref="H196:K197"/>
+    <mergeCell ref="L196:P197"/>
+    <mergeCell ref="R196:T197"/>
+    <mergeCell ref="V196:Z197"/>
+    <mergeCell ref="H199:Z200"/>
+    <mergeCell ref="H202:K203"/>
+    <mergeCell ref="L202:P203"/>
+    <mergeCell ref="R202:T203"/>
+    <mergeCell ref="V202:Z203"/>
+    <mergeCell ref="H205:Z206"/>
+    <mergeCell ref="H208:K209"/>
+    <mergeCell ref="L208:P209"/>
+    <mergeCell ref="R208:T209"/>
+    <mergeCell ref="V208:Z209"/>
+    <mergeCell ref="H211:Z212"/>
+    <mergeCell ref="H214:K215"/>
+    <mergeCell ref="L214:P215"/>
+    <mergeCell ref="R214:T215"/>
+    <mergeCell ref="V214:Z215"/>
+    <mergeCell ref="H217:Z218"/>
+    <mergeCell ref="H220:K221"/>
+    <mergeCell ref="L220:P221"/>
+    <mergeCell ref="R220:T221"/>
+    <mergeCell ref="V220:Z221"/>
+    <mergeCell ref="H223:Z224"/>
+    <mergeCell ref="H226:K227"/>
+    <mergeCell ref="L226:P227"/>
+    <mergeCell ref="R226:T227"/>
+    <mergeCell ref="V226:Z227"/>
+    <mergeCell ref="H229:Z230"/>
+    <mergeCell ref="H232:K233"/>
+    <mergeCell ref="L232:P233"/>
+    <mergeCell ref="R232:T233"/>
+    <mergeCell ref="V232:Z233"/>
+    <mergeCell ref="V266:Z267"/>
+    <mergeCell ref="H247:Z248"/>
+    <mergeCell ref="H250:K251"/>
+    <mergeCell ref="L250:P251"/>
+    <mergeCell ref="R250:T251"/>
+    <mergeCell ref="V250:Z251"/>
+    <mergeCell ref="H235:Z236"/>
+    <mergeCell ref="H238:K239"/>
+    <mergeCell ref="L238:P239"/>
+    <mergeCell ref="R238:T239"/>
+    <mergeCell ref="V238:Z239"/>
+    <mergeCell ref="H241:Z242"/>
+    <mergeCell ref="H244:K245"/>
+    <mergeCell ref="L244:P245"/>
+    <mergeCell ref="R244:T245"/>
+    <mergeCell ref="V244:Z245"/>
+    <mergeCell ref="I269:I270"/>
+    <mergeCell ref="K269:K270"/>
+    <mergeCell ref="L269:P270"/>
+    <mergeCell ref="R269:T270"/>
+    <mergeCell ref="I254:I267"/>
+    <mergeCell ref="K254:K255"/>
+    <mergeCell ref="L254:P255"/>
+    <mergeCell ref="R254:T255"/>
+    <mergeCell ref="V254:Z255"/>
+    <mergeCell ref="K257:K258"/>
+    <mergeCell ref="L257:P258"/>
+    <mergeCell ref="R257:T258"/>
+    <mergeCell ref="V257:Z258"/>
+    <mergeCell ref="K260:K261"/>
+    <mergeCell ref="L260:P261"/>
+    <mergeCell ref="R260:T261"/>
+    <mergeCell ref="V260:Z261"/>
+    <mergeCell ref="K263:K264"/>
+    <mergeCell ref="L263:P264"/>
+    <mergeCell ref="R263:T264"/>
+    <mergeCell ref="V263:Z264"/>
+    <mergeCell ref="K266:K267"/>
+    <mergeCell ref="L266:P267"/>
+    <mergeCell ref="R266:T267"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4884,53 +6372,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C6280AF-F913-4213-90F7-5D60D9FFA09E}">
   <dimension ref="F2:Y51"/>
   <sheetViews>
-    <sheetView topLeftCell="E22" zoomScale="93" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44:P45"/>
+    <sheetView topLeftCell="D2" zoomScale="93" workbookViewId="0">
+      <selection activeCell="R32" sqref="R32:Y33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="2" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="R2" s="24" t="s">
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="R2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
     </row>
     <row r="3" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="24"/>
-      <c r="X3" s="24"/>
-      <c r="Y3" s="24"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
     </row>
     <row r="5" spans="6:25" x14ac:dyDescent="0.45">
       <c r="F5" s="21">
@@ -4947,16 +6435,16 @@
       <c r="N5" s="21"/>
       <c r="O5" s="21"/>
       <c r="P5" s="21"/>
-      <c r="R5" s="22" t="s">
+      <c r="R5" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
-      <c r="U5" s="23"/>
-      <c r="V5" s="23"/>
-      <c r="W5" s="23"/>
-      <c r="X5" s="23"/>
-      <c r="Y5" s="23"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
+      <c r="X5" s="22"/>
+      <c r="Y5" s="22"/>
     </row>
     <row r="6" spans="6:25" x14ac:dyDescent="0.45">
       <c r="F6" s="21"/>
@@ -4969,14 +6457,14 @@
       <c r="N6" s="21"/>
       <c r="O6" s="21"/>
       <c r="P6" s="21"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23"/>
-      <c r="U6" s="23"/>
-      <c r="V6" s="23"/>
-      <c r="W6" s="23"/>
-      <c r="X6" s="23"/>
-      <c r="Y6" s="23"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="22"/>
+      <c r="Y6" s="22"/>
     </row>
     <row r="8" spans="6:25" x14ac:dyDescent="0.45">
       <c r="F8" s="21">
@@ -4993,16 +6481,16 @@
       <c r="N8" s="21"/>
       <c r="O8" s="21"/>
       <c r="P8" s="21"/>
-      <c r="R8" s="20" t="s">
+      <c r="R8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="20"/>
-      <c r="W8" s="20"/>
-      <c r="X8" s="20"/>
-      <c r="Y8" s="20"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
     </row>
     <row r="9" spans="6:25" x14ac:dyDescent="0.45">
       <c r="F9" s="21"/>
@@ -5015,14 +6503,14 @@
       <c r="N9" s="21"/>
       <c r="O9" s="21"/>
       <c r="P9" s="21"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="20"/>
-      <c r="V9" s="20"/>
-      <c r="W9" s="20"/>
-      <c r="X9" s="20"/>
-      <c r="Y9" s="20"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
     </row>
     <row r="11" spans="6:25" x14ac:dyDescent="0.45">
       <c r="F11" s="21">
@@ -5039,16 +6527,16 @@
       <c r="N11" s="21"/>
       <c r="O11" s="21"/>
       <c r="P11" s="21"/>
-      <c r="R11" s="20" t="s">
+      <c r="R11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="S11" s="20"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="20"/>
-      <c r="V11" s="20"/>
-      <c r="W11" s="20"/>
-      <c r="X11" s="20"/>
-      <c r="Y11" s="20"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
     </row>
     <row r="12" spans="6:25" x14ac:dyDescent="0.45">
       <c r="F12" s="21"/>
@@ -5061,14 +6549,14 @@
       <c r="N12" s="21"/>
       <c r="O12" s="21"/>
       <c r="P12" s="21"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="20"/>
-      <c r="V12" s="20"/>
-      <c r="W12" s="20"/>
-      <c r="X12" s="20"/>
-      <c r="Y12" s="20"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
     </row>
     <row r="14" spans="6:25" x14ac:dyDescent="0.45">
       <c r="F14" s="21">
@@ -5085,16 +6573,16 @@
       <c r="N14" s="21"/>
       <c r="O14" s="21"/>
       <c r="P14" s="21"/>
-      <c r="R14" s="20" t="s">
+      <c r="R14" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="20"/>
-      <c r="V14" s="20"/>
-      <c r="W14" s="20"/>
-      <c r="X14" s="20"/>
-      <c r="Y14" s="20"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
     </row>
     <row r="15" spans="6:25" x14ac:dyDescent="0.45">
       <c r="F15" s="21"/>
@@ -5107,14 +6595,14 @@
       <c r="N15" s="21"/>
       <c r="O15" s="21"/>
       <c r="P15" s="21"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="20"/>
-      <c r="T15" s="20"/>
-      <c r="U15" s="20"/>
-      <c r="V15" s="20"/>
-      <c r="W15" s="20"/>
-      <c r="X15" s="20"/>
-      <c r="Y15" s="20"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
     </row>
     <row r="17" spans="6:25" x14ac:dyDescent="0.45">
       <c r="F17" s="21">
@@ -5177,16 +6665,16 @@
       <c r="N20" s="21"/>
       <c r="O20" s="21"/>
       <c r="P20" s="21"/>
-      <c r="R20" s="20" t="s">
+      <c r="R20" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="S20" s="20"/>
-      <c r="T20" s="20"/>
-      <c r="U20" s="20"/>
-      <c r="V20" s="20"/>
-      <c r="W20" s="20"/>
-      <c r="X20" s="20"/>
-      <c r="Y20" s="20"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
     </row>
     <row r="21" spans="6:25" x14ac:dyDescent="0.45">
       <c r="F21" s="21"/>
@@ -5199,14 +6687,14 @@
       <c r="N21" s="21"/>
       <c r="O21" s="21"/>
       <c r="P21" s="21"/>
-      <c r="R21" s="20"/>
-      <c r="S21" s="20"/>
-      <c r="T21" s="20"/>
-      <c r="U21" s="20"/>
-      <c r="V21" s="20"/>
-      <c r="W21" s="20"/>
-      <c r="X21" s="20"/>
-      <c r="Y21" s="20"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
     </row>
     <row r="23" spans="6:25" x14ac:dyDescent="0.45">
       <c r="F23" s="21">
@@ -5223,16 +6711,16 @@
       <c r="N23" s="21"/>
       <c r="O23" s="21"/>
       <c r="P23" s="21"/>
-      <c r="R23" s="20" t="s">
+      <c r="R23" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="S23" s="20"/>
-      <c r="T23" s="20"/>
-      <c r="U23" s="20"/>
-      <c r="V23" s="20"/>
-      <c r="W23" s="20"/>
-      <c r="X23" s="20"/>
-      <c r="Y23" s="20"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
     </row>
     <row r="24" spans="6:25" x14ac:dyDescent="0.45">
       <c r="F24" s="21"/>
@@ -5245,14 +6733,14 @@
       <c r="N24" s="21"/>
       <c r="O24" s="21"/>
       <c r="P24" s="21"/>
-      <c r="R24" s="20"/>
-      <c r="S24" s="20"/>
-      <c r="T24" s="20"/>
-      <c r="U24" s="20"/>
-      <c r="V24" s="20"/>
-      <c r="W24" s="20"/>
-      <c r="X24" s="20"/>
-      <c r="Y24" s="20"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
     </row>
     <row r="26" spans="6:25" x14ac:dyDescent="0.45">
       <c r="F26" s="21">
@@ -5361,16 +6849,16 @@
       <c r="N32" s="21"/>
       <c r="O32" s="21"/>
       <c r="P32" s="21"/>
-      <c r="R32" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="S32" s="13"/>
-      <c r="T32" s="13"/>
-      <c r="U32" s="13"/>
-      <c r="V32" s="13"/>
-      <c r="W32" s="13"/>
-      <c r="X32" s="13"/>
-      <c r="Y32" s="13"/>
+      <c r="R32" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="S32" s="8"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="8"/>
+      <c r="W32" s="8"/>
+      <c r="X32" s="8"/>
+      <c r="Y32" s="8"/>
     </row>
     <row r="33" spans="6:25" x14ac:dyDescent="0.45">
       <c r="F33" s="21"/>
@@ -5383,14 +6871,14 @@
       <c r="N33" s="21"/>
       <c r="O33" s="21"/>
       <c r="P33" s="21"/>
-      <c r="R33" s="13"/>
-      <c r="S33" s="13"/>
-      <c r="T33" s="13"/>
-      <c r="U33" s="13"/>
-      <c r="V33" s="13"/>
-      <c r="W33" s="13"/>
-      <c r="X33" s="13"/>
-      <c r="Y33" s="13"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="8"/>
+      <c r="X33" s="8"/>
+      <c r="Y33" s="8"/>
     </row>
     <row r="35" spans="6:25" x14ac:dyDescent="0.45">
       <c r="F35" s="21">
@@ -5407,16 +6895,16 @@
       <c r="N35" s="21"/>
       <c r="O35" s="21"/>
       <c r="P35" s="21"/>
-      <c r="R35" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="S35" s="13"/>
-      <c r="T35" s="13"/>
-      <c r="U35" s="13"/>
-      <c r="V35" s="13"/>
-      <c r="W35" s="13"/>
-      <c r="X35" s="13"/>
-      <c r="Y35" s="13"/>
+      <c r="R35" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="S35" s="8"/>
+      <c r="T35" s="8"/>
+      <c r="U35" s="8"/>
+      <c r="V35" s="8"/>
+      <c r="W35" s="8"/>
+      <c r="X35" s="8"/>
+      <c r="Y35" s="8"/>
     </row>
     <row r="36" spans="6:25" x14ac:dyDescent="0.45">
       <c r="F36" s="21"/>
@@ -5429,14 +6917,14 @@
       <c r="N36" s="21"/>
       <c r="O36" s="21"/>
       <c r="P36" s="21"/>
-      <c r="R36" s="13"/>
-      <c r="S36" s="13"/>
-      <c r="T36" s="13"/>
-      <c r="U36" s="13"/>
-      <c r="V36" s="13"/>
-      <c r="W36" s="13"/>
-      <c r="X36" s="13"/>
-      <c r="Y36" s="13"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="8"/>
+      <c r="T36" s="8"/>
+      <c r="U36" s="8"/>
+      <c r="V36" s="8"/>
+      <c r="W36" s="8"/>
+      <c r="X36" s="8"/>
+      <c r="Y36" s="8"/>
     </row>
     <row r="38" spans="6:25" x14ac:dyDescent="0.45">
       <c r="F38" s="21">
@@ -5453,16 +6941,16 @@
       <c r="N38" s="21"/>
       <c r="O38" s="21"/>
       <c r="P38" s="21"/>
-      <c r="R38" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="S38" s="13"/>
-      <c r="T38" s="13"/>
-      <c r="U38" s="13"/>
-      <c r="V38" s="13"/>
-      <c r="W38" s="13"/>
-      <c r="X38" s="13"/>
-      <c r="Y38" s="13"/>
+      <c r="R38" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8"/>
+      <c r="W38" s="8"/>
+      <c r="X38" s="8"/>
+      <c r="Y38" s="8"/>
     </row>
     <row r="39" spans="6:25" x14ac:dyDescent="0.45">
       <c r="F39" s="21"/>
@@ -5475,14 +6963,14 @@
       <c r="N39" s="21"/>
       <c r="O39" s="21"/>
       <c r="P39" s="21"/>
-      <c r="R39" s="13"/>
-      <c r="S39" s="13"/>
-      <c r="T39" s="13"/>
-      <c r="U39" s="13"/>
-      <c r="V39" s="13"/>
-      <c r="W39" s="13"/>
-      <c r="X39" s="13"/>
-      <c r="Y39" s="13"/>
+      <c r="R39" s="8"/>
+      <c r="S39" s="8"/>
+      <c r="T39" s="8"/>
+      <c r="U39" s="8"/>
+      <c r="V39" s="8"/>
+      <c r="W39" s="8"/>
+      <c r="X39" s="8"/>
+      <c r="Y39" s="8"/>
     </row>
     <row r="41" spans="6:25" x14ac:dyDescent="0.45">
       <c r="F41" s="21">
@@ -5499,16 +6987,16 @@
       <c r="N41" s="21"/>
       <c r="O41" s="21"/>
       <c r="P41" s="21"/>
-      <c r="R41" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="S41" s="13"/>
-      <c r="T41" s="13"/>
-      <c r="U41" s="13"/>
-      <c r="V41" s="13"/>
-      <c r="W41" s="13"/>
-      <c r="X41" s="13"/>
-      <c r="Y41" s="13"/>
+      <c r="R41" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="S41" s="8"/>
+      <c r="T41" s="8"/>
+      <c r="U41" s="8"/>
+      <c r="V41" s="8"/>
+      <c r="W41" s="8"/>
+      <c r="X41" s="8"/>
+      <c r="Y41" s="8"/>
     </row>
     <row r="42" spans="6:25" x14ac:dyDescent="0.45">
       <c r="F42" s="21"/>
@@ -5521,14 +7009,14 @@
       <c r="N42" s="21"/>
       <c r="O42" s="21"/>
       <c r="P42" s="21"/>
-      <c r="R42" s="13"/>
-      <c r="S42" s="13"/>
-      <c r="T42" s="13"/>
-      <c r="U42" s="13"/>
-      <c r="V42" s="13"/>
-      <c r="W42" s="13"/>
-      <c r="X42" s="13"/>
-      <c r="Y42" s="13"/>
+      <c r="R42" s="8"/>
+      <c r="S42" s="8"/>
+      <c r="T42" s="8"/>
+      <c r="U42" s="8"/>
+      <c r="V42" s="8"/>
+      <c r="W42" s="8"/>
+      <c r="X42" s="8"/>
+      <c r="Y42" s="8"/>
     </row>
     <row r="44" spans="6:25" x14ac:dyDescent="0.45">
       <c r="F44" s="21">
@@ -5545,16 +7033,16 @@
       <c r="N44" s="21"/>
       <c r="O44" s="21"/>
       <c r="P44" s="21"/>
-      <c r="R44" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="S44" s="13"/>
-      <c r="T44" s="13"/>
-      <c r="U44" s="13"/>
-      <c r="V44" s="13"/>
-      <c r="W44" s="13"/>
-      <c r="X44" s="13"/>
-      <c r="Y44" s="13"/>
+      <c r="R44" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="S44" s="8"/>
+      <c r="T44" s="8"/>
+      <c r="U44" s="8"/>
+      <c r="V44" s="8"/>
+      <c r="W44" s="8"/>
+      <c r="X44" s="8"/>
+      <c r="Y44" s="8"/>
     </row>
     <row r="45" spans="6:25" x14ac:dyDescent="0.45">
       <c r="F45" s="21"/>
@@ -5567,14 +7055,14 @@
       <c r="N45" s="21"/>
       <c r="O45" s="21"/>
       <c r="P45" s="21"/>
-      <c r="R45" s="13"/>
-      <c r="S45" s="13"/>
-      <c r="T45" s="13"/>
-      <c r="U45" s="13"/>
-      <c r="V45" s="13"/>
-      <c r="W45" s="13"/>
-      <c r="X45" s="13"/>
-      <c r="Y45" s="13"/>
+      <c r="R45" s="8"/>
+      <c r="S45" s="8"/>
+      <c r="T45" s="8"/>
+      <c r="U45" s="8"/>
+      <c r="V45" s="8"/>
+      <c r="W45" s="8"/>
+      <c r="X45" s="8"/>
+      <c r="Y45" s="8"/>
     </row>
     <row r="47" spans="6:25" x14ac:dyDescent="0.45">
       <c r="F47" s="21">
@@ -5591,16 +7079,16 @@
       <c r="N47" s="21"/>
       <c r="O47" s="21"/>
       <c r="P47" s="21"/>
-      <c r="R47" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="S47" s="13"/>
-      <c r="T47" s="13"/>
-      <c r="U47" s="13"/>
-      <c r="V47" s="13"/>
-      <c r="W47" s="13"/>
-      <c r="X47" s="13"/>
-      <c r="Y47" s="13"/>
+      <c r="R47" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="S47" s="8"/>
+      <c r="T47" s="8"/>
+      <c r="U47" s="8"/>
+      <c r="V47" s="8"/>
+      <c r="W47" s="8"/>
+      <c r="X47" s="8"/>
+      <c r="Y47" s="8"/>
     </row>
     <row r="48" spans="6:25" x14ac:dyDescent="0.45">
       <c r="F48" s="21"/>
@@ -5613,14 +7101,14 @@
       <c r="N48" s="21"/>
       <c r="O48" s="21"/>
       <c r="P48" s="21"/>
-      <c r="R48" s="13"/>
-      <c r="S48" s="13"/>
-      <c r="T48" s="13"/>
-      <c r="U48" s="13"/>
-      <c r="V48" s="13"/>
-      <c r="W48" s="13"/>
-      <c r="X48" s="13"/>
-      <c r="Y48" s="13"/>
+      <c r="R48" s="8"/>
+      <c r="S48" s="8"/>
+      <c r="T48" s="8"/>
+      <c r="U48" s="8"/>
+      <c r="V48" s="8"/>
+      <c r="W48" s="8"/>
+      <c r="X48" s="8"/>
+      <c r="Y48" s="8"/>
     </row>
     <row r="50" spans="6:25" x14ac:dyDescent="0.45">
       <c r="F50" s="21">
@@ -5637,16 +7125,16 @@
       <c r="N50" s="21"/>
       <c r="O50" s="21"/>
       <c r="P50" s="21"/>
-      <c r="R50" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="S50" s="13"/>
-      <c r="T50" s="13"/>
-      <c r="U50" s="13"/>
-      <c r="V50" s="13"/>
-      <c r="W50" s="13"/>
-      <c r="X50" s="13"/>
-      <c r="Y50" s="13"/>
+      <c r="R50" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="S50" s="22"/>
+      <c r="T50" s="22"/>
+      <c r="U50" s="22"/>
+      <c r="V50" s="22"/>
+      <c r="W50" s="22"/>
+      <c r="X50" s="22"/>
+      <c r="Y50" s="22"/>
     </row>
     <row r="51" spans="6:25" x14ac:dyDescent="0.45">
       <c r="F51" s="21"/>
@@ -5659,14 +7147,14 @@
       <c r="N51" s="21"/>
       <c r="O51" s="21"/>
       <c r="P51" s="21"/>
-      <c r="R51" s="13"/>
-      <c r="S51" s="13"/>
-      <c r="T51" s="13"/>
-      <c r="U51" s="13"/>
-      <c r="V51" s="13"/>
-      <c r="W51" s="13"/>
-      <c r="X51" s="13"/>
-      <c r="Y51" s="13"/>
+      <c r="R51" s="22"/>
+      <c r="S51" s="22"/>
+      <c r="T51" s="22"/>
+      <c r="U51" s="22"/>
+      <c r="V51" s="22"/>
+      <c r="W51" s="22"/>
+      <c r="X51" s="22"/>
+      <c r="Y51" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="50">
@@ -5678,6 +7166,15 @@
     <mergeCell ref="H8:P9"/>
     <mergeCell ref="R8:Y9"/>
     <mergeCell ref="R5:Y6"/>
+    <mergeCell ref="R35:Y36"/>
+    <mergeCell ref="R38:Y39"/>
+    <mergeCell ref="R41:Y42"/>
+    <mergeCell ref="R44:Y45"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="H11:P12"/>
+    <mergeCell ref="H17:P18"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="F38:F39"/>
     <mergeCell ref="R20:Y21"/>
     <mergeCell ref="R23:Y24"/>
     <mergeCell ref="F29:F30"/>
@@ -5685,18 +7182,6 @@
     <mergeCell ref="R14:Y15"/>
     <mergeCell ref="R17:Y18"/>
     <mergeCell ref="R26:Y27"/>
-    <mergeCell ref="R29:Y30"/>
-    <mergeCell ref="H26:P27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="H14:P15"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="H11:P12"/>
-    <mergeCell ref="H17:P18"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="F44:F45"/>
     <mergeCell ref="R11:Y12"/>
     <mergeCell ref="F32:F33"/>
     <mergeCell ref="H32:P33"/>
@@ -5706,20 +7191,23 @@
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="H23:P24"/>
     <mergeCell ref="F23:F24"/>
-    <mergeCell ref="R35:Y36"/>
-    <mergeCell ref="R38:Y39"/>
-    <mergeCell ref="R41:Y42"/>
-    <mergeCell ref="R44:Y45"/>
-    <mergeCell ref="H47:P48"/>
+    <mergeCell ref="R29:Y30"/>
+    <mergeCell ref="H26:P27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="H14:P15"/>
     <mergeCell ref="H35:P36"/>
     <mergeCell ref="H38:P39"/>
     <mergeCell ref="H41:P42"/>
     <mergeCell ref="H44:P45"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="F44:F45"/>
     <mergeCell ref="H50:P51"/>
     <mergeCell ref="F47:F48"/>
     <mergeCell ref="F50:F51"/>
     <mergeCell ref="R47:Y48"/>
     <mergeCell ref="R50:Y51"/>
+    <mergeCell ref="H47:P48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5729,8 +7217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37E2DAFF-6BFF-4CB8-B294-DE59EA805260}">
   <dimension ref="C2:Y32"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5774,7 +7262,7 @@
       </c>
     </row>
     <row r="5" spans="3:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="28" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="26" t="s">
@@ -5795,7 +7283,7 @@
       </c>
     </row>
     <row r="6" spans="3:25" x14ac:dyDescent="0.45">
-      <c r="C6" s="29"/>
+      <c r="C6" s="28"/>
       <c r="F6" s="26" t="s">
         <v>14</v>
       </c>
@@ -5811,13 +7299,13 @@
       <c r="P6" s="27"/>
     </row>
     <row r="7" spans="3:25" x14ac:dyDescent="0.45">
-      <c r="C7" s="29"/>
+      <c r="C7" s="28"/>
       <c r="F7" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="3:25" x14ac:dyDescent="0.45">
-      <c r="C8" s="29"/>
+      <c r="C8" s="28"/>
       <c r="F8" s="4" t="s">
         <v>16</v>
       </c>
@@ -5826,7 +7314,7 @@
       </c>
     </row>
     <row r="9" spans="3:25" x14ac:dyDescent="0.45">
-      <c r="C9" s="29"/>
+      <c r="C9" s="28"/>
       <c r="F9" s="4" t="s">
         <v>47</v>
       </c>
@@ -5835,7 +7323,7 @@
       </c>
     </row>
     <row r="10" spans="3:25" x14ac:dyDescent="0.45">
-      <c r="C10" s="29"/>
+      <c r="C10" s="28"/>
       <c r="F10" s="4" t="s">
         <v>48</v>
       </c>
@@ -5844,7 +7332,7 @@
       </c>
     </row>
     <row r="11" spans="3:25" x14ac:dyDescent="0.45">
-      <c r="C11" s="29"/>
+      <c r="C11" s="28"/>
       <c r="F11" s="4" t="s">
         <v>53</v>
       </c>
@@ -5853,7 +7341,7 @@
       </c>
     </row>
     <row r="12" spans="3:25" x14ac:dyDescent="0.45">
-      <c r="C12" s="29"/>
+      <c r="C12" s="28"/>
       <c r="F12" s="4" t="s">
         <v>55</v>
       </c>
@@ -5905,7 +7393,7 @@
       </c>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="29" t="s">
         <v>85</v>
       </c>
       <c r="F21" s="4" t="s">
@@ -5913,49 +7401,49 @@
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C22" s="28"/>
+      <c r="C22" s="29"/>
       <c r="F22" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C23" s="28"/>
+      <c r="C23" s="29"/>
       <c r="F23" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C24" s="28"/>
+      <c r="C24" s="29"/>
       <c r="F24" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C25" s="28"/>
+      <c r="C25" s="29"/>
       <c r="F25" s="4" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C26" s="28"/>
+      <c r="C26" s="29"/>
       <c r="F26" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C27" s="28"/>
+      <c r="C27" s="29"/>
       <c r="F27" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C28" s="28"/>
+      <c r="C28" s="29"/>
       <c r="F28" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C29" s="28"/>
+      <c r="C29" s="29"/>
       <c r="F29" s="4" t="s">
         <v>79</v>
       </c>
@@ -6024,8 +7512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6545F231-4984-4A79-BEF3-A3EF63664EF4}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/Documents/Targets&Planning.xlsx
+++ b/Documents/Targets&Planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BloggingRepositories\blogPosts\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6D458C-A7E6-4966-961B-DC072C97DB1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6252F7EA-1B94-413F-9530-A7FC15132AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="15196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="134">
   <si>
     <t>November</t>
   </si>
@@ -406,6 +406,30 @@
   </si>
   <si>
     <t>This is not required as per my knowledge</t>
+  </si>
+  <si>
+    <t>Make Custom 404 Error Pages For Both Websites</t>
+  </si>
+  <si>
+    <t>Fix Sharing URL Bug</t>
+  </si>
+  <si>
+    <t>https://awbest.com</t>
+  </si>
+  <si>
+    <t>https://ksrdtutorial.com/</t>
+  </si>
+  <si>
+    <t>16, December,2023, Saturday</t>
+  </si>
+  <si>
+    <t>15, December,2023, Friday</t>
+  </si>
+  <si>
+    <t>14, December,2023, Thursday</t>
+  </si>
+  <si>
+    <t>13, December,2023, Wednesday</t>
   </si>
 </sst>
 </file>
@@ -616,7 +640,7 @@
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -628,43 +652,43 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="9" fontId="6" fillId="15" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="15" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -966,10 +990,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB270"/>
+  <dimension ref="A1:AB326"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F242" zoomScale="93" workbookViewId="0">
-      <selection activeCell="K280" sqref="K280"/>
+    <sheetView tabSelected="1" topLeftCell="F303" zoomScale="93" workbookViewId="0">
+      <selection activeCell="Y330" sqref="Y330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1015,27 +1039,27 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="20"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="19"/>
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
     </row>
@@ -1047,25 +1071,25 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="20"/>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="20"/>
-      <c r="Z3" s="20"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
+      <c r="X3" s="19"/>
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="19"/>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
     </row>
@@ -1107,33 +1131,33 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="15" t="s">
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
       <c r="Q5" s="1"/>
-      <c r="R5" s="15" t="s">
+      <c r="R5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
       <c r="U5" s="1"/>
-      <c r="V5" s="15" t="s">
+      <c r="V5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="W5" s="15"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="15"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="17"/>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
     </row>
@@ -1145,25 +1169,25 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
       <c r="Q6" s="1"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
       <c r="U6" s="1"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="15"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="17"/>
+      <c r="Z6" s="17"/>
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
     </row>
@@ -1225,13 +1249,13 @@
       <c r="S8" s="11"/>
       <c r="T8" s="11"/>
       <c r="U8" s="1"/>
-      <c r="V8" s="19" t="s">
+      <c r="V8" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="W8" s="19"/>
-      <c r="X8" s="19"/>
-      <c r="Y8" s="19"/>
-      <c r="Z8" s="19"/>
+      <c r="W8" s="16"/>
+      <c r="X8" s="16"/>
+      <c r="Y8" s="16"/>
+      <c r="Z8" s="16"/>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
     </row>
@@ -1257,11 +1281,11 @@
       <c r="S9" s="11"/>
       <c r="T9" s="11"/>
       <c r="U9" s="1"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="19"/>
-      <c r="X9" s="19"/>
-      <c r="Y9" s="19"/>
-      <c r="Z9" s="19"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="16"/>
+      <c r="Y9" s="16"/>
+      <c r="Z9" s="16"/>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
     </row>
@@ -1323,13 +1347,13 @@
       <c r="S11" s="11"/>
       <c r="T11" s="11"/>
       <c r="U11" s="1"/>
-      <c r="V11" s="19" t="s">
+      <c r="V11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="W11" s="19"/>
-      <c r="X11" s="19"/>
-      <c r="Y11" s="19"/>
-      <c r="Z11" s="19"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="16"/>
+      <c r="Y11" s="16"/>
+      <c r="Z11" s="16"/>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
     </row>
@@ -1355,11 +1379,11 @@
       <c r="S12" s="11"/>
       <c r="T12" s="11"/>
       <c r="U12" s="1"/>
-      <c r="V12" s="19"/>
-      <c r="W12" s="19"/>
-      <c r="X12" s="19"/>
-      <c r="Y12" s="19"/>
-      <c r="Z12" s="19"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16"/>
+      <c r="Y12" s="16"/>
+      <c r="Z12" s="16"/>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
     </row>
@@ -1401,33 +1425,33 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="14" t="s">
+      <c r="H14" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="15" t="s">
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
       <c r="Q14" s="1"/>
-      <c r="R14" s="15" t="s">
+      <c r="R14" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="S14" s="15"/>
-      <c r="T14" s="15"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
       <c r="U14" s="1"/>
-      <c r="V14" s="15" t="s">
+      <c r="V14" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="W14" s="15"/>
-      <c r="X14" s="15"/>
-      <c r="Y14" s="15"/>
-      <c r="Z14" s="15"/>
+      <c r="W14" s="17"/>
+      <c r="X14" s="17"/>
+      <c r="Y14" s="17"/>
+      <c r="Z14" s="17"/>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
     </row>
@@ -1439,25 +1463,25 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
       <c r="Q15" s="1"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="15"/>
-      <c r="T15" s="15"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
       <c r="U15" s="1"/>
-      <c r="V15" s="15"/>
-      <c r="W15" s="15"/>
-      <c r="X15" s="15"/>
-      <c r="Y15" s="15"/>
-      <c r="Z15" s="15"/>
+      <c r="V15" s="17"/>
+      <c r="W15" s="17"/>
+      <c r="X15" s="17"/>
+      <c r="Y15" s="17"/>
+      <c r="Z15" s="17"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
     </row>
@@ -1519,13 +1543,13 @@
       <c r="S17" s="11"/>
       <c r="T17" s="11"/>
       <c r="U17" s="1"/>
-      <c r="V17" s="19" t="s">
+      <c r="V17" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="W17" s="19"/>
-      <c r="X17" s="19"/>
-      <c r="Y17" s="19"/>
-      <c r="Z17" s="19"/>
+      <c r="W17" s="16"/>
+      <c r="X17" s="16"/>
+      <c r="Y17" s="16"/>
+      <c r="Z17" s="16"/>
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
     </row>
@@ -1551,11 +1575,11 @@
       <c r="S18" s="11"/>
       <c r="T18" s="11"/>
       <c r="U18" s="1"/>
-      <c r="V18" s="19"/>
-      <c r="W18" s="19"/>
-      <c r="X18" s="19"/>
-      <c r="Y18" s="19"/>
-      <c r="Z18" s="19"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="16"/>
+      <c r="X18" s="16"/>
+      <c r="Y18" s="16"/>
+      <c r="Z18" s="16"/>
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
     </row>
@@ -1617,13 +1641,13 @@
       <c r="S20" s="11"/>
       <c r="T20" s="11"/>
       <c r="U20" s="1"/>
-      <c r="V20" s="19" t="s">
+      <c r="V20" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="W20" s="19"/>
-      <c r="X20" s="19"/>
-      <c r="Y20" s="19"/>
-      <c r="Z20" s="19"/>
+      <c r="W20" s="16"/>
+      <c r="X20" s="16"/>
+      <c r="Y20" s="16"/>
+      <c r="Z20" s="16"/>
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
     </row>
@@ -1649,11 +1673,11 @@
       <c r="S21" s="11"/>
       <c r="T21" s="11"/>
       <c r="U21" s="1"/>
-      <c r="V21" s="19"/>
-      <c r="W21" s="19"/>
-      <c r="X21" s="19"/>
-      <c r="Y21" s="19"/>
-      <c r="Z21" s="19"/>
+      <c r="V21" s="16"/>
+      <c r="W21" s="16"/>
+      <c r="X21" s="16"/>
+      <c r="Y21" s="16"/>
+      <c r="Z21" s="16"/>
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
     </row>
@@ -1715,13 +1739,13 @@
       <c r="S23" s="11"/>
       <c r="T23" s="11"/>
       <c r="U23" s="1"/>
-      <c r="V23" s="17" t="s">
+      <c r="V23" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="W23" s="17"/>
-      <c r="X23" s="17"/>
-      <c r="Y23" s="17"/>
-      <c r="Z23" s="17"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="8"/>
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
     </row>
@@ -1747,11 +1771,11 @@
       <c r="S24" s="11"/>
       <c r="T24" s="11"/>
       <c r="U24" s="1"/>
-      <c r="V24" s="17"/>
-      <c r="W24" s="17"/>
-      <c r="X24" s="17"/>
-      <c r="Y24" s="17"/>
-      <c r="Z24" s="17"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="8"/>
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
     </row>
@@ -1813,13 +1837,13 @@
       <c r="S26" s="11"/>
       <c r="T26" s="11"/>
       <c r="U26" s="1"/>
-      <c r="V26" s="17" t="s">
+      <c r="V26" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="W26" s="17"/>
-      <c r="X26" s="17"/>
-      <c r="Y26" s="17"/>
-      <c r="Z26" s="17"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="8"/>
+      <c r="Z26" s="8"/>
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
     </row>
@@ -1845,11 +1869,11 @@
       <c r="S27" s="11"/>
       <c r="T27" s="11"/>
       <c r="U27" s="1"/>
-      <c r="V27" s="17"/>
-      <c r="W27" s="17"/>
-      <c r="X27" s="17"/>
-      <c r="Y27" s="17"/>
-      <c r="Z27" s="17"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="8"/>
+      <c r="Y27" s="8"/>
+      <c r="Z27" s="8"/>
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
     </row>
@@ -1911,13 +1935,13 @@
       <c r="S29" s="11"/>
       <c r="T29" s="11"/>
       <c r="U29" s="1"/>
-      <c r="V29" s="17" t="s">
+      <c r="V29" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="W29" s="17"/>
-      <c r="X29" s="17"/>
-      <c r="Y29" s="17"/>
-      <c r="Z29" s="17"/>
+      <c r="W29" s="8"/>
+      <c r="X29" s="8"/>
+      <c r="Y29" s="8"/>
+      <c r="Z29" s="8"/>
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
     </row>
@@ -1943,11 +1967,11 @@
       <c r="S30" s="11"/>
       <c r="T30" s="11"/>
       <c r="U30" s="1"/>
-      <c r="V30" s="17"/>
-      <c r="W30" s="17"/>
-      <c r="X30" s="17"/>
-      <c r="Y30" s="17"/>
-      <c r="Z30" s="17"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8"/>
+      <c r="X30" s="8"/>
+      <c r="Y30" s="8"/>
+      <c r="Z30" s="8"/>
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
     </row>
@@ -2009,13 +2033,13 @@
       <c r="S32" s="11"/>
       <c r="T32" s="11"/>
       <c r="U32" s="1"/>
-      <c r="V32" s="19" t="s">
+      <c r="V32" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="W32" s="19"/>
-      <c r="X32" s="19"/>
-      <c r="Y32" s="19"/>
-      <c r="Z32" s="19"/>
+      <c r="W32" s="16"/>
+      <c r="X32" s="16"/>
+      <c r="Y32" s="16"/>
+      <c r="Z32" s="16"/>
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
     </row>
@@ -2041,11 +2065,11 @@
       <c r="S33" s="11"/>
       <c r="T33" s="11"/>
       <c r="U33" s="1"/>
-      <c r="V33" s="19"/>
-      <c r="W33" s="19"/>
-      <c r="X33" s="19"/>
-      <c r="Y33" s="19"/>
-      <c r="Z33" s="19"/>
+      <c r="V33" s="16"/>
+      <c r="W33" s="16"/>
+      <c r="X33" s="16"/>
+      <c r="Y33" s="16"/>
+      <c r="Z33" s="16"/>
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
     </row>
@@ -2107,13 +2131,13 @@
       <c r="S35" s="11"/>
       <c r="T35" s="11"/>
       <c r="U35" s="1"/>
-      <c r="V35" s="18" t="s">
+      <c r="V35" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="W35" s="18"/>
-      <c r="X35" s="18"/>
-      <c r="Y35" s="18"/>
-      <c r="Z35" s="18"/>
+      <c r="W35" s="20"/>
+      <c r="X35" s="20"/>
+      <c r="Y35" s="20"/>
+      <c r="Z35" s="20"/>
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
     </row>
@@ -2139,11 +2163,11 @@
       <c r="S36" s="11"/>
       <c r="T36" s="11"/>
       <c r="U36" s="1"/>
-      <c r="V36" s="18"/>
-      <c r="W36" s="18"/>
-      <c r="X36" s="18"/>
-      <c r="Y36" s="18"/>
-      <c r="Z36" s="18"/>
+      <c r="V36" s="20"/>
+      <c r="W36" s="20"/>
+      <c r="X36" s="20"/>
+      <c r="Y36" s="20"/>
+      <c r="Z36" s="20"/>
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
     </row>
@@ -2185,33 +2209,33 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="14" t="s">
+      <c r="H38" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="15" t="s">
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="M38" s="15"/>
-      <c r="N38" s="15"/>
-      <c r="O38" s="15"/>
-      <c r="P38" s="15"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
       <c r="Q38" s="1"/>
-      <c r="R38" s="15" t="s">
+      <c r="R38" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="S38" s="15"/>
-      <c r="T38" s="15"/>
+      <c r="S38" s="17"/>
+      <c r="T38" s="17"/>
       <c r="U38" s="1"/>
-      <c r="V38" s="15" t="s">
+      <c r="V38" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="W38" s="15"/>
-      <c r="X38" s="15"/>
-      <c r="Y38" s="15"/>
-      <c r="Z38" s="15"/>
+      <c r="W38" s="17"/>
+      <c r="X38" s="17"/>
+      <c r="Y38" s="17"/>
+      <c r="Z38" s="17"/>
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
     </row>
@@ -2223,25 +2247,25 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
-      <c r="L39" s="15"/>
-      <c r="M39" s="15"/>
-      <c r="N39" s="15"/>
-      <c r="O39" s="15"/>
-      <c r="P39" s="15"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
       <c r="Q39" s="1"/>
-      <c r="R39" s="15"/>
-      <c r="S39" s="15"/>
-      <c r="T39" s="15"/>
+      <c r="R39" s="17"/>
+      <c r="S39" s="17"/>
+      <c r="T39" s="17"/>
       <c r="U39" s="1"/>
-      <c r="V39" s="15"/>
-      <c r="W39" s="15"/>
-      <c r="X39" s="15"/>
-      <c r="Y39" s="15"/>
-      <c r="Z39" s="15"/>
+      <c r="V39" s="17"/>
+      <c r="W39" s="17"/>
+      <c r="X39" s="17"/>
+      <c r="Y39" s="17"/>
+      <c r="Z39" s="17"/>
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
     </row>
@@ -2303,13 +2327,13 @@
       <c r="S41" s="11"/>
       <c r="T41" s="11"/>
       <c r="U41" s="1"/>
-      <c r="V41" s="19" t="s">
+      <c r="V41" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="W41" s="19"/>
-      <c r="X41" s="19"/>
-      <c r="Y41" s="19"/>
-      <c r="Z41" s="19"/>
+      <c r="W41" s="16"/>
+      <c r="X41" s="16"/>
+      <c r="Y41" s="16"/>
+      <c r="Z41" s="16"/>
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
     </row>
@@ -2335,11 +2359,11 @@
       <c r="S42" s="11"/>
       <c r="T42" s="11"/>
       <c r="U42" s="1"/>
-      <c r="V42" s="19"/>
-      <c r="W42" s="19"/>
-      <c r="X42" s="19"/>
-      <c r="Y42" s="19"/>
-      <c r="Z42" s="19"/>
+      <c r="V42" s="16"/>
+      <c r="W42" s="16"/>
+      <c r="X42" s="16"/>
+      <c r="Y42" s="16"/>
+      <c r="Z42" s="16"/>
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
     </row>
@@ -2401,13 +2425,13 @@
       <c r="S44" s="11"/>
       <c r="T44" s="11"/>
       <c r="U44" s="1"/>
-      <c r="V44" s="19" t="s">
+      <c r="V44" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="W44" s="19"/>
-      <c r="X44" s="19"/>
-      <c r="Y44" s="19"/>
-      <c r="Z44" s="19"/>
+      <c r="W44" s="16"/>
+      <c r="X44" s="16"/>
+      <c r="Y44" s="16"/>
+      <c r="Z44" s="16"/>
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
     </row>
@@ -2433,11 +2457,11 @@
       <c r="S45" s="11"/>
       <c r="T45" s="11"/>
       <c r="U45" s="1"/>
-      <c r="V45" s="19"/>
-      <c r="W45" s="19"/>
-      <c r="X45" s="19"/>
-      <c r="Y45" s="19"/>
-      <c r="Z45" s="19"/>
+      <c r="V45" s="16"/>
+      <c r="W45" s="16"/>
+      <c r="X45" s="16"/>
+      <c r="Y45" s="16"/>
+      <c r="Z45" s="16"/>
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
     </row>
@@ -2499,13 +2523,13 @@
       <c r="S47" s="11"/>
       <c r="T47" s="11"/>
       <c r="U47" s="1"/>
-      <c r="V47" s="19" t="s">
+      <c r="V47" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="W47" s="19"/>
-      <c r="X47" s="19"/>
-      <c r="Y47" s="19"/>
-      <c r="Z47" s="19"/>
+      <c r="W47" s="16"/>
+      <c r="X47" s="16"/>
+      <c r="Y47" s="16"/>
+      <c r="Z47" s="16"/>
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
     </row>
@@ -2531,11 +2555,11 @@
       <c r="S48" s="11"/>
       <c r="T48" s="11"/>
       <c r="U48" s="1"/>
-      <c r="V48" s="19"/>
-      <c r="W48" s="19"/>
-      <c r="X48" s="19"/>
-      <c r="Y48" s="19"/>
-      <c r="Z48" s="19"/>
+      <c r="V48" s="16"/>
+      <c r="W48" s="16"/>
+      <c r="X48" s="16"/>
+      <c r="Y48" s="16"/>
+      <c r="Z48" s="16"/>
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
     </row>
@@ -2597,13 +2621,13 @@
       <c r="S50" s="11"/>
       <c r="T50" s="11"/>
       <c r="U50" s="1"/>
-      <c r="V50" s="19" t="s">
+      <c r="V50" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="W50" s="19"/>
-      <c r="X50" s="19"/>
-      <c r="Y50" s="19"/>
-      <c r="Z50" s="19"/>
+      <c r="W50" s="16"/>
+      <c r="X50" s="16"/>
+      <c r="Y50" s="16"/>
+      <c r="Z50" s="16"/>
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
     </row>
@@ -2629,11 +2653,11 @@
       <c r="S51" s="11"/>
       <c r="T51" s="11"/>
       <c r="U51" s="1"/>
-      <c r="V51" s="19"/>
-      <c r="W51" s="19"/>
-      <c r="X51" s="19"/>
-      <c r="Y51" s="19"/>
-      <c r="Z51" s="19"/>
+      <c r="V51" s="16"/>
+      <c r="W51" s="16"/>
+      <c r="X51" s="16"/>
+      <c r="Y51" s="16"/>
+      <c r="Z51" s="16"/>
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
     </row>
@@ -2675,341 +2699,341 @@
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
-      <c r="H53" s="14" t="s">
+      <c r="H53" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="I53" s="14"/>
-      <c r="J53" s="14"/>
-      <c r="K53" s="14"/>
-      <c r="L53" s="15" t="s">
+      <c r="I53" s="18"/>
+      <c r="J53" s="18"/>
+      <c r="K53" s="18"/>
+      <c r="L53" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="M53" s="15"/>
-      <c r="N53" s="15"/>
-      <c r="O53" s="15"/>
-      <c r="P53" s="15"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="17"/>
+      <c r="P53" s="17"/>
       <c r="Q53" s="1"/>
-      <c r="R53" s="15" t="s">
+      <c r="R53" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="S53" s="15"/>
-      <c r="T53" s="15"/>
+      <c r="S53" s="17"/>
+      <c r="T53" s="17"/>
       <c r="U53" s="1"/>
-      <c r="V53" s="15" t="s">
+      <c r="V53" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="W53" s="15"/>
-      <c r="X53" s="15"/>
-      <c r="Y53" s="15"/>
-      <c r="Z53" s="15"/>
+      <c r="W53" s="17"/>
+      <c r="X53" s="17"/>
+      <c r="Y53" s="17"/>
+      <c r="Z53" s="17"/>
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="H54" s="14"/>
-      <c r="I54" s="14"/>
-      <c r="J54" s="14"/>
-      <c r="K54" s="14"/>
-      <c r="L54" s="15"/>
-      <c r="M54" s="15"/>
-      <c r="N54" s="15"/>
-      <c r="O54" s="15"/>
-      <c r="P54" s="15"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="18"/>
+      <c r="J54" s="18"/>
+      <c r="K54" s="18"/>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
       <c r="Q54" s="1"/>
-      <c r="R54" s="15"/>
-      <c r="S54" s="15"/>
-      <c r="T54" s="15"/>
+      <c r="R54" s="17"/>
+      <c r="S54" s="17"/>
+      <c r="T54" s="17"/>
       <c r="U54" s="1"/>
-      <c r="V54" s="15"/>
-      <c r="W54" s="15"/>
-      <c r="X54" s="15"/>
-      <c r="Y54" s="15"/>
-      <c r="Z54" s="15"/>
+      <c r="V54" s="17"/>
+      <c r="W54" s="17"/>
+      <c r="X54" s="17"/>
+      <c r="Y54" s="17"/>
+      <c r="Z54" s="17"/>
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="H56" s="13" t="s">
+      <c r="H56" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="I56" s="13"/>
-      <c r="J56" s="13"/>
-      <c r="K56" s="13"/>
-      <c r="L56" s="13"/>
-      <c r="M56" s="13"/>
-      <c r="N56" s="13"/>
-      <c r="O56" s="13"/>
-      <c r="P56" s="13"/>
-      <c r="Q56" s="13"/>
-      <c r="R56" s="13"/>
-      <c r="S56" s="13"/>
-      <c r="T56" s="13"/>
-      <c r="U56" s="13"/>
-      <c r="V56" s="13"/>
-      <c r="W56" s="13"/>
-      <c r="X56" s="13"/>
-      <c r="Y56" s="13"/>
-      <c r="Z56" s="13"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="15"/>
+      <c r="K56" s="15"/>
+      <c r="L56" s="15"/>
+      <c r="M56" s="15"/>
+      <c r="N56" s="15"/>
+      <c r="O56" s="15"/>
+      <c r="P56" s="15"/>
+      <c r="Q56" s="15"/>
+      <c r="R56" s="15"/>
+      <c r="S56" s="15"/>
+      <c r="T56" s="15"/>
+      <c r="U56" s="15"/>
+      <c r="V56" s="15"/>
+      <c r="W56" s="15"/>
+      <c r="X56" s="15"/>
+      <c r="Y56" s="15"/>
+      <c r="Z56" s="15"/>
     </row>
     <row r="57" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="H57" s="13"/>
-      <c r="I57" s="13"/>
-      <c r="J57" s="13"/>
-      <c r="K57" s="13"/>
-      <c r="L57" s="13"/>
-      <c r="M57" s="13"/>
-      <c r="N57" s="13"/>
-      <c r="O57" s="13"/>
-      <c r="P57" s="13"/>
-      <c r="Q57" s="13"/>
-      <c r="R57" s="13"/>
-      <c r="S57" s="13"/>
-      <c r="T57" s="13"/>
-      <c r="U57" s="13"/>
-      <c r="V57" s="13"/>
-      <c r="W57" s="13"/>
-      <c r="X57" s="13"/>
-      <c r="Y57" s="13"/>
-      <c r="Z57" s="13"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="15"/>
+      <c r="K57" s="15"/>
+      <c r="L57" s="15"/>
+      <c r="M57" s="15"/>
+      <c r="N57" s="15"/>
+      <c r="O57" s="15"/>
+      <c r="P57" s="15"/>
+      <c r="Q57" s="15"/>
+      <c r="R57" s="15"/>
+      <c r="S57" s="15"/>
+      <c r="T57" s="15"/>
+      <c r="U57" s="15"/>
+      <c r="V57" s="15"/>
+      <c r="W57" s="15"/>
+      <c r="X57" s="15"/>
+      <c r="Y57" s="15"/>
+      <c r="Z57" s="15"/>
     </row>
     <row r="59" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="H59" s="14" t="s">
+      <c r="H59" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="I59" s="14"/>
-      <c r="J59" s="14"/>
-      <c r="K59" s="14"/>
-      <c r="L59" s="15" t="s">
+      <c r="I59" s="18"/>
+      <c r="J59" s="18"/>
+      <c r="K59" s="18"/>
+      <c r="L59" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="M59" s="15"/>
-      <c r="N59" s="15"/>
-      <c r="O59" s="15"/>
-      <c r="P59" s="15"/>
+      <c r="M59" s="17"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="17"/>
+      <c r="P59" s="17"/>
       <c r="Q59" s="1"/>
-      <c r="R59" s="15" t="s">
+      <c r="R59" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="S59" s="15"/>
-      <c r="T59" s="15"/>
+      <c r="S59" s="17"/>
+      <c r="T59" s="17"/>
       <c r="U59" s="1"/>
-      <c r="V59" s="15" t="s">
+      <c r="V59" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="W59" s="15"/>
-      <c r="X59" s="15"/>
-      <c r="Y59" s="15"/>
-      <c r="Z59" s="15"/>
+      <c r="W59" s="17"/>
+      <c r="X59" s="17"/>
+      <c r="Y59" s="17"/>
+      <c r="Z59" s="17"/>
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="H60" s="14"/>
-      <c r="I60" s="14"/>
-      <c r="J60" s="14"/>
-      <c r="K60" s="14"/>
-      <c r="L60" s="15"/>
-      <c r="M60" s="15"/>
-      <c r="N60" s="15"/>
-      <c r="O60" s="15"/>
-      <c r="P60" s="15"/>
+      <c r="H60" s="18"/>
+      <c r="I60" s="18"/>
+      <c r="J60" s="18"/>
+      <c r="K60" s="18"/>
+      <c r="L60" s="17"/>
+      <c r="M60" s="17"/>
+      <c r="N60" s="17"/>
+      <c r="O60" s="17"/>
+      <c r="P60" s="17"/>
       <c r="Q60" s="1"/>
-      <c r="R60" s="15"/>
-      <c r="S60" s="15"/>
-      <c r="T60" s="15"/>
+      <c r="R60" s="17"/>
+      <c r="S60" s="17"/>
+      <c r="T60" s="17"/>
       <c r="U60" s="1"/>
-      <c r="V60" s="15"/>
-      <c r="W60" s="15"/>
-      <c r="X60" s="15"/>
-      <c r="Y60" s="15"/>
-      <c r="Z60" s="15"/>
+      <c r="V60" s="17"/>
+      <c r="W60" s="17"/>
+      <c r="X60" s="17"/>
+      <c r="Y60" s="17"/>
+      <c r="Z60" s="17"/>
     </row>
     <row r="62" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="H62" s="13" t="s">
+      <c r="H62" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="I62" s="13"/>
-      <c r="J62" s="13"/>
-      <c r="K62" s="13"/>
-      <c r="L62" s="13"/>
-      <c r="M62" s="13"/>
-      <c r="N62" s="13"/>
-      <c r="O62" s="13"/>
-      <c r="P62" s="13"/>
-      <c r="Q62" s="13"/>
-      <c r="R62" s="13"/>
-      <c r="S62" s="13"/>
-      <c r="T62" s="13"/>
-      <c r="U62" s="13"/>
-      <c r="V62" s="13"/>
-      <c r="W62" s="13"/>
-      <c r="X62" s="13"/>
-      <c r="Y62" s="13"/>
-      <c r="Z62" s="13"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="15"/>
+      <c r="K62" s="15"/>
+      <c r="L62" s="15"/>
+      <c r="M62" s="15"/>
+      <c r="N62" s="15"/>
+      <c r="O62" s="15"/>
+      <c r="P62" s="15"/>
+      <c r="Q62" s="15"/>
+      <c r="R62" s="15"/>
+      <c r="S62" s="15"/>
+      <c r="T62" s="15"/>
+      <c r="U62" s="15"/>
+      <c r="V62" s="15"/>
+      <c r="W62" s="15"/>
+      <c r="X62" s="15"/>
+      <c r="Y62" s="15"/>
+      <c r="Z62" s="15"/>
     </row>
     <row r="63" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="H63" s="13"/>
-      <c r="I63" s="13"/>
-      <c r="J63" s="13"/>
-      <c r="K63" s="13"/>
-      <c r="L63" s="13"/>
-      <c r="M63" s="13"/>
-      <c r="N63" s="13"/>
-      <c r="O63" s="13"/>
-      <c r="P63" s="13"/>
-      <c r="Q63" s="13"/>
-      <c r="R63" s="13"/>
-      <c r="S63" s="13"/>
-      <c r="T63" s="13"/>
-      <c r="U63" s="13"/>
-      <c r="V63" s="13"/>
-      <c r="W63" s="13"/>
-      <c r="X63" s="13"/>
-      <c r="Y63" s="13"/>
-      <c r="Z63" s="13"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="15"/>
+      <c r="K63" s="15"/>
+      <c r="L63" s="15"/>
+      <c r="M63" s="15"/>
+      <c r="N63" s="15"/>
+      <c r="O63" s="15"/>
+      <c r="P63" s="15"/>
+      <c r="Q63" s="15"/>
+      <c r="R63" s="15"/>
+      <c r="S63" s="15"/>
+      <c r="T63" s="15"/>
+      <c r="U63" s="15"/>
+      <c r="V63" s="15"/>
+      <c r="W63" s="15"/>
+      <c r="X63" s="15"/>
+      <c r="Y63" s="15"/>
+      <c r="Z63" s="15"/>
     </row>
     <row r="65" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="H65" s="14" t="s">
+      <c r="H65" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="I65" s="14"/>
-      <c r="J65" s="14"/>
-      <c r="K65" s="14"/>
-      <c r="L65" s="15" t="s">
+      <c r="I65" s="18"/>
+      <c r="J65" s="18"/>
+      <c r="K65" s="18"/>
+      <c r="L65" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="M65" s="15"/>
-      <c r="N65" s="15"/>
-      <c r="O65" s="15"/>
-      <c r="P65" s="15"/>
+      <c r="M65" s="17"/>
+      <c r="N65" s="17"/>
+      <c r="O65" s="17"/>
+      <c r="P65" s="17"/>
       <c r="Q65" s="1"/>
-      <c r="R65" s="15" t="s">
+      <c r="R65" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="S65" s="15"/>
-      <c r="T65" s="15"/>
+      <c r="S65" s="17"/>
+      <c r="T65" s="17"/>
       <c r="U65" s="1"/>
-      <c r="V65" s="15" t="s">
+      <c r="V65" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="W65" s="15"/>
-      <c r="X65" s="15"/>
-      <c r="Y65" s="15"/>
-      <c r="Z65" s="15"/>
+      <c r="W65" s="17"/>
+      <c r="X65" s="17"/>
+      <c r="Y65" s="17"/>
+      <c r="Z65" s="17"/>
     </row>
     <row r="66" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="H66" s="14"/>
-      <c r="I66" s="14"/>
-      <c r="J66" s="14"/>
-      <c r="K66" s="14"/>
-      <c r="L66" s="15"/>
-      <c r="M66" s="15"/>
-      <c r="N66" s="15"/>
-      <c r="O66" s="15"/>
-      <c r="P66" s="15"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="18"/>
+      <c r="J66" s="18"/>
+      <c r="K66" s="18"/>
+      <c r="L66" s="17"/>
+      <c r="M66" s="17"/>
+      <c r="N66" s="17"/>
+      <c r="O66" s="17"/>
+      <c r="P66" s="17"/>
       <c r="Q66" s="1"/>
-      <c r="R66" s="15"/>
-      <c r="S66" s="15"/>
-      <c r="T66" s="15"/>
+      <c r="R66" s="17"/>
+      <c r="S66" s="17"/>
+      <c r="T66" s="17"/>
       <c r="U66" s="1"/>
-      <c r="V66" s="15"/>
-      <c r="W66" s="15"/>
-      <c r="X66" s="15"/>
-      <c r="Y66" s="15"/>
-      <c r="Z66" s="15"/>
+      <c r="V66" s="17"/>
+      <c r="W66" s="17"/>
+      <c r="X66" s="17"/>
+      <c r="Y66" s="17"/>
+      <c r="Z66" s="17"/>
     </row>
     <row r="68" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="H68" s="13" t="s">
+      <c r="H68" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="I68" s="13"/>
-      <c r="J68" s="13"/>
-      <c r="K68" s="13"/>
-      <c r="L68" s="13"/>
-      <c r="M68" s="13"/>
-      <c r="N68" s="13"/>
-      <c r="O68" s="13"/>
-      <c r="P68" s="13"/>
-      <c r="Q68" s="13"/>
-      <c r="R68" s="13"/>
-      <c r="S68" s="13"/>
-      <c r="T68" s="13"/>
-      <c r="U68" s="13"/>
-      <c r="V68" s="13"/>
-      <c r="W68" s="13"/>
-      <c r="X68" s="13"/>
-      <c r="Y68" s="13"/>
-      <c r="Z68" s="13"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="15"/>
+      <c r="K68" s="15"/>
+      <c r="L68" s="15"/>
+      <c r="M68" s="15"/>
+      <c r="N68" s="15"/>
+      <c r="O68" s="15"/>
+      <c r="P68" s="15"/>
+      <c r="Q68" s="15"/>
+      <c r="R68" s="15"/>
+      <c r="S68" s="15"/>
+      <c r="T68" s="15"/>
+      <c r="U68" s="15"/>
+      <c r="V68" s="15"/>
+      <c r="W68" s="15"/>
+      <c r="X68" s="15"/>
+      <c r="Y68" s="15"/>
+      <c r="Z68" s="15"/>
     </row>
     <row r="69" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="H69" s="13"/>
-      <c r="I69" s="13"/>
-      <c r="J69" s="13"/>
-      <c r="K69" s="13"/>
-      <c r="L69" s="13"/>
-      <c r="M69" s="13"/>
-      <c r="N69" s="13"/>
-      <c r="O69" s="13"/>
-      <c r="P69" s="13"/>
-      <c r="Q69" s="13"/>
-      <c r="R69" s="13"/>
-      <c r="S69" s="13"/>
-      <c r="T69" s="13"/>
-      <c r="U69" s="13"/>
-      <c r="V69" s="13"/>
-      <c r="W69" s="13"/>
-      <c r="X69" s="13"/>
-      <c r="Y69" s="13"/>
-      <c r="Z69" s="13"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="15"/>
+      <c r="K69" s="15"/>
+      <c r="L69" s="15"/>
+      <c r="M69" s="15"/>
+      <c r="N69" s="15"/>
+      <c r="O69" s="15"/>
+      <c r="P69" s="15"/>
+      <c r="Q69" s="15"/>
+      <c r="R69" s="15"/>
+      <c r="S69" s="15"/>
+      <c r="T69" s="15"/>
+      <c r="U69" s="15"/>
+      <c r="V69" s="15"/>
+      <c r="W69" s="15"/>
+      <c r="X69" s="15"/>
+      <c r="Y69" s="15"/>
+      <c r="Z69" s="15"/>
     </row>
     <row r="71" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="H71" s="14" t="s">
+      <c r="H71" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="I71" s="14"/>
-      <c r="J71" s="14"/>
-      <c r="K71" s="14"/>
-      <c r="L71" s="15" t="s">
+      <c r="I71" s="18"/>
+      <c r="J71" s="18"/>
+      <c r="K71" s="18"/>
+      <c r="L71" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="M71" s="15"/>
-      <c r="N71" s="15"/>
-      <c r="O71" s="15"/>
-      <c r="P71" s="15"/>
+      <c r="M71" s="17"/>
+      <c r="N71" s="17"/>
+      <c r="O71" s="17"/>
+      <c r="P71" s="17"/>
       <c r="Q71" s="1"/>
-      <c r="R71" s="15" t="s">
+      <c r="R71" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="S71" s="15"/>
-      <c r="T71" s="15"/>
+      <c r="S71" s="17"/>
+      <c r="T71" s="17"/>
       <c r="U71" s="1"/>
-      <c r="V71" s="15" t="s">
+      <c r="V71" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="W71" s="15"/>
-      <c r="X71" s="15"/>
-      <c r="Y71" s="15"/>
-      <c r="Z71" s="15"/>
+      <c r="W71" s="17"/>
+      <c r="X71" s="17"/>
+      <c r="Y71" s="17"/>
+      <c r="Z71" s="17"/>
     </row>
     <row r="72" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="H72" s="14"/>
-      <c r="I72" s="14"/>
-      <c r="J72" s="14"/>
-      <c r="K72" s="14"/>
-      <c r="L72" s="15"/>
-      <c r="M72" s="15"/>
-      <c r="N72" s="15"/>
-      <c r="O72" s="15"/>
-      <c r="P72" s="15"/>
+      <c r="H72" s="18"/>
+      <c r="I72" s="18"/>
+      <c r="J72" s="18"/>
+      <c r="K72" s="18"/>
+      <c r="L72" s="17"/>
+      <c r="M72" s="17"/>
+      <c r="N72" s="17"/>
+      <c r="O72" s="17"/>
+      <c r="P72" s="17"/>
       <c r="Q72" s="1"/>
-      <c r="R72" s="15"/>
-      <c r="S72" s="15"/>
-      <c r="T72" s="15"/>
+      <c r="R72" s="17"/>
+      <c r="S72" s="17"/>
+      <c r="T72" s="17"/>
       <c r="U72" s="1"/>
-      <c r="V72" s="15"/>
-      <c r="W72" s="15"/>
-      <c r="X72" s="15"/>
-      <c r="Y72" s="15"/>
-      <c r="Z72" s="15"/>
+      <c r="V72" s="17"/>
+      <c r="W72" s="17"/>
+      <c r="X72" s="17"/>
+      <c r="Y72" s="17"/>
+      <c r="Z72" s="17"/>
     </row>
     <row r="75" spans="8:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I75" s="12" t="s">
+      <c r="I75" s="14" t="s">
         <v>41</v>
       </c>
       <c r="K75" s="9">
@@ -3029,16 +3053,16 @@
       <c r="S75" s="11"/>
       <c r="T75" s="11"/>
       <c r="U75" s="1"/>
-      <c r="V75" s="13" t="s">
+      <c r="V75" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="W75" s="13"/>
-      <c r="X75" s="13"/>
-      <c r="Y75" s="13"/>
-      <c r="Z75" s="13"/>
+      <c r="W75" s="15"/>
+      <c r="X75" s="15"/>
+      <c r="Y75" s="15"/>
+      <c r="Z75" s="15"/>
     </row>
     <row r="76" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="I76" s="12"/>
+      <c r="I76" s="14"/>
       <c r="K76" s="9"/>
       <c r="L76" s="10"/>
       <c r="M76" s="10"/>
@@ -3050,17 +3074,17 @@
       <c r="S76" s="11"/>
       <c r="T76" s="11"/>
       <c r="U76" s="1"/>
-      <c r="V76" s="13"/>
-      <c r="W76" s="13"/>
-      <c r="X76" s="13"/>
-      <c r="Y76" s="13"/>
-      <c r="Z76" s="13"/>
+      <c r="V76" s="15"/>
+      <c r="W76" s="15"/>
+      <c r="X76" s="15"/>
+      <c r="Y76" s="15"/>
+      <c r="Z76" s="15"/>
     </row>
     <row r="77" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="I77" s="12"/>
+      <c r="I77" s="14"/>
     </row>
     <row r="78" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="I78" s="12"/>
+      <c r="I78" s="14"/>
       <c r="K78" s="9">
         <v>2</v>
       </c>
@@ -3078,16 +3102,16 @@
       <c r="S78" s="11"/>
       <c r="T78" s="11"/>
       <c r="U78" s="1"/>
-      <c r="V78" s="13" t="s">
+      <c r="V78" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="W78" s="13"/>
-      <c r="X78" s="13"/>
-      <c r="Y78" s="13"/>
-      <c r="Z78" s="13"/>
+      <c r="W78" s="15"/>
+      <c r="X78" s="15"/>
+      <c r="Y78" s="15"/>
+      <c r="Z78" s="15"/>
     </row>
     <row r="79" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="I79" s="12"/>
+      <c r="I79" s="14"/>
       <c r="K79" s="9"/>
       <c r="L79" s="11"/>
       <c r="M79" s="11"/>
@@ -3099,17 +3123,17 @@
       <c r="S79" s="11"/>
       <c r="T79" s="11"/>
       <c r="U79" s="1"/>
-      <c r="V79" s="13"/>
-      <c r="W79" s="13"/>
-      <c r="X79" s="13"/>
-      <c r="Y79" s="13"/>
-      <c r="Z79" s="13"/>
+      <c r="V79" s="15"/>
+      <c r="W79" s="15"/>
+      <c r="X79" s="15"/>
+      <c r="Y79" s="15"/>
+      <c r="Z79" s="15"/>
     </row>
     <row r="80" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="I80" s="12"/>
+      <c r="I80" s="14"/>
     </row>
     <row r="81" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I81" s="12"/>
+      <c r="I81" s="14"/>
       <c r="K81" s="9">
         <v>3</v>
       </c>
@@ -3126,17 +3150,17 @@
       </c>
       <c r="S81" s="11"/>
       <c r="T81" s="11"/>
-      <c r="V81" s="13" t="s">
+      <c r="V81" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="W81" s="13"/>
-      <c r="X81" s="13"/>
-      <c r="Y81" s="13"/>
-      <c r="Z81" s="13"/>
+      <c r="W81" s="15"/>
+      <c r="X81" s="15"/>
+      <c r="Y81" s="15"/>
+      <c r="Z81" s="15"/>
     </row>
     <row r="82" spans="7:26" x14ac:dyDescent="0.45">
       <c r="G82" s="3"/>
-      <c r="I82" s="12"/>
+      <c r="I82" s="14"/>
       <c r="K82" s="9"/>
       <c r="L82" s="11"/>
       <c r="M82" s="11"/>
@@ -3147,19 +3171,19 @@
       <c r="R82" s="11"/>
       <c r="S82" s="11"/>
       <c r="T82" s="11"/>
-      <c r="V82" s="13"/>
-      <c r="W82" s="13"/>
-      <c r="X82" s="13"/>
-      <c r="Y82" s="13"/>
-      <c r="Z82" s="13"/>
+      <c r="V82" s="15"/>
+      <c r="W82" s="15"/>
+      <c r="X82" s="15"/>
+      <c r="Y82" s="15"/>
+      <c r="Z82" s="15"/>
     </row>
     <row r="83" spans="7:26" x14ac:dyDescent="0.45">
       <c r="G83" s="3"/>
-      <c r="I83" s="12"/>
+      <c r="I83" s="14"/>
     </row>
     <row r="84" spans="7:26" x14ac:dyDescent="0.45">
       <c r="G84" s="3"/>
-      <c r="I84" s="12"/>
+      <c r="I84" s="14"/>
       <c r="K84" s="9">
         <v>4</v>
       </c>
@@ -3176,17 +3200,17 @@
       </c>
       <c r="S84" s="11"/>
       <c r="T84" s="11"/>
-      <c r="V84" s="13" t="s">
+      <c r="V84" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="W84" s="13"/>
-      <c r="X84" s="13"/>
-      <c r="Y84" s="13"/>
-      <c r="Z84" s="13"/>
+      <c r="W84" s="15"/>
+      <c r="X84" s="15"/>
+      <c r="Y84" s="15"/>
+      <c r="Z84" s="15"/>
     </row>
     <row r="85" spans="7:26" x14ac:dyDescent="0.45">
       <c r="G85" s="3"/>
-      <c r="I85" s="12"/>
+      <c r="I85" s="14"/>
       <c r="K85" s="9"/>
       <c r="L85" s="11"/>
       <c r="M85" s="11"/>
@@ -3197,21 +3221,21 @@
       <c r="R85" s="11"/>
       <c r="S85" s="11"/>
       <c r="T85" s="11"/>
-      <c r="V85" s="13"/>
-      <c r="W85" s="13"/>
-      <c r="X85" s="13"/>
-      <c r="Y85" s="13"/>
-      <c r="Z85" s="13"/>
+      <c r="V85" s="15"/>
+      <c r="W85" s="15"/>
+      <c r="X85" s="15"/>
+      <c r="Y85" s="15"/>
+      <c r="Z85" s="15"/>
     </row>
     <row r="86" spans="7:26" x14ac:dyDescent="0.45">
       <c r="G86" s="3"/>
-      <c r="I86" s="12"/>
+      <c r="I86" s="14"/>
     </row>
     <row r="87" spans="7:26" x14ac:dyDescent="0.45">
       <c r="G87" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I87" s="12"/>
+      <c r="I87" s="14"/>
       <c r="K87" s="9">
         <v>5</v>
       </c>
@@ -3228,19 +3252,19 @@
       </c>
       <c r="S87" s="11"/>
       <c r="T87" s="11"/>
-      <c r="V87" s="13" t="s">
+      <c r="V87" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="W87" s="13"/>
-      <c r="X87" s="13"/>
-      <c r="Y87" s="13"/>
-      <c r="Z87" s="13"/>
+      <c r="W87" s="15"/>
+      <c r="X87" s="15"/>
+      <c r="Y87" s="15"/>
+      <c r="Z87" s="15"/>
     </row>
     <row r="88" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="G88" s="16" t="s">
+      <c r="G88" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="I88" s="12"/>
+      <c r="I88" s="14"/>
       <c r="K88" s="9"/>
       <c r="L88" s="11"/>
       <c r="M88" s="11"/>
@@ -3251,21 +3275,21 @@
       <c r="R88" s="11"/>
       <c r="S88" s="11"/>
       <c r="T88" s="11"/>
-      <c r="V88" s="13"/>
-      <c r="W88" s="13"/>
-      <c r="X88" s="13"/>
-      <c r="Y88" s="13"/>
-      <c r="Z88" s="13"/>
+      <c r="V88" s="15"/>
+      <c r="W88" s="15"/>
+      <c r="X88" s="15"/>
+      <c r="Y88" s="15"/>
+      <c r="Z88" s="15"/>
     </row>
     <row r="89" spans="7:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G89" s="16"/>
+      <c r="G89" s="12"/>
     </row>
     <row r="90" spans="7:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G90" s="16"/>
+      <c r="G90" s="12"/>
     </row>
     <row r="91" spans="7:26" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G91" s="16"/>
-      <c r="I91" s="12" t="s">
+      <c r="G91" s="12"/>
+      <c r="I91" s="14" t="s">
         <v>45</v>
       </c>
       <c r="K91" s="9">
@@ -3284,17 +3308,17 @@
       </c>
       <c r="S91" s="11"/>
       <c r="T91" s="11"/>
-      <c r="V91" s="19" t="s">
+      <c r="V91" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="W91" s="19"/>
-      <c r="X91" s="19"/>
-      <c r="Y91" s="19"/>
-      <c r="Z91" s="19"/>
+      <c r="W91" s="16"/>
+      <c r="X91" s="16"/>
+      <c r="Y91" s="16"/>
+      <c r="Z91" s="16"/>
     </row>
     <row r="92" spans="7:26" x14ac:dyDescent="0.45">
       <c r="G92" s="3"/>
-      <c r="I92" s="12"/>
+      <c r="I92" s="14"/>
       <c r="K92" s="9"/>
       <c r="L92" s="10"/>
       <c r="M92" s="10"/>
@@ -3305,19 +3329,19 @@
       <c r="R92" s="11"/>
       <c r="S92" s="11"/>
       <c r="T92" s="11"/>
-      <c r="V92" s="19"/>
-      <c r="W92" s="19"/>
-      <c r="X92" s="19"/>
-      <c r="Y92" s="19"/>
-      <c r="Z92" s="19"/>
+      <c r="V92" s="16"/>
+      <c r="W92" s="16"/>
+      <c r="X92" s="16"/>
+      <c r="Y92" s="16"/>
+      <c r="Z92" s="16"/>
     </row>
     <row r="93" spans="7:26" x14ac:dyDescent="0.45">
       <c r="G93" s="3"/>
-      <c r="I93" s="12"/>
+      <c r="I93" s="14"/>
     </row>
     <row r="94" spans="7:26" x14ac:dyDescent="0.45">
       <c r="G94" s="3"/>
-      <c r="I94" s="12"/>
+      <c r="I94" s="14"/>
       <c r="K94" s="9">
         <v>2</v>
       </c>
@@ -3334,17 +3358,17 @@
       </c>
       <c r="S94" s="11"/>
       <c r="T94" s="11"/>
-      <c r="V94" s="19" t="s">
+      <c r="V94" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="W94" s="19"/>
-      <c r="X94" s="19"/>
-      <c r="Y94" s="19"/>
-      <c r="Z94" s="19"/>
+      <c r="W94" s="16"/>
+      <c r="X94" s="16"/>
+      <c r="Y94" s="16"/>
+      <c r="Z94" s="16"/>
     </row>
     <row r="95" spans="7:26" x14ac:dyDescent="0.45">
       <c r="G95" s="3"/>
-      <c r="I95" s="12"/>
+      <c r="I95" s="14"/>
       <c r="K95" s="9"/>
       <c r="L95" s="10"/>
       <c r="M95" s="10"/>
@@ -3355,69 +3379,69 @@
       <c r="R95" s="11"/>
       <c r="S95" s="11"/>
       <c r="T95" s="11"/>
-      <c r="V95" s="19"/>
-      <c r="W95" s="19"/>
-      <c r="X95" s="19"/>
-      <c r="Y95" s="19"/>
-      <c r="Z95" s="19"/>
+      <c r="V95" s="16"/>
+      <c r="W95" s="16"/>
+      <c r="X95" s="16"/>
+      <c r="Y95" s="16"/>
+      <c r="Z95" s="16"/>
     </row>
     <row r="96" spans="7:26" x14ac:dyDescent="0.45">
       <c r="G96" s="3"/>
     </row>
     <row r="97" spans="7:26" x14ac:dyDescent="0.45">
       <c r="G97" s="3"/>
-      <c r="H97" s="14" t="s">
+      <c r="H97" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="I97" s="14"/>
-      <c r="J97" s="14"/>
-      <c r="K97" s="14"/>
-      <c r="L97" s="15" t="s">
+      <c r="I97" s="18"/>
+      <c r="J97" s="18"/>
+      <c r="K97" s="18"/>
+      <c r="L97" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="M97" s="15"/>
-      <c r="N97" s="15"/>
-      <c r="O97" s="15"/>
-      <c r="P97" s="15"/>
+      <c r="M97" s="17"/>
+      <c r="N97" s="17"/>
+      <c r="O97" s="17"/>
+      <c r="P97" s="17"/>
       <c r="Q97" s="1"/>
-      <c r="R97" s="15" t="s">
+      <c r="R97" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="S97" s="15"/>
-      <c r="T97" s="15"/>
+      <c r="S97" s="17"/>
+      <c r="T97" s="17"/>
       <c r="U97" s="1"/>
-      <c r="V97" s="15" t="s">
+      <c r="V97" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="W97" s="15"/>
-      <c r="X97" s="15"/>
-      <c r="Y97" s="15"/>
-      <c r="Z97" s="15"/>
+      <c r="W97" s="17"/>
+      <c r="X97" s="17"/>
+      <c r="Y97" s="17"/>
+      <c r="Z97" s="17"/>
     </row>
     <row r="98" spans="7:26" x14ac:dyDescent="0.45">
       <c r="G98" s="3"/>
-      <c r="H98" s="14"/>
-      <c r="I98" s="14"/>
-      <c r="J98" s="14"/>
-      <c r="K98" s="14"/>
-      <c r="L98" s="15"/>
-      <c r="M98" s="15"/>
-      <c r="N98" s="15"/>
-      <c r="O98" s="15"/>
-      <c r="P98" s="15"/>
+      <c r="H98" s="18"/>
+      <c r="I98" s="18"/>
+      <c r="J98" s="18"/>
+      <c r="K98" s="18"/>
+      <c r="L98" s="17"/>
+      <c r="M98" s="17"/>
+      <c r="N98" s="17"/>
+      <c r="O98" s="17"/>
+      <c r="P98" s="17"/>
       <c r="Q98" s="1"/>
-      <c r="R98" s="15"/>
-      <c r="S98" s="15"/>
-      <c r="T98" s="15"/>
+      <c r="R98" s="17"/>
+      <c r="S98" s="17"/>
+      <c r="T98" s="17"/>
       <c r="U98" s="1"/>
-      <c r="V98" s="15"/>
-      <c r="W98" s="15"/>
-      <c r="X98" s="15"/>
-      <c r="Y98" s="15"/>
-      <c r="Z98" s="15"/>
+      <c r="V98" s="17"/>
+      <c r="W98" s="17"/>
+      <c r="X98" s="17"/>
+      <c r="Y98" s="17"/>
+      <c r="Z98" s="17"/>
     </row>
     <row r="101" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I101" s="12" t="s">
+      <c r="I101" s="14" t="s">
         <v>41</v>
       </c>
       <c r="K101" s="9">
@@ -3437,16 +3461,16 @@
       <c r="S101" s="11"/>
       <c r="T101" s="11"/>
       <c r="U101" s="1"/>
-      <c r="V101" s="17" t="s">
+      <c r="V101" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="W101" s="17"/>
-      <c r="X101" s="17"/>
-      <c r="Y101" s="17"/>
-      <c r="Z101" s="17"/>
+      <c r="W101" s="8"/>
+      <c r="X101" s="8"/>
+      <c r="Y101" s="8"/>
+      <c r="Z101" s="8"/>
     </row>
     <row r="102" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I102" s="12"/>
+      <c r="I102" s="14"/>
       <c r="K102" s="9"/>
       <c r="L102" s="10"/>
       <c r="M102" s="10"/>
@@ -3458,17 +3482,17 @@
       <c r="S102" s="11"/>
       <c r="T102" s="11"/>
       <c r="U102" s="1"/>
-      <c r="V102" s="17"/>
-      <c r="W102" s="17"/>
-      <c r="X102" s="17"/>
-      <c r="Y102" s="17"/>
-      <c r="Z102" s="17"/>
+      <c r="V102" s="8"/>
+      <c r="W102" s="8"/>
+      <c r="X102" s="8"/>
+      <c r="Y102" s="8"/>
+      <c r="Z102" s="8"/>
     </row>
     <row r="103" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I103" s="12"/>
+      <c r="I103" s="14"/>
     </row>
     <row r="104" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I104" s="12"/>
+      <c r="I104" s="14"/>
       <c r="K104" s="9">
         <v>2</v>
       </c>
@@ -3486,16 +3510,16 @@
       <c r="S104" s="11"/>
       <c r="T104" s="11"/>
       <c r="U104" s="1"/>
-      <c r="V104" s="13" t="s">
+      <c r="V104" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="W104" s="13"/>
-      <c r="X104" s="13"/>
-      <c r="Y104" s="13"/>
-      <c r="Z104" s="13"/>
+      <c r="W104" s="15"/>
+      <c r="X104" s="15"/>
+      <c r="Y104" s="15"/>
+      <c r="Z104" s="15"/>
     </row>
     <row r="105" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I105" s="12"/>
+      <c r="I105" s="14"/>
       <c r="K105" s="9"/>
       <c r="L105" s="11"/>
       <c r="M105" s="11"/>
@@ -3507,17 +3531,17 @@
       <c r="S105" s="11"/>
       <c r="T105" s="11"/>
       <c r="U105" s="1"/>
-      <c r="V105" s="13"/>
-      <c r="W105" s="13"/>
-      <c r="X105" s="13"/>
-      <c r="Y105" s="13"/>
-      <c r="Z105" s="13"/>
+      <c r="V105" s="15"/>
+      <c r="W105" s="15"/>
+      <c r="X105" s="15"/>
+      <c r="Y105" s="15"/>
+      <c r="Z105" s="15"/>
     </row>
     <row r="106" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I106" s="12"/>
+      <c r="I106" s="14"/>
     </row>
     <row r="107" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I107" s="12"/>
+      <c r="I107" s="14"/>
       <c r="K107" s="9">
         <v>3</v>
       </c>
@@ -3534,16 +3558,16 @@
       </c>
       <c r="S107" s="11"/>
       <c r="T107" s="11"/>
-      <c r="V107" s="13" t="s">
+      <c r="V107" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="W107" s="13"/>
-      <c r="X107" s="13"/>
-      <c r="Y107" s="13"/>
-      <c r="Z107" s="13"/>
+      <c r="W107" s="15"/>
+      <c r="X107" s="15"/>
+      <c r="Y107" s="15"/>
+      <c r="Z107" s="15"/>
     </row>
     <row r="108" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I108" s="12"/>
+      <c r="I108" s="14"/>
       <c r="K108" s="9"/>
       <c r="L108" s="11"/>
       <c r="M108" s="11"/>
@@ -3554,17 +3578,17 @@
       <c r="R108" s="11"/>
       <c r="S108" s="11"/>
       <c r="T108" s="11"/>
-      <c r="V108" s="13"/>
-      <c r="W108" s="13"/>
-      <c r="X108" s="13"/>
-      <c r="Y108" s="13"/>
-      <c r="Z108" s="13"/>
+      <c r="V108" s="15"/>
+      <c r="W108" s="15"/>
+      <c r="X108" s="15"/>
+      <c r="Y108" s="15"/>
+      <c r="Z108" s="15"/>
     </row>
     <row r="109" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I109" s="12"/>
+      <c r="I109" s="14"/>
     </row>
     <row r="110" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I110" s="12"/>
+      <c r="I110" s="14"/>
       <c r="K110" s="9">
         <v>4</v>
       </c>
@@ -3581,16 +3605,16 @@
       </c>
       <c r="S110" s="11"/>
       <c r="T110" s="11"/>
-      <c r="V110" s="13" t="s">
+      <c r="V110" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="W110" s="13"/>
-      <c r="X110" s="13"/>
-      <c r="Y110" s="13"/>
-      <c r="Z110" s="13"/>
+      <c r="W110" s="15"/>
+      <c r="X110" s="15"/>
+      <c r="Y110" s="15"/>
+      <c r="Z110" s="15"/>
     </row>
     <row r="111" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I111" s="12"/>
+      <c r="I111" s="14"/>
       <c r="K111" s="9"/>
       <c r="L111" s="11"/>
       <c r="M111" s="11"/>
@@ -3601,17 +3625,17 @@
       <c r="R111" s="11"/>
       <c r="S111" s="11"/>
       <c r="T111" s="11"/>
-      <c r="V111" s="13"/>
-      <c r="W111" s="13"/>
-      <c r="X111" s="13"/>
-      <c r="Y111" s="13"/>
-      <c r="Z111" s="13"/>
+      <c r="V111" s="15"/>
+      <c r="W111" s="15"/>
+      <c r="X111" s="15"/>
+      <c r="Y111" s="15"/>
+      <c r="Z111" s="15"/>
     </row>
     <row r="112" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I112" s="12"/>
+      <c r="I112" s="14"/>
     </row>
     <row r="113" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I113" s="12"/>
+      <c r="I113" s="14"/>
       <c r="K113" s="9">
         <v>5</v>
       </c>
@@ -3628,19 +3652,19 @@
       </c>
       <c r="S113" s="11"/>
       <c r="T113" s="11"/>
-      <c r="V113" s="13" t="s">
+      <c r="V113" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="W113" s="13"/>
-      <c r="X113" s="13"/>
-      <c r="Y113" s="13"/>
-      <c r="Z113" s="13"/>
+      <c r="W113" s="15"/>
+      <c r="X113" s="15"/>
+      <c r="Y113" s="15"/>
+      <c r="Z113" s="15"/>
     </row>
     <row r="114" spans="7:26" x14ac:dyDescent="0.45">
       <c r="G114" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I114" s="12"/>
+      <c r="I114" s="14"/>
       <c r="K114" s="9"/>
       <c r="L114" s="11"/>
       <c r="M114" s="11"/>
@@ -3651,23 +3675,23 @@
       <c r="R114" s="11"/>
       <c r="S114" s="11"/>
       <c r="T114" s="11"/>
-      <c r="V114" s="13"/>
-      <c r="W114" s="13"/>
-      <c r="X114" s="13"/>
-      <c r="Y114" s="13"/>
-      <c r="Z114" s="13"/>
+      <c r="V114" s="15"/>
+      <c r="W114" s="15"/>
+      <c r="X114" s="15"/>
+      <c r="Y114" s="15"/>
+      <c r="Z114" s="15"/>
     </row>
     <row r="115" spans="7:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G115" s="16" t="s">
+      <c r="G115" s="12" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="116" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="G116" s="16"/>
+      <c r="G116" s="12"/>
     </row>
     <row r="117" spans="7:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G117" s="16"/>
-      <c r="I117" s="12" t="s">
+      <c r="G117" s="12"/>
+      <c r="I117" s="14" t="s">
         <v>45</v>
       </c>
       <c r="K117" s="9">
@@ -3686,17 +3710,17 @@
       </c>
       <c r="S117" s="11"/>
       <c r="T117" s="11"/>
-      <c r="V117" s="17" t="s">
+      <c r="V117" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="W117" s="17"/>
-      <c r="X117" s="17"/>
-      <c r="Y117" s="17"/>
-      <c r="Z117" s="17"/>
+      <c r="W117" s="8"/>
+      <c r="X117" s="8"/>
+      <c r="Y117" s="8"/>
+      <c r="Z117" s="8"/>
     </row>
     <row r="118" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="G118" s="16"/>
-      <c r="I118" s="12"/>
+      <c r="G118" s="12"/>
+      <c r="I118" s="14"/>
       <c r="K118" s="9"/>
       <c r="L118" s="10"/>
       <c r="M118" s="10"/>
@@ -3707,17 +3731,17 @@
       <c r="R118" s="11"/>
       <c r="S118" s="11"/>
       <c r="T118" s="11"/>
-      <c r="V118" s="17"/>
-      <c r="W118" s="17"/>
-      <c r="X118" s="17"/>
-      <c r="Y118" s="17"/>
-      <c r="Z118" s="17"/>
+      <c r="V118" s="8"/>
+      <c r="W118" s="8"/>
+      <c r="X118" s="8"/>
+      <c r="Y118" s="8"/>
+      <c r="Z118" s="8"/>
     </row>
     <row r="119" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I119" s="12"/>
+      <c r="I119" s="14"/>
     </row>
     <row r="120" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I120" s="12"/>
+      <c r="I120" s="14"/>
       <c r="K120" s="9">
         <v>2</v>
       </c>
@@ -3734,16 +3758,16 @@
       </c>
       <c r="S120" s="11"/>
       <c r="T120" s="11"/>
-      <c r="V120" s="17" t="s">
+      <c r="V120" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="W120" s="17"/>
-      <c r="X120" s="17"/>
-      <c r="Y120" s="17"/>
-      <c r="Z120" s="17"/>
+      <c r="W120" s="8"/>
+      <c r="X120" s="8"/>
+      <c r="Y120" s="8"/>
+      <c r="Z120" s="8"/>
     </row>
     <row r="121" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I121" s="12"/>
+      <c r="I121" s="14"/>
       <c r="K121" s="9"/>
       <c r="L121" s="10"/>
       <c r="M121" s="10"/>
@@ -3754,17 +3778,17 @@
       <c r="R121" s="11"/>
       <c r="S121" s="11"/>
       <c r="T121" s="11"/>
-      <c r="V121" s="17"/>
-      <c r="W121" s="17"/>
-      <c r="X121" s="17"/>
-      <c r="Y121" s="17"/>
-      <c r="Z121" s="17"/>
+      <c r="V121" s="8"/>
+      <c r="W121" s="8"/>
+      <c r="X121" s="8"/>
+      <c r="Y121" s="8"/>
+      <c r="Z121" s="8"/>
     </row>
     <row r="122" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I122" s="12"/>
+      <c r="I122" s="14"/>
     </row>
     <row r="123" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I123" s="12"/>
+      <c r="I123" s="14"/>
       <c r="K123" s="9">
         <v>3</v>
       </c>
@@ -3781,16 +3805,16 @@
       </c>
       <c r="S123" s="11"/>
       <c r="T123" s="11"/>
-      <c r="V123" s="17" t="s">
+      <c r="V123" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="W123" s="17"/>
-      <c r="X123" s="17"/>
-      <c r="Y123" s="17"/>
-      <c r="Z123" s="17"/>
+      <c r="W123" s="8"/>
+      <c r="X123" s="8"/>
+      <c r="Y123" s="8"/>
+      <c r="Z123" s="8"/>
     </row>
     <row r="124" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I124" s="12"/>
+      <c r="I124" s="14"/>
       <c r="K124" s="9"/>
       <c r="L124" s="10"/>
       <c r="M124" s="10"/>
@@ -3801,17 +3825,17 @@
       <c r="R124" s="11"/>
       <c r="S124" s="11"/>
       <c r="T124" s="11"/>
-      <c r="V124" s="17"/>
-      <c r="W124" s="17"/>
-      <c r="X124" s="17"/>
-      <c r="Y124" s="17"/>
-      <c r="Z124" s="17"/>
+      <c r="V124" s="8"/>
+      <c r="W124" s="8"/>
+      <c r="X124" s="8"/>
+      <c r="Y124" s="8"/>
+      <c r="Z124" s="8"/>
     </row>
     <row r="125" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I125" s="12"/>
+      <c r="I125" s="14"/>
     </row>
     <row r="126" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I126" s="12"/>
+      <c r="I126" s="14"/>
       <c r="K126" s="9">
         <v>4</v>
       </c>
@@ -3828,16 +3852,16 @@
       </c>
       <c r="S126" s="11"/>
       <c r="T126" s="11"/>
-      <c r="V126" s="17" t="s">
+      <c r="V126" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="W126" s="17"/>
-      <c r="X126" s="17"/>
-      <c r="Y126" s="17"/>
-      <c r="Z126" s="17"/>
+      <c r="W126" s="8"/>
+      <c r="X126" s="8"/>
+      <c r="Y126" s="8"/>
+      <c r="Z126" s="8"/>
     </row>
     <row r="127" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I127" s="12"/>
+      <c r="I127" s="14"/>
       <c r="K127" s="9"/>
       <c r="L127" s="10"/>
       <c r="M127" s="10"/>
@@ -3848,17 +3872,17 @@
       <c r="R127" s="11"/>
       <c r="S127" s="11"/>
       <c r="T127" s="11"/>
-      <c r="V127" s="17"/>
-      <c r="W127" s="17"/>
-      <c r="X127" s="17"/>
-      <c r="Y127" s="17"/>
-      <c r="Z127" s="17"/>
+      <c r="V127" s="8"/>
+      <c r="W127" s="8"/>
+      <c r="X127" s="8"/>
+      <c r="Y127" s="8"/>
+      <c r="Z127" s="8"/>
     </row>
     <row r="128" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I128" s="12"/>
+      <c r="I128" s="14"/>
     </row>
     <row r="129" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I129" s="12"/>
+      <c r="I129" s="14"/>
       <c r="K129" s="9">
         <v>5</v>
       </c>
@@ -3875,16 +3899,16 @@
       </c>
       <c r="S129" s="11"/>
       <c r="T129" s="11"/>
-      <c r="V129" s="17" t="s">
+      <c r="V129" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="W129" s="17"/>
-      <c r="X129" s="17"/>
-      <c r="Y129" s="17"/>
-      <c r="Z129" s="17"/>
+      <c r="W129" s="8"/>
+      <c r="X129" s="8"/>
+      <c r="Y129" s="8"/>
+      <c r="Z129" s="8"/>
     </row>
     <row r="130" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I130" s="12"/>
+      <c r="I130" s="14"/>
       <c r="K130" s="9"/>
       <c r="L130" s="10"/>
       <c r="M130" s="10"/>
@@ -3895,64 +3919,64 @@
       <c r="R130" s="11"/>
       <c r="S130" s="11"/>
       <c r="T130" s="11"/>
-      <c r="V130" s="17"/>
-      <c r="W130" s="17"/>
-      <c r="X130" s="17"/>
-      <c r="Y130" s="17"/>
-      <c r="Z130" s="17"/>
+      <c r="V130" s="8"/>
+      <c r="W130" s="8"/>
+      <c r="X130" s="8"/>
+      <c r="Y130" s="8"/>
+      <c r="Z130" s="8"/>
     </row>
     <row r="132" spans="7:26" x14ac:dyDescent="0.45">
       <c r="G132" s="3"/>
-      <c r="H132" s="14" t="s">
+      <c r="H132" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="I132" s="14"/>
-      <c r="J132" s="14"/>
-      <c r="K132" s="14"/>
-      <c r="L132" s="15" t="s">
+      <c r="I132" s="18"/>
+      <c r="J132" s="18"/>
+      <c r="K132" s="18"/>
+      <c r="L132" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="M132" s="15"/>
-      <c r="N132" s="15"/>
-      <c r="O132" s="15"/>
-      <c r="P132" s="15"/>
+      <c r="M132" s="17"/>
+      <c r="N132" s="17"/>
+      <c r="O132" s="17"/>
+      <c r="P132" s="17"/>
       <c r="Q132" s="1"/>
-      <c r="R132" s="15" t="s">
+      <c r="R132" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="S132" s="15"/>
-      <c r="T132" s="15"/>
-      <c r="V132" s="15" t="s">
+      <c r="S132" s="17"/>
+      <c r="T132" s="17"/>
+      <c r="V132" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="W132" s="15"/>
-      <c r="X132" s="15"/>
-      <c r="Y132" s="15"/>
-      <c r="Z132" s="15"/>
+      <c r="W132" s="17"/>
+      <c r="X132" s="17"/>
+      <c r="Y132" s="17"/>
+      <c r="Z132" s="17"/>
     </row>
     <row r="133" spans="7:26" x14ac:dyDescent="0.45">
       <c r="G133" s="3"/>
-      <c r="H133" s="14"/>
-      <c r="I133" s="14"/>
-      <c r="J133" s="14"/>
-      <c r="K133" s="14"/>
-      <c r="L133" s="15"/>
-      <c r="M133" s="15"/>
-      <c r="N133" s="15"/>
-      <c r="O133" s="15"/>
-      <c r="P133" s="15"/>
+      <c r="H133" s="18"/>
+      <c r="I133" s="18"/>
+      <c r="J133" s="18"/>
+      <c r="K133" s="18"/>
+      <c r="L133" s="17"/>
+      <c r="M133" s="17"/>
+      <c r="N133" s="17"/>
+      <c r="O133" s="17"/>
+      <c r="P133" s="17"/>
       <c r="Q133" s="1"/>
-      <c r="R133" s="15"/>
-      <c r="S133" s="15"/>
-      <c r="T133" s="15"/>
-      <c r="V133" s="15"/>
-      <c r="W133" s="15"/>
-      <c r="X133" s="15"/>
-      <c r="Y133" s="15"/>
-      <c r="Z133" s="15"/>
+      <c r="R133" s="17"/>
+      <c r="S133" s="17"/>
+      <c r="T133" s="17"/>
+      <c r="V133" s="17"/>
+      <c r="W133" s="17"/>
+      <c r="X133" s="17"/>
+      <c r="Y133" s="17"/>
+      <c r="Z133" s="17"/>
     </row>
     <row r="136" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I136" s="12" t="s">
+      <c r="I136" s="14" t="s">
         <v>41</v>
       </c>
       <c r="K136" s="9">
@@ -3971,16 +3995,16 @@
       </c>
       <c r="S136" s="11"/>
       <c r="T136" s="11"/>
-      <c r="V136" s="13" t="s">
+      <c r="V136" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="W136" s="13"/>
-      <c r="X136" s="13"/>
-      <c r="Y136" s="13"/>
-      <c r="Z136" s="13"/>
+      <c r="W136" s="15"/>
+      <c r="X136" s="15"/>
+      <c r="Y136" s="15"/>
+      <c r="Z136" s="15"/>
     </row>
     <row r="137" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I137" s="12"/>
+      <c r="I137" s="14"/>
       <c r="K137" s="9"/>
       <c r="L137" s="10"/>
       <c r="M137" s="10"/>
@@ -3991,17 +4015,17 @@
       <c r="R137" s="11"/>
       <c r="S137" s="11"/>
       <c r="T137" s="11"/>
-      <c r="V137" s="13"/>
-      <c r="W137" s="13"/>
-      <c r="X137" s="13"/>
-      <c r="Y137" s="13"/>
-      <c r="Z137" s="13"/>
+      <c r="V137" s="15"/>
+      <c r="W137" s="15"/>
+      <c r="X137" s="15"/>
+      <c r="Y137" s="15"/>
+      <c r="Z137" s="15"/>
     </row>
     <row r="138" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I138" s="12"/>
+      <c r="I138" s="14"/>
     </row>
     <row r="139" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I139" s="12"/>
+      <c r="I139" s="14"/>
       <c r="K139" s="9">
         <v>2</v>
       </c>
@@ -4018,16 +4042,16 @@
       </c>
       <c r="S139" s="11"/>
       <c r="T139" s="11"/>
-      <c r="V139" s="13" t="s">
+      <c r="V139" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="W139" s="13"/>
-      <c r="X139" s="13"/>
-      <c r="Y139" s="13"/>
-      <c r="Z139" s="13"/>
+      <c r="W139" s="15"/>
+      <c r="X139" s="15"/>
+      <c r="Y139" s="15"/>
+      <c r="Z139" s="15"/>
     </row>
     <row r="140" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I140" s="12"/>
+      <c r="I140" s="14"/>
       <c r="K140" s="9"/>
       <c r="L140" s="11"/>
       <c r="M140" s="11"/>
@@ -4038,17 +4062,17 @@
       <c r="R140" s="11"/>
       <c r="S140" s="11"/>
       <c r="T140" s="11"/>
-      <c r="V140" s="13"/>
-      <c r="W140" s="13"/>
-      <c r="X140" s="13"/>
-      <c r="Y140" s="13"/>
-      <c r="Z140" s="13"/>
+      <c r="V140" s="15"/>
+      <c r="W140" s="15"/>
+      <c r="X140" s="15"/>
+      <c r="Y140" s="15"/>
+      <c r="Z140" s="15"/>
     </row>
     <row r="141" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I141" s="12"/>
+      <c r="I141" s="14"/>
     </row>
     <row r="142" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I142" s="12"/>
+      <c r="I142" s="14"/>
       <c r="K142" s="9">
         <v>3</v>
       </c>
@@ -4065,16 +4089,16 @@
       </c>
       <c r="S142" s="11"/>
       <c r="T142" s="11"/>
-      <c r="V142" s="13" t="s">
+      <c r="V142" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="W142" s="13"/>
-      <c r="X142" s="13"/>
-      <c r="Y142" s="13"/>
-      <c r="Z142" s="13"/>
+      <c r="W142" s="15"/>
+      <c r="X142" s="15"/>
+      <c r="Y142" s="15"/>
+      <c r="Z142" s="15"/>
     </row>
     <row r="143" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I143" s="12"/>
+      <c r="I143" s="14"/>
       <c r="K143" s="9"/>
       <c r="L143" s="11"/>
       <c r="M143" s="11"/>
@@ -4085,17 +4109,17 @@
       <c r="R143" s="11"/>
       <c r="S143" s="11"/>
       <c r="T143" s="11"/>
-      <c r="V143" s="13"/>
-      <c r="W143" s="13"/>
-      <c r="X143" s="13"/>
-      <c r="Y143" s="13"/>
-      <c r="Z143" s="13"/>
+      <c r="V143" s="15"/>
+      <c r="W143" s="15"/>
+      <c r="X143" s="15"/>
+      <c r="Y143" s="15"/>
+      <c r="Z143" s="15"/>
     </row>
     <row r="144" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I144" s="12"/>
+      <c r="I144" s="14"/>
     </row>
     <row r="145" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I145" s="12"/>
+      <c r="I145" s="14"/>
       <c r="K145" s="9">
         <v>4</v>
       </c>
@@ -4112,16 +4136,16 @@
       </c>
       <c r="S145" s="11"/>
       <c r="T145" s="11"/>
-      <c r="V145" s="13" t="s">
+      <c r="V145" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="W145" s="13"/>
-      <c r="X145" s="13"/>
-      <c r="Y145" s="13"/>
-      <c r="Z145" s="13"/>
+      <c r="W145" s="15"/>
+      <c r="X145" s="15"/>
+      <c r="Y145" s="15"/>
+      <c r="Z145" s="15"/>
     </row>
     <row r="146" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I146" s="12"/>
+      <c r="I146" s="14"/>
       <c r="K146" s="9"/>
       <c r="L146" s="11"/>
       <c r="M146" s="11"/>
@@ -4132,17 +4156,17 @@
       <c r="R146" s="11"/>
       <c r="S146" s="11"/>
       <c r="T146" s="11"/>
-      <c r="V146" s="13"/>
-      <c r="W146" s="13"/>
-      <c r="X146" s="13"/>
-      <c r="Y146" s="13"/>
-      <c r="Z146" s="13"/>
+      <c r="V146" s="15"/>
+      <c r="W146" s="15"/>
+      <c r="X146" s="15"/>
+      <c r="Y146" s="15"/>
+      <c r="Z146" s="15"/>
     </row>
     <row r="147" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I147" s="12"/>
+      <c r="I147" s="14"/>
     </row>
     <row r="148" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I148" s="12"/>
+      <c r="I148" s="14"/>
       <c r="K148" s="9">
         <v>5</v>
       </c>
@@ -4159,19 +4183,19 @@
       </c>
       <c r="S148" s="11"/>
       <c r="T148" s="11"/>
-      <c r="V148" s="13" t="s">
+      <c r="V148" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="W148" s="13"/>
-      <c r="X148" s="13"/>
-      <c r="Y148" s="13"/>
-      <c r="Z148" s="13"/>
+      <c r="W148" s="15"/>
+      <c r="X148" s="15"/>
+      <c r="Y148" s="15"/>
+      <c r="Z148" s="15"/>
     </row>
     <row r="149" spans="7:26" x14ac:dyDescent="0.45">
       <c r="G149" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I149" s="12"/>
+      <c r="I149" s="14"/>
       <c r="K149" s="9"/>
       <c r="L149" s="11"/>
       <c r="M149" s="11"/>
@@ -4182,23 +4206,23 @@
       <c r="R149" s="11"/>
       <c r="S149" s="11"/>
       <c r="T149" s="11"/>
-      <c r="V149" s="13"/>
-      <c r="W149" s="13"/>
-      <c r="X149" s="13"/>
-      <c r="Y149" s="13"/>
-      <c r="Z149" s="13"/>
+      <c r="V149" s="15"/>
+      <c r="W149" s="15"/>
+      <c r="X149" s="15"/>
+      <c r="Y149" s="15"/>
+      <c r="Z149" s="15"/>
     </row>
     <row r="150" spans="7:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G150" s="16" t="s">
+      <c r="G150" s="12" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="151" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="G151" s="16"/>
+      <c r="G151" s="12"/>
     </row>
     <row r="152" spans="7:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G152" s="16"/>
-      <c r="I152" s="8" t="s">
+      <c r="G152" s="12"/>
+      <c r="I152" s="13" t="s">
         <v>45</v>
       </c>
       <c r="K152" s="9">
@@ -4217,17 +4241,17 @@
       </c>
       <c r="S152" s="11"/>
       <c r="T152" s="11"/>
-      <c r="V152" s="17" t="s">
+      <c r="V152" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="W152" s="17"/>
-      <c r="X152" s="17"/>
-      <c r="Y152" s="17"/>
-      <c r="Z152" s="17"/>
+      <c r="W152" s="8"/>
+      <c r="X152" s="8"/>
+      <c r="Y152" s="8"/>
+      <c r="Z152" s="8"/>
     </row>
     <row r="153" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="G153" s="16"/>
-      <c r="I153" s="8"/>
+      <c r="G153" s="12"/>
+      <c r="I153" s="13"/>
       <c r="K153" s="9"/>
       <c r="L153" s="10"/>
       <c r="M153" s="10"/>
@@ -4238,17 +4262,17 @@
       <c r="R153" s="11"/>
       <c r="S153" s="11"/>
       <c r="T153" s="11"/>
-      <c r="V153" s="17"/>
-      <c r="W153" s="17"/>
-      <c r="X153" s="17"/>
-      <c r="Y153" s="17"/>
-      <c r="Z153" s="17"/>
+      <c r="V153" s="8"/>
+      <c r="W153" s="8"/>
+      <c r="X153" s="8"/>
+      <c r="Y153" s="8"/>
+      <c r="Z153" s="8"/>
     </row>
     <row r="154" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I154" s="8"/>
+      <c r="I154" s="13"/>
     </row>
     <row r="155" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I155" s="8"/>
+      <c r="I155" s="13"/>
       <c r="K155" s="9">
         <v>2</v>
       </c>
@@ -4265,16 +4289,16 @@
       </c>
       <c r="S155" s="11"/>
       <c r="T155" s="11"/>
-      <c r="V155" s="17" t="s">
+      <c r="V155" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="W155" s="17"/>
-      <c r="X155" s="17"/>
-      <c r="Y155" s="17"/>
-      <c r="Z155" s="17"/>
+      <c r="W155" s="8"/>
+      <c r="X155" s="8"/>
+      <c r="Y155" s="8"/>
+      <c r="Z155" s="8"/>
     </row>
     <row r="156" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I156" s="8"/>
+      <c r="I156" s="13"/>
       <c r="K156" s="9"/>
       <c r="L156" s="10"/>
       <c r="M156" s="10"/>
@@ -4285,17 +4309,17 @@
       <c r="R156" s="11"/>
       <c r="S156" s="11"/>
       <c r="T156" s="11"/>
-      <c r="V156" s="17"/>
-      <c r="W156" s="17"/>
-      <c r="X156" s="17"/>
-      <c r="Y156" s="17"/>
-      <c r="Z156" s="17"/>
+      <c r="V156" s="8"/>
+      <c r="W156" s="8"/>
+      <c r="X156" s="8"/>
+      <c r="Y156" s="8"/>
+      <c r="Z156" s="8"/>
     </row>
     <row r="157" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I157" s="8"/>
+      <c r="I157" s="13"/>
     </row>
     <row r="158" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I158" s="8"/>
+      <c r="I158" s="13"/>
       <c r="K158" s="9">
         <v>3</v>
       </c>
@@ -4312,16 +4336,16 @@
       </c>
       <c r="S158" s="11"/>
       <c r="T158" s="11"/>
-      <c r="V158" s="19" t="s">
+      <c r="V158" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="W158" s="19"/>
-      <c r="X158" s="19"/>
-      <c r="Y158" s="19"/>
-      <c r="Z158" s="19"/>
+      <c r="W158" s="16"/>
+      <c r="X158" s="16"/>
+      <c r="Y158" s="16"/>
+      <c r="Z158" s="16"/>
     </row>
     <row r="159" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I159" s="8"/>
+      <c r="I159" s="13"/>
       <c r="K159" s="9"/>
       <c r="L159" s="10"/>
       <c r="M159" s="10"/>
@@ -4332,62 +4356,62 @@
       <c r="R159" s="11"/>
       <c r="S159" s="11"/>
       <c r="T159" s="11"/>
-      <c r="V159" s="19"/>
-      <c r="W159" s="19"/>
-      <c r="X159" s="19"/>
-      <c r="Y159" s="19"/>
-      <c r="Z159" s="19"/>
+      <c r="V159" s="16"/>
+      <c r="W159" s="16"/>
+      <c r="X159" s="16"/>
+      <c r="Y159" s="16"/>
+      <c r="Z159" s="16"/>
     </row>
     <row r="161" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="H161" s="14" t="s">
+      <c r="H161" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="I161" s="14"/>
-      <c r="J161" s="14"/>
-      <c r="K161" s="14"/>
-      <c r="L161" s="15" t="s">
+      <c r="I161" s="18"/>
+      <c r="J161" s="18"/>
+      <c r="K161" s="18"/>
+      <c r="L161" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="M161" s="15"/>
-      <c r="N161" s="15"/>
-      <c r="O161" s="15"/>
-      <c r="P161" s="15"/>
+      <c r="M161" s="17"/>
+      <c r="N161" s="17"/>
+      <c r="O161" s="17"/>
+      <c r="P161" s="17"/>
       <c r="Q161" s="1"/>
-      <c r="R161" s="15" t="s">
+      <c r="R161" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="S161" s="15"/>
-      <c r="T161" s="15"/>
-      <c r="V161" s="15" t="s">
+      <c r="S161" s="17"/>
+      <c r="T161" s="17"/>
+      <c r="V161" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="W161" s="15"/>
-      <c r="X161" s="15"/>
-      <c r="Y161" s="15"/>
-      <c r="Z161" s="15"/>
+      <c r="W161" s="17"/>
+      <c r="X161" s="17"/>
+      <c r="Y161" s="17"/>
+      <c r="Z161" s="17"/>
     </row>
     <row r="162" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="H162" s="14"/>
-      <c r="I162" s="14"/>
-      <c r="J162" s="14"/>
-      <c r="K162" s="14"/>
-      <c r="L162" s="15"/>
-      <c r="M162" s="15"/>
-      <c r="N162" s="15"/>
-      <c r="O162" s="15"/>
-      <c r="P162" s="15"/>
+      <c r="H162" s="18"/>
+      <c r="I162" s="18"/>
+      <c r="J162" s="18"/>
+      <c r="K162" s="18"/>
+      <c r="L162" s="17"/>
+      <c r="M162" s="17"/>
+      <c r="N162" s="17"/>
+      <c r="O162" s="17"/>
+      <c r="P162" s="17"/>
       <c r="Q162" s="1"/>
-      <c r="R162" s="15"/>
-      <c r="S162" s="15"/>
-      <c r="T162" s="15"/>
-      <c r="V162" s="15"/>
-      <c r="W162" s="15"/>
-      <c r="X162" s="15"/>
-      <c r="Y162" s="15"/>
-      <c r="Z162" s="15"/>
+      <c r="R162" s="17"/>
+      <c r="S162" s="17"/>
+      <c r="T162" s="17"/>
+      <c r="V162" s="17"/>
+      <c r="W162" s="17"/>
+      <c r="X162" s="17"/>
+      <c r="Y162" s="17"/>
+      <c r="Z162" s="17"/>
     </row>
     <row r="165" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="I165" s="12" t="s">
+      <c r="I165" s="14" t="s">
         <v>41</v>
       </c>
       <c r="K165" s="9">
@@ -4406,16 +4430,16 @@
       </c>
       <c r="S165" s="11"/>
       <c r="T165" s="11"/>
-      <c r="V165" s="13" t="s">
+      <c r="V165" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="W165" s="13"/>
-      <c r="X165" s="13"/>
-      <c r="Y165" s="13"/>
-      <c r="Z165" s="13"/>
+      <c r="W165" s="15"/>
+      <c r="X165" s="15"/>
+      <c r="Y165" s="15"/>
+      <c r="Z165" s="15"/>
     </row>
     <row r="166" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="I166" s="12"/>
+      <c r="I166" s="14"/>
       <c r="K166" s="9"/>
       <c r="L166" s="10"/>
       <c r="M166" s="10"/>
@@ -4426,17 +4450,17 @@
       <c r="R166" s="11"/>
       <c r="S166" s="11"/>
       <c r="T166" s="11"/>
-      <c r="V166" s="13"/>
-      <c r="W166" s="13"/>
-      <c r="X166" s="13"/>
-      <c r="Y166" s="13"/>
-      <c r="Z166" s="13"/>
+      <c r="V166" s="15"/>
+      <c r="W166" s="15"/>
+      <c r="X166" s="15"/>
+      <c r="Y166" s="15"/>
+      <c r="Z166" s="15"/>
     </row>
     <row r="167" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="I167" s="12"/>
+      <c r="I167" s="14"/>
     </row>
     <row r="168" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="I168" s="12"/>
+      <c r="I168" s="14"/>
       <c r="K168" s="9">
         <v>2</v>
       </c>
@@ -4453,16 +4477,16 @@
       </c>
       <c r="S168" s="11"/>
       <c r="T168" s="11"/>
-      <c r="V168" s="13" t="s">
+      <c r="V168" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="W168" s="13"/>
-      <c r="X168" s="13"/>
-      <c r="Y168" s="13"/>
-      <c r="Z168" s="13"/>
+      <c r="W168" s="15"/>
+      <c r="X168" s="15"/>
+      <c r="Y168" s="15"/>
+      <c r="Z168" s="15"/>
     </row>
     <row r="169" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="I169" s="12"/>
+      <c r="I169" s="14"/>
       <c r="K169" s="9"/>
       <c r="L169" s="11"/>
       <c r="M169" s="11"/>
@@ -4473,17 +4497,17 @@
       <c r="R169" s="11"/>
       <c r="S169" s="11"/>
       <c r="T169" s="11"/>
-      <c r="V169" s="13"/>
-      <c r="W169" s="13"/>
-      <c r="X169" s="13"/>
-      <c r="Y169" s="13"/>
-      <c r="Z169" s="13"/>
+      <c r="V169" s="15"/>
+      <c r="W169" s="15"/>
+      <c r="X169" s="15"/>
+      <c r="Y169" s="15"/>
+      <c r="Z169" s="15"/>
     </row>
     <row r="170" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="I170" s="12"/>
+      <c r="I170" s="14"/>
     </row>
     <row r="171" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="I171" s="12"/>
+      <c r="I171" s="14"/>
       <c r="K171" s="9">
         <v>3</v>
       </c>
@@ -4500,16 +4524,16 @@
       </c>
       <c r="S171" s="11"/>
       <c r="T171" s="11"/>
-      <c r="V171" s="13" t="s">
+      <c r="V171" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="W171" s="13"/>
-      <c r="X171" s="13"/>
-      <c r="Y171" s="13"/>
-      <c r="Z171" s="13"/>
+      <c r="W171" s="15"/>
+      <c r="X171" s="15"/>
+      <c r="Y171" s="15"/>
+      <c r="Z171" s="15"/>
     </row>
     <row r="172" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="I172" s="12"/>
+      <c r="I172" s="14"/>
       <c r="K172" s="9"/>
       <c r="L172" s="11"/>
       <c r="M172" s="11"/>
@@ -4520,17 +4544,17 @@
       <c r="R172" s="11"/>
       <c r="S172" s="11"/>
       <c r="T172" s="11"/>
-      <c r="V172" s="13"/>
-      <c r="W172" s="13"/>
-      <c r="X172" s="13"/>
-      <c r="Y172" s="13"/>
-      <c r="Z172" s="13"/>
+      <c r="V172" s="15"/>
+      <c r="W172" s="15"/>
+      <c r="X172" s="15"/>
+      <c r="Y172" s="15"/>
+      <c r="Z172" s="15"/>
     </row>
     <row r="173" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="I173" s="12"/>
+      <c r="I173" s="14"/>
     </row>
     <row r="174" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="I174" s="12"/>
+      <c r="I174" s="14"/>
       <c r="K174" s="9">
         <v>4</v>
       </c>
@@ -4547,16 +4571,16 @@
       </c>
       <c r="S174" s="11"/>
       <c r="T174" s="11"/>
-      <c r="V174" s="13" t="s">
+      <c r="V174" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="W174" s="13"/>
-      <c r="X174" s="13"/>
-      <c r="Y174" s="13"/>
-      <c r="Z174" s="13"/>
+      <c r="W174" s="15"/>
+      <c r="X174" s="15"/>
+      <c r="Y174" s="15"/>
+      <c r="Z174" s="15"/>
     </row>
     <row r="175" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="I175" s="12"/>
+      <c r="I175" s="14"/>
       <c r="K175" s="9"/>
       <c r="L175" s="11"/>
       <c r="M175" s="11"/>
@@ -4567,17 +4591,17 @@
       <c r="R175" s="11"/>
       <c r="S175" s="11"/>
       <c r="T175" s="11"/>
-      <c r="V175" s="13"/>
-      <c r="W175" s="13"/>
-      <c r="X175" s="13"/>
-      <c r="Y175" s="13"/>
-      <c r="Z175" s="13"/>
+      <c r="V175" s="15"/>
+      <c r="W175" s="15"/>
+      <c r="X175" s="15"/>
+      <c r="Y175" s="15"/>
+      <c r="Z175" s="15"/>
     </row>
     <row r="176" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="I176" s="12"/>
+      <c r="I176" s="14"/>
     </row>
     <row r="177" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="I177" s="12"/>
+      <c r="I177" s="14"/>
       <c r="K177" s="9">
         <v>5</v>
       </c>
@@ -4594,19 +4618,19 @@
       </c>
       <c r="S177" s="11"/>
       <c r="T177" s="11"/>
-      <c r="V177" s="13" t="s">
+      <c r="V177" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="W177" s="13"/>
-      <c r="X177" s="13"/>
-      <c r="Y177" s="13"/>
-      <c r="Z177" s="13"/>
+      <c r="W177" s="15"/>
+      <c r="X177" s="15"/>
+      <c r="Y177" s="15"/>
+      <c r="Z177" s="15"/>
     </row>
     <row r="178" spans="7:26" x14ac:dyDescent="0.45">
       <c r="G178" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I178" s="12"/>
+      <c r="I178" s="14"/>
       <c r="K178" s="9"/>
       <c r="L178" s="11"/>
       <c r="M178" s="11"/>
@@ -4617,23 +4641,23 @@
       <c r="R178" s="11"/>
       <c r="S178" s="11"/>
       <c r="T178" s="11"/>
-      <c r="V178" s="13"/>
-      <c r="W178" s="13"/>
-      <c r="X178" s="13"/>
-      <c r="Y178" s="13"/>
-      <c r="Z178" s="13"/>
+      <c r="V178" s="15"/>
+      <c r="W178" s="15"/>
+      <c r="X178" s="15"/>
+      <c r="Y178" s="15"/>
+      <c r="Z178" s="15"/>
     </row>
     <row r="179" spans="7:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G179" s="16" t="s">
+      <c r="G179" s="12" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="180" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="G180" s="16"/>
+      <c r="G180" s="12"/>
     </row>
     <row r="181" spans="7:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G181" s="16"/>
-      <c r="I181" s="8" t="s">
+      <c r="G181" s="12"/>
+      <c r="I181" s="13" t="s">
         <v>45</v>
       </c>
       <c r="K181" s="9">
@@ -4652,17 +4676,17 @@
       </c>
       <c r="S181" s="11"/>
       <c r="T181" s="11"/>
-      <c r="V181" s="17" t="s">
+      <c r="V181" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="W181" s="17"/>
-      <c r="X181" s="17"/>
-      <c r="Y181" s="17"/>
-      <c r="Z181" s="17"/>
+      <c r="W181" s="8"/>
+      <c r="X181" s="8"/>
+      <c r="Y181" s="8"/>
+      <c r="Z181" s="8"/>
     </row>
     <row r="182" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="G182" s="16"/>
-      <c r="I182" s="8"/>
+      <c r="G182" s="12"/>
+      <c r="I182" s="13"/>
       <c r="K182" s="9"/>
       <c r="L182" s="10"/>
       <c r="M182" s="10"/>
@@ -4673,1099 +4697,1099 @@
       <c r="R182" s="11"/>
       <c r="S182" s="11"/>
       <c r="T182" s="11"/>
-      <c r="V182" s="17"/>
-      <c r="W182" s="17"/>
-      <c r="X182" s="17"/>
-      <c r="Y182" s="17"/>
-      <c r="Z182" s="17"/>
+      <c r="V182" s="8"/>
+      <c r="W182" s="8"/>
+      <c r="X182" s="8"/>
+      <c r="Y182" s="8"/>
+      <c r="Z182" s="8"/>
     </row>
     <row r="184" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="H184" s="14" t="s">
+      <c r="H184" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="I184" s="14"/>
-      <c r="J184" s="14"/>
-      <c r="K184" s="14"/>
-      <c r="L184" s="15" t="s">
+      <c r="I184" s="18"/>
+      <c r="J184" s="18"/>
+      <c r="K184" s="18"/>
+      <c r="L184" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="M184" s="15"/>
-      <c r="N184" s="15"/>
-      <c r="O184" s="15"/>
-      <c r="P184" s="15"/>
+      <c r="M184" s="17"/>
+      <c r="N184" s="17"/>
+      <c r="O184" s="17"/>
+      <c r="P184" s="17"/>
       <c r="Q184" s="1"/>
-      <c r="R184" s="15" t="s">
+      <c r="R184" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="S184" s="15"/>
-      <c r="T184" s="15"/>
+      <c r="S184" s="17"/>
+      <c r="T184" s="17"/>
       <c r="U184" s="1"/>
-      <c r="V184" s="15" t="s">
+      <c r="V184" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="W184" s="15"/>
-      <c r="X184" s="15"/>
-      <c r="Y184" s="15"/>
-      <c r="Z184" s="15"/>
+      <c r="W184" s="17"/>
+      <c r="X184" s="17"/>
+      <c r="Y184" s="17"/>
+      <c r="Z184" s="17"/>
     </row>
     <row r="185" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="H185" s="14"/>
-      <c r="I185" s="14"/>
-      <c r="J185" s="14"/>
-      <c r="K185" s="14"/>
-      <c r="L185" s="15"/>
-      <c r="M185" s="15"/>
-      <c r="N185" s="15"/>
-      <c r="O185" s="15"/>
-      <c r="P185" s="15"/>
+      <c r="H185" s="18"/>
+      <c r="I185" s="18"/>
+      <c r="J185" s="18"/>
+      <c r="K185" s="18"/>
+      <c r="L185" s="17"/>
+      <c r="M185" s="17"/>
+      <c r="N185" s="17"/>
+      <c r="O185" s="17"/>
+      <c r="P185" s="17"/>
       <c r="Q185" s="1"/>
-      <c r="R185" s="15"/>
-      <c r="S185" s="15"/>
-      <c r="T185" s="15"/>
+      <c r="R185" s="17"/>
+      <c r="S185" s="17"/>
+      <c r="T185" s="17"/>
       <c r="U185" s="1"/>
-      <c r="V185" s="15"/>
-      <c r="W185" s="15"/>
-      <c r="X185" s="15"/>
-      <c r="Y185" s="15"/>
-      <c r="Z185" s="15"/>
+      <c r="V185" s="17"/>
+      <c r="W185" s="17"/>
+      <c r="X185" s="17"/>
+      <c r="Y185" s="17"/>
+      <c r="Z185" s="17"/>
     </row>
     <row r="187" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="H187" s="13" t="s">
+      <c r="H187" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="I187" s="13"/>
-      <c r="J187" s="13"/>
-      <c r="K187" s="13"/>
-      <c r="L187" s="13"/>
-      <c r="M187" s="13"/>
-      <c r="N187" s="13"/>
-      <c r="O187" s="13"/>
-      <c r="P187" s="13"/>
-      <c r="Q187" s="13"/>
-      <c r="R187" s="13"/>
-      <c r="S187" s="13"/>
-      <c r="T187" s="13"/>
-      <c r="U187" s="13"/>
-      <c r="V187" s="13"/>
-      <c r="W187" s="13"/>
-      <c r="X187" s="13"/>
-      <c r="Y187" s="13"/>
-      <c r="Z187" s="13"/>
+      <c r="I187" s="15"/>
+      <c r="J187" s="15"/>
+      <c r="K187" s="15"/>
+      <c r="L187" s="15"/>
+      <c r="M187" s="15"/>
+      <c r="N187" s="15"/>
+      <c r="O187" s="15"/>
+      <c r="P187" s="15"/>
+      <c r="Q187" s="15"/>
+      <c r="R187" s="15"/>
+      <c r="S187" s="15"/>
+      <c r="T187" s="15"/>
+      <c r="U187" s="15"/>
+      <c r="V187" s="15"/>
+      <c r="W187" s="15"/>
+      <c r="X187" s="15"/>
+      <c r="Y187" s="15"/>
+      <c r="Z187" s="15"/>
     </row>
     <row r="188" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="H188" s="13"/>
-      <c r="I188" s="13"/>
-      <c r="J188" s="13"/>
-      <c r="K188" s="13"/>
-      <c r="L188" s="13"/>
-      <c r="M188" s="13"/>
-      <c r="N188" s="13"/>
-      <c r="O188" s="13"/>
-      <c r="P188" s="13"/>
-      <c r="Q188" s="13"/>
-      <c r="R188" s="13"/>
-      <c r="S188" s="13"/>
-      <c r="T188" s="13"/>
-      <c r="U188" s="13"/>
-      <c r="V188" s="13"/>
-      <c r="W188" s="13"/>
-      <c r="X188" s="13"/>
-      <c r="Y188" s="13"/>
-      <c r="Z188" s="13"/>
+      <c r="H188" s="15"/>
+      <c r="I188" s="15"/>
+      <c r="J188" s="15"/>
+      <c r="K188" s="15"/>
+      <c r="L188" s="15"/>
+      <c r="M188" s="15"/>
+      <c r="N188" s="15"/>
+      <c r="O188" s="15"/>
+      <c r="P188" s="15"/>
+      <c r="Q188" s="15"/>
+      <c r="R188" s="15"/>
+      <c r="S188" s="15"/>
+      <c r="T188" s="15"/>
+      <c r="U188" s="15"/>
+      <c r="V188" s="15"/>
+      <c r="W188" s="15"/>
+      <c r="X188" s="15"/>
+      <c r="Y188" s="15"/>
+      <c r="Z188" s="15"/>
     </row>
     <row r="190" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="H190" s="14" t="s">
+      <c r="H190" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="I190" s="14"/>
-      <c r="J190" s="14"/>
-      <c r="K190" s="14"/>
-      <c r="L190" s="15" t="s">
+      <c r="I190" s="18"/>
+      <c r="J190" s="18"/>
+      <c r="K190" s="18"/>
+      <c r="L190" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="M190" s="15"/>
-      <c r="N190" s="15"/>
-      <c r="O190" s="15"/>
-      <c r="P190" s="15"/>
+      <c r="M190" s="17"/>
+      <c r="N190" s="17"/>
+      <c r="O190" s="17"/>
+      <c r="P190" s="17"/>
       <c r="Q190" s="1"/>
-      <c r="R190" s="15" t="s">
+      <c r="R190" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="S190" s="15"/>
-      <c r="T190" s="15"/>
+      <c r="S190" s="17"/>
+      <c r="T190" s="17"/>
       <c r="U190" s="1"/>
-      <c r="V190" s="15" t="s">
+      <c r="V190" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="W190" s="15"/>
-      <c r="X190" s="15"/>
-      <c r="Y190" s="15"/>
-      <c r="Z190" s="15"/>
+      <c r="W190" s="17"/>
+      <c r="X190" s="17"/>
+      <c r="Y190" s="17"/>
+      <c r="Z190" s="17"/>
     </row>
     <row r="191" spans="7:26" x14ac:dyDescent="0.45">
-      <c r="H191" s="14"/>
-      <c r="I191" s="14"/>
-      <c r="J191" s="14"/>
-      <c r="K191" s="14"/>
-      <c r="L191" s="15"/>
-      <c r="M191" s="15"/>
-      <c r="N191" s="15"/>
-      <c r="O191" s="15"/>
-      <c r="P191" s="15"/>
+      <c r="H191" s="18"/>
+      <c r="I191" s="18"/>
+      <c r="J191" s="18"/>
+      <c r="K191" s="18"/>
+      <c r="L191" s="17"/>
+      <c r="M191" s="17"/>
+      <c r="N191" s="17"/>
+      <c r="O191" s="17"/>
+      <c r="P191" s="17"/>
       <c r="Q191" s="1"/>
-      <c r="R191" s="15"/>
-      <c r="S191" s="15"/>
-      <c r="T191" s="15"/>
+      <c r="R191" s="17"/>
+      <c r="S191" s="17"/>
+      <c r="T191" s="17"/>
       <c r="U191" s="1"/>
-      <c r="V191" s="15"/>
-      <c r="W191" s="15"/>
-      <c r="X191" s="15"/>
-      <c r="Y191" s="15"/>
-      <c r="Z191" s="15"/>
+      <c r="V191" s="17"/>
+      <c r="W191" s="17"/>
+      <c r="X191" s="17"/>
+      <c r="Y191" s="17"/>
+      <c r="Z191" s="17"/>
     </row>
     <row r="193" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="H193" s="13" t="s">
+      <c r="H193" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="I193" s="13"/>
-      <c r="J193" s="13"/>
-      <c r="K193" s="13"/>
-      <c r="L193" s="13"/>
-      <c r="M193" s="13"/>
-      <c r="N193" s="13"/>
-      <c r="O193" s="13"/>
-      <c r="P193" s="13"/>
-      <c r="Q193" s="13"/>
-      <c r="R193" s="13"/>
-      <c r="S193" s="13"/>
-      <c r="T193" s="13"/>
-      <c r="U193" s="13"/>
-      <c r="V193" s="13"/>
-      <c r="W193" s="13"/>
-      <c r="X193" s="13"/>
-      <c r="Y193" s="13"/>
-      <c r="Z193" s="13"/>
+      <c r="I193" s="15"/>
+      <c r="J193" s="15"/>
+      <c r="K193" s="15"/>
+      <c r="L193" s="15"/>
+      <c r="M193" s="15"/>
+      <c r="N193" s="15"/>
+      <c r="O193" s="15"/>
+      <c r="P193" s="15"/>
+      <c r="Q193" s="15"/>
+      <c r="R193" s="15"/>
+      <c r="S193" s="15"/>
+      <c r="T193" s="15"/>
+      <c r="U193" s="15"/>
+      <c r="V193" s="15"/>
+      <c r="W193" s="15"/>
+      <c r="X193" s="15"/>
+      <c r="Y193" s="15"/>
+      <c r="Z193" s="15"/>
     </row>
     <row r="194" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="H194" s="13"/>
-      <c r="I194" s="13"/>
-      <c r="J194" s="13"/>
-      <c r="K194" s="13"/>
-      <c r="L194" s="13"/>
-      <c r="M194" s="13"/>
-      <c r="N194" s="13"/>
-      <c r="O194" s="13"/>
-      <c r="P194" s="13"/>
-      <c r="Q194" s="13"/>
-      <c r="R194" s="13"/>
-      <c r="S194" s="13"/>
-      <c r="T194" s="13"/>
-      <c r="U194" s="13"/>
-      <c r="V194" s="13"/>
-      <c r="W194" s="13"/>
-      <c r="X194" s="13"/>
-      <c r="Y194" s="13"/>
-      <c r="Z194" s="13"/>
+      <c r="H194" s="15"/>
+      <c r="I194" s="15"/>
+      <c r="J194" s="15"/>
+      <c r="K194" s="15"/>
+      <c r="L194" s="15"/>
+      <c r="M194" s="15"/>
+      <c r="N194" s="15"/>
+      <c r="O194" s="15"/>
+      <c r="P194" s="15"/>
+      <c r="Q194" s="15"/>
+      <c r="R194" s="15"/>
+      <c r="S194" s="15"/>
+      <c r="T194" s="15"/>
+      <c r="U194" s="15"/>
+      <c r="V194" s="15"/>
+      <c r="W194" s="15"/>
+      <c r="X194" s="15"/>
+      <c r="Y194" s="15"/>
+      <c r="Z194" s="15"/>
     </row>
     <row r="196" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="H196" s="14" t="s">
+      <c r="H196" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="I196" s="14"/>
-      <c r="J196" s="14"/>
-      <c r="K196" s="14"/>
-      <c r="L196" s="15" t="s">
+      <c r="I196" s="18"/>
+      <c r="J196" s="18"/>
+      <c r="K196" s="18"/>
+      <c r="L196" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="M196" s="15"/>
-      <c r="N196" s="15"/>
-      <c r="O196" s="15"/>
-      <c r="P196" s="15"/>
+      <c r="M196" s="17"/>
+      <c r="N196" s="17"/>
+      <c r="O196" s="17"/>
+      <c r="P196" s="17"/>
       <c r="Q196" s="1"/>
-      <c r="R196" s="15" t="s">
+      <c r="R196" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="S196" s="15"/>
-      <c r="T196" s="15"/>
+      <c r="S196" s="17"/>
+      <c r="T196" s="17"/>
       <c r="U196" s="1"/>
-      <c r="V196" s="15" t="s">
+      <c r="V196" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="W196" s="15"/>
-      <c r="X196" s="15"/>
-      <c r="Y196" s="15"/>
-      <c r="Z196" s="15"/>
+      <c r="W196" s="17"/>
+      <c r="X196" s="17"/>
+      <c r="Y196" s="17"/>
+      <c r="Z196" s="17"/>
     </row>
     <row r="197" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="H197" s="14"/>
-      <c r="I197" s="14"/>
-      <c r="J197" s="14"/>
-      <c r="K197" s="14"/>
-      <c r="L197" s="15"/>
-      <c r="M197" s="15"/>
-      <c r="N197" s="15"/>
-      <c r="O197" s="15"/>
-      <c r="P197" s="15"/>
+      <c r="H197" s="18"/>
+      <c r="I197" s="18"/>
+      <c r="J197" s="18"/>
+      <c r="K197" s="18"/>
+      <c r="L197" s="17"/>
+      <c r="M197" s="17"/>
+      <c r="N197" s="17"/>
+      <c r="O197" s="17"/>
+      <c r="P197" s="17"/>
       <c r="Q197" s="1"/>
-      <c r="R197" s="15"/>
-      <c r="S197" s="15"/>
-      <c r="T197" s="15"/>
+      <c r="R197" s="17"/>
+      <c r="S197" s="17"/>
+      <c r="T197" s="17"/>
       <c r="U197" s="1"/>
-      <c r="V197" s="15"/>
-      <c r="W197" s="15"/>
-      <c r="X197" s="15"/>
-      <c r="Y197" s="15"/>
-      <c r="Z197" s="15"/>
+      <c r="V197" s="17"/>
+      <c r="W197" s="17"/>
+      <c r="X197" s="17"/>
+      <c r="Y197" s="17"/>
+      <c r="Z197" s="17"/>
     </row>
     <row r="199" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="H199" s="13" t="s">
+      <c r="H199" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="I199" s="13"/>
-      <c r="J199" s="13"/>
-      <c r="K199" s="13"/>
-      <c r="L199" s="13"/>
-      <c r="M199" s="13"/>
-      <c r="N199" s="13"/>
-      <c r="O199" s="13"/>
-      <c r="P199" s="13"/>
-      <c r="Q199" s="13"/>
-      <c r="R199" s="13"/>
-      <c r="S199" s="13"/>
-      <c r="T199" s="13"/>
-      <c r="U199" s="13"/>
-      <c r="V199" s="13"/>
-      <c r="W199" s="13"/>
-      <c r="X199" s="13"/>
-      <c r="Y199" s="13"/>
-      <c r="Z199" s="13"/>
+      <c r="I199" s="15"/>
+      <c r="J199" s="15"/>
+      <c r="K199" s="15"/>
+      <c r="L199" s="15"/>
+      <c r="M199" s="15"/>
+      <c r="N199" s="15"/>
+      <c r="O199" s="15"/>
+      <c r="P199" s="15"/>
+      <c r="Q199" s="15"/>
+      <c r="R199" s="15"/>
+      <c r="S199" s="15"/>
+      <c r="T199" s="15"/>
+      <c r="U199" s="15"/>
+      <c r="V199" s="15"/>
+      <c r="W199" s="15"/>
+      <c r="X199" s="15"/>
+      <c r="Y199" s="15"/>
+      <c r="Z199" s="15"/>
     </row>
     <row r="200" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="H200" s="13"/>
-      <c r="I200" s="13"/>
-      <c r="J200" s="13"/>
-      <c r="K200" s="13"/>
-      <c r="L200" s="13"/>
-      <c r="M200" s="13"/>
-      <c r="N200" s="13"/>
-      <c r="O200" s="13"/>
-      <c r="P200" s="13"/>
-      <c r="Q200" s="13"/>
-      <c r="R200" s="13"/>
-      <c r="S200" s="13"/>
-      <c r="T200" s="13"/>
-      <c r="U200" s="13"/>
-      <c r="V200" s="13"/>
-      <c r="W200" s="13"/>
-      <c r="X200" s="13"/>
-      <c r="Y200" s="13"/>
-      <c r="Z200" s="13"/>
+      <c r="H200" s="15"/>
+      <c r="I200" s="15"/>
+      <c r="J200" s="15"/>
+      <c r="K200" s="15"/>
+      <c r="L200" s="15"/>
+      <c r="M200" s="15"/>
+      <c r="N200" s="15"/>
+      <c r="O200" s="15"/>
+      <c r="P200" s="15"/>
+      <c r="Q200" s="15"/>
+      <c r="R200" s="15"/>
+      <c r="S200" s="15"/>
+      <c r="T200" s="15"/>
+      <c r="U200" s="15"/>
+      <c r="V200" s="15"/>
+      <c r="W200" s="15"/>
+      <c r="X200" s="15"/>
+      <c r="Y200" s="15"/>
+      <c r="Z200" s="15"/>
     </row>
     <row r="202" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="H202" s="14" t="s">
+      <c r="H202" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="I202" s="14"/>
-      <c r="J202" s="14"/>
-      <c r="K202" s="14"/>
-      <c r="L202" s="15" t="s">
+      <c r="I202" s="18"/>
+      <c r="J202" s="18"/>
+      <c r="K202" s="18"/>
+      <c r="L202" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="M202" s="15"/>
-      <c r="N202" s="15"/>
-      <c r="O202" s="15"/>
-      <c r="P202" s="15"/>
+      <c r="M202" s="17"/>
+      <c r="N202" s="17"/>
+      <c r="O202" s="17"/>
+      <c r="P202" s="17"/>
       <c r="Q202" s="1"/>
-      <c r="R202" s="15" t="s">
+      <c r="R202" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="S202" s="15"/>
-      <c r="T202" s="15"/>
+      <c r="S202" s="17"/>
+      <c r="T202" s="17"/>
       <c r="U202" s="1"/>
-      <c r="V202" s="15" t="s">
+      <c r="V202" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="W202" s="15"/>
-      <c r="X202" s="15"/>
-      <c r="Y202" s="15"/>
-      <c r="Z202" s="15"/>
+      <c r="W202" s="17"/>
+      <c r="X202" s="17"/>
+      <c r="Y202" s="17"/>
+      <c r="Z202" s="17"/>
     </row>
     <row r="203" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="H203" s="14"/>
-      <c r="I203" s="14"/>
-      <c r="J203" s="14"/>
-      <c r="K203" s="14"/>
-      <c r="L203" s="15"/>
-      <c r="M203" s="15"/>
-      <c r="N203" s="15"/>
-      <c r="O203" s="15"/>
-      <c r="P203" s="15"/>
+      <c r="H203" s="18"/>
+      <c r="I203" s="18"/>
+      <c r="J203" s="18"/>
+      <c r="K203" s="18"/>
+      <c r="L203" s="17"/>
+      <c r="M203" s="17"/>
+      <c r="N203" s="17"/>
+      <c r="O203" s="17"/>
+      <c r="P203" s="17"/>
       <c r="Q203" s="1"/>
-      <c r="R203" s="15"/>
-      <c r="S203" s="15"/>
-      <c r="T203" s="15"/>
+      <c r="R203" s="17"/>
+      <c r="S203" s="17"/>
+      <c r="T203" s="17"/>
       <c r="U203" s="1"/>
-      <c r="V203" s="15"/>
-      <c r="W203" s="15"/>
-      <c r="X203" s="15"/>
-      <c r="Y203" s="15"/>
-      <c r="Z203" s="15"/>
+      <c r="V203" s="17"/>
+      <c r="W203" s="17"/>
+      <c r="X203" s="17"/>
+      <c r="Y203" s="17"/>
+      <c r="Z203" s="17"/>
     </row>
     <row r="205" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="H205" s="13" t="s">
+      <c r="H205" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="I205" s="13"/>
-      <c r="J205" s="13"/>
-      <c r="K205" s="13"/>
-      <c r="L205" s="13"/>
-      <c r="M205" s="13"/>
-      <c r="N205" s="13"/>
-      <c r="O205" s="13"/>
-      <c r="P205" s="13"/>
-      <c r="Q205" s="13"/>
-      <c r="R205" s="13"/>
-      <c r="S205" s="13"/>
-      <c r="T205" s="13"/>
-      <c r="U205" s="13"/>
-      <c r="V205" s="13"/>
-      <c r="W205" s="13"/>
-      <c r="X205" s="13"/>
-      <c r="Y205" s="13"/>
-      <c r="Z205" s="13"/>
+      <c r="I205" s="15"/>
+      <c r="J205" s="15"/>
+      <c r="K205" s="15"/>
+      <c r="L205" s="15"/>
+      <c r="M205" s="15"/>
+      <c r="N205" s="15"/>
+      <c r="O205" s="15"/>
+      <c r="P205" s="15"/>
+      <c r="Q205" s="15"/>
+      <c r="R205" s="15"/>
+      <c r="S205" s="15"/>
+      <c r="T205" s="15"/>
+      <c r="U205" s="15"/>
+      <c r="V205" s="15"/>
+      <c r="W205" s="15"/>
+      <c r="X205" s="15"/>
+      <c r="Y205" s="15"/>
+      <c r="Z205" s="15"/>
     </row>
     <row r="206" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="H206" s="13"/>
-      <c r="I206" s="13"/>
-      <c r="J206" s="13"/>
-      <c r="K206" s="13"/>
-      <c r="L206" s="13"/>
-      <c r="M206" s="13"/>
-      <c r="N206" s="13"/>
-      <c r="O206" s="13"/>
-      <c r="P206" s="13"/>
-      <c r="Q206" s="13"/>
-      <c r="R206" s="13"/>
-      <c r="S206" s="13"/>
-      <c r="T206" s="13"/>
-      <c r="U206" s="13"/>
-      <c r="V206" s="13"/>
-      <c r="W206" s="13"/>
-      <c r="X206" s="13"/>
-      <c r="Y206" s="13"/>
-      <c r="Z206" s="13"/>
+      <c r="H206" s="15"/>
+      <c r="I206" s="15"/>
+      <c r="J206" s="15"/>
+      <c r="K206" s="15"/>
+      <c r="L206" s="15"/>
+      <c r="M206" s="15"/>
+      <c r="N206" s="15"/>
+      <c r="O206" s="15"/>
+      <c r="P206" s="15"/>
+      <c r="Q206" s="15"/>
+      <c r="R206" s="15"/>
+      <c r="S206" s="15"/>
+      <c r="T206" s="15"/>
+      <c r="U206" s="15"/>
+      <c r="V206" s="15"/>
+      <c r="W206" s="15"/>
+      <c r="X206" s="15"/>
+      <c r="Y206" s="15"/>
+      <c r="Z206" s="15"/>
     </row>
     <row r="208" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="H208" s="14" t="s">
+      <c r="H208" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="I208" s="14"/>
-      <c r="J208" s="14"/>
-      <c r="K208" s="14"/>
-      <c r="L208" s="15" t="s">
+      <c r="I208" s="18"/>
+      <c r="J208" s="18"/>
+      <c r="K208" s="18"/>
+      <c r="L208" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="M208" s="15"/>
-      <c r="N208" s="15"/>
-      <c r="O208" s="15"/>
-      <c r="P208" s="15"/>
+      <c r="M208" s="17"/>
+      <c r="N208" s="17"/>
+      <c r="O208" s="17"/>
+      <c r="P208" s="17"/>
       <c r="Q208" s="1"/>
-      <c r="R208" s="15" t="s">
+      <c r="R208" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="S208" s="15"/>
-      <c r="T208" s="15"/>
+      <c r="S208" s="17"/>
+      <c r="T208" s="17"/>
       <c r="U208" s="1"/>
-      <c r="V208" s="15" t="s">
+      <c r="V208" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="W208" s="15"/>
-      <c r="X208" s="15"/>
-      <c r="Y208" s="15"/>
-      <c r="Z208" s="15"/>
+      <c r="W208" s="17"/>
+      <c r="X208" s="17"/>
+      <c r="Y208" s="17"/>
+      <c r="Z208" s="17"/>
     </row>
     <row r="209" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="H209" s="14"/>
-      <c r="I209" s="14"/>
-      <c r="J209" s="14"/>
-      <c r="K209" s="14"/>
-      <c r="L209" s="15"/>
-      <c r="M209" s="15"/>
-      <c r="N209" s="15"/>
-      <c r="O209" s="15"/>
-      <c r="P209" s="15"/>
+      <c r="H209" s="18"/>
+      <c r="I209" s="18"/>
+      <c r="J209" s="18"/>
+      <c r="K209" s="18"/>
+      <c r="L209" s="17"/>
+      <c r="M209" s="17"/>
+      <c r="N209" s="17"/>
+      <c r="O209" s="17"/>
+      <c r="P209" s="17"/>
       <c r="Q209" s="1"/>
-      <c r="R209" s="15"/>
-      <c r="S209" s="15"/>
-      <c r="T209" s="15"/>
+      <c r="R209" s="17"/>
+      <c r="S209" s="17"/>
+      <c r="T209" s="17"/>
       <c r="U209" s="1"/>
-      <c r="V209" s="15"/>
-      <c r="W209" s="15"/>
-      <c r="X209" s="15"/>
-      <c r="Y209" s="15"/>
-      <c r="Z209" s="15"/>
+      <c r="V209" s="17"/>
+      <c r="W209" s="17"/>
+      <c r="X209" s="17"/>
+      <c r="Y209" s="17"/>
+      <c r="Z209" s="17"/>
     </row>
     <row r="211" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="H211" s="13" t="s">
+      <c r="H211" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="I211" s="13"/>
-      <c r="J211" s="13"/>
-      <c r="K211" s="13"/>
-      <c r="L211" s="13"/>
-      <c r="M211" s="13"/>
-      <c r="N211" s="13"/>
-      <c r="O211" s="13"/>
-      <c r="P211" s="13"/>
-      <c r="Q211" s="13"/>
-      <c r="R211" s="13"/>
-      <c r="S211" s="13"/>
-      <c r="T211" s="13"/>
-      <c r="U211" s="13"/>
-      <c r="V211" s="13"/>
-      <c r="W211" s="13"/>
-      <c r="X211" s="13"/>
-      <c r="Y211" s="13"/>
-      <c r="Z211" s="13"/>
+      <c r="I211" s="15"/>
+      <c r="J211" s="15"/>
+      <c r="K211" s="15"/>
+      <c r="L211" s="15"/>
+      <c r="M211" s="15"/>
+      <c r="N211" s="15"/>
+      <c r="O211" s="15"/>
+      <c r="P211" s="15"/>
+      <c r="Q211" s="15"/>
+      <c r="R211" s="15"/>
+      <c r="S211" s="15"/>
+      <c r="T211" s="15"/>
+      <c r="U211" s="15"/>
+      <c r="V211" s="15"/>
+      <c r="W211" s="15"/>
+      <c r="X211" s="15"/>
+      <c r="Y211" s="15"/>
+      <c r="Z211" s="15"/>
     </row>
     <row r="212" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="H212" s="13"/>
-      <c r="I212" s="13"/>
-      <c r="J212" s="13"/>
-      <c r="K212" s="13"/>
-      <c r="L212" s="13"/>
-      <c r="M212" s="13"/>
-      <c r="N212" s="13"/>
-      <c r="O212" s="13"/>
-      <c r="P212" s="13"/>
-      <c r="Q212" s="13"/>
-      <c r="R212" s="13"/>
-      <c r="S212" s="13"/>
-      <c r="T212" s="13"/>
-      <c r="U212" s="13"/>
-      <c r="V212" s="13"/>
-      <c r="W212" s="13"/>
-      <c r="X212" s="13"/>
-      <c r="Y212" s="13"/>
-      <c r="Z212" s="13"/>
+      <c r="H212" s="15"/>
+      <c r="I212" s="15"/>
+      <c r="J212" s="15"/>
+      <c r="K212" s="15"/>
+      <c r="L212" s="15"/>
+      <c r="M212" s="15"/>
+      <c r="N212" s="15"/>
+      <c r="O212" s="15"/>
+      <c r="P212" s="15"/>
+      <c r="Q212" s="15"/>
+      <c r="R212" s="15"/>
+      <c r="S212" s="15"/>
+      <c r="T212" s="15"/>
+      <c r="U212" s="15"/>
+      <c r="V212" s="15"/>
+      <c r="W212" s="15"/>
+      <c r="X212" s="15"/>
+      <c r="Y212" s="15"/>
+      <c r="Z212" s="15"/>
     </row>
     <row r="214" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="H214" s="14" t="s">
+      <c r="H214" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="I214" s="14"/>
-      <c r="J214" s="14"/>
-      <c r="K214" s="14"/>
-      <c r="L214" s="15" t="s">
+      <c r="I214" s="18"/>
+      <c r="J214" s="18"/>
+      <c r="K214" s="18"/>
+      <c r="L214" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="M214" s="15"/>
-      <c r="N214" s="15"/>
-      <c r="O214" s="15"/>
-      <c r="P214" s="15"/>
+      <c r="M214" s="17"/>
+      <c r="N214" s="17"/>
+      <c r="O214" s="17"/>
+      <c r="P214" s="17"/>
       <c r="Q214" s="1"/>
-      <c r="R214" s="15" t="s">
+      <c r="R214" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="S214" s="15"/>
-      <c r="T214" s="15"/>
+      <c r="S214" s="17"/>
+      <c r="T214" s="17"/>
       <c r="U214" s="1"/>
-      <c r="V214" s="15" t="s">
+      <c r="V214" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="W214" s="15"/>
-      <c r="X214" s="15"/>
-      <c r="Y214" s="15"/>
-      <c r="Z214" s="15"/>
+      <c r="W214" s="17"/>
+      <c r="X214" s="17"/>
+      <c r="Y214" s="17"/>
+      <c r="Z214" s="17"/>
     </row>
     <row r="215" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="H215" s="14"/>
-      <c r="I215" s="14"/>
-      <c r="J215" s="14"/>
-      <c r="K215" s="14"/>
-      <c r="L215" s="15"/>
-      <c r="M215" s="15"/>
-      <c r="N215" s="15"/>
-      <c r="O215" s="15"/>
-      <c r="P215" s="15"/>
+      <c r="H215" s="18"/>
+      <c r="I215" s="18"/>
+      <c r="J215" s="18"/>
+      <c r="K215" s="18"/>
+      <c r="L215" s="17"/>
+      <c r="M215" s="17"/>
+      <c r="N215" s="17"/>
+      <c r="O215" s="17"/>
+      <c r="P215" s="17"/>
       <c r="Q215" s="1"/>
-      <c r="R215" s="15"/>
-      <c r="S215" s="15"/>
-      <c r="T215" s="15"/>
+      <c r="R215" s="17"/>
+      <c r="S215" s="17"/>
+      <c r="T215" s="17"/>
       <c r="U215" s="1"/>
-      <c r="V215" s="15"/>
-      <c r="W215" s="15"/>
-      <c r="X215" s="15"/>
-      <c r="Y215" s="15"/>
-      <c r="Z215" s="15"/>
+      <c r="V215" s="17"/>
+      <c r="W215" s="17"/>
+      <c r="X215" s="17"/>
+      <c r="Y215" s="17"/>
+      <c r="Z215" s="17"/>
     </row>
     <row r="217" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="H217" s="13" t="s">
+      <c r="H217" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="I217" s="13"/>
-      <c r="J217" s="13"/>
-      <c r="K217" s="13"/>
-      <c r="L217" s="13"/>
-      <c r="M217" s="13"/>
-      <c r="N217" s="13"/>
-      <c r="O217" s="13"/>
-      <c r="P217" s="13"/>
-      <c r="Q217" s="13"/>
-      <c r="R217" s="13"/>
-      <c r="S217" s="13"/>
-      <c r="T217" s="13"/>
-      <c r="U217" s="13"/>
-      <c r="V217" s="13"/>
-      <c r="W217" s="13"/>
-      <c r="X217" s="13"/>
-      <c r="Y217" s="13"/>
-      <c r="Z217" s="13"/>
+      <c r="I217" s="15"/>
+      <c r="J217" s="15"/>
+      <c r="K217" s="15"/>
+      <c r="L217" s="15"/>
+      <c r="M217" s="15"/>
+      <c r="N217" s="15"/>
+      <c r="O217" s="15"/>
+      <c r="P217" s="15"/>
+      <c r="Q217" s="15"/>
+      <c r="R217" s="15"/>
+      <c r="S217" s="15"/>
+      <c r="T217" s="15"/>
+      <c r="U217" s="15"/>
+      <c r="V217" s="15"/>
+      <c r="W217" s="15"/>
+      <c r="X217" s="15"/>
+      <c r="Y217" s="15"/>
+      <c r="Z217" s="15"/>
     </row>
     <row r="218" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="H218" s="13"/>
-      <c r="I218" s="13"/>
-      <c r="J218" s="13"/>
-      <c r="K218" s="13"/>
-      <c r="L218" s="13"/>
-      <c r="M218" s="13"/>
-      <c r="N218" s="13"/>
-      <c r="O218" s="13"/>
-      <c r="P218" s="13"/>
-      <c r="Q218" s="13"/>
-      <c r="R218" s="13"/>
-      <c r="S218" s="13"/>
-      <c r="T218" s="13"/>
-      <c r="U218" s="13"/>
-      <c r="V218" s="13"/>
-      <c r="W218" s="13"/>
-      <c r="X218" s="13"/>
-      <c r="Y218" s="13"/>
-      <c r="Z218" s="13"/>
+      <c r="H218" s="15"/>
+      <c r="I218" s="15"/>
+      <c r="J218" s="15"/>
+      <c r="K218" s="15"/>
+      <c r="L218" s="15"/>
+      <c r="M218" s="15"/>
+      <c r="N218" s="15"/>
+      <c r="O218" s="15"/>
+      <c r="P218" s="15"/>
+      <c r="Q218" s="15"/>
+      <c r="R218" s="15"/>
+      <c r="S218" s="15"/>
+      <c r="T218" s="15"/>
+      <c r="U218" s="15"/>
+      <c r="V218" s="15"/>
+      <c r="W218" s="15"/>
+      <c r="X218" s="15"/>
+      <c r="Y218" s="15"/>
+      <c r="Z218" s="15"/>
     </row>
     <row r="220" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="H220" s="14" t="s">
+      <c r="H220" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="I220" s="14"/>
-      <c r="J220" s="14"/>
-      <c r="K220" s="14"/>
-      <c r="L220" s="15" t="s">
+      <c r="I220" s="18"/>
+      <c r="J220" s="18"/>
+      <c r="K220" s="18"/>
+      <c r="L220" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="M220" s="15"/>
-      <c r="N220" s="15"/>
-      <c r="O220" s="15"/>
-      <c r="P220" s="15"/>
+      <c r="M220" s="17"/>
+      <c r="N220" s="17"/>
+      <c r="O220" s="17"/>
+      <c r="P220" s="17"/>
       <c r="Q220" s="1"/>
-      <c r="R220" s="15" t="s">
+      <c r="R220" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="S220" s="15"/>
-      <c r="T220" s="15"/>
+      <c r="S220" s="17"/>
+      <c r="T220" s="17"/>
       <c r="U220" s="1"/>
-      <c r="V220" s="15" t="s">
+      <c r="V220" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="W220" s="15"/>
-      <c r="X220" s="15"/>
-      <c r="Y220" s="15"/>
-      <c r="Z220" s="15"/>
+      <c r="W220" s="17"/>
+      <c r="X220" s="17"/>
+      <c r="Y220" s="17"/>
+      <c r="Z220" s="17"/>
     </row>
     <row r="221" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="H221" s="14"/>
-      <c r="I221" s="14"/>
-      <c r="J221" s="14"/>
-      <c r="K221" s="14"/>
-      <c r="L221" s="15"/>
-      <c r="M221" s="15"/>
-      <c r="N221" s="15"/>
-      <c r="O221" s="15"/>
-      <c r="P221" s="15"/>
+      <c r="H221" s="18"/>
+      <c r="I221" s="18"/>
+      <c r="J221" s="18"/>
+      <c r="K221" s="18"/>
+      <c r="L221" s="17"/>
+      <c r="M221" s="17"/>
+      <c r="N221" s="17"/>
+      <c r="O221" s="17"/>
+      <c r="P221" s="17"/>
       <c r="Q221" s="1"/>
-      <c r="R221" s="15"/>
-      <c r="S221" s="15"/>
-      <c r="T221" s="15"/>
+      <c r="R221" s="17"/>
+      <c r="S221" s="17"/>
+      <c r="T221" s="17"/>
       <c r="U221" s="1"/>
-      <c r="V221" s="15"/>
-      <c r="W221" s="15"/>
-      <c r="X221" s="15"/>
-      <c r="Y221" s="15"/>
-      <c r="Z221" s="15"/>
+      <c r="V221" s="17"/>
+      <c r="W221" s="17"/>
+      <c r="X221" s="17"/>
+      <c r="Y221" s="17"/>
+      <c r="Z221" s="17"/>
     </row>
     <row r="223" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="H223" s="13" t="s">
+      <c r="H223" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="I223" s="13"/>
-      <c r="J223" s="13"/>
-      <c r="K223" s="13"/>
-      <c r="L223" s="13"/>
-      <c r="M223" s="13"/>
-      <c r="N223" s="13"/>
-      <c r="O223" s="13"/>
-      <c r="P223" s="13"/>
-      <c r="Q223" s="13"/>
-      <c r="R223" s="13"/>
-      <c r="S223" s="13"/>
-      <c r="T223" s="13"/>
-      <c r="U223" s="13"/>
-      <c r="V223" s="13"/>
-      <c r="W223" s="13"/>
-      <c r="X223" s="13"/>
-      <c r="Y223" s="13"/>
-      <c r="Z223" s="13"/>
+      <c r="I223" s="15"/>
+      <c r="J223" s="15"/>
+      <c r="K223" s="15"/>
+      <c r="L223" s="15"/>
+      <c r="M223" s="15"/>
+      <c r="N223" s="15"/>
+      <c r="O223" s="15"/>
+      <c r="P223" s="15"/>
+      <c r="Q223" s="15"/>
+      <c r="R223" s="15"/>
+      <c r="S223" s="15"/>
+      <c r="T223" s="15"/>
+      <c r="U223" s="15"/>
+      <c r="V223" s="15"/>
+      <c r="W223" s="15"/>
+      <c r="X223" s="15"/>
+      <c r="Y223" s="15"/>
+      <c r="Z223" s="15"/>
     </row>
     <row r="224" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="H224" s="13"/>
-      <c r="I224" s="13"/>
-      <c r="J224" s="13"/>
-      <c r="K224" s="13"/>
-      <c r="L224" s="13"/>
-      <c r="M224" s="13"/>
-      <c r="N224" s="13"/>
-      <c r="O224" s="13"/>
-      <c r="P224" s="13"/>
-      <c r="Q224" s="13"/>
-      <c r="R224" s="13"/>
-      <c r="S224" s="13"/>
-      <c r="T224" s="13"/>
-      <c r="U224" s="13"/>
-      <c r="V224" s="13"/>
-      <c r="W224" s="13"/>
-      <c r="X224" s="13"/>
-      <c r="Y224" s="13"/>
-      <c r="Z224" s="13"/>
+      <c r="H224" s="15"/>
+      <c r="I224" s="15"/>
+      <c r="J224" s="15"/>
+      <c r="K224" s="15"/>
+      <c r="L224" s="15"/>
+      <c r="M224" s="15"/>
+      <c r="N224" s="15"/>
+      <c r="O224" s="15"/>
+      <c r="P224" s="15"/>
+      <c r="Q224" s="15"/>
+      <c r="R224" s="15"/>
+      <c r="S224" s="15"/>
+      <c r="T224" s="15"/>
+      <c r="U224" s="15"/>
+      <c r="V224" s="15"/>
+      <c r="W224" s="15"/>
+      <c r="X224" s="15"/>
+      <c r="Y224" s="15"/>
+      <c r="Z224" s="15"/>
     </row>
     <row r="226" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="H226" s="14" t="s">
+      <c r="H226" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="I226" s="14"/>
-      <c r="J226" s="14"/>
-      <c r="K226" s="14"/>
-      <c r="L226" s="15" t="s">
+      <c r="I226" s="18"/>
+      <c r="J226" s="18"/>
+      <c r="K226" s="18"/>
+      <c r="L226" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="M226" s="15"/>
-      <c r="N226" s="15"/>
-      <c r="O226" s="15"/>
-      <c r="P226" s="15"/>
+      <c r="M226" s="17"/>
+      <c r="N226" s="17"/>
+      <c r="O226" s="17"/>
+      <c r="P226" s="17"/>
       <c r="Q226" s="1"/>
-      <c r="R226" s="15" t="s">
+      <c r="R226" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="S226" s="15"/>
-      <c r="T226" s="15"/>
+      <c r="S226" s="17"/>
+      <c r="T226" s="17"/>
       <c r="U226" s="1"/>
-      <c r="V226" s="15" t="s">
+      <c r="V226" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="W226" s="15"/>
-      <c r="X226" s="15"/>
-      <c r="Y226" s="15"/>
-      <c r="Z226" s="15"/>
+      <c r="W226" s="17"/>
+      <c r="X226" s="17"/>
+      <c r="Y226" s="17"/>
+      <c r="Z226" s="17"/>
     </row>
     <row r="227" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="H227" s="14"/>
-      <c r="I227" s="14"/>
-      <c r="J227" s="14"/>
-      <c r="K227" s="14"/>
-      <c r="L227" s="15"/>
-      <c r="M227" s="15"/>
-      <c r="N227" s="15"/>
-      <c r="O227" s="15"/>
-      <c r="P227" s="15"/>
+      <c r="H227" s="18"/>
+      <c r="I227" s="18"/>
+      <c r="J227" s="18"/>
+      <c r="K227" s="18"/>
+      <c r="L227" s="17"/>
+      <c r="M227" s="17"/>
+      <c r="N227" s="17"/>
+      <c r="O227" s="17"/>
+      <c r="P227" s="17"/>
       <c r="Q227" s="1"/>
-      <c r="R227" s="15"/>
-      <c r="S227" s="15"/>
-      <c r="T227" s="15"/>
+      <c r="R227" s="17"/>
+      <c r="S227" s="17"/>
+      <c r="T227" s="17"/>
       <c r="U227" s="1"/>
-      <c r="V227" s="15"/>
-      <c r="W227" s="15"/>
-      <c r="X227" s="15"/>
-      <c r="Y227" s="15"/>
-      <c r="Z227" s="15"/>
+      <c r="V227" s="17"/>
+      <c r="W227" s="17"/>
+      <c r="X227" s="17"/>
+      <c r="Y227" s="17"/>
+      <c r="Z227" s="17"/>
     </row>
     <row r="229" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="H229" s="13" t="s">
+      <c r="H229" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="I229" s="13"/>
-      <c r="J229" s="13"/>
-      <c r="K229" s="13"/>
-      <c r="L229" s="13"/>
-      <c r="M229" s="13"/>
-      <c r="N229" s="13"/>
-      <c r="O229" s="13"/>
-      <c r="P229" s="13"/>
-      <c r="Q229" s="13"/>
-      <c r="R229" s="13"/>
-      <c r="S229" s="13"/>
-      <c r="T229" s="13"/>
-      <c r="U229" s="13"/>
-      <c r="V229" s="13"/>
-      <c r="W229" s="13"/>
-      <c r="X229" s="13"/>
-      <c r="Y229" s="13"/>
-      <c r="Z229" s="13"/>
+      <c r="I229" s="15"/>
+      <c r="J229" s="15"/>
+      <c r="K229" s="15"/>
+      <c r="L229" s="15"/>
+      <c r="M229" s="15"/>
+      <c r="N229" s="15"/>
+      <c r="O229" s="15"/>
+      <c r="P229" s="15"/>
+      <c r="Q229" s="15"/>
+      <c r="R229" s="15"/>
+      <c r="S229" s="15"/>
+      <c r="T229" s="15"/>
+      <c r="U229" s="15"/>
+      <c r="V229" s="15"/>
+      <c r="W229" s="15"/>
+      <c r="X229" s="15"/>
+      <c r="Y229" s="15"/>
+      <c r="Z229" s="15"/>
     </row>
     <row r="230" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="H230" s="13"/>
-      <c r="I230" s="13"/>
-      <c r="J230" s="13"/>
-      <c r="K230" s="13"/>
-      <c r="L230" s="13"/>
-      <c r="M230" s="13"/>
-      <c r="N230" s="13"/>
-      <c r="O230" s="13"/>
-      <c r="P230" s="13"/>
-      <c r="Q230" s="13"/>
-      <c r="R230" s="13"/>
-      <c r="S230" s="13"/>
-      <c r="T230" s="13"/>
-      <c r="U230" s="13"/>
-      <c r="V230" s="13"/>
-      <c r="W230" s="13"/>
-      <c r="X230" s="13"/>
-      <c r="Y230" s="13"/>
-      <c r="Z230" s="13"/>
+      <c r="H230" s="15"/>
+      <c r="I230" s="15"/>
+      <c r="J230" s="15"/>
+      <c r="K230" s="15"/>
+      <c r="L230" s="15"/>
+      <c r="M230" s="15"/>
+      <c r="N230" s="15"/>
+      <c r="O230" s="15"/>
+      <c r="P230" s="15"/>
+      <c r="Q230" s="15"/>
+      <c r="R230" s="15"/>
+      <c r="S230" s="15"/>
+      <c r="T230" s="15"/>
+      <c r="U230" s="15"/>
+      <c r="V230" s="15"/>
+      <c r="W230" s="15"/>
+      <c r="X230" s="15"/>
+      <c r="Y230" s="15"/>
+      <c r="Z230" s="15"/>
     </row>
     <row r="232" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="H232" s="14" t="s">
+      <c r="H232" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="I232" s="14"/>
-      <c r="J232" s="14"/>
-      <c r="K232" s="14"/>
-      <c r="L232" s="15" t="s">
+      <c r="I232" s="18"/>
+      <c r="J232" s="18"/>
+      <c r="K232" s="18"/>
+      <c r="L232" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="M232" s="15"/>
-      <c r="N232" s="15"/>
-      <c r="O232" s="15"/>
-      <c r="P232" s="15"/>
+      <c r="M232" s="17"/>
+      <c r="N232" s="17"/>
+      <c r="O232" s="17"/>
+      <c r="P232" s="17"/>
       <c r="Q232" s="1"/>
-      <c r="R232" s="15" t="s">
+      <c r="R232" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="S232" s="15"/>
-      <c r="T232" s="15"/>
+      <c r="S232" s="17"/>
+      <c r="T232" s="17"/>
       <c r="U232" s="1"/>
-      <c r="V232" s="15" t="s">
+      <c r="V232" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="W232" s="15"/>
-      <c r="X232" s="15"/>
-      <c r="Y232" s="15"/>
-      <c r="Z232" s="15"/>
+      <c r="W232" s="17"/>
+      <c r="X232" s="17"/>
+      <c r="Y232" s="17"/>
+      <c r="Z232" s="17"/>
     </row>
     <row r="233" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="H233" s="14"/>
-      <c r="I233" s="14"/>
-      <c r="J233" s="14"/>
-      <c r="K233" s="14"/>
-      <c r="L233" s="15"/>
-      <c r="M233" s="15"/>
-      <c r="N233" s="15"/>
-      <c r="O233" s="15"/>
-      <c r="P233" s="15"/>
+      <c r="H233" s="18"/>
+      <c r="I233" s="18"/>
+      <c r="J233" s="18"/>
+      <c r="K233" s="18"/>
+      <c r="L233" s="17"/>
+      <c r="M233" s="17"/>
+      <c r="N233" s="17"/>
+      <c r="O233" s="17"/>
+      <c r="P233" s="17"/>
       <c r="Q233" s="1"/>
-      <c r="R233" s="15"/>
-      <c r="S233" s="15"/>
-      <c r="T233" s="15"/>
+      <c r="R233" s="17"/>
+      <c r="S233" s="17"/>
+      <c r="T233" s="17"/>
       <c r="U233" s="1"/>
-      <c r="V233" s="15"/>
-      <c r="W233" s="15"/>
-      <c r="X233" s="15"/>
-      <c r="Y233" s="15"/>
-      <c r="Z233" s="15"/>
+      <c r="V233" s="17"/>
+      <c r="W233" s="17"/>
+      <c r="X233" s="17"/>
+      <c r="Y233" s="17"/>
+      <c r="Z233" s="17"/>
     </row>
     <row r="235" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="H235" s="13" t="s">
+      <c r="H235" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="I235" s="13"/>
-      <c r="J235" s="13"/>
-      <c r="K235" s="13"/>
-      <c r="L235" s="13"/>
-      <c r="M235" s="13"/>
-      <c r="N235" s="13"/>
-      <c r="O235" s="13"/>
-      <c r="P235" s="13"/>
-      <c r="Q235" s="13"/>
-      <c r="R235" s="13"/>
-      <c r="S235" s="13"/>
-      <c r="T235" s="13"/>
-      <c r="U235" s="13"/>
-      <c r="V235" s="13"/>
-      <c r="W235" s="13"/>
-      <c r="X235" s="13"/>
-      <c r="Y235" s="13"/>
-      <c r="Z235" s="13"/>
+      <c r="I235" s="15"/>
+      <c r="J235" s="15"/>
+      <c r="K235" s="15"/>
+      <c r="L235" s="15"/>
+      <c r="M235" s="15"/>
+      <c r="N235" s="15"/>
+      <c r="O235" s="15"/>
+      <c r="P235" s="15"/>
+      <c r="Q235" s="15"/>
+      <c r="R235" s="15"/>
+      <c r="S235" s="15"/>
+      <c r="T235" s="15"/>
+      <c r="U235" s="15"/>
+      <c r="V235" s="15"/>
+      <c r="W235" s="15"/>
+      <c r="X235" s="15"/>
+      <c r="Y235" s="15"/>
+      <c r="Z235" s="15"/>
     </row>
     <row r="236" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="H236" s="13"/>
-      <c r="I236" s="13"/>
-      <c r="J236" s="13"/>
-      <c r="K236" s="13"/>
-      <c r="L236" s="13"/>
-      <c r="M236" s="13"/>
-      <c r="N236" s="13"/>
-      <c r="O236" s="13"/>
-      <c r="P236" s="13"/>
-      <c r="Q236" s="13"/>
-      <c r="R236" s="13"/>
-      <c r="S236" s="13"/>
-      <c r="T236" s="13"/>
-      <c r="U236" s="13"/>
-      <c r="V236" s="13"/>
-      <c r="W236" s="13"/>
-      <c r="X236" s="13"/>
-      <c r="Y236" s="13"/>
-      <c r="Z236" s="13"/>
+      <c r="H236" s="15"/>
+      <c r="I236" s="15"/>
+      <c r="J236" s="15"/>
+      <c r="K236" s="15"/>
+      <c r="L236" s="15"/>
+      <c r="M236" s="15"/>
+      <c r="N236" s="15"/>
+      <c r="O236" s="15"/>
+      <c r="P236" s="15"/>
+      <c r="Q236" s="15"/>
+      <c r="R236" s="15"/>
+      <c r="S236" s="15"/>
+      <c r="T236" s="15"/>
+      <c r="U236" s="15"/>
+      <c r="V236" s="15"/>
+      <c r="W236" s="15"/>
+      <c r="X236" s="15"/>
+      <c r="Y236" s="15"/>
+      <c r="Z236" s="15"/>
     </row>
     <row r="238" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="H238" s="14" t="s">
+      <c r="H238" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="I238" s="14"/>
-      <c r="J238" s="14"/>
-      <c r="K238" s="14"/>
-      <c r="L238" s="15" t="s">
+      <c r="I238" s="18"/>
+      <c r="J238" s="18"/>
+      <c r="K238" s="18"/>
+      <c r="L238" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="M238" s="15"/>
-      <c r="N238" s="15"/>
-      <c r="O238" s="15"/>
-      <c r="P238" s="15"/>
+      <c r="M238" s="17"/>
+      <c r="N238" s="17"/>
+      <c r="O238" s="17"/>
+      <c r="P238" s="17"/>
       <c r="Q238" s="1"/>
-      <c r="R238" s="15" t="s">
+      <c r="R238" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="S238" s="15"/>
-      <c r="T238" s="15"/>
+      <c r="S238" s="17"/>
+      <c r="T238" s="17"/>
       <c r="U238" s="1"/>
-      <c r="V238" s="15" t="s">
+      <c r="V238" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="W238" s="15"/>
-      <c r="X238" s="15"/>
-      <c r="Y238" s="15"/>
-      <c r="Z238" s="15"/>
+      <c r="W238" s="17"/>
+      <c r="X238" s="17"/>
+      <c r="Y238" s="17"/>
+      <c r="Z238" s="17"/>
     </row>
     <row r="239" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="H239" s="14"/>
-      <c r="I239" s="14"/>
-      <c r="J239" s="14"/>
-      <c r="K239" s="14"/>
-      <c r="L239" s="15"/>
-      <c r="M239" s="15"/>
-      <c r="N239" s="15"/>
-      <c r="O239" s="15"/>
-      <c r="P239" s="15"/>
+      <c r="H239" s="18"/>
+      <c r="I239" s="18"/>
+      <c r="J239" s="18"/>
+      <c r="K239" s="18"/>
+      <c r="L239" s="17"/>
+      <c r="M239" s="17"/>
+      <c r="N239" s="17"/>
+      <c r="O239" s="17"/>
+      <c r="P239" s="17"/>
       <c r="Q239" s="1"/>
-      <c r="R239" s="15"/>
-      <c r="S239" s="15"/>
-      <c r="T239" s="15"/>
+      <c r="R239" s="17"/>
+      <c r="S239" s="17"/>
+      <c r="T239" s="17"/>
       <c r="U239" s="1"/>
-      <c r="V239" s="15"/>
-      <c r="W239" s="15"/>
-      <c r="X239" s="15"/>
-      <c r="Y239" s="15"/>
-      <c r="Z239" s="15"/>
+      <c r="V239" s="17"/>
+      <c r="W239" s="17"/>
+      <c r="X239" s="17"/>
+      <c r="Y239" s="17"/>
+      <c r="Z239" s="17"/>
     </row>
     <row r="241" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="H241" s="13" t="s">
+      <c r="H241" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="I241" s="13"/>
-      <c r="J241" s="13"/>
-      <c r="K241" s="13"/>
-      <c r="L241" s="13"/>
-      <c r="M241" s="13"/>
-      <c r="N241" s="13"/>
-      <c r="O241" s="13"/>
-      <c r="P241" s="13"/>
-      <c r="Q241" s="13"/>
-      <c r="R241" s="13"/>
-      <c r="S241" s="13"/>
-      <c r="T241" s="13"/>
-      <c r="U241" s="13"/>
-      <c r="V241" s="13"/>
-      <c r="W241" s="13"/>
-      <c r="X241" s="13"/>
-      <c r="Y241" s="13"/>
-      <c r="Z241" s="13"/>
+      <c r="I241" s="15"/>
+      <c r="J241" s="15"/>
+      <c r="K241" s="15"/>
+      <c r="L241" s="15"/>
+      <c r="M241" s="15"/>
+      <c r="N241" s="15"/>
+      <c r="O241" s="15"/>
+      <c r="P241" s="15"/>
+      <c r="Q241" s="15"/>
+      <c r="R241" s="15"/>
+      <c r="S241" s="15"/>
+      <c r="T241" s="15"/>
+      <c r="U241" s="15"/>
+      <c r="V241" s="15"/>
+      <c r="W241" s="15"/>
+      <c r="X241" s="15"/>
+      <c r="Y241" s="15"/>
+      <c r="Z241" s="15"/>
     </row>
     <row r="242" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="H242" s="13"/>
-      <c r="I242" s="13"/>
-      <c r="J242" s="13"/>
-      <c r="K242" s="13"/>
-      <c r="L242" s="13"/>
-      <c r="M242" s="13"/>
-      <c r="N242" s="13"/>
-      <c r="O242" s="13"/>
-      <c r="P242" s="13"/>
-      <c r="Q242" s="13"/>
-      <c r="R242" s="13"/>
-      <c r="S242" s="13"/>
-      <c r="T242" s="13"/>
-      <c r="U242" s="13"/>
-      <c r="V242" s="13"/>
-      <c r="W242" s="13"/>
-      <c r="X242" s="13"/>
-      <c r="Y242" s="13"/>
-      <c r="Z242" s="13"/>
+      <c r="H242" s="15"/>
+      <c r="I242" s="15"/>
+      <c r="J242" s="15"/>
+      <c r="K242" s="15"/>
+      <c r="L242" s="15"/>
+      <c r="M242" s="15"/>
+      <c r="N242" s="15"/>
+      <c r="O242" s="15"/>
+      <c r="P242" s="15"/>
+      <c r="Q242" s="15"/>
+      <c r="R242" s="15"/>
+      <c r="S242" s="15"/>
+      <c r="T242" s="15"/>
+      <c r="U242" s="15"/>
+      <c r="V242" s="15"/>
+      <c r="W242" s="15"/>
+      <c r="X242" s="15"/>
+      <c r="Y242" s="15"/>
+      <c r="Z242" s="15"/>
     </row>
     <row r="244" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="H244" s="14" t="s">
+      <c r="H244" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="I244" s="14"/>
-      <c r="J244" s="14"/>
-      <c r="K244" s="14"/>
-      <c r="L244" s="15" t="s">
+      <c r="I244" s="18"/>
+      <c r="J244" s="18"/>
+      <c r="K244" s="18"/>
+      <c r="L244" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="M244" s="15"/>
-      <c r="N244" s="15"/>
-      <c r="O244" s="15"/>
-      <c r="P244" s="15"/>
+      <c r="M244" s="17"/>
+      <c r="N244" s="17"/>
+      <c r="O244" s="17"/>
+      <c r="P244" s="17"/>
       <c r="Q244" s="1"/>
-      <c r="R244" s="15" t="s">
+      <c r="R244" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="S244" s="15"/>
-      <c r="T244" s="15"/>
+      <c r="S244" s="17"/>
+      <c r="T244" s="17"/>
       <c r="U244" s="1"/>
-      <c r="V244" s="15" t="s">
+      <c r="V244" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="W244" s="15"/>
-      <c r="X244" s="15"/>
-      <c r="Y244" s="15"/>
-      <c r="Z244" s="15"/>
+      <c r="W244" s="17"/>
+      <c r="X244" s="17"/>
+      <c r="Y244" s="17"/>
+      <c r="Z244" s="17"/>
     </row>
     <row r="245" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="H245" s="14"/>
-      <c r="I245" s="14"/>
-      <c r="J245" s="14"/>
-      <c r="K245" s="14"/>
-      <c r="L245" s="15"/>
-      <c r="M245" s="15"/>
-      <c r="N245" s="15"/>
-      <c r="O245" s="15"/>
-      <c r="P245" s="15"/>
+      <c r="H245" s="18"/>
+      <c r="I245" s="18"/>
+      <c r="J245" s="18"/>
+      <c r="K245" s="18"/>
+      <c r="L245" s="17"/>
+      <c r="M245" s="17"/>
+      <c r="N245" s="17"/>
+      <c r="O245" s="17"/>
+      <c r="P245" s="17"/>
       <c r="Q245" s="1"/>
-      <c r="R245" s="15"/>
-      <c r="S245" s="15"/>
-      <c r="T245" s="15"/>
+      <c r="R245" s="17"/>
+      <c r="S245" s="17"/>
+      <c r="T245" s="17"/>
       <c r="U245" s="1"/>
-      <c r="V245" s="15"/>
-      <c r="W245" s="15"/>
-      <c r="X245" s="15"/>
-      <c r="Y245" s="15"/>
-      <c r="Z245" s="15"/>
+      <c r="V245" s="17"/>
+      <c r="W245" s="17"/>
+      <c r="X245" s="17"/>
+      <c r="Y245" s="17"/>
+      <c r="Z245" s="17"/>
     </row>
     <row r="247" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="H247" s="13" t="s">
+      <c r="H247" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="I247" s="13"/>
-      <c r="J247" s="13"/>
-      <c r="K247" s="13"/>
-      <c r="L247" s="13"/>
-      <c r="M247" s="13"/>
-      <c r="N247" s="13"/>
-      <c r="O247" s="13"/>
-      <c r="P247" s="13"/>
-      <c r="Q247" s="13"/>
-      <c r="R247" s="13"/>
-      <c r="S247" s="13"/>
-      <c r="T247" s="13"/>
-      <c r="U247" s="13"/>
-      <c r="V247" s="13"/>
-      <c r="W247" s="13"/>
-      <c r="X247" s="13"/>
-      <c r="Y247" s="13"/>
-      <c r="Z247" s="13"/>
+      <c r="I247" s="15"/>
+      <c r="J247" s="15"/>
+      <c r="K247" s="15"/>
+      <c r="L247" s="15"/>
+      <c r="M247" s="15"/>
+      <c r="N247" s="15"/>
+      <c r="O247" s="15"/>
+      <c r="P247" s="15"/>
+      <c r="Q247" s="15"/>
+      <c r="R247" s="15"/>
+      <c r="S247" s="15"/>
+      <c r="T247" s="15"/>
+      <c r="U247" s="15"/>
+      <c r="V247" s="15"/>
+      <c r="W247" s="15"/>
+      <c r="X247" s="15"/>
+      <c r="Y247" s="15"/>
+      <c r="Z247" s="15"/>
     </row>
     <row r="248" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="H248" s="13"/>
-      <c r="I248" s="13"/>
-      <c r="J248" s="13"/>
-      <c r="K248" s="13"/>
-      <c r="L248" s="13"/>
-      <c r="M248" s="13"/>
-      <c r="N248" s="13"/>
-      <c r="O248" s="13"/>
-      <c r="P248" s="13"/>
-      <c r="Q248" s="13"/>
-      <c r="R248" s="13"/>
-      <c r="S248" s="13"/>
-      <c r="T248" s="13"/>
-      <c r="U248" s="13"/>
-      <c r="V248" s="13"/>
-      <c r="W248" s="13"/>
-      <c r="X248" s="13"/>
-      <c r="Y248" s="13"/>
-      <c r="Z248" s="13"/>
+      <c r="H248" s="15"/>
+      <c r="I248" s="15"/>
+      <c r="J248" s="15"/>
+      <c r="K248" s="15"/>
+      <c r="L248" s="15"/>
+      <c r="M248" s="15"/>
+      <c r="N248" s="15"/>
+      <c r="O248" s="15"/>
+      <c r="P248" s="15"/>
+      <c r="Q248" s="15"/>
+      <c r="R248" s="15"/>
+      <c r="S248" s="15"/>
+      <c r="T248" s="15"/>
+      <c r="U248" s="15"/>
+      <c r="V248" s="15"/>
+      <c r="W248" s="15"/>
+      <c r="X248" s="15"/>
+      <c r="Y248" s="15"/>
+      <c r="Z248" s="15"/>
     </row>
     <row r="250" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="H250" s="14" t="s">
+      <c r="H250" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="I250" s="14"/>
-      <c r="J250" s="14"/>
-      <c r="K250" s="14"/>
-      <c r="L250" s="15" t="s">
+      <c r="I250" s="18"/>
+      <c r="J250" s="18"/>
+      <c r="K250" s="18"/>
+      <c r="L250" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="M250" s="15"/>
-      <c r="N250" s="15"/>
-      <c r="O250" s="15"/>
-      <c r="P250" s="15"/>
+      <c r="M250" s="17"/>
+      <c r="N250" s="17"/>
+      <c r="O250" s="17"/>
+      <c r="P250" s="17"/>
       <c r="Q250" s="1"/>
-      <c r="R250" s="15" t="s">
+      <c r="R250" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="S250" s="15"/>
-      <c r="T250" s="15"/>
+      <c r="S250" s="17"/>
+      <c r="T250" s="17"/>
       <c r="U250" s="1"/>
-      <c r="V250" s="15" t="s">
+      <c r="V250" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="W250" s="15"/>
-      <c r="X250" s="15"/>
-      <c r="Y250" s="15"/>
-      <c r="Z250" s="15"/>
+      <c r="W250" s="17"/>
+      <c r="X250" s="17"/>
+      <c r="Y250" s="17"/>
+      <c r="Z250" s="17"/>
     </row>
     <row r="251" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="H251" s="14"/>
-      <c r="I251" s="14"/>
-      <c r="J251" s="14"/>
-      <c r="K251" s="14"/>
-      <c r="L251" s="15"/>
-      <c r="M251" s="15"/>
-      <c r="N251" s="15"/>
-      <c r="O251" s="15"/>
-      <c r="P251" s="15"/>
+      <c r="H251" s="18"/>
+      <c r="I251" s="18"/>
+      <c r="J251" s="18"/>
+      <c r="K251" s="18"/>
+      <c r="L251" s="17"/>
+      <c r="M251" s="17"/>
+      <c r="N251" s="17"/>
+      <c r="O251" s="17"/>
+      <c r="P251" s="17"/>
       <c r="Q251" s="1"/>
-      <c r="R251" s="15"/>
-      <c r="S251" s="15"/>
-      <c r="T251" s="15"/>
+      <c r="R251" s="17"/>
+      <c r="S251" s="17"/>
+      <c r="T251" s="17"/>
       <c r="U251" s="1"/>
-      <c r="V251" s="15"/>
-      <c r="W251" s="15"/>
-      <c r="X251" s="15"/>
-      <c r="Y251" s="15"/>
-      <c r="Z251" s="15"/>
+      <c r="V251" s="17"/>
+      <c r="W251" s="17"/>
+      <c r="X251" s="17"/>
+      <c r="Y251" s="17"/>
+      <c r="Z251" s="17"/>
     </row>
     <row r="253" spans="8:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="254" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="I254" s="12" t="s">
+      <c r="I254" s="14" t="s">
         <v>41</v>
       </c>
       <c r="K254" s="9">
@@ -5784,16 +5808,16 @@
       </c>
       <c r="S254" s="11"/>
       <c r="T254" s="11"/>
-      <c r="V254" s="13" t="s">
+      <c r="V254" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="W254" s="13"/>
-      <c r="X254" s="13"/>
-      <c r="Y254" s="13"/>
-      <c r="Z254" s="13"/>
+      <c r="W254" s="15"/>
+      <c r="X254" s="15"/>
+      <c r="Y254" s="15"/>
+      <c r="Z254" s="15"/>
     </row>
     <row r="255" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="I255" s="12"/>
+      <c r="I255" s="14"/>
       <c r="K255" s="9"/>
       <c r="L255" s="10"/>
       <c r="M255" s="10"/>
@@ -5804,17 +5828,17 @@
       <c r="R255" s="11"/>
       <c r="S255" s="11"/>
       <c r="T255" s="11"/>
-      <c r="V255" s="13"/>
-      <c r="W255" s="13"/>
-      <c r="X255" s="13"/>
-      <c r="Y255" s="13"/>
-      <c r="Z255" s="13"/>
+      <c r="V255" s="15"/>
+      <c r="W255" s="15"/>
+      <c r="X255" s="15"/>
+      <c r="Y255" s="15"/>
+      <c r="Z255" s="15"/>
     </row>
     <row r="256" spans="8:26" x14ac:dyDescent="0.45">
-      <c r="I256" s="12"/>
-    </row>
-    <row r="257" spans="9:26" x14ac:dyDescent="0.45">
-      <c r="I257" s="12"/>
+      <c r="I256" s="14"/>
+    </row>
+    <row r="257" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="I257" s="14"/>
       <c r="K257" s="9">
         <v>2</v>
       </c>
@@ -5831,16 +5855,16 @@
       </c>
       <c r="S257" s="11"/>
       <c r="T257" s="11"/>
-      <c r="V257" s="13" t="s">
+      <c r="V257" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="W257" s="13"/>
-      <c r="X257" s="13"/>
-      <c r="Y257" s="13"/>
-      <c r="Z257" s="13"/>
-    </row>
-    <row r="258" spans="9:26" x14ac:dyDescent="0.45">
-      <c r="I258" s="12"/>
+      <c r="W257" s="15"/>
+      <c r="X257" s="15"/>
+      <c r="Y257" s="15"/>
+      <c r="Z257" s="15"/>
+    </row>
+    <row r="258" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="I258" s="14"/>
       <c r="K258" s="9"/>
       <c r="L258" s="11"/>
       <c r="M258" s="11"/>
@@ -5851,17 +5875,17 @@
       <c r="R258" s="11"/>
       <c r="S258" s="11"/>
       <c r="T258" s="11"/>
-      <c r="V258" s="13"/>
-      <c r="W258" s="13"/>
-      <c r="X258" s="13"/>
-      <c r="Y258" s="13"/>
-      <c r="Z258" s="13"/>
-    </row>
-    <row r="259" spans="9:26" x14ac:dyDescent="0.45">
-      <c r="I259" s="12"/>
-    </row>
-    <row r="260" spans="9:26" x14ac:dyDescent="0.45">
-      <c r="I260" s="12"/>
+      <c r="V258" s="15"/>
+      <c r="W258" s="15"/>
+      <c r="X258" s="15"/>
+      <c r="Y258" s="15"/>
+      <c r="Z258" s="15"/>
+    </row>
+    <row r="259" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="I259" s="14"/>
+    </row>
+    <row r="260" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="I260" s="14"/>
       <c r="K260" s="9">
         <v>3</v>
       </c>
@@ -5878,16 +5902,16 @@
       </c>
       <c r="S260" s="11"/>
       <c r="T260" s="11"/>
-      <c r="V260" s="13" t="s">
+      <c r="V260" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="W260" s="13"/>
-      <c r="X260" s="13"/>
-      <c r="Y260" s="13"/>
-      <c r="Z260" s="13"/>
-    </row>
-    <row r="261" spans="9:26" x14ac:dyDescent="0.45">
-      <c r="I261" s="12"/>
+      <c r="W260" s="15"/>
+      <c r="X260" s="15"/>
+      <c r="Y260" s="15"/>
+      <c r="Z260" s="15"/>
+    </row>
+    <row r="261" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="I261" s="14"/>
       <c r="K261" s="9"/>
       <c r="L261" s="11"/>
       <c r="M261" s="11"/>
@@ -5898,17 +5922,17 @@
       <c r="R261" s="11"/>
       <c r="S261" s="11"/>
       <c r="T261" s="11"/>
-      <c r="V261" s="13"/>
-      <c r="W261" s="13"/>
-      <c r="X261" s="13"/>
-      <c r="Y261" s="13"/>
-      <c r="Z261" s="13"/>
-    </row>
-    <row r="262" spans="9:26" x14ac:dyDescent="0.45">
-      <c r="I262" s="12"/>
-    </row>
-    <row r="263" spans="9:26" x14ac:dyDescent="0.45">
-      <c r="I263" s="12"/>
+      <c r="V261" s="15"/>
+      <c r="W261" s="15"/>
+      <c r="X261" s="15"/>
+      <c r="Y261" s="15"/>
+      <c r="Z261" s="15"/>
+    </row>
+    <row r="262" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="I262" s="14"/>
+    </row>
+    <row r="263" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="I263" s="14"/>
       <c r="K263" s="9">
         <v>4</v>
       </c>
@@ -5925,16 +5949,16 @@
       </c>
       <c r="S263" s="11"/>
       <c r="T263" s="11"/>
-      <c r="V263" s="13" t="s">
+      <c r="V263" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="W263" s="13"/>
-      <c r="X263" s="13"/>
-      <c r="Y263" s="13"/>
-      <c r="Z263" s="13"/>
-    </row>
-    <row r="264" spans="9:26" x14ac:dyDescent="0.45">
-      <c r="I264" s="12"/>
+      <c r="W263" s="15"/>
+      <c r="X263" s="15"/>
+      <c r="Y263" s="15"/>
+      <c r="Z263" s="15"/>
+    </row>
+    <row r="264" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="I264" s="14"/>
       <c r="K264" s="9"/>
       <c r="L264" s="11"/>
       <c r="M264" s="11"/>
@@ -5945,17 +5969,17 @@
       <c r="R264" s="11"/>
       <c r="S264" s="11"/>
       <c r="T264" s="11"/>
-      <c r="V264" s="13"/>
-      <c r="W264" s="13"/>
-      <c r="X264" s="13"/>
-      <c r="Y264" s="13"/>
-      <c r="Z264" s="13"/>
-    </row>
-    <row r="265" spans="9:26" x14ac:dyDescent="0.45">
-      <c r="I265" s="12"/>
-    </row>
-    <row r="266" spans="9:26" x14ac:dyDescent="0.45">
-      <c r="I266" s="12"/>
+      <c r="V264" s="15"/>
+      <c r="W264" s="15"/>
+      <c r="X264" s="15"/>
+      <c r="Y264" s="15"/>
+      <c r="Z264" s="15"/>
+    </row>
+    <row r="265" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="I265" s="14"/>
+    </row>
+    <row r="266" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="I266" s="14"/>
       <c r="K266" s="9">
         <v>5</v>
       </c>
@@ -5972,16 +5996,16 @@
       </c>
       <c r="S266" s="11"/>
       <c r="T266" s="11"/>
-      <c r="V266" s="13" t="s">
+      <c r="V266" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="W266" s="13"/>
-      <c r="X266" s="13"/>
-      <c r="Y266" s="13"/>
-      <c r="Z266" s="13"/>
-    </row>
-    <row r="267" spans="9:26" x14ac:dyDescent="0.45">
-      <c r="I267" s="12"/>
+      <c r="W266" s="15"/>
+      <c r="X266" s="15"/>
+      <c r="Y266" s="15"/>
+      <c r="Z266" s="15"/>
+    </row>
+    <row r="267" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="I267" s="14"/>
       <c r="K267" s="9"/>
       <c r="L267" s="11"/>
       <c r="M267" s="11"/>
@@ -5992,14 +6016,14 @@
       <c r="R267" s="11"/>
       <c r="S267" s="11"/>
       <c r="T267" s="11"/>
-      <c r="V267" s="13"/>
-      <c r="W267" s="13"/>
-      <c r="X267" s="13"/>
-      <c r="Y267" s="13"/>
-      <c r="Z267" s="13"/>
-    </row>
-    <row r="269" spans="9:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I269" s="8" t="s">
+      <c r="V267" s="15"/>
+      <c r="W267" s="15"/>
+      <c r="X267" s="15"/>
+      <c r="Y267" s="15"/>
+      <c r="Z267" s="15"/>
+    </row>
+    <row r="269" spans="8:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I269" s="13" t="s">
         <v>45</v>
       </c>
       <c r="K269" s="9">
@@ -6018,16 +6042,16 @@
       </c>
       <c r="S269" s="11"/>
       <c r="T269" s="11"/>
-      <c r="V269" s="17" t="s">
+      <c r="V269" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="W269" s="17"/>
-      <c r="X269" s="17"/>
-      <c r="Y269" s="17"/>
-      <c r="Z269" s="17"/>
-    </row>
-    <row r="270" spans="9:26" x14ac:dyDescent="0.45">
-      <c r="I270" s="8"/>
+      <c r="W269" s="8"/>
+      <c r="X269" s="8"/>
+      <c r="Y269" s="8"/>
+      <c r="Z269" s="8"/>
+    </row>
+    <row r="270" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="I270" s="13"/>
       <c r="K270" s="9"/>
       <c r="L270" s="10"/>
       <c r="M270" s="10"/>
@@ -6038,14 +6062,1223 @@
       <c r="R270" s="11"/>
       <c r="S270" s="11"/>
       <c r="T270" s="11"/>
-      <c r="V270" s="17"/>
-      <c r="W270" s="17"/>
-      <c r="X270" s="17"/>
-      <c r="Y270" s="17"/>
-      <c r="Z270" s="17"/>
+      <c r="V270" s="8"/>
+      <c r="W270" s="8"/>
+      <c r="X270" s="8"/>
+      <c r="Y270" s="8"/>
+      <c r="Z270" s="8"/>
+    </row>
+    <row r="272" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="H272" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="I272" s="18"/>
+      <c r="J272" s="18"/>
+      <c r="K272" s="18"/>
+      <c r="L272" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="M272" s="17"/>
+      <c r="N272" s="17"/>
+      <c r="O272" s="17"/>
+      <c r="P272" s="17"/>
+      <c r="Q272" s="1"/>
+      <c r="R272" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="S272" s="17"/>
+      <c r="T272" s="17"/>
+      <c r="U272" s="1"/>
+      <c r="V272" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="W272" s="17"/>
+      <c r="X272" s="17"/>
+      <c r="Y272" s="17"/>
+      <c r="Z272" s="17"/>
+    </row>
+    <row r="273" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="H273" s="18"/>
+      <c r="I273" s="18"/>
+      <c r="J273" s="18"/>
+      <c r="K273" s="18"/>
+      <c r="L273" s="17"/>
+      <c r="M273" s="17"/>
+      <c r="N273" s="17"/>
+      <c r="O273" s="17"/>
+      <c r="P273" s="17"/>
+      <c r="Q273" s="1"/>
+      <c r="R273" s="17"/>
+      <c r="S273" s="17"/>
+      <c r="T273" s="17"/>
+      <c r="U273" s="1"/>
+      <c r="V273" s="17"/>
+      <c r="W273" s="17"/>
+      <c r="X273" s="17"/>
+      <c r="Y273" s="17"/>
+      <c r="Z273" s="17"/>
+    </row>
+    <row r="276" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="I276" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="K276" s="9">
+        <v>1</v>
+      </c>
+      <c r="L276" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="M276" s="10"/>
+      <c r="N276" s="10"/>
+      <c r="O276" s="10"/>
+      <c r="P276" s="10"/>
+      <c r="Q276" s="1"/>
+      <c r="R276" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="S276" s="11"/>
+      <c r="T276" s="11"/>
+      <c r="V276" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="W276" s="15"/>
+      <c r="X276" s="15"/>
+      <c r="Y276" s="15"/>
+      <c r="Z276" s="15"/>
+    </row>
+    <row r="277" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="I277" s="14"/>
+      <c r="K277" s="9"/>
+      <c r="L277" s="10"/>
+      <c r="M277" s="10"/>
+      <c r="N277" s="10"/>
+      <c r="O277" s="10"/>
+      <c r="P277" s="10"/>
+      <c r="Q277" s="1"/>
+      <c r="R277" s="11"/>
+      <c r="S277" s="11"/>
+      <c r="T277" s="11"/>
+      <c r="V277" s="15"/>
+      <c r="W277" s="15"/>
+      <c r="X277" s="15"/>
+      <c r="Y277" s="15"/>
+      <c r="Z277" s="15"/>
+    </row>
+    <row r="278" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="I278" s="14"/>
+    </row>
+    <row r="279" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="I279" s="14"/>
+      <c r="K279" s="9">
+        <v>2</v>
+      </c>
+      <c r="L279" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="M279" s="11"/>
+      <c r="N279" s="11"/>
+      <c r="O279" s="11"/>
+      <c r="P279" s="11"/>
+      <c r="Q279" s="1"/>
+      <c r="R279" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="S279" s="11"/>
+      <c r="T279" s="11"/>
+      <c r="V279" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="W279" s="15"/>
+      <c r="X279" s="15"/>
+      <c r="Y279" s="15"/>
+      <c r="Z279" s="15"/>
+    </row>
+    <row r="280" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="I280" s="14"/>
+      <c r="K280" s="9"/>
+      <c r="L280" s="11"/>
+      <c r="M280" s="11"/>
+      <c r="N280" s="11"/>
+      <c r="O280" s="11"/>
+      <c r="P280" s="11"/>
+      <c r="Q280" s="1"/>
+      <c r="R280" s="11"/>
+      <c r="S280" s="11"/>
+      <c r="T280" s="11"/>
+      <c r="V280" s="15"/>
+      <c r="W280" s="15"/>
+      <c r="X280" s="15"/>
+      <c r="Y280" s="15"/>
+      <c r="Z280" s="15"/>
+    </row>
+    <row r="281" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="I281" s="14"/>
+    </row>
+    <row r="282" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="I282" s="14"/>
+      <c r="K282" s="9">
+        <v>3</v>
+      </c>
+      <c r="L282" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="M282" s="11"/>
+      <c r="N282" s="11"/>
+      <c r="O282" s="11"/>
+      <c r="P282" s="11"/>
+      <c r="Q282" s="1"/>
+      <c r="R282" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="S282" s="11"/>
+      <c r="T282" s="11"/>
+      <c r="V282" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="W282" s="15"/>
+      <c r="X282" s="15"/>
+      <c r="Y282" s="15"/>
+      <c r="Z282" s="15"/>
+    </row>
+    <row r="283" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="I283" s="14"/>
+      <c r="K283" s="9"/>
+      <c r="L283" s="11"/>
+      <c r="M283" s="11"/>
+      <c r="N283" s="11"/>
+      <c r="O283" s="11"/>
+      <c r="P283" s="11"/>
+      <c r="Q283" s="1"/>
+      <c r="R283" s="11"/>
+      <c r="S283" s="11"/>
+      <c r="T283" s="11"/>
+      <c r="V283" s="15"/>
+      <c r="W283" s="15"/>
+      <c r="X283" s="15"/>
+      <c r="Y283" s="15"/>
+      <c r="Z283" s="15"/>
+    </row>
+    <row r="284" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="I284" s="14"/>
+    </row>
+    <row r="285" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="I285" s="14"/>
+      <c r="K285" s="9">
+        <v>4</v>
+      </c>
+      <c r="L285" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="M285" s="11"/>
+      <c r="N285" s="11"/>
+      <c r="O285" s="11"/>
+      <c r="P285" s="11"/>
+      <c r="Q285" s="1"/>
+      <c r="R285" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="S285" s="11"/>
+      <c r="T285" s="11"/>
+      <c r="V285" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="W285" s="15"/>
+      <c r="X285" s="15"/>
+      <c r="Y285" s="15"/>
+      <c r="Z285" s="15"/>
+    </row>
+    <row r="286" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="I286" s="14"/>
+      <c r="K286" s="9"/>
+      <c r="L286" s="11"/>
+      <c r="M286" s="11"/>
+      <c r="N286" s="11"/>
+      <c r="O286" s="11"/>
+      <c r="P286" s="11"/>
+      <c r="Q286" s="1"/>
+      <c r="R286" s="11"/>
+      <c r="S286" s="11"/>
+      <c r="T286" s="11"/>
+      <c r="V286" s="15"/>
+      <c r="W286" s="15"/>
+      <c r="X286" s="15"/>
+      <c r="Y286" s="15"/>
+      <c r="Z286" s="15"/>
+    </row>
+    <row r="287" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="I287" s="14"/>
+    </row>
+    <row r="288" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="I288" s="14"/>
+      <c r="K288" s="9">
+        <v>5</v>
+      </c>
+      <c r="L288" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="M288" s="11"/>
+      <c r="N288" s="11"/>
+      <c r="O288" s="11"/>
+      <c r="P288" s="11"/>
+      <c r="Q288" s="1"/>
+      <c r="R288" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="S288" s="11"/>
+      <c r="T288" s="11"/>
+      <c r="V288" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="W288" s="15"/>
+      <c r="X288" s="15"/>
+      <c r="Y288" s="15"/>
+      <c r="Z288" s="15"/>
+    </row>
+    <row r="289" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="I289" s="14"/>
+      <c r="K289" s="9"/>
+      <c r="L289" s="11"/>
+      <c r="M289" s="11"/>
+      <c r="N289" s="11"/>
+      <c r="O289" s="11"/>
+      <c r="P289" s="11"/>
+      <c r="Q289" s="1"/>
+      <c r="R289" s="11"/>
+      <c r="S289" s="11"/>
+      <c r="T289" s="11"/>
+      <c r="V289" s="15"/>
+      <c r="W289" s="15"/>
+      <c r="X289" s="15"/>
+      <c r="Y289" s="15"/>
+      <c r="Z289" s="15"/>
+    </row>
+    <row r="291" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="I291" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="K291" s="9">
+        <v>1</v>
+      </c>
+      <c r="L291" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="M291" s="10"/>
+      <c r="N291" s="10"/>
+      <c r="O291" s="10"/>
+      <c r="P291" s="10"/>
+      <c r="Q291" s="1"/>
+      <c r="R291" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="S291" s="11"/>
+      <c r="T291" s="11"/>
+      <c r="V291" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="W291" s="8"/>
+      <c r="X291" s="8"/>
+      <c r="Y291" s="8"/>
+      <c r="Z291" s="8"/>
+    </row>
+    <row r="292" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="I292" s="13"/>
+      <c r="K292" s="9"/>
+      <c r="L292" s="10"/>
+      <c r="M292" s="10"/>
+      <c r="N292" s="10"/>
+      <c r="O292" s="10"/>
+      <c r="P292" s="10"/>
+      <c r="Q292" s="1"/>
+      <c r="R292" s="11"/>
+      <c r="S292" s="11"/>
+      <c r="T292" s="11"/>
+      <c r="V292" s="8"/>
+      <c r="W292" s="8"/>
+      <c r="X292" s="8"/>
+      <c r="Y292" s="8"/>
+      <c r="Z292" s="8"/>
+    </row>
+    <row r="293" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="I293" s="13"/>
+    </row>
+    <row r="294" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="I294" s="13"/>
+      <c r="K294" s="9">
+        <v>2</v>
+      </c>
+      <c r="L294" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="M294" s="10"/>
+      <c r="N294" s="10"/>
+      <c r="O294" s="10"/>
+      <c r="P294" s="10"/>
+      <c r="R294" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="S294" s="11"/>
+      <c r="T294" s="11"/>
+      <c r="V294" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="W294" s="8"/>
+      <c r="X294" s="8"/>
+      <c r="Y294" s="8"/>
+      <c r="Z294" s="8"/>
+    </row>
+    <row r="295" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="I295" s="13"/>
+      <c r="K295" s="9"/>
+      <c r="L295" s="10"/>
+      <c r="M295" s="10"/>
+      <c r="N295" s="10"/>
+      <c r="O295" s="10"/>
+      <c r="P295" s="10"/>
+      <c r="R295" s="11"/>
+      <c r="S295" s="11"/>
+      <c r="T295" s="11"/>
+      <c r="V295" s="8"/>
+      <c r="W295" s="8"/>
+      <c r="X295" s="8"/>
+      <c r="Y295" s="8"/>
+      <c r="Z295" s="8"/>
+    </row>
+    <row r="297" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="H297" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="I297" s="18"/>
+      <c r="J297" s="18"/>
+      <c r="K297" s="18"/>
+      <c r="L297" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="M297" s="17"/>
+      <c r="N297" s="17"/>
+      <c r="O297" s="17"/>
+      <c r="P297" s="17"/>
+      <c r="Q297" s="1"/>
+      <c r="R297" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="S297" s="17"/>
+      <c r="T297" s="17"/>
+      <c r="U297" s="1"/>
+      <c r="V297" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="W297" s="17"/>
+      <c r="X297" s="17"/>
+      <c r="Y297" s="17"/>
+      <c r="Z297" s="17"/>
+    </row>
+    <row r="298" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="H298" s="18"/>
+      <c r="I298" s="18"/>
+      <c r="J298" s="18"/>
+      <c r="K298" s="18"/>
+      <c r="L298" s="17"/>
+      <c r="M298" s="17"/>
+      <c r="N298" s="17"/>
+      <c r="O298" s="17"/>
+      <c r="P298" s="17"/>
+      <c r="Q298" s="1"/>
+      <c r="R298" s="17"/>
+      <c r="S298" s="17"/>
+      <c r="T298" s="17"/>
+      <c r="U298" s="1"/>
+      <c r="V298" s="17"/>
+      <c r="W298" s="17"/>
+      <c r="X298" s="17"/>
+      <c r="Y298" s="17"/>
+      <c r="Z298" s="17"/>
+    </row>
+    <row r="301" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="I301" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="K301" s="9">
+        <v>1</v>
+      </c>
+      <c r="L301" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="M301" s="10"/>
+      <c r="N301" s="10"/>
+      <c r="O301" s="10"/>
+      <c r="P301" s="10"/>
+      <c r="Q301" s="1"/>
+      <c r="R301" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="S301" s="11"/>
+      <c r="T301" s="11"/>
+      <c r="V301" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="W301" s="15"/>
+      <c r="X301" s="15"/>
+      <c r="Y301" s="15"/>
+      <c r="Z301" s="15"/>
+    </row>
+    <row r="302" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="I302" s="14"/>
+      <c r="K302" s="9"/>
+      <c r="L302" s="10"/>
+      <c r="M302" s="10"/>
+      <c r="N302" s="10"/>
+      <c r="O302" s="10"/>
+      <c r="P302" s="10"/>
+      <c r="Q302" s="1"/>
+      <c r="R302" s="11"/>
+      <c r="S302" s="11"/>
+      <c r="T302" s="11"/>
+      <c r="V302" s="15"/>
+      <c r="W302" s="15"/>
+      <c r="X302" s="15"/>
+      <c r="Y302" s="15"/>
+      <c r="Z302" s="15"/>
+    </row>
+    <row r="303" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="I303" s="14"/>
+    </row>
+    <row r="304" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="I304" s="14"/>
+      <c r="K304" s="9">
+        <v>2</v>
+      </c>
+      <c r="L304" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="M304" s="11"/>
+      <c r="N304" s="11"/>
+      <c r="O304" s="11"/>
+      <c r="P304" s="11"/>
+      <c r="Q304" s="1"/>
+      <c r="R304" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="S304" s="11"/>
+      <c r="T304" s="11"/>
+      <c r="V304" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="W304" s="15"/>
+      <c r="X304" s="15"/>
+      <c r="Y304" s="15"/>
+      <c r="Z304" s="15"/>
+    </row>
+    <row r="305" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="I305" s="14"/>
+      <c r="K305" s="9"/>
+      <c r="L305" s="11"/>
+      <c r="M305" s="11"/>
+      <c r="N305" s="11"/>
+      <c r="O305" s="11"/>
+      <c r="P305" s="11"/>
+      <c r="Q305" s="1"/>
+      <c r="R305" s="11"/>
+      <c r="S305" s="11"/>
+      <c r="T305" s="11"/>
+      <c r="V305" s="15"/>
+      <c r="W305" s="15"/>
+      <c r="X305" s="15"/>
+      <c r="Y305" s="15"/>
+      <c r="Z305" s="15"/>
+    </row>
+    <row r="306" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="I306" s="14"/>
+    </row>
+    <row r="307" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="I307" s="14"/>
+      <c r="K307" s="9">
+        <v>3</v>
+      </c>
+      <c r="L307" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="M307" s="11"/>
+      <c r="N307" s="11"/>
+      <c r="O307" s="11"/>
+      <c r="P307" s="11"/>
+      <c r="Q307" s="1"/>
+      <c r="R307" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="S307" s="11"/>
+      <c r="T307" s="11"/>
+      <c r="V307" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="W307" s="15"/>
+      <c r="X307" s="15"/>
+      <c r="Y307" s="15"/>
+      <c r="Z307" s="15"/>
+    </row>
+    <row r="308" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="I308" s="14"/>
+      <c r="K308" s="9"/>
+      <c r="L308" s="11"/>
+      <c r="M308" s="11"/>
+      <c r="N308" s="11"/>
+      <c r="O308" s="11"/>
+      <c r="P308" s="11"/>
+      <c r="Q308" s="1"/>
+      <c r="R308" s="11"/>
+      <c r="S308" s="11"/>
+      <c r="T308" s="11"/>
+      <c r="V308" s="15"/>
+      <c r="W308" s="15"/>
+      <c r="X308" s="15"/>
+      <c r="Y308" s="15"/>
+      <c r="Z308" s="15"/>
+    </row>
+    <row r="309" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="I309" s="14"/>
+    </row>
+    <row r="310" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="I310" s="14"/>
+      <c r="K310" s="9">
+        <v>4</v>
+      </c>
+      <c r="L310" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="M310" s="11"/>
+      <c r="N310" s="11"/>
+      <c r="O310" s="11"/>
+      <c r="P310" s="11"/>
+      <c r="Q310" s="1"/>
+      <c r="R310" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="S310" s="11"/>
+      <c r="T310" s="11"/>
+      <c r="V310" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="W310" s="15"/>
+      <c r="X310" s="15"/>
+      <c r="Y310" s="15"/>
+      <c r="Z310" s="15"/>
+    </row>
+    <row r="311" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="I311" s="14"/>
+      <c r="K311" s="9"/>
+      <c r="L311" s="11"/>
+      <c r="M311" s="11"/>
+      <c r="N311" s="11"/>
+      <c r="O311" s="11"/>
+      <c r="P311" s="11"/>
+      <c r="Q311" s="1"/>
+      <c r="R311" s="11"/>
+      <c r="S311" s="11"/>
+      <c r="T311" s="11"/>
+      <c r="V311" s="15"/>
+      <c r="W311" s="15"/>
+      <c r="X311" s="15"/>
+      <c r="Y311" s="15"/>
+      <c r="Z311" s="15"/>
+    </row>
+    <row r="312" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="I312" s="14"/>
+    </row>
+    <row r="313" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="I313" s="14"/>
+      <c r="K313" s="9">
+        <v>5</v>
+      </c>
+      <c r="L313" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="M313" s="11"/>
+      <c r="N313" s="11"/>
+      <c r="O313" s="11"/>
+      <c r="P313" s="11"/>
+      <c r="Q313" s="1"/>
+      <c r="R313" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="S313" s="11"/>
+      <c r="T313" s="11"/>
+      <c r="V313" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="W313" s="15"/>
+      <c r="X313" s="15"/>
+      <c r="Y313" s="15"/>
+      <c r="Z313" s="15"/>
+    </row>
+    <row r="314" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="I314" s="14"/>
+      <c r="K314" s="9"/>
+      <c r="L314" s="11"/>
+      <c r="M314" s="11"/>
+      <c r="N314" s="11"/>
+      <c r="O314" s="11"/>
+      <c r="P314" s="11"/>
+      <c r="Q314" s="1"/>
+      <c r="R314" s="11"/>
+      <c r="S314" s="11"/>
+      <c r="T314" s="11"/>
+      <c r="V314" s="15"/>
+      <c r="W314" s="15"/>
+      <c r="X314" s="15"/>
+      <c r="Y314" s="15"/>
+      <c r="Z314" s="15"/>
+    </row>
+    <row r="316" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="H316" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="I316" s="18"/>
+      <c r="J316" s="18"/>
+      <c r="K316" s="18"/>
+      <c r="L316" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="M316" s="17"/>
+      <c r="N316" s="17"/>
+      <c r="O316" s="17"/>
+      <c r="P316" s="17"/>
+      <c r="Q316" s="1"/>
+      <c r="R316" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="S316" s="17"/>
+      <c r="T316" s="17"/>
+      <c r="U316" s="1"/>
+      <c r="V316" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="W316" s="17"/>
+      <c r="X316" s="17"/>
+      <c r="Y316" s="17"/>
+      <c r="Z316" s="17"/>
+    </row>
+    <row r="317" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="H317" s="18"/>
+      <c r="I317" s="18"/>
+      <c r="J317" s="18"/>
+      <c r="K317" s="18"/>
+      <c r="L317" s="17"/>
+      <c r="M317" s="17"/>
+      <c r="N317" s="17"/>
+      <c r="O317" s="17"/>
+      <c r="P317" s="17"/>
+      <c r="Q317" s="1"/>
+      <c r="R317" s="17"/>
+      <c r="S317" s="17"/>
+      <c r="T317" s="17"/>
+      <c r="U317" s="1"/>
+      <c r="V317" s="17"/>
+      <c r="W317" s="17"/>
+      <c r="X317" s="17"/>
+      <c r="Y317" s="17"/>
+      <c r="Z317" s="17"/>
+    </row>
+    <row r="319" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="H319" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I319" s="15"/>
+      <c r="J319" s="15"/>
+      <c r="K319" s="15"/>
+      <c r="L319" s="15"/>
+      <c r="M319" s="15"/>
+      <c r="N319" s="15"/>
+      <c r="O319" s="15"/>
+      <c r="P319" s="15"/>
+      <c r="Q319" s="15"/>
+      <c r="R319" s="15"/>
+      <c r="S319" s="15"/>
+      <c r="T319" s="15"/>
+      <c r="U319" s="15"/>
+      <c r="V319" s="15"/>
+      <c r="W319" s="15"/>
+      <c r="X319" s="15"/>
+      <c r="Y319" s="15"/>
+      <c r="Z319" s="15"/>
+    </row>
+    <row r="320" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="H320" s="15"/>
+      <c r="I320" s="15"/>
+      <c r="J320" s="15"/>
+      <c r="K320" s="15"/>
+      <c r="L320" s="15"/>
+      <c r="M320" s="15"/>
+      <c r="N320" s="15"/>
+      <c r="O320" s="15"/>
+      <c r="P320" s="15"/>
+      <c r="Q320" s="15"/>
+      <c r="R320" s="15"/>
+      <c r="S320" s="15"/>
+      <c r="T320" s="15"/>
+      <c r="U320" s="15"/>
+      <c r="V320" s="15"/>
+      <c r="W320" s="15"/>
+      <c r="X320" s="15"/>
+      <c r="Y320" s="15"/>
+      <c r="Z320" s="15"/>
+    </row>
+    <row r="322" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="H322" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="I322" s="18"/>
+      <c r="J322" s="18"/>
+      <c r="K322" s="18"/>
+      <c r="L322" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="M322" s="17"/>
+      <c r="N322" s="17"/>
+      <c r="O322" s="17"/>
+      <c r="P322" s="17"/>
+      <c r="Q322" s="1"/>
+      <c r="R322" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="S322" s="17"/>
+      <c r="T322" s="17"/>
+      <c r="U322" s="1"/>
+      <c r="V322" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="W322" s="17"/>
+      <c r="X322" s="17"/>
+      <c r="Y322" s="17"/>
+      <c r="Z322" s="17"/>
+    </row>
+    <row r="323" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="H323" s="18"/>
+      <c r="I323" s="18"/>
+      <c r="J323" s="18"/>
+      <c r="K323" s="18"/>
+      <c r="L323" s="17"/>
+      <c r="M323" s="17"/>
+      <c r="N323" s="17"/>
+      <c r="O323" s="17"/>
+      <c r="P323" s="17"/>
+      <c r="Q323" s="1"/>
+      <c r="R323" s="17"/>
+      <c r="S323" s="17"/>
+      <c r="T323" s="17"/>
+      <c r="U323" s="1"/>
+      <c r="V323" s="17"/>
+      <c r="W323" s="17"/>
+      <c r="X323" s="17"/>
+      <c r="Y323" s="17"/>
+      <c r="Z323" s="17"/>
+    </row>
+    <row r="325" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="H325" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I325" s="15"/>
+      <c r="J325" s="15"/>
+      <c r="K325" s="15"/>
+      <c r="L325" s="15"/>
+      <c r="M325" s="15"/>
+      <c r="N325" s="15"/>
+      <c r="O325" s="15"/>
+      <c r="P325" s="15"/>
+      <c r="Q325" s="15"/>
+      <c r="R325" s="15"/>
+      <c r="S325" s="15"/>
+      <c r="T325" s="15"/>
+      <c r="U325" s="15"/>
+      <c r="V325" s="15"/>
+      <c r="W325" s="15"/>
+      <c r="X325" s="15"/>
+      <c r="Y325" s="15"/>
+      <c r="Z325" s="15"/>
+    </row>
+    <row r="326" spans="8:26" x14ac:dyDescent="0.45">
+      <c r="H326" s="15"/>
+      <c r="I326" s="15"/>
+      <c r="J326" s="15"/>
+      <c r="K326" s="15"/>
+      <c r="L326" s="15"/>
+      <c r="M326" s="15"/>
+      <c r="N326" s="15"/>
+      <c r="O326" s="15"/>
+      <c r="P326" s="15"/>
+      <c r="Q326" s="15"/>
+      <c r="R326" s="15"/>
+      <c r="S326" s="15"/>
+      <c r="T326" s="15"/>
+      <c r="U326" s="15"/>
+      <c r="V326" s="15"/>
+      <c r="W326" s="15"/>
+      <c r="X326" s="15"/>
+      <c r="Y326" s="15"/>
+      <c r="Z326" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="317">
+  <mergeCells count="386">
+    <mergeCell ref="H325:Z326"/>
+    <mergeCell ref="K313:K314"/>
+    <mergeCell ref="L313:P314"/>
+    <mergeCell ref="H316:K317"/>
+    <mergeCell ref="L316:P317"/>
+    <mergeCell ref="R316:T317"/>
+    <mergeCell ref="V316:Z317"/>
+    <mergeCell ref="H319:Z320"/>
+    <mergeCell ref="H322:K323"/>
+    <mergeCell ref="L322:P323"/>
+    <mergeCell ref="R322:T323"/>
+    <mergeCell ref="V322:Z323"/>
+    <mergeCell ref="V304:Z305"/>
+    <mergeCell ref="K307:K308"/>
+    <mergeCell ref="L307:P308"/>
+    <mergeCell ref="R307:T308"/>
+    <mergeCell ref="V307:Z308"/>
+    <mergeCell ref="K310:K311"/>
+    <mergeCell ref="L310:P311"/>
+    <mergeCell ref="R310:T311"/>
+    <mergeCell ref="V310:Z311"/>
+    <mergeCell ref="R313:T314"/>
+    <mergeCell ref="V288:Z289"/>
+    <mergeCell ref="K291:K292"/>
+    <mergeCell ref="L291:P292"/>
+    <mergeCell ref="R291:T292"/>
+    <mergeCell ref="V291:Z292"/>
+    <mergeCell ref="K294:K295"/>
+    <mergeCell ref="L294:P295"/>
+    <mergeCell ref="R294:T295"/>
+    <mergeCell ref="L288:P289"/>
+    <mergeCell ref="R288:T289"/>
+    <mergeCell ref="V313:Z314"/>
+    <mergeCell ref="H297:K298"/>
+    <mergeCell ref="L297:P298"/>
+    <mergeCell ref="R297:T298"/>
+    <mergeCell ref="V297:Z298"/>
+    <mergeCell ref="I301:I314"/>
+    <mergeCell ref="K301:K302"/>
+    <mergeCell ref="L301:P302"/>
+    <mergeCell ref="R301:T302"/>
+    <mergeCell ref="V301:Z302"/>
+    <mergeCell ref="K304:K305"/>
+    <mergeCell ref="L304:P305"/>
+    <mergeCell ref="R304:T305"/>
+    <mergeCell ref="I291:I295"/>
+    <mergeCell ref="V294:Z295"/>
+    <mergeCell ref="H272:K273"/>
+    <mergeCell ref="L272:P273"/>
+    <mergeCell ref="R272:T273"/>
+    <mergeCell ref="V272:Z273"/>
+    <mergeCell ref="I276:I289"/>
+    <mergeCell ref="K276:K277"/>
+    <mergeCell ref="L276:P277"/>
+    <mergeCell ref="R276:T277"/>
+    <mergeCell ref="V276:Z277"/>
+    <mergeCell ref="K279:K280"/>
+    <mergeCell ref="L279:P280"/>
+    <mergeCell ref="R279:T280"/>
+    <mergeCell ref="V279:Z280"/>
+    <mergeCell ref="K282:K283"/>
+    <mergeCell ref="L282:P283"/>
+    <mergeCell ref="R282:T283"/>
+    <mergeCell ref="V282:Z283"/>
+    <mergeCell ref="K285:K286"/>
+    <mergeCell ref="L285:P286"/>
+    <mergeCell ref="R285:T286"/>
+    <mergeCell ref="V285:Z286"/>
+    <mergeCell ref="K288:K289"/>
+    <mergeCell ref="I269:I270"/>
+    <mergeCell ref="K269:K270"/>
+    <mergeCell ref="L269:P270"/>
+    <mergeCell ref="R269:T270"/>
+    <mergeCell ref="I254:I267"/>
+    <mergeCell ref="K254:K255"/>
+    <mergeCell ref="L254:P255"/>
+    <mergeCell ref="R254:T255"/>
+    <mergeCell ref="V254:Z255"/>
+    <mergeCell ref="K257:K258"/>
+    <mergeCell ref="L257:P258"/>
+    <mergeCell ref="R257:T258"/>
+    <mergeCell ref="V257:Z258"/>
+    <mergeCell ref="K260:K261"/>
+    <mergeCell ref="L260:P261"/>
+    <mergeCell ref="R260:T261"/>
+    <mergeCell ref="V260:Z261"/>
+    <mergeCell ref="K263:K264"/>
+    <mergeCell ref="L263:P264"/>
+    <mergeCell ref="R263:T264"/>
+    <mergeCell ref="V263:Z264"/>
+    <mergeCell ref="K266:K267"/>
+    <mergeCell ref="L266:P267"/>
+    <mergeCell ref="R266:T267"/>
+    <mergeCell ref="V266:Z267"/>
+    <mergeCell ref="H247:Z248"/>
+    <mergeCell ref="H250:K251"/>
+    <mergeCell ref="L250:P251"/>
+    <mergeCell ref="R250:T251"/>
+    <mergeCell ref="V250:Z251"/>
+    <mergeCell ref="H235:Z236"/>
+    <mergeCell ref="H238:K239"/>
+    <mergeCell ref="L238:P239"/>
+    <mergeCell ref="R238:T239"/>
+    <mergeCell ref="V238:Z239"/>
+    <mergeCell ref="H241:Z242"/>
+    <mergeCell ref="H244:K245"/>
+    <mergeCell ref="L244:P245"/>
+    <mergeCell ref="R244:T245"/>
+    <mergeCell ref="V244:Z245"/>
+    <mergeCell ref="H223:Z224"/>
+    <mergeCell ref="H226:K227"/>
+    <mergeCell ref="L226:P227"/>
+    <mergeCell ref="R226:T227"/>
+    <mergeCell ref="V226:Z227"/>
+    <mergeCell ref="H229:Z230"/>
+    <mergeCell ref="H232:K233"/>
+    <mergeCell ref="L232:P233"/>
+    <mergeCell ref="R232:T233"/>
+    <mergeCell ref="V232:Z233"/>
+    <mergeCell ref="H211:Z212"/>
+    <mergeCell ref="H214:K215"/>
+    <mergeCell ref="L214:P215"/>
+    <mergeCell ref="R214:T215"/>
+    <mergeCell ref="V214:Z215"/>
+    <mergeCell ref="H217:Z218"/>
+    <mergeCell ref="H220:K221"/>
+    <mergeCell ref="L220:P221"/>
+    <mergeCell ref="R220:T221"/>
+    <mergeCell ref="V220:Z221"/>
+    <mergeCell ref="H199:Z200"/>
+    <mergeCell ref="H202:K203"/>
+    <mergeCell ref="L202:P203"/>
+    <mergeCell ref="R202:T203"/>
+    <mergeCell ref="V202:Z203"/>
+    <mergeCell ref="H205:Z206"/>
+    <mergeCell ref="H208:K209"/>
+    <mergeCell ref="L208:P209"/>
+    <mergeCell ref="R208:T209"/>
+    <mergeCell ref="V208:Z209"/>
+    <mergeCell ref="H190:K191"/>
+    <mergeCell ref="L190:P191"/>
+    <mergeCell ref="R190:T191"/>
+    <mergeCell ref="V190:Z191"/>
+    <mergeCell ref="H193:Z194"/>
+    <mergeCell ref="H196:K197"/>
+    <mergeCell ref="L196:P197"/>
+    <mergeCell ref="R196:T197"/>
+    <mergeCell ref="V196:Z197"/>
+    <mergeCell ref="H184:K185"/>
+    <mergeCell ref="L184:P185"/>
+    <mergeCell ref="R184:T185"/>
+    <mergeCell ref="V184:Z185"/>
+    <mergeCell ref="H187:Z188"/>
+    <mergeCell ref="K101:K102"/>
+    <mergeCell ref="L101:P102"/>
+    <mergeCell ref="R101:T102"/>
+    <mergeCell ref="K142:K143"/>
+    <mergeCell ref="L142:P143"/>
+    <mergeCell ref="R142:T143"/>
+    <mergeCell ref="R126:T127"/>
+    <mergeCell ref="L107:P108"/>
+    <mergeCell ref="R107:T108"/>
+    <mergeCell ref="I152:I159"/>
+    <mergeCell ref="H161:K162"/>
+    <mergeCell ref="L161:P162"/>
+    <mergeCell ref="R161:T162"/>
+    <mergeCell ref="V161:Z162"/>
+    <mergeCell ref="R110:T111"/>
+    <mergeCell ref="V155:Z156"/>
+    <mergeCell ref="V152:Z153"/>
+    <mergeCell ref="K136:K137"/>
+    <mergeCell ref="L136:P137"/>
+    <mergeCell ref="G150:G153"/>
+    <mergeCell ref="K152:K153"/>
+    <mergeCell ref="L152:P153"/>
+    <mergeCell ref="R152:T153"/>
+    <mergeCell ref="V107:Z108"/>
+    <mergeCell ref="V110:Z111"/>
+    <mergeCell ref="V113:Z114"/>
+    <mergeCell ref="H132:K133"/>
+    <mergeCell ref="L132:P133"/>
+    <mergeCell ref="R132:T133"/>
+    <mergeCell ref="V132:Z133"/>
+    <mergeCell ref="V126:Z127"/>
+    <mergeCell ref="V129:Z130"/>
+    <mergeCell ref="V120:Z121"/>
+    <mergeCell ref="K120:K121"/>
+    <mergeCell ref="L120:P121"/>
+    <mergeCell ref="R120:T121"/>
+    <mergeCell ref="K110:K111"/>
+    <mergeCell ref="L110:P111"/>
+    <mergeCell ref="V123:Z124"/>
+    <mergeCell ref="L123:P124"/>
+    <mergeCell ref="R123:T124"/>
+    <mergeCell ref="K126:K127"/>
+    <mergeCell ref="L126:P127"/>
+    <mergeCell ref="K84:K85"/>
+    <mergeCell ref="L84:P85"/>
+    <mergeCell ref="R84:T85"/>
+    <mergeCell ref="I91:I95"/>
+    <mergeCell ref="K87:K88"/>
+    <mergeCell ref="K94:K95"/>
+    <mergeCell ref="V117:Z118"/>
+    <mergeCell ref="I75:I88"/>
+    <mergeCell ref="K78:K79"/>
+    <mergeCell ref="K81:K82"/>
+    <mergeCell ref="K75:K76"/>
+    <mergeCell ref="L75:P76"/>
+    <mergeCell ref="R75:T76"/>
+    <mergeCell ref="H97:K98"/>
+    <mergeCell ref="L97:P98"/>
+    <mergeCell ref="R97:T98"/>
+    <mergeCell ref="V97:Z98"/>
+    <mergeCell ref="K104:K105"/>
+    <mergeCell ref="L104:P105"/>
+    <mergeCell ref="R104:T105"/>
+    <mergeCell ref="K107:K108"/>
+    <mergeCell ref="I101:I114"/>
+    <mergeCell ref="V101:Z102"/>
+    <mergeCell ref="V104:Z105"/>
+    <mergeCell ref="H68:Z69"/>
+    <mergeCell ref="H71:K72"/>
+    <mergeCell ref="L71:P72"/>
+    <mergeCell ref="R71:T72"/>
+    <mergeCell ref="V71:Z72"/>
+    <mergeCell ref="L65:P66"/>
+    <mergeCell ref="R65:T66"/>
+    <mergeCell ref="V65:Z66"/>
+    <mergeCell ref="H56:Z57"/>
+    <mergeCell ref="H59:K60"/>
+    <mergeCell ref="H62:Z63"/>
+    <mergeCell ref="H65:K66"/>
+    <mergeCell ref="L59:P60"/>
+    <mergeCell ref="R59:T60"/>
+    <mergeCell ref="V59:Z60"/>
+    <mergeCell ref="H53:K54"/>
+    <mergeCell ref="L53:P54"/>
+    <mergeCell ref="R53:T54"/>
+    <mergeCell ref="V53:Z54"/>
+    <mergeCell ref="V35:Z36"/>
+    <mergeCell ref="L38:P39"/>
+    <mergeCell ref="R38:T39"/>
+    <mergeCell ref="V38:Z39"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="L41:P42"/>
+    <mergeCell ref="R41:T42"/>
+    <mergeCell ref="V41:Z42"/>
+    <mergeCell ref="H38:K39"/>
+    <mergeCell ref="V50:Z51"/>
+    <mergeCell ref="V44:Z45"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="V29:Z30"/>
+    <mergeCell ref="V32:Z33"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="L35:P36"/>
+    <mergeCell ref="R35:T36"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="L29:P30"/>
+    <mergeCell ref="R29:T30"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="L32:P33"/>
+    <mergeCell ref="R32:T33"/>
+    <mergeCell ref="V23:Z24"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:P27"/>
+    <mergeCell ref="R26:T27"/>
+    <mergeCell ref="H2:Z3"/>
+    <mergeCell ref="R5:T6"/>
+    <mergeCell ref="V5:Z6"/>
+    <mergeCell ref="R8:T9"/>
+    <mergeCell ref="V8:Z9"/>
+    <mergeCell ref="L5:P6"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:P9"/>
+    <mergeCell ref="H5:K6"/>
+    <mergeCell ref="V26:Z27"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:P18"/>
+    <mergeCell ref="R17:T18"/>
+    <mergeCell ref="V17:Z18"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:P21"/>
+    <mergeCell ref="R20:T21"/>
+    <mergeCell ref="V20:Z21"/>
+    <mergeCell ref="G88:G91"/>
+    <mergeCell ref="K91:K92"/>
+    <mergeCell ref="L91:P92"/>
+    <mergeCell ref="R91:T92"/>
+    <mergeCell ref="V11:Z12"/>
+    <mergeCell ref="L14:P15"/>
+    <mergeCell ref="R14:T15"/>
+    <mergeCell ref="V14:Z15"/>
+    <mergeCell ref="H14:K15"/>
+    <mergeCell ref="V47:Z48"/>
+    <mergeCell ref="K50:K51"/>
+    <mergeCell ref="L50:P51"/>
+    <mergeCell ref="R50:T51"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:P12"/>
+    <mergeCell ref="R11:T12"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="L44:P45"/>
+    <mergeCell ref="R44:T45"/>
+    <mergeCell ref="L47:P48"/>
+    <mergeCell ref="R47:T48"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:P24"/>
+    <mergeCell ref="R23:T24"/>
+    <mergeCell ref="V75:Z76"/>
+    <mergeCell ref="V78:Z79"/>
+    <mergeCell ref="V81:Z82"/>
+    <mergeCell ref="V84:Z85"/>
+    <mergeCell ref="V87:Z88"/>
+    <mergeCell ref="V91:Z92"/>
+    <mergeCell ref="V94:Z95"/>
+    <mergeCell ref="L78:P79"/>
+    <mergeCell ref="R78:T79"/>
+    <mergeCell ref="L87:P88"/>
+    <mergeCell ref="R87:T88"/>
+    <mergeCell ref="L94:P95"/>
+    <mergeCell ref="R94:T95"/>
+    <mergeCell ref="L81:P82"/>
+    <mergeCell ref="R81:T82"/>
+    <mergeCell ref="G115:G118"/>
+    <mergeCell ref="K113:K114"/>
+    <mergeCell ref="L113:P114"/>
+    <mergeCell ref="R113:T114"/>
+    <mergeCell ref="K117:K118"/>
+    <mergeCell ref="L117:P118"/>
+    <mergeCell ref="R117:T118"/>
+    <mergeCell ref="K158:K159"/>
+    <mergeCell ref="L158:P159"/>
+    <mergeCell ref="R158:T159"/>
+    <mergeCell ref="K155:K156"/>
+    <mergeCell ref="L155:P156"/>
+    <mergeCell ref="R155:T156"/>
+    <mergeCell ref="K129:K130"/>
+    <mergeCell ref="L129:P130"/>
+    <mergeCell ref="R129:T130"/>
+    <mergeCell ref="K145:K146"/>
+    <mergeCell ref="L145:P146"/>
+    <mergeCell ref="R145:T146"/>
+    <mergeCell ref="K148:K149"/>
+    <mergeCell ref="L148:P149"/>
+    <mergeCell ref="R148:T149"/>
+    <mergeCell ref="I117:I130"/>
+    <mergeCell ref="I136:I149"/>
+    <mergeCell ref="K177:K178"/>
+    <mergeCell ref="R136:T137"/>
+    <mergeCell ref="K139:K140"/>
+    <mergeCell ref="L139:P140"/>
+    <mergeCell ref="K123:K124"/>
+    <mergeCell ref="L177:P178"/>
+    <mergeCell ref="R177:T178"/>
+    <mergeCell ref="V177:Z178"/>
+    <mergeCell ref="V136:Z137"/>
+    <mergeCell ref="V139:Z140"/>
+    <mergeCell ref="V142:Z143"/>
+    <mergeCell ref="V145:Z146"/>
+    <mergeCell ref="V148:Z149"/>
+    <mergeCell ref="V158:Z159"/>
+    <mergeCell ref="R139:T140"/>
     <mergeCell ref="V269:Z270"/>
     <mergeCell ref="K181:K182"/>
     <mergeCell ref="L181:P182"/>
@@ -6070,299 +7303,6 @@
     <mergeCell ref="L174:P175"/>
     <mergeCell ref="R174:T175"/>
     <mergeCell ref="V174:Z175"/>
-    <mergeCell ref="K177:K178"/>
-    <mergeCell ref="R136:T137"/>
-    <mergeCell ref="K139:K140"/>
-    <mergeCell ref="L139:P140"/>
-    <mergeCell ref="K123:K124"/>
-    <mergeCell ref="L177:P178"/>
-    <mergeCell ref="R177:T178"/>
-    <mergeCell ref="V177:Z178"/>
-    <mergeCell ref="V136:Z137"/>
-    <mergeCell ref="V139:Z140"/>
-    <mergeCell ref="V142:Z143"/>
-    <mergeCell ref="V145:Z146"/>
-    <mergeCell ref="V148:Z149"/>
-    <mergeCell ref="V158:Z159"/>
-    <mergeCell ref="R139:T140"/>
-    <mergeCell ref="G115:G118"/>
-    <mergeCell ref="K113:K114"/>
-    <mergeCell ref="L113:P114"/>
-    <mergeCell ref="R113:T114"/>
-    <mergeCell ref="K117:K118"/>
-    <mergeCell ref="L117:P118"/>
-    <mergeCell ref="R117:T118"/>
-    <mergeCell ref="K158:K159"/>
-    <mergeCell ref="L158:P159"/>
-    <mergeCell ref="R158:T159"/>
-    <mergeCell ref="K155:K156"/>
-    <mergeCell ref="L155:P156"/>
-    <mergeCell ref="R155:T156"/>
-    <mergeCell ref="K129:K130"/>
-    <mergeCell ref="L129:P130"/>
-    <mergeCell ref="R129:T130"/>
-    <mergeCell ref="K145:K146"/>
-    <mergeCell ref="L145:P146"/>
-    <mergeCell ref="R145:T146"/>
-    <mergeCell ref="K148:K149"/>
-    <mergeCell ref="L148:P149"/>
-    <mergeCell ref="R148:T149"/>
-    <mergeCell ref="I117:I130"/>
-    <mergeCell ref="I136:I149"/>
-    <mergeCell ref="V75:Z76"/>
-    <mergeCell ref="V78:Z79"/>
-    <mergeCell ref="V81:Z82"/>
-    <mergeCell ref="V84:Z85"/>
-    <mergeCell ref="V87:Z88"/>
-    <mergeCell ref="V91:Z92"/>
-    <mergeCell ref="V94:Z95"/>
-    <mergeCell ref="L78:P79"/>
-    <mergeCell ref="R78:T79"/>
-    <mergeCell ref="L87:P88"/>
-    <mergeCell ref="R87:T88"/>
-    <mergeCell ref="L94:P95"/>
-    <mergeCell ref="R94:T95"/>
-    <mergeCell ref="L81:P82"/>
-    <mergeCell ref="R81:T82"/>
-    <mergeCell ref="G88:G91"/>
-    <mergeCell ref="K91:K92"/>
-    <mergeCell ref="L91:P92"/>
-    <mergeCell ref="R91:T92"/>
-    <mergeCell ref="V11:Z12"/>
-    <mergeCell ref="L14:P15"/>
-    <mergeCell ref="R14:T15"/>
-    <mergeCell ref="V14:Z15"/>
-    <mergeCell ref="H14:K15"/>
-    <mergeCell ref="V47:Z48"/>
-    <mergeCell ref="K50:K51"/>
-    <mergeCell ref="L50:P51"/>
-    <mergeCell ref="R50:T51"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:P12"/>
-    <mergeCell ref="R11:T12"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="L44:P45"/>
-    <mergeCell ref="R44:T45"/>
-    <mergeCell ref="L47:P48"/>
-    <mergeCell ref="R47:T48"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="L23:P24"/>
-    <mergeCell ref="R23:T24"/>
-    <mergeCell ref="V23:Z24"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:P27"/>
-    <mergeCell ref="R26:T27"/>
-    <mergeCell ref="H2:Z3"/>
-    <mergeCell ref="R5:T6"/>
-    <mergeCell ref="V5:Z6"/>
-    <mergeCell ref="R8:T9"/>
-    <mergeCell ref="V8:Z9"/>
-    <mergeCell ref="L5:P6"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:P9"/>
-    <mergeCell ref="H5:K6"/>
-    <mergeCell ref="V26:Z27"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="L17:P18"/>
-    <mergeCell ref="R17:T18"/>
-    <mergeCell ref="V17:Z18"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:P21"/>
-    <mergeCell ref="R20:T21"/>
-    <mergeCell ref="V20:Z21"/>
-    <mergeCell ref="V29:Z30"/>
-    <mergeCell ref="V32:Z33"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="L35:P36"/>
-    <mergeCell ref="R35:T36"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="L29:P30"/>
-    <mergeCell ref="R29:T30"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="L32:P33"/>
-    <mergeCell ref="R32:T33"/>
-    <mergeCell ref="H53:K54"/>
-    <mergeCell ref="L53:P54"/>
-    <mergeCell ref="R53:T54"/>
-    <mergeCell ref="V53:Z54"/>
-    <mergeCell ref="V35:Z36"/>
-    <mergeCell ref="L38:P39"/>
-    <mergeCell ref="R38:T39"/>
-    <mergeCell ref="V38:Z39"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="L41:P42"/>
-    <mergeCell ref="R41:T42"/>
-    <mergeCell ref="V41:Z42"/>
-    <mergeCell ref="H38:K39"/>
-    <mergeCell ref="V50:Z51"/>
-    <mergeCell ref="V44:Z45"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="H68:Z69"/>
-    <mergeCell ref="H71:K72"/>
-    <mergeCell ref="L71:P72"/>
-    <mergeCell ref="R71:T72"/>
-    <mergeCell ref="V71:Z72"/>
-    <mergeCell ref="L65:P66"/>
-    <mergeCell ref="R65:T66"/>
-    <mergeCell ref="V65:Z66"/>
-    <mergeCell ref="H56:Z57"/>
-    <mergeCell ref="H59:K60"/>
-    <mergeCell ref="H62:Z63"/>
-    <mergeCell ref="H65:K66"/>
-    <mergeCell ref="L59:P60"/>
-    <mergeCell ref="R59:T60"/>
-    <mergeCell ref="V59:Z60"/>
-    <mergeCell ref="K84:K85"/>
-    <mergeCell ref="L84:P85"/>
-    <mergeCell ref="R84:T85"/>
-    <mergeCell ref="I91:I95"/>
-    <mergeCell ref="K87:K88"/>
-    <mergeCell ref="K94:K95"/>
-    <mergeCell ref="V117:Z118"/>
-    <mergeCell ref="I75:I88"/>
-    <mergeCell ref="K78:K79"/>
-    <mergeCell ref="K81:K82"/>
-    <mergeCell ref="K75:K76"/>
-    <mergeCell ref="L75:P76"/>
-    <mergeCell ref="R75:T76"/>
-    <mergeCell ref="H97:K98"/>
-    <mergeCell ref="L97:P98"/>
-    <mergeCell ref="R97:T98"/>
-    <mergeCell ref="V97:Z98"/>
-    <mergeCell ref="K104:K105"/>
-    <mergeCell ref="L104:P105"/>
-    <mergeCell ref="R104:T105"/>
-    <mergeCell ref="K107:K108"/>
-    <mergeCell ref="I101:I114"/>
-    <mergeCell ref="V101:Z102"/>
-    <mergeCell ref="V104:Z105"/>
-    <mergeCell ref="G150:G153"/>
-    <mergeCell ref="K152:K153"/>
-    <mergeCell ref="L152:P153"/>
-    <mergeCell ref="R152:T153"/>
-    <mergeCell ref="V107:Z108"/>
-    <mergeCell ref="V110:Z111"/>
-    <mergeCell ref="V113:Z114"/>
-    <mergeCell ref="H132:K133"/>
-    <mergeCell ref="L132:P133"/>
-    <mergeCell ref="R132:T133"/>
-    <mergeCell ref="V132:Z133"/>
-    <mergeCell ref="V126:Z127"/>
-    <mergeCell ref="V129:Z130"/>
-    <mergeCell ref="V120:Z121"/>
-    <mergeCell ref="K120:K121"/>
-    <mergeCell ref="L120:P121"/>
-    <mergeCell ref="R120:T121"/>
-    <mergeCell ref="K110:K111"/>
-    <mergeCell ref="L110:P111"/>
-    <mergeCell ref="V123:Z124"/>
-    <mergeCell ref="L123:P124"/>
-    <mergeCell ref="R123:T124"/>
-    <mergeCell ref="K126:K127"/>
-    <mergeCell ref="L126:P127"/>
-    <mergeCell ref="H184:K185"/>
-    <mergeCell ref="L184:P185"/>
-    <mergeCell ref="R184:T185"/>
-    <mergeCell ref="V184:Z185"/>
-    <mergeCell ref="H187:Z188"/>
-    <mergeCell ref="K101:K102"/>
-    <mergeCell ref="L101:P102"/>
-    <mergeCell ref="R101:T102"/>
-    <mergeCell ref="K142:K143"/>
-    <mergeCell ref="L142:P143"/>
-    <mergeCell ref="R142:T143"/>
-    <mergeCell ref="R126:T127"/>
-    <mergeCell ref="L107:P108"/>
-    <mergeCell ref="R107:T108"/>
-    <mergeCell ref="I152:I159"/>
-    <mergeCell ref="H161:K162"/>
-    <mergeCell ref="L161:P162"/>
-    <mergeCell ref="R161:T162"/>
-    <mergeCell ref="V161:Z162"/>
-    <mergeCell ref="R110:T111"/>
-    <mergeCell ref="V155:Z156"/>
-    <mergeCell ref="V152:Z153"/>
-    <mergeCell ref="K136:K137"/>
-    <mergeCell ref="L136:P137"/>
-    <mergeCell ref="H190:K191"/>
-    <mergeCell ref="L190:P191"/>
-    <mergeCell ref="R190:T191"/>
-    <mergeCell ref="V190:Z191"/>
-    <mergeCell ref="H193:Z194"/>
-    <mergeCell ref="H196:K197"/>
-    <mergeCell ref="L196:P197"/>
-    <mergeCell ref="R196:T197"/>
-    <mergeCell ref="V196:Z197"/>
-    <mergeCell ref="H199:Z200"/>
-    <mergeCell ref="H202:K203"/>
-    <mergeCell ref="L202:P203"/>
-    <mergeCell ref="R202:T203"/>
-    <mergeCell ref="V202:Z203"/>
-    <mergeCell ref="H205:Z206"/>
-    <mergeCell ref="H208:K209"/>
-    <mergeCell ref="L208:P209"/>
-    <mergeCell ref="R208:T209"/>
-    <mergeCell ref="V208:Z209"/>
-    <mergeCell ref="H211:Z212"/>
-    <mergeCell ref="H214:K215"/>
-    <mergeCell ref="L214:P215"/>
-    <mergeCell ref="R214:T215"/>
-    <mergeCell ref="V214:Z215"/>
-    <mergeCell ref="H217:Z218"/>
-    <mergeCell ref="H220:K221"/>
-    <mergeCell ref="L220:P221"/>
-    <mergeCell ref="R220:T221"/>
-    <mergeCell ref="V220:Z221"/>
-    <mergeCell ref="H223:Z224"/>
-    <mergeCell ref="H226:K227"/>
-    <mergeCell ref="L226:P227"/>
-    <mergeCell ref="R226:T227"/>
-    <mergeCell ref="V226:Z227"/>
-    <mergeCell ref="H229:Z230"/>
-    <mergeCell ref="H232:K233"/>
-    <mergeCell ref="L232:P233"/>
-    <mergeCell ref="R232:T233"/>
-    <mergeCell ref="V232:Z233"/>
-    <mergeCell ref="V266:Z267"/>
-    <mergeCell ref="H247:Z248"/>
-    <mergeCell ref="H250:K251"/>
-    <mergeCell ref="L250:P251"/>
-    <mergeCell ref="R250:T251"/>
-    <mergeCell ref="V250:Z251"/>
-    <mergeCell ref="H235:Z236"/>
-    <mergeCell ref="H238:K239"/>
-    <mergeCell ref="L238:P239"/>
-    <mergeCell ref="R238:T239"/>
-    <mergeCell ref="V238:Z239"/>
-    <mergeCell ref="H241:Z242"/>
-    <mergeCell ref="H244:K245"/>
-    <mergeCell ref="L244:P245"/>
-    <mergeCell ref="R244:T245"/>
-    <mergeCell ref="V244:Z245"/>
-    <mergeCell ref="I269:I270"/>
-    <mergeCell ref="K269:K270"/>
-    <mergeCell ref="L269:P270"/>
-    <mergeCell ref="R269:T270"/>
-    <mergeCell ref="I254:I267"/>
-    <mergeCell ref="K254:K255"/>
-    <mergeCell ref="L254:P255"/>
-    <mergeCell ref="R254:T255"/>
-    <mergeCell ref="V254:Z255"/>
-    <mergeCell ref="K257:K258"/>
-    <mergeCell ref="L257:P258"/>
-    <mergeCell ref="R257:T258"/>
-    <mergeCell ref="V257:Z258"/>
-    <mergeCell ref="K260:K261"/>
-    <mergeCell ref="L260:P261"/>
-    <mergeCell ref="R260:T261"/>
-    <mergeCell ref="V260:Z261"/>
-    <mergeCell ref="K263:K264"/>
-    <mergeCell ref="L263:P264"/>
-    <mergeCell ref="R263:T264"/>
-    <mergeCell ref="V263:Z264"/>
-    <mergeCell ref="K266:K267"/>
-    <mergeCell ref="L266:P267"/>
-    <mergeCell ref="R266:T267"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6372,800 +7312,818 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C6280AF-F913-4213-90F7-5D60D9FFA09E}">
   <dimension ref="F2:Y51"/>
   <sheetViews>
-    <sheetView topLeftCell="D2" zoomScale="93" workbookViewId="0">
-      <selection activeCell="R32" sqref="R32:Y33"/>
+    <sheetView topLeftCell="D39" zoomScale="93" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29:P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="2" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="R2" s="23" t="s">
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="R2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
     </row>
     <row r="3" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="23"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
     </row>
     <row r="5" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F5" s="21">
+      <c r="F5" s="22">
         <v>1</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="H5" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="R5" s="24" t="s">
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="R5" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="22"/>
-      <c r="W5" s="22"/>
-      <c r="X5" s="22"/>
-      <c r="Y5" s="22"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
+      <c r="W5" s="24"/>
+      <c r="X5" s="24"/>
+      <c r="Y5" s="24"/>
     </row>
     <row r="6" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="22"/>
-      <c r="X6" s="22"/>
-      <c r="Y6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="24"/>
+      <c r="V6" s="24"/>
+      <c r="W6" s="24"/>
+      <c r="X6" s="24"/>
+      <c r="Y6" s="24"/>
     </row>
     <row r="8" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F8" s="21">
+      <c r="F8" s="22">
         <v>2</v>
       </c>
-      <c r="H8" s="21" t="s">
+      <c r="H8" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="R8" s="8" t="s">
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="R8" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="8"/>
-      <c r="Y8" s="8"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
     </row>
     <row r="9" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="8"/>
-      <c r="Y9" s="8"/>
+      <c r="F9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
     </row>
     <row r="11" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F11" s="21">
+      <c r="F11" s="22">
         <v>3</v>
       </c>
-      <c r="H11" s="21" t="s">
+      <c r="H11" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="R11" s="8" t="s">
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="R11" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
-      <c r="X11" s="8"/>
-      <c r="Y11" s="8"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
     </row>
     <row r="12" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="8"/>
-      <c r="X12" s="8"/>
-      <c r="Y12" s="8"/>
+      <c r="F12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
     </row>
     <row r="14" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F14" s="21">
+      <c r="F14" s="22">
         <v>4</v>
       </c>
-      <c r="H14" s="21" t="s">
+      <c r="H14" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="R14" s="8" t="s">
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="R14" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="8"/>
-      <c r="X14" s="8"/>
-      <c r="Y14" s="8"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="13"/>
     </row>
     <row r="15" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="8"/>
-      <c r="X15" s="8"/>
-      <c r="Y15" s="8"/>
+      <c r="F15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13"/>
     </row>
     <row r="17" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F17" s="21">
+      <c r="F17" s="22">
         <v>5</v>
       </c>
-      <c r="H17" s="21" t="s">
+      <c r="H17" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="R17" s="13" t="s">
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="R17" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="S17" s="13"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="13"/>
-      <c r="W17" s="13"/>
-      <c r="X17" s="13"/>
-      <c r="Y17" s="13"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="15"/>
+      <c r="Y17" s="15"/>
     </row>
     <row r="18" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="13"/>
-      <c r="X18" s="13"/>
-      <c r="Y18" s="13"/>
+      <c r="F18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="15"/>
+      <c r="Y18" s="15"/>
     </row>
     <row r="20" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F20" s="21">
+      <c r="F20" s="22">
         <v>6</v>
       </c>
-      <c r="H20" s="21" t="s">
+      <c r="H20" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
-      <c r="R20" s="8" t="s">
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="R20" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="S20" s="8"/>
-      <c r="T20" s="8"/>
-      <c r="U20" s="8"/>
-      <c r="V20" s="8"/>
-      <c r="W20" s="8"/>
-      <c r="X20" s="8"/>
-      <c r="Y20" s="8"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="13"/>
+      <c r="W20" s="13"/>
+      <c r="X20" s="13"/>
+      <c r="Y20" s="13"/>
     </row>
     <row r="21" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="8"/>
-      <c r="W21" s="8"/>
-      <c r="X21" s="8"/>
-      <c r="Y21" s="8"/>
+      <c r="F21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="13"/>
+      <c r="V21" s="13"/>
+      <c r="W21" s="13"/>
+      <c r="X21" s="13"/>
+      <c r="Y21" s="13"/>
     </row>
     <row r="23" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F23" s="21">
+      <c r="F23" s="22">
         <v>7</v>
       </c>
-      <c r="H23" s="21" t="s">
+      <c r="H23" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
-      <c r="R23" s="8" t="s">
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
+      <c r="R23" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8"/>
-      <c r="V23" s="8"/>
-      <c r="W23" s="8"/>
-      <c r="X23" s="8"/>
-      <c r="Y23" s="8"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="13"/>
+      <c r="W23" s="13"/>
+      <c r="X23" s="13"/>
+      <c r="Y23" s="13"/>
     </row>
     <row r="24" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="8"/>
-      <c r="V24" s="8"/>
-      <c r="W24" s="8"/>
-      <c r="X24" s="8"/>
-      <c r="Y24" s="8"/>
+      <c r="F24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="13"/>
+      <c r="W24" s="13"/>
+      <c r="X24" s="13"/>
+      <c r="Y24" s="13"/>
     </row>
     <row r="26" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F26" s="21">
+      <c r="F26" s="22">
         <v>9</v>
       </c>
-      <c r="H26" s="21" t="s">
+      <c r="H26" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="21"/>
-      <c r="R26" s="13" t="s">
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
+      <c r="R26" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="S26" s="13"/>
-      <c r="T26" s="13"/>
-      <c r="U26" s="13"/>
-      <c r="V26" s="13"/>
-      <c r="W26" s="13"/>
-      <c r="X26" s="13"/>
-      <c r="Y26" s="13"/>
+      <c r="S26" s="15"/>
+      <c r="T26" s="15"/>
+      <c r="U26" s="15"/>
+      <c r="V26" s="15"/>
+      <c r="W26" s="15"/>
+      <c r="X26" s="15"/>
+      <c r="Y26" s="15"/>
     </row>
     <row r="27" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
-      <c r="R27" s="13"/>
-      <c r="S27" s="13"/>
-      <c r="T27" s="13"/>
-      <c r="U27" s="13"/>
-      <c r="V27" s="13"/>
-      <c r="W27" s="13"/>
-      <c r="X27" s="13"/>
-      <c r="Y27" s="13"/>
+      <c r="F27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="15"/>
+      <c r="U27" s="15"/>
+      <c r="V27" s="15"/>
+      <c r="W27" s="15"/>
+      <c r="X27" s="15"/>
+      <c r="Y27" s="15"/>
     </row>
     <row r="29" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F29" s="21">
+      <c r="F29" s="22">
         <v>10</v>
       </c>
-      <c r="H29" s="21" t="s">
+      <c r="H29" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="21"/>
-      <c r="R29" s="13" t="s">
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
+      <c r="R29" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="S29" s="13"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="13"/>
-      <c r="V29" s="13"/>
-      <c r="W29" s="13"/>
-      <c r="X29" s="13"/>
-      <c r="Y29" s="13"/>
+      <c r="S29" s="15"/>
+      <c r="T29" s="15"/>
+      <c r="U29" s="15"/>
+      <c r="V29" s="15"/>
+      <c r="W29" s="15"/>
+      <c r="X29" s="15"/>
+      <c r="Y29" s="15"/>
     </row>
     <row r="30" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="21"/>
-      <c r="O30" s="21"/>
-      <c r="P30" s="21"/>
-      <c r="R30" s="13"/>
-      <c r="S30" s="13"/>
-      <c r="T30" s="13"/>
-      <c r="U30" s="13"/>
-      <c r="V30" s="13"/>
-      <c r="W30" s="13"/>
-      <c r="X30" s="13"/>
-      <c r="Y30" s="13"/>
+      <c r="F30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="22"/>
+      <c r="R30" s="15"/>
+      <c r="S30" s="15"/>
+      <c r="T30" s="15"/>
+      <c r="U30" s="15"/>
+      <c r="V30" s="15"/>
+      <c r="W30" s="15"/>
+      <c r="X30" s="15"/>
+      <c r="Y30" s="15"/>
     </row>
     <row r="32" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F32" s="21">
+      <c r="F32" s="22">
         <v>11</v>
       </c>
-      <c r="H32" s="21" t="s">
+      <c r="H32" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="21"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="21"/>
-      <c r="P32" s="21"/>
-      <c r="R32" s="8" t="s">
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="22"/>
+      <c r="P32" s="22"/>
+      <c r="R32" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="S32" s="8"/>
-      <c r="T32" s="8"/>
-      <c r="U32" s="8"/>
-      <c r="V32" s="8"/>
-      <c r="W32" s="8"/>
-      <c r="X32" s="8"/>
-      <c r="Y32" s="8"/>
+      <c r="S32" s="13"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="13"/>
+      <c r="V32" s="13"/>
+      <c r="W32" s="13"/>
+      <c r="X32" s="13"/>
+      <c r="Y32" s="13"/>
     </row>
     <row r="33" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="21"/>
-      <c r="O33" s="21"/>
-      <c r="P33" s="21"/>
-      <c r="R33" s="8"/>
-      <c r="S33" s="8"/>
-      <c r="T33" s="8"/>
-      <c r="U33" s="8"/>
-      <c r="V33" s="8"/>
-      <c r="W33" s="8"/>
-      <c r="X33" s="8"/>
-      <c r="Y33" s="8"/>
+      <c r="F33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="22"/>
+      <c r="R33" s="13"/>
+      <c r="S33" s="13"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="13"/>
+      <c r="V33" s="13"/>
+      <c r="W33" s="13"/>
+      <c r="X33" s="13"/>
+      <c r="Y33" s="13"/>
     </row>
     <row r="35" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F35" s="21">
+      <c r="F35" s="22">
         <v>12</v>
       </c>
-      <c r="H35" s="21" t="s">
+      <c r="H35" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="21"/>
-      <c r="N35" s="21"/>
-      <c r="O35" s="21"/>
-      <c r="P35" s="21"/>
-      <c r="R35" s="8" t="s">
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="22"/>
+      <c r="P35" s="22"/>
+      <c r="R35" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="S35" s="8"/>
-      <c r="T35" s="8"/>
-      <c r="U35" s="8"/>
-      <c r="V35" s="8"/>
-      <c r="W35" s="8"/>
-      <c r="X35" s="8"/>
-      <c r="Y35" s="8"/>
+      <c r="S35" s="13"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="13"/>
+      <c r="V35" s="13"/>
+      <c r="W35" s="13"/>
+      <c r="X35" s="13"/>
+      <c r="Y35" s="13"/>
     </row>
     <row r="36" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="21"/>
-      <c r="M36" s="21"/>
-      <c r="N36" s="21"/>
-      <c r="O36" s="21"/>
-      <c r="P36" s="21"/>
-      <c r="R36" s="8"/>
-      <c r="S36" s="8"/>
-      <c r="T36" s="8"/>
-      <c r="U36" s="8"/>
-      <c r="V36" s="8"/>
-      <c r="W36" s="8"/>
-      <c r="X36" s="8"/>
-      <c r="Y36" s="8"/>
+      <c r="F36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="22"/>
+      <c r="O36" s="22"/>
+      <c r="P36" s="22"/>
+      <c r="R36" s="13"/>
+      <c r="S36" s="13"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="13"/>
+      <c r="V36" s="13"/>
+      <c r="W36" s="13"/>
+      <c r="X36" s="13"/>
+      <c r="Y36" s="13"/>
     </row>
     <row r="38" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F38" s="21">
+      <c r="F38" s="22">
         <v>13</v>
       </c>
-      <c r="H38" s="21" t="s">
+      <c r="H38" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="21"/>
-      <c r="M38" s="21"/>
-      <c r="N38" s="21"/>
-      <c r="O38" s="21"/>
-      <c r="P38" s="21"/>
-      <c r="R38" s="8" t="s">
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="22"/>
+      <c r="P38" s="22"/>
+      <c r="R38" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="S38" s="8"/>
-      <c r="T38" s="8"/>
-      <c r="U38" s="8"/>
-      <c r="V38" s="8"/>
-      <c r="W38" s="8"/>
-      <c r="X38" s="8"/>
-      <c r="Y38" s="8"/>
+      <c r="S38" s="13"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="13"/>
+      <c r="V38" s="13"/>
+      <c r="W38" s="13"/>
+      <c r="X38" s="13"/>
+      <c r="Y38" s="13"/>
     </row>
     <row r="39" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="21"/>
-      <c r="M39" s="21"/>
-      <c r="N39" s="21"/>
-      <c r="O39" s="21"/>
-      <c r="P39" s="21"/>
-      <c r="R39" s="8"/>
-      <c r="S39" s="8"/>
-      <c r="T39" s="8"/>
-      <c r="U39" s="8"/>
-      <c r="V39" s="8"/>
-      <c r="W39" s="8"/>
-      <c r="X39" s="8"/>
-      <c r="Y39" s="8"/>
+      <c r="F39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="22"/>
+      <c r="O39" s="22"/>
+      <c r="P39" s="22"/>
+      <c r="R39" s="13"/>
+      <c r="S39" s="13"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="13"/>
+      <c r="W39" s="13"/>
+      <c r="X39" s="13"/>
+      <c r="Y39" s="13"/>
     </row>
     <row r="41" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F41" s="21">
+      <c r="F41" s="22">
         <v>14</v>
       </c>
-      <c r="H41" s="21" t="s">
+      <c r="H41" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="I41" s="21"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="21"/>
-      <c r="L41" s="21"/>
-      <c r="M41" s="21"/>
-      <c r="N41" s="21"/>
-      <c r="O41" s="21"/>
-      <c r="P41" s="21"/>
-      <c r="R41" s="8" t="s">
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="22"/>
+      <c r="N41" s="22"/>
+      <c r="O41" s="22"/>
+      <c r="P41" s="22"/>
+      <c r="R41" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="S41" s="8"/>
-      <c r="T41" s="8"/>
-      <c r="U41" s="8"/>
-      <c r="V41" s="8"/>
-      <c r="W41" s="8"/>
-      <c r="X41" s="8"/>
-      <c r="Y41" s="8"/>
+      <c r="S41" s="13"/>
+      <c r="T41" s="13"/>
+      <c r="U41" s="13"/>
+      <c r="V41" s="13"/>
+      <c r="W41" s="13"/>
+      <c r="X41" s="13"/>
+      <c r="Y41" s="13"/>
     </row>
     <row r="42" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F42" s="21"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="21"/>
-      <c r="J42" s="21"/>
-      <c r="K42" s="21"/>
-      <c r="L42" s="21"/>
-      <c r="M42" s="21"/>
-      <c r="N42" s="21"/>
-      <c r="O42" s="21"/>
-      <c r="P42" s="21"/>
-      <c r="R42" s="8"/>
-      <c r="S42" s="8"/>
-      <c r="T42" s="8"/>
-      <c r="U42" s="8"/>
-      <c r="V42" s="8"/>
-      <c r="W42" s="8"/>
-      <c r="X42" s="8"/>
-      <c r="Y42" s="8"/>
+      <c r="F42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="22"/>
+      <c r="O42" s="22"/>
+      <c r="P42" s="22"/>
+      <c r="R42" s="13"/>
+      <c r="S42" s="13"/>
+      <c r="T42" s="13"/>
+      <c r="U42" s="13"/>
+      <c r="V42" s="13"/>
+      <c r="W42" s="13"/>
+      <c r="X42" s="13"/>
+      <c r="Y42" s="13"/>
     </row>
     <row r="44" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F44" s="21">
+      <c r="F44" s="22">
         <v>15</v>
       </c>
-      <c r="H44" s="21" t="s">
+      <c r="H44" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="I44" s="21"/>
-      <c r="J44" s="21"/>
-      <c r="K44" s="21"/>
-      <c r="L44" s="21"/>
-      <c r="M44" s="21"/>
-      <c r="N44" s="21"/>
-      <c r="O44" s="21"/>
-      <c r="P44" s="21"/>
-      <c r="R44" s="8" t="s">
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="22"/>
+      <c r="M44" s="22"/>
+      <c r="N44" s="22"/>
+      <c r="O44" s="22"/>
+      <c r="P44" s="22"/>
+      <c r="R44" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="S44" s="8"/>
-      <c r="T44" s="8"/>
-      <c r="U44" s="8"/>
-      <c r="V44" s="8"/>
-      <c r="W44" s="8"/>
-      <c r="X44" s="8"/>
-      <c r="Y44" s="8"/>
+      <c r="S44" s="13"/>
+      <c r="T44" s="13"/>
+      <c r="U44" s="13"/>
+      <c r="V44" s="13"/>
+      <c r="W44" s="13"/>
+      <c r="X44" s="13"/>
+      <c r="Y44" s="13"/>
     </row>
     <row r="45" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F45" s="21"/>
-      <c r="H45" s="21"/>
-      <c r="I45" s="21"/>
-      <c r="J45" s="21"/>
-      <c r="K45" s="21"/>
-      <c r="L45" s="21"/>
-      <c r="M45" s="21"/>
-      <c r="N45" s="21"/>
-      <c r="O45" s="21"/>
-      <c r="P45" s="21"/>
-      <c r="R45" s="8"/>
-      <c r="S45" s="8"/>
-      <c r="T45" s="8"/>
-      <c r="U45" s="8"/>
-      <c r="V45" s="8"/>
-      <c r="W45" s="8"/>
-      <c r="X45" s="8"/>
-      <c r="Y45" s="8"/>
+      <c r="F45" s="22"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="22"/>
+      <c r="M45" s="22"/>
+      <c r="N45" s="22"/>
+      <c r="O45" s="22"/>
+      <c r="P45" s="22"/>
+      <c r="R45" s="13"/>
+      <c r="S45" s="13"/>
+      <c r="T45" s="13"/>
+      <c r="U45" s="13"/>
+      <c r="V45" s="13"/>
+      <c r="W45" s="13"/>
+      <c r="X45" s="13"/>
+      <c r="Y45" s="13"/>
     </row>
     <row r="47" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F47" s="21">
+      <c r="F47" s="22">
         <v>16</v>
       </c>
-      <c r="H47" s="21" t="s">
+      <c r="H47" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="I47" s="21"/>
-      <c r="J47" s="21"/>
-      <c r="K47" s="21"/>
-      <c r="L47" s="21"/>
-      <c r="M47" s="21"/>
-      <c r="N47" s="21"/>
-      <c r="O47" s="21"/>
-      <c r="P47" s="21"/>
-      <c r="R47" s="8" t="s">
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="22"/>
+      <c r="M47" s="22"/>
+      <c r="N47" s="22"/>
+      <c r="O47" s="22"/>
+      <c r="P47" s="22"/>
+      <c r="R47" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="S47" s="8"/>
-      <c r="T47" s="8"/>
-      <c r="U47" s="8"/>
-      <c r="V47" s="8"/>
-      <c r="W47" s="8"/>
-      <c r="X47" s="8"/>
-      <c r="Y47" s="8"/>
+      <c r="S47" s="13"/>
+      <c r="T47" s="13"/>
+      <c r="U47" s="13"/>
+      <c r="V47" s="13"/>
+      <c r="W47" s="13"/>
+      <c r="X47" s="13"/>
+      <c r="Y47" s="13"/>
     </row>
     <row r="48" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F48" s="21"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="21"/>
-      <c r="J48" s="21"/>
-      <c r="K48" s="21"/>
-      <c r="L48" s="21"/>
-      <c r="M48" s="21"/>
-      <c r="N48" s="21"/>
-      <c r="O48" s="21"/>
-      <c r="P48" s="21"/>
-      <c r="R48" s="8"/>
-      <c r="S48" s="8"/>
-      <c r="T48" s="8"/>
-      <c r="U48" s="8"/>
-      <c r="V48" s="8"/>
-      <c r="W48" s="8"/>
-      <c r="X48" s="8"/>
-      <c r="Y48" s="8"/>
+      <c r="F48" s="22"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="22"/>
+      <c r="L48" s="22"/>
+      <c r="M48" s="22"/>
+      <c r="N48" s="22"/>
+      <c r="O48" s="22"/>
+      <c r="P48" s="22"/>
+      <c r="R48" s="13"/>
+      <c r="S48" s="13"/>
+      <c r="T48" s="13"/>
+      <c r="U48" s="13"/>
+      <c r="V48" s="13"/>
+      <c r="W48" s="13"/>
+      <c r="X48" s="13"/>
+      <c r="Y48" s="13"/>
     </row>
     <row r="50" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F50" s="21">
+      <c r="F50" s="22">
         <v>17</v>
       </c>
-      <c r="H50" s="21" t="s">
+      <c r="H50" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="I50" s="21"/>
-      <c r="J50" s="21"/>
-      <c r="K50" s="21"/>
-      <c r="L50" s="21"/>
-      <c r="M50" s="21"/>
-      <c r="N50" s="21"/>
-      <c r="O50" s="21"/>
-      <c r="P50" s="21"/>
-      <c r="R50" s="22" t="s">
+      <c r="I50" s="22"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="22"/>
+      <c r="L50" s="22"/>
+      <c r="M50" s="22"/>
+      <c r="N50" s="22"/>
+      <c r="O50" s="22"/>
+      <c r="P50" s="22"/>
+      <c r="R50" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="S50" s="22"/>
-      <c r="T50" s="22"/>
-      <c r="U50" s="22"/>
-      <c r="V50" s="22"/>
-      <c r="W50" s="22"/>
-      <c r="X50" s="22"/>
-      <c r="Y50" s="22"/>
+      <c r="S50" s="24"/>
+      <c r="T50" s="24"/>
+      <c r="U50" s="24"/>
+      <c r="V50" s="24"/>
+      <c r="W50" s="24"/>
+      <c r="X50" s="24"/>
+      <c r="Y50" s="24"/>
     </row>
     <row r="51" spans="6:25" x14ac:dyDescent="0.45">
-      <c r="F51" s="21"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="21"/>
-      <c r="J51" s="21"/>
-      <c r="K51" s="21"/>
-      <c r="L51" s="21"/>
-      <c r="M51" s="21"/>
-      <c r="N51" s="21"/>
-      <c r="O51" s="21"/>
-      <c r="P51" s="21"/>
-      <c r="R51" s="22"/>
-      <c r="S51" s="22"/>
-      <c r="T51" s="22"/>
-      <c r="U51" s="22"/>
-      <c r="V51" s="22"/>
-      <c r="W51" s="22"/>
-      <c r="X51" s="22"/>
-      <c r="Y51" s="22"/>
+      <c r="F51" s="22"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="22"/>
+      <c r="L51" s="22"/>
+      <c r="M51" s="22"/>
+      <c r="N51" s="22"/>
+      <c r="O51" s="22"/>
+      <c r="P51" s="22"/>
+      <c r="R51" s="24"/>
+      <c r="S51" s="24"/>
+      <c r="T51" s="24"/>
+      <c r="U51" s="24"/>
+      <c r="V51" s="24"/>
+      <c r="W51" s="24"/>
+      <c r="X51" s="24"/>
+      <c r="Y51" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="H2:P3"/>
-    <mergeCell ref="R2:Y3"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="H5:P6"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="H8:P9"/>
-    <mergeCell ref="R8:Y9"/>
-    <mergeCell ref="R5:Y6"/>
+    <mergeCell ref="H50:P51"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="R47:Y48"/>
+    <mergeCell ref="R50:Y51"/>
+    <mergeCell ref="H47:P48"/>
+    <mergeCell ref="H35:P36"/>
+    <mergeCell ref="H38:P39"/>
+    <mergeCell ref="H41:P42"/>
+    <mergeCell ref="H44:P45"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="R11:Y12"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="H32:P33"/>
+    <mergeCell ref="R32:Y33"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="H20:P21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="H23:P24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="R29:Y30"/>
+    <mergeCell ref="H26:P27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="H14:P15"/>
     <mergeCell ref="R35:Y36"/>
     <mergeCell ref="R38:Y39"/>
     <mergeCell ref="R41:Y42"/>
@@ -7182,32 +8140,14 @@
     <mergeCell ref="R14:Y15"/>
     <mergeCell ref="R17:Y18"/>
     <mergeCell ref="R26:Y27"/>
-    <mergeCell ref="R11:Y12"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="H32:P33"/>
-    <mergeCell ref="R32:Y33"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="H20:P21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="H23:P24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="R29:Y30"/>
-    <mergeCell ref="H26:P27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="H14:P15"/>
-    <mergeCell ref="H35:P36"/>
-    <mergeCell ref="H38:P39"/>
-    <mergeCell ref="H41:P42"/>
-    <mergeCell ref="H44:P45"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="H50:P51"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="R47:Y48"/>
-    <mergeCell ref="R50:Y51"/>
-    <mergeCell ref="H47:P48"/>
+    <mergeCell ref="H2:P3"/>
+    <mergeCell ref="R2:Y3"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="H5:P6"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="H8:P9"/>
+    <mergeCell ref="R8:Y9"/>
+    <mergeCell ref="R5:Y6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7217,7 +8157,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37E2DAFF-6BFF-4CB8-B294-DE59EA805260}">
   <dimension ref="C2:Y32"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="F5" workbookViewId="0">
       <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
@@ -7510,10 +8450,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6545F231-4984-4A79-BEF3-A3EF63664EF4}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7551,6 +8491,16 @@
         <v>112</v>
       </c>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D9" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D10" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1" xr:uid="{B992F774-780B-42DA-B7AF-2B67C6CEDC3F}"/>
@@ -7558,6 +8508,8 @@
     <hyperlink ref="D6" r:id="rId3" xr:uid="{7FB3D76B-E510-4E9B-9C88-0FDD66FC7A4A}"/>
     <hyperlink ref="D7" r:id="rId4" xr:uid="{D2939239-8CCD-4B2B-A7BA-9306A5F6A1C7}"/>
     <hyperlink ref="D8" r:id="rId5" xr:uid="{F82031BC-EA53-42DD-84AF-A41346196E0C}"/>
+    <hyperlink ref="D9" r:id="rId6" xr:uid="{84091A18-2DB6-477A-8663-FE31E1EB8615}"/>
+    <hyperlink ref="D10" r:id="rId7" xr:uid="{2E7316A2-DF4F-4E54-9031-4EBB9E0794B7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
